--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FJ69"/>
+  <dimension ref="A1:FJ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,7 +1201,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1703,7 +1703,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2205,7 +2205,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2707,7 +2707,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3209,7 +3209,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3711,7 +3711,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4213,7 +4213,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4715,7 +4715,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5217,7 +5217,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5719,7 +5719,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6221,7 +6221,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6723,7 +6723,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7225,7 +7225,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7727,7 +7727,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8229,7 +8229,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8731,7 +8731,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9233,7 +9233,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -9735,7 +9735,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10237,7 +10237,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10739,7 +10739,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11241,7 +11241,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11743,7 +11743,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12245,7 +12245,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12747,7 +12747,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -13249,7 +13249,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13751,7 +13751,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -14253,7 +14253,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -14755,7 +14755,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -15257,7 +15257,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -15759,7 +15759,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -16261,7 +16261,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -16763,7 +16763,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -17265,7 +17265,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -17767,7 +17767,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -18269,7 +18269,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -18771,7 +18771,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -19273,7 +19273,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -19775,7 +19775,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -20277,7 +20277,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -20779,7 +20779,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -21281,7 +21281,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -21783,7 +21783,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -22285,7 +22285,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -22787,7 +22787,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -23289,7 +23289,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -23791,7 +23791,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -24293,7 +24293,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -24795,7 +24795,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -25297,7 +25297,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -25799,7 +25799,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -26301,7 +26301,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -26803,7 +26803,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -27305,7 +27305,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -27807,7 +27807,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -28309,7 +28309,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -28811,7 +28811,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -29313,7 +29313,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -29815,7 +29815,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -30317,7 +30317,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -30819,7 +30819,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -31321,7 +31321,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -31823,7 +31823,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -32325,7 +32325,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -32827,7 +32827,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -33329,7 +33329,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -33831,7 +33831,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -34333,7 +34333,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -34835,7 +34835,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -34902,7 +34902,7 @@
         <v>25</v>
       </c>
       <c r="W69" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X69" t="n">
         <v>13</v>
@@ -34938,7 +34938,7 @@
         <v>9</v>
       </c>
       <c r="AI69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ69" t="n">
         <v>2</v>
@@ -35332,6 +35332,508 @@
       </c>
       <c r="FJ69" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>216</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>67</v>
+      </c>
+      <c r="G70" t="n">
+        <v>57</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10</v>
+      </c>
+      <c r="K70" t="n">
+        <v>22</v>
+      </c>
+      <c r="L70" t="n">
+        <v>15</v>
+      </c>
+      <c r="M70" t="n">
+        <v>17</v>
+      </c>
+      <c r="N70" t="n">
+        <v>50</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>19</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>30</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>35</v>
+      </c>
+      <c r="W70" t="n">
+        <v>22</v>
+      </c>
+      <c r="X70" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>388</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>639</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>165</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>44</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>26</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>37</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>84</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>168</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>205</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>137</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>27</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>60</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>2038</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>17</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>22</v>
+      </c>
+      <c r="CC70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE70" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH70" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI70" t="n">
+        <v>26</v>
+      </c>
+      <c r="CJ70" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK70" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL70" t="n">
+        <v>9</v>
+      </c>
+      <c r="CM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN70" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO70" t="n">
+        <v>55</v>
+      </c>
+      <c r="CP70" t="n">
+        <v>10</v>
+      </c>
+      <c r="CQ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS70" t="n">
+        <v>115</v>
+      </c>
+      <c r="CT70" t="n">
+        <v>33</v>
+      </c>
+      <c r="CU70" t="n">
+        <v>1807</v>
+      </c>
+      <c r="CV70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW70" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX70" t="n">
+        <v>11</v>
+      </c>
+      <c r="CY70" t="n">
+        <v>27</v>
+      </c>
+      <c r="CZ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA70" t="n">
+        <v>67</v>
+      </c>
+      <c r="DB70" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC70" t="n">
+        <v>7</v>
+      </c>
+      <c r="DD70" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE70" t="n">
+        <v>37</v>
+      </c>
+      <c r="DF70" t="n">
+        <v>112</v>
+      </c>
+      <c r="DG70" t="n">
+        <v>1281</v>
+      </c>
+      <c r="DH70" t="n">
+        <v>19</v>
+      </c>
+      <c r="DI70" t="n">
+        <v>12</v>
+      </c>
+      <c r="DJ70" t="n">
+        <v>5</v>
+      </c>
+      <c r="DK70" t="n">
+        <v>87</v>
+      </c>
+      <c r="DL70" t="n">
+        <v>4</v>
+      </c>
+      <c r="DM70" t="n">
+        <v>121</v>
+      </c>
+      <c r="DN70" t="n">
+        <v>19</v>
+      </c>
+      <c r="DO70" t="n">
+        <v>14</v>
+      </c>
+      <c r="DP70" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ70" t="n">
+        <v>10561</v>
+      </c>
+      <c r="DR70" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS70" t="n">
+        <v>36</v>
+      </c>
+      <c r="DT70" t="n">
+        <v>13</v>
+      </c>
+      <c r="DU70" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV70" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW70" t="n">
+        <v>47</v>
+      </c>
+      <c r="DX70" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY70" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA70" t="n">
+        <v>18</v>
+      </c>
+      <c r="EB70" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC70" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE70" t="n">
+        <v>28</v>
+      </c>
+      <c r="EF70" t="n">
+        <v>29</v>
+      </c>
+      <c r="EG70" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH70" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI70" t="n">
+        <v>42</v>
+      </c>
+      <c r="EJ70" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK70" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL70" t="n">
+        <v>340</v>
+      </c>
+      <c r="EM70" t="n">
+        <v>9</v>
+      </c>
+      <c r="EN70" t="n">
+        <v>36</v>
+      </c>
+      <c r="EO70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP70" t="n">
+        <v>13</v>
+      </c>
+      <c r="EQ70" t="n">
+        <v>53</v>
+      </c>
+      <c r="ER70" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES70" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET70" t="n">
+        <v>18</v>
+      </c>
+      <c r="EU70" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX70" t="n">
+        <v>46</v>
+      </c>
+      <c r="EY70" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ70" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA70" t="n">
+        <v>23</v>
+      </c>
+      <c r="FB70" t="n">
+        <v>9</v>
+      </c>
+      <c r="FC70" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE70" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF70" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG70" t="n">
+        <v>11</v>
+      </c>
+      <c r="FH70" t="n">
+        <v>22</v>
+      </c>
+      <c r="FI70" t="n">
+        <v>344</v>
+      </c>
+      <c r="FJ70" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FS74"/>
+  <dimension ref="A1:FT75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,90 +1154,95 @@
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
+          <t>TACARATU</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
           <t>TAMANDARE</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>TAQUARITINGA DO NORTE</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>TERRA NOVA</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>TIMBAUBA</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>TORITAMA</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>TRACUNHAEM</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>TRINDADE</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>TRIUNFO</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>TUPANATINGA</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>TUPARETAMA</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>VENTUROSA</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>VERDEJANTE</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>VERTENTE DO LERIO</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>VERTENTES</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>VICENCIA</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>VITORIA DE SANTO ANTAO</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>XEXEU</t>
         </is>
@@ -1246,7 +1251,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1769,13 +1774,16 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2298,13 +2306,16 @@
         <v>0</v>
       </c>
       <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2827,13 +2838,16 @@
         <v>0</v>
       </c>
       <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3356,13 +3370,16 @@
         <v>0</v>
       </c>
       <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3885,13 +3902,16 @@
         <v>0</v>
       </c>
       <c r="FS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4414,13 +4434,16 @@
         <v>0</v>
       </c>
       <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4943,13 +4966,16 @@
         <v>0</v>
       </c>
       <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5472,13 +5498,16 @@
         <v>0</v>
       </c>
       <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6001,13 +6030,16 @@
         <v>0</v>
       </c>
       <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6530,13 +6562,16 @@
         <v>0</v>
       </c>
       <c r="FS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7059,13 +7094,16 @@
         <v>0</v>
       </c>
       <c r="FS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7588,13 +7626,16 @@
         <v>0</v>
       </c>
       <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8117,13 +8158,16 @@
         <v>0</v>
       </c>
       <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8646,13 +8690,16 @@
         <v>0</v>
       </c>
       <c r="FS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9175,13 +9222,16 @@
         <v>0</v>
       </c>
       <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9704,13 +9754,16 @@
         <v>0</v>
       </c>
       <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10233,13 +10286,16 @@
         <v>0</v>
       </c>
       <c r="FS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10762,13 +10818,16 @@
         <v>0</v>
       </c>
       <c r="FS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11291,13 +11350,16 @@
         <v>0</v>
       </c>
       <c r="FS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11820,13 +11882,16 @@
         <v>0</v>
       </c>
       <c r="FS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12349,13 +12414,16 @@
         <v>0</v>
       </c>
       <c r="FS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12878,13 +12946,16 @@
         <v>0</v>
       </c>
       <c r="FS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -13407,13 +13478,16 @@
         <v>0</v>
       </c>
       <c r="FS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -13936,13 +14010,16 @@
         <v>0</v>
       </c>
       <c r="FS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -14465,13 +14542,16 @@
         <v>0</v>
       </c>
       <c r="FS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -14994,13 +15074,16 @@
         <v>0</v>
       </c>
       <c r="FS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -15484,10 +15567,10 @@
         <v>0</v>
       </c>
       <c r="FF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH28" t="n">
         <v>0</v>
@@ -15520,16 +15603,19 @@
         <v>0</v>
       </c>
       <c r="FR28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FS28" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -16013,10 +16099,10 @@
         <v>0</v>
       </c>
       <c r="FF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH29" t="n">
         <v>0</v>
@@ -16049,16 +16135,19 @@
         <v>0</v>
       </c>
       <c r="FR29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FS29" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -16542,10 +16631,10 @@
         <v>0</v>
       </c>
       <c r="FF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH30" t="n">
         <v>0</v>
@@ -16578,16 +16667,19 @@
         <v>0</v>
       </c>
       <c r="FR30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -17071,10 +17163,10 @@
         <v>0</v>
       </c>
       <c r="FF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH31" t="n">
         <v>0</v>
@@ -17107,16 +17199,19 @@
         <v>0</v>
       </c>
       <c r="FR31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FS31" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -17600,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="FF32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG32" t="n">
         <v>1</v>
@@ -17609,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="FI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ32" t="n">
         <v>0</v>
@@ -17636,16 +17731,19 @@
         <v>0</v>
       </c>
       <c r="FR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS32" t="n">
         <v>4</v>
       </c>
-      <c r="FS32" t="n">
+      <c r="FT32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -18129,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="FF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG33" t="n">
         <v>1</v>
@@ -18138,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="FI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ33" t="n">
         <v>0</v>
@@ -18165,16 +18263,19 @@
         <v>0</v>
       </c>
       <c r="FR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS33" t="n">
         <v>5</v>
       </c>
-      <c r="FS33" t="n">
+      <c r="FT33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -18658,7 +18759,7 @@
         <v>0</v>
       </c>
       <c r="FF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG34" t="n">
         <v>1</v>
@@ -18667,7 +18768,7 @@
         <v>1</v>
       </c>
       <c r="FI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ34" t="n">
         <v>0</v>
@@ -18694,16 +18795,19 @@
         <v>0</v>
       </c>
       <c r="FR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS34" t="n">
         <v>6</v>
       </c>
-      <c r="FS34" t="n">
+      <c r="FT34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -19187,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="FF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG35" t="n">
         <v>1</v>
@@ -19196,7 +19300,7 @@
         <v>1</v>
       </c>
       <c r="FI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ35" t="n">
         <v>0</v>
@@ -19223,16 +19327,19 @@
         <v>0</v>
       </c>
       <c r="FR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS35" t="n">
         <v>7</v>
       </c>
-      <c r="FS35" t="n">
+      <c r="FT35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -19716,22 +19823,22 @@
         <v>0</v>
       </c>
       <c r="FF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG36" t="n">
         <v>1</v>
       </c>
       <c r="FH36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL36" t="n">
         <v>0</v>
@@ -19752,16 +19859,19 @@
         <v>0</v>
       </c>
       <c r="FR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS36" t="n">
         <v>10</v>
       </c>
-      <c r="FS36" t="n">
+      <c r="FT36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -20245,22 +20355,22 @@
         <v>0</v>
       </c>
       <c r="FF37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FG37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FH37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL37" t="n">
         <v>0</v>
@@ -20281,16 +20391,19 @@
         <v>0</v>
       </c>
       <c r="FR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS37" t="n">
         <v>11</v>
       </c>
-      <c r="FS37" t="n">
+      <c r="FT37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -20774,22 +20887,22 @@
         <v>0</v>
       </c>
       <c r="FF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG38" t="n">
         <v>4</v>
       </c>
-      <c r="FG38" t="n">
-        <v>1</v>
-      </c>
       <c r="FH38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL38" t="n">
         <v>0</v>
@@ -20804,22 +20917,25 @@
         <v>0</v>
       </c>
       <c r="FP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS38" t="n">
         <v>15</v>
       </c>
-      <c r="FS38" t="n">
+      <c r="FT38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -21303,22 +21419,22 @@
         <v>0</v>
       </c>
       <c r="FF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG39" t="n">
         <v>4</v>
       </c>
-      <c r="FG39" t="n">
-        <v>1</v>
-      </c>
       <c r="FH39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL39" t="n">
         <v>0</v>
@@ -21333,22 +21449,25 @@
         <v>0</v>
       </c>
       <c r="FP39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS39" t="n">
         <v>20</v>
       </c>
-      <c r="FS39" t="n">
+      <c r="FT39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -21832,22 +21951,22 @@
         <v>0</v>
       </c>
       <c r="FF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG40" t="n">
         <v>4</v>
       </c>
-      <c r="FG40" t="n">
-        <v>1</v>
-      </c>
       <c r="FH40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL40" t="n">
         <v>0</v>
@@ -21862,22 +21981,25 @@
         <v>0</v>
       </c>
       <c r="FP40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS40" t="n">
         <v>22</v>
       </c>
-      <c r="FS40" t="n">
+      <c r="FT40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -22361,28 +22483,28 @@
         <v>0</v>
       </c>
       <c r="FF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG41" t="n">
         <v>4</v>
       </c>
-      <c r="FG41" t="n">
-        <v>1</v>
-      </c>
       <c r="FH41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FL41" t="n">
         <v>1</v>
       </c>
       <c r="FM41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN41" t="n">
         <v>0</v>
@@ -22391,22 +22513,25 @@
         <v>0</v>
       </c>
       <c r="FP41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ41" t="n">
         <v>1</v>
       </c>
       <c r="FR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS41" t="n">
         <v>25</v>
       </c>
-      <c r="FS41" t="n">
+      <c r="FT41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -22890,28 +23015,28 @@
         <v>0</v>
       </c>
       <c r="FF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG42" t="n">
         <v>4</v>
       </c>
-      <c r="FG42" t="n">
-        <v>1</v>
-      </c>
       <c r="FH42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FL42" t="n">
         <v>1</v>
       </c>
       <c r="FM42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN42" t="n">
         <v>0</v>
@@ -22920,22 +23045,25 @@
         <v>0</v>
       </c>
       <c r="FP42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ42" t="n">
         <v>1</v>
       </c>
       <c r="FR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS42" t="n">
         <v>26</v>
       </c>
-      <c r="FS42" t="n">
+      <c r="FT42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -23419,28 +23547,28 @@
         <v>0</v>
       </c>
       <c r="FF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG43" t="n">
         <v>5</v>
       </c>
-      <c r="FG43" t="n">
-        <v>1</v>
-      </c>
       <c r="FH43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FL43" t="n">
         <v>1</v>
       </c>
       <c r="FM43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN43" t="n">
         <v>0</v>
@@ -23449,22 +23577,25 @@
         <v>0</v>
       </c>
       <c r="FP43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ43" t="n">
         <v>1</v>
       </c>
       <c r="FR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS43" t="n">
         <v>30</v>
       </c>
-      <c r="FS43" t="n">
+      <c r="FT43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -23936,10 +24067,10 @@
         <v>0</v>
       </c>
       <c r="FB44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD44" t="n">
         <v>0</v>
@@ -23948,28 +24079,28 @@
         <v>0</v>
       </c>
       <c r="FF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG44" t="n">
         <v>5</v>
       </c>
-      <c r="FG44" t="n">
-        <v>1</v>
-      </c>
       <c r="FH44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN44" t="n">
         <v>0</v>
@@ -23978,22 +24109,25 @@
         <v>0</v>
       </c>
       <c r="FP44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ44" t="n">
         <v>1</v>
       </c>
       <c r="FR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS44" t="n">
         <v>36</v>
       </c>
-      <c r="FS44" t="n">
+      <c r="FT44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -24465,10 +24599,10 @@
         <v>0</v>
       </c>
       <c r="FB45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FD45" t="n">
         <v>0</v>
@@ -24477,28 +24611,28 @@
         <v>0</v>
       </c>
       <c r="FF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG45" t="n">
         <v>5</v>
       </c>
-      <c r="FG45" t="n">
-        <v>1</v>
-      </c>
       <c r="FH45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FJ45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FK45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN45" t="n">
         <v>0</v>
@@ -24507,22 +24641,25 @@
         <v>0</v>
       </c>
       <c r="FP45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS45" t="n">
         <v>44</v>
       </c>
-      <c r="FS45" t="n">
+      <c r="FT45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -24994,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="FB46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FD46" t="n">
         <v>0</v>
@@ -25006,52 +25143,55 @@
         <v>0</v>
       </c>
       <c r="FF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG46" t="n">
         <v>5</v>
       </c>
-      <c r="FG46" t="n">
-        <v>1</v>
-      </c>
       <c r="FH46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FJ46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FK46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM46" t="n">
         <v>1</v>
       </c>
       <c r="FN46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO46" t="n">
         <v>0</v>
       </c>
       <c r="FP46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FR46" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS46" t="n">
         <v>55</v>
       </c>
-      <c r="FS46" t="n">
+      <c r="FT46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -25523,25 +25663,25 @@
         <v>0</v>
       </c>
       <c r="FB47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FD47" t="n">
         <v>0</v>
       </c>
       <c r="FE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF47" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG47" t="n">
         <v>11</v>
       </c>
-      <c r="FG47" t="n">
-        <v>1</v>
-      </c>
       <c r="FH47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI47" t="n">
         <v>2</v>
@@ -25550,37 +25690,40 @@
         <v>2</v>
       </c>
       <c r="FK47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FN47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FO47" t="n">
         <v>0</v>
       </c>
       <c r="FP47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR47" t="n">
         <v>4</v>
       </c>
-      <c r="FR47" t="n">
+      <c r="FS47" t="n">
         <v>63</v>
       </c>
-      <c r="FS47" t="n">
+      <c r="FT47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -26052,25 +26195,25 @@
         <v>0</v>
       </c>
       <c r="FB48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FD48" t="n">
         <v>0</v>
       </c>
       <c r="FE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF48" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG48" t="n">
         <v>12</v>
       </c>
-      <c r="FG48" t="n">
-        <v>1</v>
-      </c>
       <c r="FH48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI48" t="n">
         <v>2</v>
@@ -26079,37 +26222,40 @@
         <v>2</v>
       </c>
       <c r="FK48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO48" t="n">
         <v>0</v>
       </c>
       <c r="FP48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR48" t="n">
         <v>5</v>
       </c>
-      <c r="FR48" t="n">
+      <c r="FS48" t="n">
         <v>66</v>
       </c>
-      <c r="FS48" t="n">
+      <c r="FT48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -26581,25 +26727,25 @@
         <v>0</v>
       </c>
       <c r="FB49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FD49" t="n">
         <v>0</v>
       </c>
       <c r="FE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF49" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG49" t="n">
         <v>12</v>
       </c>
-      <c r="FG49" t="n">
-        <v>1</v>
-      </c>
       <c r="FH49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI49" t="n">
         <v>2</v>
@@ -26608,37 +26754,40 @@
         <v>2</v>
       </c>
       <c r="FK49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO49" t="n">
         <v>0</v>
       </c>
       <c r="FP49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR49" t="n">
         <v>5</v>
       </c>
-      <c r="FR49" t="n">
+      <c r="FS49" t="n">
         <v>70</v>
       </c>
-      <c r="FS49" t="n">
+      <c r="FT49" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -27110,64 +27259,67 @@
         <v>0</v>
       </c>
       <c r="FB50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG50" t="n">
         <v>12</v>
       </c>
-      <c r="FG50" t="n">
-        <v>1</v>
-      </c>
       <c r="FH50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI50" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ50" t="n">
         <v>4</v>
       </c>
-      <c r="FJ50" t="n">
-        <v>2</v>
-      </c>
       <c r="FK50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO50" t="n">
         <v>0</v>
       </c>
       <c r="FP50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR50" t="n">
         <v>5</v>
       </c>
-      <c r="FR50" t="n">
+      <c r="FS50" t="n">
         <v>78</v>
       </c>
-      <c r="FS50" t="n">
+      <c r="FT50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -27639,64 +27791,67 @@
         <v>0</v>
       </c>
       <c r="FB51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF51" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG51" t="n">
         <v>13</v>
       </c>
-      <c r="FG51" t="n">
-        <v>1</v>
-      </c>
       <c r="FH51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI51" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ51" t="n">
         <v>4</v>
       </c>
-      <c r="FJ51" t="n">
-        <v>2</v>
-      </c>
       <c r="FK51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO51" t="n">
         <v>0</v>
       </c>
       <c r="FP51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR51" t="n">
         <v>6</v>
       </c>
-      <c r="FR51" t="n">
+      <c r="FS51" t="n">
         <v>92</v>
       </c>
-      <c r="FS51" t="n">
+      <c r="FT51" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -28168,64 +28323,67 @@
         <v>0</v>
       </c>
       <c r="FB52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG52" t="n">
         <v>14</v>
       </c>
-      <c r="FG52" t="n">
-        <v>1</v>
-      </c>
       <c r="FH52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ52" t="n">
         <v>4</v>
       </c>
-      <c r="FJ52" t="n">
-        <v>2</v>
-      </c>
       <c r="FK52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO52" t="n">
         <v>0</v>
       </c>
       <c r="FP52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR52" t="n">
         <v>6</v>
       </c>
-      <c r="FR52" t="n">
+      <c r="FS52" t="n">
         <v>97</v>
       </c>
-      <c r="FS52" t="n">
+      <c r="FT52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -28697,64 +28855,67 @@
         <v>0</v>
       </c>
       <c r="FB53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FC53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FD53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG53" t="n">
         <v>15</v>
       </c>
-      <c r="FG53" t="n">
-        <v>1</v>
-      </c>
       <c r="FH53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ53" t="n">
         <v>5</v>
       </c>
-      <c r="FJ53" t="n">
-        <v>2</v>
-      </c>
       <c r="FK53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO53" t="n">
         <v>0</v>
       </c>
       <c r="FP53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR53" t="n">
         <v>6</v>
       </c>
-      <c r="FR53" t="n">
+      <c r="FS53" t="n">
         <v>98</v>
       </c>
-      <c r="FS53" t="n">
+      <c r="FT53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -29226,64 +29387,67 @@
         <v>0</v>
       </c>
       <c r="FB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC54" t="n">
         <v>4</v>
       </c>
-      <c r="FC54" t="n">
-        <v>1</v>
-      </c>
       <c r="FD54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG54" t="n">
         <v>16</v>
       </c>
-      <c r="FG54" t="n">
-        <v>1</v>
-      </c>
       <c r="FH54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ54" t="n">
         <v>7</v>
       </c>
-      <c r="FJ54" t="n">
-        <v>2</v>
-      </c>
       <c r="FK54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO54" t="n">
         <v>0</v>
       </c>
       <c r="FP54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR54" t="n">
         <v>6</v>
       </c>
-      <c r="FR54" t="n">
+      <c r="FS54" t="n">
         <v>104</v>
       </c>
-      <c r="FS54" t="n">
+      <c r="FT54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -29755,64 +29919,67 @@
         <v>0</v>
       </c>
       <c r="FB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC55" t="n">
         <v>4</v>
       </c>
-      <c r="FC55" t="n">
-        <v>1</v>
-      </c>
       <c r="FD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG55" t="n">
         <v>16</v>
       </c>
-      <c r="FG55" t="n">
-        <v>1</v>
-      </c>
       <c r="FH55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ55" t="n">
         <v>7</v>
       </c>
-      <c r="FJ55" t="n">
-        <v>2</v>
-      </c>
       <c r="FK55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO55" t="n">
         <v>0</v>
       </c>
       <c r="FP55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR55" t="n">
         <v>6</v>
       </c>
-      <c r="FR55" t="n">
+      <c r="FS55" t="n">
         <v>105</v>
       </c>
-      <c r="FS55" t="n">
+      <c r="FT55" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -30284,64 +30451,67 @@
         <v>0</v>
       </c>
       <c r="FB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC56" t="n">
         <v>5</v>
       </c>
-      <c r="FC56" t="n">
-        <v>1</v>
-      </c>
       <c r="FD56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF56" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG56" t="n">
         <v>17</v>
       </c>
-      <c r="FG56" t="n">
-        <v>1</v>
-      </c>
       <c r="FH56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ56" t="n">
         <v>7</v>
       </c>
-      <c r="FJ56" t="n">
-        <v>2</v>
-      </c>
       <c r="FK56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO56" t="n">
         <v>0</v>
       </c>
       <c r="FP56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR56" t="n">
         <v>6</v>
       </c>
-      <c r="FR56" t="n">
+      <c r="FS56" t="n">
         <v>125</v>
       </c>
-      <c r="FS56" t="n">
+      <c r="FT56" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -30813,64 +30983,67 @@
         <v>0</v>
       </c>
       <c r="FB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC57" t="n">
         <v>6</v>
       </c>
-      <c r="FC57" t="n">
-        <v>1</v>
-      </c>
       <c r="FD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF57" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG57" t="n">
         <v>19</v>
       </c>
-      <c r="FG57" t="n">
-        <v>1</v>
-      </c>
       <c r="FH57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI57" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ57" t="n">
         <v>9</v>
       </c>
-      <c r="FJ57" t="n">
-        <v>2</v>
-      </c>
       <c r="FK57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FL57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO57" t="n">
         <v>0</v>
       </c>
       <c r="FP57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR57" t="n">
         <v>6</v>
       </c>
-      <c r="FR57" t="n">
+      <c r="FS57" t="n">
         <v>135</v>
       </c>
-      <c r="FS57" t="n">
+      <c r="FT57" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -31342,64 +31515,67 @@
         <v>0</v>
       </c>
       <c r="FB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC58" t="n">
         <v>8</v>
       </c>
-      <c r="FC58" t="n">
-        <v>1</v>
-      </c>
       <c r="FD58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF58" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG58" t="n">
         <v>23</v>
       </c>
-      <c r="FG58" t="n">
-        <v>1</v>
-      </c>
       <c r="FH58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI58" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ58" t="n">
         <v>10</v>
       </c>
-      <c r="FJ58" t="n">
-        <v>3</v>
-      </c>
       <c r="FK58" t="n">
         <v>3</v>
       </c>
       <c r="FL58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM58" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN58" t="n">
         <v>4</v>
       </c>
-      <c r="FN58" t="n">
-        <v>0</v>
-      </c>
       <c r="FO58" t="n">
         <v>0</v>
       </c>
       <c r="FP58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR58" t="n">
         <v>7</v>
       </c>
-      <c r="FR58" t="n">
+      <c r="FS58" t="n">
         <v>136</v>
       </c>
-      <c r="FS58" t="n">
+      <c r="FT58" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -31871,64 +32047,67 @@
         <v>0</v>
       </c>
       <c r="FB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC59" t="n">
         <v>9</v>
       </c>
-      <c r="FC59" t="n">
-        <v>1</v>
-      </c>
       <c r="FD59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF59" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG59" t="n">
         <v>23</v>
       </c>
-      <c r="FG59" t="n">
-        <v>1</v>
-      </c>
       <c r="FH59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ59" t="n">
         <v>10</v>
       </c>
-      <c r="FJ59" t="n">
+      <c r="FK59" t="n">
         <v>5</v>
       </c>
-      <c r="FK59" t="n">
-        <v>3</v>
-      </c>
       <c r="FL59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FM59" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN59" t="n">
         <v>4</v>
       </c>
-      <c r="FN59" t="n">
-        <v>0</v>
-      </c>
       <c r="FO59" t="n">
         <v>0</v>
       </c>
       <c r="FP59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FQ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR59" t="n">
         <v>9</v>
       </c>
-      <c r="FR59" t="n">
+      <c r="FS59" t="n">
         <v>145</v>
       </c>
-      <c r="FS59" t="n">
+      <c r="FT59" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -32400,64 +32579,67 @@
         <v>0</v>
       </c>
       <c r="FB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC60" t="n">
         <v>9</v>
       </c>
-      <c r="FC60" t="n">
-        <v>1</v>
-      </c>
       <c r="FD60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF60" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG60" t="n">
         <v>25</v>
       </c>
-      <c r="FG60" t="n">
-        <v>1</v>
-      </c>
       <c r="FH60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ60" t="n">
         <v>10</v>
-      </c>
-      <c r="FJ60" t="n">
-        <v>5</v>
       </c>
       <c r="FK60" t="n">
         <v>5</v>
       </c>
       <c r="FL60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FM60" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN60" t="n">
         <v>4</v>
       </c>
-      <c r="FN60" t="n">
-        <v>0</v>
-      </c>
       <c r="FO60" t="n">
         <v>0</v>
       </c>
       <c r="FP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ60" t="n">
         <v>4</v>
       </c>
-      <c r="FQ60" t="n">
+      <c r="FR60" t="n">
         <v>10</v>
       </c>
-      <c r="FR60" t="n">
+      <c r="FS60" t="n">
         <v>160</v>
       </c>
-      <c r="FS60" t="n">
+      <c r="FT60" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -32929,64 +33111,67 @@
         <v>0</v>
       </c>
       <c r="FB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC61" t="n">
         <v>10</v>
       </c>
-      <c r="FC61" t="n">
-        <v>2</v>
-      </c>
       <c r="FD61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FE61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF61" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG61" t="n">
         <v>26</v>
       </c>
-      <c r="FG61" t="n">
-        <v>2</v>
-      </c>
       <c r="FH61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ61" t="n">
         <v>10</v>
-      </c>
-      <c r="FJ61" t="n">
-        <v>5</v>
       </c>
       <c r="FK61" t="n">
         <v>5</v>
       </c>
       <c r="FL61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FM61" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN61" t="n">
         <v>4</v>
       </c>
-      <c r="FN61" t="n">
-        <v>0</v>
-      </c>
       <c r="FO61" t="n">
         <v>0</v>
       </c>
       <c r="FP61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ61" t="n">
         <v>4</v>
       </c>
-      <c r="FQ61" t="n">
+      <c r="FR61" t="n">
         <v>11</v>
       </c>
-      <c r="FR61" t="n">
+      <c r="FS61" t="n">
         <v>167</v>
       </c>
-      <c r="FS61" t="n">
+      <c r="FT61" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -33458,64 +33643,67 @@
         <v>0</v>
       </c>
       <c r="FB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC62" t="n">
         <v>10</v>
       </c>
-      <c r="FC62" t="n">
-        <v>2</v>
-      </c>
       <c r="FD62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FE62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF62" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG62" t="n">
         <v>27</v>
       </c>
-      <c r="FG62" t="n">
-        <v>2</v>
-      </c>
       <c r="FH62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI62" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ62" t="n">
         <v>10</v>
       </c>
-      <c r="FJ62" t="n">
+      <c r="FK62" t="n">
         <v>6</v>
       </c>
-      <c r="FK62" t="n">
+      <c r="FL62" t="n">
         <v>5</v>
       </c>
-      <c r="FL62" t="n">
-        <v>1</v>
-      </c>
       <c r="FM62" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN62" t="n">
         <v>4</v>
       </c>
-      <c r="FN62" t="n">
-        <v>0</v>
-      </c>
       <c r="FO62" t="n">
         <v>0</v>
       </c>
       <c r="FP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ62" t="n">
         <v>4</v>
       </c>
-      <c r="FQ62" t="n">
+      <c r="FR62" t="n">
         <v>11</v>
       </c>
-      <c r="FR62" t="n">
+      <c r="FS62" t="n">
         <v>173</v>
       </c>
-      <c r="FS62" t="n">
+      <c r="FT62" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -33987,64 +34175,67 @@
         <v>0</v>
       </c>
       <c r="FB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC63" t="n">
         <v>13</v>
       </c>
-      <c r="FC63" t="n">
-        <v>2</v>
-      </c>
       <c r="FD63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FE63" t="n">
         <v>1</v>
       </c>
       <c r="FF63" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG63" t="n">
         <v>27</v>
       </c>
-      <c r="FG63" t="n">
-        <v>2</v>
-      </c>
       <c r="FH63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI63" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ63" t="n">
         <v>12</v>
       </c>
-      <c r="FJ63" t="n">
+      <c r="FK63" t="n">
         <v>6</v>
       </c>
-      <c r="FK63" t="n">
+      <c r="FL63" t="n">
         <v>5</v>
       </c>
-      <c r="FL63" t="n">
-        <v>1</v>
-      </c>
       <c r="FM63" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN63" t="n">
         <v>4</v>
       </c>
-      <c r="FN63" t="n">
-        <v>0</v>
-      </c>
       <c r="FO63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP63" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ63" t="n">
         <v>7</v>
       </c>
-      <c r="FQ63" t="n">
+      <c r="FR63" t="n">
         <v>12</v>
       </c>
-      <c r="FR63" t="n">
+      <c r="FS63" t="n">
         <v>179</v>
       </c>
-      <c r="FS63" t="n">
+      <c r="FT63" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -34516,64 +34707,67 @@
         <v>0</v>
       </c>
       <c r="FB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC64" t="n">
         <v>13</v>
       </c>
-      <c r="FC64" t="n">
-        <v>2</v>
-      </c>
       <c r="FD64" t="n">
         <v>2</v>
       </c>
       <c r="FE64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF64" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG64" t="n">
         <v>29</v>
       </c>
-      <c r="FG64" t="n">
-        <v>2</v>
-      </c>
       <c r="FH64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI64" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ64" t="n">
         <v>12</v>
       </c>
-      <c r="FJ64" t="n">
+      <c r="FK64" t="n">
         <v>6</v>
       </c>
-      <c r="FK64" t="n">
+      <c r="FL64" t="n">
         <v>5</v>
       </c>
-      <c r="FL64" t="n">
-        <v>1</v>
-      </c>
       <c r="FM64" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN64" t="n">
         <v>4</v>
       </c>
-      <c r="FN64" t="n">
-        <v>0</v>
-      </c>
       <c r="FO64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP64" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ64" t="n">
         <v>7</v>
       </c>
-      <c r="FQ64" t="n">
+      <c r="FR64" t="n">
         <v>13</v>
       </c>
-      <c r="FR64" t="n">
+      <c r="FS64" t="n">
         <v>190</v>
       </c>
-      <c r="FS64" t="n">
+      <c r="FT64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -35045,64 +35239,67 @@
         <v>0</v>
       </c>
       <c r="FB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC65" t="n">
         <v>14</v>
       </c>
-      <c r="FC65" t="n">
-        <v>2</v>
-      </c>
       <c r="FD65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FE65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF65" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG65" t="n">
         <v>29</v>
       </c>
-      <c r="FG65" t="n">
-        <v>2</v>
-      </c>
       <c r="FH65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ65" t="n">
         <v>12</v>
       </c>
-      <c r="FJ65" t="n">
+      <c r="FK65" t="n">
         <v>6</v>
       </c>
-      <c r="FK65" t="n">
+      <c r="FL65" t="n">
         <v>5</v>
       </c>
-      <c r="FL65" t="n">
-        <v>1</v>
-      </c>
       <c r="FM65" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN65" t="n">
         <v>4</v>
       </c>
-      <c r="FN65" t="n">
-        <v>0</v>
-      </c>
       <c r="FO65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP65" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ65" t="n">
         <v>7</v>
       </c>
-      <c r="FQ65" t="n">
+      <c r="FR65" t="n">
         <v>14</v>
       </c>
-      <c r="FR65" t="n">
+      <c r="FS65" t="n">
         <v>205</v>
       </c>
-      <c r="FS65" t="n">
+      <c r="FT65" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -35574,64 +35771,67 @@
         <v>0</v>
       </c>
       <c r="FB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC66" t="n">
         <v>15</v>
       </c>
-      <c r="FC66" t="n">
-        <v>3</v>
-      </c>
       <c r="FD66" t="n">
         <v>3</v>
       </c>
       <c r="FE66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF66" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG66" t="n">
         <v>31</v>
       </c>
-      <c r="FG66" t="n">
-        <v>2</v>
-      </c>
       <c r="FH66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ66" t="n">
         <v>12</v>
       </c>
-      <c r="FJ66" t="n">
+      <c r="FK66" t="n">
         <v>7</v>
       </c>
-      <c r="FK66" t="n">
+      <c r="FL66" t="n">
         <v>5</v>
       </c>
-      <c r="FL66" t="n">
-        <v>1</v>
-      </c>
       <c r="FM66" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN66" t="n">
         <v>4</v>
       </c>
-      <c r="FN66" t="n">
-        <v>0</v>
-      </c>
       <c r="FO66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ66" t="n">
         <v>7</v>
       </c>
-      <c r="FQ66" t="n">
+      <c r="FR66" t="n">
         <v>14</v>
       </c>
-      <c r="FR66" t="n">
+      <c r="FS66" t="n">
         <v>226</v>
       </c>
-      <c r="FS66" t="n">
+      <c r="FT66" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -36103,64 +36303,67 @@
         <v>0</v>
       </c>
       <c r="FB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC67" t="n">
         <v>18</v>
       </c>
-      <c r="FC67" t="n">
-        <v>3</v>
-      </c>
       <c r="FD67" t="n">
         <v>3</v>
       </c>
       <c r="FE67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG67" t="n">
         <v>38</v>
       </c>
-      <c r="FG67" t="n">
-        <v>2</v>
-      </c>
       <c r="FH67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI67" t="n">
         <v>5</v>
       </c>
-      <c r="FI67" t="n">
+      <c r="FJ67" t="n">
         <v>17</v>
       </c>
-      <c r="FJ67" t="n">
+      <c r="FK67" t="n">
         <v>8</v>
       </c>
-      <c r="FK67" t="n">
+      <c r="FL67" t="n">
         <v>5</v>
       </c>
-      <c r="FL67" t="n">
-        <v>1</v>
-      </c>
       <c r="FM67" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN67" t="n">
         <v>4</v>
       </c>
-      <c r="FN67" t="n">
-        <v>0</v>
-      </c>
       <c r="FO67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ67" t="n">
         <v>10</v>
       </c>
-      <c r="FQ67" t="n">
+      <c r="FR67" t="n">
         <v>18</v>
       </c>
-      <c r="FR67" t="n">
+      <c r="FS67" t="n">
         <v>279</v>
       </c>
-      <c r="FS67" t="n">
+      <c r="FT67" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -36632,64 +36835,67 @@
         <v>0</v>
       </c>
       <c r="FB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC68" t="n">
         <v>18</v>
       </c>
-      <c r="FC68" t="n">
-        <v>3</v>
-      </c>
       <c r="FD68" t="n">
         <v>3</v>
       </c>
       <c r="FE68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG68" t="n">
         <v>40</v>
       </c>
-      <c r="FG68" t="n">
-        <v>2</v>
-      </c>
       <c r="FH68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI68" t="n">
         <v>6</v>
       </c>
-      <c r="FI68" t="n">
+      <c r="FJ68" t="n">
         <v>18</v>
       </c>
-      <c r="FJ68" t="n">
+      <c r="FK68" t="n">
         <v>9</v>
       </c>
-      <c r="FK68" t="n">
+      <c r="FL68" t="n">
         <v>6</v>
       </c>
-      <c r="FL68" t="n">
-        <v>1</v>
-      </c>
       <c r="FM68" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN68" t="n">
         <v>4</v>
       </c>
-      <c r="FN68" t="n">
-        <v>0</v>
-      </c>
       <c r="FO68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ68" t="n">
         <v>10</v>
       </c>
-      <c r="FQ68" t="n">
+      <c r="FR68" t="n">
         <v>19</v>
       </c>
-      <c r="FR68" t="n">
+      <c r="FS68" t="n">
         <v>318</v>
       </c>
-      <c r="FS68" t="n">
+      <c r="FT68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -37161,64 +37367,67 @@
         <v>0</v>
       </c>
       <c r="FB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC69" t="n">
         <v>18</v>
       </c>
-      <c r="FC69" t="n">
+      <c r="FD69" t="n">
         <v>4</v>
       </c>
-      <c r="FD69" t="n">
-        <v>3</v>
-      </c>
       <c r="FE69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF69" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG69" t="n">
         <v>43</v>
       </c>
-      <c r="FG69" t="n">
-        <v>2</v>
-      </c>
       <c r="FH69" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI69" t="n">
         <v>6</v>
       </c>
-      <c r="FI69" t="n">
+      <c r="FJ69" t="n">
         <v>18</v>
       </c>
-      <c r="FJ69" t="n">
+      <c r="FK69" t="n">
         <v>9</v>
       </c>
-      <c r="FK69" t="n">
+      <c r="FL69" t="n">
         <v>6</v>
       </c>
-      <c r="FL69" t="n">
-        <v>1</v>
-      </c>
       <c r="FM69" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN69" t="n">
         <v>4</v>
       </c>
-      <c r="FN69" t="n">
-        <v>0</v>
-      </c>
       <c r="FO69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ69" t="n">
         <v>11</v>
       </c>
-      <c r="FQ69" t="n">
+      <c r="FR69" t="n">
         <v>20</v>
       </c>
-      <c r="FR69" t="n">
+      <c r="FS69" t="n">
         <v>326</v>
       </c>
-      <c r="FS69" t="n">
+      <c r="FT69" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -37690,64 +37899,67 @@
         <v>0</v>
       </c>
       <c r="FB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC70" t="n">
         <v>18</v>
       </c>
-      <c r="FC70" t="n">
+      <c r="FD70" t="n">
         <v>4</v>
       </c>
-      <c r="FD70" t="n">
-        <v>3</v>
-      </c>
       <c r="FE70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG70" t="n">
         <v>46</v>
       </c>
-      <c r="FG70" t="n">
-        <v>2</v>
-      </c>
       <c r="FH70" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI70" t="n">
         <v>7</v>
       </c>
-      <c r="FI70" t="n">
+      <c r="FJ70" t="n">
         <v>23</v>
       </c>
-      <c r="FJ70" t="n">
+      <c r="FK70" t="n">
         <v>9</v>
       </c>
-      <c r="FK70" t="n">
+      <c r="FL70" t="n">
         <v>10</v>
       </c>
-      <c r="FL70" t="n">
-        <v>1</v>
-      </c>
       <c r="FM70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN70" t="n">
         <v>4</v>
       </c>
-      <c r="FN70" t="n">
-        <v>0</v>
-      </c>
       <c r="FO70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP70" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ70" t="n">
         <v>11</v>
       </c>
-      <c r="FQ70" t="n">
+      <c r="FR70" t="n">
         <v>22</v>
       </c>
-      <c r="FR70" t="n">
+      <c r="FS70" t="n">
         <v>344</v>
       </c>
-      <c r="FS70" t="n">
+      <c r="FT70" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -38219,64 +38431,67 @@
         <v>0</v>
       </c>
       <c r="FB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC71" t="n">
         <v>18</v>
       </c>
-      <c r="FC71" t="n">
+      <c r="FD71" t="n">
         <v>5</v>
       </c>
-      <c r="FD71" t="n">
-        <v>3</v>
-      </c>
       <c r="FE71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF71" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG71" t="n">
         <v>49</v>
       </c>
-      <c r="FG71" t="n">
+      <c r="FH71" t="n">
         <v>5</v>
       </c>
-      <c r="FH71" t="n">
+      <c r="FI71" t="n">
         <v>9</v>
       </c>
-      <c r="FI71" t="n">
+      <c r="FJ71" t="n">
         <v>32</v>
       </c>
-      <c r="FJ71" t="n">
+      <c r="FK71" t="n">
         <v>9</v>
       </c>
-      <c r="FK71" t="n">
+      <c r="FL71" t="n">
         <v>10</v>
       </c>
-      <c r="FL71" t="n">
-        <v>1</v>
-      </c>
       <c r="FM71" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN71" t="n">
         <v>4</v>
       </c>
-      <c r="FN71" t="n">
-        <v>0</v>
-      </c>
       <c r="FO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP71" t="n">
         <v>4</v>
       </c>
-      <c r="FP71" t="n">
+      <c r="FQ71" t="n">
         <v>11</v>
       </c>
-      <c r="FQ71" t="n">
+      <c r="FR71" t="n">
         <v>22</v>
       </c>
-      <c r="FR71" t="n">
+      <c r="FS71" t="n">
         <v>385</v>
       </c>
-      <c r="FS71" t="n">
+      <c r="FT71" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -38748,68 +38963,71 @@
         <v>0</v>
       </c>
       <c r="FB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC72" t="n">
         <v>21</v>
       </c>
-      <c r="FC72" t="n">
+      <c r="FD72" t="n">
         <v>5</v>
       </c>
-      <c r="FD72" t="n">
-        <v>3</v>
-      </c>
       <c r="FE72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF72" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG72" t="n">
         <v>54</v>
       </c>
-      <c r="FG72" t="n">
+      <c r="FH72" t="n">
         <v>6</v>
       </c>
-      <c r="FH72" t="n">
+      <c r="FI72" t="n">
         <v>10</v>
       </c>
-      <c r="FI72" t="n">
+      <c r="FJ72" t="n">
         <v>41</v>
       </c>
-      <c r="FJ72" t="n">
+      <c r="FK72" t="n">
         <v>9</v>
       </c>
-      <c r="FK72" t="n">
+      <c r="FL72" t="n">
         <v>14</v>
       </c>
-      <c r="FL72" t="n">
-        <v>3</v>
-      </c>
       <c r="FM72" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN72" t="n">
         <v>4</v>
       </c>
-      <c r="FN72" t="n">
-        <v>0</v>
-      </c>
       <c r="FO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP72" t="n">
         <v>4</v>
       </c>
-      <c r="FP72" t="n">
+      <c r="FQ72" t="n">
         <v>12</v>
       </c>
-      <c r="FQ72" t="n">
+      <c r="FR72" t="n">
         <v>25</v>
       </c>
-      <c r="FR72" t="n">
+      <c r="FS72" t="n">
         <v>394</v>
       </c>
-      <c r="FS72" t="n">
+      <c r="FT72" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C73" t="n">
         <v>6</v>
@@ -38821,43 +39039,43 @@
         <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G73" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J73" t="n">
         <v>11</v>
       </c>
       <c r="K73" t="n">
+        <v>25</v>
+      </c>
+      <c r="L73" t="n">
+        <v>26</v>
+      </c>
+      <c r="M73" t="n">
         <v>23</v>
       </c>
-      <c r="L73" t="n">
-        <v>20</v>
-      </c>
-      <c r="M73" t="n">
-        <v>19</v>
-      </c>
       <c r="N73" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>8</v>
       </c>
       <c r="P73" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S73" t="n">
         <v>4</v>
@@ -38869,25 +39087,25 @@
         <v>3</v>
       </c>
       <c r="V73" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W73" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X73" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y73" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z73" t="n">
         <v>9</v>
       </c>
       <c r="AA73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="AC73" t="n">
         <v>3</v>
@@ -38902,37 +39120,37 @@
         <v>1</v>
       </c>
       <c r="AG73" t="n">
-        <v>697</v>
+        <v>747</v>
       </c>
       <c r="AH73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI73" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>213</v>
+      </c>
+      <c r="AP73" t="n">
         <v>4</v>
       </c>
-      <c r="AL73" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>66</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>202</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>3</v>
-      </c>
       <c r="AQ73" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AR73" t="n">
         <v>2</v>
@@ -38941,37 +39159,37 @@
         <v>44</v>
       </c>
       <c r="AT73" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU73" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AV73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX73" t="n">
         <v>17</v>
       </c>
       <c r="AY73" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BA73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BC73" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="BD73" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="BE73" t="n">
         <v>36</v>
@@ -38986,34 +39204,34 @@
         <v>38</v>
       </c>
       <c r="BI73" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BJ73" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="BK73" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BL73" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="BM73" t="n">
         <v>1</v>
       </c>
       <c r="BN73" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BO73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP73" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BQ73" t="n">
         <v>1</v>
       </c>
       <c r="BR73" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BS73" t="n">
         <v>2</v>
@@ -39028,46 +39246,46 @@
         <v>2</v>
       </c>
       <c r="BW73" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BX73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BY73" t="n">
         <v>7</v>
       </c>
       <c r="BZ73" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="CA73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CB73" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CC73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD73" t="n">
-        <v>2282</v>
+        <v>2421</v>
       </c>
       <c r="CE73" t="n">
         <v>20</v>
       </c>
       <c r="CF73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CG73" t="n">
         <v>2</v>
       </c>
       <c r="CH73" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CI73" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CJ73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK73" t="n">
         <v>2</v>
@@ -39076,46 +39294,46 @@
         <v>11</v>
       </c>
       <c r="CM73" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CN73" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CO73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP73" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="CQ73" t="n">
         <v>5</v>
       </c>
       <c r="CR73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS73" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="CT73" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CU73" t="n">
         <v>10</v>
       </c>
       <c r="CV73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW73" t="n">
         <v>0</v>
       </c>
       <c r="CX73" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="CY73" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CZ73" t="n">
-        <v>1996</v>
+        <v>2116</v>
       </c>
       <c r="DA73" t="n">
         <v>3</v>
@@ -39127,94 +39345,94 @@
         <v>14</v>
       </c>
       <c r="DD73" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="DE73" t="n">
         <v>3</v>
       </c>
       <c r="DF73" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="DG73" t="n">
         <v>4</v>
       </c>
       <c r="DH73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DI73" t="n">
         <v>3</v>
       </c>
       <c r="DJ73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DK73" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DL73" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="DM73" t="n">
-        <v>1417</v>
+        <v>1504</v>
       </c>
       <c r="DN73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DO73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DP73" t="n">
+        <v>7</v>
+      </c>
+      <c r="DQ73" t="n">
+        <v>112</v>
+      </c>
+      <c r="DR73" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS73" t="n">
+        <v>139</v>
+      </c>
+      <c r="DT73" t="n">
+        <v>32</v>
+      </c>
+      <c r="DU73" t="n">
+        <v>16</v>
+      </c>
+      <c r="DV73" t="n">
         <v>6</v>
       </c>
-      <c r="DQ73" t="n">
-        <v>107</v>
-      </c>
-      <c r="DR73" t="n">
+      <c r="DW73" t="n">
+        <v>12523</v>
+      </c>
+      <c r="DX73" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY73" t="n">
+        <v>51</v>
+      </c>
+      <c r="DZ73" t="n">
+        <v>16</v>
+      </c>
+      <c r="EA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC73" t="n">
+        <v>56</v>
+      </c>
+      <c r="ED73" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE73" t="n">
         <v>5</v>
       </c>
-      <c r="DS73" t="n">
-        <v>137</v>
-      </c>
-      <c r="DT73" t="n">
-        <v>30</v>
-      </c>
-      <c r="DU73" t="n">
-        <v>15</v>
-      </c>
-      <c r="DV73" t="n">
-        <v>4</v>
-      </c>
-      <c r="DW73" t="n">
-        <v>11584</v>
-      </c>
-      <c r="DX73" t="n">
-        <v>3</v>
-      </c>
-      <c r="DY73" t="n">
-        <v>44</v>
-      </c>
-      <c r="DZ73" t="n">
-        <v>14</v>
-      </c>
-      <c r="EA73" t="n">
-        <v>3</v>
-      </c>
-      <c r="EB73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC73" t="n">
-        <v>50</v>
-      </c>
-      <c r="ED73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE73" t="n">
-        <v>4</v>
-      </c>
       <c r="EF73" t="n">
         <v>2</v>
       </c>
       <c r="EG73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EH73" t="n">
         <v>19</v>
@@ -39226,7 +39444,7 @@
         <v>3</v>
       </c>
       <c r="EK73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL73" t="n">
         <v>32</v>
@@ -39235,106 +39453,109 @@
         <v>34</v>
       </c>
       <c r="EN73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EO73" t="n">
         <v>14</v>
       </c>
       <c r="EP73" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="EQ73" t="n">
         <v>5</v>
       </c>
       <c r="ER73" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES73" t="n">
+        <v>393</v>
+      </c>
+      <c r="ET73" t="n">
+        <v>11</v>
+      </c>
+      <c r="EU73" t="n">
+        <v>68</v>
+      </c>
+      <c r="EV73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW73" t="n">
+        <v>17</v>
+      </c>
+      <c r="EX73" t="n">
+        <v>86</v>
+      </c>
+      <c r="EY73" t="n">
+        <v>24</v>
+      </c>
+      <c r="EZ73" t="n">
         <v>9</v>
       </c>
-      <c r="ES73" t="n">
-        <v>365</v>
-      </c>
-      <c r="ET73" t="n">
-        <v>9</v>
-      </c>
-      <c r="EU73" t="n">
-        <v>49</v>
-      </c>
-      <c r="EV73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW73" t="n">
+      <c r="FA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC73" t="n">
+        <v>26</v>
+      </c>
+      <c r="FD73" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE73" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF73" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG73" t="n">
+        <v>54</v>
+      </c>
+      <c r="FH73" t="n">
+        <v>6</v>
+      </c>
+      <c r="FI73" t="n">
+        <v>11</v>
+      </c>
+      <c r="FJ73" t="n">
+        <v>44</v>
+      </c>
+      <c r="FK73" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL73" t="n">
         <v>14</v>
       </c>
-      <c r="EX73" t="n">
-        <v>64</v>
-      </c>
-      <c r="EY73" t="n">
-        <v>21</v>
-      </c>
-      <c r="EZ73" t="n">
-        <v>8</v>
-      </c>
-      <c r="FA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB73" t="n">
-        <v>21</v>
-      </c>
-      <c r="FC73" t="n">
-        <v>5</v>
-      </c>
-      <c r="FD73" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF73" t="n">
-        <v>54</v>
-      </c>
-      <c r="FG73" t="n">
-        <v>6</v>
-      </c>
-      <c r="FH73" t="n">
-        <v>10</v>
-      </c>
-      <c r="FI73" t="n">
-        <v>41</v>
-      </c>
-      <c r="FJ73" t="n">
-        <v>9</v>
-      </c>
-      <c r="FK73" t="n">
-        <v>14</v>
-      </c>
-      <c r="FL73" t="n">
-        <v>3</v>
-      </c>
       <c r="FM73" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN73" t="n">
         <v>4</v>
       </c>
-      <c r="FN73" t="n">
-        <v>0</v>
-      </c>
       <c r="FO73" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP73" t="n">
         <v>4</v>
       </c>
-      <c r="FP73" t="n">
+      <c r="FQ73" t="n">
         <v>12</v>
       </c>
-      <c r="FQ73" t="n">
-        <v>25</v>
-      </c>
       <c r="FR73" t="n">
-        <v>394</v>
+        <v>26</v>
       </c>
       <c r="FS73" t="n">
+        <v>427</v>
+      </c>
+      <c r="FT73" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -39806,58 +40027,593 @@
         <v>1</v>
       </c>
       <c r="FB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC74" t="n">
         <v>31</v>
       </c>
-      <c r="FC74" t="n">
+      <c r="FD74" t="n">
         <v>5</v>
       </c>
-      <c r="FD74" t="n">
-        <v>3</v>
-      </c>
       <c r="FE74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FF74" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG74" t="n">
         <v>57</v>
       </c>
-      <c r="FG74" t="n">
+      <c r="FH74" t="n">
         <v>8</v>
       </c>
-      <c r="FH74" t="n">
+      <c r="FI74" t="n">
         <v>11</v>
       </c>
-      <c r="FI74" t="n">
+      <c r="FJ74" t="n">
         <v>46</v>
       </c>
-      <c r="FJ74" t="n">
+      <c r="FK74" t="n">
         <v>17</v>
       </c>
-      <c r="FK74" t="n">
+      <c r="FL74" t="n">
         <v>16</v>
       </c>
-      <c r="FL74" t="n">
-        <v>3</v>
-      </c>
       <c r="FM74" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN74" t="n">
         <v>4</v>
       </c>
-      <c r="FN74" t="n">
-        <v>1</v>
-      </c>
       <c r="FO74" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP74" t="n">
         <v>4</v>
       </c>
-      <c r="FP74" t="n">
+      <c r="FQ74" t="n">
         <v>12</v>
       </c>
-      <c r="FQ74" t="n">
+      <c r="FR74" t="n">
         <v>29</v>
       </c>
-      <c r="FR74" t="n">
+      <c r="FS74" t="n">
         <v>442</v>
       </c>
-      <c r="FS74" t="n">
+      <c r="FT74" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>271</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F75" t="n">
+        <v>149</v>
+      </c>
+      <c r="G75" t="n">
+        <v>130</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+      <c r="I75" t="n">
+        <v>51</v>
+      </c>
+      <c r="J75" t="n">
+        <v>13</v>
+      </c>
+      <c r="K75" t="n">
+        <v>30</v>
+      </c>
+      <c r="L75" t="n">
+        <v>26</v>
+      </c>
+      <c r="M75" t="n">
+        <v>32</v>
+      </c>
+      <c r="N75" t="n">
+        <v>85</v>
+      </c>
+      <c r="O75" t="n">
+        <v>12</v>
+      </c>
+      <c r="P75" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>26</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="n">
+        <v>32</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>54</v>
+      </c>
+      <c r="W75" t="n">
+        <v>29</v>
+      </c>
+      <c r="X75" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>495</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>791</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>265</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>66</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>48</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>58</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>46</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>103</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>42</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>38</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>133</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>227</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>79</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>21</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>246</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>43</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>170</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>18</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>11</v>
+      </c>
+      <c r="CB75" t="n">
+        <v>71</v>
+      </c>
+      <c r="CC75" t="n">
+        <v>28</v>
+      </c>
+      <c r="CD75" t="n">
+        <v>2594</v>
+      </c>
+      <c r="CE75" t="n">
+        <v>24</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>43</v>
+      </c>
+      <c r="CG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH75" t="n">
+        <v>29</v>
+      </c>
+      <c r="CI75" t="n">
+        <v>16</v>
+      </c>
+      <c r="CJ75" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK75" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL75" t="n">
+        <v>12</v>
+      </c>
+      <c r="CM75" t="n">
+        <v>38</v>
+      </c>
+      <c r="CN75" t="n">
+        <v>36</v>
+      </c>
+      <c r="CO75" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP75" t="n">
+        <v>21</v>
+      </c>
+      <c r="CQ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CR75" t="n">
+        <v>14</v>
+      </c>
+      <c r="CS75" t="n">
+        <v>103</v>
+      </c>
+      <c r="CT75" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU75" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV75" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW75" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX75" t="n">
+        <v>157</v>
+      </c>
+      <c r="CY75" t="n">
+        <v>57</v>
+      </c>
+      <c r="CZ75" t="n">
+        <v>2226</v>
+      </c>
+      <c r="DA75" t="n">
+        <v>4</v>
+      </c>
+      <c r="DB75" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC75" t="n">
+        <v>17</v>
+      </c>
+      <c r="DD75" t="n">
+        <v>42</v>
+      </c>
+      <c r="DE75" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF75" t="n">
+        <v>126</v>
+      </c>
+      <c r="DG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="DH75" t="n">
+        <v>17</v>
+      </c>
+      <c r="DI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK75" t="n">
+        <v>54</v>
+      </c>
+      <c r="DL75" t="n">
+        <v>146</v>
+      </c>
+      <c r="DM75" t="n">
+        <v>1587</v>
+      </c>
+      <c r="DN75" t="n">
+        <v>21</v>
+      </c>
+      <c r="DO75" t="n">
+        <v>34</v>
+      </c>
+      <c r="DP75" t="n">
+        <v>7</v>
+      </c>
+      <c r="DQ75" t="n">
+        <v>116</v>
+      </c>
+      <c r="DR75" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS75" t="n">
+        <v>164</v>
+      </c>
+      <c r="DT75" t="n">
+        <v>37</v>
+      </c>
+      <c r="DU75" t="n">
+        <v>16</v>
+      </c>
+      <c r="DV75" t="n">
+        <v>7</v>
+      </c>
+      <c r="DW75" t="n">
+        <v>13297</v>
+      </c>
+      <c r="DX75" t="n">
+        <v>5</v>
+      </c>
+      <c r="DY75" t="n">
+        <v>63</v>
+      </c>
+      <c r="DZ75" t="n">
+        <v>17</v>
+      </c>
+      <c r="EA75" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB75" t="n">
+        <v>10</v>
+      </c>
+      <c r="EC75" t="n">
+        <v>64</v>
+      </c>
+      <c r="ED75" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE75" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF75" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH75" t="n">
+        <v>20</v>
+      </c>
+      <c r="EI75" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK75" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL75" t="n">
+        <v>35</v>
+      </c>
+      <c r="EM75" t="n">
+        <v>35</v>
+      </c>
+      <c r="EN75" t="n">
+        <v>5</v>
+      </c>
+      <c r="EO75" t="n">
+        <v>15</v>
+      </c>
+      <c r="EP75" t="n">
+        <v>66</v>
+      </c>
+      <c r="EQ75" t="n">
+        <v>10</v>
+      </c>
+      <c r="ER75" t="n">
+        <v>16</v>
+      </c>
+      <c r="ES75" t="n">
+        <v>405</v>
+      </c>
+      <c r="ET75" t="n">
+        <v>11</v>
+      </c>
+      <c r="EU75" t="n">
+        <v>81</v>
+      </c>
+      <c r="EV75" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW75" t="n">
+        <v>21</v>
+      </c>
+      <c r="EX75" t="n">
+        <v>96</v>
+      </c>
+      <c r="EY75" t="n">
+        <v>41</v>
+      </c>
+      <c r="EZ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="FA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC75" t="n">
+        <v>31</v>
+      </c>
+      <c r="FD75" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE75" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG75" t="n">
+        <v>65</v>
+      </c>
+      <c r="FH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="FI75" t="n">
+        <v>11</v>
+      </c>
+      <c r="FJ75" t="n">
+        <v>48</v>
+      </c>
+      <c r="FK75" t="n">
+        <v>17</v>
+      </c>
+      <c r="FL75" t="n">
+        <v>16</v>
+      </c>
+      <c r="FM75" t="n">
+        <v>7</v>
+      </c>
+      <c r="FN75" t="n">
+        <v>4</v>
+      </c>
+      <c r="FO75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP75" t="n">
+        <v>4</v>
+      </c>
+      <c r="FQ75" t="n">
+        <v>12</v>
+      </c>
+      <c r="FR75" t="n">
+        <v>32</v>
+      </c>
+      <c r="FS75" t="n">
+        <v>454</v>
+      </c>
+      <c r="FT75" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -1266,7 +1266,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1807,7 +1807,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2348,7 +2348,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2889,7 +2889,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3430,7 +3430,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3971,7 +3971,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4512,7 +4512,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5053,7 +5053,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5594,7 +5594,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6135,7 +6135,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6676,7 +6676,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7217,7 +7217,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7758,7 +7758,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8299,7 +8299,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8840,7 +8840,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9381,7 +9381,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9922,7 +9922,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10463,7 +10463,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11004,7 +11004,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11545,7 +11545,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -12086,7 +12086,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12627,7 +12627,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -13168,7 +13168,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -13709,7 +13709,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -14250,7 +14250,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -14791,7 +14791,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -15332,7 +15332,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -15873,7 +15873,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -16414,7 +16414,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -16955,7 +16955,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -17496,7 +17496,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -18037,7 +18037,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -18578,7 +18578,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -19119,7 +19119,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -19660,7 +19660,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -20201,7 +20201,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -20742,7 +20742,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -21283,7 +21283,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -21824,7 +21824,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -22365,7 +22365,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -22906,7 +22906,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -23447,7 +23447,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -23988,7 +23988,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -24529,7 +24529,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -25070,7 +25070,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -25611,7 +25611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -26152,7 +26152,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -26693,7 +26693,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -27234,7 +27234,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -27775,7 +27775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -28316,7 +28316,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -28857,7 +28857,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -29398,7 +29398,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -29939,7 +29939,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -30480,7 +30480,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -31021,7 +31021,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -31562,7 +31562,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -32103,7 +32103,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -32644,7 +32644,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -33185,7 +33185,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -33726,7 +33726,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -34267,7 +34267,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -34808,7 +34808,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -35349,7 +35349,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -35890,7 +35890,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -36431,7 +36431,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -36972,7 +36972,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -37513,7 +37513,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -38054,7 +38054,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -38595,7 +38595,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -39136,7 +39136,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -39677,7 +39677,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -40218,7 +40218,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -40759,7 +40759,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -41300,7 +41300,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -41841,7 +41841,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="B77" t="n">

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GF85"/>
+  <dimension ref="A1:GF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49020,6 +49020,574 @@
         <v>43</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>355</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>44</v>
+      </c>
+      <c r="E86" t="n">
+        <v>49</v>
+      </c>
+      <c r="F86" t="n">
+        <v>302</v>
+      </c>
+      <c r="G86" t="n">
+        <v>186</v>
+      </c>
+      <c r="H86" t="n">
+        <v>17</v>
+      </c>
+      <c r="I86" t="n">
+        <v>87</v>
+      </c>
+      <c r="J86" t="n">
+        <v>49</v>
+      </c>
+      <c r="K86" t="n">
+        <v>62</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>40</v>
+      </c>
+      <c r="N86" t="n">
+        <v>70</v>
+      </c>
+      <c r="O86" t="n">
+        <v>125</v>
+      </c>
+      <c r="P86" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>157</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6</v>
+      </c>
+      <c r="T86" t="n">
+        <v>43</v>
+      </c>
+      <c r="U86" t="n">
+        <v>7</v>
+      </c>
+      <c r="V86" t="n">
+        <v>104</v>
+      </c>
+      <c r="W86" t="n">
+        <v>10</v>
+      </c>
+      <c r="X86" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>134</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>703</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>135</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>468</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>74</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>105</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>38</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>45</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>27</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>147</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>139</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>42</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>71</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>17</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>59</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>224</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>83</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>438</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>115</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>323</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>272</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>45</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>19</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>210</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>12</v>
+      </c>
+      <c r="CI86" t="n">
+        <v>157</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>48</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>3434</v>
+      </c>
+      <c r="CL86" t="n">
+        <v>38</v>
+      </c>
+      <c r="CM86" t="n">
+        <v>77</v>
+      </c>
+      <c r="CN86" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO86" t="n">
+        <v>68</v>
+      </c>
+      <c r="CP86" t="n">
+        <v>23</v>
+      </c>
+      <c r="CQ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="CR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS86" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT86" t="n">
+        <v>50</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>56</v>
+      </c>
+      <c r="CV86" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW86" t="n">
+        <v>24</v>
+      </c>
+      <c r="CX86" t="n">
+        <v>6</v>
+      </c>
+      <c r="CY86" t="n">
+        <v>39</v>
+      </c>
+      <c r="CZ86" t="n">
+        <v>210</v>
+      </c>
+      <c r="DA86" t="n">
+        <v>40</v>
+      </c>
+      <c r="DB86" t="n">
+        <v>19</v>
+      </c>
+      <c r="DC86" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD86" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE86" t="n">
+        <v>214</v>
+      </c>
+      <c r="DF86" t="n">
+        <v>80</v>
+      </c>
+      <c r="DG86" t="n">
+        <v>2816</v>
+      </c>
+      <c r="DH86" t="n">
+        <v>12</v>
+      </c>
+      <c r="DI86" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ86" t="n">
+        <v>28</v>
+      </c>
+      <c r="DK86" t="n">
+        <v>51</v>
+      </c>
+      <c r="DL86" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM86" t="n">
+        <v>314</v>
+      </c>
+      <c r="DN86" t="n">
+        <v>6</v>
+      </c>
+      <c r="DO86" t="n">
+        <v>23</v>
+      </c>
+      <c r="DP86" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="DR86" t="n">
+        <v>114</v>
+      </c>
+      <c r="DS86" t="n">
+        <v>208</v>
+      </c>
+      <c r="DT86" t="n">
+        <v>2026</v>
+      </c>
+      <c r="DU86" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV86" t="n">
+        <v>92</v>
+      </c>
+      <c r="DW86" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX86" t="n">
+        <v>172</v>
+      </c>
+      <c r="DY86" t="n">
+        <v>9</v>
+      </c>
+      <c r="DZ86" t="n">
+        <v>200</v>
+      </c>
+      <c r="EA86" t="n">
+        <v>48</v>
+      </c>
+      <c r="EB86" t="n">
+        <v>52</v>
+      </c>
+      <c r="EC86" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED86" t="n">
+        <v>16250</v>
+      </c>
+      <c r="EE86" t="n">
+        <v>20</v>
+      </c>
+      <c r="EF86" t="n">
+        <v>93</v>
+      </c>
+      <c r="EG86" t="n">
+        <v>49</v>
+      </c>
+      <c r="EH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="EI86" t="n">
+        <v>14</v>
+      </c>
+      <c r="EJ86" t="n">
+        <v>93</v>
+      </c>
+      <c r="EK86" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL86" t="n">
+        <v>19</v>
+      </c>
+      <c r="EM86" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN86" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO86" t="n">
+        <v>31</v>
+      </c>
+      <c r="EP86" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ86" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER86" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES86" t="n">
+        <v>4</v>
+      </c>
+      <c r="ET86" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU86" t="n">
+        <v>72</v>
+      </c>
+      <c r="EV86" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW86" t="n">
+        <v>54</v>
+      </c>
+      <c r="EX86" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY86" t="n">
+        <v>37</v>
+      </c>
+      <c r="EZ86" t="n">
+        <v>116</v>
+      </c>
+      <c r="FA86" t="n">
+        <v>21</v>
+      </c>
+      <c r="FB86" t="n">
+        <v>34</v>
+      </c>
+      <c r="FC86" t="n">
+        <v>481</v>
+      </c>
+      <c r="FD86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE86" t="n">
+        <v>21</v>
+      </c>
+      <c r="FF86" t="n">
+        <v>151</v>
+      </c>
+      <c r="FG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH86" t="n">
+        <v>55</v>
+      </c>
+      <c r="FI86" t="n">
+        <v>129</v>
+      </c>
+      <c r="FJ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK86" t="n">
+        <v>105</v>
+      </c>
+      <c r="FL86" t="n">
+        <v>31</v>
+      </c>
+      <c r="FM86" t="n">
+        <v>7</v>
+      </c>
+      <c r="FN86" t="n">
+        <v>6</v>
+      </c>
+      <c r="FO86" t="n">
+        <v>73</v>
+      </c>
+      <c r="FP86" t="n">
+        <v>8</v>
+      </c>
+      <c r="FQ86" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS86" t="n">
+        <v>131</v>
+      </c>
+      <c r="FT86" t="n">
+        <v>17</v>
+      </c>
+      <c r="FU86" t="n">
+        <v>15</v>
+      </c>
+      <c r="FV86" t="n">
+        <v>70</v>
+      </c>
+      <c r="FW86" t="n">
+        <v>29</v>
+      </c>
+      <c r="FX86" t="n">
+        <v>21</v>
+      </c>
+      <c r="FY86" t="n">
+        <v>10</v>
+      </c>
+      <c r="FZ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="GA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB86" t="n">
+        <v>8</v>
+      </c>
+      <c r="GC86" t="n">
+        <v>15</v>
+      </c>
+      <c r="GD86" t="n">
+        <v>51</v>
+      </c>
+      <c r="GE86" t="n">
+        <v>583</v>
+      </c>
+      <c r="GF86" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GF86"/>
+  <dimension ref="A1:GF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>SAO CAETANO DO SUL</t>
+          <t>SAO CAITANO</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>SAO CAITANO</t>
+          <t>SAO CAITANO DO SUL</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
@@ -18237,10 +18237,10 @@
         <v>0</v>
       </c>
       <c r="EV31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX31" t="n">
         <v>0</v>
@@ -18805,10 +18805,10 @@
         <v>1</v>
       </c>
       <c r="EV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX32" t="n">
         <v>0</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="EV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX33" t="n">
         <v>0</v>
@@ -19941,10 +19941,10 @@
         <v>1</v>
       </c>
       <c r="EV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX34" t="n">
         <v>0</v>
@@ -20509,10 +20509,10 @@
         <v>1</v>
       </c>
       <c r="EV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX35" t="n">
         <v>0</v>
@@ -21077,10 +21077,10 @@
         <v>1</v>
       </c>
       <c r="EV36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX36" t="n">
         <v>0</v>
@@ -21645,10 +21645,10 @@
         <v>1</v>
       </c>
       <c r="EV37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX37" t="n">
         <v>0</v>
@@ -22213,10 +22213,10 @@
         <v>1</v>
       </c>
       <c r="EV38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX38" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         <v>1</v>
       </c>
       <c r="EV39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX39" t="n">
         <v>0</v>
@@ -23349,10 +23349,10 @@
         <v>1</v>
       </c>
       <c r="EV40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX40" t="n">
         <v>0</v>
@@ -23917,10 +23917,10 @@
         <v>1</v>
       </c>
       <c r="EV41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX41" t="n">
         <v>0</v>
@@ -24485,10 +24485,10 @@
         <v>1</v>
       </c>
       <c r="EV42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX42" t="n">
         <v>0</v>
@@ -25053,10 +25053,10 @@
         <v>1</v>
       </c>
       <c r="EV43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX43" t="n">
         <v>0</v>
@@ -25621,10 +25621,10 @@
         <v>1</v>
       </c>
       <c r="EV44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX44" t="n">
         <v>0</v>
@@ -26189,10 +26189,10 @@
         <v>1</v>
       </c>
       <c r="EV45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX45" t="n">
         <v>0</v>
@@ -26757,10 +26757,10 @@
         <v>3</v>
       </c>
       <c r="EV46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX46" t="n">
         <v>0</v>
@@ -27325,10 +27325,10 @@
         <v>3</v>
       </c>
       <c r="EV47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EW47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EX47" t="n">
         <v>0</v>
@@ -27893,10 +27893,10 @@
         <v>3</v>
       </c>
       <c r="EV48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EW48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="EX48" t="n">
         <v>0</v>
@@ -28461,10 +28461,10 @@
         <v>3</v>
       </c>
       <c r="EV49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="EW49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="EX49" t="n">
         <v>0</v>
@@ -29029,10 +29029,10 @@
         <v>4</v>
       </c>
       <c r="EV50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EW50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EX50" t="n">
         <v>0</v>
@@ -29597,10 +29597,10 @@
         <v>4</v>
       </c>
       <c r="EV51" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW51" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX51" t="n">
         <v>1</v>
@@ -30165,10 +30165,10 @@
         <v>4</v>
       </c>
       <c r="EV52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW52" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX52" t="n">
         <v>1</v>
@@ -30733,10 +30733,10 @@
         <v>5</v>
       </c>
       <c r="EV53" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW53" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX53" t="n">
         <v>2</v>
@@ -31301,10 +31301,10 @@
         <v>5</v>
       </c>
       <c r="EV54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX54" t="n">
         <v>2</v>
@@ -31869,10 +31869,10 @@
         <v>5</v>
       </c>
       <c r="EV55" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW55" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX55" t="n">
         <v>2</v>
@@ -32437,10 +32437,10 @@
         <v>5</v>
       </c>
       <c r="EV56" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW56" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX56" t="n">
         <v>2</v>
@@ -33005,10 +33005,10 @@
         <v>5</v>
       </c>
       <c r="EV57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW57" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX57" t="n">
         <v>2</v>
@@ -33573,10 +33573,10 @@
         <v>5</v>
       </c>
       <c r="EV58" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW58" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX58" t="n">
         <v>2</v>
@@ -34141,10 +34141,10 @@
         <v>5</v>
       </c>
       <c r="EV59" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW59" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX59" t="n">
         <v>2</v>
@@ -34709,10 +34709,10 @@
         <v>6</v>
       </c>
       <c r="EV60" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW60" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX60" t="n">
         <v>2</v>
@@ -35277,10 +35277,10 @@
         <v>7</v>
       </c>
       <c r="EV61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW61" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX61" t="n">
         <v>2</v>
@@ -35845,10 +35845,10 @@
         <v>7</v>
       </c>
       <c r="EV62" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW62" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX62" t="n">
         <v>2</v>
@@ -36413,10 +36413,10 @@
         <v>8</v>
       </c>
       <c r="EV63" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW63" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX63" t="n">
         <v>2</v>
@@ -36981,10 +36981,10 @@
         <v>15</v>
       </c>
       <c r="EV64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW64" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX64" t="n">
         <v>2</v>
@@ -37549,10 +37549,10 @@
         <v>17</v>
       </c>
       <c r="EV65" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW65" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX65" t="n">
         <v>2</v>
@@ -38117,10 +38117,10 @@
         <v>17</v>
       </c>
       <c r="EV66" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW66" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX66" t="n">
         <v>2</v>
@@ -38685,10 +38685,10 @@
         <v>23</v>
       </c>
       <c r="EV67" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW67" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX67" t="n">
         <v>2</v>
@@ -39253,10 +39253,10 @@
         <v>23</v>
       </c>
       <c r="EV68" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW68" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX68" t="n">
         <v>2</v>
@@ -39821,10 +39821,10 @@
         <v>27</v>
       </c>
       <c r="EV69" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW69" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX69" t="n">
         <v>2</v>
@@ -40389,10 +40389,10 @@
         <v>28</v>
       </c>
       <c r="EV70" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW70" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX70" t="n">
         <v>2</v>
@@ -40957,10 +40957,10 @@
         <v>31</v>
       </c>
       <c r="EV71" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW71" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX71" t="n">
         <v>2</v>
@@ -41525,10 +41525,10 @@
         <v>32</v>
       </c>
       <c r="EV72" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW72" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX72" t="n">
         <v>2</v>
@@ -42093,10 +42093,10 @@
         <v>32</v>
       </c>
       <c r="EV73" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW73" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX73" t="n">
         <v>3</v>
@@ -42661,10 +42661,10 @@
         <v>34</v>
       </c>
       <c r="EV74" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW74" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX74" t="n">
         <v>3</v>
@@ -43229,10 +43229,10 @@
         <v>35</v>
       </c>
       <c r="EV75" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW75" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX75" t="n">
         <v>5</v>
@@ -43797,10 +43797,10 @@
         <v>36</v>
       </c>
       <c r="EV76" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EW76" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EX76" t="n">
         <v>5</v>
@@ -44365,10 +44365,10 @@
         <v>36</v>
       </c>
       <c r="EV77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="EW77" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EX77" t="n">
         <v>5</v>
@@ -44933,10 +44933,10 @@
         <v>38</v>
       </c>
       <c r="EV78" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="EW78" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="EX78" t="n">
         <v>5</v>
@@ -45501,10 +45501,10 @@
         <v>39</v>
       </c>
       <c r="EV79" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="EW79" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="EX79" t="n">
         <v>5</v>
@@ -46069,10 +46069,10 @@
         <v>40</v>
       </c>
       <c r="EV80" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="EW80" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="EX80" t="n">
         <v>5</v>
@@ -46637,10 +46637,10 @@
         <v>47</v>
       </c>
       <c r="EV81" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="EW81" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="EX81" t="n">
         <v>5</v>
@@ -47205,10 +47205,10 @@
         <v>56</v>
       </c>
       <c r="EV82" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="EW82" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="EX82" t="n">
         <v>5</v>
@@ -47773,10 +47773,10 @@
         <v>61</v>
       </c>
       <c r="EV83" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="EW83" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="EX83" t="n">
         <v>5</v>
@@ -47954,7 +47954,7 @@
         <v>85</v>
       </c>
       <c r="W84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X84" t="n">
         <v>77</v>
@@ -48341,10 +48341,10 @@
         <v>61</v>
       </c>
       <c r="EV84" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="EW84" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="EX84" t="n">
         <v>5</v>
@@ -48522,7 +48522,7 @@
         <v>103</v>
       </c>
       <c r="W85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X85" t="n">
         <v>77</v>
@@ -48909,10 +48909,10 @@
         <v>66</v>
       </c>
       <c r="EV85" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="EW85" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="EX85" t="n">
         <v>5</v>
@@ -49090,7 +49090,7 @@
         <v>104</v>
       </c>
       <c r="W86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X86" t="n">
         <v>88</v>
@@ -49477,10 +49477,10 @@
         <v>72</v>
       </c>
       <c r="EV86" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="EW86" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="EX86" t="n">
         <v>5</v>
@@ -49586,6 +49586,574 @@
       </c>
       <c r="GF86" t="n">
         <v>47</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>361</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>45</v>
+      </c>
+      <c r="E87" t="n">
+        <v>51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>334</v>
+      </c>
+      <c r="G87" t="n">
+        <v>200</v>
+      </c>
+      <c r="H87" t="n">
+        <v>17</v>
+      </c>
+      <c r="I87" t="n">
+        <v>89</v>
+      </c>
+      <c r="J87" t="n">
+        <v>51</v>
+      </c>
+      <c r="K87" t="n">
+        <v>66</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>41</v>
+      </c>
+      <c r="N87" t="n">
+        <v>71</v>
+      </c>
+      <c r="O87" t="n">
+        <v>133</v>
+      </c>
+      <c r="P87" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>159</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6</v>
+      </c>
+      <c r="S87" t="n">
+        <v>6</v>
+      </c>
+      <c r="T87" t="n">
+        <v>46</v>
+      </c>
+      <c r="U87" t="n">
+        <v>7</v>
+      </c>
+      <c r="V87" t="n">
+        <v>112</v>
+      </c>
+      <c r="W87" t="n">
+        <v>9</v>
+      </c>
+      <c r="X87" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>141</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>709</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>977</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>137</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>513</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>144</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>76</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>95</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>108</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>38</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>67</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>27</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>148</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>146</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>42</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>71</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>17</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>63</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>232</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>88</v>
+      </c>
+      <c r="BQ87" t="n">
+        <v>454</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>117</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>334</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>77</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB87" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC87" t="n">
+        <v>278</v>
+      </c>
+      <c r="CD87" t="n">
+        <v>53</v>
+      </c>
+      <c r="CE87" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>226</v>
+      </c>
+      <c r="CH87" t="n">
+        <v>12</v>
+      </c>
+      <c r="CI87" t="n">
+        <v>158</v>
+      </c>
+      <c r="CJ87" t="n">
+        <v>48</v>
+      </c>
+      <c r="CK87" t="n">
+        <v>3533</v>
+      </c>
+      <c r="CL87" t="n">
+        <v>41</v>
+      </c>
+      <c r="CM87" t="n">
+        <v>78</v>
+      </c>
+      <c r="CN87" t="n">
+        <v>8</v>
+      </c>
+      <c r="CO87" t="n">
+        <v>70</v>
+      </c>
+      <c r="CP87" t="n">
+        <v>23</v>
+      </c>
+      <c r="CQ87" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR87" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS87" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT87" t="n">
+        <v>51</v>
+      </c>
+      <c r="CU87" t="n">
+        <v>67</v>
+      </c>
+      <c r="CV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW87" t="n">
+        <v>24</v>
+      </c>
+      <c r="CX87" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY87" t="n">
+        <v>43</v>
+      </c>
+      <c r="CZ87" t="n">
+        <v>217</v>
+      </c>
+      <c r="DA87" t="n">
+        <v>41</v>
+      </c>
+      <c r="DB87" t="n">
+        <v>21</v>
+      </c>
+      <c r="DC87" t="n">
+        <v>22</v>
+      </c>
+      <c r="DD87" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE87" t="n">
+        <v>217</v>
+      </c>
+      <c r="DF87" t="n">
+        <v>82</v>
+      </c>
+      <c r="DG87" t="n">
+        <v>2861</v>
+      </c>
+      <c r="DH87" t="n">
+        <v>13</v>
+      </c>
+      <c r="DI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ87" t="n">
+        <v>30</v>
+      </c>
+      <c r="DK87" t="n">
+        <v>52</v>
+      </c>
+      <c r="DL87" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM87" t="n">
+        <v>335</v>
+      </c>
+      <c r="DN87" t="n">
+        <v>6</v>
+      </c>
+      <c r="DO87" t="n">
+        <v>27</v>
+      </c>
+      <c r="DP87" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ87" t="n">
+        <v>11</v>
+      </c>
+      <c r="DR87" t="n">
+        <v>115</v>
+      </c>
+      <c r="DS87" t="n">
+        <v>218</v>
+      </c>
+      <c r="DT87" t="n">
+        <v>2066</v>
+      </c>
+      <c r="DU87" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV87" t="n">
+        <v>93</v>
+      </c>
+      <c r="DW87" t="n">
+        <v>11</v>
+      </c>
+      <c r="DX87" t="n">
+        <v>179</v>
+      </c>
+      <c r="DY87" t="n">
+        <v>11</v>
+      </c>
+      <c r="DZ87" t="n">
+        <v>210</v>
+      </c>
+      <c r="EA87" t="n">
+        <v>48</v>
+      </c>
+      <c r="EB87" t="n">
+        <v>58</v>
+      </c>
+      <c r="EC87" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED87" t="n">
+        <v>16520</v>
+      </c>
+      <c r="EE87" t="n">
+        <v>21</v>
+      </c>
+      <c r="EF87" t="n">
+        <v>95</v>
+      </c>
+      <c r="EG87" t="n">
+        <v>49</v>
+      </c>
+      <c r="EH87" t="n">
+        <v>5</v>
+      </c>
+      <c r="EI87" t="n">
+        <v>14</v>
+      </c>
+      <c r="EJ87" t="n">
+        <v>94</v>
+      </c>
+      <c r="EK87" t="n">
+        <v>8</v>
+      </c>
+      <c r="EL87" t="n">
+        <v>22</v>
+      </c>
+      <c r="EM87" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN87" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO87" t="n">
+        <v>35</v>
+      </c>
+      <c r="EP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ87" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER87" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES87" t="n">
+        <v>4</v>
+      </c>
+      <c r="ET87" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU87" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV87" t="n">
+        <v>57</v>
+      </c>
+      <c r="EW87" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX87" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY87" t="n">
+        <v>38</v>
+      </c>
+      <c r="EZ87" t="n">
+        <v>122</v>
+      </c>
+      <c r="FA87" t="n">
+        <v>29</v>
+      </c>
+      <c r="FB87" t="n">
+        <v>36</v>
+      </c>
+      <c r="FC87" t="n">
+        <v>487</v>
+      </c>
+      <c r="FD87" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE87" t="n">
+        <v>22</v>
+      </c>
+      <c r="FF87" t="n">
+        <v>154</v>
+      </c>
+      <c r="FG87" t="n">
+        <v>7</v>
+      </c>
+      <c r="FH87" t="n">
+        <v>59</v>
+      </c>
+      <c r="FI87" t="n">
+        <v>150</v>
+      </c>
+      <c r="FJ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK87" t="n">
+        <v>117</v>
+      </c>
+      <c r="FL87" t="n">
+        <v>33</v>
+      </c>
+      <c r="FM87" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN87" t="n">
+        <v>7</v>
+      </c>
+      <c r="FO87" t="n">
+        <v>73</v>
+      </c>
+      <c r="FP87" t="n">
+        <v>8</v>
+      </c>
+      <c r="FQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR87" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS87" t="n">
+        <v>143</v>
+      </c>
+      <c r="FT87" t="n">
+        <v>23</v>
+      </c>
+      <c r="FU87" t="n">
+        <v>15</v>
+      </c>
+      <c r="FV87" t="n">
+        <v>70</v>
+      </c>
+      <c r="FW87" t="n">
+        <v>29</v>
+      </c>
+      <c r="FX87" t="n">
+        <v>21</v>
+      </c>
+      <c r="FY87" t="n">
+        <v>11</v>
+      </c>
+      <c r="FZ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="GA87" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB87" t="n">
+        <v>10</v>
+      </c>
+      <c r="GC87" t="n">
+        <v>15</v>
+      </c>
+      <c r="GD87" t="n">
+        <v>53</v>
+      </c>
+      <c r="GE87" t="n">
+        <v>596</v>
+      </c>
+      <c r="GF87" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO92"/>
+  <dimension ref="A1:GO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55498,6 +55498,601 @@
         <v>78</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>402</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20</v>
+      </c>
+      <c r="D93" t="n">
+        <v>62</v>
+      </c>
+      <c r="E93" t="n">
+        <v>71</v>
+      </c>
+      <c r="F93" t="n">
+        <v>427</v>
+      </c>
+      <c r="G93" t="n">
+        <v>234</v>
+      </c>
+      <c r="H93" t="n">
+        <v>24</v>
+      </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>74</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="n">
+        <v>47</v>
+      </c>
+      <c r="O93" t="n">
+        <v>92</v>
+      </c>
+      <c r="P93" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>50</v>
+      </c>
+      <c r="S93" t="n">
+        <v>183</v>
+      </c>
+      <c r="T93" t="n">
+        <v>12</v>
+      </c>
+      <c r="U93" t="n">
+        <v>6</v>
+      </c>
+      <c r="V93" t="n">
+        <v>55</v>
+      </c>
+      <c r="W93" t="n">
+        <v>10</v>
+      </c>
+      <c r="X93" t="n">
+        <v>131</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>766</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>49</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>53</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1063</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>169</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>662</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>195</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>84</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>112</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>124</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>64</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>81</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>31</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>169</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>176</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>74</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>47</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>84</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>260</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>546</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>143</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>27</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>362</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>93</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>322</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>58</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>38</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>298</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO93" t="n">
+        <v>171</v>
+      </c>
+      <c r="CP93" t="n">
+        <v>58</v>
+      </c>
+      <c r="CQ93" t="n">
+        <v>3870</v>
+      </c>
+      <c r="CR93" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS93" t="n">
+        <v>55</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>93</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV93" t="n">
+        <v>87</v>
+      </c>
+      <c r="CW93" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX93" t="n">
+        <v>31</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA93" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC93" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD93" t="n">
+        <v>51</v>
+      </c>
+      <c r="DE93" t="n">
+        <v>81</v>
+      </c>
+      <c r="DF93" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG93" t="n">
+        <v>31</v>
+      </c>
+      <c r="DH93" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI93" t="n">
+        <v>62</v>
+      </c>
+      <c r="DJ93" t="n">
+        <v>264</v>
+      </c>
+      <c r="DK93" t="n">
+        <v>51</v>
+      </c>
+      <c r="DL93" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM93" t="n">
+        <v>26</v>
+      </c>
+      <c r="DN93" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO93" t="n">
+        <v>230</v>
+      </c>
+      <c r="DP93" t="n">
+        <v>93</v>
+      </c>
+      <c r="DQ93" t="n">
+        <v>3044</v>
+      </c>
+      <c r="DR93" t="n">
+        <v>14</v>
+      </c>
+      <c r="DS93" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT93" t="n">
+        <v>46</v>
+      </c>
+      <c r="DU93" t="n">
+        <v>63</v>
+      </c>
+      <c r="DV93" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW93" t="n">
+        <v>429</v>
+      </c>
+      <c r="DX93" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY93" t="n">
+        <v>31</v>
+      </c>
+      <c r="DZ93" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA93" t="n">
+        <v>23</v>
+      </c>
+      <c r="EB93" t="n">
+        <v>120</v>
+      </c>
+      <c r="EC93" t="n">
+        <v>243</v>
+      </c>
+      <c r="ED93" t="n">
+        <v>2231</v>
+      </c>
+      <c r="EE93" t="n">
+        <v>26</v>
+      </c>
+      <c r="EF93" t="n">
+        <v>120</v>
+      </c>
+      <c r="EG93" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH93" t="n">
+        <v>223</v>
+      </c>
+      <c r="EI93" t="n">
+        <v>13</v>
+      </c>
+      <c r="EJ93" t="n">
+        <v>242</v>
+      </c>
+      <c r="EK93" t="n">
+        <v>56</v>
+      </c>
+      <c r="EL93" t="n">
+        <v>65</v>
+      </c>
+      <c r="EM93" t="n">
+        <v>9</v>
+      </c>
+      <c r="EN93" t="n">
+        <v>17685</v>
+      </c>
+      <c r="EO93" t="n">
+        <v>24</v>
+      </c>
+      <c r="EP93" t="n">
+        <v>108</v>
+      </c>
+      <c r="EQ93" t="n">
+        <v>56</v>
+      </c>
+      <c r="ER93" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES93" t="n">
+        <v>19</v>
+      </c>
+      <c r="ET93" t="n">
+        <v>109</v>
+      </c>
+      <c r="EU93" t="n">
+        <v>11</v>
+      </c>
+      <c r="EV93" t="n">
+        <v>31</v>
+      </c>
+      <c r="EW93" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX93" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY93" t="n">
+        <v>60</v>
+      </c>
+      <c r="EZ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA93" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB93" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC93" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD93" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE93" t="n">
+        <v>127</v>
+      </c>
+      <c r="FF93" t="n">
+        <v>61</v>
+      </c>
+      <c r="FG93" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="FI93" t="n">
+        <v>56</v>
+      </c>
+      <c r="FJ93" t="n">
+        <v>144</v>
+      </c>
+      <c r="FK93" t="n">
+        <v>50</v>
+      </c>
+      <c r="FL93" t="n">
+        <v>43</v>
+      </c>
+      <c r="FM93" t="n">
+        <v>511</v>
+      </c>
+      <c r="FN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO93" t="n">
+        <v>39</v>
+      </c>
+      <c r="FP93" t="n">
+        <v>221</v>
+      </c>
+      <c r="FQ93" t="n">
+        <v>9</v>
+      </c>
+      <c r="FR93" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS93" t="n">
+        <v>162</v>
+      </c>
+      <c r="FT93" t="n">
+        <v>170</v>
+      </c>
+      <c r="FU93" t="n">
+        <v>57</v>
+      </c>
+      <c r="FV93" t="n">
+        <v>31</v>
+      </c>
+      <c r="FW93" t="n">
+        <v>10</v>
+      </c>
+      <c r="FX93" t="n">
+        <v>84</v>
+      </c>
+      <c r="FY93" t="n">
+        <v>10</v>
+      </c>
+      <c r="FZ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA93" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB93" t="n">
+        <v>169</v>
+      </c>
+      <c r="GC93" t="n">
+        <v>31</v>
+      </c>
+      <c r="GD93" t="n">
+        <v>20</v>
+      </c>
+      <c r="GE93" t="n">
+        <v>78</v>
+      </c>
+      <c r="GF93" t="n">
+        <v>32</v>
+      </c>
+      <c r="GG93" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH93" t="n">
+        <v>15</v>
+      </c>
+      <c r="GI93" t="n">
+        <v>12</v>
+      </c>
+      <c r="GJ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK93" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL93" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM93" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN93" t="n">
+        <v>646</v>
+      </c>
+      <c r="GO93" t="n">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO93"/>
+  <dimension ref="A1:GO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50207,7 +50207,7 @@
         <v>1</v>
       </c>
       <c r="U84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V84" t="n">
         <v>35</v>
@@ -50802,7 +50802,7 @@
         <v>1</v>
       </c>
       <c r="U85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V85" t="n">
         <v>35</v>
@@ -51397,7 +51397,7 @@
         <v>6</v>
       </c>
       <c r="U86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V86" t="n">
         <v>43</v>
@@ -51992,7 +51992,7 @@
         <v>6</v>
       </c>
       <c r="U87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V87" t="n">
         <v>46</v>
@@ -52587,7 +52587,7 @@
         <v>11</v>
       </c>
       <c r="U88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V88" t="n">
         <v>50</v>
@@ -53182,7 +53182,7 @@
         <v>11</v>
       </c>
       <c r="U89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V89" t="n">
         <v>51</v>
@@ -53777,7 +53777,7 @@
         <v>12</v>
       </c>
       <c r="U90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V90" t="n">
         <v>52</v>
@@ -54372,7 +54372,7 @@
         <v>12</v>
       </c>
       <c r="U91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V91" t="n">
         <v>52</v>
@@ -54967,7 +54967,7 @@
         <v>12</v>
       </c>
       <c r="U92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V92" t="n">
         <v>53</v>
@@ -55562,7 +55562,7 @@
         <v>12</v>
       </c>
       <c r="U93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V93" t="n">
         <v>55</v>
@@ -55763,7 +55763,7 @@
         <v>322</v>
       </c>
       <c r="CJ93" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CK93" t="n">
         <v>1</v>
@@ -55892,7 +55892,7 @@
         <v>4</v>
       </c>
       <c r="EA93" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EB93" t="n">
         <v>120</v>
@@ -56091,6 +56091,601 @@
       </c>
       <c r="GO93" t="n">
         <v>84</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>409</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="n">
+        <v>62</v>
+      </c>
+      <c r="E94" t="n">
+        <v>84</v>
+      </c>
+      <c r="F94" t="n">
+        <v>441</v>
+      </c>
+      <c r="G94" t="n">
+        <v>241</v>
+      </c>
+      <c r="H94" t="n">
+        <v>24</v>
+      </c>
+      <c r="I94" t="n">
+        <v>102</v>
+      </c>
+      <c r="J94" t="n">
+        <v>65</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>79</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>49</v>
+      </c>
+      <c r="O94" t="n">
+        <v>95</v>
+      </c>
+      <c r="P94" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>55</v>
+      </c>
+      <c r="S94" t="n">
+        <v>185</v>
+      </c>
+      <c r="T94" t="n">
+        <v>13</v>
+      </c>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>56</v>
+      </c>
+      <c r="W94" t="n">
+        <v>10</v>
+      </c>
+      <c r="X94" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>201</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>774</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>53</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>56</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>177</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>688</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>210</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>112</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>128</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>65</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>34</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>186</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>193</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>74</v>
+      </c>
+      <c r="BQ94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>89</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>265</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>105</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>555</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>150</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>32</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>372</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>15</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>94</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>323</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>57</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>38</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>300</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>180</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>58</v>
+      </c>
+      <c r="CQ94" t="n">
+        <v>3919</v>
+      </c>
+      <c r="CR94" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS94" t="n">
+        <v>55</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV94" t="n">
+        <v>93</v>
+      </c>
+      <c r="CW94" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX94" t="n">
+        <v>34</v>
+      </c>
+      <c r="CY94" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ94" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA94" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC94" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD94" t="n">
+        <v>52</v>
+      </c>
+      <c r="DE94" t="n">
+        <v>82</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG94" t="n">
+        <v>31</v>
+      </c>
+      <c r="DH94" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI94" t="n">
+        <v>63</v>
+      </c>
+      <c r="DJ94" t="n">
+        <v>280</v>
+      </c>
+      <c r="DK94" t="n">
+        <v>53</v>
+      </c>
+      <c r="DL94" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM94" t="n">
+        <v>31</v>
+      </c>
+      <c r="DN94" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO94" t="n">
+        <v>235</v>
+      </c>
+      <c r="DP94" t="n">
+        <v>94</v>
+      </c>
+      <c r="DQ94" t="n">
+        <v>3072</v>
+      </c>
+      <c r="DR94" t="n">
+        <v>14</v>
+      </c>
+      <c r="DS94" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT94" t="n">
+        <v>48</v>
+      </c>
+      <c r="DU94" t="n">
+        <v>65</v>
+      </c>
+      <c r="DV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW94" t="n">
+        <v>457</v>
+      </c>
+      <c r="DX94" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY94" t="n">
+        <v>32</v>
+      </c>
+      <c r="DZ94" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA94" t="n">
+        <v>22</v>
+      </c>
+      <c r="EB94" t="n">
+        <v>122</v>
+      </c>
+      <c r="EC94" t="n">
+        <v>250</v>
+      </c>
+      <c r="ED94" t="n">
+        <v>2252</v>
+      </c>
+      <c r="EE94" t="n">
+        <v>26</v>
+      </c>
+      <c r="EF94" t="n">
+        <v>125</v>
+      </c>
+      <c r="EG94" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH94" t="n">
+        <v>224</v>
+      </c>
+      <c r="EI94" t="n">
+        <v>15</v>
+      </c>
+      <c r="EJ94" t="n">
+        <v>246</v>
+      </c>
+      <c r="EK94" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL94" t="n">
+        <v>72</v>
+      </c>
+      <c r="EM94" t="n">
+        <v>11</v>
+      </c>
+      <c r="EN94" t="n">
+        <v>17866</v>
+      </c>
+      <c r="EO94" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP94" t="n">
+        <v>110</v>
+      </c>
+      <c r="EQ94" t="n">
+        <v>56</v>
+      </c>
+      <c r="ER94" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES94" t="n">
+        <v>20</v>
+      </c>
+      <c r="ET94" t="n">
+        <v>110</v>
+      </c>
+      <c r="EU94" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV94" t="n">
+        <v>39</v>
+      </c>
+      <c r="EW94" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX94" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY94" t="n">
+        <v>67</v>
+      </c>
+      <c r="EZ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA94" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB94" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC94" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD94" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE94" t="n">
+        <v>134</v>
+      </c>
+      <c r="FF94" t="n">
+        <v>63</v>
+      </c>
+      <c r="FG94" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH94" t="n">
+        <v>7</v>
+      </c>
+      <c r="FI94" t="n">
+        <v>65</v>
+      </c>
+      <c r="FJ94" t="n">
+        <v>146</v>
+      </c>
+      <c r="FK94" t="n">
+        <v>51</v>
+      </c>
+      <c r="FL94" t="n">
+        <v>44</v>
+      </c>
+      <c r="FM94" t="n">
+        <v>517</v>
+      </c>
+      <c r="FN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO94" t="n">
+        <v>49</v>
+      </c>
+      <c r="FP94" t="n">
+        <v>223</v>
+      </c>
+      <c r="FQ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="FR94" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS94" t="n">
+        <v>163</v>
+      </c>
+      <c r="FT94" t="n">
+        <v>188</v>
+      </c>
+      <c r="FU94" t="n">
+        <v>61</v>
+      </c>
+      <c r="FV94" t="n">
+        <v>51</v>
+      </c>
+      <c r="FW94" t="n">
+        <v>13</v>
+      </c>
+      <c r="FX94" t="n">
+        <v>101</v>
+      </c>
+      <c r="FY94" t="n">
+        <v>10</v>
+      </c>
+      <c r="FZ94" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA94" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB94" t="n">
+        <v>190</v>
+      </c>
+      <c r="GC94" t="n">
+        <v>38</v>
+      </c>
+      <c r="GD94" t="n">
+        <v>20</v>
+      </c>
+      <c r="GE94" t="n">
+        <v>80</v>
+      </c>
+      <c r="GF94" t="n">
+        <v>34</v>
+      </c>
+      <c r="GG94" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH94" t="n">
+        <v>17</v>
+      </c>
+      <c r="GI94" t="n">
+        <v>12</v>
+      </c>
+      <c r="GJ94" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK94" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL94" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM94" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN94" t="n">
+        <v>665</v>
+      </c>
+      <c r="GO94" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO94"/>
+  <dimension ref="A1:GO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56688,6 +56688,601 @@
         <v>90</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>415</v>
+      </c>
+      <c r="C95" t="n">
+        <v>27</v>
+      </c>
+      <c r="D95" t="n">
+        <v>62</v>
+      </c>
+      <c r="E95" t="n">
+        <v>85</v>
+      </c>
+      <c r="F95" t="n">
+        <v>459</v>
+      </c>
+      <c r="G95" t="n">
+        <v>241</v>
+      </c>
+      <c r="H95" t="n">
+        <v>24</v>
+      </c>
+      <c r="I95" t="n">
+        <v>104</v>
+      </c>
+      <c r="J95" t="n">
+        <v>73</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>81</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>50</v>
+      </c>
+      <c r="O95" t="n">
+        <v>95</v>
+      </c>
+      <c r="P95" t="n">
+        <v>177</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>56</v>
+      </c>
+      <c r="S95" t="n">
+        <v>187</v>
+      </c>
+      <c r="T95" t="n">
+        <v>13</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>56</v>
+      </c>
+      <c r="W95" t="n">
+        <v>10</v>
+      </c>
+      <c r="X95" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>202</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>804</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>56</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1101</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>182</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>734</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>214</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>88</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>113</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>133</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>65</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>191</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>195</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>90</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>272</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>559</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>156</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>33</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>379</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>97</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>336</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>58</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>39</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>302</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>181</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>58</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>3962</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>58</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV95" t="n">
+        <v>95</v>
+      </c>
+      <c r="CW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>38</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD95" t="n">
+        <v>53</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>83</v>
+      </c>
+      <c r="DF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG95" t="n">
+        <v>46</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>64</v>
+      </c>
+      <c r="DJ95" t="n">
+        <v>285</v>
+      </c>
+      <c r="DK95" t="n">
+        <v>57</v>
+      </c>
+      <c r="DL95" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM95" t="n">
+        <v>31</v>
+      </c>
+      <c r="DN95" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO95" t="n">
+        <v>237</v>
+      </c>
+      <c r="DP95" t="n">
+        <v>97</v>
+      </c>
+      <c r="DQ95" t="n">
+        <v>3099</v>
+      </c>
+      <c r="DR95" t="n">
+        <v>15</v>
+      </c>
+      <c r="DS95" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT95" t="n">
+        <v>48</v>
+      </c>
+      <c r="DU95" t="n">
+        <v>67</v>
+      </c>
+      <c r="DV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW95" t="n">
+        <v>474</v>
+      </c>
+      <c r="DX95" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY95" t="n">
+        <v>32</v>
+      </c>
+      <c r="DZ95" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA95" t="n">
+        <v>22</v>
+      </c>
+      <c r="EB95" t="n">
+        <v>124</v>
+      </c>
+      <c r="EC95" t="n">
+        <v>254</v>
+      </c>
+      <c r="ED95" t="n">
+        <v>2301</v>
+      </c>
+      <c r="EE95" t="n">
+        <v>26</v>
+      </c>
+      <c r="EF95" t="n">
+        <v>126</v>
+      </c>
+      <c r="EG95" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH95" t="n">
+        <v>231</v>
+      </c>
+      <c r="EI95" t="n">
+        <v>15</v>
+      </c>
+      <c r="EJ95" t="n">
+        <v>253</v>
+      </c>
+      <c r="EK95" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL95" t="n">
+        <v>84</v>
+      </c>
+      <c r="EM95" t="n">
+        <v>12</v>
+      </c>
+      <c r="EN95" t="n">
+        <v>18102</v>
+      </c>
+      <c r="EO95" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP95" t="n">
+        <v>113</v>
+      </c>
+      <c r="EQ95" t="n">
+        <v>56</v>
+      </c>
+      <c r="ER95" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES95" t="n">
+        <v>20</v>
+      </c>
+      <c r="ET95" t="n">
+        <v>111</v>
+      </c>
+      <c r="EU95" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV95" t="n">
+        <v>39</v>
+      </c>
+      <c r="EW95" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX95" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY95" t="n">
+        <v>71</v>
+      </c>
+      <c r="EZ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB95" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD95" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE95" t="n">
+        <v>136</v>
+      </c>
+      <c r="FF95" t="n">
+        <v>69</v>
+      </c>
+      <c r="FG95" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH95" t="n">
+        <v>7</v>
+      </c>
+      <c r="FI95" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ95" t="n">
+        <v>147</v>
+      </c>
+      <c r="FK95" t="n">
+        <v>53</v>
+      </c>
+      <c r="FL95" t="n">
+        <v>44</v>
+      </c>
+      <c r="FM95" t="n">
+        <v>521</v>
+      </c>
+      <c r="FN95" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO95" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP95" t="n">
+        <v>223</v>
+      </c>
+      <c r="FQ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="FR95" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS95" t="n">
+        <v>165</v>
+      </c>
+      <c r="FT95" t="n">
+        <v>190</v>
+      </c>
+      <c r="FU95" t="n">
+        <v>63</v>
+      </c>
+      <c r="FV95" t="n">
+        <v>52</v>
+      </c>
+      <c r="FW95" t="n">
+        <v>14</v>
+      </c>
+      <c r="FX95" t="n">
+        <v>102</v>
+      </c>
+      <c r="FY95" t="n">
+        <v>11</v>
+      </c>
+      <c r="FZ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB95" t="n">
+        <v>218</v>
+      </c>
+      <c r="GC95" t="n">
+        <v>39</v>
+      </c>
+      <c r="GD95" t="n">
+        <v>20</v>
+      </c>
+      <c r="GE95" t="n">
+        <v>80</v>
+      </c>
+      <c r="GF95" t="n">
+        <v>34</v>
+      </c>
+      <c r="GG95" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH95" t="n">
+        <v>19</v>
+      </c>
+      <c r="GI95" t="n">
+        <v>15</v>
+      </c>
+      <c r="GJ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK95" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL95" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM95" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN95" t="n">
+        <v>683</v>
+      </c>
+      <c r="GO95" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO95"/>
+  <dimension ref="A1:GO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55892,7 +55892,7 @@
         <v>4</v>
       </c>
       <c r="EA93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="EB93" t="n">
         <v>120</v>
@@ -56487,7 +56487,7 @@
         <v>4</v>
       </c>
       <c r="EA94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="EB94" t="n">
         <v>122</v>
@@ -57082,7 +57082,7 @@
         <v>5</v>
       </c>
       <c r="EA95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="EB95" t="n">
         <v>124</v>
@@ -57214,7 +57214,7 @@
         <v>83</v>
       </c>
       <c r="FS95" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="FT95" t="n">
         <v>190</v>
@@ -57280,6 +57280,601 @@
         <v>683</v>
       </c>
       <c r="GO95" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>418</v>
+      </c>
+      <c r="C96" t="n">
+        <v>28</v>
+      </c>
+      <c r="D96" t="n">
+        <v>62</v>
+      </c>
+      <c r="E96" t="n">
+        <v>86</v>
+      </c>
+      <c r="F96" t="n">
+        <v>472</v>
+      </c>
+      <c r="G96" t="n">
+        <v>250</v>
+      </c>
+      <c r="H96" t="n">
+        <v>24</v>
+      </c>
+      <c r="I96" t="n">
+        <v>104</v>
+      </c>
+      <c r="J96" t="n">
+        <v>73</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>84</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>50</v>
+      </c>
+      <c r="O96" t="n">
+        <v>96</v>
+      </c>
+      <c r="P96" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>58</v>
+      </c>
+      <c r="S96" t="n">
+        <v>188</v>
+      </c>
+      <c r="T96" t="n">
+        <v>14</v>
+      </c>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>58</v>
+      </c>
+      <c r="W96" t="n">
+        <v>10</v>
+      </c>
+      <c r="X96" t="n">
+        <v>143</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>215</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>809</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>56</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1109</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>184</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>813</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>216</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>88</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>113</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>135</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>192</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>198</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>82</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>29</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>94</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>275</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>562</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>158</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>33</v>
+      </c>
+      <c r="CB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>383</v>
+      </c>
+      <c r="CD96" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE96" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>98</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>340</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>59</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>39</v>
+      </c>
+      <c r="CM96" t="n">
+        <v>314</v>
+      </c>
+      <c r="CN96" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO96" t="n">
+        <v>181</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>58</v>
+      </c>
+      <c r="CQ96" t="n">
+        <v>3990</v>
+      </c>
+      <c r="CR96" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS96" t="n">
+        <v>64</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV96" t="n">
+        <v>95</v>
+      </c>
+      <c r="CW96" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX96" t="n">
+        <v>38</v>
+      </c>
+      <c r="CY96" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC96" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD96" t="n">
+        <v>53</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>85</v>
+      </c>
+      <c r="DF96" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG96" t="n">
+        <v>59</v>
+      </c>
+      <c r="DH96" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI96" t="n">
+        <v>64</v>
+      </c>
+      <c r="DJ96" t="n">
+        <v>300</v>
+      </c>
+      <c r="DK96" t="n">
+        <v>57</v>
+      </c>
+      <c r="DL96" t="n">
+        <v>32</v>
+      </c>
+      <c r="DM96" t="n">
+        <v>34</v>
+      </c>
+      <c r="DN96" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO96" t="n">
+        <v>237</v>
+      </c>
+      <c r="DP96" t="n">
+        <v>99</v>
+      </c>
+      <c r="DQ96" t="n">
+        <v>3125</v>
+      </c>
+      <c r="DR96" t="n">
+        <v>15</v>
+      </c>
+      <c r="DS96" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT96" t="n">
+        <v>48</v>
+      </c>
+      <c r="DU96" t="n">
+        <v>68</v>
+      </c>
+      <c r="DV96" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW96" t="n">
+        <v>482</v>
+      </c>
+      <c r="DX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="DY96" t="n">
+        <v>39</v>
+      </c>
+      <c r="DZ96" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA96" t="n">
+        <v>21</v>
+      </c>
+      <c r="EB96" t="n">
+        <v>124</v>
+      </c>
+      <c r="EC96" t="n">
+        <v>257</v>
+      </c>
+      <c r="ED96" t="n">
+        <v>2316</v>
+      </c>
+      <c r="EE96" t="n">
+        <v>27</v>
+      </c>
+      <c r="EF96" t="n">
+        <v>127</v>
+      </c>
+      <c r="EG96" t="n">
+        <v>18</v>
+      </c>
+      <c r="EH96" t="n">
+        <v>238</v>
+      </c>
+      <c r="EI96" t="n">
+        <v>15</v>
+      </c>
+      <c r="EJ96" t="n">
+        <v>257</v>
+      </c>
+      <c r="EK96" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL96" t="n">
+        <v>94</v>
+      </c>
+      <c r="EM96" t="n">
+        <v>12</v>
+      </c>
+      <c r="EN96" t="n">
+        <v>18253</v>
+      </c>
+      <c r="EO96" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP96" t="n">
+        <v>113</v>
+      </c>
+      <c r="EQ96" t="n">
+        <v>56</v>
+      </c>
+      <c r="ER96" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES96" t="n">
+        <v>21</v>
+      </c>
+      <c r="ET96" t="n">
+        <v>114</v>
+      </c>
+      <c r="EU96" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV96" t="n">
+        <v>40</v>
+      </c>
+      <c r="EW96" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX96" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY96" t="n">
+        <v>77</v>
+      </c>
+      <c r="EZ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB96" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC96" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD96" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE96" t="n">
+        <v>139</v>
+      </c>
+      <c r="FF96" t="n">
+        <v>70</v>
+      </c>
+      <c r="FG96" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH96" t="n">
+        <v>8</v>
+      </c>
+      <c r="FI96" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ96" t="n">
+        <v>149</v>
+      </c>
+      <c r="FK96" t="n">
+        <v>54</v>
+      </c>
+      <c r="FL96" t="n">
+        <v>44</v>
+      </c>
+      <c r="FM96" t="n">
+        <v>524</v>
+      </c>
+      <c r="FN96" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO96" t="n">
+        <v>55</v>
+      </c>
+      <c r="FP96" t="n">
+        <v>227</v>
+      </c>
+      <c r="FQ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="FR96" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS96" t="n">
+        <v>164</v>
+      </c>
+      <c r="FT96" t="n">
+        <v>201</v>
+      </c>
+      <c r="FU96" t="n">
+        <v>68</v>
+      </c>
+      <c r="FV96" t="n">
+        <v>52</v>
+      </c>
+      <c r="FW96" t="n">
+        <v>14</v>
+      </c>
+      <c r="FX96" t="n">
+        <v>102</v>
+      </c>
+      <c r="FY96" t="n">
+        <v>12</v>
+      </c>
+      <c r="FZ96" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA96" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB96" t="n">
+        <v>220</v>
+      </c>
+      <c r="GC96" t="n">
+        <v>39</v>
+      </c>
+      <c r="GD96" t="n">
+        <v>20</v>
+      </c>
+      <c r="GE96" t="n">
+        <v>80</v>
+      </c>
+      <c r="GF96" t="n">
+        <v>34</v>
+      </c>
+      <c r="GG96" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH96" t="n">
+        <v>19</v>
+      </c>
+      <c r="GI96" t="n">
+        <v>17</v>
+      </c>
+      <c r="GJ96" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK96" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL96" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM96" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN96" t="n">
+        <v>696</v>
+      </c>
+      <c r="GO96" t="n">
         <v>93</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO96"/>
+  <dimension ref="A1:GO97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57812,7 +57812,7 @@
         <v>164</v>
       </c>
       <c r="FT96" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="FU96" t="n">
         <v>68</v>
@@ -57876,6 +57876,601 @@
       </c>
       <c r="GO96" t="n">
         <v>93</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>421</v>
+      </c>
+      <c r="C97" t="n">
+        <v>28</v>
+      </c>
+      <c r="D97" t="n">
+        <v>62</v>
+      </c>
+      <c r="E97" t="n">
+        <v>87</v>
+      </c>
+      <c r="F97" t="n">
+        <v>474</v>
+      </c>
+      <c r="G97" t="n">
+        <v>250</v>
+      </c>
+      <c r="H97" t="n">
+        <v>24</v>
+      </c>
+      <c r="I97" t="n">
+        <v>104</v>
+      </c>
+      <c r="J97" t="n">
+        <v>74</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>85</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="n">
+        <v>50</v>
+      </c>
+      <c r="O97" t="n">
+        <v>96</v>
+      </c>
+      <c r="P97" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>58</v>
+      </c>
+      <c r="S97" t="n">
+        <v>189</v>
+      </c>
+      <c r="T97" t="n">
+        <v>15</v>
+      </c>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>59</v>
+      </c>
+      <c r="W97" t="n">
+        <v>10</v>
+      </c>
+      <c r="X97" t="n">
+        <v>147</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>107</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>216</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>814</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>56</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1112</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>185</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>832</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>217</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>88</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>114</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>136</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>33</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>193</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>198</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>82</v>
+      </c>
+      <c r="BQ97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>29</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>94</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>277</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>565</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>161</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>33</v>
+      </c>
+      <c r="CB97" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>383</v>
+      </c>
+      <c r="CD97" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE97" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>104</v>
+      </c>
+      <c r="CG97" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI97" t="n">
+        <v>341</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>60</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL97" t="n">
+        <v>39</v>
+      </c>
+      <c r="CM97" t="n">
+        <v>319</v>
+      </c>
+      <c r="CN97" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO97" t="n">
+        <v>181</v>
+      </c>
+      <c r="CP97" t="n">
+        <v>58</v>
+      </c>
+      <c r="CQ97" t="n">
+        <v>4005</v>
+      </c>
+      <c r="CR97" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS97" t="n">
+        <v>64</v>
+      </c>
+      <c r="CT97" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU97" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV97" t="n">
+        <v>96</v>
+      </c>
+      <c r="CW97" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX97" t="n">
+        <v>39</v>
+      </c>
+      <c r="CY97" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA97" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB97" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC97" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD97" t="n">
+        <v>53</v>
+      </c>
+      <c r="DE97" t="n">
+        <v>85</v>
+      </c>
+      <c r="DF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG97" t="n">
+        <v>59</v>
+      </c>
+      <c r="DH97" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI97" t="n">
+        <v>64</v>
+      </c>
+      <c r="DJ97" t="n">
+        <v>300</v>
+      </c>
+      <c r="DK97" t="n">
+        <v>57</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>32</v>
+      </c>
+      <c r="DM97" t="n">
+        <v>34</v>
+      </c>
+      <c r="DN97" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO97" t="n">
+        <v>238</v>
+      </c>
+      <c r="DP97" t="n">
+        <v>100</v>
+      </c>
+      <c r="DQ97" t="n">
+        <v>3139</v>
+      </c>
+      <c r="DR97" t="n">
+        <v>15</v>
+      </c>
+      <c r="DS97" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT97" t="n">
+        <v>49</v>
+      </c>
+      <c r="DU97" t="n">
+        <v>69</v>
+      </c>
+      <c r="DV97" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW97" t="n">
+        <v>486</v>
+      </c>
+      <c r="DX97" t="n">
+        <v>7</v>
+      </c>
+      <c r="DY97" t="n">
+        <v>39</v>
+      </c>
+      <c r="DZ97" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA97" t="n">
+        <v>21</v>
+      </c>
+      <c r="EB97" t="n">
+        <v>124</v>
+      </c>
+      <c r="EC97" t="n">
+        <v>258</v>
+      </c>
+      <c r="ED97" t="n">
+        <v>2331</v>
+      </c>
+      <c r="EE97" t="n">
+        <v>27</v>
+      </c>
+      <c r="EF97" t="n">
+        <v>127</v>
+      </c>
+      <c r="EG97" t="n">
+        <v>18</v>
+      </c>
+      <c r="EH97" t="n">
+        <v>243</v>
+      </c>
+      <c r="EI97" t="n">
+        <v>16</v>
+      </c>
+      <c r="EJ97" t="n">
+        <v>257</v>
+      </c>
+      <c r="EK97" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL97" t="n">
+        <v>95</v>
+      </c>
+      <c r="EM97" t="n">
+        <v>13</v>
+      </c>
+      <c r="EN97" t="n">
+        <v>18333</v>
+      </c>
+      <c r="EO97" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP97" t="n">
+        <v>113</v>
+      </c>
+      <c r="EQ97" t="n">
+        <v>56</v>
+      </c>
+      <c r="ER97" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES97" t="n">
+        <v>21</v>
+      </c>
+      <c r="ET97" t="n">
+        <v>115</v>
+      </c>
+      <c r="EU97" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV97" t="n">
+        <v>40</v>
+      </c>
+      <c r="EW97" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX97" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY97" t="n">
+        <v>77</v>
+      </c>
+      <c r="EZ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA97" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC97" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD97" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE97" t="n">
+        <v>139</v>
+      </c>
+      <c r="FF97" t="n">
+        <v>70</v>
+      </c>
+      <c r="FG97" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH97" t="n">
+        <v>8</v>
+      </c>
+      <c r="FI97" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ97" t="n">
+        <v>149</v>
+      </c>
+      <c r="FK97" t="n">
+        <v>55</v>
+      </c>
+      <c r="FL97" t="n">
+        <v>44</v>
+      </c>
+      <c r="FM97" t="n">
+        <v>524</v>
+      </c>
+      <c r="FN97" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO97" t="n">
+        <v>56</v>
+      </c>
+      <c r="FP97" t="n">
+        <v>232</v>
+      </c>
+      <c r="FQ97" t="n">
+        <v>11</v>
+      </c>
+      <c r="FR97" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS97" t="n">
+        <v>164</v>
+      </c>
+      <c r="FT97" t="n">
+        <v>200</v>
+      </c>
+      <c r="FU97" t="n">
+        <v>69</v>
+      </c>
+      <c r="FV97" t="n">
+        <v>52</v>
+      </c>
+      <c r="FW97" t="n">
+        <v>14</v>
+      </c>
+      <c r="FX97" t="n">
+        <v>102</v>
+      </c>
+      <c r="FY97" t="n">
+        <v>12</v>
+      </c>
+      <c r="FZ97" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA97" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB97" t="n">
+        <v>221</v>
+      </c>
+      <c r="GC97" t="n">
+        <v>40</v>
+      </c>
+      <c r="GD97" t="n">
+        <v>23</v>
+      </c>
+      <c r="GE97" t="n">
+        <v>80</v>
+      </c>
+      <c r="GF97" t="n">
+        <v>34</v>
+      </c>
+      <c r="GG97" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH97" t="n">
+        <v>19</v>
+      </c>
+      <c r="GI97" t="n">
+        <v>18</v>
+      </c>
+      <c r="GJ97" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK97" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL97" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM97" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN97" t="n">
+        <v>698</v>
+      </c>
+      <c r="GO97" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO97"/>
+  <dimension ref="A1:GO98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58125,7 +58125,7 @@
         <v>383</v>
       </c>
       <c r="CD97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE97" t="n">
         <v>17</v>
@@ -58471,6 +58471,601 @@
       </c>
       <c r="GO97" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>429</v>
+      </c>
+      <c r="C98" t="n">
+        <v>32</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62</v>
+      </c>
+      <c r="E98" t="n">
+        <v>91</v>
+      </c>
+      <c r="F98" t="n">
+        <v>479</v>
+      </c>
+      <c r="G98" t="n">
+        <v>254</v>
+      </c>
+      <c r="H98" t="n">
+        <v>26</v>
+      </c>
+      <c r="I98" t="n">
+        <v>104</v>
+      </c>
+      <c r="J98" t="n">
+        <v>79</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>86</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="n">
+        <v>51</v>
+      </c>
+      <c r="O98" t="n">
+        <v>115</v>
+      </c>
+      <c r="P98" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>60</v>
+      </c>
+      <c r="S98" t="n">
+        <v>189</v>
+      </c>
+      <c r="T98" t="n">
+        <v>15</v>
+      </c>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>63</v>
+      </c>
+      <c r="W98" t="n">
+        <v>10</v>
+      </c>
+      <c r="X98" t="n">
+        <v>152</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>219</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>833</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>64</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>57</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1134</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>193</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>900</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>223</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>105</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>115</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>141</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>36</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>67</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>85</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>38</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>197</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>198</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>82</v>
+      </c>
+      <c r="BQ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>29</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>61</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>98</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>281</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>110</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>575</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>162</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>35</v>
+      </c>
+      <c r="CB98" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>391</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE98" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>104</v>
+      </c>
+      <c r="CG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH98" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI98" t="n">
+        <v>362</v>
+      </c>
+      <c r="CJ98" t="n">
+        <v>62</v>
+      </c>
+      <c r="CK98" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL98" t="n">
+        <v>44</v>
+      </c>
+      <c r="CM98" t="n">
+        <v>338</v>
+      </c>
+      <c r="CN98" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO98" t="n">
+        <v>182</v>
+      </c>
+      <c r="CP98" t="n">
+        <v>62</v>
+      </c>
+      <c r="CQ98" t="n">
+        <v>4046</v>
+      </c>
+      <c r="CR98" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS98" t="n">
+        <v>65</v>
+      </c>
+      <c r="CT98" t="n">
+        <v>100</v>
+      </c>
+      <c r="CU98" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV98" t="n">
+        <v>97</v>
+      </c>
+      <c r="CW98" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX98" t="n">
+        <v>40</v>
+      </c>
+      <c r="CY98" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ98" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA98" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC98" t="n">
+        <v>20</v>
+      </c>
+      <c r="DD98" t="n">
+        <v>57</v>
+      </c>
+      <c r="DE98" t="n">
+        <v>85</v>
+      </c>
+      <c r="DF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG98" t="n">
+        <v>61</v>
+      </c>
+      <c r="DH98" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI98" t="n">
+        <v>71</v>
+      </c>
+      <c r="DJ98" t="n">
+        <v>302</v>
+      </c>
+      <c r="DK98" t="n">
+        <v>59</v>
+      </c>
+      <c r="DL98" t="n">
+        <v>33</v>
+      </c>
+      <c r="DM98" t="n">
+        <v>36</v>
+      </c>
+      <c r="DN98" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO98" t="n">
+        <v>243</v>
+      </c>
+      <c r="DP98" t="n">
+        <v>106</v>
+      </c>
+      <c r="DQ98" t="n">
+        <v>3176</v>
+      </c>
+      <c r="DR98" t="n">
+        <v>16</v>
+      </c>
+      <c r="DS98" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT98" t="n">
+        <v>51</v>
+      </c>
+      <c r="DU98" t="n">
+        <v>69</v>
+      </c>
+      <c r="DV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW98" t="n">
+        <v>500</v>
+      </c>
+      <c r="DX98" t="n">
+        <v>7</v>
+      </c>
+      <c r="DY98" t="n">
+        <v>39</v>
+      </c>
+      <c r="DZ98" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA98" t="n">
+        <v>27</v>
+      </c>
+      <c r="EB98" t="n">
+        <v>133</v>
+      </c>
+      <c r="EC98" t="n">
+        <v>267</v>
+      </c>
+      <c r="ED98" t="n">
+        <v>2356</v>
+      </c>
+      <c r="EE98" t="n">
+        <v>27</v>
+      </c>
+      <c r="EF98" t="n">
+        <v>132</v>
+      </c>
+      <c r="EG98" t="n">
+        <v>21</v>
+      </c>
+      <c r="EH98" t="n">
+        <v>245</v>
+      </c>
+      <c r="EI98" t="n">
+        <v>16</v>
+      </c>
+      <c r="EJ98" t="n">
+        <v>258</v>
+      </c>
+      <c r="EK98" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL98" t="n">
+        <v>99</v>
+      </c>
+      <c r="EM98" t="n">
+        <v>13</v>
+      </c>
+      <c r="EN98" t="n">
+        <v>18515</v>
+      </c>
+      <c r="EO98" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP98" t="n">
+        <v>115</v>
+      </c>
+      <c r="EQ98" t="n">
+        <v>58</v>
+      </c>
+      <c r="ER98" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES98" t="n">
+        <v>22</v>
+      </c>
+      <c r="ET98" t="n">
+        <v>116</v>
+      </c>
+      <c r="EU98" t="n">
+        <v>15</v>
+      </c>
+      <c r="EV98" t="n">
+        <v>41</v>
+      </c>
+      <c r="EW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX98" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY98" t="n">
+        <v>98</v>
+      </c>
+      <c r="EZ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA98" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB98" t="n">
+        <v>9</v>
+      </c>
+      <c r="FC98" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD98" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE98" t="n">
+        <v>161</v>
+      </c>
+      <c r="FF98" t="n">
+        <v>71</v>
+      </c>
+      <c r="FG98" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH98" t="n">
+        <v>8</v>
+      </c>
+      <c r="FI98" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ98" t="n">
+        <v>156</v>
+      </c>
+      <c r="FK98" t="n">
+        <v>70</v>
+      </c>
+      <c r="FL98" t="n">
+        <v>50</v>
+      </c>
+      <c r="FM98" t="n">
+        <v>530</v>
+      </c>
+      <c r="FN98" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO98" t="n">
+        <v>57</v>
+      </c>
+      <c r="FP98" t="n">
+        <v>236</v>
+      </c>
+      <c r="FQ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="FR98" t="n">
+        <v>83</v>
+      </c>
+      <c r="FS98" t="n">
+        <v>164</v>
+      </c>
+      <c r="FT98" t="n">
+        <v>218</v>
+      </c>
+      <c r="FU98" t="n">
+        <v>80</v>
+      </c>
+      <c r="FV98" t="n">
+        <v>53</v>
+      </c>
+      <c r="FW98" t="n">
+        <v>14</v>
+      </c>
+      <c r="FX98" t="n">
+        <v>104</v>
+      </c>
+      <c r="FY98" t="n">
+        <v>12</v>
+      </c>
+      <c r="FZ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB98" t="n">
+        <v>227</v>
+      </c>
+      <c r="GC98" t="n">
+        <v>40</v>
+      </c>
+      <c r="GD98" t="n">
+        <v>23</v>
+      </c>
+      <c r="GE98" t="n">
+        <v>81</v>
+      </c>
+      <c r="GF98" t="n">
+        <v>34</v>
+      </c>
+      <c r="GG98" t="n">
+        <v>23</v>
+      </c>
+      <c r="GH98" t="n">
+        <v>20</v>
+      </c>
+      <c r="GI98" t="n">
+        <v>19</v>
+      </c>
+      <c r="GJ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK98" t="n">
+        <v>12</v>
+      </c>
+      <c r="GL98" t="n">
+        <v>17</v>
+      </c>
+      <c r="GM98" t="n">
+        <v>63</v>
+      </c>
+      <c r="GN98" t="n">
+        <v>731</v>
+      </c>
+      <c r="GO98" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ100"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,120 +1289,125 @@
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
+          <t>SOLIDAO</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
           <t>SUME</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>SURUBIM</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>TABATINGA</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>TABIRA</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>TACAIMBO</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>TACARATU</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>TAMANDARE</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>TAQUARITINGA DO NORTE</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>TERRA NOVA</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>TIMBAUBA</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>TORITAMA</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>TRACUNHAEM</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>TRINDADE</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>TRIUNFO</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>TUPANATINGA</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>TUPARETAMA</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>VENTUROSA</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>VERDEJANTE</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>VERTENTE DO LERIO</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>VERTENTES</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>VICENCIA</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>VITORIA DE SANTO ANTAO</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>XEXEU</t>
         </is>
@@ -2035,6 +2040,9 @@
       <c r="GZ2" t="n">
         <v>0</v>
       </c>
+      <c r="HA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2663,6 +2671,9 @@
       <c r="GZ3" t="n">
         <v>0</v>
       </c>
+      <c r="HA3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3291,6 +3302,9 @@
       <c r="GZ4" t="n">
         <v>0</v>
       </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3919,6 +3933,9 @@
       <c r="GZ5" t="n">
         <v>0</v>
       </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4547,6 +4564,9 @@
       <c r="GZ6" t="n">
         <v>0</v>
       </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5175,6 +5195,9 @@
       <c r="GZ7" t="n">
         <v>0</v>
       </c>
+      <c r="HA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5803,6 +5826,9 @@
       <c r="GZ8" t="n">
         <v>0</v>
       </c>
+      <c r="HA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6431,6 +6457,9 @@
       <c r="GZ9" t="n">
         <v>0</v>
       </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7059,6 +7088,9 @@
       <c r="GZ10" t="n">
         <v>0</v>
       </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7687,6 +7719,9 @@
       <c r="GZ11" t="n">
         <v>0</v>
       </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8315,6 +8350,9 @@
       <c r="GZ12" t="n">
         <v>0</v>
       </c>
+      <c r="HA12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8943,6 +8981,9 @@
       <c r="GZ13" t="n">
         <v>0</v>
       </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9571,6 +9612,9 @@
       <c r="GZ14" t="n">
         <v>0</v>
       </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10199,6 +10243,9 @@
       <c r="GZ15" t="n">
         <v>0</v>
       </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10827,6 +10874,9 @@
       <c r="GZ16" t="n">
         <v>0</v>
       </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11455,6 +11505,9 @@
       <c r="GZ17" t="n">
         <v>0</v>
       </c>
+      <c r="HA17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12083,6 +12136,9 @@
       <c r="GZ18" t="n">
         <v>0</v>
       </c>
+      <c r="HA18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12711,6 +12767,9 @@
       <c r="GZ19" t="n">
         <v>0</v>
       </c>
+      <c r="HA19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13339,6 +13398,9 @@
       <c r="GZ20" t="n">
         <v>0</v>
       </c>
+      <c r="HA20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13967,6 +14029,9 @@
       <c r="GZ21" t="n">
         <v>0</v>
       </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14595,6 +14660,9 @@
       <c r="GZ22" t="n">
         <v>0</v>
       </c>
+      <c r="HA22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15223,6 +15291,9 @@
       <c r="GZ23" t="n">
         <v>0</v>
       </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15851,6 +15922,9 @@
       <c r="GZ24" t="n">
         <v>0</v>
       </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16479,6 +16553,9 @@
       <c r="GZ25" t="n">
         <v>0</v>
       </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17107,6 +17184,9 @@
       <c r="GZ26" t="n">
         <v>0</v>
       </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17735,6 +17815,9 @@
       <c r="GZ27" t="n">
         <v>0</v>
       </c>
+      <c r="HA27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18322,10 +18405,10 @@
         <v>0</v>
       </c>
       <c r="GM28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO28" t="n">
         <v>0</v>
@@ -18358,9 +18441,12 @@
         <v>0</v>
       </c>
       <c r="GY28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18950,10 +19036,10 @@
         <v>0</v>
       </c>
       <c r="GM29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO29" t="n">
         <v>0</v>
@@ -18986,9 +19072,12 @@
         <v>0</v>
       </c>
       <c r="GY29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19578,10 +19667,10 @@
         <v>0</v>
       </c>
       <c r="GM30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO30" t="n">
         <v>0</v>
@@ -19614,9 +19703,12 @@
         <v>0</v>
       </c>
       <c r="GY30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20206,10 +20298,10 @@
         <v>0</v>
       </c>
       <c r="GM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO31" t="n">
         <v>0</v>
@@ -20242,9 +20334,12 @@
         <v>0</v>
       </c>
       <c r="GY31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GZ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20834,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="GM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN32" t="n">
         <v>1</v>
@@ -20843,7 +20938,7 @@
         <v>1</v>
       </c>
       <c r="GP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ32" t="n">
         <v>0</v>
@@ -20870,9 +20965,12 @@
         <v>0</v>
       </c>
       <c r="GY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ32" t="n">
         <v>4</v>
       </c>
-      <c r="GZ32" t="n">
+      <c r="HA32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21462,7 +21560,7 @@
         <v>0</v>
       </c>
       <c r="GM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN33" t="n">
         <v>1</v>
@@ -21471,7 +21569,7 @@
         <v>1</v>
       </c>
       <c r="GP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ33" t="n">
         <v>0</v>
@@ -21498,9 +21596,12 @@
         <v>0</v>
       </c>
       <c r="GY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ33" t="n">
         <v>5</v>
       </c>
-      <c r="GZ33" t="n">
+      <c r="HA33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22090,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="GM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN34" t="n">
         <v>1</v>
@@ -22099,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="GP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ34" t="n">
         <v>0</v>
@@ -22126,9 +22227,12 @@
         <v>0</v>
       </c>
       <c r="GY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ34" t="n">
         <v>6</v>
       </c>
-      <c r="GZ34" t="n">
+      <c r="HA34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22718,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="GM35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN35" t="n">
         <v>1</v>
@@ -22727,7 +22831,7 @@
         <v>1</v>
       </c>
       <c r="GP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ35" t="n">
         <v>0</v>
@@ -22754,9 +22858,12 @@
         <v>0</v>
       </c>
       <c r="GY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ35" t="n">
         <v>7</v>
       </c>
-      <c r="GZ35" t="n">
+      <c r="HA35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23346,22 +23453,22 @@
         <v>0</v>
       </c>
       <c r="GM36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN36" t="n">
         <v>1</v>
       </c>
       <c r="GO36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS36" t="n">
         <v>0</v>
@@ -23382,9 +23489,12 @@
         <v>0</v>
       </c>
       <c r="GY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ36" t="n">
         <v>10</v>
       </c>
-      <c r="GZ36" t="n">
+      <c r="HA36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23947,10 +24057,10 @@
         <v>0</v>
       </c>
       <c r="GD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF37" t="n">
         <v>0</v>
@@ -23974,22 +24084,22 @@
         <v>0</v>
       </c>
       <c r="GM37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GN37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GO37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GS37" t="n">
         <v>0</v>
@@ -24010,9 +24120,12 @@
         <v>0</v>
       </c>
       <c r="GY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ37" t="n">
         <v>11</v>
       </c>
-      <c r="GZ37" t="n">
+      <c r="HA37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24575,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="GD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF38" t="n">
         <v>0</v>
@@ -24602,22 +24715,22 @@
         <v>0</v>
       </c>
       <c r="GM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN38" t="n">
         <v>4</v>
       </c>
-      <c r="GN38" t="n">
-        <v>1</v>
-      </c>
       <c r="GO38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GS38" t="n">
         <v>0</v>
@@ -24632,15 +24745,18 @@
         <v>0</v>
       </c>
       <c r="GW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ38" t="n">
         <v>15</v>
       </c>
-      <c r="GZ38" t="n">
+      <c r="HA38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25203,10 +25319,10 @@
         <v>0</v>
       </c>
       <c r="GD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF39" t="n">
         <v>0</v>
@@ -25230,22 +25346,22 @@
         <v>0</v>
       </c>
       <c r="GM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN39" t="n">
         <v>4</v>
       </c>
-      <c r="GN39" t="n">
-        <v>1</v>
-      </c>
       <c r="GO39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GS39" t="n">
         <v>0</v>
@@ -25260,15 +25376,18 @@
         <v>0</v>
       </c>
       <c r="GW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ39" t="n">
         <v>20</v>
       </c>
-      <c r="GZ39" t="n">
+      <c r="HA39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25831,10 +25950,10 @@
         <v>0</v>
       </c>
       <c r="GD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF40" t="n">
         <v>0</v>
@@ -25858,22 +25977,22 @@
         <v>0</v>
       </c>
       <c r="GM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN40" t="n">
         <v>4</v>
       </c>
-      <c r="GN40" t="n">
-        <v>1</v>
-      </c>
       <c r="GO40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GS40" t="n">
         <v>0</v>
@@ -25888,15 +26007,18 @@
         <v>0</v>
       </c>
       <c r="GW40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ40" t="n">
         <v>22</v>
       </c>
-      <c r="GZ40" t="n">
+      <c r="HA40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26459,10 +26581,10 @@
         <v>0</v>
       </c>
       <c r="GD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF41" t="n">
         <v>0</v>
@@ -26486,28 +26608,28 @@
         <v>0</v>
       </c>
       <c r="GM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN41" t="n">
         <v>4</v>
       </c>
-      <c r="GN41" t="n">
-        <v>1</v>
-      </c>
       <c r="GO41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS41" t="n">
         <v>1</v>
       </c>
       <c r="GT41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU41" t="n">
         <v>0</v>
@@ -26516,15 +26638,18 @@
         <v>0</v>
       </c>
       <c r="GW41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX41" t="n">
         <v>1</v>
       </c>
       <c r="GY41" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ41" t="n">
         <v>25</v>
       </c>
-      <c r="GZ41" t="n">
+      <c r="HA41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27087,16 +27212,16 @@
         <v>0</v>
       </c>
       <c r="GD42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GE42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH42" t="n">
         <v>0</v>
@@ -27114,28 +27239,28 @@
         <v>0</v>
       </c>
       <c r="GM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN42" t="n">
         <v>4</v>
       </c>
-      <c r="GN42" t="n">
-        <v>1</v>
-      </c>
       <c r="GO42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS42" t="n">
         <v>1</v>
       </c>
       <c r="GT42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU42" t="n">
         <v>0</v>
@@ -27144,15 +27269,18 @@
         <v>0</v>
       </c>
       <c r="GW42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX42" t="n">
         <v>1</v>
       </c>
       <c r="GY42" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ42" t="n">
         <v>26</v>
       </c>
-      <c r="GZ42" t="n">
+      <c r="HA42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27715,16 +27843,16 @@
         <v>0</v>
       </c>
       <c r="GD43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GE43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH43" t="n">
         <v>0</v>
@@ -27742,28 +27870,28 @@
         <v>0</v>
       </c>
       <c r="GM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN43" t="n">
         <v>5</v>
       </c>
-      <c r="GN43" t="n">
-        <v>1</v>
-      </c>
       <c r="GO43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS43" t="n">
         <v>1</v>
       </c>
       <c r="GT43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU43" t="n">
         <v>0</v>
@@ -27772,15 +27900,18 @@
         <v>0</v>
       </c>
       <c r="GW43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX43" t="n">
         <v>1</v>
       </c>
       <c r="GY43" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ43" t="n">
         <v>30</v>
       </c>
-      <c r="GZ43" t="n">
+      <c r="HA43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28343,25 +28474,25 @@
         <v>0</v>
       </c>
       <c r="GD44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GE44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH44" t="n">
         <v>0</v>
       </c>
       <c r="GI44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK44" t="n">
         <v>0</v>
@@ -28370,28 +28501,28 @@
         <v>0</v>
       </c>
       <c r="GM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN44" t="n">
         <v>5</v>
       </c>
-      <c r="GN44" t="n">
-        <v>1</v>
-      </c>
       <c r="GO44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GR44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU44" t="n">
         <v>0</v>
@@ -28400,15 +28531,18 @@
         <v>0</v>
       </c>
       <c r="GW44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX44" t="n">
         <v>1</v>
       </c>
       <c r="GY44" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ44" t="n">
         <v>36</v>
       </c>
-      <c r="GZ44" t="n">
+      <c r="HA44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28971,25 +29105,25 @@
         <v>0</v>
       </c>
       <c r="GD45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GE45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH45" t="n">
         <v>0</v>
       </c>
       <c r="GI45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK45" t="n">
         <v>0</v>
@@ -28998,28 +29132,28 @@
         <v>0</v>
       </c>
       <c r="GM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN45" t="n">
         <v>5</v>
       </c>
-      <c r="GN45" t="n">
-        <v>1</v>
-      </c>
       <c r="GO45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GR45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU45" t="n">
         <v>0</v>
@@ -29028,15 +29162,18 @@
         <v>0</v>
       </c>
       <c r="GW45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GY45" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ45" t="n">
         <v>44</v>
       </c>
-      <c r="GZ45" t="n">
+      <c r="HA45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29599,25 +29736,25 @@
         <v>0</v>
       </c>
       <c r="GD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE46" t="n">
         <v>4</v>
       </c>
-      <c r="GE46" t="n">
-        <v>0</v>
-      </c>
       <c r="GF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH46" t="n">
         <v>0</v>
       </c>
       <c r="GI46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK46" t="n">
         <v>0</v>
@@ -29626,45 +29763,48 @@
         <v>0</v>
       </c>
       <c r="GM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN46" t="n">
         <v>5</v>
       </c>
-      <c r="GN46" t="n">
-        <v>1</v>
-      </c>
       <c r="GO46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GR46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT46" t="n">
         <v>1</v>
       </c>
       <c r="GU46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV46" t="n">
         <v>0</v>
       </c>
       <c r="GW46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GY46" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ46" t="n">
         <v>55</v>
       </c>
-      <c r="GZ46" t="n">
+      <c r="HA46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30227,40 +30367,40 @@
         <v>0</v>
       </c>
       <c r="GD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE47" t="n">
         <v>4</v>
       </c>
-      <c r="GE47" t="n">
-        <v>0</v>
-      </c>
       <c r="GF47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH47" t="n">
         <v>0</v>
       </c>
       <c r="GI47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK47" t="n">
         <v>0</v>
       </c>
       <c r="GL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN47" t="n">
         <v>11</v>
       </c>
-      <c r="GN47" t="n">
-        <v>1</v>
-      </c>
       <c r="GO47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP47" t="n">
         <v>2</v>
@@ -30269,30 +30409,33 @@
         <v>2</v>
       </c>
       <c r="GR47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GU47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GV47" t="n">
         <v>0</v>
       </c>
       <c r="GW47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX47" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY47" t="n">
         <v>4</v>
       </c>
-      <c r="GY47" t="n">
+      <c r="GZ47" t="n">
         <v>63</v>
       </c>
-      <c r="GZ47" t="n">
+      <c r="HA47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30855,40 +30998,40 @@
         <v>0</v>
       </c>
       <c r="GD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE48" t="n">
         <v>4</v>
       </c>
-      <c r="GE48" t="n">
-        <v>0</v>
-      </c>
       <c r="GF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH48" t="n">
         <v>0</v>
       </c>
       <c r="GI48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK48" t="n">
         <v>0</v>
       </c>
       <c r="GL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM48" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN48" t="n">
         <v>12</v>
       </c>
-      <c r="GN48" t="n">
-        <v>1</v>
-      </c>
       <c r="GO48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP48" t="n">
         <v>2</v>
@@ -30897,30 +31040,33 @@
         <v>2</v>
       </c>
       <c r="GR48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV48" t="n">
         <v>0</v>
       </c>
       <c r="GW48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX48" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY48" t="n">
         <v>5</v>
       </c>
-      <c r="GY48" t="n">
+      <c r="GZ48" t="n">
         <v>66</v>
       </c>
-      <c r="GZ48" t="n">
+      <c r="HA48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31483,40 +31629,40 @@
         <v>0</v>
       </c>
       <c r="GD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE49" t="n">
         <v>5</v>
       </c>
-      <c r="GE49" t="n">
-        <v>0</v>
-      </c>
       <c r="GF49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH49" t="n">
         <v>0</v>
       </c>
       <c r="GI49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK49" t="n">
         <v>0</v>
       </c>
       <c r="GL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN49" t="n">
         <v>12</v>
       </c>
-      <c r="GN49" t="n">
-        <v>1</v>
-      </c>
       <c r="GO49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP49" t="n">
         <v>2</v>
@@ -31525,30 +31671,33 @@
         <v>2</v>
       </c>
       <c r="GR49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV49" t="n">
         <v>0</v>
       </c>
       <c r="GW49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX49" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY49" t="n">
         <v>5</v>
       </c>
-      <c r="GY49" t="n">
+      <c r="GZ49" t="n">
         <v>70</v>
       </c>
-      <c r="GZ49" t="n">
+      <c r="HA49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32111,72 +32260,75 @@
         <v>0</v>
       </c>
       <c r="GD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE50" t="n">
         <v>5</v>
       </c>
-      <c r="GE50" t="n">
-        <v>0</v>
-      </c>
       <c r="GF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH50" t="n">
         <v>0</v>
       </c>
       <c r="GI50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM50" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN50" t="n">
         <v>12</v>
       </c>
-      <c r="GN50" t="n">
-        <v>1</v>
-      </c>
       <c r="GO50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP50" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ50" t="n">
         <v>4</v>
       </c>
-      <c r="GQ50" t="n">
-        <v>2</v>
-      </c>
       <c r="GR50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV50" t="n">
         <v>0</v>
       </c>
       <c r="GW50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX50" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY50" t="n">
         <v>5</v>
       </c>
-      <c r="GY50" t="n">
+      <c r="GZ50" t="n">
         <v>78</v>
       </c>
-      <c r="GZ50" t="n">
+      <c r="HA50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32739,72 +32891,75 @@
         <v>0</v>
       </c>
       <c r="GD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE51" t="n">
         <v>5</v>
       </c>
-      <c r="GE51" t="n">
-        <v>0</v>
-      </c>
       <c r="GF51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GG51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GH51" t="n">
         <v>0</v>
       </c>
       <c r="GI51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN51" t="n">
         <v>13</v>
       </c>
-      <c r="GN51" t="n">
-        <v>1</v>
-      </c>
       <c r="GO51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP51" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ51" t="n">
         <v>4</v>
       </c>
-      <c r="GQ51" t="n">
-        <v>2</v>
-      </c>
       <c r="GR51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV51" t="n">
         <v>0</v>
       </c>
       <c r="GW51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX51" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY51" t="n">
         <v>6</v>
       </c>
-      <c r="GY51" t="n">
+      <c r="GZ51" t="n">
         <v>92</v>
       </c>
-      <c r="GZ51" t="n">
+      <c r="HA51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33367,72 +33522,75 @@
         <v>0</v>
       </c>
       <c r="GD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE52" t="n">
         <v>5</v>
       </c>
-      <c r="GE52" t="n">
-        <v>0</v>
-      </c>
       <c r="GF52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GG52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GH52" t="n">
         <v>0</v>
       </c>
       <c r="GI52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GJ52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM52" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN52" t="n">
         <v>14</v>
       </c>
-      <c r="GN52" t="n">
-        <v>1</v>
-      </c>
       <c r="GO52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP52" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ52" t="n">
         <v>4</v>
       </c>
-      <c r="GQ52" t="n">
-        <v>2</v>
-      </c>
       <c r="GR52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV52" t="n">
         <v>0</v>
       </c>
       <c r="GW52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY52" t="n">
         <v>6</v>
       </c>
-      <c r="GY52" t="n">
+      <c r="GZ52" t="n">
         <v>97</v>
       </c>
-      <c r="GZ52" t="n">
+      <c r="HA52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33995,72 +34153,75 @@
         <v>0</v>
       </c>
       <c r="GD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE53" t="n">
         <v>5</v>
       </c>
-      <c r="GE53" t="n">
-        <v>0</v>
-      </c>
       <c r="GF53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GG53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GH53" t="n">
         <v>0</v>
       </c>
       <c r="GI53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GJ53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GK53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN53" t="n">
         <v>15</v>
       </c>
-      <c r="GN53" t="n">
-        <v>1</v>
-      </c>
       <c r="GO53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP53" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ53" t="n">
         <v>5</v>
       </c>
-      <c r="GQ53" t="n">
-        <v>2</v>
-      </c>
       <c r="GR53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV53" t="n">
         <v>0</v>
       </c>
       <c r="GW53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY53" t="n">
         <v>6</v>
       </c>
-      <c r="GY53" t="n">
+      <c r="GZ53" t="n">
         <v>98</v>
       </c>
-      <c r="GZ53" t="n">
+      <c r="HA53" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34623,72 +34784,75 @@
         <v>0</v>
       </c>
       <c r="GD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE54" t="n">
         <v>5</v>
       </c>
-      <c r="GE54" t="n">
-        <v>0</v>
-      </c>
       <c r="GF54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GH54" t="n">
         <v>0</v>
       </c>
       <c r="GI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ54" t="n">
         <v>4</v>
       </c>
-      <c r="GJ54" t="n">
-        <v>1</v>
-      </c>
       <c r="GK54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN54" t="n">
         <v>16</v>
       </c>
-      <c r="GN54" t="n">
-        <v>1</v>
-      </c>
       <c r="GO54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ54" t="n">
         <v>7</v>
       </c>
-      <c r="GQ54" t="n">
-        <v>2</v>
-      </c>
       <c r="GR54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV54" t="n">
         <v>0</v>
       </c>
       <c r="GW54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY54" t="n">
         <v>6</v>
       </c>
-      <c r="GY54" t="n">
+      <c r="GZ54" t="n">
         <v>104</v>
       </c>
-      <c r="GZ54" t="n">
+      <c r="HA54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -35251,72 +35415,75 @@
         <v>0</v>
       </c>
       <c r="GD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE55" t="n">
         <v>5</v>
       </c>
-      <c r="GE55" t="n">
-        <v>0</v>
-      </c>
       <c r="GF55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GH55" t="n">
         <v>0</v>
       </c>
       <c r="GI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ55" t="n">
         <v>4</v>
       </c>
-      <c r="GJ55" t="n">
-        <v>1</v>
-      </c>
       <c r="GK55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN55" t="n">
         <v>16</v>
       </c>
-      <c r="GN55" t="n">
-        <v>1</v>
-      </c>
       <c r="GO55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP55" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ55" t="n">
         <v>7</v>
       </c>
-      <c r="GQ55" t="n">
-        <v>2</v>
-      </c>
       <c r="GR55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV55" t="n">
         <v>0</v>
       </c>
       <c r="GW55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY55" t="n">
         <v>6</v>
       </c>
-      <c r="GY55" t="n">
+      <c r="GZ55" t="n">
         <v>105</v>
       </c>
-      <c r="GZ55" t="n">
+      <c r="HA55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -35879,72 +36046,75 @@
         <v>0</v>
       </c>
       <c r="GD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE56" t="n">
         <v>5</v>
       </c>
-      <c r="GE56" t="n">
-        <v>0</v>
-      </c>
       <c r="GF56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GH56" t="n">
         <v>0</v>
       </c>
       <c r="GI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ56" t="n">
         <v>5</v>
       </c>
-      <c r="GJ56" t="n">
-        <v>1</v>
-      </c>
       <c r="GK56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM56" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN56" t="n">
         <v>17</v>
       </c>
-      <c r="GN56" t="n">
-        <v>1</v>
-      </c>
       <c r="GO56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ56" t="n">
         <v>7</v>
       </c>
-      <c r="GQ56" t="n">
-        <v>2</v>
-      </c>
       <c r="GR56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV56" t="n">
         <v>0</v>
       </c>
       <c r="GW56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX56" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY56" t="n">
         <v>6</v>
       </c>
-      <c r="GY56" t="n">
+      <c r="GZ56" t="n">
         <v>125</v>
       </c>
-      <c r="GZ56" t="n">
+      <c r="HA56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -36507,72 +36677,75 @@
         <v>0</v>
       </c>
       <c r="GD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE57" t="n">
         <v>5</v>
       </c>
-      <c r="GE57" t="n">
-        <v>0</v>
-      </c>
       <c r="GF57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GH57" t="n">
         <v>0</v>
       </c>
       <c r="GI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ57" t="n">
         <v>6</v>
       </c>
-      <c r="GJ57" t="n">
-        <v>1</v>
-      </c>
       <c r="GK57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM57" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN57" t="n">
         <v>19</v>
       </c>
-      <c r="GN57" t="n">
-        <v>1</v>
-      </c>
       <c r="GO57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP57" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ57" t="n">
         <v>9</v>
       </c>
-      <c r="GQ57" t="n">
-        <v>2</v>
-      </c>
       <c r="GR57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GS57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GU57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV57" t="n">
         <v>0</v>
       </c>
       <c r="GW57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY57" t="n">
         <v>6</v>
       </c>
-      <c r="GY57" t="n">
+      <c r="GZ57" t="n">
         <v>135</v>
       </c>
-      <c r="GZ57" t="n">
+      <c r="HA57" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37135,72 +37308,75 @@
         <v>0</v>
       </c>
       <c r="GD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE58" t="n">
         <v>5</v>
       </c>
-      <c r="GE58" t="n">
-        <v>0</v>
-      </c>
       <c r="GF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG58" t="n">
         <v>4</v>
       </c>
-      <c r="GG58" t="n">
-        <v>0</v>
-      </c>
       <c r="GH58" t="n">
         <v>0</v>
       </c>
       <c r="GI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ58" t="n">
         <v>8</v>
       </c>
-      <c r="GJ58" t="n">
-        <v>1</v>
-      </c>
       <c r="GK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN58" t="n">
         <v>23</v>
       </c>
-      <c r="GN58" t="n">
-        <v>1</v>
-      </c>
       <c r="GO58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP58" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ58" t="n">
         <v>10</v>
       </c>
-      <c r="GQ58" t="n">
-        <v>3</v>
-      </c>
       <c r="GR58" t="n">
         <v>3</v>
       </c>
       <c r="GS58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU58" t="n">
         <v>4</v>
       </c>
-      <c r="GU58" t="n">
-        <v>0</v>
-      </c>
       <c r="GV58" t="n">
         <v>0</v>
       </c>
       <c r="GW58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GX58" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY58" t="n">
         <v>7</v>
       </c>
-      <c r="GY58" t="n">
+      <c r="GZ58" t="n">
         <v>136</v>
       </c>
-      <c r="GZ58" t="n">
+      <c r="HA58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37763,72 +37939,75 @@
         <v>0</v>
       </c>
       <c r="GD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE59" t="n">
         <v>6</v>
       </c>
-      <c r="GE59" t="n">
-        <v>0</v>
-      </c>
       <c r="GF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG59" t="n">
         <v>4</v>
       </c>
-      <c r="GG59" t="n">
-        <v>0</v>
-      </c>
       <c r="GH59" t="n">
         <v>0</v>
       </c>
       <c r="GI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ59" t="n">
         <v>9</v>
       </c>
-      <c r="GJ59" t="n">
-        <v>1</v>
-      </c>
       <c r="GK59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM59" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN59" t="n">
         <v>23</v>
       </c>
-      <c r="GN59" t="n">
-        <v>1</v>
-      </c>
       <c r="GO59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ59" t="n">
         <v>10</v>
       </c>
-      <c r="GQ59" t="n">
+      <c r="GR59" t="n">
         <v>5</v>
       </c>
-      <c r="GR59" t="n">
-        <v>3</v>
-      </c>
       <c r="GS59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GT59" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU59" t="n">
         <v>4</v>
       </c>
-      <c r="GU59" t="n">
-        <v>0</v>
-      </c>
       <c r="GV59" t="n">
         <v>0</v>
       </c>
       <c r="GW59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GX59" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY59" t="n">
         <v>9</v>
       </c>
-      <c r="GY59" t="n">
+      <c r="GZ59" t="n">
         <v>145</v>
       </c>
-      <c r="GZ59" t="n">
+      <c r="HA59" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38391,72 +38570,75 @@
         <v>0</v>
       </c>
       <c r="GD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE60" t="n">
         <v>6</v>
       </c>
-      <c r="GE60" t="n">
-        <v>0</v>
-      </c>
       <c r="GF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG60" t="n">
         <v>4</v>
       </c>
-      <c r="GG60" t="n">
-        <v>0</v>
-      </c>
       <c r="GH60" t="n">
         <v>0</v>
       </c>
       <c r="GI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ60" t="n">
         <v>9</v>
       </c>
-      <c r="GJ60" t="n">
-        <v>1</v>
-      </c>
       <c r="GK60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM60" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN60" t="n">
         <v>25</v>
       </c>
-      <c r="GN60" t="n">
-        <v>1</v>
-      </c>
       <c r="GO60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ60" t="n">
         <v>10</v>
-      </c>
-      <c r="GQ60" t="n">
-        <v>5</v>
       </c>
       <c r="GR60" t="n">
         <v>5</v>
       </c>
       <c r="GS60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU60" t="n">
         <v>4</v>
       </c>
-      <c r="GU60" t="n">
-        <v>0</v>
-      </c>
       <c r="GV60" t="n">
         <v>0</v>
       </c>
       <c r="GW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX60" t="n">
         <v>4</v>
       </c>
-      <c r="GX60" t="n">
+      <c r="GY60" t="n">
         <v>10</v>
       </c>
-      <c r="GY60" t="n">
+      <c r="GZ60" t="n">
         <v>160</v>
       </c>
-      <c r="GZ60" t="n">
+      <c r="HA60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39019,72 +39201,75 @@
         <v>0</v>
       </c>
       <c r="GD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE61" t="n">
         <v>10</v>
       </c>
-      <c r="GE61" t="n">
-        <v>0</v>
-      </c>
       <c r="GF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG61" t="n">
         <v>4</v>
       </c>
-      <c r="GG61" t="n">
-        <v>0</v>
-      </c>
       <c r="GH61" t="n">
         <v>0</v>
       </c>
       <c r="GI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ61" t="n">
         <v>10</v>
       </c>
-      <c r="GJ61" t="n">
-        <v>2</v>
-      </c>
       <c r="GK61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GL61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM61" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN61" t="n">
         <v>26</v>
       </c>
-      <c r="GN61" t="n">
-        <v>2</v>
-      </c>
       <c r="GO61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP61" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ61" t="n">
         <v>10</v>
-      </c>
-      <c r="GQ61" t="n">
-        <v>5</v>
       </c>
       <c r="GR61" t="n">
         <v>5</v>
       </c>
       <c r="GS61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU61" t="n">
         <v>4</v>
       </c>
-      <c r="GU61" t="n">
-        <v>0</v>
-      </c>
       <c r="GV61" t="n">
         <v>0</v>
       </c>
       <c r="GW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX61" t="n">
         <v>4</v>
       </c>
-      <c r="GX61" t="n">
+      <c r="GY61" t="n">
         <v>11</v>
       </c>
-      <c r="GY61" t="n">
+      <c r="GZ61" t="n">
         <v>167</v>
       </c>
-      <c r="GZ61" t="n">
+      <c r="HA61" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39647,72 +39832,75 @@
         <v>0</v>
       </c>
       <c r="GD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE62" t="n">
         <v>11</v>
       </c>
-      <c r="GE62" t="n">
-        <v>0</v>
-      </c>
       <c r="GF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG62" t="n">
         <v>4</v>
       </c>
-      <c r="GG62" t="n">
-        <v>0</v>
-      </c>
       <c r="GH62" t="n">
         <v>0</v>
       </c>
       <c r="GI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ62" t="n">
         <v>10</v>
       </c>
-      <c r="GJ62" t="n">
-        <v>2</v>
-      </c>
       <c r="GK62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GL62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM62" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN62" t="n">
         <v>27</v>
       </c>
-      <c r="GN62" t="n">
-        <v>2</v>
-      </c>
       <c r="GO62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP62" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ62" t="n">
         <v>10</v>
       </c>
-      <c r="GQ62" t="n">
+      <c r="GR62" t="n">
         <v>6</v>
       </c>
-      <c r="GR62" t="n">
+      <c r="GS62" t="n">
         <v>5</v>
       </c>
-      <c r="GS62" t="n">
-        <v>1</v>
-      </c>
       <c r="GT62" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU62" t="n">
         <v>4</v>
       </c>
-      <c r="GU62" t="n">
-        <v>0</v>
-      </c>
       <c r="GV62" t="n">
         <v>0</v>
       </c>
       <c r="GW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX62" t="n">
         <v>4</v>
       </c>
-      <c r="GX62" t="n">
+      <c r="GY62" t="n">
         <v>11</v>
       </c>
-      <c r="GY62" t="n">
+      <c r="GZ62" t="n">
         <v>173</v>
       </c>
-      <c r="GZ62" t="n">
+      <c r="HA62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40275,72 +40463,75 @@
         <v>0</v>
       </c>
       <c r="GD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE63" t="n">
         <v>11</v>
       </c>
-      <c r="GE63" t="n">
-        <v>0</v>
-      </c>
       <c r="GF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG63" t="n">
         <v>4</v>
       </c>
-      <c r="GG63" t="n">
-        <v>0</v>
-      </c>
       <c r="GH63" t="n">
         <v>0</v>
       </c>
       <c r="GI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ63" t="n">
         <v>13</v>
       </c>
-      <c r="GJ63" t="n">
-        <v>2</v>
-      </c>
       <c r="GK63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL63" t="n">
         <v>1</v>
       </c>
       <c r="GM63" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN63" t="n">
         <v>27</v>
       </c>
-      <c r="GN63" t="n">
-        <v>2</v>
-      </c>
       <c r="GO63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP63" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ63" t="n">
         <v>12</v>
       </c>
-      <c r="GQ63" t="n">
+      <c r="GR63" t="n">
         <v>6</v>
       </c>
-      <c r="GR63" t="n">
+      <c r="GS63" t="n">
         <v>5</v>
       </c>
-      <c r="GS63" t="n">
-        <v>1</v>
-      </c>
       <c r="GT63" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU63" t="n">
         <v>4</v>
       </c>
-      <c r="GU63" t="n">
-        <v>0</v>
-      </c>
       <c r="GV63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW63" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX63" t="n">
         <v>7</v>
       </c>
-      <c r="GX63" t="n">
+      <c r="GY63" t="n">
         <v>12</v>
       </c>
-      <c r="GY63" t="n">
+      <c r="GZ63" t="n">
         <v>179</v>
       </c>
-      <c r="GZ63" t="n">
+      <c r="HA63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40903,72 +41094,75 @@
         <v>0</v>
       </c>
       <c r="GD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE64" t="n">
         <v>12</v>
       </c>
-      <c r="GE64" t="n">
-        <v>0</v>
-      </c>
       <c r="GF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG64" t="n">
         <v>4</v>
       </c>
-      <c r="GG64" t="n">
-        <v>0</v>
-      </c>
       <c r="GH64" t="n">
         <v>0</v>
       </c>
       <c r="GI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ64" t="n">
         <v>13</v>
       </c>
-      <c r="GJ64" t="n">
-        <v>2</v>
-      </c>
       <c r="GK64" t="n">
         <v>2</v>
       </c>
       <c r="GL64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GM64" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN64" t="n">
         <v>29</v>
       </c>
-      <c r="GN64" t="n">
-        <v>2</v>
-      </c>
       <c r="GO64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP64" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ64" t="n">
         <v>12</v>
       </c>
-      <c r="GQ64" t="n">
+      <c r="GR64" t="n">
         <v>6</v>
       </c>
-      <c r="GR64" t="n">
+      <c r="GS64" t="n">
         <v>5</v>
       </c>
-      <c r="GS64" t="n">
-        <v>1</v>
-      </c>
       <c r="GT64" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU64" t="n">
         <v>4</v>
       </c>
-      <c r="GU64" t="n">
-        <v>0</v>
-      </c>
       <c r="GV64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW64" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX64" t="n">
         <v>7</v>
       </c>
-      <c r="GX64" t="n">
+      <c r="GY64" t="n">
         <v>13</v>
       </c>
-      <c r="GY64" t="n">
+      <c r="GZ64" t="n">
         <v>190</v>
       </c>
-      <c r="GZ64" t="n">
+      <c r="HA64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41531,72 +41725,75 @@
         <v>0</v>
       </c>
       <c r="GD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE65" t="n">
         <v>12</v>
       </c>
-      <c r="GE65" t="n">
-        <v>0</v>
-      </c>
       <c r="GF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG65" t="n">
         <v>4</v>
       </c>
-      <c r="GG65" t="n">
-        <v>0</v>
-      </c>
       <c r="GH65" t="n">
         <v>0</v>
       </c>
       <c r="GI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ65" t="n">
         <v>14</v>
       </c>
-      <c r="GJ65" t="n">
-        <v>2</v>
-      </c>
       <c r="GK65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GL65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM65" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN65" t="n">
         <v>29</v>
       </c>
-      <c r="GN65" t="n">
-        <v>2</v>
-      </c>
       <c r="GO65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP65" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ65" t="n">
         <v>12</v>
       </c>
-      <c r="GQ65" t="n">
+      <c r="GR65" t="n">
         <v>6</v>
       </c>
-      <c r="GR65" t="n">
+      <c r="GS65" t="n">
         <v>5</v>
       </c>
-      <c r="GS65" t="n">
-        <v>1</v>
-      </c>
       <c r="GT65" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU65" t="n">
         <v>4</v>
       </c>
-      <c r="GU65" t="n">
-        <v>0</v>
-      </c>
       <c r="GV65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW65" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX65" t="n">
         <v>7</v>
       </c>
-      <c r="GX65" t="n">
+      <c r="GY65" t="n">
         <v>14</v>
       </c>
-      <c r="GY65" t="n">
+      <c r="GZ65" t="n">
         <v>205</v>
       </c>
-      <c r="GZ65" t="n">
+      <c r="HA65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42159,72 +42356,75 @@
         <v>0</v>
       </c>
       <c r="GD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE66" t="n">
         <v>13</v>
       </c>
-      <c r="GE66" t="n">
-        <v>0</v>
-      </c>
       <c r="GF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG66" t="n">
         <v>5</v>
       </c>
-      <c r="GG66" t="n">
-        <v>0</v>
-      </c>
       <c r="GH66" t="n">
         <v>0</v>
       </c>
       <c r="GI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ66" t="n">
         <v>15</v>
       </c>
-      <c r="GJ66" t="n">
-        <v>3</v>
-      </c>
       <c r="GK66" t="n">
         <v>3</v>
       </c>
       <c r="GL66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM66" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN66" t="n">
         <v>31</v>
       </c>
-      <c r="GN66" t="n">
-        <v>2</v>
-      </c>
       <c r="GO66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GP66" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ66" t="n">
         <v>12</v>
       </c>
-      <c r="GQ66" t="n">
+      <c r="GR66" t="n">
         <v>7</v>
       </c>
-      <c r="GR66" t="n">
+      <c r="GS66" t="n">
         <v>5</v>
       </c>
-      <c r="GS66" t="n">
-        <v>1</v>
-      </c>
       <c r="GT66" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU66" t="n">
         <v>4</v>
       </c>
-      <c r="GU66" t="n">
-        <v>0</v>
-      </c>
       <c r="GV66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GW66" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX66" t="n">
         <v>7</v>
       </c>
-      <c r="GX66" t="n">
+      <c r="GY66" t="n">
         <v>14</v>
       </c>
-      <c r="GY66" t="n">
+      <c r="GZ66" t="n">
         <v>226</v>
       </c>
-      <c r="GZ66" t="n">
+      <c r="HA66" t="n">
         <v>5</v>
       </c>
     </row>
@@ -42787,72 +42987,75 @@
         <v>0</v>
       </c>
       <c r="GD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE67" t="n">
         <v>17</v>
       </c>
-      <c r="GE67" t="n">
-        <v>0</v>
-      </c>
       <c r="GF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG67" t="n">
         <v>7</v>
       </c>
-      <c r="GG67" t="n">
-        <v>0</v>
-      </c>
       <c r="GH67" t="n">
         <v>0</v>
       </c>
       <c r="GI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ67" t="n">
         <v>18</v>
       </c>
-      <c r="GJ67" t="n">
-        <v>3</v>
-      </c>
       <c r="GK67" t="n">
         <v>3</v>
       </c>
       <c r="GL67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM67" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN67" t="n">
         <v>38</v>
       </c>
-      <c r="GN67" t="n">
-        <v>2</v>
-      </c>
       <c r="GO67" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP67" t="n">
         <v>5</v>
       </c>
-      <c r="GP67" t="n">
+      <c r="GQ67" t="n">
         <v>17</v>
       </c>
-      <c r="GQ67" t="n">
+      <c r="GR67" t="n">
         <v>8</v>
       </c>
-      <c r="GR67" t="n">
+      <c r="GS67" t="n">
         <v>5</v>
       </c>
-      <c r="GS67" t="n">
-        <v>1</v>
-      </c>
       <c r="GT67" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU67" t="n">
         <v>4</v>
       </c>
-      <c r="GU67" t="n">
-        <v>0</v>
-      </c>
       <c r="GV67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GW67" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX67" t="n">
         <v>10</v>
       </c>
-      <c r="GX67" t="n">
+      <c r="GY67" t="n">
         <v>18</v>
       </c>
-      <c r="GY67" t="n">
+      <c r="GZ67" t="n">
         <v>279</v>
       </c>
-      <c r="GZ67" t="n">
+      <c r="HA67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -43415,72 +43618,75 @@
         <v>0</v>
       </c>
       <c r="GD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE68" t="n">
         <v>18</v>
       </c>
-      <c r="GE68" t="n">
-        <v>0</v>
-      </c>
       <c r="GF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG68" t="n">
         <v>7</v>
       </c>
-      <c r="GG68" t="n">
-        <v>0</v>
-      </c>
       <c r="GH68" t="n">
         <v>0</v>
       </c>
       <c r="GI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ68" t="n">
         <v>18</v>
       </c>
-      <c r="GJ68" t="n">
-        <v>3</v>
-      </c>
       <c r="GK68" t="n">
         <v>3</v>
       </c>
       <c r="GL68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM68" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN68" t="n">
         <v>40</v>
       </c>
-      <c r="GN68" t="n">
-        <v>2</v>
-      </c>
       <c r="GO68" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP68" t="n">
         <v>6</v>
       </c>
-      <c r="GP68" t="n">
+      <c r="GQ68" t="n">
         <v>18</v>
       </c>
-      <c r="GQ68" t="n">
+      <c r="GR68" t="n">
         <v>9</v>
       </c>
-      <c r="GR68" t="n">
+      <c r="GS68" t="n">
         <v>6</v>
       </c>
-      <c r="GS68" t="n">
-        <v>1</v>
-      </c>
       <c r="GT68" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU68" t="n">
         <v>4</v>
       </c>
-      <c r="GU68" t="n">
-        <v>0</v>
-      </c>
       <c r="GV68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GW68" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX68" t="n">
         <v>10</v>
       </c>
-      <c r="GX68" t="n">
+      <c r="GY68" t="n">
         <v>19</v>
       </c>
-      <c r="GY68" t="n">
+      <c r="GZ68" t="n">
         <v>318</v>
       </c>
-      <c r="GZ68" t="n">
+      <c r="HA68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -44043,72 +44249,75 @@
         <v>0</v>
       </c>
       <c r="GD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE69" t="n">
         <v>18</v>
       </c>
-      <c r="GE69" t="n">
-        <v>0</v>
-      </c>
       <c r="GF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG69" t="n">
         <v>8</v>
       </c>
-      <c r="GG69" t="n">
-        <v>0</v>
-      </c>
       <c r="GH69" t="n">
         <v>0</v>
       </c>
       <c r="GI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ69" t="n">
         <v>18</v>
       </c>
-      <c r="GJ69" t="n">
+      <c r="GK69" t="n">
         <v>4</v>
       </c>
-      <c r="GK69" t="n">
-        <v>3</v>
-      </c>
       <c r="GL69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN69" t="n">
         <v>43</v>
       </c>
-      <c r="GN69" t="n">
-        <v>2</v>
-      </c>
       <c r="GO69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP69" t="n">
         <v>6</v>
       </c>
-      <c r="GP69" t="n">
+      <c r="GQ69" t="n">
         <v>18</v>
       </c>
-      <c r="GQ69" t="n">
+      <c r="GR69" t="n">
         <v>9</v>
       </c>
-      <c r="GR69" t="n">
+      <c r="GS69" t="n">
         <v>6</v>
       </c>
-      <c r="GS69" t="n">
-        <v>1</v>
-      </c>
       <c r="GT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU69" t="n">
         <v>4</v>
       </c>
-      <c r="GU69" t="n">
-        <v>0</v>
-      </c>
       <c r="GV69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GW69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX69" t="n">
         <v>11</v>
       </c>
-      <c r="GX69" t="n">
+      <c r="GY69" t="n">
         <v>20</v>
       </c>
-      <c r="GY69" t="n">
+      <c r="GZ69" t="n">
         <v>326</v>
       </c>
-      <c r="GZ69" t="n">
+      <c r="HA69" t="n">
         <v>9</v>
       </c>
     </row>
@@ -44671,72 +44880,75 @@
         <v>0</v>
       </c>
       <c r="GD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE70" t="n">
         <v>21</v>
       </c>
-      <c r="GE70" t="n">
-        <v>0</v>
-      </c>
       <c r="GF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG70" t="n">
         <v>8</v>
       </c>
-      <c r="GG70" t="n">
-        <v>0</v>
-      </c>
       <c r="GH70" t="n">
         <v>0</v>
       </c>
       <c r="GI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ70" t="n">
         <v>18</v>
       </c>
-      <c r="GJ70" t="n">
+      <c r="GK70" t="n">
         <v>4</v>
       </c>
-      <c r="GK70" t="n">
-        <v>3</v>
-      </c>
       <c r="GL70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM70" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN70" t="n">
         <v>46</v>
       </c>
-      <c r="GN70" t="n">
-        <v>2</v>
-      </c>
       <c r="GO70" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP70" t="n">
         <v>7</v>
       </c>
-      <c r="GP70" t="n">
+      <c r="GQ70" t="n">
         <v>23</v>
       </c>
-      <c r="GQ70" t="n">
+      <c r="GR70" t="n">
         <v>9</v>
       </c>
-      <c r="GR70" t="n">
+      <c r="GS70" t="n">
         <v>10</v>
       </c>
-      <c r="GS70" t="n">
-        <v>1</v>
-      </c>
       <c r="GT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU70" t="n">
         <v>4</v>
       </c>
-      <c r="GU70" t="n">
-        <v>0</v>
-      </c>
       <c r="GV70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX70" t="n">
         <v>11</v>
       </c>
-      <c r="GX70" t="n">
+      <c r="GY70" t="n">
         <v>22</v>
       </c>
-      <c r="GY70" t="n">
+      <c r="GZ70" t="n">
         <v>344</v>
       </c>
-      <c r="GZ70" t="n">
+      <c r="HA70" t="n">
         <v>11</v>
       </c>
     </row>
@@ -45299,72 +45511,75 @@
         <v>0</v>
       </c>
       <c r="GD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE71" t="n">
         <v>21</v>
       </c>
-      <c r="GE71" t="n">
-        <v>0</v>
-      </c>
       <c r="GF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG71" t="n">
         <v>8</v>
       </c>
-      <c r="GG71" t="n">
-        <v>0</v>
-      </c>
       <c r="GH71" t="n">
         <v>0</v>
       </c>
       <c r="GI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ71" t="n">
         <v>18</v>
       </c>
-      <c r="GJ71" t="n">
+      <c r="GK71" t="n">
         <v>5</v>
       </c>
-      <c r="GK71" t="n">
-        <v>3</v>
-      </c>
       <c r="GL71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM71" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN71" t="n">
         <v>49</v>
       </c>
-      <c r="GN71" t="n">
+      <c r="GO71" t="n">
         <v>5</v>
       </c>
-      <c r="GO71" t="n">
+      <c r="GP71" t="n">
         <v>9</v>
       </c>
-      <c r="GP71" t="n">
+      <c r="GQ71" t="n">
         <v>32</v>
       </c>
-      <c r="GQ71" t="n">
+      <c r="GR71" t="n">
         <v>9</v>
       </c>
-      <c r="GR71" t="n">
+      <c r="GS71" t="n">
         <v>10</v>
       </c>
-      <c r="GS71" t="n">
-        <v>1</v>
-      </c>
       <c r="GT71" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU71" t="n">
         <v>4</v>
       </c>
-      <c r="GU71" t="n">
-        <v>0</v>
-      </c>
       <c r="GV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW71" t="n">
         <v>4</v>
       </c>
-      <c r="GW71" t="n">
+      <c r="GX71" t="n">
         <v>11</v>
       </c>
-      <c r="GX71" t="n">
+      <c r="GY71" t="n">
         <v>22</v>
       </c>
-      <c r="GY71" t="n">
+      <c r="GZ71" t="n">
         <v>385</v>
       </c>
-      <c r="GZ71" t="n">
+      <c r="HA71" t="n">
         <v>11</v>
       </c>
     </row>
@@ -45927,72 +46142,75 @@
         <v>0</v>
       </c>
       <c r="GD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE72" t="n">
         <v>21</v>
       </c>
-      <c r="GE72" t="n">
-        <v>0</v>
-      </c>
       <c r="GF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG72" t="n">
         <v>8</v>
       </c>
-      <c r="GG72" t="n">
-        <v>0</v>
-      </c>
       <c r="GH72" t="n">
         <v>0</v>
       </c>
       <c r="GI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ72" t="n">
         <v>21</v>
       </c>
-      <c r="GJ72" t="n">
+      <c r="GK72" t="n">
         <v>5</v>
       </c>
-      <c r="GK72" t="n">
-        <v>3</v>
-      </c>
       <c r="GL72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM72" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN72" t="n">
         <v>54</v>
       </c>
-      <c r="GN72" t="n">
+      <c r="GO72" t="n">
         <v>6</v>
       </c>
-      <c r="GO72" t="n">
+      <c r="GP72" t="n">
         <v>10</v>
       </c>
-      <c r="GP72" t="n">
+      <c r="GQ72" t="n">
         <v>41</v>
       </c>
-      <c r="GQ72" t="n">
+      <c r="GR72" t="n">
         <v>9</v>
       </c>
-      <c r="GR72" t="n">
+      <c r="GS72" t="n">
         <v>14</v>
       </c>
-      <c r="GS72" t="n">
-        <v>3</v>
-      </c>
       <c r="GT72" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU72" t="n">
         <v>4</v>
       </c>
-      <c r="GU72" t="n">
-        <v>0</v>
-      </c>
       <c r="GV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW72" t="n">
         <v>4</v>
       </c>
-      <c r="GW72" t="n">
+      <c r="GX72" t="n">
         <v>12</v>
       </c>
-      <c r="GX72" t="n">
+      <c r="GY72" t="n">
         <v>25</v>
       </c>
-      <c r="GY72" t="n">
+      <c r="GZ72" t="n">
         <v>394</v>
       </c>
-      <c r="GZ72" t="n">
+      <c r="HA72" t="n">
         <v>12</v>
       </c>
     </row>
@@ -46555,72 +46773,75 @@
         <v>0</v>
       </c>
       <c r="GD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE73" t="n">
         <v>24</v>
       </c>
-      <c r="GE73" t="n">
-        <v>0</v>
-      </c>
       <c r="GF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG73" t="n">
         <v>9</v>
       </c>
-      <c r="GG73" t="n">
-        <v>1</v>
-      </c>
       <c r="GH73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ73" t="n">
         <v>26</v>
       </c>
-      <c r="GJ73" t="n">
+      <c r="GK73" t="n">
         <v>5</v>
       </c>
-      <c r="GK73" t="n">
-        <v>3</v>
-      </c>
       <c r="GL73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM73" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN73" t="n">
         <v>54</v>
       </c>
-      <c r="GN73" t="n">
+      <c r="GO73" t="n">
         <v>6</v>
       </c>
-      <c r="GO73" t="n">
+      <c r="GP73" t="n">
         <v>11</v>
       </c>
-      <c r="GP73" t="n">
+      <c r="GQ73" t="n">
         <v>44</v>
       </c>
-      <c r="GQ73" t="n">
+      <c r="GR73" t="n">
         <v>12</v>
       </c>
-      <c r="GR73" t="n">
+      <c r="GS73" t="n">
         <v>14</v>
       </c>
-      <c r="GS73" t="n">
-        <v>3</v>
-      </c>
       <c r="GT73" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU73" t="n">
         <v>4</v>
       </c>
-      <c r="GU73" t="n">
-        <v>1</v>
-      </c>
       <c r="GV73" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW73" t="n">
         <v>4</v>
       </c>
-      <c r="GW73" t="n">
+      <c r="GX73" t="n">
         <v>12</v>
       </c>
-      <c r="GX73" t="n">
+      <c r="GY73" t="n">
         <v>26</v>
       </c>
-      <c r="GY73" t="n">
+      <c r="GZ73" t="n">
         <v>427</v>
       </c>
-      <c r="GZ73" t="n">
+      <c r="HA73" t="n">
         <v>12</v>
       </c>
     </row>
@@ -47183,72 +47404,75 @@
         <v>0</v>
       </c>
       <c r="GD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE74" t="n">
         <v>25</v>
       </c>
-      <c r="GE74" t="n">
-        <v>0</v>
-      </c>
       <c r="GF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG74" t="n">
         <v>9</v>
       </c>
-      <c r="GG74" t="n">
-        <v>1</v>
-      </c>
       <c r="GH74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ74" t="n">
         <v>31</v>
       </c>
-      <c r="GJ74" t="n">
+      <c r="GK74" t="n">
         <v>5</v>
       </c>
-      <c r="GK74" t="n">
-        <v>3</v>
-      </c>
       <c r="GL74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM74" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN74" t="n">
         <v>57</v>
       </c>
-      <c r="GN74" t="n">
+      <c r="GO74" t="n">
         <v>8</v>
       </c>
-      <c r="GO74" t="n">
+      <c r="GP74" t="n">
         <v>11</v>
       </c>
-      <c r="GP74" t="n">
+      <c r="GQ74" t="n">
         <v>46</v>
       </c>
-      <c r="GQ74" t="n">
+      <c r="GR74" t="n">
         <v>17</v>
       </c>
-      <c r="GR74" t="n">
+      <c r="GS74" t="n">
         <v>16</v>
       </c>
-      <c r="GS74" t="n">
-        <v>3</v>
-      </c>
       <c r="GT74" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU74" t="n">
         <v>4</v>
       </c>
-      <c r="GU74" t="n">
-        <v>1</v>
-      </c>
       <c r="GV74" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW74" t="n">
         <v>4</v>
       </c>
-      <c r="GW74" t="n">
+      <c r="GX74" t="n">
         <v>12</v>
       </c>
-      <c r="GX74" t="n">
+      <c r="GY74" t="n">
         <v>29</v>
       </c>
-      <c r="GY74" t="n">
+      <c r="GZ74" t="n">
         <v>442</v>
       </c>
-      <c r="GZ74" t="n">
+      <c r="HA74" t="n">
         <v>15</v>
       </c>
     </row>
@@ -47811,72 +48035,75 @@
         <v>0</v>
       </c>
       <c r="GD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE75" t="n">
         <v>41</v>
       </c>
-      <c r="GE75" t="n">
-        <v>0</v>
-      </c>
       <c r="GF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG75" t="n">
         <v>11</v>
       </c>
-      <c r="GG75" t="n">
-        <v>2</v>
-      </c>
       <c r="GH75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ75" t="n">
         <v>31</v>
       </c>
-      <c r="GJ75" t="n">
+      <c r="GK75" t="n">
         <v>5</v>
       </c>
-      <c r="GK75" t="n">
-        <v>3</v>
-      </c>
       <c r="GL75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM75" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN75" t="n">
         <v>65</v>
       </c>
-      <c r="GN75" t="n">
+      <c r="GO75" t="n">
         <v>8</v>
       </c>
-      <c r="GO75" t="n">
+      <c r="GP75" t="n">
         <v>11</v>
       </c>
-      <c r="GP75" t="n">
+      <c r="GQ75" t="n">
         <v>48</v>
       </c>
-      <c r="GQ75" t="n">
+      <c r="GR75" t="n">
         <v>17</v>
       </c>
-      <c r="GR75" t="n">
+      <c r="GS75" t="n">
         <v>16</v>
       </c>
-      <c r="GS75" t="n">
+      <c r="GT75" t="n">
         <v>7</v>
       </c>
-      <c r="GT75" t="n">
+      <c r="GU75" t="n">
         <v>4</v>
       </c>
-      <c r="GU75" t="n">
-        <v>1</v>
-      </c>
       <c r="GV75" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW75" t="n">
         <v>4</v>
       </c>
-      <c r="GW75" t="n">
+      <c r="GX75" t="n">
         <v>12</v>
       </c>
-      <c r="GX75" t="n">
+      <c r="GY75" t="n">
         <v>32</v>
       </c>
-      <c r="GY75" t="n">
+      <c r="GZ75" t="n">
         <v>454</v>
       </c>
-      <c r="GZ75" t="n">
+      <c r="HA75" t="n">
         <v>22</v>
       </c>
     </row>
@@ -48439,72 +48666,75 @@
         <v>0</v>
       </c>
       <c r="GD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE76" t="n">
         <v>46</v>
       </c>
-      <c r="GE76" t="n">
-        <v>0</v>
-      </c>
       <c r="GF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG76" t="n">
         <v>12</v>
       </c>
-      <c r="GG76" t="n">
-        <v>2</v>
-      </c>
       <c r="GH76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GI76" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ76" t="n">
         <v>32</v>
       </c>
-      <c r="GJ76" t="n">
+      <c r="GK76" t="n">
         <v>5</v>
       </c>
-      <c r="GK76" t="n">
-        <v>3</v>
-      </c>
       <c r="GL76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM76" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN76" t="n">
         <v>65</v>
       </c>
-      <c r="GN76" t="n">
+      <c r="GO76" t="n">
         <v>8</v>
       </c>
-      <c r="GO76" t="n">
+      <c r="GP76" t="n">
         <v>11</v>
       </c>
-      <c r="GP76" t="n">
+      <c r="GQ76" t="n">
         <v>48</v>
       </c>
-      <c r="GQ76" t="n">
+      <c r="GR76" t="n">
         <v>17</v>
       </c>
-      <c r="GR76" t="n">
+      <c r="GS76" t="n">
         <v>19</v>
       </c>
-      <c r="GS76" t="n">
+      <c r="GT76" t="n">
         <v>7</v>
       </c>
-      <c r="GT76" t="n">
+      <c r="GU76" t="n">
         <v>4</v>
       </c>
-      <c r="GU76" t="n">
-        <v>1</v>
-      </c>
       <c r="GV76" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW76" t="n">
         <v>4</v>
       </c>
-      <c r="GW76" t="n">
+      <c r="GX76" t="n">
         <v>12</v>
       </c>
-      <c r="GX76" t="n">
+      <c r="GY76" t="n">
         <v>34</v>
       </c>
-      <c r="GY76" t="n">
+      <c r="GZ76" t="n">
         <v>463</v>
       </c>
-      <c r="GZ76" t="n">
+      <c r="HA76" t="n">
         <v>22</v>
       </c>
     </row>
@@ -49067,72 +49297,75 @@
         <v>0</v>
       </c>
       <c r="GD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE77" t="n">
         <v>46</v>
       </c>
-      <c r="GE77" t="n">
-        <v>0</v>
-      </c>
       <c r="GF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG77" t="n">
         <v>13</v>
       </c>
-      <c r="GG77" t="n">
-        <v>2</v>
-      </c>
       <c r="GH77" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI77" t="n">
         <v>4</v>
       </c>
-      <c r="GI77" t="n">
+      <c r="GJ77" t="n">
         <v>33</v>
       </c>
-      <c r="GJ77" t="n">
+      <c r="GK77" t="n">
         <v>5</v>
       </c>
-      <c r="GK77" t="n">
-        <v>3</v>
-      </c>
       <c r="GL77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM77" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN77" t="n">
         <v>65</v>
       </c>
-      <c r="GN77" t="n">
+      <c r="GO77" t="n">
         <v>8</v>
       </c>
-      <c r="GO77" t="n">
+      <c r="GP77" t="n">
         <v>12</v>
       </c>
-      <c r="GP77" t="n">
+      <c r="GQ77" t="n">
         <v>48</v>
       </c>
-      <c r="GQ77" t="n">
+      <c r="GR77" t="n">
         <v>17</v>
       </c>
-      <c r="GR77" t="n">
+      <c r="GS77" t="n">
         <v>20</v>
       </c>
-      <c r="GS77" t="n">
+      <c r="GT77" t="n">
         <v>7</v>
       </c>
-      <c r="GT77" t="n">
+      <c r="GU77" t="n">
         <v>5</v>
       </c>
-      <c r="GU77" t="n">
-        <v>1</v>
-      </c>
       <c r="GV77" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW77" t="n">
         <v>4</v>
       </c>
-      <c r="GW77" t="n">
+      <c r="GX77" t="n">
         <v>12</v>
       </c>
-      <c r="GX77" t="n">
+      <c r="GY77" t="n">
         <v>34</v>
       </c>
-      <c r="GY77" t="n">
+      <c r="GZ77" t="n">
         <v>478</v>
       </c>
-      <c r="GZ77" t="n">
+      <c r="HA77" t="n">
         <v>23</v>
       </c>
     </row>
@@ -49695,72 +49928,75 @@
         <v>0</v>
       </c>
       <c r="GD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE78" t="n">
         <v>60</v>
       </c>
-      <c r="GE78" t="n">
-        <v>0</v>
-      </c>
       <c r="GF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG78" t="n">
         <v>14</v>
       </c>
-      <c r="GG78" t="n">
-        <v>2</v>
-      </c>
       <c r="GH78" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI78" t="n">
         <v>4</v>
       </c>
-      <c r="GI78" t="n">
+      <c r="GJ78" t="n">
         <v>35</v>
       </c>
-      <c r="GJ78" t="n">
+      <c r="GK78" t="n">
         <v>5</v>
       </c>
-      <c r="GK78" t="n">
-        <v>3</v>
-      </c>
       <c r="GL78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM78" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN78" t="n">
         <v>99</v>
       </c>
-      <c r="GN78" t="n">
+      <c r="GO78" t="n">
         <v>8</v>
       </c>
-      <c r="GO78" t="n">
+      <c r="GP78" t="n">
         <v>12</v>
       </c>
-      <c r="GP78" t="n">
+      <c r="GQ78" t="n">
         <v>48</v>
       </c>
-      <c r="GQ78" t="n">
+      <c r="GR78" t="n">
         <v>18</v>
       </c>
-      <c r="GR78" t="n">
+      <c r="GS78" t="n">
         <v>21</v>
       </c>
-      <c r="GS78" t="n">
+      <c r="GT78" t="n">
         <v>7</v>
       </c>
-      <c r="GT78" t="n">
+      <c r="GU78" t="n">
         <v>5</v>
       </c>
-      <c r="GU78" t="n">
-        <v>1</v>
-      </c>
       <c r="GV78" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW78" t="n">
         <v>4</v>
       </c>
-      <c r="GW78" t="n">
+      <c r="GX78" t="n">
         <v>12</v>
       </c>
-      <c r="GX78" t="n">
+      <c r="GY78" t="n">
         <v>36</v>
       </c>
-      <c r="GY78" t="n">
+      <c r="GZ78" t="n">
         <v>496</v>
       </c>
-      <c r="GZ78" t="n">
+      <c r="HA78" t="n">
         <v>28</v>
       </c>
     </row>
@@ -50323,72 +50559,75 @@
         <v>0</v>
       </c>
       <c r="GD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE79" t="n">
         <v>62</v>
       </c>
-      <c r="GE79" t="n">
-        <v>0</v>
-      </c>
       <c r="GF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG79" t="n">
         <v>15</v>
       </c>
-      <c r="GG79" t="n">
-        <v>2</v>
-      </c>
       <c r="GH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI79" t="n">
         <v>4</v>
       </c>
-      <c r="GI79" t="n">
+      <c r="GJ79" t="n">
         <v>36</v>
       </c>
-      <c r="GJ79" t="n">
+      <c r="GK79" t="n">
         <v>5</v>
       </c>
-      <c r="GK79" t="n">
-        <v>3</v>
-      </c>
       <c r="GL79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM79" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN79" t="n">
         <v>101</v>
       </c>
-      <c r="GN79" t="n">
+      <c r="GO79" t="n">
         <v>10</v>
       </c>
-      <c r="GO79" t="n">
+      <c r="GP79" t="n">
         <v>12</v>
       </c>
-      <c r="GP79" t="n">
+      <c r="GQ79" t="n">
         <v>51</v>
       </c>
-      <c r="GQ79" t="n">
+      <c r="GR79" t="n">
         <v>18</v>
       </c>
-      <c r="GR79" t="n">
+      <c r="GS79" t="n">
         <v>21</v>
       </c>
-      <c r="GS79" t="n">
+      <c r="GT79" t="n">
         <v>7</v>
       </c>
-      <c r="GT79" t="n">
+      <c r="GU79" t="n">
         <v>5</v>
       </c>
-      <c r="GU79" t="n">
-        <v>1</v>
-      </c>
       <c r="GV79" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW79" t="n">
         <v>4</v>
       </c>
-      <c r="GW79" t="n">
+      <c r="GX79" t="n">
         <v>12</v>
       </c>
-      <c r="GX79" t="n">
+      <c r="GY79" t="n">
         <v>39</v>
       </c>
-      <c r="GY79" t="n">
+      <c r="GZ79" t="n">
         <v>507</v>
       </c>
-      <c r="GZ79" t="n">
+      <c r="HA79" t="n">
         <v>28</v>
       </c>
     </row>
@@ -50951,72 +51190,75 @@
         <v>0</v>
       </c>
       <c r="GD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE80" t="n">
         <v>72</v>
       </c>
-      <c r="GE80" t="n">
-        <v>0</v>
-      </c>
       <c r="GF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG80" t="n">
         <v>16</v>
       </c>
-      <c r="GG80" t="n">
-        <v>3</v>
-      </c>
       <c r="GH80" t="n">
+        <v>3</v>
+      </c>
+      <c r="GI80" t="n">
         <v>4</v>
       </c>
-      <c r="GI80" t="n">
+      <c r="GJ80" t="n">
         <v>43</v>
       </c>
-      <c r="GJ80" t="n">
+      <c r="GK80" t="n">
         <v>5</v>
       </c>
-      <c r="GK80" t="n">
-        <v>3</v>
-      </c>
       <c r="GL80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM80" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN80" t="n">
         <v>115</v>
       </c>
-      <c r="GN80" t="n">
+      <c r="GO80" t="n">
         <v>11</v>
       </c>
-      <c r="GO80" t="n">
+      <c r="GP80" t="n">
         <v>14</v>
       </c>
-      <c r="GP80" t="n">
+      <c r="GQ80" t="n">
         <v>56</v>
       </c>
-      <c r="GQ80" t="n">
+      <c r="GR80" t="n">
         <v>19</v>
       </c>
-      <c r="GR80" t="n">
+      <c r="GS80" t="n">
         <v>21</v>
       </c>
-      <c r="GS80" t="n">
+      <c r="GT80" t="n">
         <v>7</v>
       </c>
-      <c r="GT80" t="n">
+      <c r="GU80" t="n">
         <v>5</v>
       </c>
-      <c r="GU80" t="n">
-        <v>1</v>
-      </c>
       <c r="GV80" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW80" t="n">
         <v>4</v>
       </c>
-      <c r="GW80" t="n">
+      <c r="GX80" t="n">
         <v>14</v>
       </c>
-      <c r="GX80" t="n">
+      <c r="GY80" t="n">
         <v>39</v>
       </c>
-      <c r="GY80" t="n">
+      <c r="GZ80" t="n">
         <v>520</v>
       </c>
-      <c r="GZ80" t="n">
+      <c r="HA80" t="n">
         <v>32</v>
       </c>
     </row>
@@ -51579,72 +51821,75 @@
         <v>0</v>
       </c>
       <c r="GD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE81" t="n">
         <v>76</v>
       </c>
-      <c r="GE81" t="n">
-        <v>0</v>
-      </c>
       <c r="GF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG81" t="n">
         <v>16</v>
       </c>
-      <c r="GG81" t="n">
+      <c r="GH81" t="n">
         <v>4</v>
       </c>
-      <c r="GH81" t="n">
+      <c r="GI81" t="n">
         <v>5</v>
       </c>
-      <c r="GI81" t="n">
+      <c r="GJ81" t="n">
         <v>54</v>
       </c>
-      <c r="GJ81" t="n">
+      <c r="GK81" t="n">
         <v>5</v>
       </c>
-      <c r="GK81" t="n">
-        <v>3</v>
-      </c>
       <c r="GL81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM81" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN81" t="n">
         <v>115</v>
-      </c>
-      <c r="GN81" t="n">
-        <v>14</v>
       </c>
       <c r="GO81" t="n">
         <v>14</v>
       </c>
       <c r="GP81" t="n">
+        <v>14</v>
+      </c>
+      <c r="GQ81" t="n">
         <v>63</v>
-      </c>
-      <c r="GQ81" t="n">
-        <v>21</v>
       </c>
       <c r="GR81" t="n">
         <v>21</v>
       </c>
       <c r="GS81" t="n">
+        <v>21</v>
+      </c>
+      <c r="GT81" t="n">
         <v>7</v>
       </c>
-      <c r="GT81" t="n">
+      <c r="GU81" t="n">
         <v>5</v>
       </c>
-      <c r="GU81" t="n">
-        <v>1</v>
-      </c>
       <c r="GV81" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW81" t="n">
         <v>5</v>
       </c>
-      <c r="GW81" t="n">
+      <c r="GX81" t="n">
         <v>14</v>
       </c>
-      <c r="GX81" t="n">
+      <c r="GY81" t="n">
         <v>41</v>
       </c>
-      <c r="GY81" t="n">
+      <c r="GZ81" t="n">
         <v>546</v>
       </c>
-      <c r="GZ81" t="n">
+      <c r="HA81" t="n">
         <v>36</v>
       </c>
     </row>
@@ -52207,72 +52452,75 @@
         <v>0</v>
       </c>
       <c r="GD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE82" t="n">
         <v>87</v>
       </c>
-      <c r="GE82" t="n">
-        <v>0</v>
-      </c>
       <c r="GF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG82" t="n">
         <v>17</v>
       </c>
-      <c r="GG82" t="n">
+      <c r="GH82" t="n">
         <v>4</v>
       </c>
-      <c r="GH82" t="n">
+      <c r="GI82" t="n">
         <v>5</v>
       </c>
-      <c r="GI82" t="n">
+      <c r="GJ82" t="n">
         <v>56</v>
       </c>
-      <c r="GJ82" t="n">
+      <c r="GK82" t="n">
         <v>6</v>
       </c>
-      <c r="GK82" t="n">
-        <v>3</v>
-      </c>
       <c r="GL82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM82" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN82" t="n">
         <v>124</v>
-      </c>
-      <c r="GN82" t="n">
-        <v>14</v>
       </c>
       <c r="GO82" t="n">
         <v>14</v>
       </c>
       <c r="GP82" t="n">
+        <v>14</v>
+      </c>
+      <c r="GQ82" t="n">
         <v>67</v>
       </c>
-      <c r="GQ82" t="n">
+      <c r="GR82" t="n">
         <v>24</v>
       </c>
-      <c r="GR82" t="n">
+      <c r="GS82" t="n">
         <v>21</v>
       </c>
-      <c r="GS82" t="n">
+      <c r="GT82" t="n">
         <v>7</v>
       </c>
-      <c r="GT82" t="n">
+      <c r="GU82" t="n">
         <v>5</v>
       </c>
-      <c r="GU82" t="n">
-        <v>1</v>
-      </c>
       <c r="GV82" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW82" t="n">
         <v>5</v>
       </c>
-      <c r="GW82" t="n">
+      <c r="GX82" t="n">
         <v>14</v>
       </c>
-      <c r="GX82" t="n">
+      <c r="GY82" t="n">
         <v>44</v>
       </c>
-      <c r="GY82" t="n">
+      <c r="GZ82" t="n">
         <v>559</v>
       </c>
-      <c r="GZ82" t="n">
+      <c r="HA82" t="n">
         <v>36</v>
       </c>
     </row>
@@ -52835,72 +53083,75 @@
         <v>0</v>
       </c>
       <c r="GD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE83" t="n">
         <v>88</v>
       </c>
-      <c r="GE83" t="n">
-        <v>0</v>
-      </c>
       <c r="GF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG83" t="n">
         <v>19</v>
-      </c>
-      <c r="GG83" t="n">
-        <v>5</v>
       </c>
       <c r="GH83" t="n">
         <v>5</v>
       </c>
       <c r="GI83" t="n">
+        <v>5</v>
+      </c>
+      <c r="GJ83" t="n">
         <v>57</v>
       </c>
-      <c r="GJ83" t="n">
+      <c r="GK83" t="n">
         <v>7</v>
       </c>
-      <c r="GK83" t="n">
-        <v>3</v>
-      </c>
       <c r="GL83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM83" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN83" t="n">
         <v>125</v>
-      </c>
-      <c r="GN83" t="n">
-        <v>14</v>
       </c>
       <c r="GO83" t="n">
         <v>14</v>
       </c>
       <c r="GP83" t="n">
+        <v>14</v>
+      </c>
+      <c r="GQ83" t="n">
         <v>67</v>
       </c>
-      <c r="GQ83" t="n">
+      <c r="GR83" t="n">
         <v>25</v>
       </c>
-      <c r="GR83" t="n">
+      <c r="GS83" t="n">
         <v>21</v>
       </c>
-      <c r="GS83" t="n">
+      <c r="GT83" t="n">
         <v>8</v>
       </c>
-      <c r="GT83" t="n">
+      <c r="GU83" t="n">
         <v>6</v>
       </c>
-      <c r="GU83" t="n">
-        <v>1</v>
-      </c>
       <c r="GV83" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW83" t="n">
         <v>5</v>
       </c>
-      <c r="GW83" t="n">
+      <c r="GX83" t="n">
         <v>14</v>
       </c>
-      <c r="GX83" t="n">
+      <c r="GY83" t="n">
         <v>48</v>
       </c>
-      <c r="GY83" t="n">
+      <c r="GZ83" t="n">
         <v>563</v>
       </c>
-      <c r="GZ83" t="n">
+      <c r="HA83" t="n">
         <v>37</v>
       </c>
     </row>
@@ -53463,72 +53714,75 @@
         <v>0</v>
       </c>
       <c r="GD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE84" t="n">
         <v>88</v>
       </c>
-      <c r="GE84" t="n">
-        <v>0</v>
-      </c>
       <c r="GF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG84" t="n">
         <v>24</v>
       </c>
-      <c r="GG84" t="n">
+      <c r="GH84" t="n">
         <v>5</v>
       </c>
-      <c r="GH84" t="n">
+      <c r="GI84" t="n">
         <v>6</v>
       </c>
-      <c r="GI84" t="n">
+      <c r="GJ84" t="n">
         <v>57</v>
       </c>
-      <c r="GJ84" t="n">
+      <c r="GK84" t="n">
         <v>7</v>
       </c>
-      <c r="GK84" t="n">
-        <v>3</v>
-      </c>
       <c r="GL84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM84" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN84" t="n">
         <v>125</v>
       </c>
-      <c r="GN84" t="n">
+      <c r="GO84" t="n">
         <v>14</v>
       </c>
-      <c r="GO84" t="n">
+      <c r="GP84" t="n">
         <v>15</v>
       </c>
-      <c r="GP84" t="n">
+      <c r="GQ84" t="n">
         <v>68</v>
       </c>
-      <c r="GQ84" t="n">
+      <c r="GR84" t="n">
         <v>25</v>
       </c>
-      <c r="GR84" t="n">
+      <c r="GS84" t="n">
         <v>21</v>
       </c>
-      <c r="GS84" t="n">
+      <c r="GT84" t="n">
         <v>9</v>
       </c>
-      <c r="GT84" t="n">
+      <c r="GU84" t="n">
         <v>6</v>
       </c>
-      <c r="GU84" t="n">
-        <v>1</v>
-      </c>
       <c r="GV84" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW84" t="n">
         <v>5</v>
       </c>
-      <c r="GW84" t="n">
+      <c r="GX84" t="n">
         <v>15</v>
       </c>
-      <c r="GX84" t="n">
+      <c r="GY84" t="n">
         <v>48</v>
       </c>
-      <c r="GY84" t="n">
+      <c r="GZ84" t="n">
         <v>566</v>
       </c>
-      <c r="GZ84" t="n">
+      <c r="HA84" t="n">
         <v>38</v>
       </c>
     </row>
@@ -54091,72 +54345,75 @@
         <v>0</v>
       </c>
       <c r="GD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE85" t="n">
         <v>101</v>
       </c>
-      <c r="GE85" t="n">
-        <v>0</v>
-      </c>
       <c r="GF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG85" t="n">
         <v>29</v>
       </c>
-      <c r="GG85" t="n">
+      <c r="GH85" t="n">
         <v>7</v>
       </c>
-      <c r="GH85" t="n">
+      <c r="GI85" t="n">
         <v>6</v>
       </c>
-      <c r="GI85" t="n">
+      <c r="GJ85" t="n">
         <v>63</v>
       </c>
-      <c r="GJ85" t="n">
+      <c r="GK85" t="n">
         <v>8</v>
       </c>
-      <c r="GK85" t="n">
-        <v>3</v>
-      </c>
       <c r="GL85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM85" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN85" t="n">
         <v>128</v>
       </c>
-      <c r="GN85" t="n">
+      <c r="GO85" t="n">
         <v>16</v>
       </c>
-      <c r="GO85" t="n">
+      <c r="GP85" t="n">
         <v>15</v>
       </c>
-      <c r="GP85" t="n">
+      <c r="GQ85" t="n">
         <v>70</v>
       </c>
-      <c r="GQ85" t="n">
+      <c r="GR85" t="n">
         <v>28</v>
       </c>
-      <c r="GR85" t="n">
+      <c r="GS85" t="n">
         <v>21</v>
       </c>
-      <c r="GS85" t="n">
+      <c r="GT85" t="n">
         <v>9</v>
       </c>
-      <c r="GT85" t="n">
+      <c r="GU85" t="n">
         <v>6</v>
       </c>
-      <c r="GU85" t="n">
-        <v>1</v>
-      </c>
       <c r="GV85" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW85" t="n">
         <v>6</v>
       </c>
-      <c r="GW85" t="n">
+      <c r="GX85" t="n">
         <v>15</v>
       </c>
-      <c r="GX85" t="n">
+      <c r="GY85" t="n">
         <v>51</v>
       </c>
-      <c r="GY85" t="n">
+      <c r="GZ85" t="n">
         <v>576</v>
       </c>
-      <c r="GZ85" t="n">
+      <c r="HA85" t="n">
         <v>43</v>
       </c>
     </row>
@@ -54719,72 +54976,75 @@
         <v>0</v>
       </c>
       <c r="GD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE86" t="n">
         <v>105</v>
       </c>
-      <c r="GE86" t="n">
-        <v>0</v>
-      </c>
       <c r="GF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG86" t="n">
         <v>31</v>
       </c>
-      <c r="GG86" t="n">
+      <c r="GH86" t="n">
         <v>7</v>
       </c>
-      <c r="GH86" t="n">
+      <c r="GI86" t="n">
         <v>6</v>
       </c>
-      <c r="GI86" t="n">
+      <c r="GJ86" t="n">
         <v>73</v>
       </c>
-      <c r="GJ86" t="n">
+      <c r="GK86" t="n">
         <v>8</v>
       </c>
-      <c r="GK86" t="n">
-        <v>3</v>
-      </c>
       <c r="GL86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM86" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN86" t="n">
         <v>131</v>
       </c>
-      <c r="GN86" t="n">
+      <c r="GO86" t="n">
         <v>17</v>
       </c>
-      <c r="GO86" t="n">
+      <c r="GP86" t="n">
         <v>15</v>
       </c>
-      <c r="GP86" t="n">
+      <c r="GQ86" t="n">
         <v>70</v>
       </c>
-      <c r="GQ86" t="n">
+      <c r="GR86" t="n">
         <v>29</v>
       </c>
-      <c r="GR86" t="n">
+      <c r="GS86" t="n">
         <v>21</v>
       </c>
-      <c r="GS86" t="n">
+      <c r="GT86" t="n">
         <v>10</v>
       </c>
-      <c r="GT86" t="n">
+      <c r="GU86" t="n">
         <v>6</v>
       </c>
-      <c r="GU86" t="n">
-        <v>1</v>
-      </c>
       <c r="GV86" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW86" t="n">
         <v>8</v>
       </c>
-      <c r="GW86" t="n">
+      <c r="GX86" t="n">
         <v>15</v>
       </c>
-      <c r="GX86" t="n">
+      <c r="GY86" t="n">
         <v>51</v>
       </c>
-      <c r="GY86" t="n">
+      <c r="GZ86" t="n">
         <v>583</v>
       </c>
-      <c r="GZ86" t="n">
+      <c r="HA86" t="n">
         <v>47</v>
       </c>
     </row>
@@ -55347,72 +55607,75 @@
         <v>0</v>
       </c>
       <c r="GD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE87" t="n">
         <v>117</v>
       </c>
-      <c r="GE87" t="n">
-        <v>0</v>
-      </c>
       <c r="GF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG87" t="n">
         <v>33</v>
       </c>
-      <c r="GG87" t="n">
+      <c r="GH87" t="n">
         <v>10</v>
       </c>
-      <c r="GH87" t="n">
+      <c r="GI87" t="n">
         <v>7</v>
       </c>
-      <c r="GI87" t="n">
+      <c r="GJ87" t="n">
         <v>73</v>
       </c>
-      <c r="GJ87" t="n">
+      <c r="GK87" t="n">
         <v>8</v>
       </c>
-      <c r="GK87" t="n">
-        <v>3</v>
-      </c>
       <c r="GL87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN87" t="n">
         <v>143</v>
       </c>
-      <c r="GN87" t="n">
+      <c r="GO87" t="n">
         <v>23</v>
       </c>
-      <c r="GO87" t="n">
+      <c r="GP87" t="n">
         <v>15</v>
       </c>
-      <c r="GP87" t="n">
+      <c r="GQ87" t="n">
         <v>70</v>
       </c>
-      <c r="GQ87" t="n">
+      <c r="GR87" t="n">
         <v>29</v>
       </c>
-      <c r="GR87" t="n">
+      <c r="GS87" t="n">
         <v>21</v>
       </c>
-      <c r="GS87" t="n">
+      <c r="GT87" t="n">
         <v>11</v>
       </c>
-      <c r="GT87" t="n">
+      <c r="GU87" t="n">
         <v>8</v>
       </c>
-      <c r="GU87" t="n">
-        <v>1</v>
-      </c>
       <c r="GV87" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW87" t="n">
         <v>10</v>
       </c>
-      <c r="GW87" t="n">
+      <c r="GX87" t="n">
         <v>15</v>
       </c>
-      <c r="GX87" t="n">
+      <c r="GY87" t="n">
         <v>53</v>
       </c>
-      <c r="GY87" t="n">
+      <c r="GZ87" t="n">
         <v>596</v>
       </c>
-      <c r="GZ87" t="n">
+      <c r="HA87" t="n">
         <v>55</v>
       </c>
     </row>
@@ -55975,72 +56238,75 @@
         <v>0</v>
       </c>
       <c r="GD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE88" t="n">
         <v>123</v>
       </c>
-      <c r="GE88" t="n">
-        <v>0</v>
-      </c>
       <c r="GF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG88" t="n">
         <v>39</v>
       </c>
-      <c r="GG88" t="n">
+      <c r="GH88" t="n">
         <v>10</v>
       </c>
-      <c r="GH88" t="n">
+      <c r="GI88" t="n">
         <v>7</v>
       </c>
-      <c r="GI88" t="n">
+      <c r="GJ88" t="n">
         <v>73</v>
       </c>
-      <c r="GJ88" t="n">
+      <c r="GK88" t="n">
         <v>8</v>
       </c>
-      <c r="GK88" t="n">
-        <v>3</v>
-      </c>
       <c r="GL88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM88" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN88" t="n">
         <v>149</v>
       </c>
-      <c r="GN88" t="n">
+      <c r="GO88" t="n">
         <v>25</v>
       </c>
-      <c r="GO88" t="n">
+      <c r="GP88" t="n">
         <v>15</v>
       </c>
-      <c r="GP88" t="n">
+      <c r="GQ88" t="n">
         <v>71</v>
       </c>
-      <c r="GQ88" t="n">
+      <c r="GR88" t="n">
         <v>29</v>
       </c>
-      <c r="GR88" t="n">
+      <c r="GS88" t="n">
         <v>21</v>
       </c>
-      <c r="GS88" t="n">
+      <c r="GT88" t="n">
         <v>12</v>
       </c>
-      <c r="GT88" t="n">
+      <c r="GU88" t="n">
         <v>9</v>
       </c>
-      <c r="GU88" t="n">
-        <v>1</v>
-      </c>
       <c r="GV88" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW88" t="n">
         <v>10</v>
       </c>
-      <c r="GW88" t="n">
+      <c r="GX88" t="n">
         <v>16</v>
       </c>
-      <c r="GX88" t="n">
+      <c r="GY88" t="n">
         <v>55</v>
       </c>
-      <c r="GY88" t="n">
+      <c r="GZ88" t="n">
         <v>605</v>
       </c>
-      <c r="GZ88" t="n">
+      <c r="HA88" t="n">
         <v>63</v>
       </c>
     </row>
@@ -56603,72 +56869,75 @@
         <v>0</v>
       </c>
       <c r="GD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE89" t="n">
         <v>140</v>
       </c>
-      <c r="GE89" t="n">
-        <v>0</v>
-      </c>
       <c r="GF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG89" t="n">
         <v>41</v>
       </c>
-      <c r="GG89" t="n">
+      <c r="GH89" t="n">
         <v>10</v>
       </c>
-      <c r="GH89" t="n">
+      <c r="GI89" t="n">
         <v>7</v>
       </c>
-      <c r="GI89" t="n">
+      <c r="GJ89" t="n">
         <v>75</v>
       </c>
-      <c r="GJ89" t="n">
+      <c r="GK89" t="n">
         <v>10</v>
       </c>
-      <c r="GK89" t="n">
-        <v>3</v>
-      </c>
       <c r="GL89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN89" t="n">
         <v>160</v>
       </c>
-      <c r="GN89" t="n">
+      <c r="GO89" t="n">
         <v>26</v>
       </c>
-      <c r="GO89" t="n">
+      <c r="GP89" t="n">
         <v>17</v>
       </c>
-      <c r="GP89" t="n">
+      <c r="GQ89" t="n">
         <v>73</v>
       </c>
-      <c r="GQ89" t="n">
+      <c r="GR89" t="n">
         <v>29</v>
       </c>
-      <c r="GR89" t="n">
+      <c r="GS89" t="n">
         <v>22</v>
       </c>
-      <c r="GS89" t="n">
+      <c r="GT89" t="n">
         <v>13</v>
       </c>
-      <c r="GT89" t="n">
+      <c r="GU89" t="n">
         <v>9</v>
       </c>
-      <c r="GU89" t="n">
-        <v>1</v>
-      </c>
       <c r="GV89" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW89" t="n">
         <v>10</v>
       </c>
-      <c r="GW89" t="n">
+      <c r="GX89" t="n">
         <v>16</v>
       </c>
-      <c r="GX89" t="n">
+      <c r="GY89" t="n">
         <v>58</v>
       </c>
-      <c r="GY89" t="n">
+      <c r="GZ89" t="n">
         <v>618</v>
       </c>
-      <c r="GZ89" t="n">
+      <c r="HA89" t="n">
         <v>64</v>
       </c>
     </row>
@@ -57231,72 +57500,75 @@
         <v>0</v>
       </c>
       <c r="GD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE90" t="n">
         <v>143</v>
       </c>
-      <c r="GE90" t="n">
-        <v>0</v>
-      </c>
       <c r="GF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG90" t="n">
         <v>47</v>
       </c>
-      <c r="GG90" t="n">
+      <c r="GH90" t="n">
         <v>10</v>
       </c>
-      <c r="GH90" t="n">
+      <c r="GI90" t="n">
         <v>7</v>
       </c>
-      <c r="GI90" t="n">
+      <c r="GJ90" t="n">
         <v>77</v>
       </c>
-      <c r="GJ90" t="n">
+      <c r="GK90" t="n">
         <v>10</v>
       </c>
-      <c r="GK90" t="n">
-        <v>3</v>
-      </c>
       <c r="GL90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN90" t="n">
         <v>160</v>
       </c>
-      <c r="GN90" t="n">
+      <c r="GO90" t="n">
         <v>26</v>
       </c>
-      <c r="GO90" t="n">
+      <c r="GP90" t="n">
         <v>17</v>
       </c>
-      <c r="GP90" t="n">
+      <c r="GQ90" t="n">
         <v>73</v>
       </c>
-      <c r="GQ90" t="n">
+      <c r="GR90" t="n">
         <v>29</v>
       </c>
-      <c r="GR90" t="n">
+      <c r="GS90" t="n">
         <v>22</v>
       </c>
-      <c r="GS90" t="n">
+      <c r="GT90" t="n">
         <v>14</v>
       </c>
-      <c r="GT90" t="n">
+      <c r="GU90" t="n">
         <v>9</v>
       </c>
-      <c r="GU90" t="n">
-        <v>3</v>
-      </c>
       <c r="GV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW90" t="n">
         <v>10</v>
       </c>
-      <c r="GW90" t="n">
+      <c r="GX90" t="n">
         <v>16</v>
       </c>
-      <c r="GX90" t="n">
+      <c r="GY90" t="n">
         <v>60</v>
       </c>
-      <c r="GY90" t="n">
+      <c r="GZ90" t="n">
         <v>620</v>
       </c>
-      <c r="GZ90" t="n">
+      <c r="HA90" t="n">
         <v>70</v>
       </c>
     </row>
@@ -57859,72 +58131,75 @@
         <v>0</v>
       </c>
       <c r="GD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE91" t="n">
         <v>145</v>
       </c>
-      <c r="GE91" t="n">
-        <v>0</v>
-      </c>
       <c r="GF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG91" t="n">
         <v>50</v>
       </c>
-      <c r="GG91" t="n">
+      <c r="GH91" t="n">
         <v>10</v>
       </c>
-      <c r="GH91" t="n">
+      <c r="GI91" t="n">
         <v>7</v>
       </c>
-      <c r="GI91" t="n">
+      <c r="GJ91" t="n">
         <v>78</v>
       </c>
-      <c r="GJ91" t="n">
+      <c r="GK91" t="n">
         <v>10</v>
       </c>
-      <c r="GK91" t="n">
-        <v>3</v>
-      </c>
       <c r="GL91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM91" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN91" t="n">
         <v>161</v>
       </c>
-      <c r="GN91" t="n">
+      <c r="GO91" t="n">
         <v>27</v>
       </c>
-      <c r="GO91" t="n">
+      <c r="GP91" t="n">
         <v>18</v>
       </c>
-      <c r="GP91" t="n">
+      <c r="GQ91" t="n">
         <v>74</v>
       </c>
-      <c r="GQ91" t="n">
+      <c r="GR91" t="n">
         <v>29</v>
       </c>
-      <c r="GR91" t="n">
+      <c r="GS91" t="n">
         <v>22</v>
       </c>
-      <c r="GS91" t="n">
+      <c r="GT91" t="n">
         <v>15</v>
       </c>
-      <c r="GT91" t="n">
+      <c r="GU91" t="n">
         <v>9</v>
       </c>
-      <c r="GU91" t="n">
-        <v>3</v>
-      </c>
       <c r="GV91" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW91" t="n">
         <v>10</v>
       </c>
-      <c r="GW91" t="n">
+      <c r="GX91" t="n">
         <v>17</v>
       </c>
-      <c r="GX91" t="n">
+      <c r="GY91" t="n">
         <v>60</v>
       </c>
-      <c r="GY91" t="n">
+      <c r="GZ91" t="n">
         <v>623</v>
       </c>
-      <c r="GZ91" t="n">
+      <c r="HA91" t="n">
         <v>71</v>
       </c>
     </row>
@@ -58487,72 +58762,75 @@
         <v>0</v>
       </c>
       <c r="GD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE92" t="n">
         <v>165</v>
       </c>
-      <c r="GE92" t="n">
-        <v>0</v>
-      </c>
       <c r="GF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG92" t="n">
         <v>53</v>
       </c>
-      <c r="GG92" t="n">
+      <c r="GH92" t="n">
         <v>13</v>
       </c>
-      <c r="GH92" t="n">
+      <c r="GI92" t="n">
         <v>8</v>
       </c>
-      <c r="GI92" t="n">
+      <c r="GJ92" t="n">
         <v>78</v>
       </c>
-      <c r="GJ92" t="n">
+      <c r="GK92" t="n">
         <v>10</v>
       </c>
-      <c r="GK92" t="n">
-        <v>3</v>
-      </c>
       <c r="GL92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM92" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN92" t="n">
         <v>166</v>
       </c>
-      <c r="GN92" t="n">
+      <c r="GO92" t="n">
         <v>29</v>
       </c>
-      <c r="GO92" t="n">
+      <c r="GP92" t="n">
         <v>18</v>
       </c>
-      <c r="GP92" t="n">
+      <c r="GQ92" t="n">
         <v>76</v>
       </c>
-      <c r="GQ92" t="n">
+      <c r="GR92" t="n">
         <v>32</v>
       </c>
-      <c r="GR92" t="n">
+      <c r="GS92" t="n">
         <v>22</v>
       </c>
-      <c r="GS92" t="n">
+      <c r="GT92" t="n">
         <v>15</v>
       </c>
-      <c r="GT92" t="n">
+      <c r="GU92" t="n">
         <v>12</v>
       </c>
-      <c r="GU92" t="n">
-        <v>3</v>
-      </c>
       <c r="GV92" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW92" t="n">
         <v>10</v>
       </c>
-      <c r="GW92" t="n">
+      <c r="GX92" t="n">
         <v>17</v>
       </c>
-      <c r="GX92" t="n">
+      <c r="GY92" t="n">
         <v>61</v>
       </c>
-      <c r="GY92" t="n">
+      <c r="GZ92" t="n">
         <v>636</v>
       </c>
-      <c r="GZ92" t="n">
+      <c r="HA92" t="n">
         <v>78</v>
       </c>
     </row>
@@ -59115,72 +59393,75 @@
         <v>0</v>
       </c>
       <c r="GD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE93" t="n">
         <v>170</v>
       </c>
-      <c r="GE93" t="n">
-        <v>0</v>
-      </c>
       <c r="GF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG93" t="n">
         <v>57</v>
       </c>
-      <c r="GG93" t="n">
+      <c r="GH93" t="n">
         <v>31</v>
       </c>
-      <c r="GH93" t="n">
+      <c r="GI93" t="n">
         <v>10</v>
       </c>
-      <c r="GI93" t="n">
+      <c r="GJ93" t="n">
         <v>84</v>
       </c>
-      <c r="GJ93" t="n">
+      <c r="GK93" t="n">
         <v>10</v>
       </c>
-      <c r="GK93" t="n">
-        <v>3</v>
-      </c>
       <c r="GL93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM93" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN93" t="n">
         <v>169</v>
       </c>
-      <c r="GN93" t="n">
+      <c r="GO93" t="n">
         <v>31</v>
       </c>
-      <c r="GO93" t="n">
+      <c r="GP93" t="n">
         <v>20</v>
       </c>
-      <c r="GP93" t="n">
+      <c r="GQ93" t="n">
         <v>78</v>
       </c>
-      <c r="GQ93" t="n">
+      <c r="GR93" t="n">
         <v>32</v>
       </c>
-      <c r="GR93" t="n">
+      <c r="GS93" t="n">
         <v>22</v>
       </c>
-      <c r="GS93" t="n">
+      <c r="GT93" t="n">
         <v>15</v>
       </c>
-      <c r="GT93" t="n">
+      <c r="GU93" t="n">
         <v>12</v>
       </c>
-      <c r="GU93" t="n">
-        <v>3</v>
-      </c>
       <c r="GV93" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW93" t="n">
         <v>10</v>
       </c>
-      <c r="GW93" t="n">
+      <c r="GX93" t="n">
         <v>17</v>
       </c>
-      <c r="GX93" t="n">
+      <c r="GY93" t="n">
         <v>63</v>
       </c>
-      <c r="GY93" t="n">
+      <c r="GZ93" t="n">
         <v>646</v>
       </c>
-      <c r="GZ93" t="n">
+      <c r="HA93" t="n">
         <v>84</v>
       </c>
     </row>
@@ -59743,72 +60024,75 @@
         <v>0</v>
       </c>
       <c r="GD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE94" t="n">
         <v>188</v>
       </c>
-      <c r="GE94" t="n">
-        <v>0</v>
-      </c>
       <c r="GF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG94" t="n">
         <v>61</v>
       </c>
-      <c r="GG94" t="n">
+      <c r="GH94" t="n">
         <v>51</v>
       </c>
-      <c r="GH94" t="n">
+      <c r="GI94" t="n">
         <v>13</v>
       </c>
-      <c r="GI94" t="n">
+      <c r="GJ94" t="n">
         <v>101</v>
       </c>
-      <c r="GJ94" t="n">
+      <c r="GK94" t="n">
         <v>10</v>
       </c>
-      <c r="GK94" t="n">
-        <v>3</v>
-      </c>
       <c r="GL94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM94" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN94" t="n">
         <v>190</v>
       </c>
-      <c r="GN94" t="n">
+      <c r="GO94" t="n">
         <v>38</v>
       </c>
-      <c r="GO94" t="n">
+      <c r="GP94" t="n">
         <v>20</v>
       </c>
-      <c r="GP94" t="n">
+      <c r="GQ94" t="n">
         <v>80</v>
       </c>
-      <c r="GQ94" t="n">
+      <c r="GR94" t="n">
         <v>34</v>
       </c>
-      <c r="GR94" t="n">
+      <c r="GS94" t="n">
         <v>22</v>
       </c>
-      <c r="GS94" t="n">
+      <c r="GT94" t="n">
         <v>17</v>
       </c>
-      <c r="GT94" t="n">
+      <c r="GU94" t="n">
         <v>12</v>
       </c>
-      <c r="GU94" t="n">
-        <v>3</v>
-      </c>
       <c r="GV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW94" t="n">
         <v>10</v>
       </c>
-      <c r="GW94" t="n">
+      <c r="GX94" t="n">
         <v>17</v>
       </c>
-      <c r="GX94" t="n">
+      <c r="GY94" t="n">
         <v>63</v>
       </c>
-      <c r="GY94" t="n">
+      <c r="GZ94" t="n">
         <v>665</v>
       </c>
-      <c r="GZ94" t="n">
+      <c r="HA94" t="n">
         <v>90</v>
       </c>
     </row>
@@ -60371,72 +60655,75 @@
         <v>0</v>
       </c>
       <c r="GD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE95" t="n">
         <v>190</v>
       </c>
-      <c r="GE95" t="n">
-        <v>0</v>
-      </c>
       <c r="GF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG95" t="n">
         <v>63</v>
       </c>
-      <c r="GG95" t="n">
+      <c r="GH95" t="n">
         <v>52</v>
       </c>
-      <c r="GH95" t="n">
+      <c r="GI95" t="n">
         <v>14</v>
       </c>
-      <c r="GI95" t="n">
+      <c r="GJ95" t="n">
         <v>102</v>
       </c>
-      <c r="GJ95" t="n">
+      <c r="GK95" t="n">
         <v>11</v>
       </c>
-      <c r="GK95" t="n">
-        <v>3</v>
-      </c>
       <c r="GL95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM95" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN95" t="n">
         <v>218</v>
       </c>
-      <c r="GN95" t="n">
+      <c r="GO95" t="n">
         <v>39</v>
       </c>
-      <c r="GO95" t="n">
+      <c r="GP95" t="n">
         <v>20</v>
       </c>
-      <c r="GP95" t="n">
+      <c r="GQ95" t="n">
         <v>80</v>
       </c>
-      <c r="GQ95" t="n">
+      <c r="GR95" t="n">
         <v>34</v>
       </c>
-      <c r="GR95" t="n">
+      <c r="GS95" t="n">
         <v>22</v>
       </c>
-      <c r="GS95" t="n">
+      <c r="GT95" t="n">
         <v>19</v>
       </c>
-      <c r="GT95" t="n">
+      <c r="GU95" t="n">
         <v>15</v>
       </c>
-      <c r="GU95" t="n">
-        <v>3</v>
-      </c>
       <c r="GV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW95" t="n">
         <v>10</v>
       </c>
-      <c r="GW95" t="n">
+      <c r="GX95" t="n">
         <v>17</v>
       </c>
-      <c r="GX95" t="n">
+      <c r="GY95" t="n">
         <v>63</v>
       </c>
-      <c r="GY95" t="n">
+      <c r="GZ95" t="n">
         <v>683</v>
       </c>
-      <c r="GZ95" t="n">
+      <c r="HA95" t="n">
         <v>93</v>
       </c>
     </row>
@@ -60999,72 +61286,75 @@
         <v>0</v>
       </c>
       <c r="GD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE96" t="n">
         <v>200</v>
       </c>
-      <c r="GE96" t="n">
-        <v>0</v>
-      </c>
       <c r="GF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG96" t="n">
         <v>68</v>
       </c>
-      <c r="GG96" t="n">
+      <c r="GH96" t="n">
         <v>52</v>
       </c>
-      <c r="GH96" t="n">
+      <c r="GI96" t="n">
         <v>14</v>
       </c>
-      <c r="GI96" t="n">
+      <c r="GJ96" t="n">
         <v>102</v>
       </c>
-      <c r="GJ96" t="n">
+      <c r="GK96" t="n">
         <v>12</v>
       </c>
-      <c r="GK96" t="n">
-        <v>3</v>
-      </c>
       <c r="GL96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN96" t="n">
         <v>220</v>
       </c>
-      <c r="GN96" t="n">
+      <c r="GO96" t="n">
         <v>39</v>
       </c>
-      <c r="GO96" t="n">
+      <c r="GP96" t="n">
         <v>20</v>
       </c>
-      <c r="GP96" t="n">
+      <c r="GQ96" t="n">
         <v>80</v>
       </c>
-      <c r="GQ96" t="n">
+      <c r="GR96" t="n">
         <v>34</v>
       </c>
-      <c r="GR96" t="n">
+      <c r="GS96" t="n">
         <v>22</v>
       </c>
-      <c r="GS96" t="n">
+      <c r="GT96" t="n">
         <v>19</v>
       </c>
-      <c r="GT96" t="n">
+      <c r="GU96" t="n">
         <v>17</v>
       </c>
-      <c r="GU96" t="n">
-        <v>3</v>
-      </c>
       <c r="GV96" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW96" t="n">
         <v>10</v>
       </c>
-      <c r="GW96" t="n">
+      <c r="GX96" t="n">
         <v>17</v>
       </c>
-      <c r="GX96" t="n">
+      <c r="GY96" t="n">
         <v>63</v>
       </c>
-      <c r="GY96" t="n">
+      <c r="GZ96" t="n">
         <v>696</v>
       </c>
-      <c r="GZ96" t="n">
+      <c r="HA96" t="n">
         <v>93</v>
       </c>
     </row>
@@ -61627,72 +61917,75 @@
         <v>0</v>
       </c>
       <c r="GD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE97" t="n">
         <v>200</v>
       </c>
-      <c r="GE97" t="n">
-        <v>0</v>
-      </c>
       <c r="GF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG97" t="n">
         <v>69</v>
       </c>
-      <c r="GG97" t="n">
+      <c r="GH97" t="n">
         <v>52</v>
       </c>
-      <c r="GH97" t="n">
+      <c r="GI97" t="n">
         <v>14</v>
       </c>
-      <c r="GI97" t="n">
+      <c r="GJ97" t="n">
         <v>102</v>
       </c>
-      <c r="GJ97" t="n">
+      <c r="GK97" t="n">
         <v>12</v>
       </c>
-      <c r="GK97" t="n">
-        <v>3</v>
-      </c>
       <c r="GL97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM97" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN97" t="n">
         <v>221</v>
       </c>
-      <c r="GN97" t="n">
+      <c r="GO97" t="n">
         <v>40</v>
       </c>
-      <c r="GO97" t="n">
+      <c r="GP97" t="n">
         <v>23</v>
       </c>
-      <c r="GP97" t="n">
+      <c r="GQ97" t="n">
         <v>80</v>
       </c>
-      <c r="GQ97" t="n">
+      <c r="GR97" t="n">
         <v>34</v>
       </c>
-      <c r="GR97" t="n">
+      <c r="GS97" t="n">
         <v>22</v>
       </c>
-      <c r="GS97" t="n">
+      <c r="GT97" t="n">
         <v>19</v>
       </c>
-      <c r="GT97" t="n">
+      <c r="GU97" t="n">
         <v>18</v>
       </c>
-      <c r="GU97" t="n">
-        <v>3</v>
-      </c>
       <c r="GV97" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW97" t="n">
         <v>10</v>
       </c>
-      <c r="GW97" t="n">
+      <c r="GX97" t="n">
         <v>17</v>
       </c>
-      <c r="GX97" t="n">
+      <c r="GY97" t="n">
         <v>63</v>
       </c>
-      <c r="GY97" t="n">
+      <c r="GZ97" t="n">
         <v>698</v>
       </c>
-      <c r="GZ97" t="n">
+      <c r="HA97" t="n">
         <v>96</v>
       </c>
     </row>
@@ -62255,72 +62548,75 @@
         <v>0</v>
       </c>
       <c r="GD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE98" t="n">
         <v>218</v>
       </c>
-      <c r="GE98" t="n">
-        <v>0</v>
-      </c>
       <c r="GF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG98" t="n">
         <v>80</v>
       </c>
-      <c r="GG98" t="n">
+      <c r="GH98" t="n">
         <v>53</v>
       </c>
-      <c r="GH98" t="n">
+      <c r="GI98" t="n">
         <v>14</v>
       </c>
-      <c r="GI98" t="n">
+      <c r="GJ98" t="n">
         <v>104</v>
       </c>
-      <c r="GJ98" t="n">
+      <c r="GK98" t="n">
         <v>12</v>
       </c>
-      <c r="GK98" t="n">
-        <v>3</v>
-      </c>
       <c r="GL98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GM98" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN98" t="n">
         <v>227</v>
       </c>
-      <c r="GN98" t="n">
+      <c r="GO98" t="n">
         <v>40</v>
       </c>
-      <c r="GO98" t="n">
+      <c r="GP98" t="n">
         <v>23</v>
       </c>
-      <c r="GP98" t="n">
+      <c r="GQ98" t="n">
         <v>81</v>
       </c>
-      <c r="GQ98" t="n">
+      <c r="GR98" t="n">
         <v>34</v>
       </c>
-      <c r="GR98" t="n">
+      <c r="GS98" t="n">
         <v>23</v>
       </c>
-      <c r="GS98" t="n">
+      <c r="GT98" t="n">
         <v>20</v>
       </c>
-      <c r="GT98" t="n">
+      <c r="GU98" t="n">
         <v>19</v>
       </c>
-      <c r="GU98" t="n">
-        <v>3</v>
-      </c>
       <c r="GV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW98" t="n">
         <v>12</v>
       </c>
-      <c r="GW98" t="n">
+      <c r="GX98" t="n">
         <v>17</v>
       </c>
-      <c r="GX98" t="n">
+      <c r="GY98" t="n">
         <v>63</v>
       </c>
-      <c r="GY98" t="n">
+      <c r="GZ98" t="n">
         <v>731</v>
       </c>
-      <c r="GZ98" t="n">
+      <c r="HA98" t="n">
         <v>100</v>
       </c>
     </row>
@@ -62880,75 +63176,78 @@
         <v>1</v>
       </c>
       <c r="GC99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD99" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE99" t="n">
         <v>232</v>
       </c>
-      <c r="GE99" t="n">
-        <v>1</v>
-      </c>
       <c r="GF99" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG99" t="n">
         <v>83</v>
       </c>
-      <c r="GG99" t="n">
+      <c r="GH99" t="n">
         <v>53</v>
       </c>
-      <c r="GH99" t="n">
+      <c r="GI99" t="n">
         <v>14</v>
       </c>
-      <c r="GI99" t="n">
+      <c r="GJ99" t="n">
         <v>104</v>
       </c>
-      <c r="GJ99" t="n">
+      <c r="GK99" t="n">
         <v>13</v>
       </c>
-      <c r="GK99" t="n">
-        <v>3</v>
-      </c>
       <c r="GL99" t="n">
         <v>3</v>
       </c>
       <c r="GM99" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN99" t="n">
         <v>228</v>
       </c>
-      <c r="GN99" t="n">
+      <c r="GO99" t="n">
         <v>42</v>
       </c>
-      <c r="GO99" t="n">
+      <c r="GP99" t="n">
         <v>23</v>
       </c>
-      <c r="GP99" t="n">
+      <c r="GQ99" t="n">
         <v>83</v>
       </c>
-      <c r="GQ99" t="n">
+      <c r="GR99" t="n">
         <v>34</v>
       </c>
-      <c r="GR99" t="n">
+      <c r="GS99" t="n">
         <v>23</v>
-      </c>
-      <c r="GS99" t="n">
-        <v>21</v>
       </c>
       <c r="GT99" t="n">
         <v>21</v>
       </c>
       <c r="GU99" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="GV99" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW99" t="n">
         <v>13</v>
       </c>
-      <c r="GW99" t="n">
+      <c r="GX99" t="n">
         <v>25</v>
       </c>
-      <c r="GX99" t="n">
+      <c r="GY99" t="n">
         <v>66</v>
       </c>
-      <c r="GY99" t="n">
+      <c r="GZ99" t="n">
         <v>773</v>
       </c>
-      <c r="GZ99" t="n">
+      <c r="HA99" t="n">
         <v>110</v>
       </c>
     </row>
@@ -62995,7 +63294,7 @@
         <v>4</v>
       </c>
       <c r="N100" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O100" t="n">
         <v>135</v>
@@ -63508,76 +63807,1341 @@
         <v>1</v>
       </c>
       <c r="GC100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD100" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE100" t="n">
         <v>236</v>
       </c>
-      <c r="GE100" t="n">
-        <v>1</v>
-      </c>
       <c r="GF100" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG100" t="n">
         <v>89</v>
       </c>
-      <c r="GG100" t="n">
+      <c r="GH100" t="n">
         <v>54</v>
       </c>
-      <c r="GH100" t="n">
+      <c r="GI100" t="n">
         <v>14</v>
       </c>
-      <c r="GI100" t="n">
+      <c r="GJ100" t="n">
         <v>119</v>
       </c>
-      <c r="GJ100" t="n">
+      <c r="GK100" t="n">
         <v>13</v>
       </c>
-      <c r="GK100" t="n">
+      <c r="GL100" t="n">
         <v>4</v>
       </c>
-      <c r="GL100" t="n">
-        <v>3</v>
-      </c>
       <c r="GM100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN100" t="n">
         <v>239</v>
       </c>
-      <c r="GN100" t="n">
+      <c r="GO100" t="n">
         <v>42</v>
       </c>
-      <c r="GO100" t="n">
+      <c r="GP100" t="n">
         <v>23</v>
       </c>
-      <c r="GP100" t="n">
+      <c r="GQ100" t="n">
         <v>85</v>
       </c>
-      <c r="GQ100" t="n">
+      <c r="GR100" t="n">
         <v>34</v>
       </c>
-      <c r="GR100" t="n">
+      <c r="GS100" t="n">
         <v>23</v>
-      </c>
-      <c r="GS100" t="n">
-        <v>22</v>
       </c>
       <c r="GT100" t="n">
         <v>22</v>
       </c>
       <c r="GU100" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="GV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW100" t="n">
         <v>13</v>
       </c>
-      <c r="GW100" t="n">
+      <c r="GX100" t="n">
         <v>25</v>
       </c>
-      <c r="GX100" t="n">
+      <c r="GY100" t="n">
         <v>66</v>
       </c>
-      <c r="GY100" t="n">
+      <c r="GZ100" t="n">
         <v>800</v>
       </c>
-      <c r="GZ100" t="n">
+      <c r="HA100" t="n">
         <v>112</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>441</v>
+      </c>
+      <c r="C101" t="n">
+        <v>42</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62</v>
+      </c>
+      <c r="E101" t="n">
+        <v>107</v>
+      </c>
+      <c r="F101" t="n">
+        <v>537</v>
+      </c>
+      <c r="G101" t="n">
+        <v>286</v>
+      </c>
+      <c r="H101" t="n">
+        <v>29</v>
+      </c>
+      <c r="I101" t="n">
+        <v>118</v>
+      </c>
+      <c r="J101" t="n">
+        <v>94</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>88</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="n">
+        <v>52</v>
+      </c>
+      <c r="O101" t="n">
+        <v>139</v>
+      </c>
+      <c r="P101" t="n">
+        <v>202</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>62</v>
+      </c>
+      <c r="S101" t="n">
+        <v>196</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>17</v>
+      </c>
+      <c r="V101" t="n">
+        <v>7</v>
+      </c>
+      <c r="W101" t="n">
+        <v>73</v>
+      </c>
+      <c r="X101" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>86</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>233</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>868</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1168</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>41</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>38</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>202</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>242</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>115</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>135</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>162</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>26</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>66</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>41</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>92</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>99</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>52</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>201</v>
+      </c>
+      <c r="BQ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>248</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>74</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>90</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV101" t="n">
+        <v>32</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>62</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>104</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>317</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>123</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>606</v>
+      </c>
+      <c r="CB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC101" t="n">
+        <v>171</v>
+      </c>
+      <c r="CD101" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE101" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG101" t="n">
+        <v>402</v>
+      </c>
+      <c r="CH101" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI101" t="n">
+        <v>24</v>
+      </c>
+      <c r="CJ101" t="n">
+        <v>104</v>
+      </c>
+      <c r="CK101" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL101" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM101" t="n">
+        <v>375</v>
+      </c>
+      <c r="CN101" t="n">
+        <v>71</v>
+      </c>
+      <c r="CO101" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP101" t="n">
+        <v>54</v>
+      </c>
+      <c r="CQ101" t="n">
+        <v>406</v>
+      </c>
+      <c r="CR101" t="n">
+        <v>14</v>
+      </c>
+      <c r="CS101" t="n">
+        <v>186</v>
+      </c>
+      <c r="CT101" t="n">
+        <v>68</v>
+      </c>
+      <c r="CU101" t="n">
+        <v>4303</v>
+      </c>
+      <c r="CV101" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW101" t="n">
+        <v>65</v>
+      </c>
+      <c r="CX101" t="n">
+        <v>109</v>
+      </c>
+      <c r="CY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ101" t="n">
+        <v>101</v>
+      </c>
+      <c r="DA101" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB101" t="n">
+        <v>47</v>
+      </c>
+      <c r="DC101" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD101" t="n">
+        <v>17</v>
+      </c>
+      <c r="DE101" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF101" t="n">
+        <v>9</v>
+      </c>
+      <c r="DG101" t="n">
+        <v>22</v>
+      </c>
+      <c r="DH101" t="n">
+        <v>58</v>
+      </c>
+      <c r="DI101" t="n">
+        <v>93</v>
+      </c>
+      <c r="DJ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="DK101" t="n">
+        <v>92</v>
+      </c>
+      <c r="DL101" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM101" t="n">
+        <v>88</v>
+      </c>
+      <c r="DN101" t="n">
+        <v>340</v>
+      </c>
+      <c r="DO101" t="n">
+        <v>64</v>
+      </c>
+      <c r="DP101" t="n">
+        <v>39</v>
+      </c>
+      <c r="DQ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR101" t="n">
+        <v>48</v>
+      </c>
+      <c r="DS101" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT101" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU101" t="n">
+        <v>252</v>
+      </c>
+      <c r="DV101" t="n">
+        <v>109</v>
+      </c>
+      <c r="DW101" t="n">
+        <v>3349</v>
+      </c>
+      <c r="DX101" t="n">
+        <v>30</v>
+      </c>
+      <c r="DY101" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ101" t="n">
+        <v>55</v>
+      </c>
+      <c r="EA101" t="n">
+        <v>81</v>
+      </c>
+      <c r="EB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC101" t="n">
+        <v>611</v>
+      </c>
+      <c r="ED101" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE101" t="n">
+        <v>44</v>
+      </c>
+      <c r="EF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG101" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH101" t="n">
+        <v>27</v>
+      </c>
+      <c r="EI101" t="n">
+        <v>140</v>
+      </c>
+      <c r="EJ101" t="n">
+        <v>291</v>
+      </c>
+      <c r="EK101" t="n">
+        <v>2420</v>
+      </c>
+      <c r="EL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM101" t="n">
+        <v>28</v>
+      </c>
+      <c r="EN101" t="n">
+        <v>152</v>
+      </c>
+      <c r="EO101" t="n">
+        <v>31</v>
+      </c>
+      <c r="EP101" t="n">
+        <v>311</v>
+      </c>
+      <c r="EQ101" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER101" t="n">
+        <v>277</v>
+      </c>
+      <c r="ES101" t="n">
+        <v>58</v>
+      </c>
+      <c r="ET101" t="n">
+        <v>122</v>
+      </c>
+      <c r="EU101" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV101" t="n">
+        <v>19192</v>
+      </c>
+      <c r="EW101" t="n">
+        <v>33</v>
+      </c>
+      <c r="EX101" t="n">
+        <v>118</v>
+      </c>
+      <c r="EY101" t="n">
+        <v>75</v>
+      </c>
+      <c r="EZ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA101" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB101" t="n">
+        <v>120</v>
+      </c>
+      <c r="FC101" t="n">
+        <v>18</v>
+      </c>
+      <c r="FD101" t="n">
+        <v>45</v>
+      </c>
+      <c r="FE101" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG101" t="n">
+        <v>122</v>
+      </c>
+      <c r="FH101" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI101" t="n">
+        <v>9</v>
+      </c>
+      <c r="FJ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="FK101" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL101" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM101" t="n">
+        <v>171</v>
+      </c>
+      <c r="FN101" t="n">
+        <v>76</v>
+      </c>
+      <c r="FO101" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP101" t="n">
+        <v>10</v>
+      </c>
+      <c r="FQ101" t="n">
+        <v>81</v>
+      </c>
+      <c r="FR101" t="n">
+        <v>171</v>
+      </c>
+      <c r="FS101" t="n">
+        <v>76</v>
+      </c>
+      <c r="FT101" t="n">
+        <v>57</v>
+      </c>
+      <c r="FU101" t="n">
+        <v>556</v>
+      </c>
+      <c r="FV101" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW101" t="n">
+        <v>64</v>
+      </c>
+      <c r="FX101" t="n">
+        <v>316</v>
+      </c>
+      <c r="FY101" t="n">
+        <v>14</v>
+      </c>
+      <c r="FZ101" t="n">
+        <v>107</v>
+      </c>
+      <c r="GA101" t="n">
+        <v>180</v>
+      </c>
+      <c r="GB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC101" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD101" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE101" t="n">
+        <v>251</v>
+      </c>
+      <c r="GF101" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG101" t="n">
+        <v>93</v>
+      </c>
+      <c r="GH101" t="n">
+        <v>58</v>
+      </c>
+      <c r="GI101" t="n">
+        <v>15</v>
+      </c>
+      <c r="GJ101" t="n">
+        <v>121</v>
+      </c>
+      <c r="GK101" t="n">
+        <v>13</v>
+      </c>
+      <c r="GL101" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM101" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN101" t="n">
+        <v>249</v>
+      </c>
+      <c r="GO101" t="n">
+        <v>42</v>
+      </c>
+      <c r="GP101" t="n">
+        <v>23</v>
+      </c>
+      <c r="GQ101" t="n">
+        <v>87</v>
+      </c>
+      <c r="GR101" t="n">
+        <v>34</v>
+      </c>
+      <c r="GS101" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT101" t="n">
+        <v>22</v>
+      </c>
+      <c r="GU101" t="n">
+        <v>23</v>
+      </c>
+      <c r="GV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW101" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX101" t="n">
+        <v>25</v>
+      </c>
+      <c r="GY101" t="n">
+        <v>72</v>
+      </c>
+      <c r="GZ101" t="n">
+        <v>813</v>
+      </c>
+      <c r="HA101" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>443</v>
+      </c>
+      <c r="C102" t="n">
+        <v>47</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62</v>
+      </c>
+      <c r="E102" t="n">
+        <v>117</v>
+      </c>
+      <c r="F102" t="n">
+        <v>545</v>
+      </c>
+      <c r="G102" t="n">
+        <v>294</v>
+      </c>
+      <c r="H102" t="n">
+        <v>33</v>
+      </c>
+      <c r="I102" t="n">
+        <v>120</v>
+      </c>
+      <c r="J102" t="n">
+        <v>96</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>91</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="n">
+        <v>52</v>
+      </c>
+      <c r="O102" t="n">
+        <v>150</v>
+      </c>
+      <c r="P102" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>70</v>
+      </c>
+      <c r="S102" t="n">
+        <v>202</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>20</v>
+      </c>
+      <c r="V102" t="n">
+        <v>7</v>
+      </c>
+      <c r="W102" t="n">
+        <v>75</v>
+      </c>
+      <c r="X102" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>178</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>124</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>83</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>88</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>237</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>870</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>63</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1182</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>56</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>39</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>209</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>1182</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>242</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>116</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>143</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>162</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>35</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>79</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>41</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>121</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>99</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>63</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>201</v>
+      </c>
+      <c r="BQ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>74</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>90</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>35</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>66</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>106</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>328</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>131</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>615</v>
+      </c>
+      <c r="CB102" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC102" t="n">
+        <v>173</v>
+      </c>
+      <c r="CD102" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE102" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF102" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG102" t="n">
+        <v>408</v>
+      </c>
+      <c r="CH102" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI102" t="n">
+        <v>29</v>
+      </c>
+      <c r="CJ102" t="n">
+        <v>105</v>
+      </c>
+      <c r="CK102" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL102" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM102" t="n">
+        <v>390</v>
+      </c>
+      <c r="CN102" t="n">
+        <v>80</v>
+      </c>
+      <c r="CO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP102" t="n">
+        <v>57</v>
+      </c>
+      <c r="CQ102" t="n">
+        <v>420</v>
+      </c>
+      <c r="CR102" t="n">
+        <v>17</v>
+      </c>
+      <c r="CS102" t="n">
+        <v>199</v>
+      </c>
+      <c r="CT102" t="n">
+        <v>75</v>
+      </c>
+      <c r="CU102" t="n">
+        <v>4400</v>
+      </c>
+      <c r="CV102" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW102" t="n">
+        <v>70</v>
+      </c>
+      <c r="CX102" t="n">
+        <v>110</v>
+      </c>
+      <c r="CY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ102" t="n">
+        <v>102</v>
+      </c>
+      <c r="DA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB102" t="n">
+        <v>47</v>
+      </c>
+      <c r="DC102" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD102" t="n">
+        <v>17</v>
+      </c>
+      <c r="DE102" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF102" t="n">
+        <v>9</v>
+      </c>
+      <c r="DG102" t="n">
+        <v>23</v>
+      </c>
+      <c r="DH102" t="n">
+        <v>61</v>
+      </c>
+      <c r="DI102" t="n">
+        <v>96</v>
+      </c>
+      <c r="DJ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK102" t="n">
+        <v>97</v>
+      </c>
+      <c r="DL102" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM102" t="n">
+        <v>91</v>
+      </c>
+      <c r="DN102" t="n">
+        <v>360</v>
+      </c>
+      <c r="DO102" t="n">
+        <v>67</v>
+      </c>
+      <c r="DP102" t="n">
+        <v>43</v>
+      </c>
+      <c r="DQ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR102" t="n">
+        <v>53</v>
+      </c>
+      <c r="DS102" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT102" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU102" t="n">
+        <v>256</v>
+      </c>
+      <c r="DV102" t="n">
+        <v>109</v>
+      </c>
+      <c r="DW102" t="n">
+        <v>3447</v>
+      </c>
+      <c r="DX102" t="n">
+        <v>51</v>
+      </c>
+      <c r="DY102" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ102" t="n">
+        <v>56</v>
+      </c>
+      <c r="EA102" t="n">
+        <v>82</v>
+      </c>
+      <c r="EB102" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC102" t="n">
+        <v>668</v>
+      </c>
+      <c r="ED102" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE102" t="n">
+        <v>55</v>
+      </c>
+      <c r="EF102" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG102" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH102" t="n">
+        <v>29</v>
+      </c>
+      <c r="EI102" t="n">
+        <v>143</v>
+      </c>
+      <c r="EJ102" t="n">
+        <v>308</v>
+      </c>
+      <c r="EK102" t="n">
+        <v>2448</v>
+      </c>
+      <c r="EL102" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM102" t="n">
+        <v>29</v>
+      </c>
+      <c r="EN102" t="n">
+        <v>156</v>
+      </c>
+      <c r="EO102" t="n">
+        <v>32</v>
+      </c>
+      <c r="EP102" t="n">
+        <v>473</v>
+      </c>
+      <c r="EQ102" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER102" t="n">
+        <v>290</v>
+      </c>
+      <c r="ES102" t="n">
+        <v>58</v>
+      </c>
+      <c r="ET102" t="n">
+        <v>127</v>
+      </c>
+      <c r="EU102" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV102" t="n">
+        <v>19379</v>
+      </c>
+      <c r="EW102" t="n">
+        <v>38</v>
+      </c>
+      <c r="EX102" t="n">
+        <v>123</v>
+      </c>
+      <c r="EY102" t="n">
+        <v>75</v>
+      </c>
+      <c r="EZ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA102" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB102" t="n">
+        <v>120</v>
+      </c>
+      <c r="FC102" t="n">
+        <v>18</v>
+      </c>
+      <c r="FD102" t="n">
+        <v>45</v>
+      </c>
+      <c r="FE102" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG102" t="n">
+        <v>129</v>
+      </c>
+      <c r="FH102" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI102" t="n">
+        <v>10</v>
+      </c>
+      <c r="FJ102" t="n">
+        <v>11</v>
+      </c>
+      <c r="FK102" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL102" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM102" t="n">
+        <v>174</v>
+      </c>
+      <c r="FN102" t="n">
+        <v>82</v>
+      </c>
+      <c r="FO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP102" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ102" t="n">
+        <v>89</v>
+      </c>
+      <c r="FR102" t="n">
+        <v>180</v>
+      </c>
+      <c r="FS102" t="n">
+        <v>90</v>
+      </c>
+      <c r="FT102" t="n">
+        <v>57</v>
+      </c>
+      <c r="FU102" t="n">
+        <v>562</v>
+      </c>
+      <c r="FV102" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW102" t="n">
+        <v>70</v>
+      </c>
+      <c r="FX102" t="n">
+        <v>341</v>
+      </c>
+      <c r="FY102" t="n">
+        <v>16</v>
+      </c>
+      <c r="FZ102" t="n">
+        <v>107</v>
+      </c>
+      <c r="GA102" t="n">
+        <v>184</v>
+      </c>
+      <c r="GB102" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD102" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE102" t="n">
+        <v>256</v>
+      </c>
+      <c r="GF102" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG102" t="n">
+        <v>98</v>
+      </c>
+      <c r="GH102" t="n">
+        <v>58</v>
+      </c>
+      <c r="GI102" t="n">
+        <v>16</v>
+      </c>
+      <c r="GJ102" t="n">
+        <v>138</v>
+      </c>
+      <c r="GK102" t="n">
+        <v>14</v>
+      </c>
+      <c r="GL102" t="n">
+        <v>8</v>
+      </c>
+      <c r="GM102" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN102" t="n">
+        <v>252</v>
+      </c>
+      <c r="GO102" t="n">
+        <v>50</v>
+      </c>
+      <c r="GP102" t="n">
+        <v>23</v>
+      </c>
+      <c r="GQ102" t="n">
+        <v>88</v>
+      </c>
+      <c r="GR102" t="n">
+        <v>34</v>
+      </c>
+      <c r="GS102" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT102" t="n">
+        <v>22</v>
+      </c>
+      <c r="GU102" t="n">
+        <v>23</v>
+      </c>
+      <c r="GV102" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW102" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX102" t="n">
+        <v>38</v>
+      </c>
+      <c r="GY102" t="n">
+        <v>77</v>
+      </c>
+      <c r="GZ102" t="n">
+        <v>840</v>
+      </c>
+      <c r="HA102" t="n">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HA103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65144,6 +65144,637 @@
         <v>129</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>449</v>
+      </c>
+      <c r="C103" t="n">
+        <v>54</v>
+      </c>
+      <c r="D103" t="n">
+        <v>62</v>
+      </c>
+      <c r="E103" t="n">
+        <v>122</v>
+      </c>
+      <c r="F103" t="n">
+        <v>572</v>
+      </c>
+      <c r="G103" t="n">
+        <v>304</v>
+      </c>
+      <c r="H103" t="n">
+        <v>33</v>
+      </c>
+      <c r="I103" t="n">
+        <v>144</v>
+      </c>
+      <c r="J103" t="n">
+        <v>100</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>91</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="n">
+        <v>54</v>
+      </c>
+      <c r="O103" t="n">
+        <v>159</v>
+      </c>
+      <c r="P103" t="n">
+        <v>213</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>72</v>
+      </c>
+      <c r="S103" t="n">
+        <v>209</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>9</v>
+      </c>
+      <c r="W103" t="n">
+        <v>79</v>
+      </c>
+      <c r="X103" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>181</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>84</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>879</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>64</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1191</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>57</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>211</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>117</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>150</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>165</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>42</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>129</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>201</v>
+      </c>
+      <c r="BQ103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>74</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>91</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>36</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>67</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>108</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>334</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>138</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>622</v>
+      </c>
+      <c r="CB103" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC103" t="n">
+        <v>181</v>
+      </c>
+      <c r="CD103" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE103" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG103" t="n">
+        <v>413</v>
+      </c>
+      <c r="CH103" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI103" t="n">
+        <v>29</v>
+      </c>
+      <c r="CJ103" t="n">
+        <v>107</v>
+      </c>
+      <c r="CK103" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL103" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM103" t="n">
+        <v>394</v>
+      </c>
+      <c r="CN103" t="n">
+        <v>80</v>
+      </c>
+      <c r="CO103" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP103" t="n">
+        <v>59</v>
+      </c>
+      <c r="CQ103" t="n">
+        <v>422</v>
+      </c>
+      <c r="CR103" t="n">
+        <v>17</v>
+      </c>
+      <c r="CS103" t="n">
+        <v>203</v>
+      </c>
+      <c r="CT103" t="n">
+        <v>75</v>
+      </c>
+      <c r="CU103" t="n">
+        <v>4449</v>
+      </c>
+      <c r="CV103" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW103" t="n">
+        <v>73</v>
+      </c>
+      <c r="CX103" t="n">
+        <v>111</v>
+      </c>
+      <c r="CY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ103" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA103" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB103" t="n">
+        <v>47</v>
+      </c>
+      <c r="DC103" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD103" t="n">
+        <v>17</v>
+      </c>
+      <c r="DE103" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF103" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG103" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH103" t="n">
+        <v>61</v>
+      </c>
+      <c r="DI103" t="n">
+        <v>101</v>
+      </c>
+      <c r="DJ103" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK103" t="n">
+        <v>127</v>
+      </c>
+      <c r="DL103" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM103" t="n">
+        <v>98</v>
+      </c>
+      <c r="DN103" t="n">
+        <v>366</v>
+      </c>
+      <c r="DO103" t="n">
+        <v>71</v>
+      </c>
+      <c r="DP103" t="n">
+        <v>47</v>
+      </c>
+      <c r="DQ103" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR103" t="n">
+        <v>53</v>
+      </c>
+      <c r="DS103" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT103" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU103" t="n">
+        <v>258</v>
+      </c>
+      <c r="DV103" t="n">
+        <v>111</v>
+      </c>
+      <c r="DW103" t="n">
+        <v>3483</v>
+      </c>
+      <c r="DX103" t="n">
+        <v>51</v>
+      </c>
+      <c r="DY103" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ103" t="n">
+        <v>58</v>
+      </c>
+      <c r="EA103" t="n">
+        <v>83</v>
+      </c>
+      <c r="EB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC103" t="n">
+        <v>676</v>
+      </c>
+      <c r="ED103" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE103" t="n">
+        <v>64</v>
+      </c>
+      <c r="EF103" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG103" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH103" t="n">
+        <v>29</v>
+      </c>
+      <c r="EI103" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ103" t="n">
+        <v>311</v>
+      </c>
+      <c r="EK103" t="n">
+        <v>2471</v>
+      </c>
+      <c r="EL103" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM103" t="n">
+        <v>30</v>
+      </c>
+      <c r="EN103" t="n">
+        <v>159</v>
+      </c>
+      <c r="EO103" t="n">
+        <v>34</v>
+      </c>
+      <c r="EP103" t="n">
+        <v>487</v>
+      </c>
+      <c r="EQ103" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER103" t="n">
+        <v>290</v>
+      </c>
+      <c r="ES103" t="n">
+        <v>59</v>
+      </c>
+      <c r="ET103" t="n">
+        <v>141</v>
+      </c>
+      <c r="EU103" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV103" t="n">
+        <v>19613</v>
+      </c>
+      <c r="EW103" t="n">
+        <v>40</v>
+      </c>
+      <c r="EX103" t="n">
+        <v>124</v>
+      </c>
+      <c r="EY103" t="n">
+        <v>75</v>
+      </c>
+      <c r="EZ103" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA103" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB103" t="n">
+        <v>122</v>
+      </c>
+      <c r="FC103" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD103" t="n">
+        <v>46</v>
+      </c>
+      <c r="FE103" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF103" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG103" t="n">
+        <v>145</v>
+      </c>
+      <c r="FH103" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI103" t="n">
+        <v>10</v>
+      </c>
+      <c r="FJ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK103" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL103" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM103" t="n">
+        <v>175</v>
+      </c>
+      <c r="FN103" t="n">
+        <v>84</v>
+      </c>
+      <c r="FO103" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP103" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ103" t="n">
+        <v>90</v>
+      </c>
+      <c r="FR103" t="n">
+        <v>185</v>
+      </c>
+      <c r="FS103" t="n">
+        <v>90</v>
+      </c>
+      <c r="FT103" t="n">
+        <v>64</v>
+      </c>
+      <c r="FU103" t="n">
+        <v>568</v>
+      </c>
+      <c r="FV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW103" t="n">
+        <v>82</v>
+      </c>
+      <c r="FX103" t="n">
+        <v>359</v>
+      </c>
+      <c r="FY103" t="n">
+        <v>16</v>
+      </c>
+      <c r="FZ103" t="n">
+        <v>113</v>
+      </c>
+      <c r="GA103" t="n">
+        <v>184</v>
+      </c>
+      <c r="GB103" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC103" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD103" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE103" t="n">
+        <v>259</v>
+      </c>
+      <c r="GF103" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG103" t="n">
+        <v>99</v>
+      </c>
+      <c r="GH103" t="n">
+        <v>58</v>
+      </c>
+      <c r="GI103" t="n">
+        <v>16</v>
+      </c>
+      <c r="GJ103" t="n">
+        <v>139</v>
+      </c>
+      <c r="GK103" t="n">
+        <v>14</v>
+      </c>
+      <c r="GL103" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM103" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN103" t="n">
+        <v>269</v>
+      </c>
+      <c r="GO103" t="n">
+        <v>52</v>
+      </c>
+      <c r="GP103" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ103" t="n">
+        <v>89</v>
+      </c>
+      <c r="GR103" t="n">
+        <v>37</v>
+      </c>
+      <c r="GS103" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT103" t="n">
+        <v>22</v>
+      </c>
+      <c r="GU103" t="n">
+        <v>28</v>
+      </c>
+      <c r="GV103" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW103" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX103" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY103" t="n">
+        <v>98</v>
+      </c>
+      <c r="GZ103" t="n">
+        <v>845</v>
+      </c>
+      <c r="HA103" t="n">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA103"/>
+  <dimension ref="A1:HA105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64775,7 +64775,7 @@
         <v>2</v>
       </c>
       <c r="CI102" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CJ102" t="n">
         <v>105</v>
@@ -65406,7 +65406,7 @@
         <v>2</v>
       </c>
       <c r="CI103" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CJ103" t="n">
         <v>107</v>
@@ -65574,7 +65574,7 @@
         <v>1</v>
       </c>
       <c r="EM103" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EN103" t="n">
         <v>159</v>
@@ -65773,6 +65773,1268 @@
       </c>
       <c r="HA103" t="n">
         <v>130</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>454</v>
+      </c>
+      <c r="C104" t="n">
+        <v>54</v>
+      </c>
+      <c r="D104" t="n">
+        <v>62</v>
+      </c>
+      <c r="E104" t="n">
+        <v>123</v>
+      </c>
+      <c r="F104" t="n">
+        <v>574</v>
+      </c>
+      <c r="G104" t="n">
+        <v>306</v>
+      </c>
+      <c r="H104" t="n">
+        <v>33</v>
+      </c>
+      <c r="I104" t="n">
+        <v>145</v>
+      </c>
+      <c r="J104" t="n">
+        <v>100</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>91</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="n">
+        <v>54</v>
+      </c>
+      <c r="O104" t="n">
+        <v>169</v>
+      </c>
+      <c r="P104" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>73</v>
+      </c>
+      <c r="S104" t="n">
+        <v>211</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>25</v>
+      </c>
+      <c r="V104" t="n">
+        <v>9</v>
+      </c>
+      <c r="W104" t="n">
+        <v>79</v>
+      </c>
+      <c r="X104" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>181</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>129</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>884</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>59</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>49</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>217</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>1283</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>252</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>121</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>157</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>165</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>42</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>130</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>75</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>202</v>
+      </c>
+      <c r="BQ104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>74</v>
+      </c>
+      <c r="BT104" t="n">
+        <v>91</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV104" t="n">
+        <v>39</v>
+      </c>
+      <c r="BW104" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX104" t="n">
+        <v>110</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>341</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>140</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>624</v>
+      </c>
+      <c r="CB104" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC104" t="n">
+        <v>183</v>
+      </c>
+      <c r="CD104" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE104" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG104" t="n">
+        <v>414</v>
+      </c>
+      <c r="CH104" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI104" t="n">
+        <v>28</v>
+      </c>
+      <c r="CJ104" t="n">
+        <v>107</v>
+      </c>
+      <c r="CK104" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL104" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM104" t="n">
+        <v>399</v>
+      </c>
+      <c r="CN104" t="n">
+        <v>80</v>
+      </c>
+      <c r="CO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP104" t="n">
+        <v>59</v>
+      </c>
+      <c r="CQ104" t="n">
+        <v>445</v>
+      </c>
+      <c r="CR104" t="n">
+        <v>17</v>
+      </c>
+      <c r="CS104" t="n">
+        <v>203</v>
+      </c>
+      <c r="CT104" t="n">
+        <v>75</v>
+      </c>
+      <c r="CU104" t="n">
+        <v>4459</v>
+      </c>
+      <c r="CV104" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW104" t="n">
+        <v>82</v>
+      </c>
+      <c r="CX104" t="n">
+        <v>112</v>
+      </c>
+      <c r="CY104" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ104" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB104" t="n">
+        <v>47</v>
+      </c>
+      <c r="DC104" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD104" t="n">
+        <v>17</v>
+      </c>
+      <c r="DE104" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF104" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG104" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH104" t="n">
+        <v>61</v>
+      </c>
+      <c r="DI104" t="n">
+        <v>101</v>
+      </c>
+      <c r="DJ104" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK104" t="n">
+        <v>127</v>
+      </c>
+      <c r="DL104" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM104" t="n">
+        <v>98</v>
+      </c>
+      <c r="DN104" t="n">
+        <v>369</v>
+      </c>
+      <c r="DO104" t="n">
+        <v>72</v>
+      </c>
+      <c r="DP104" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR104" t="n">
+        <v>53</v>
+      </c>
+      <c r="DS104" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT104" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU104" t="n">
+        <v>259</v>
+      </c>
+      <c r="DV104" t="n">
+        <v>113</v>
+      </c>
+      <c r="DW104" t="n">
+        <v>3493</v>
+      </c>
+      <c r="DX104" t="n">
+        <v>51</v>
+      </c>
+      <c r="DY104" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ104" t="n">
+        <v>58</v>
+      </c>
+      <c r="EA104" t="n">
+        <v>85</v>
+      </c>
+      <c r="EB104" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC104" t="n">
+        <v>676</v>
+      </c>
+      <c r="ED104" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE104" t="n">
+        <v>64</v>
+      </c>
+      <c r="EF104" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG104" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH104" t="n">
+        <v>29</v>
+      </c>
+      <c r="EI104" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ104" t="n">
+        <v>312</v>
+      </c>
+      <c r="EK104" t="n">
+        <v>2486</v>
+      </c>
+      <c r="EL104" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM104" t="n">
+        <v>29</v>
+      </c>
+      <c r="EN104" t="n">
+        <v>160</v>
+      </c>
+      <c r="EO104" t="n">
+        <v>34</v>
+      </c>
+      <c r="EP104" t="n">
+        <v>499</v>
+      </c>
+      <c r="EQ104" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER104" t="n">
+        <v>298</v>
+      </c>
+      <c r="ES104" t="n">
+        <v>59</v>
+      </c>
+      <c r="ET104" t="n">
+        <v>143</v>
+      </c>
+      <c r="EU104" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV104" t="n">
+        <v>19679</v>
+      </c>
+      <c r="EW104" t="n">
+        <v>40</v>
+      </c>
+      <c r="EX104" t="n">
+        <v>124</v>
+      </c>
+      <c r="EY104" t="n">
+        <v>76</v>
+      </c>
+      <c r="EZ104" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA104" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB104" t="n">
+        <v>122</v>
+      </c>
+      <c r="FC104" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD104" t="n">
+        <v>46</v>
+      </c>
+      <c r="FE104" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF104" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG104" t="n">
+        <v>151</v>
+      </c>
+      <c r="FH104" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI104" t="n">
+        <v>12</v>
+      </c>
+      <c r="FJ104" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK104" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL104" t="n">
+        <v>6</v>
+      </c>
+      <c r="FM104" t="n">
+        <v>179</v>
+      </c>
+      <c r="FN104" t="n">
+        <v>86</v>
+      </c>
+      <c r="FO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP104" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ104" t="n">
+        <v>90</v>
+      </c>
+      <c r="FR104" t="n">
+        <v>188</v>
+      </c>
+      <c r="FS104" t="n">
+        <v>97</v>
+      </c>
+      <c r="FT104" t="n">
+        <v>65</v>
+      </c>
+      <c r="FU104" t="n">
+        <v>571</v>
+      </c>
+      <c r="FV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW104" t="n">
+        <v>82</v>
+      </c>
+      <c r="FX104" t="n">
+        <v>362</v>
+      </c>
+      <c r="FY104" t="n">
+        <v>18</v>
+      </c>
+      <c r="FZ104" t="n">
+        <v>114</v>
+      </c>
+      <c r="GA104" t="n">
+        <v>184</v>
+      </c>
+      <c r="GB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC104" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD104" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE104" t="n">
+        <v>264</v>
+      </c>
+      <c r="GF104" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG104" t="n">
+        <v>99</v>
+      </c>
+      <c r="GH104" t="n">
+        <v>58</v>
+      </c>
+      <c r="GI104" t="n">
+        <v>16</v>
+      </c>
+      <c r="GJ104" t="n">
+        <v>139</v>
+      </c>
+      <c r="GK104" t="n">
+        <v>14</v>
+      </c>
+      <c r="GL104" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM104" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN104" t="n">
+        <v>284</v>
+      </c>
+      <c r="GO104" t="n">
+        <v>53</v>
+      </c>
+      <c r="GP104" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ104" t="n">
+        <v>89</v>
+      </c>
+      <c r="GR104" t="n">
+        <v>37</v>
+      </c>
+      <c r="GS104" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT104" t="n">
+        <v>22</v>
+      </c>
+      <c r="GU104" t="n">
+        <v>29</v>
+      </c>
+      <c r="GV104" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW104" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX104" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY104" t="n">
+        <v>99</v>
+      </c>
+      <c r="GZ104" t="n">
+        <v>852</v>
+      </c>
+      <c r="HA104" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>454</v>
+      </c>
+      <c r="C105" t="n">
+        <v>55</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62</v>
+      </c>
+      <c r="E105" t="n">
+        <v>124</v>
+      </c>
+      <c r="F105" t="n">
+        <v>576</v>
+      </c>
+      <c r="G105" t="n">
+        <v>307</v>
+      </c>
+      <c r="H105" t="n">
+        <v>33</v>
+      </c>
+      <c r="I105" t="n">
+        <v>157</v>
+      </c>
+      <c r="J105" t="n">
+        <v>100</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>91</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>55</v>
+      </c>
+      <c r="O105" t="n">
+        <v>171</v>
+      </c>
+      <c r="P105" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>73</v>
+      </c>
+      <c r="S105" t="n">
+        <v>213</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>25</v>
+      </c>
+      <c r="V105" t="n">
+        <v>9</v>
+      </c>
+      <c r="W105" t="n">
+        <v>82</v>
+      </c>
+      <c r="X105" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>91</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>886</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>76</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>45</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>219</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>1326</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>257</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>125</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>157</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>165</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>42</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>131</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>76</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>205</v>
+      </c>
+      <c r="BQ105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>77</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>93</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>39</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>112</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>343</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>141</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>625</v>
+      </c>
+      <c r="CB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC105" t="n">
+        <v>183</v>
+      </c>
+      <c r="CD105" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE105" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG105" t="n">
+        <v>415</v>
+      </c>
+      <c r="CH105" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI105" t="n">
+        <v>28</v>
+      </c>
+      <c r="CJ105" t="n">
+        <v>108</v>
+      </c>
+      <c r="CK105" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL105" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM105" t="n">
+        <v>402</v>
+      </c>
+      <c r="CN105" t="n">
+        <v>82</v>
+      </c>
+      <c r="CO105" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP105" t="n">
+        <v>60</v>
+      </c>
+      <c r="CQ105" t="n">
+        <v>447</v>
+      </c>
+      <c r="CR105" t="n">
+        <v>17</v>
+      </c>
+      <c r="CS105" t="n">
+        <v>204</v>
+      </c>
+      <c r="CT105" t="n">
+        <v>75</v>
+      </c>
+      <c r="CU105" t="n">
+        <v>4475</v>
+      </c>
+      <c r="CV105" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW105" t="n">
+        <v>82</v>
+      </c>
+      <c r="CX105" t="n">
+        <v>112</v>
+      </c>
+      <c r="CY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ105" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA105" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB105" t="n">
+        <v>52</v>
+      </c>
+      <c r="DC105" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD105" t="n">
+        <v>17</v>
+      </c>
+      <c r="DE105" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF105" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG105" t="n">
+        <v>26</v>
+      </c>
+      <c r="DH105" t="n">
+        <v>62</v>
+      </c>
+      <c r="DI105" t="n">
+        <v>103</v>
+      </c>
+      <c r="DJ105" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK105" t="n">
+        <v>146</v>
+      </c>
+      <c r="DL105" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM105" t="n">
+        <v>98</v>
+      </c>
+      <c r="DN105" t="n">
+        <v>371</v>
+      </c>
+      <c r="DO105" t="n">
+        <v>72</v>
+      </c>
+      <c r="DP105" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR105" t="n">
+        <v>53</v>
+      </c>
+      <c r="DS105" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT105" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU105" t="n">
+        <v>261</v>
+      </c>
+      <c r="DV105" t="n">
+        <v>113</v>
+      </c>
+      <c r="DW105" t="n">
+        <v>3511</v>
+      </c>
+      <c r="DX105" t="n">
+        <v>54</v>
+      </c>
+      <c r="DY105" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ105" t="n">
+        <v>60</v>
+      </c>
+      <c r="EA105" t="n">
+        <v>87</v>
+      </c>
+      <c r="EB105" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC105" t="n">
+        <v>690</v>
+      </c>
+      <c r="ED105" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE105" t="n">
+        <v>68</v>
+      </c>
+      <c r="EF105" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG105" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH105" t="n">
+        <v>29</v>
+      </c>
+      <c r="EI105" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ105" t="n">
+        <v>316</v>
+      </c>
+      <c r="EK105" t="n">
+        <v>2498</v>
+      </c>
+      <c r="EL105" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM105" t="n">
+        <v>29</v>
+      </c>
+      <c r="EN105" t="n">
+        <v>160</v>
+      </c>
+      <c r="EO105" t="n">
+        <v>34</v>
+      </c>
+      <c r="EP105" t="n">
+        <v>502</v>
+      </c>
+      <c r="EQ105" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER105" t="n">
+        <v>300</v>
+      </c>
+      <c r="ES105" t="n">
+        <v>59</v>
+      </c>
+      <c r="ET105" t="n">
+        <v>150</v>
+      </c>
+      <c r="EU105" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV105" t="n">
+        <v>19718</v>
+      </c>
+      <c r="EW105" t="n">
+        <v>40</v>
+      </c>
+      <c r="EX105" t="n">
+        <v>124</v>
+      </c>
+      <c r="EY105" t="n">
+        <v>77</v>
+      </c>
+      <c r="EZ105" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA105" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB105" t="n">
+        <v>122</v>
+      </c>
+      <c r="FC105" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD105" t="n">
+        <v>46</v>
+      </c>
+      <c r="FE105" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF105" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG105" t="n">
+        <v>153</v>
+      </c>
+      <c r="FH105" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI105" t="n">
+        <v>12</v>
+      </c>
+      <c r="FJ105" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK105" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL105" t="n">
+        <v>6</v>
+      </c>
+      <c r="FM105" t="n">
+        <v>179</v>
+      </c>
+      <c r="FN105" t="n">
+        <v>86</v>
+      </c>
+      <c r="FO105" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP105" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ105" t="n">
+        <v>91</v>
+      </c>
+      <c r="FR105" t="n">
+        <v>190</v>
+      </c>
+      <c r="FS105" t="n">
+        <v>99</v>
+      </c>
+      <c r="FT105" t="n">
+        <v>65</v>
+      </c>
+      <c r="FU105" t="n">
+        <v>572</v>
+      </c>
+      <c r="FV105" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW105" t="n">
+        <v>82</v>
+      </c>
+      <c r="FX105" t="n">
+        <v>379</v>
+      </c>
+      <c r="FY105" t="n">
+        <v>22</v>
+      </c>
+      <c r="FZ105" t="n">
+        <v>116</v>
+      </c>
+      <c r="GA105" t="n">
+        <v>185</v>
+      </c>
+      <c r="GB105" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC105" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD105" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE105" t="n">
+        <v>266</v>
+      </c>
+      <c r="GF105" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG105" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH105" t="n">
+        <v>59</v>
+      </c>
+      <c r="GI105" t="n">
+        <v>16</v>
+      </c>
+      <c r="GJ105" t="n">
+        <v>141</v>
+      </c>
+      <c r="GK105" t="n">
+        <v>15</v>
+      </c>
+      <c r="GL105" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM105" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN105" t="n">
+        <v>285</v>
+      </c>
+      <c r="GO105" t="n">
+        <v>54</v>
+      </c>
+      <c r="GP105" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ105" t="n">
+        <v>89</v>
+      </c>
+      <c r="GR105" t="n">
+        <v>37</v>
+      </c>
+      <c r="GS105" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT105" t="n">
+        <v>22</v>
+      </c>
+      <c r="GU105" t="n">
+        <v>29</v>
+      </c>
+      <c r="GV105" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW105" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX105" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY105" t="n">
+        <v>101</v>
+      </c>
+      <c r="GZ105" t="n">
+        <v>852</v>
+      </c>
+      <c r="HA105" t="n">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA105"/>
+  <dimension ref="A1:HA106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64724,7 +64724,7 @@
         <v>7</v>
       </c>
       <c r="BR102" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BS102" t="n">
         <v>74</v>
@@ -65355,7 +65355,7 @@
         <v>7</v>
       </c>
       <c r="BR103" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BS103" t="n">
         <v>74</v>
@@ -65986,7 +65986,7 @@
         <v>8</v>
       </c>
       <c r="BR104" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BS104" t="n">
         <v>74</v>
@@ -66617,7 +66617,7 @@
         <v>8</v>
       </c>
       <c r="BR105" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BS105" t="n">
         <v>77</v>
@@ -67035,6 +67035,637 @@
       </c>
       <c r="HA105" t="n">
         <v>133</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>458</v>
+      </c>
+      <c r="C106" t="n">
+        <v>60</v>
+      </c>
+      <c r="D106" t="n">
+        <v>63</v>
+      </c>
+      <c r="E106" t="n">
+        <v>140</v>
+      </c>
+      <c r="F106" t="n">
+        <v>593</v>
+      </c>
+      <c r="G106" t="n">
+        <v>311</v>
+      </c>
+      <c r="H106" t="n">
+        <v>35</v>
+      </c>
+      <c r="I106" t="n">
+        <v>172</v>
+      </c>
+      <c r="J106" t="n">
+        <v>116</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>93</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="n">
+        <v>56</v>
+      </c>
+      <c r="O106" t="n">
+        <v>182</v>
+      </c>
+      <c r="P106" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>74</v>
+      </c>
+      <c r="S106" t="n">
+        <v>217</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>25</v>
+      </c>
+      <c r="V106" t="n">
+        <v>9</v>
+      </c>
+      <c r="W106" t="n">
+        <v>82</v>
+      </c>
+      <c r="X106" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>198</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>132</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>91</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>254</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>897</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>61</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>59</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>52</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>222</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1389</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>264</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>127</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>158</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>173</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>44</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>146</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>111</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>85</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>206</v>
+      </c>
+      <c r="BQ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>256</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>77</v>
+      </c>
+      <c r="BT106" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV106" t="n">
+        <v>42</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX106" t="n">
+        <v>114</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>362</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>142</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>629</v>
+      </c>
+      <c r="CB106" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC106" t="n">
+        <v>191</v>
+      </c>
+      <c r="CD106" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE106" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG106" t="n">
+        <v>419</v>
+      </c>
+      <c r="CH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI106" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ106" t="n">
+        <v>110</v>
+      </c>
+      <c r="CK106" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL106" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM106" t="n">
+        <v>412</v>
+      </c>
+      <c r="CN106" t="n">
+        <v>82</v>
+      </c>
+      <c r="CO106" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP106" t="n">
+        <v>66</v>
+      </c>
+      <c r="CQ106" t="n">
+        <v>472</v>
+      </c>
+      <c r="CR106" t="n">
+        <v>19</v>
+      </c>
+      <c r="CS106" t="n">
+        <v>204</v>
+      </c>
+      <c r="CT106" t="n">
+        <v>76</v>
+      </c>
+      <c r="CU106" t="n">
+        <v>4525</v>
+      </c>
+      <c r="CV106" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW106" t="n">
+        <v>85</v>
+      </c>
+      <c r="CX106" t="n">
+        <v>119</v>
+      </c>
+      <c r="CY106" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ106" t="n">
+        <v>104</v>
+      </c>
+      <c r="DA106" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB106" t="n">
+        <v>58</v>
+      </c>
+      <c r="DC106" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD106" t="n">
+        <v>27</v>
+      </c>
+      <c r="DE106" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF106" t="n">
+        <v>23</v>
+      </c>
+      <c r="DG106" t="n">
+        <v>26</v>
+      </c>
+      <c r="DH106" t="n">
+        <v>63</v>
+      </c>
+      <c r="DI106" t="n">
+        <v>104</v>
+      </c>
+      <c r="DJ106" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK106" t="n">
+        <v>150</v>
+      </c>
+      <c r="DL106" t="n">
+        <v>12</v>
+      </c>
+      <c r="DM106" t="n">
+        <v>100</v>
+      </c>
+      <c r="DN106" t="n">
+        <v>390</v>
+      </c>
+      <c r="DO106" t="n">
+        <v>82</v>
+      </c>
+      <c r="DP106" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR106" t="n">
+        <v>65</v>
+      </c>
+      <c r="DS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT106" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU106" t="n">
+        <v>261</v>
+      </c>
+      <c r="DV106" t="n">
+        <v>116</v>
+      </c>
+      <c r="DW106" t="n">
+        <v>3581</v>
+      </c>
+      <c r="DX106" t="n">
+        <v>54</v>
+      </c>
+      <c r="DY106" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ106" t="n">
+        <v>61</v>
+      </c>
+      <c r="EA106" t="n">
+        <v>87</v>
+      </c>
+      <c r="EB106" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC106" t="n">
+        <v>744</v>
+      </c>
+      <c r="ED106" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE106" t="n">
+        <v>73</v>
+      </c>
+      <c r="EF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG106" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH106" t="n">
+        <v>30</v>
+      </c>
+      <c r="EI106" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ106" t="n">
+        <v>320</v>
+      </c>
+      <c r="EK106" t="n">
+        <v>2517</v>
+      </c>
+      <c r="EL106" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM106" t="n">
+        <v>30</v>
+      </c>
+      <c r="EN106" t="n">
+        <v>178</v>
+      </c>
+      <c r="EO106" t="n">
+        <v>41</v>
+      </c>
+      <c r="EP106" t="n">
+        <v>529</v>
+      </c>
+      <c r="EQ106" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER106" t="n">
+        <v>300</v>
+      </c>
+      <c r="ES106" t="n">
+        <v>60</v>
+      </c>
+      <c r="ET106" t="n">
+        <v>150</v>
+      </c>
+      <c r="EU106" t="n">
+        <v>18</v>
+      </c>
+      <c r="EV106" t="n">
+        <v>19975</v>
+      </c>
+      <c r="EW106" t="n">
+        <v>60</v>
+      </c>
+      <c r="EX106" t="n">
+        <v>130</v>
+      </c>
+      <c r="EY106" t="n">
+        <v>78</v>
+      </c>
+      <c r="EZ106" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA106" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB106" t="n">
+        <v>123</v>
+      </c>
+      <c r="FC106" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD106" t="n">
+        <v>47</v>
+      </c>
+      <c r="FE106" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG106" t="n">
+        <v>155</v>
+      </c>
+      <c r="FH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI106" t="n">
+        <v>12</v>
+      </c>
+      <c r="FJ106" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK106" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL106" t="n">
+        <v>7</v>
+      </c>
+      <c r="FM106" t="n">
+        <v>190</v>
+      </c>
+      <c r="FN106" t="n">
+        <v>86</v>
+      </c>
+      <c r="FO106" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP106" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ106" t="n">
+        <v>94</v>
+      </c>
+      <c r="FR106" t="n">
+        <v>201</v>
+      </c>
+      <c r="FS106" t="n">
+        <v>107</v>
+      </c>
+      <c r="FT106" t="n">
+        <v>65</v>
+      </c>
+      <c r="FU106" t="n">
+        <v>575</v>
+      </c>
+      <c r="FV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW106" t="n">
+        <v>84</v>
+      </c>
+      <c r="FX106" t="n">
+        <v>386</v>
+      </c>
+      <c r="FY106" t="n">
+        <v>22</v>
+      </c>
+      <c r="FZ106" t="n">
+        <v>117</v>
+      </c>
+      <c r="GA106" t="n">
+        <v>206</v>
+      </c>
+      <c r="GB106" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC106" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD106" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE106" t="n">
+        <v>268</v>
+      </c>
+      <c r="GF106" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG106" t="n">
+        <v>101</v>
+      </c>
+      <c r="GH106" t="n">
+        <v>59</v>
+      </c>
+      <c r="GI106" t="n">
+        <v>17</v>
+      </c>
+      <c r="GJ106" t="n">
+        <v>154</v>
+      </c>
+      <c r="GK106" t="n">
+        <v>15</v>
+      </c>
+      <c r="GL106" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM106" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN106" t="n">
+        <v>293</v>
+      </c>
+      <c r="GO106" t="n">
+        <v>55</v>
+      </c>
+      <c r="GP106" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ106" t="n">
+        <v>106</v>
+      </c>
+      <c r="GR106" t="n">
+        <v>37</v>
+      </c>
+      <c r="GS106" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT106" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU106" t="n">
+        <v>29</v>
+      </c>
+      <c r="GV106" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW106" t="n">
+        <v>14</v>
+      </c>
+      <c r="GX106" t="n">
+        <v>46</v>
+      </c>
+      <c r="GY106" t="n">
+        <v>102</v>
+      </c>
+      <c r="GZ106" t="n">
+        <v>854</v>
+      </c>
+      <c r="HA106" t="n">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA106"/>
+  <dimension ref="A1:HA107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65364,7 +65364,7 @@
         <v>91</v>
       </c>
       <c r="BU103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BV103" t="n">
         <v>36</v>
@@ -65995,7 +65995,7 @@
         <v>91</v>
       </c>
       <c r="BU104" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BV104" t="n">
         <v>39</v>
@@ -66626,7 +66626,7 @@
         <v>93</v>
       </c>
       <c r="BU105" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BV105" t="n">
         <v>39</v>
@@ -67257,7 +67257,7 @@
         <v>95</v>
       </c>
       <c r="BU106" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BV106" t="n">
         <v>42</v>
@@ -67665,6 +67665,637 @@
         <v>854</v>
       </c>
       <c r="HA106" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>462</v>
+      </c>
+      <c r="C107" t="n">
+        <v>65</v>
+      </c>
+      <c r="D107" t="n">
+        <v>64</v>
+      </c>
+      <c r="E107" t="n">
+        <v>144</v>
+      </c>
+      <c r="F107" t="n">
+        <v>625</v>
+      </c>
+      <c r="G107" t="n">
+        <v>319</v>
+      </c>
+      <c r="H107" t="n">
+        <v>38</v>
+      </c>
+      <c r="I107" t="n">
+        <v>173</v>
+      </c>
+      <c r="J107" t="n">
+        <v>117</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>94</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>56</v>
+      </c>
+      <c r="O107" t="n">
+        <v>185</v>
+      </c>
+      <c r="P107" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>76</v>
+      </c>
+      <c r="S107" t="n">
+        <v>217</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>10</v>
+      </c>
+      <c r="W107" t="n">
+        <v>82</v>
+      </c>
+      <c r="X107" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>257</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>903</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>86</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>62</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>59</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>54</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>223</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1454</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>268</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>128</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>162</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>173</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>48</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>87</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>166</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>101</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>207</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>44</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>114</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>372</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>143</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>654</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>192</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>425</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>112</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>426</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>66</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>485</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>204</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>77</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>4653</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>87</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>122</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>105</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>61</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>27</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>26</v>
+      </c>
+      <c r="DG107" t="n">
+        <v>29</v>
+      </c>
+      <c r="DH107" t="n">
+        <v>63</v>
+      </c>
+      <c r="DI107" t="n">
+        <v>104</v>
+      </c>
+      <c r="DJ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="DK107" t="n">
+        <v>158</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>12</v>
+      </c>
+      <c r="DM107" t="n">
+        <v>104</v>
+      </c>
+      <c r="DN107" t="n">
+        <v>402</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>90</v>
+      </c>
+      <c r="DP107" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ107" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR107" t="n">
+        <v>65</v>
+      </c>
+      <c r="DS107" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT107" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU107" t="n">
+        <v>265</v>
+      </c>
+      <c r="DV107" t="n">
+        <v>117</v>
+      </c>
+      <c r="DW107" t="n">
+        <v>3603</v>
+      </c>
+      <c r="DX107" t="n">
+        <v>54</v>
+      </c>
+      <c r="DY107" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ107" t="n">
+        <v>65</v>
+      </c>
+      <c r="EA107" t="n">
+        <v>89</v>
+      </c>
+      <c r="EB107" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC107" t="n">
+        <v>782</v>
+      </c>
+      <c r="ED107" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE107" t="n">
+        <v>75</v>
+      </c>
+      <c r="EF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG107" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH107" t="n">
+        <v>30</v>
+      </c>
+      <c r="EI107" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ107" t="n">
+        <v>322</v>
+      </c>
+      <c r="EK107" t="n">
+        <v>2538</v>
+      </c>
+      <c r="EL107" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM107" t="n">
+        <v>30</v>
+      </c>
+      <c r="EN107" t="n">
+        <v>239</v>
+      </c>
+      <c r="EO107" t="n">
+        <v>42</v>
+      </c>
+      <c r="EP107" t="n">
+        <v>575</v>
+      </c>
+      <c r="EQ107" t="n">
+        <v>18</v>
+      </c>
+      <c r="ER107" t="n">
+        <v>305</v>
+      </c>
+      <c r="ES107" t="n">
+        <v>60</v>
+      </c>
+      <c r="ET107" t="n">
+        <v>150</v>
+      </c>
+      <c r="EU107" t="n">
+        <v>18</v>
+      </c>
+      <c r="EV107" t="n">
+        <v>20165</v>
+      </c>
+      <c r="EW107" t="n">
+        <v>68</v>
+      </c>
+      <c r="EX107" t="n">
+        <v>130</v>
+      </c>
+      <c r="EY107" t="n">
+        <v>78</v>
+      </c>
+      <c r="EZ107" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA107" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB107" t="n">
+        <v>123</v>
+      </c>
+      <c r="FC107" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD107" t="n">
+        <v>48</v>
+      </c>
+      <c r="FE107" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF107" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG107" t="n">
+        <v>190</v>
+      </c>
+      <c r="FH107" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI107" t="n">
+        <v>12</v>
+      </c>
+      <c r="FJ107" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK107" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL107" t="n">
+        <v>7</v>
+      </c>
+      <c r="FM107" t="n">
+        <v>192</v>
+      </c>
+      <c r="FN107" t="n">
+        <v>91</v>
+      </c>
+      <c r="FO107" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP107" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ107" t="n">
+        <v>99</v>
+      </c>
+      <c r="FR107" t="n">
+        <v>203</v>
+      </c>
+      <c r="FS107" t="n">
+        <v>108</v>
+      </c>
+      <c r="FT107" t="n">
+        <v>68</v>
+      </c>
+      <c r="FU107" t="n">
+        <v>577</v>
+      </c>
+      <c r="FV107" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW107" t="n">
+        <v>90</v>
+      </c>
+      <c r="FX107" t="n">
+        <v>413</v>
+      </c>
+      <c r="FY107" t="n">
+        <v>22</v>
+      </c>
+      <c r="FZ107" t="n">
+        <v>117</v>
+      </c>
+      <c r="GA107" t="n">
+        <v>206</v>
+      </c>
+      <c r="GB107" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC107" t="n">
+        <v>4</v>
+      </c>
+      <c r="GD107" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE107" t="n">
+        <v>283</v>
+      </c>
+      <c r="GF107" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG107" t="n">
+        <v>101</v>
+      </c>
+      <c r="GH107" t="n">
+        <v>60</v>
+      </c>
+      <c r="GI107" t="n">
+        <v>18</v>
+      </c>
+      <c r="GJ107" t="n">
+        <v>156</v>
+      </c>
+      <c r="GK107" t="n">
+        <v>18</v>
+      </c>
+      <c r="GL107" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM107" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN107" t="n">
+        <v>310</v>
+      </c>
+      <c r="GO107" t="n">
+        <v>64</v>
+      </c>
+      <c r="GP107" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ107" t="n">
+        <v>108</v>
+      </c>
+      <c r="GR107" t="n">
+        <v>48</v>
+      </c>
+      <c r="GS107" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT107" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU107" t="n">
+        <v>29</v>
+      </c>
+      <c r="GV107" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW107" t="n">
+        <v>14</v>
+      </c>
+      <c r="GX107" t="n">
+        <v>46</v>
+      </c>
+      <c r="GY107" t="n">
+        <v>111</v>
+      </c>
+      <c r="GZ107" t="n">
+        <v>877</v>
+      </c>
+      <c r="HA107" t="n">
         <v>135</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA107"/>
+  <dimension ref="A1:HA108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67215,7 +67215,7 @@
         <v>1</v>
       </c>
       <c r="BG106" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BH106" t="n">
         <v>44</v>
@@ -67605,7 +67605,7 @@
         <v>1</v>
       </c>
       <c r="GG106" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="GH106" t="n">
         <v>59</v>
@@ -67846,7 +67846,7 @@
         <v>1</v>
       </c>
       <c r="BG107" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BH107" t="n">
         <v>48</v>
@@ -67942,7 +67942,7 @@
         <v>8</v>
       </c>
       <c r="CM107" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="CN107" t="n">
         <v>83</v>
@@ -68236,7 +68236,7 @@
         <v>1</v>
       </c>
       <c r="GG107" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="GH107" t="n">
         <v>60</v>
@@ -68297,6 +68297,637 @@
       </c>
       <c r="HA107" t="n">
         <v>135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>464</v>
+      </c>
+      <c r="C108" t="n">
+        <v>66</v>
+      </c>
+      <c r="D108" t="n">
+        <v>64</v>
+      </c>
+      <c r="E108" t="n">
+        <v>154</v>
+      </c>
+      <c r="F108" t="n">
+        <v>633</v>
+      </c>
+      <c r="G108" t="n">
+        <v>320</v>
+      </c>
+      <c r="H108" t="n">
+        <v>39</v>
+      </c>
+      <c r="I108" t="n">
+        <v>175</v>
+      </c>
+      <c r="J108" t="n">
+        <v>117</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>94</v>
+      </c>
+      <c r="M108" t="n">
+        <v>6</v>
+      </c>
+      <c r="N108" t="n">
+        <v>56</v>
+      </c>
+      <c r="O108" t="n">
+        <v>193</v>
+      </c>
+      <c r="P108" t="n">
+        <v>259</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>80</v>
+      </c>
+      <c r="S108" t="n">
+        <v>218</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>25</v>
+      </c>
+      <c r="V108" t="n">
+        <v>10</v>
+      </c>
+      <c r="W108" t="n">
+        <v>86</v>
+      </c>
+      <c r="X108" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>141</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>261</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>905</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>87</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1225</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>62</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>59</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>230</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1528</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>273</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>129</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>167</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>172</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>48</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>88</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>167</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>101</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>209</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>85</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>45</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>114</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>381</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>143</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>656</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>199</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>426</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>113</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>425</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>84</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>66</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>486</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>204</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>77</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>4668</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>88</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>122</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>106</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>27</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>26</v>
+      </c>
+      <c r="DG108" t="n">
+        <v>29</v>
+      </c>
+      <c r="DH108" t="n">
+        <v>63</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>104</v>
+      </c>
+      <c r="DJ108" t="n">
+        <v>9</v>
+      </c>
+      <c r="DK108" t="n">
+        <v>161</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>13</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>105</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>406</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>92</v>
+      </c>
+      <c r="DP108" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR108" t="n">
+        <v>73</v>
+      </c>
+      <c r="DS108" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT108" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU108" t="n">
+        <v>266</v>
+      </c>
+      <c r="DV108" t="n">
+        <v>117</v>
+      </c>
+      <c r="DW108" t="n">
+        <v>3631</v>
+      </c>
+      <c r="DX108" t="n">
+        <v>55</v>
+      </c>
+      <c r="DY108" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ108" t="n">
+        <v>65</v>
+      </c>
+      <c r="EA108" t="n">
+        <v>94</v>
+      </c>
+      <c r="EB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC108" t="n">
+        <v>787</v>
+      </c>
+      <c r="ED108" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE108" t="n">
+        <v>75</v>
+      </c>
+      <c r="EF108" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG108" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH108" t="n">
+        <v>30</v>
+      </c>
+      <c r="EI108" t="n">
+        <v>163</v>
+      </c>
+      <c r="EJ108" t="n">
+        <v>324</v>
+      </c>
+      <c r="EK108" t="n">
+        <v>2561</v>
+      </c>
+      <c r="EL108" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM108" t="n">
+        <v>31</v>
+      </c>
+      <c r="EN108" t="n">
+        <v>256</v>
+      </c>
+      <c r="EO108" t="n">
+        <v>43</v>
+      </c>
+      <c r="EP108" t="n">
+        <v>586</v>
+      </c>
+      <c r="EQ108" t="n">
+        <v>18</v>
+      </c>
+      <c r="ER108" t="n">
+        <v>305</v>
+      </c>
+      <c r="ES108" t="n">
+        <v>61</v>
+      </c>
+      <c r="ET108" t="n">
+        <v>150</v>
+      </c>
+      <c r="EU108" t="n">
+        <v>18</v>
+      </c>
+      <c r="EV108" t="n">
+        <v>20275</v>
+      </c>
+      <c r="EW108" t="n">
+        <v>68</v>
+      </c>
+      <c r="EX108" t="n">
+        <v>130</v>
+      </c>
+      <c r="EY108" t="n">
+        <v>78</v>
+      </c>
+      <c r="EZ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA108" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB108" t="n">
+        <v>123</v>
+      </c>
+      <c r="FC108" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD108" t="n">
+        <v>49</v>
+      </c>
+      <c r="FE108" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF108" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG108" t="n">
+        <v>280</v>
+      </c>
+      <c r="FH108" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI108" t="n">
+        <v>12</v>
+      </c>
+      <c r="FJ108" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK108" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL108" t="n">
+        <v>7</v>
+      </c>
+      <c r="FM108" t="n">
+        <v>195</v>
+      </c>
+      <c r="FN108" t="n">
+        <v>94</v>
+      </c>
+      <c r="FO108" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP108" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ108" t="n">
+        <v>101</v>
+      </c>
+      <c r="FR108" t="n">
+        <v>206</v>
+      </c>
+      <c r="FS108" t="n">
+        <v>109</v>
+      </c>
+      <c r="FT108" t="n">
+        <v>68</v>
+      </c>
+      <c r="FU108" t="n">
+        <v>577</v>
+      </c>
+      <c r="FV108" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW108" t="n">
+        <v>91</v>
+      </c>
+      <c r="FX108" t="n">
+        <v>420</v>
+      </c>
+      <c r="FY108" t="n">
+        <v>22</v>
+      </c>
+      <c r="FZ108" t="n">
+        <v>118</v>
+      </c>
+      <c r="GA108" t="n">
+        <v>207</v>
+      </c>
+      <c r="GB108" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC108" t="n">
+        <v>5</v>
+      </c>
+      <c r="GD108" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE108" t="n">
+        <v>295</v>
+      </c>
+      <c r="GF108" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG108" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH108" t="n">
+        <v>60</v>
+      </c>
+      <c r="GI108" t="n">
+        <v>19</v>
+      </c>
+      <c r="GJ108" t="n">
+        <v>156</v>
+      </c>
+      <c r="GK108" t="n">
+        <v>19</v>
+      </c>
+      <c r="GL108" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM108" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN108" t="n">
+        <v>310</v>
+      </c>
+      <c r="GO108" t="n">
+        <v>121</v>
+      </c>
+      <c r="GP108" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ108" t="n">
+        <v>109</v>
+      </c>
+      <c r="GR108" t="n">
+        <v>48</v>
+      </c>
+      <c r="GS108" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT108" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU108" t="n">
+        <v>32</v>
+      </c>
+      <c r="GV108" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW108" t="n">
+        <v>14</v>
+      </c>
+      <c r="GX108" t="n">
+        <v>46</v>
+      </c>
+      <c r="GY108" t="n">
+        <v>111</v>
+      </c>
+      <c r="GZ108" t="n">
+        <v>886</v>
+      </c>
+      <c r="HA108" t="n">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB109"/>
+  <dimension ref="A1:HB110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69329,7 +69329,7 @@
         <v>89</v>
       </c>
       <c r="X109" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y109" t="n">
         <v>214</v>
@@ -69888,6 +69888,640 @@
       </c>
       <c r="HB109" t="n">
         <v>144</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>477</v>
+      </c>
+      <c r="C110" t="n">
+        <v>75</v>
+      </c>
+      <c r="D110" t="n">
+        <v>65</v>
+      </c>
+      <c r="E110" t="n">
+        <v>167</v>
+      </c>
+      <c r="F110" t="n">
+        <v>681</v>
+      </c>
+      <c r="G110" t="n">
+        <v>341</v>
+      </c>
+      <c r="H110" t="n">
+        <v>39</v>
+      </c>
+      <c r="I110" t="n">
+        <v>176</v>
+      </c>
+      <c r="J110" t="n">
+        <v>135</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>98</v>
+      </c>
+      <c r="M110" t="n">
+        <v>12</v>
+      </c>
+      <c r="N110" t="n">
+        <v>58</v>
+      </c>
+      <c r="O110" t="n">
+        <v>203</v>
+      </c>
+      <c r="P110" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>84</v>
+      </c>
+      <c r="S110" t="n">
+        <v>219</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>29</v>
+      </c>
+      <c r="V110" t="n">
+        <v>10</v>
+      </c>
+      <c r="W110" t="n">
+        <v>105</v>
+      </c>
+      <c r="X110" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>217</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>148</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>105</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>103</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>294</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>52</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>917</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>99</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>76</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1252</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>73</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>59</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>242</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1633</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>323</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>133</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>173</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>179</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>88</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>194</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>114</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>120</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>216</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>275</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>85</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>47</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>123</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>405</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>148</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>664</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>207</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>45</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>433</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>120</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>443</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>67</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>515</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>22</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>208</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>79</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>4805</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>97</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>124</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>107</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>75</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>42</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>43</v>
+      </c>
+      <c r="DG110" t="n">
+        <v>30</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>64</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>109</v>
+      </c>
+      <c r="DJ110" t="n">
+        <v>13</v>
+      </c>
+      <c r="DK110" t="n">
+        <v>166</v>
+      </c>
+      <c r="DL110" t="n">
+        <v>14</v>
+      </c>
+      <c r="DM110" t="n">
+        <v>113</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>417</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>107</v>
+      </c>
+      <c r="DP110" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR110" t="n">
+        <v>89</v>
+      </c>
+      <c r="DS110" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT110" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU110" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV110" t="n">
+        <v>271</v>
+      </c>
+      <c r="DW110" t="n">
+        <v>123</v>
+      </c>
+      <c r="DX110" t="n">
+        <v>3762</v>
+      </c>
+      <c r="DY110" t="n">
+        <v>55</v>
+      </c>
+      <c r="DZ110" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA110" t="n">
+        <v>69</v>
+      </c>
+      <c r="EB110" t="n">
+        <v>101</v>
+      </c>
+      <c r="EC110" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED110" t="n">
+        <v>830</v>
+      </c>
+      <c r="EE110" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF110" t="n">
+        <v>83</v>
+      </c>
+      <c r="EG110" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH110" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI110" t="n">
+        <v>32</v>
+      </c>
+      <c r="EJ110" t="n">
+        <v>185</v>
+      </c>
+      <c r="EK110" t="n">
+        <v>353</v>
+      </c>
+      <c r="EL110" t="n">
+        <v>2616</v>
+      </c>
+      <c r="EM110" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN110" t="n">
+        <v>32</v>
+      </c>
+      <c r="EO110" t="n">
+        <v>270</v>
+      </c>
+      <c r="EP110" t="n">
+        <v>51</v>
+      </c>
+      <c r="EQ110" t="n">
+        <v>664</v>
+      </c>
+      <c r="ER110" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES110" t="n">
+        <v>347</v>
+      </c>
+      <c r="ET110" t="n">
+        <v>62</v>
+      </c>
+      <c r="EU110" t="n">
+        <v>159</v>
+      </c>
+      <c r="EV110" t="n">
+        <v>17</v>
+      </c>
+      <c r="EW110" t="n">
+        <v>20578</v>
+      </c>
+      <c r="EX110" t="n">
+        <v>87</v>
+      </c>
+      <c r="EY110" t="n">
+        <v>134</v>
+      </c>
+      <c r="EZ110" t="n">
+        <v>81</v>
+      </c>
+      <c r="FA110" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB110" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC110" t="n">
+        <v>128</v>
+      </c>
+      <c r="FD110" t="n">
+        <v>21</v>
+      </c>
+      <c r="FE110" t="n">
+        <v>51</v>
+      </c>
+      <c r="FF110" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG110" t="n">
+        <v>6</v>
+      </c>
+      <c r="FH110" t="n">
+        <v>396</v>
+      </c>
+      <c r="FI110" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ110" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK110" t="n">
+        <v>15</v>
+      </c>
+      <c r="FL110" t="n">
+        <v>8</v>
+      </c>
+      <c r="FM110" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN110" t="n">
+        <v>205</v>
+      </c>
+      <c r="FO110" t="n">
+        <v>99</v>
+      </c>
+      <c r="FP110" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="FR110" t="n">
+        <v>104</v>
+      </c>
+      <c r="FS110" t="n">
+        <v>209</v>
+      </c>
+      <c r="FT110" t="n">
+        <v>114</v>
+      </c>
+      <c r="FU110" t="n">
+        <v>72</v>
+      </c>
+      <c r="FV110" t="n">
+        <v>586</v>
+      </c>
+      <c r="FW110" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX110" t="n">
+        <v>103</v>
+      </c>
+      <c r="FY110" t="n">
+        <v>479</v>
+      </c>
+      <c r="FZ110" t="n">
+        <v>23</v>
+      </c>
+      <c r="GA110" t="n">
+        <v>128</v>
+      </c>
+      <c r="GB110" t="n">
+        <v>215</v>
+      </c>
+      <c r="GC110" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD110" t="n">
+        <v>6</v>
+      </c>
+      <c r="GE110" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF110" t="n">
+        <v>309</v>
+      </c>
+      <c r="GG110" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH110" t="n">
+        <v>108</v>
+      </c>
+      <c r="GI110" t="n">
+        <v>60</v>
+      </c>
+      <c r="GJ110" t="n">
+        <v>27</v>
+      </c>
+      <c r="GK110" t="n">
+        <v>178</v>
+      </c>
+      <c r="GL110" t="n">
+        <v>20</v>
+      </c>
+      <c r="GM110" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN110" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO110" t="n">
+        <v>321</v>
+      </c>
+      <c r="GP110" t="n">
+        <v>147</v>
+      </c>
+      <c r="GQ110" t="n">
+        <v>26</v>
+      </c>
+      <c r="GR110" t="n">
+        <v>118</v>
+      </c>
+      <c r="GS110" t="n">
+        <v>55</v>
+      </c>
+      <c r="GT110" t="n">
+        <v>35</v>
+      </c>
+      <c r="GU110" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV110" t="n">
+        <v>33</v>
+      </c>
+      <c r="GW110" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX110" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY110" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ110" t="n">
+        <v>120</v>
+      </c>
+      <c r="HA110" t="n">
+        <v>929</v>
+      </c>
+      <c r="HB110" t="n">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB110"/>
+  <dimension ref="A1:HB111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70524,6 +70524,640 @@
         <v>149</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>478</v>
+      </c>
+      <c r="C111" t="n">
+        <v>76</v>
+      </c>
+      <c r="D111" t="n">
+        <v>65</v>
+      </c>
+      <c r="E111" t="n">
+        <v>169</v>
+      </c>
+      <c r="F111" t="n">
+        <v>682</v>
+      </c>
+      <c r="G111" t="n">
+        <v>343</v>
+      </c>
+      <c r="H111" t="n">
+        <v>48</v>
+      </c>
+      <c r="I111" t="n">
+        <v>176</v>
+      </c>
+      <c r="J111" t="n">
+        <v>135</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>99</v>
+      </c>
+      <c r="M111" t="n">
+        <v>14</v>
+      </c>
+      <c r="N111" t="n">
+        <v>59</v>
+      </c>
+      <c r="O111" t="n">
+        <v>210</v>
+      </c>
+      <c r="P111" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>84</v>
+      </c>
+      <c r="S111" t="n">
+        <v>219</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>29</v>
+      </c>
+      <c r="V111" t="n">
+        <v>10</v>
+      </c>
+      <c r="W111" t="n">
+        <v>105</v>
+      </c>
+      <c r="X111" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>219</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>107</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>103</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>294</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>52</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>919</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>103</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>76</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>69</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>73</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>59</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>244</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>1681</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>325</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>136</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>173</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>179</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>89</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>194</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>114</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>120</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>218</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>275</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>85</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>20</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>47</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>69</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>126</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>406</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>152</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>668</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>208</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>45</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>434</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>121</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>452</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>67</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>517</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>24</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>208</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>80</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>4815</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>102</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>124</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>109</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>77</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>42</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>44</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>32</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>64</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>109</v>
+      </c>
+      <c r="DJ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="DK111" t="n">
+        <v>172</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>14</v>
+      </c>
+      <c r="DM111" t="n">
+        <v>115</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>417</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>107</v>
+      </c>
+      <c r="DP111" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR111" t="n">
+        <v>89</v>
+      </c>
+      <c r="DS111" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT111" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU111" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV111" t="n">
+        <v>271</v>
+      </c>
+      <c r="DW111" t="n">
+        <v>123</v>
+      </c>
+      <c r="DX111" t="n">
+        <v>3769</v>
+      </c>
+      <c r="DY111" t="n">
+        <v>55</v>
+      </c>
+      <c r="DZ111" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA111" t="n">
+        <v>71</v>
+      </c>
+      <c r="EB111" t="n">
+        <v>102</v>
+      </c>
+      <c r="EC111" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED111" t="n">
+        <v>834</v>
+      </c>
+      <c r="EE111" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF111" t="n">
+        <v>93</v>
+      </c>
+      <c r="EG111" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH111" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI111" t="n">
+        <v>32</v>
+      </c>
+      <c r="EJ111" t="n">
+        <v>185</v>
+      </c>
+      <c r="EK111" t="n">
+        <v>357</v>
+      </c>
+      <c r="EL111" t="n">
+        <v>2623</v>
+      </c>
+      <c r="EM111" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN111" t="n">
+        <v>32</v>
+      </c>
+      <c r="EO111" t="n">
+        <v>270</v>
+      </c>
+      <c r="EP111" t="n">
+        <v>51</v>
+      </c>
+      <c r="EQ111" t="n">
+        <v>674</v>
+      </c>
+      <c r="ER111" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES111" t="n">
+        <v>348</v>
+      </c>
+      <c r="ET111" t="n">
+        <v>62</v>
+      </c>
+      <c r="EU111" t="n">
+        <v>159</v>
+      </c>
+      <c r="EV111" t="n">
+        <v>18</v>
+      </c>
+      <c r="EW111" t="n">
+        <v>20656</v>
+      </c>
+      <c r="EX111" t="n">
+        <v>88</v>
+      </c>
+      <c r="EY111" t="n">
+        <v>134</v>
+      </c>
+      <c r="EZ111" t="n">
+        <v>82</v>
+      </c>
+      <c r="FA111" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB111" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC111" t="n">
+        <v>129</v>
+      </c>
+      <c r="FD111" t="n">
+        <v>21</v>
+      </c>
+      <c r="FE111" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG111" t="n">
+        <v>6</v>
+      </c>
+      <c r="FH111" t="n">
+        <v>398</v>
+      </c>
+      <c r="FI111" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK111" t="n">
+        <v>15</v>
+      </c>
+      <c r="FL111" t="n">
+        <v>8</v>
+      </c>
+      <c r="FM111" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN111" t="n">
+        <v>212</v>
+      </c>
+      <c r="FO111" t="n">
+        <v>100</v>
+      </c>
+      <c r="FP111" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="FR111" t="n">
+        <v>106</v>
+      </c>
+      <c r="FS111" t="n">
+        <v>212</v>
+      </c>
+      <c r="FT111" t="n">
+        <v>120</v>
+      </c>
+      <c r="FU111" t="n">
+        <v>72</v>
+      </c>
+      <c r="FV111" t="n">
+        <v>589</v>
+      </c>
+      <c r="FW111" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX111" t="n">
+        <v>118</v>
+      </c>
+      <c r="FY111" t="n">
+        <v>483</v>
+      </c>
+      <c r="FZ111" t="n">
+        <v>24</v>
+      </c>
+      <c r="GA111" t="n">
+        <v>128</v>
+      </c>
+      <c r="GB111" t="n">
+        <v>215</v>
+      </c>
+      <c r="GC111" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD111" t="n">
+        <v>7</v>
+      </c>
+      <c r="GE111" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF111" t="n">
+        <v>312</v>
+      </c>
+      <c r="GG111" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH111" t="n">
+        <v>115</v>
+      </c>
+      <c r="GI111" t="n">
+        <v>60</v>
+      </c>
+      <c r="GJ111" t="n">
+        <v>27</v>
+      </c>
+      <c r="GK111" t="n">
+        <v>179</v>
+      </c>
+      <c r="GL111" t="n">
+        <v>20</v>
+      </c>
+      <c r="GM111" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN111" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO111" t="n">
+        <v>323</v>
+      </c>
+      <c r="GP111" t="n">
+        <v>147</v>
+      </c>
+      <c r="GQ111" t="n">
+        <v>26</v>
+      </c>
+      <c r="GR111" t="n">
+        <v>118</v>
+      </c>
+      <c r="GS111" t="n">
+        <v>56</v>
+      </c>
+      <c r="GT111" t="n">
+        <v>35</v>
+      </c>
+      <c r="GU111" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV111" t="n">
+        <v>33</v>
+      </c>
+      <c r="GW111" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX111" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY111" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ111" t="n">
+        <v>120</v>
+      </c>
+      <c r="HA111" t="n">
+        <v>942</v>
+      </c>
+      <c r="HB111" t="n">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB113"/>
+  <dimension ref="A1:HB114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72390,7 +72390,7 @@
         <v>162</v>
       </c>
       <c r="GQ113" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GR113" t="n">
         <v>119</v>
@@ -72424,6 +72424,640 @@
       </c>
       <c r="HB113" t="n">
         <v>150</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>486</v>
+      </c>
+      <c r="C114" t="n">
+        <v>87</v>
+      </c>
+      <c r="D114" t="n">
+        <v>65</v>
+      </c>
+      <c r="E114" t="n">
+        <v>183</v>
+      </c>
+      <c r="F114" t="n">
+        <v>697</v>
+      </c>
+      <c r="G114" t="n">
+        <v>372</v>
+      </c>
+      <c r="H114" t="n">
+        <v>56</v>
+      </c>
+      <c r="I114" t="n">
+        <v>210</v>
+      </c>
+      <c r="J114" t="n">
+        <v>152</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>104</v>
+      </c>
+      <c r="M114" t="n">
+        <v>16</v>
+      </c>
+      <c r="N114" t="n">
+        <v>63</v>
+      </c>
+      <c r="O114" t="n">
+        <v>224</v>
+      </c>
+      <c r="P114" t="n">
+        <v>311</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>86</v>
+      </c>
+      <c r="S114" t="n">
+        <v>221</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>30</v>
+      </c>
+      <c r="V114" t="n">
+        <v>11</v>
+      </c>
+      <c r="W114" t="n">
+        <v>161</v>
+      </c>
+      <c r="X114" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>232</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>108</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>309</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>946</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>72</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>118</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>83</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1286</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>73</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>76</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>66</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>38</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>53</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>253</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1910</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>347</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>143</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>175</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>180</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>56</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>93</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>52</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>199</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>127</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>222</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>296</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>20</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>56</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>71</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>133</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>428</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>158</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>679</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>216</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>46</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>444</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>33</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>128</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>462</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>96</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>69</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>536</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>209</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>85</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>5005</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>109</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>138</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>116</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>79</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>56</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>60</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>34</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>65</v>
+      </c>
+      <c r="DJ114" t="n">
+        <v>116</v>
+      </c>
+      <c r="DK114" t="n">
+        <v>14</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>173</v>
+      </c>
+      <c r="DM114" t="n">
+        <v>16</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>128</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>433</v>
+      </c>
+      <c r="DP114" t="n">
+        <v>116</v>
+      </c>
+      <c r="DQ114" t="n">
+        <v>55</v>
+      </c>
+      <c r="DR114" t="n">
+        <v>97</v>
+      </c>
+      <c r="DS114" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT114" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU114" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV114" t="n">
+        <v>278</v>
+      </c>
+      <c r="DW114" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX114" t="n">
+        <v>3861</v>
+      </c>
+      <c r="DY114" t="n">
+        <v>56</v>
+      </c>
+      <c r="DZ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA114" t="n">
+        <v>82</v>
+      </c>
+      <c r="EB114" t="n">
+        <v>110</v>
+      </c>
+      <c r="EC114" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED114" t="n">
+        <v>883</v>
+      </c>
+      <c r="EE114" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF114" t="n">
+        <v>117</v>
+      </c>
+      <c r="EG114" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH114" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI114" t="n">
+        <v>34</v>
+      </c>
+      <c r="EJ114" t="n">
+        <v>189</v>
+      </c>
+      <c r="EK114" t="n">
+        <v>374</v>
+      </c>
+      <c r="EL114" t="n">
+        <v>2672</v>
+      </c>
+      <c r="EM114" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN114" t="n">
+        <v>35</v>
+      </c>
+      <c r="EO114" t="n">
+        <v>275</v>
+      </c>
+      <c r="EP114" t="n">
+        <v>59</v>
+      </c>
+      <c r="EQ114" t="n">
+        <v>764</v>
+      </c>
+      <c r="ER114" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES114" t="n">
+        <v>359</v>
+      </c>
+      <c r="ET114" t="n">
+        <v>62</v>
+      </c>
+      <c r="EU114" t="n">
+        <v>185</v>
+      </c>
+      <c r="EV114" t="n">
+        <v>18</v>
+      </c>
+      <c r="EW114" t="n">
+        <v>21103</v>
+      </c>
+      <c r="EX114" t="n">
+        <v>92</v>
+      </c>
+      <c r="EY114" t="n">
+        <v>138</v>
+      </c>
+      <c r="EZ114" t="n">
+        <v>93</v>
+      </c>
+      <c r="FA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB114" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC114" t="n">
+        <v>139</v>
+      </c>
+      <c r="FD114" t="n">
+        <v>22</v>
+      </c>
+      <c r="FE114" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG114" t="n">
+        <v>7</v>
+      </c>
+      <c r="FH114" t="n">
+        <v>482</v>
+      </c>
+      <c r="FI114" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ114" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK114" t="n">
+        <v>25</v>
+      </c>
+      <c r="FL114" t="n">
+        <v>8</v>
+      </c>
+      <c r="FM114" t="n">
+        <v>12</v>
+      </c>
+      <c r="FN114" t="n">
+        <v>226</v>
+      </c>
+      <c r="FO114" t="n">
+        <v>104</v>
+      </c>
+      <c r="FP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ114" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR114" t="n">
+        <v>124</v>
+      </c>
+      <c r="FS114" t="n">
+        <v>227</v>
+      </c>
+      <c r="FT114" t="n">
+        <v>133</v>
+      </c>
+      <c r="FU114" t="n">
+        <v>73</v>
+      </c>
+      <c r="FV114" t="n">
+        <v>604</v>
+      </c>
+      <c r="FW114" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX114" t="n">
+        <v>120</v>
+      </c>
+      <c r="FY114" t="n">
+        <v>603</v>
+      </c>
+      <c r="FZ114" t="n">
+        <v>26</v>
+      </c>
+      <c r="GA114" t="n">
+        <v>145</v>
+      </c>
+      <c r="GB114" t="n">
+        <v>216</v>
+      </c>
+      <c r="GC114" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD114" t="n">
+        <v>7</v>
+      </c>
+      <c r="GE114" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF114" t="n">
+        <v>351</v>
+      </c>
+      <c r="GG114" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH114" t="n">
+        <v>129</v>
+      </c>
+      <c r="GI114" t="n">
+        <v>60</v>
+      </c>
+      <c r="GJ114" t="n">
+        <v>40</v>
+      </c>
+      <c r="GK114" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL114" t="n">
+        <v>21</v>
+      </c>
+      <c r="GM114" t="n">
+        <v>10</v>
+      </c>
+      <c r="GN114" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO114" t="n">
+        <v>354</v>
+      </c>
+      <c r="GP114" t="n">
+        <v>171</v>
+      </c>
+      <c r="GQ114" t="n">
+        <v>27</v>
+      </c>
+      <c r="GR114" t="n">
+        <v>123</v>
+      </c>
+      <c r="GS114" t="n">
+        <v>57</v>
+      </c>
+      <c r="GT114" t="n">
+        <v>37</v>
+      </c>
+      <c r="GU114" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV114" t="n">
+        <v>36</v>
+      </c>
+      <c r="GW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX114" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY114" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ114" t="n">
+        <v>125</v>
+      </c>
+      <c r="HA114" t="n">
+        <v>987</v>
+      </c>
+      <c r="HB114" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB114"/>
+  <dimension ref="A1:HB115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72378,7 +72378,7 @@
         <v>21</v>
       </c>
       <c r="GM113" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="GN113" t="n">
         <v>4</v>
@@ -73012,7 +73012,7 @@
         <v>21</v>
       </c>
       <c r="GM114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="GN114" t="n">
         <v>4</v>
@@ -73058,6 +73058,640 @@
       </c>
       <c r="HB114" t="n">
         <v>153</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>491</v>
+      </c>
+      <c r="C115" t="n">
+        <v>88</v>
+      </c>
+      <c r="D115" t="n">
+        <v>65</v>
+      </c>
+      <c r="E115" t="n">
+        <v>196</v>
+      </c>
+      <c r="F115" t="n">
+        <v>704</v>
+      </c>
+      <c r="G115" t="n">
+        <v>386</v>
+      </c>
+      <c r="H115" t="n">
+        <v>62</v>
+      </c>
+      <c r="I115" t="n">
+        <v>214</v>
+      </c>
+      <c r="J115" t="n">
+        <v>184</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>105</v>
+      </c>
+      <c r="M115" t="n">
+        <v>17</v>
+      </c>
+      <c r="N115" t="n">
+        <v>63</v>
+      </c>
+      <c r="O115" t="n">
+        <v>229</v>
+      </c>
+      <c r="P115" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>100</v>
+      </c>
+      <c r="S115" t="n">
+        <v>225</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>31</v>
+      </c>
+      <c r="V115" t="n">
+        <v>11</v>
+      </c>
+      <c r="W115" t="n">
+        <v>172</v>
+      </c>
+      <c r="X115" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>244</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>166</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>127</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>326</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>952</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>125</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1295</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>76</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>86</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>68</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>255</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2036</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>367</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>144</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>177</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>189</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>56</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>93</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>214</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>131</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>225</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>303</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>21</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>73</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>135</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>438</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>164</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>689</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>218</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>47</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>451</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>33</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>129</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>473</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>99</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>69</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>549</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>209</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>85</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>5029</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>109</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>138</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>117</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>91</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>61</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>64</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>35</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>66</v>
+      </c>
+      <c r="DJ115" t="n">
+        <v>116</v>
+      </c>
+      <c r="DK115" t="n">
+        <v>15</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>173</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>16</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>131</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>458</v>
+      </c>
+      <c r="DP115" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ115" t="n">
+        <v>56</v>
+      </c>
+      <c r="DR115" t="n">
+        <v>110</v>
+      </c>
+      <c r="DS115" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT115" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU115" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV115" t="n">
+        <v>278</v>
+      </c>
+      <c r="DW115" t="n">
+        <v>129</v>
+      </c>
+      <c r="DX115" t="n">
+        <v>3916</v>
+      </c>
+      <c r="DY115" t="n">
+        <v>57</v>
+      </c>
+      <c r="DZ115" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA115" t="n">
+        <v>86</v>
+      </c>
+      <c r="EB115" t="n">
+        <v>112</v>
+      </c>
+      <c r="EC115" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED115" t="n">
+        <v>893</v>
+      </c>
+      <c r="EE115" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF115" t="n">
+        <v>139</v>
+      </c>
+      <c r="EG115" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH115" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI115" t="n">
+        <v>34</v>
+      </c>
+      <c r="EJ115" t="n">
+        <v>190</v>
+      </c>
+      <c r="EK115" t="n">
+        <v>383</v>
+      </c>
+      <c r="EL115" t="n">
+        <v>2688</v>
+      </c>
+      <c r="EM115" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN115" t="n">
+        <v>40</v>
+      </c>
+      <c r="EO115" t="n">
+        <v>302</v>
+      </c>
+      <c r="EP115" t="n">
+        <v>59</v>
+      </c>
+      <c r="EQ115" t="n">
+        <v>808</v>
+      </c>
+      <c r="ER115" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES115" t="n">
+        <v>359</v>
+      </c>
+      <c r="ET115" t="n">
+        <v>63</v>
+      </c>
+      <c r="EU115" t="n">
+        <v>185</v>
+      </c>
+      <c r="EV115" t="n">
+        <v>19</v>
+      </c>
+      <c r="EW115" t="n">
+        <v>21255</v>
+      </c>
+      <c r="EX115" t="n">
+        <v>107</v>
+      </c>
+      <c r="EY115" t="n">
+        <v>139</v>
+      </c>
+      <c r="EZ115" t="n">
+        <v>98</v>
+      </c>
+      <c r="FA115" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB115" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC115" t="n">
+        <v>142</v>
+      </c>
+      <c r="FD115" t="n">
+        <v>23</v>
+      </c>
+      <c r="FE115" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF115" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG115" t="n">
+        <v>7</v>
+      </c>
+      <c r="FH115" t="n">
+        <v>546</v>
+      </c>
+      <c r="FI115" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ115" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK115" t="n">
+        <v>26</v>
+      </c>
+      <c r="FL115" t="n">
+        <v>9</v>
+      </c>
+      <c r="FM115" t="n">
+        <v>12</v>
+      </c>
+      <c r="FN115" t="n">
+        <v>236</v>
+      </c>
+      <c r="FO115" t="n">
+        <v>108</v>
+      </c>
+      <c r="FP115" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ115" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR115" t="n">
+        <v>125</v>
+      </c>
+      <c r="FS115" t="n">
+        <v>227</v>
+      </c>
+      <c r="FT115" t="n">
+        <v>135</v>
+      </c>
+      <c r="FU115" t="n">
+        <v>78</v>
+      </c>
+      <c r="FV115" t="n">
+        <v>607</v>
+      </c>
+      <c r="FW115" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX115" t="n">
+        <v>124</v>
+      </c>
+      <c r="FY115" t="n">
+        <v>623</v>
+      </c>
+      <c r="FZ115" t="n">
+        <v>30</v>
+      </c>
+      <c r="GA115" t="n">
+        <v>150</v>
+      </c>
+      <c r="GB115" t="n">
+        <v>227</v>
+      </c>
+      <c r="GC115" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD115" t="n">
+        <v>7</v>
+      </c>
+      <c r="GE115" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF115" t="n">
+        <v>364</v>
+      </c>
+      <c r="GG115" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH115" t="n">
+        <v>129</v>
+      </c>
+      <c r="GI115" t="n">
+        <v>60</v>
+      </c>
+      <c r="GJ115" t="n">
+        <v>64</v>
+      </c>
+      <c r="GK115" t="n">
+        <v>200</v>
+      </c>
+      <c r="GL115" t="n">
+        <v>21</v>
+      </c>
+      <c r="GM115" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN115" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO115" t="n">
+        <v>358</v>
+      </c>
+      <c r="GP115" t="n">
+        <v>201</v>
+      </c>
+      <c r="GQ115" t="n">
+        <v>29</v>
+      </c>
+      <c r="GR115" t="n">
+        <v>127</v>
+      </c>
+      <c r="GS115" t="n">
+        <v>60</v>
+      </c>
+      <c r="GT115" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU115" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV115" t="n">
+        <v>36</v>
+      </c>
+      <c r="GW115" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX115" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY115" t="n">
+        <v>52</v>
+      </c>
+      <c r="GZ115" t="n">
+        <v>129</v>
+      </c>
+      <c r="HA115" t="n">
+        <v>990</v>
+      </c>
+      <c r="HB115" t="n">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB115"/>
+  <dimension ref="A1:HB116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73694,6 +73694,640 @@
         <v>156</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>498</v>
+      </c>
+      <c r="C116" t="n">
+        <v>92</v>
+      </c>
+      <c r="D116" t="n">
+        <v>65</v>
+      </c>
+      <c r="E116" t="n">
+        <v>211</v>
+      </c>
+      <c r="F116" t="n">
+        <v>712</v>
+      </c>
+      <c r="G116" t="n">
+        <v>395</v>
+      </c>
+      <c r="H116" t="n">
+        <v>63</v>
+      </c>
+      <c r="I116" t="n">
+        <v>215</v>
+      </c>
+      <c r="J116" t="n">
+        <v>186</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>105</v>
+      </c>
+      <c r="M116" t="n">
+        <v>17</v>
+      </c>
+      <c r="N116" t="n">
+        <v>63</v>
+      </c>
+      <c r="O116" t="n">
+        <v>233</v>
+      </c>
+      <c r="P116" t="n">
+        <v>329</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>102</v>
+      </c>
+      <c r="S116" t="n">
+        <v>227</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1</v>
+      </c>
+      <c r="U116" t="n">
+        <v>33</v>
+      </c>
+      <c r="V116" t="n">
+        <v>11</v>
+      </c>
+      <c r="W116" t="n">
+        <v>209</v>
+      </c>
+      <c r="X116" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>255</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>173</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>123</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>354</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1017</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>128</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>88</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>76</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>68</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>257</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>2115</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>376</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>39</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>145</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>179</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>190</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>60</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>94</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>228</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>135</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>227</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>316</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>73</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>136</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>442</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>166</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>689</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>226</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>47</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>455</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>137</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>479</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>102</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>70</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>551</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>210</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>85</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>5094</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>109</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>138</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>119</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>100</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>62</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>71</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>35</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>66</v>
+      </c>
+      <c r="DJ116" t="n">
+        <v>119</v>
+      </c>
+      <c r="DK116" t="n">
+        <v>19</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>181</v>
+      </c>
+      <c r="DM116" t="n">
+        <v>17</v>
+      </c>
+      <c r="DN116" t="n">
+        <v>132</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>466</v>
+      </c>
+      <c r="DP116" t="n">
+        <v>121</v>
+      </c>
+      <c r="DQ116" t="n">
+        <v>56</v>
+      </c>
+      <c r="DR116" t="n">
+        <v>110</v>
+      </c>
+      <c r="DS116" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT116" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU116" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV116" t="n">
+        <v>279</v>
+      </c>
+      <c r="DW116" t="n">
+        <v>130</v>
+      </c>
+      <c r="DX116" t="n">
+        <v>3937</v>
+      </c>
+      <c r="DY116" t="n">
+        <v>57</v>
+      </c>
+      <c r="DZ116" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA116" t="n">
+        <v>89</v>
+      </c>
+      <c r="EB116" t="n">
+        <v>117</v>
+      </c>
+      <c r="EC116" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED116" t="n">
+        <v>908</v>
+      </c>
+      <c r="EE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="EF116" t="n">
+        <v>150</v>
+      </c>
+      <c r="EG116" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH116" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI116" t="n">
+        <v>34</v>
+      </c>
+      <c r="EJ116" t="n">
+        <v>191</v>
+      </c>
+      <c r="EK116" t="n">
+        <v>390</v>
+      </c>
+      <c r="EL116" t="n">
+        <v>2698</v>
+      </c>
+      <c r="EM116" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN116" t="n">
+        <v>40</v>
+      </c>
+      <c r="EO116" t="n">
+        <v>319</v>
+      </c>
+      <c r="EP116" t="n">
+        <v>61</v>
+      </c>
+      <c r="EQ116" t="n">
+        <v>838</v>
+      </c>
+      <c r="ER116" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES116" t="n">
+        <v>381</v>
+      </c>
+      <c r="ET116" t="n">
+        <v>63</v>
+      </c>
+      <c r="EU116" t="n">
+        <v>192</v>
+      </c>
+      <c r="EV116" t="n">
+        <v>19</v>
+      </c>
+      <c r="EW116" t="n">
+        <v>21400</v>
+      </c>
+      <c r="EX116" t="n">
+        <v>112</v>
+      </c>
+      <c r="EY116" t="n">
+        <v>140</v>
+      </c>
+      <c r="EZ116" t="n">
+        <v>100</v>
+      </c>
+      <c r="FA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB116" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC116" t="n">
+        <v>157</v>
+      </c>
+      <c r="FD116" t="n">
+        <v>23</v>
+      </c>
+      <c r="FE116" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF116" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG116" t="n">
+        <v>7</v>
+      </c>
+      <c r="FH116" t="n">
+        <v>629</v>
+      </c>
+      <c r="FI116" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ116" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK116" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL116" t="n">
+        <v>9</v>
+      </c>
+      <c r="FM116" t="n">
+        <v>12</v>
+      </c>
+      <c r="FN116" t="n">
+        <v>246</v>
+      </c>
+      <c r="FO116" t="n">
+        <v>113</v>
+      </c>
+      <c r="FP116" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR116" t="n">
+        <v>134</v>
+      </c>
+      <c r="FS116" t="n">
+        <v>228</v>
+      </c>
+      <c r="FT116" t="n">
+        <v>135</v>
+      </c>
+      <c r="FU116" t="n">
+        <v>81</v>
+      </c>
+      <c r="FV116" t="n">
+        <v>613</v>
+      </c>
+      <c r="FW116" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX116" t="n">
+        <v>129</v>
+      </c>
+      <c r="FY116" t="n">
+        <v>656</v>
+      </c>
+      <c r="FZ116" t="n">
+        <v>31</v>
+      </c>
+      <c r="GA116" t="n">
+        <v>153</v>
+      </c>
+      <c r="GB116" t="n">
+        <v>232</v>
+      </c>
+      <c r="GC116" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD116" t="n">
+        <v>7</v>
+      </c>
+      <c r="GE116" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF116" t="n">
+        <v>378</v>
+      </c>
+      <c r="GG116" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH116" t="n">
+        <v>135</v>
+      </c>
+      <c r="GI116" t="n">
+        <v>63</v>
+      </c>
+      <c r="GJ116" t="n">
+        <v>80</v>
+      </c>
+      <c r="GK116" t="n">
+        <v>203</v>
+      </c>
+      <c r="GL116" t="n">
+        <v>23</v>
+      </c>
+      <c r="GM116" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN116" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO116" t="n">
+        <v>358</v>
+      </c>
+      <c r="GP116" t="n">
+        <v>213</v>
+      </c>
+      <c r="GQ116" t="n">
+        <v>30</v>
+      </c>
+      <c r="GR116" t="n">
+        <v>129</v>
+      </c>
+      <c r="GS116" t="n">
+        <v>60</v>
+      </c>
+      <c r="GT116" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU116" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV116" t="n">
+        <v>36</v>
+      </c>
+      <c r="GW116" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX116" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY116" t="n">
+        <v>54</v>
+      </c>
+      <c r="GZ116" t="n">
+        <v>132</v>
+      </c>
+      <c r="HA116" t="n">
+        <v>990</v>
+      </c>
+      <c r="HB116" t="n">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB116"/>
+  <dimension ref="A1:HB117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74235,7 +74235,7 @@
         <v>2</v>
       </c>
       <c r="FX116" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="FY116" t="n">
         <v>656</v>
@@ -74325,6 +74325,640 @@
         <v>990</v>
       </c>
       <c r="HB116" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>503</v>
+      </c>
+      <c r="C117" t="n">
+        <v>106</v>
+      </c>
+      <c r="D117" t="n">
+        <v>65</v>
+      </c>
+      <c r="E117" t="n">
+        <v>213</v>
+      </c>
+      <c r="F117" t="n">
+        <v>720</v>
+      </c>
+      <c r="G117" t="n">
+        <v>414</v>
+      </c>
+      <c r="H117" t="n">
+        <v>66</v>
+      </c>
+      <c r="I117" t="n">
+        <v>223</v>
+      </c>
+      <c r="J117" t="n">
+        <v>192</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>107</v>
+      </c>
+      <c r="M117" t="n">
+        <v>20</v>
+      </c>
+      <c r="N117" t="n">
+        <v>63</v>
+      </c>
+      <c r="O117" t="n">
+        <v>236</v>
+      </c>
+      <c r="P117" t="n">
+        <v>344</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>108</v>
+      </c>
+      <c r="S117" t="n">
+        <v>229</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>35</v>
+      </c>
+      <c r="V117" t="n">
+        <v>11</v>
+      </c>
+      <c r="W117" t="n">
+        <v>241</v>
+      </c>
+      <c r="X117" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>269</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>189</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>124</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>375</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>66</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1053</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>107</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>134</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1312</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>76</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>261</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>2236</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>394</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>148</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>183</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>196</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>236</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>138</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>228</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>328</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>87</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>138</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>452</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>166</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>694</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>241</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>48</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>456</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>145</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>494</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>110</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>74</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>562</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>212</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>95</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>5180</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>112</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>144</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>12</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>121</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>107</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>70</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>74</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>35</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>66</v>
+      </c>
+      <c r="DJ117" t="n">
+        <v>123</v>
+      </c>
+      <c r="DK117" t="n">
+        <v>19</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>203</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>18</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>141</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>482</v>
+      </c>
+      <c r="DP117" t="n">
+        <v>128</v>
+      </c>
+      <c r="DQ117" t="n">
+        <v>56</v>
+      </c>
+      <c r="DR117" t="n">
+        <v>124</v>
+      </c>
+      <c r="DS117" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT117" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU117" t="n">
+        <v>9</v>
+      </c>
+      <c r="DV117" t="n">
+        <v>281</v>
+      </c>
+      <c r="DW117" t="n">
+        <v>132</v>
+      </c>
+      <c r="DX117" t="n">
+        <v>3970</v>
+      </c>
+      <c r="DY117" t="n">
+        <v>74</v>
+      </c>
+      <c r="DZ117" t="n">
+        <v>7</v>
+      </c>
+      <c r="EA117" t="n">
+        <v>93</v>
+      </c>
+      <c r="EB117" t="n">
+        <v>119</v>
+      </c>
+      <c r="EC117" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED117" t="n">
+        <v>921</v>
+      </c>
+      <c r="EE117" t="n">
+        <v>8</v>
+      </c>
+      <c r="EF117" t="n">
+        <v>155</v>
+      </c>
+      <c r="EG117" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH117" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI117" t="n">
+        <v>36</v>
+      </c>
+      <c r="EJ117" t="n">
+        <v>193</v>
+      </c>
+      <c r="EK117" t="n">
+        <v>398</v>
+      </c>
+      <c r="EL117" t="n">
+        <v>2716</v>
+      </c>
+      <c r="EM117" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN117" t="n">
+        <v>42</v>
+      </c>
+      <c r="EO117" t="n">
+        <v>331</v>
+      </c>
+      <c r="EP117" t="n">
+        <v>67</v>
+      </c>
+      <c r="EQ117" t="n">
+        <v>896</v>
+      </c>
+      <c r="ER117" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES117" t="n">
+        <v>403</v>
+      </c>
+      <c r="ET117" t="n">
+        <v>66</v>
+      </c>
+      <c r="EU117" t="n">
+        <v>195</v>
+      </c>
+      <c r="EV117" t="n">
+        <v>19</v>
+      </c>
+      <c r="EW117" t="n">
+        <v>21683</v>
+      </c>
+      <c r="EX117" t="n">
+        <v>143</v>
+      </c>
+      <c r="EY117" t="n">
+        <v>143</v>
+      </c>
+      <c r="EZ117" t="n">
+        <v>135</v>
+      </c>
+      <c r="FA117" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB117" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC117" t="n">
+        <v>175</v>
+      </c>
+      <c r="FD117" t="n">
+        <v>25</v>
+      </c>
+      <c r="FE117" t="n">
+        <v>73</v>
+      </c>
+      <c r="FF117" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG117" t="n">
+        <v>8</v>
+      </c>
+      <c r="FH117" t="n">
+        <v>703</v>
+      </c>
+      <c r="FI117" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ117" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK117" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL117" t="n">
+        <v>10</v>
+      </c>
+      <c r="FM117" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN117" t="n">
+        <v>252</v>
+      </c>
+      <c r="FO117" t="n">
+        <v>126</v>
+      </c>
+      <c r="FP117" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ117" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR117" t="n">
+        <v>138</v>
+      </c>
+      <c r="FS117" t="n">
+        <v>230</v>
+      </c>
+      <c r="FT117" t="n">
+        <v>136</v>
+      </c>
+      <c r="FU117" t="n">
+        <v>85</v>
+      </c>
+      <c r="FV117" t="n">
+        <v>618</v>
+      </c>
+      <c r="FW117" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX117" t="n">
+        <v>128</v>
+      </c>
+      <c r="FY117" t="n">
+        <v>678</v>
+      </c>
+      <c r="FZ117" t="n">
+        <v>31</v>
+      </c>
+      <c r="GA117" t="n">
+        <v>154</v>
+      </c>
+      <c r="GB117" t="n">
+        <v>262</v>
+      </c>
+      <c r="GC117" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD117" t="n">
+        <v>7</v>
+      </c>
+      <c r="GE117" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF117" t="n">
+        <v>388</v>
+      </c>
+      <c r="GG117" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH117" t="n">
+        <v>152</v>
+      </c>
+      <c r="GI117" t="n">
+        <v>63</v>
+      </c>
+      <c r="GJ117" t="n">
+        <v>91</v>
+      </c>
+      <c r="GK117" t="n">
+        <v>203</v>
+      </c>
+      <c r="GL117" t="n">
+        <v>25</v>
+      </c>
+      <c r="GM117" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN117" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO117" t="n">
+        <v>359</v>
+      </c>
+      <c r="GP117" t="n">
+        <v>222</v>
+      </c>
+      <c r="GQ117" t="n">
+        <v>30</v>
+      </c>
+      <c r="GR117" t="n">
+        <v>133</v>
+      </c>
+      <c r="GS117" t="n">
+        <v>61</v>
+      </c>
+      <c r="GT117" t="n">
+        <v>41</v>
+      </c>
+      <c r="GU117" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV117" t="n">
+        <v>37</v>
+      </c>
+      <c r="GW117" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX117" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY117" t="n">
+        <v>56</v>
+      </c>
+      <c r="GZ117" t="n">
+        <v>132</v>
+      </c>
+      <c r="HA117" t="n">
+        <v>1043</v>
+      </c>
+      <c r="HB117" t="n">
         <v>158</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB117"/>
+  <dimension ref="A1:HB118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71083,7 +71083,7 @@
         <v>2</v>
       </c>
       <c r="GD111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE111" t="n">
         <v>1</v>
@@ -71717,7 +71717,7 @@
         <v>2</v>
       </c>
       <c r="GD112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE112" t="n">
         <v>1</v>
@@ -72351,7 +72351,7 @@
         <v>2</v>
       </c>
       <c r="GD113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE113" t="n">
         <v>1</v>
@@ -72985,7 +72985,7 @@
         <v>2</v>
       </c>
       <c r="GD114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE114" t="n">
         <v>1</v>
@@ -73619,7 +73619,7 @@
         <v>2</v>
       </c>
       <c r="GD115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE115" t="n">
         <v>1</v>
@@ -74253,7 +74253,7 @@
         <v>2</v>
       </c>
       <c r="GD116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE116" t="n">
         <v>1</v>
@@ -74857,7 +74857,7 @@
         <v>230</v>
       </c>
       <c r="FT117" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="FU117" t="n">
         <v>85</v>
@@ -74887,7 +74887,7 @@
         <v>2</v>
       </c>
       <c r="GD117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE117" t="n">
         <v>1</v>
@@ -74960,6 +74960,640 @@
       </c>
       <c r="HB117" t="n">
         <v>158</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>507</v>
+      </c>
+      <c r="C118" t="n">
+        <v>108</v>
+      </c>
+      <c r="D118" t="n">
+        <v>65</v>
+      </c>
+      <c r="E118" t="n">
+        <v>219</v>
+      </c>
+      <c r="F118" t="n">
+        <v>721</v>
+      </c>
+      <c r="G118" t="n">
+        <v>415</v>
+      </c>
+      <c r="H118" t="n">
+        <v>68</v>
+      </c>
+      <c r="I118" t="n">
+        <v>225</v>
+      </c>
+      <c r="J118" t="n">
+        <v>193</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>108</v>
+      </c>
+      <c r="M118" t="n">
+        <v>23</v>
+      </c>
+      <c r="N118" t="n">
+        <v>63</v>
+      </c>
+      <c r="O118" t="n">
+        <v>246</v>
+      </c>
+      <c r="P118" t="n">
+        <v>345</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>110</v>
+      </c>
+      <c r="S118" t="n">
+        <v>229</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
+        <v>35</v>
+      </c>
+      <c r="V118" t="n">
+        <v>11</v>
+      </c>
+      <c r="W118" t="n">
+        <v>241</v>
+      </c>
+      <c r="X118" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>271</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>189</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>141</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>124</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>376</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>66</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1057</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>139</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>96</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1316</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>78</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>112</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>264</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>2278</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>399</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>41</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>150</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>187</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>196</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>237</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>139</v>
+      </c>
+      <c r="BQ118" t="n">
+        <v>229</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>336</v>
+      </c>
+      <c r="BT118" t="n">
+        <v>87</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV118" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW118" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>140</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>455</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>172</v>
+      </c>
+      <c r="CB118" t="n">
+        <v>695</v>
+      </c>
+      <c r="CC118" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD118" t="n">
+        <v>247</v>
+      </c>
+      <c r="CE118" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>48</v>
+      </c>
+      <c r="CG118" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH118" t="n">
+        <v>461</v>
+      </c>
+      <c r="CI118" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK118" t="n">
+        <v>150</v>
+      </c>
+      <c r="CL118" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM118" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN118" t="n">
+        <v>498</v>
+      </c>
+      <c r="CO118" t="n">
+        <v>115</v>
+      </c>
+      <c r="CP118" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ118" t="n">
+        <v>74</v>
+      </c>
+      <c r="CR118" t="n">
+        <v>564</v>
+      </c>
+      <c r="CS118" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT118" t="n">
+        <v>212</v>
+      </c>
+      <c r="CU118" t="n">
+        <v>95</v>
+      </c>
+      <c r="CV118" t="n">
+        <v>5201</v>
+      </c>
+      <c r="CW118" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX118" t="n">
+        <v>121</v>
+      </c>
+      <c r="CY118" t="n">
+        <v>144</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>12</v>
+      </c>
+      <c r="DA118" t="n">
+        <v>121</v>
+      </c>
+      <c r="DB118" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC118" t="n">
+        <v>107</v>
+      </c>
+      <c r="DD118" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE118" t="n">
+        <v>71</v>
+      </c>
+      <c r="DF118" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG118" t="n">
+        <v>74</v>
+      </c>
+      <c r="DH118" t="n">
+        <v>35</v>
+      </c>
+      <c r="DI118" t="n">
+        <v>66</v>
+      </c>
+      <c r="DJ118" t="n">
+        <v>123</v>
+      </c>
+      <c r="DK118" t="n">
+        <v>21</v>
+      </c>
+      <c r="DL118" t="n">
+        <v>203</v>
+      </c>
+      <c r="DM118" t="n">
+        <v>20</v>
+      </c>
+      <c r="DN118" t="n">
+        <v>145</v>
+      </c>
+      <c r="DO118" t="n">
+        <v>486</v>
+      </c>
+      <c r="DP118" t="n">
+        <v>130</v>
+      </c>
+      <c r="DQ118" t="n">
+        <v>57</v>
+      </c>
+      <c r="DR118" t="n">
+        <v>128</v>
+      </c>
+      <c r="DS118" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT118" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU118" t="n">
+        <v>12</v>
+      </c>
+      <c r="DV118" t="n">
+        <v>283</v>
+      </c>
+      <c r="DW118" t="n">
+        <v>133</v>
+      </c>
+      <c r="DX118" t="n">
+        <v>3988</v>
+      </c>
+      <c r="DY118" t="n">
+        <v>83</v>
+      </c>
+      <c r="DZ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="EA118" t="n">
+        <v>96</v>
+      </c>
+      <c r="EB118" t="n">
+        <v>120</v>
+      </c>
+      <c r="EC118" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED118" t="n">
+        <v>922</v>
+      </c>
+      <c r="EE118" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF118" t="n">
+        <v>167</v>
+      </c>
+      <c r="EG118" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH118" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI118" t="n">
+        <v>37</v>
+      </c>
+      <c r="EJ118" t="n">
+        <v>193</v>
+      </c>
+      <c r="EK118" t="n">
+        <v>399</v>
+      </c>
+      <c r="EL118" t="n">
+        <v>2724</v>
+      </c>
+      <c r="EM118" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN118" t="n">
+        <v>42</v>
+      </c>
+      <c r="EO118" t="n">
+        <v>333</v>
+      </c>
+      <c r="EP118" t="n">
+        <v>68</v>
+      </c>
+      <c r="EQ118" t="n">
+        <v>905</v>
+      </c>
+      <c r="ER118" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES118" t="n">
+        <v>407</v>
+      </c>
+      <c r="ET118" t="n">
+        <v>66</v>
+      </c>
+      <c r="EU118" t="n">
+        <v>196</v>
+      </c>
+      <c r="EV118" t="n">
+        <v>21</v>
+      </c>
+      <c r="EW118" t="n">
+        <v>21739</v>
+      </c>
+      <c r="EX118" t="n">
+        <v>144</v>
+      </c>
+      <c r="EY118" t="n">
+        <v>144</v>
+      </c>
+      <c r="EZ118" t="n">
+        <v>136</v>
+      </c>
+      <c r="FA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB118" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC118" t="n">
+        <v>178</v>
+      </c>
+      <c r="FD118" t="n">
+        <v>25</v>
+      </c>
+      <c r="FE118" t="n">
+        <v>74</v>
+      </c>
+      <c r="FF118" t="n">
+        <v>10</v>
+      </c>
+      <c r="FG118" t="n">
+        <v>11</v>
+      </c>
+      <c r="FH118" t="n">
+        <v>717</v>
+      </c>
+      <c r="FI118" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="FK118" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL118" t="n">
+        <v>10</v>
+      </c>
+      <c r="FM118" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN118" t="n">
+        <v>255</v>
+      </c>
+      <c r="FO118" t="n">
+        <v>126</v>
+      </c>
+      <c r="FP118" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ118" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR118" t="n">
+        <v>138</v>
+      </c>
+      <c r="FS118" t="n">
+        <v>231</v>
+      </c>
+      <c r="FT118" t="n">
+        <v>135</v>
+      </c>
+      <c r="FU118" t="n">
+        <v>88</v>
+      </c>
+      <c r="FV118" t="n">
+        <v>619</v>
+      </c>
+      <c r="FW118" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX118" t="n">
+        <v>128</v>
+      </c>
+      <c r="FY118" t="n">
+        <v>686</v>
+      </c>
+      <c r="FZ118" t="n">
+        <v>31</v>
+      </c>
+      <c r="GA118" t="n">
+        <v>156</v>
+      </c>
+      <c r="GB118" t="n">
+        <v>263</v>
+      </c>
+      <c r="GC118" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD118" t="n">
+        <v>6</v>
+      </c>
+      <c r="GE118" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF118" t="n">
+        <v>392</v>
+      </c>
+      <c r="GG118" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH118" t="n">
+        <v>152</v>
+      </c>
+      <c r="GI118" t="n">
+        <v>63</v>
+      </c>
+      <c r="GJ118" t="n">
+        <v>92</v>
+      </c>
+      <c r="GK118" t="n">
+        <v>204</v>
+      </c>
+      <c r="GL118" t="n">
+        <v>25</v>
+      </c>
+      <c r="GM118" t="n">
+        <v>10</v>
+      </c>
+      <c r="GN118" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO118" t="n">
+        <v>360</v>
+      </c>
+      <c r="GP118" t="n">
+        <v>230</v>
+      </c>
+      <c r="GQ118" t="n">
+        <v>30</v>
+      </c>
+      <c r="GR118" t="n">
+        <v>133</v>
+      </c>
+      <c r="GS118" t="n">
+        <v>61</v>
+      </c>
+      <c r="GT118" t="n">
+        <v>41</v>
+      </c>
+      <c r="GU118" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV118" t="n">
+        <v>37</v>
+      </c>
+      <c r="GW118" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX118" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY118" t="n">
+        <v>56</v>
+      </c>
+      <c r="GZ118" t="n">
+        <v>132</v>
+      </c>
+      <c r="HA118" t="n">
+        <v>1090</v>
+      </c>
+      <c r="HB118" t="n">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB118"/>
+  <dimension ref="A1:HB119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75596,6 +75596,640 @@
         <v>159</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>513</v>
+      </c>
+      <c r="C119" t="n">
+        <v>109</v>
+      </c>
+      <c r="D119" t="n">
+        <v>65</v>
+      </c>
+      <c r="E119" t="n">
+        <v>230</v>
+      </c>
+      <c r="F119" t="n">
+        <v>723</v>
+      </c>
+      <c r="G119" t="n">
+        <v>415</v>
+      </c>
+      <c r="H119" t="n">
+        <v>68</v>
+      </c>
+      <c r="I119" t="n">
+        <v>225</v>
+      </c>
+      <c r="J119" t="n">
+        <v>194</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>108</v>
+      </c>
+      <c r="M119" t="n">
+        <v>23</v>
+      </c>
+      <c r="N119" t="n">
+        <v>63</v>
+      </c>
+      <c r="O119" t="n">
+        <v>250</v>
+      </c>
+      <c r="P119" t="n">
+        <v>346</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>110</v>
+      </c>
+      <c r="S119" t="n">
+        <v>229</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1</v>
+      </c>
+      <c r="U119" t="n">
+        <v>35</v>
+      </c>
+      <c r="V119" t="n">
+        <v>11</v>
+      </c>
+      <c r="W119" t="n">
+        <v>253</v>
+      </c>
+      <c r="X119" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>277</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>141</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>124</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>380</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>146</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1327</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>78</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>112</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>267</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>2339</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>403</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>41</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>153</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>187</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>196</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>100</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>55</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>239</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>139</v>
+      </c>
+      <c r="BQ119" t="n">
+        <v>231</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>337</v>
+      </c>
+      <c r="BT119" t="n">
+        <v>87</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV119" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW119" t="n">
+        <v>61</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY119" t="n">
+        <v>140</v>
+      </c>
+      <c r="BZ119" t="n">
+        <v>461</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>172</v>
+      </c>
+      <c r="CB119" t="n">
+        <v>699</v>
+      </c>
+      <c r="CC119" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD119" t="n">
+        <v>254</v>
+      </c>
+      <c r="CE119" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>55</v>
+      </c>
+      <c r="CG119" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH119" t="n">
+        <v>465</v>
+      </c>
+      <c r="CI119" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ119" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK119" t="n">
+        <v>155</v>
+      </c>
+      <c r="CL119" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM119" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN119" t="n">
+        <v>502</v>
+      </c>
+      <c r="CO119" t="n">
+        <v>118</v>
+      </c>
+      <c r="CP119" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ119" t="n">
+        <v>74</v>
+      </c>
+      <c r="CR119" t="n">
+        <v>564</v>
+      </c>
+      <c r="CS119" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT119" t="n">
+        <v>214</v>
+      </c>
+      <c r="CU119" t="n">
+        <v>95</v>
+      </c>
+      <c r="CV119" t="n">
+        <v>5220</v>
+      </c>
+      <c r="CW119" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX119" t="n">
+        <v>135</v>
+      </c>
+      <c r="CY119" t="n">
+        <v>144</v>
+      </c>
+      <c r="CZ119" t="n">
+        <v>12</v>
+      </c>
+      <c r="DA119" t="n">
+        <v>121</v>
+      </c>
+      <c r="DB119" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC119" t="n">
+        <v>110</v>
+      </c>
+      <c r="DD119" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE119" t="n">
+        <v>72</v>
+      </c>
+      <c r="DF119" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG119" t="n">
+        <v>75</v>
+      </c>
+      <c r="DH119" t="n">
+        <v>36</v>
+      </c>
+      <c r="DI119" t="n">
+        <v>66</v>
+      </c>
+      <c r="DJ119" t="n">
+        <v>123</v>
+      </c>
+      <c r="DK119" t="n">
+        <v>25</v>
+      </c>
+      <c r="DL119" t="n">
+        <v>205</v>
+      </c>
+      <c r="DM119" t="n">
+        <v>20</v>
+      </c>
+      <c r="DN119" t="n">
+        <v>148</v>
+      </c>
+      <c r="DO119" t="n">
+        <v>487</v>
+      </c>
+      <c r="DP119" t="n">
+        <v>130</v>
+      </c>
+      <c r="DQ119" t="n">
+        <v>57</v>
+      </c>
+      <c r="DR119" t="n">
+        <v>128</v>
+      </c>
+      <c r="DS119" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT119" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU119" t="n">
+        <v>15</v>
+      </c>
+      <c r="DV119" t="n">
+        <v>283</v>
+      </c>
+      <c r="DW119" t="n">
+        <v>135</v>
+      </c>
+      <c r="DX119" t="n">
+        <v>4011</v>
+      </c>
+      <c r="DY119" t="n">
+        <v>90</v>
+      </c>
+      <c r="DZ119" t="n">
+        <v>7</v>
+      </c>
+      <c r="EA119" t="n">
+        <v>98</v>
+      </c>
+      <c r="EB119" t="n">
+        <v>124</v>
+      </c>
+      <c r="EC119" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED119" t="n">
+        <v>926</v>
+      </c>
+      <c r="EE119" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF119" t="n">
+        <v>168</v>
+      </c>
+      <c r="EG119" t="n">
+        <v>9</v>
+      </c>
+      <c r="EH119" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI119" t="n">
+        <v>37</v>
+      </c>
+      <c r="EJ119" t="n">
+        <v>193</v>
+      </c>
+      <c r="EK119" t="n">
+        <v>399</v>
+      </c>
+      <c r="EL119" t="n">
+        <v>2745</v>
+      </c>
+      <c r="EM119" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN119" t="n">
+        <v>42</v>
+      </c>
+      <c r="EO119" t="n">
+        <v>333</v>
+      </c>
+      <c r="EP119" t="n">
+        <v>68</v>
+      </c>
+      <c r="EQ119" t="n">
+        <v>912</v>
+      </c>
+      <c r="ER119" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES119" t="n">
+        <v>413</v>
+      </c>
+      <c r="ET119" t="n">
+        <v>66</v>
+      </c>
+      <c r="EU119" t="n">
+        <v>197</v>
+      </c>
+      <c r="EV119" t="n">
+        <v>21</v>
+      </c>
+      <c r="EW119" t="n">
+        <v>21839</v>
+      </c>
+      <c r="EX119" t="n">
+        <v>145</v>
+      </c>
+      <c r="EY119" t="n">
+        <v>144</v>
+      </c>
+      <c r="EZ119" t="n">
+        <v>136</v>
+      </c>
+      <c r="FA119" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB119" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC119" t="n">
+        <v>180</v>
+      </c>
+      <c r="FD119" t="n">
+        <v>25</v>
+      </c>
+      <c r="FE119" t="n">
+        <v>74</v>
+      </c>
+      <c r="FF119" t="n">
+        <v>10</v>
+      </c>
+      <c r="FG119" t="n">
+        <v>12</v>
+      </c>
+      <c r="FH119" t="n">
+        <v>730</v>
+      </c>
+      <c r="FI119" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ119" t="n">
+        <v>16</v>
+      </c>
+      <c r="FK119" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL119" t="n">
+        <v>10</v>
+      </c>
+      <c r="FM119" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN119" t="n">
+        <v>259</v>
+      </c>
+      <c r="FO119" t="n">
+        <v>130</v>
+      </c>
+      <c r="FP119" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ119" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR119" t="n">
+        <v>139</v>
+      </c>
+      <c r="FS119" t="n">
+        <v>233</v>
+      </c>
+      <c r="FT119" t="n">
+        <v>136</v>
+      </c>
+      <c r="FU119" t="n">
+        <v>88</v>
+      </c>
+      <c r="FV119" t="n">
+        <v>622</v>
+      </c>
+      <c r="FW119" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX119" t="n">
+        <v>128</v>
+      </c>
+      <c r="FY119" t="n">
+        <v>690</v>
+      </c>
+      <c r="FZ119" t="n">
+        <v>31</v>
+      </c>
+      <c r="GA119" t="n">
+        <v>157</v>
+      </c>
+      <c r="GB119" t="n">
+        <v>263</v>
+      </c>
+      <c r="GC119" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD119" t="n">
+        <v>6</v>
+      </c>
+      <c r="GE119" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF119" t="n">
+        <v>392</v>
+      </c>
+      <c r="GG119" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH119" t="n">
+        <v>153</v>
+      </c>
+      <c r="GI119" t="n">
+        <v>64</v>
+      </c>
+      <c r="GJ119" t="n">
+        <v>92</v>
+      </c>
+      <c r="GK119" t="n">
+        <v>205</v>
+      </c>
+      <c r="GL119" t="n">
+        <v>26</v>
+      </c>
+      <c r="GM119" t="n">
+        <v>11</v>
+      </c>
+      <c r="GN119" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO119" t="n">
+        <v>361</v>
+      </c>
+      <c r="GP119" t="n">
+        <v>233</v>
+      </c>
+      <c r="GQ119" t="n">
+        <v>30</v>
+      </c>
+      <c r="GR119" t="n">
+        <v>137</v>
+      </c>
+      <c r="GS119" t="n">
+        <v>62</v>
+      </c>
+      <c r="GT119" t="n">
+        <v>42</v>
+      </c>
+      <c r="GU119" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV119" t="n">
+        <v>37</v>
+      </c>
+      <c r="GW119" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX119" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY119" t="n">
+        <v>65</v>
+      </c>
+      <c r="GZ119" t="n">
+        <v>134</v>
+      </c>
+      <c r="HA119" t="n">
+        <v>1095</v>
+      </c>
+      <c r="HB119" t="n">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC120"/>
+  <dimension ref="A1:HC121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77226,6 +77226,643 @@
         <v>160</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>523</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67</v>
+      </c>
+      <c r="E121" t="n">
+        <v>232</v>
+      </c>
+      <c r="F121" t="n">
+        <v>753</v>
+      </c>
+      <c r="G121" t="n">
+        <v>433</v>
+      </c>
+      <c r="H121" t="n">
+        <v>74</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>255</v>
+      </c>
+      <c r="K121" t="n">
+        <v>249</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>109</v>
+      </c>
+      <c r="N121" t="n">
+        <v>24</v>
+      </c>
+      <c r="O121" t="n">
+        <v>65</v>
+      </c>
+      <c r="P121" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>364</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>112</v>
+      </c>
+      <c r="T121" t="n">
+        <v>233</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>36</v>
+      </c>
+      <c r="W121" t="n">
+        <v>11</v>
+      </c>
+      <c r="X121" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>298</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>213</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>162</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>395</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1134</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>153</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>104</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>113</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>62</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>57</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>271</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>2458</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>422</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>156</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>187</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>199</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>63</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>101</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>56</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>274</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>129</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ121" t="n">
+        <v>151</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>238</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT121" t="n">
+        <v>349</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>93</v>
+      </c>
+      <c r="BV121" t="n">
+        <v>97</v>
+      </c>
+      <c r="BW121" t="n">
+        <v>25</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>66</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>150</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>481</v>
+      </c>
+      <c r="CB121" t="n">
+        <v>175</v>
+      </c>
+      <c r="CC121" t="n">
+        <v>707</v>
+      </c>
+      <c r="CD121" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE121" t="n">
+        <v>263</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>17</v>
+      </c>
+      <c r="CG121" t="n">
+        <v>57</v>
+      </c>
+      <c r="CH121" t="n">
+        <v>17</v>
+      </c>
+      <c r="CI121" t="n">
+        <v>473</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK121" t="n">
+        <v>35</v>
+      </c>
+      <c r="CL121" t="n">
+        <v>159</v>
+      </c>
+      <c r="CM121" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN121" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO121" t="n">
+        <v>525</v>
+      </c>
+      <c r="CP121" t="n">
+        <v>133</v>
+      </c>
+      <c r="CQ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR121" t="n">
+        <v>79</v>
+      </c>
+      <c r="CS121" t="n">
+        <v>584</v>
+      </c>
+      <c r="CT121" t="n">
+        <v>25</v>
+      </c>
+      <c r="CU121" t="n">
+        <v>217</v>
+      </c>
+      <c r="CV121" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW121" t="n">
+        <v>5341</v>
+      </c>
+      <c r="CX121" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY121" t="n">
+        <v>158</v>
+      </c>
+      <c r="CZ121" t="n">
+        <v>152</v>
+      </c>
+      <c r="DA121" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB121" t="n">
+        <v>123</v>
+      </c>
+      <c r="DC121" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD121" t="n">
+        <v>121</v>
+      </c>
+      <c r="DE121" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF121" t="n">
+        <v>73</v>
+      </c>
+      <c r="DG121" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH121" t="n">
+        <v>81</v>
+      </c>
+      <c r="DI121" t="n">
+        <v>37</v>
+      </c>
+      <c r="DJ121" t="n">
+        <v>68</v>
+      </c>
+      <c r="DK121" t="n">
+        <v>129</v>
+      </c>
+      <c r="DL121" t="n">
+        <v>25</v>
+      </c>
+      <c r="DM121" t="n">
+        <v>211</v>
+      </c>
+      <c r="DN121" t="n">
+        <v>24</v>
+      </c>
+      <c r="DO121" t="n">
+        <v>158</v>
+      </c>
+      <c r="DP121" t="n">
+        <v>546</v>
+      </c>
+      <c r="DQ121" t="n">
+        <v>135</v>
+      </c>
+      <c r="DR121" t="n">
+        <v>58</v>
+      </c>
+      <c r="DS121" t="n">
+        <v>132</v>
+      </c>
+      <c r="DT121" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU121" t="n">
+        <v>12</v>
+      </c>
+      <c r="DV121" t="n">
+        <v>16</v>
+      </c>
+      <c r="DW121" t="n">
+        <v>288</v>
+      </c>
+      <c r="DX121" t="n">
+        <v>141</v>
+      </c>
+      <c r="DY121" t="n">
+        <v>4084</v>
+      </c>
+      <c r="DZ121" t="n">
+        <v>95</v>
+      </c>
+      <c r="EA121" t="n">
+        <v>8</v>
+      </c>
+      <c r="EB121" t="n">
+        <v>104</v>
+      </c>
+      <c r="EC121" t="n">
+        <v>126</v>
+      </c>
+      <c r="ED121" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE121" t="n">
+        <v>975</v>
+      </c>
+      <c r="EF121" t="n">
+        <v>9</v>
+      </c>
+      <c r="EG121" t="n">
+        <v>184</v>
+      </c>
+      <c r="EH121" t="n">
+        <v>9</v>
+      </c>
+      <c r="EI121" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ121" t="n">
+        <v>38</v>
+      </c>
+      <c r="EK121" t="n">
+        <v>195</v>
+      </c>
+      <c r="EL121" t="n">
+        <v>415</v>
+      </c>
+      <c r="EM121" t="n">
+        <v>2794</v>
+      </c>
+      <c r="EN121" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO121" t="n">
+        <v>51</v>
+      </c>
+      <c r="EP121" t="n">
+        <v>341</v>
+      </c>
+      <c r="EQ121" t="n">
+        <v>68</v>
+      </c>
+      <c r="ER121" t="n">
+        <v>986</v>
+      </c>
+      <c r="ES121" t="n">
+        <v>18</v>
+      </c>
+      <c r="ET121" t="n">
+        <v>415</v>
+      </c>
+      <c r="EU121" t="n">
+        <v>67</v>
+      </c>
+      <c r="EV121" t="n">
+        <v>201</v>
+      </c>
+      <c r="EW121" t="n">
+        <v>21</v>
+      </c>
+      <c r="EX121" t="n">
+        <v>22298</v>
+      </c>
+      <c r="EY121" t="n">
+        <v>146</v>
+      </c>
+      <c r="EZ121" t="n">
+        <v>146</v>
+      </c>
+      <c r="FA121" t="n">
+        <v>141</v>
+      </c>
+      <c r="FB121" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC121" t="n">
+        <v>30</v>
+      </c>
+      <c r="FD121" t="n">
+        <v>188</v>
+      </c>
+      <c r="FE121" t="n">
+        <v>25</v>
+      </c>
+      <c r="FF121" t="n">
+        <v>104</v>
+      </c>
+      <c r="FG121" t="n">
+        <v>11</v>
+      </c>
+      <c r="FH121" t="n">
+        <v>12</v>
+      </c>
+      <c r="FI121" t="n">
+        <v>868</v>
+      </c>
+      <c r="FJ121" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK121" t="n">
+        <v>19</v>
+      </c>
+      <c r="FL121" t="n">
+        <v>32</v>
+      </c>
+      <c r="FM121" t="n">
+        <v>11</v>
+      </c>
+      <c r="FN121" t="n">
+        <v>15</v>
+      </c>
+      <c r="FO121" t="n">
+        <v>274</v>
+      </c>
+      <c r="FP121" t="n">
+        <v>140</v>
+      </c>
+      <c r="FQ121" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR121" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS121" t="n">
+        <v>154</v>
+      </c>
+      <c r="FT121" t="n">
+        <v>236</v>
+      </c>
+      <c r="FU121" t="n">
+        <v>148</v>
+      </c>
+      <c r="FV121" t="n">
+        <v>91</v>
+      </c>
+      <c r="FW121" t="n">
+        <v>634</v>
+      </c>
+      <c r="FX121" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY121" t="n">
+        <v>137</v>
+      </c>
+      <c r="FZ121" t="n">
+        <v>781</v>
+      </c>
+      <c r="GA121" t="n">
+        <v>31</v>
+      </c>
+      <c r="GB121" t="n">
+        <v>162</v>
+      </c>
+      <c r="GC121" t="n">
+        <v>264</v>
+      </c>
+      <c r="GD121" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE121" t="n">
+        <v>7</v>
+      </c>
+      <c r="GF121" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG121" t="n">
+        <v>419</v>
+      </c>
+      <c r="GH121" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI121" t="n">
+        <v>192</v>
+      </c>
+      <c r="GJ121" t="n">
+        <v>67</v>
+      </c>
+      <c r="GK121" t="n">
+        <v>124</v>
+      </c>
+      <c r="GL121" t="n">
+        <v>221</v>
+      </c>
+      <c r="GM121" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN121" t="n">
+        <v>11</v>
+      </c>
+      <c r="GO121" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP121" t="n">
+        <v>366</v>
+      </c>
+      <c r="GQ121" t="n">
+        <v>237</v>
+      </c>
+      <c r="GR121" t="n">
+        <v>30</v>
+      </c>
+      <c r="GS121" t="n">
+        <v>155</v>
+      </c>
+      <c r="GT121" t="n">
+        <v>62</v>
+      </c>
+      <c r="GU121" t="n">
+        <v>43</v>
+      </c>
+      <c r="GV121" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW121" t="n">
+        <v>37</v>
+      </c>
+      <c r="GX121" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY121" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ121" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA121" t="n">
+        <v>134</v>
+      </c>
+      <c r="HB121" t="n">
+        <v>1114</v>
+      </c>
+      <c r="HC121" t="n">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC121"/>
+  <dimension ref="A1:HC122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77863,6 +77863,643 @@
         <v>165</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>527</v>
+      </c>
+      <c r="C122" t="n">
+        <v>132</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67</v>
+      </c>
+      <c r="E122" t="n">
+        <v>238</v>
+      </c>
+      <c r="F122" t="n">
+        <v>753</v>
+      </c>
+      <c r="G122" t="n">
+        <v>438</v>
+      </c>
+      <c r="H122" t="n">
+        <v>75</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>263</v>
+      </c>
+      <c r="K122" t="n">
+        <v>251</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>112</v>
+      </c>
+      <c r="N122" t="n">
+        <v>24</v>
+      </c>
+      <c r="O122" t="n">
+        <v>67</v>
+      </c>
+      <c r="P122" t="n">
+        <v>271</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>377</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>117</v>
+      </c>
+      <c r="T122" t="n">
+        <v>236</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>36</v>
+      </c>
+      <c r="W122" t="n">
+        <v>11</v>
+      </c>
+      <c r="X122" t="n">
+        <v>358</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>316</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>228</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>180</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>416</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>76</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1145</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>152</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>169</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>118</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1367</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>113</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>62</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>273</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>2525</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>425</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>54</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>158</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>189</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>201</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>63</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>104</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>56</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>281</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>129</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ122" t="n">
+        <v>155</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>240</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>26</v>
+      </c>
+      <c r="BT122" t="n">
+        <v>356</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>93</v>
+      </c>
+      <c r="BV122" t="n">
+        <v>97</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>25</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY122" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>153</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>489</v>
+      </c>
+      <c r="CB122" t="n">
+        <v>176</v>
+      </c>
+      <c r="CC122" t="n">
+        <v>717</v>
+      </c>
+      <c r="CD122" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE122" t="n">
+        <v>265</v>
+      </c>
+      <c r="CF122" t="n">
+        <v>28</v>
+      </c>
+      <c r="CG122" t="n">
+        <v>57</v>
+      </c>
+      <c r="CH122" t="n">
+        <v>17</v>
+      </c>
+      <c r="CI122" t="n">
+        <v>481</v>
+      </c>
+      <c r="CJ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK122" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL122" t="n">
+        <v>169</v>
+      </c>
+      <c r="CM122" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN122" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO122" t="n">
+        <v>548</v>
+      </c>
+      <c r="CP122" t="n">
+        <v>136</v>
+      </c>
+      <c r="CQ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR122" t="n">
+        <v>81</v>
+      </c>
+      <c r="CS122" t="n">
+        <v>591</v>
+      </c>
+      <c r="CT122" t="n">
+        <v>28</v>
+      </c>
+      <c r="CU122" t="n">
+        <v>218</v>
+      </c>
+      <c r="CV122" t="n">
+        <v>102</v>
+      </c>
+      <c r="CW122" t="n">
+        <v>5400</v>
+      </c>
+      <c r="CX122" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY122" t="n">
+        <v>166</v>
+      </c>
+      <c r="CZ122" t="n">
+        <v>154</v>
+      </c>
+      <c r="DA122" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB122" t="n">
+        <v>125</v>
+      </c>
+      <c r="DC122" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD122" t="n">
+        <v>134</v>
+      </c>
+      <c r="DE122" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF122" t="n">
+        <v>78</v>
+      </c>
+      <c r="DG122" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH122" t="n">
+        <v>85</v>
+      </c>
+      <c r="DI122" t="n">
+        <v>39</v>
+      </c>
+      <c r="DJ122" t="n">
+        <v>68</v>
+      </c>
+      <c r="DK122" t="n">
+        <v>131</v>
+      </c>
+      <c r="DL122" t="n">
+        <v>25</v>
+      </c>
+      <c r="DM122" t="n">
+        <v>213</v>
+      </c>
+      <c r="DN122" t="n">
+        <v>26</v>
+      </c>
+      <c r="DO122" t="n">
+        <v>168</v>
+      </c>
+      <c r="DP122" t="n">
+        <v>554</v>
+      </c>
+      <c r="DQ122" t="n">
+        <v>142</v>
+      </c>
+      <c r="DR122" t="n">
+        <v>62</v>
+      </c>
+      <c r="DS122" t="n">
+        <v>140</v>
+      </c>
+      <c r="DT122" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU122" t="n">
+        <v>15</v>
+      </c>
+      <c r="DV122" t="n">
+        <v>18</v>
+      </c>
+      <c r="DW122" t="n">
+        <v>292</v>
+      </c>
+      <c r="DX122" t="n">
+        <v>145</v>
+      </c>
+      <c r="DY122" t="n">
+        <v>4129</v>
+      </c>
+      <c r="DZ122" t="n">
+        <v>95</v>
+      </c>
+      <c r="EA122" t="n">
+        <v>9</v>
+      </c>
+      <c r="EB122" t="n">
+        <v>112</v>
+      </c>
+      <c r="EC122" t="n">
+        <v>129</v>
+      </c>
+      <c r="ED122" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE122" t="n">
+        <v>991</v>
+      </c>
+      <c r="EF122" t="n">
+        <v>9</v>
+      </c>
+      <c r="EG122" t="n">
+        <v>192</v>
+      </c>
+      <c r="EH122" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI122" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ122" t="n">
+        <v>38</v>
+      </c>
+      <c r="EK122" t="n">
+        <v>195</v>
+      </c>
+      <c r="EL122" t="n">
+        <v>424</v>
+      </c>
+      <c r="EM122" t="n">
+        <v>2817</v>
+      </c>
+      <c r="EN122" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO122" t="n">
+        <v>52</v>
+      </c>
+      <c r="EP122" t="n">
+        <v>352</v>
+      </c>
+      <c r="EQ122" t="n">
+        <v>73</v>
+      </c>
+      <c r="ER122" t="n">
+        <v>1024</v>
+      </c>
+      <c r="ES122" t="n">
+        <v>18</v>
+      </c>
+      <c r="ET122" t="n">
+        <v>425</v>
+      </c>
+      <c r="EU122" t="n">
+        <v>67</v>
+      </c>
+      <c r="EV122" t="n">
+        <v>203</v>
+      </c>
+      <c r="EW122" t="n">
+        <v>21</v>
+      </c>
+      <c r="EX122" t="n">
+        <v>22513</v>
+      </c>
+      <c r="EY122" t="n">
+        <v>166</v>
+      </c>
+      <c r="EZ122" t="n">
+        <v>147</v>
+      </c>
+      <c r="FA122" t="n">
+        <v>144</v>
+      </c>
+      <c r="FB122" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC122" t="n">
+        <v>30</v>
+      </c>
+      <c r="FD122" t="n">
+        <v>190</v>
+      </c>
+      <c r="FE122" t="n">
+        <v>30</v>
+      </c>
+      <c r="FF122" t="n">
+        <v>106</v>
+      </c>
+      <c r="FG122" t="n">
+        <v>11</v>
+      </c>
+      <c r="FH122" t="n">
+        <v>18</v>
+      </c>
+      <c r="FI122" t="n">
+        <v>922</v>
+      </c>
+      <c r="FJ122" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK122" t="n">
+        <v>19</v>
+      </c>
+      <c r="FL122" t="n">
+        <v>33</v>
+      </c>
+      <c r="FM122" t="n">
+        <v>12</v>
+      </c>
+      <c r="FN122" t="n">
+        <v>15</v>
+      </c>
+      <c r="FO122" t="n">
+        <v>285</v>
+      </c>
+      <c r="FP122" t="n">
+        <v>148</v>
+      </c>
+      <c r="FQ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR122" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS122" t="n">
+        <v>155</v>
+      </c>
+      <c r="FT122" t="n">
+        <v>241</v>
+      </c>
+      <c r="FU122" t="n">
+        <v>151</v>
+      </c>
+      <c r="FV122" t="n">
+        <v>94</v>
+      </c>
+      <c r="FW122" t="n">
+        <v>636</v>
+      </c>
+      <c r="FX122" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY122" t="n">
+        <v>139</v>
+      </c>
+      <c r="FZ122" t="n">
+        <v>845</v>
+      </c>
+      <c r="GA122" t="n">
+        <v>33</v>
+      </c>
+      <c r="GB122" t="n">
+        <v>165</v>
+      </c>
+      <c r="GC122" t="n">
+        <v>269</v>
+      </c>
+      <c r="GD122" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE122" t="n">
+        <v>7</v>
+      </c>
+      <c r="GF122" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG122" t="n">
+        <v>434</v>
+      </c>
+      <c r="GH122" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI122" t="n">
+        <v>194</v>
+      </c>
+      <c r="GJ122" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK122" t="n">
+        <v>142</v>
+      </c>
+      <c r="GL122" t="n">
+        <v>222</v>
+      </c>
+      <c r="GM122" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN122" t="n">
+        <v>11</v>
+      </c>
+      <c r="GO122" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP122" t="n">
+        <v>386</v>
+      </c>
+      <c r="GQ122" t="n">
+        <v>251</v>
+      </c>
+      <c r="GR122" t="n">
+        <v>30</v>
+      </c>
+      <c r="GS122" t="n">
+        <v>156</v>
+      </c>
+      <c r="GT122" t="n">
+        <v>62</v>
+      </c>
+      <c r="GU122" t="n">
+        <v>48</v>
+      </c>
+      <c r="GV122" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW122" t="n">
+        <v>37</v>
+      </c>
+      <c r="GX122" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY122" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ122" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA122" t="n">
+        <v>140</v>
+      </c>
+      <c r="HB122" t="n">
+        <v>1133</v>
+      </c>
+      <c r="HC122" t="n">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC123"/>
+  <dimension ref="A1:HC124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79137,6 +79137,643 @@
         <v>167</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>531</v>
+      </c>
+      <c r="C124" t="n">
+        <v>138</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67</v>
+      </c>
+      <c r="E124" t="n">
+        <v>261</v>
+      </c>
+      <c r="F124" t="n">
+        <v>771</v>
+      </c>
+      <c r="G124" t="n">
+        <v>455</v>
+      </c>
+      <c r="H124" t="n">
+        <v>82</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>274</v>
+      </c>
+      <c r="K124" t="n">
+        <v>263</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>115</v>
+      </c>
+      <c r="N124" t="n">
+        <v>25</v>
+      </c>
+      <c r="O124" t="n">
+        <v>68</v>
+      </c>
+      <c r="P124" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>410</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>120</v>
+      </c>
+      <c r="T124" t="n">
+        <v>238</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>37</v>
+      </c>
+      <c r="W124" t="n">
+        <v>11</v>
+      </c>
+      <c r="X124" t="n">
+        <v>445</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>246</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>197</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>137</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>96</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1165</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>174</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>148</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1397</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>116</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>277</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>2630</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>435</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>158</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>196</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>204</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>63</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>109</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>318</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>129</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ124" t="n">
+        <v>165</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>253</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>38</v>
+      </c>
+      <c r="BT124" t="n">
+        <v>361</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV124" t="n">
+        <v>99</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>26</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>77</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>156</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>511</v>
+      </c>
+      <c r="CB124" t="n">
+        <v>180</v>
+      </c>
+      <c r="CC124" t="n">
+        <v>740</v>
+      </c>
+      <c r="CD124" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE124" t="n">
+        <v>279</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>31</v>
+      </c>
+      <c r="CG124" t="n">
+        <v>59</v>
+      </c>
+      <c r="CH124" t="n">
+        <v>21</v>
+      </c>
+      <c r="CI124" t="n">
+        <v>491</v>
+      </c>
+      <c r="CJ124" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK124" t="n">
+        <v>34</v>
+      </c>
+      <c r="CL124" t="n">
+        <v>170</v>
+      </c>
+      <c r="CM124" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN124" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO124" t="n">
+        <v>559</v>
+      </c>
+      <c r="CP124" t="n">
+        <v>152</v>
+      </c>
+      <c r="CQ124" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR124" t="n">
+        <v>83</v>
+      </c>
+      <c r="CS124" t="n">
+        <v>599</v>
+      </c>
+      <c r="CT124" t="n">
+        <v>29</v>
+      </c>
+      <c r="CU124" t="n">
+        <v>218</v>
+      </c>
+      <c r="CV124" t="n">
+        <v>108</v>
+      </c>
+      <c r="CW124" t="n">
+        <v>5488</v>
+      </c>
+      <c r="CX124" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY124" t="n">
+        <v>173</v>
+      </c>
+      <c r="CZ124" t="n">
+        <v>160</v>
+      </c>
+      <c r="DA124" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB124" t="n">
+        <v>127</v>
+      </c>
+      <c r="DC124" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD124" t="n">
+        <v>141</v>
+      </c>
+      <c r="DE124" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF124" t="n">
+        <v>90</v>
+      </c>
+      <c r="DG124" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH124" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI124" t="n">
+        <v>43</v>
+      </c>
+      <c r="DJ124" t="n">
+        <v>69</v>
+      </c>
+      <c r="DK124" t="n">
+        <v>133</v>
+      </c>
+      <c r="DL124" t="n">
+        <v>25</v>
+      </c>
+      <c r="DM124" t="n">
+        <v>226</v>
+      </c>
+      <c r="DN124" t="n">
+        <v>34</v>
+      </c>
+      <c r="DO124" t="n">
+        <v>180</v>
+      </c>
+      <c r="DP124" t="n">
+        <v>567</v>
+      </c>
+      <c r="DQ124" t="n">
+        <v>148</v>
+      </c>
+      <c r="DR124" t="n">
+        <v>77</v>
+      </c>
+      <c r="DS124" t="n">
+        <v>143</v>
+      </c>
+      <c r="DT124" t="n">
+        <v>16</v>
+      </c>
+      <c r="DU124" t="n">
+        <v>20</v>
+      </c>
+      <c r="DV124" t="n">
+        <v>293</v>
+      </c>
+      <c r="DW124" t="n">
+        <v>146</v>
+      </c>
+      <c r="DX124" t="n">
+        <v>4276</v>
+      </c>
+      <c r="DY124" t="n">
+        <v>97</v>
+      </c>
+      <c r="DZ124" t="n">
+        <v>13</v>
+      </c>
+      <c r="EA124" t="n">
+        <v>121</v>
+      </c>
+      <c r="EB124" t="n">
+        <v>133</v>
+      </c>
+      <c r="EC124" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED124" t="n">
+        <v>1004</v>
+      </c>
+      <c r="EE124" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF124" t="n">
+        <v>222</v>
+      </c>
+      <c r="EG124" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH124" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI124" t="n">
+        <v>42</v>
+      </c>
+      <c r="EJ124" t="n">
+        <v>200</v>
+      </c>
+      <c r="EK124" t="n">
+        <v>446</v>
+      </c>
+      <c r="EL124" t="n">
+        <v>2849</v>
+      </c>
+      <c r="EM124" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN124" t="n">
+        <v>52</v>
+      </c>
+      <c r="EO124" t="n">
+        <v>363</v>
+      </c>
+      <c r="EP124" t="n">
+        <v>76</v>
+      </c>
+      <c r="EQ124" t="n">
+        <v>1063</v>
+      </c>
+      <c r="ER124" t="n">
+        <v>20</v>
+      </c>
+      <c r="ES124" t="n">
+        <v>447</v>
+      </c>
+      <c r="ET124" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU124" t="n">
+        <v>203</v>
+      </c>
+      <c r="EV124" t="n">
+        <v>21</v>
+      </c>
+      <c r="EW124" t="n">
+        <v>22991</v>
+      </c>
+      <c r="EX124" t="n">
+        <v>188</v>
+      </c>
+      <c r="EY124" t="n">
+        <v>150</v>
+      </c>
+      <c r="EZ124" t="n">
+        <v>146</v>
+      </c>
+      <c r="FA124" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB124" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC124" t="n">
+        <v>199</v>
+      </c>
+      <c r="FD124" t="n">
+        <v>33</v>
+      </c>
+      <c r="FE124" t="n">
+        <v>139</v>
+      </c>
+      <c r="FF124" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG124" t="n">
+        <v>20</v>
+      </c>
+      <c r="FH124" t="n">
+        <v>1013</v>
+      </c>
+      <c r="FI124" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ124" t="n">
+        <v>19</v>
+      </c>
+      <c r="FK124" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL124" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM124" t="n">
+        <v>21</v>
+      </c>
+      <c r="FN124" t="n">
+        <v>298</v>
+      </c>
+      <c r="FO124" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP124" t="n">
+        <v>166</v>
+      </c>
+      <c r="FQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR124" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS124" t="n">
+        <v>168</v>
+      </c>
+      <c r="FT124" t="n">
+        <v>243</v>
+      </c>
+      <c r="FU124" t="n">
+        <v>160</v>
+      </c>
+      <c r="FV124" t="n">
+        <v>100</v>
+      </c>
+      <c r="FW124" t="n">
+        <v>642</v>
+      </c>
+      <c r="FX124" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY124" t="n">
+        <v>162</v>
+      </c>
+      <c r="FZ124" t="n">
+        <v>864</v>
+      </c>
+      <c r="GA124" t="n">
+        <v>33</v>
+      </c>
+      <c r="GB124" t="n">
+        <v>171</v>
+      </c>
+      <c r="GC124" t="n">
+        <v>269</v>
+      </c>
+      <c r="GD124" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE124" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF124" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG124" t="n">
+        <v>469</v>
+      </c>
+      <c r="GH124" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI124" t="n">
+        <v>206</v>
+      </c>
+      <c r="GJ124" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK124" t="n">
+        <v>161</v>
+      </c>
+      <c r="GL124" t="n">
+        <v>228</v>
+      </c>
+      <c r="GM124" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN124" t="n">
+        <v>11</v>
+      </c>
+      <c r="GO124" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP124" t="n">
+        <v>392</v>
+      </c>
+      <c r="GQ124" t="n">
+        <v>263</v>
+      </c>
+      <c r="GR124" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS124" t="n">
+        <v>163</v>
+      </c>
+      <c r="GT124" t="n">
+        <v>64</v>
+      </c>
+      <c r="GU124" t="n">
+        <v>54</v>
+      </c>
+      <c r="GV124" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW124" t="n">
+        <v>42</v>
+      </c>
+      <c r="GX124" t="n">
+        <v>12</v>
+      </c>
+      <c r="GY124" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ124" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA124" t="n">
+        <v>142</v>
+      </c>
+      <c r="HB124" t="n">
+        <v>1153</v>
+      </c>
+      <c r="HC124" t="n">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC124"/>
+  <dimension ref="A1:HC125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79774,6 +79774,643 @@
         <v>167</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>535</v>
+      </c>
+      <c r="C125" t="n">
+        <v>141</v>
+      </c>
+      <c r="D125" t="n">
+        <v>67</v>
+      </c>
+      <c r="E125" t="n">
+        <v>262</v>
+      </c>
+      <c r="F125" t="n">
+        <v>774</v>
+      </c>
+      <c r="G125" t="n">
+        <v>456</v>
+      </c>
+      <c r="H125" t="n">
+        <v>82</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>276</v>
+      </c>
+      <c r="K125" t="n">
+        <v>263</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>115</v>
+      </c>
+      <c r="N125" t="n">
+        <v>25</v>
+      </c>
+      <c r="O125" t="n">
+        <v>69</v>
+      </c>
+      <c r="P125" t="n">
+        <v>295</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>410</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>120</v>
+      </c>
+      <c r="T125" t="n">
+        <v>239</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1</v>
+      </c>
+      <c r="V125" t="n">
+        <v>38</v>
+      </c>
+      <c r="W125" t="n">
+        <v>11</v>
+      </c>
+      <c r="X125" t="n">
+        <v>445</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>249</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>198</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>452</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>96</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>174</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>152</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1402</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>118</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>278</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>2683</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>438</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>161</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>201</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>204</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>63</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>109</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>320</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>129</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ125" t="n">
+        <v>165</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>253</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>362</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>99</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>27</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>78</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>161</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>511</v>
+      </c>
+      <c r="CB125" t="n">
+        <v>184</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>742</v>
+      </c>
+      <c r="CD125" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE125" t="n">
+        <v>287</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>31</v>
+      </c>
+      <c r="CG125" t="n">
+        <v>59</v>
+      </c>
+      <c r="CH125" t="n">
+        <v>21</v>
+      </c>
+      <c r="CI125" t="n">
+        <v>493</v>
+      </c>
+      <c r="CJ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK125" t="n">
+        <v>34</v>
+      </c>
+      <c r="CL125" t="n">
+        <v>170</v>
+      </c>
+      <c r="CM125" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN125" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO125" t="n">
+        <v>560</v>
+      </c>
+      <c r="CP125" t="n">
+        <v>154</v>
+      </c>
+      <c r="CQ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR125" t="n">
+        <v>83</v>
+      </c>
+      <c r="CS125" t="n">
+        <v>601</v>
+      </c>
+      <c r="CT125" t="n">
+        <v>29</v>
+      </c>
+      <c r="CU125" t="n">
+        <v>219</v>
+      </c>
+      <c r="CV125" t="n">
+        <v>108</v>
+      </c>
+      <c r="CW125" t="n">
+        <v>5519</v>
+      </c>
+      <c r="CX125" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY125" t="n">
+        <v>173</v>
+      </c>
+      <c r="CZ125" t="n">
+        <v>161</v>
+      </c>
+      <c r="DA125" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB125" t="n">
+        <v>128</v>
+      </c>
+      <c r="DC125" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD125" t="n">
+        <v>141</v>
+      </c>
+      <c r="DE125" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF125" t="n">
+        <v>91</v>
+      </c>
+      <c r="DG125" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH125" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI125" t="n">
+        <v>43</v>
+      </c>
+      <c r="DJ125" t="n">
+        <v>69</v>
+      </c>
+      <c r="DK125" t="n">
+        <v>133</v>
+      </c>
+      <c r="DL125" t="n">
+        <v>26</v>
+      </c>
+      <c r="DM125" t="n">
+        <v>226</v>
+      </c>
+      <c r="DN125" t="n">
+        <v>36</v>
+      </c>
+      <c r="DO125" t="n">
+        <v>181</v>
+      </c>
+      <c r="DP125" t="n">
+        <v>569</v>
+      </c>
+      <c r="DQ125" t="n">
+        <v>148</v>
+      </c>
+      <c r="DR125" t="n">
+        <v>77</v>
+      </c>
+      <c r="DS125" t="n">
+        <v>143</v>
+      </c>
+      <c r="DT125" t="n">
+        <v>17</v>
+      </c>
+      <c r="DU125" t="n">
+        <v>21</v>
+      </c>
+      <c r="DV125" t="n">
+        <v>293</v>
+      </c>
+      <c r="DW125" t="n">
+        <v>147</v>
+      </c>
+      <c r="DX125" t="n">
+        <v>4286</v>
+      </c>
+      <c r="DY125" t="n">
+        <v>101</v>
+      </c>
+      <c r="DZ125" t="n">
+        <v>13</v>
+      </c>
+      <c r="EA125" t="n">
+        <v>121</v>
+      </c>
+      <c r="EB125" t="n">
+        <v>138</v>
+      </c>
+      <c r="EC125" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED125" t="n">
+        <v>1004</v>
+      </c>
+      <c r="EE125" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF125" t="n">
+        <v>225</v>
+      </c>
+      <c r="EG125" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH125" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI125" t="n">
+        <v>43</v>
+      </c>
+      <c r="EJ125" t="n">
+        <v>200</v>
+      </c>
+      <c r="EK125" t="n">
+        <v>448</v>
+      </c>
+      <c r="EL125" t="n">
+        <v>2861</v>
+      </c>
+      <c r="EM125" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN125" t="n">
+        <v>52</v>
+      </c>
+      <c r="EO125" t="n">
+        <v>368</v>
+      </c>
+      <c r="EP125" t="n">
+        <v>76</v>
+      </c>
+      <c r="EQ125" t="n">
+        <v>1088</v>
+      </c>
+      <c r="ER125" t="n">
+        <v>20</v>
+      </c>
+      <c r="ES125" t="n">
+        <v>459</v>
+      </c>
+      <c r="ET125" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU125" t="n">
+        <v>204</v>
+      </c>
+      <c r="EV125" t="n">
+        <v>22</v>
+      </c>
+      <c r="EW125" t="n">
+        <v>23074</v>
+      </c>
+      <c r="EX125" t="n">
+        <v>188</v>
+      </c>
+      <c r="EY125" t="n">
+        <v>150</v>
+      </c>
+      <c r="EZ125" t="n">
+        <v>147</v>
+      </c>
+      <c r="FA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB125" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC125" t="n">
+        <v>203</v>
+      </c>
+      <c r="FD125" t="n">
+        <v>33</v>
+      </c>
+      <c r="FE125" t="n">
+        <v>139</v>
+      </c>
+      <c r="FF125" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG125" t="n">
+        <v>20</v>
+      </c>
+      <c r="FH125" t="n">
+        <v>1017</v>
+      </c>
+      <c r="FI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ125" t="n">
+        <v>19</v>
+      </c>
+      <c r="FK125" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL125" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM125" t="n">
+        <v>21</v>
+      </c>
+      <c r="FN125" t="n">
+        <v>301</v>
+      </c>
+      <c r="FO125" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP125" t="n">
+        <v>166</v>
+      </c>
+      <c r="FQ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR125" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS125" t="n">
+        <v>170</v>
+      </c>
+      <c r="FT125" t="n">
+        <v>243</v>
+      </c>
+      <c r="FU125" t="n">
+        <v>161</v>
+      </c>
+      <c r="FV125" t="n">
+        <v>100</v>
+      </c>
+      <c r="FW125" t="n">
+        <v>645</v>
+      </c>
+      <c r="FX125" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY125" t="n">
+        <v>162</v>
+      </c>
+      <c r="FZ125" t="n">
+        <v>874</v>
+      </c>
+      <c r="GA125" t="n">
+        <v>33</v>
+      </c>
+      <c r="GB125" t="n">
+        <v>171</v>
+      </c>
+      <c r="GC125" t="n">
+        <v>269</v>
+      </c>
+      <c r="GD125" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE125" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF125" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG125" t="n">
+        <v>476</v>
+      </c>
+      <c r="GH125" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI125" t="n">
+        <v>207</v>
+      </c>
+      <c r="GJ125" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK125" t="n">
+        <v>161</v>
+      </c>
+      <c r="GL125" t="n">
+        <v>229</v>
+      </c>
+      <c r="GM125" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN125" t="n">
+        <v>11</v>
+      </c>
+      <c r="GO125" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP125" t="n">
+        <v>392</v>
+      </c>
+      <c r="GQ125" t="n">
+        <v>264</v>
+      </c>
+      <c r="GR125" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS125" t="n">
+        <v>164</v>
+      </c>
+      <c r="GT125" t="n">
+        <v>64</v>
+      </c>
+      <c r="GU125" t="n">
+        <v>54</v>
+      </c>
+      <c r="GV125" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW125" t="n">
+        <v>42</v>
+      </c>
+      <c r="GX125" t="n">
+        <v>13</v>
+      </c>
+      <c r="GY125" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ125" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA125" t="n">
+        <v>142</v>
+      </c>
+      <c r="HB125" t="n">
+        <v>1156</v>
+      </c>
+      <c r="HC125" t="n">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC125"/>
+  <dimension ref="A1:HC126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80411,6 +80411,643 @@
         <v>167</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>535</v>
+      </c>
+      <c r="C126" t="n">
+        <v>141</v>
+      </c>
+      <c r="D126" t="n">
+        <v>67</v>
+      </c>
+      <c r="E126" t="n">
+        <v>277</v>
+      </c>
+      <c r="F126" t="n">
+        <v>777</v>
+      </c>
+      <c r="G126" t="n">
+        <v>468</v>
+      </c>
+      <c r="H126" t="n">
+        <v>83</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>277</v>
+      </c>
+      <c r="K126" t="n">
+        <v>270</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>118</v>
+      </c>
+      <c r="N126" t="n">
+        <v>25</v>
+      </c>
+      <c r="O126" t="n">
+        <v>69</v>
+      </c>
+      <c r="P126" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>415</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>121</v>
+      </c>
+      <c r="T126" t="n">
+        <v>240</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1</v>
+      </c>
+      <c r="V126" t="n">
+        <v>40</v>
+      </c>
+      <c r="W126" t="n">
+        <v>12</v>
+      </c>
+      <c r="X126" t="n">
+        <v>446</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>345</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>199</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>154</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>454</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1172</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>172</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>186</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>156</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1410</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>127</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>281</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2746</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>440</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>165</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>203</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>204</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>64</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>109</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>325</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>131</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ126" t="n">
+        <v>165</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>49</v>
+      </c>
+      <c r="BT126" t="n">
+        <v>363</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV126" t="n">
+        <v>99</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>27</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>82</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>82</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>162</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>514</v>
+      </c>
+      <c r="CB126" t="n">
+        <v>186</v>
+      </c>
+      <c r="CC126" t="n">
+        <v>743</v>
+      </c>
+      <c r="CD126" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE126" t="n">
+        <v>294</v>
+      </c>
+      <c r="CF126" t="n">
+        <v>32</v>
+      </c>
+      <c r="CG126" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH126" t="n">
+        <v>22</v>
+      </c>
+      <c r="CI126" t="n">
+        <v>496</v>
+      </c>
+      <c r="CJ126" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK126" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL126" t="n">
+        <v>176</v>
+      </c>
+      <c r="CM126" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN126" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO126" t="n">
+        <v>560</v>
+      </c>
+      <c r="CP126" t="n">
+        <v>156</v>
+      </c>
+      <c r="CQ126" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR126" t="n">
+        <v>83</v>
+      </c>
+      <c r="CS126" t="n">
+        <v>602</v>
+      </c>
+      <c r="CT126" t="n">
+        <v>30</v>
+      </c>
+      <c r="CU126" t="n">
+        <v>219</v>
+      </c>
+      <c r="CV126" t="n">
+        <v>109</v>
+      </c>
+      <c r="CW126" t="n">
+        <v>5548</v>
+      </c>
+      <c r="CX126" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY126" t="n">
+        <v>176</v>
+      </c>
+      <c r="CZ126" t="n">
+        <v>164</v>
+      </c>
+      <c r="DA126" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB126" t="n">
+        <v>128</v>
+      </c>
+      <c r="DC126" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD126" t="n">
+        <v>150</v>
+      </c>
+      <c r="DE126" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF126" t="n">
+        <v>95</v>
+      </c>
+      <c r="DG126" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH126" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI126" t="n">
+        <v>44</v>
+      </c>
+      <c r="DJ126" t="n">
+        <v>69</v>
+      </c>
+      <c r="DK126" t="n">
+        <v>133</v>
+      </c>
+      <c r="DL126" t="n">
+        <v>26</v>
+      </c>
+      <c r="DM126" t="n">
+        <v>234</v>
+      </c>
+      <c r="DN126" t="n">
+        <v>45</v>
+      </c>
+      <c r="DO126" t="n">
+        <v>182</v>
+      </c>
+      <c r="DP126" t="n">
+        <v>574</v>
+      </c>
+      <c r="DQ126" t="n">
+        <v>148</v>
+      </c>
+      <c r="DR126" t="n">
+        <v>78</v>
+      </c>
+      <c r="DS126" t="n">
+        <v>148</v>
+      </c>
+      <c r="DT126" t="n">
+        <v>17</v>
+      </c>
+      <c r="DU126" t="n">
+        <v>22</v>
+      </c>
+      <c r="DV126" t="n">
+        <v>294</v>
+      </c>
+      <c r="DW126" t="n">
+        <v>147</v>
+      </c>
+      <c r="DX126" t="n">
+        <v>4300</v>
+      </c>
+      <c r="DY126" t="n">
+        <v>102</v>
+      </c>
+      <c r="DZ126" t="n">
+        <v>14</v>
+      </c>
+      <c r="EA126" t="n">
+        <v>121</v>
+      </c>
+      <c r="EB126" t="n">
+        <v>142</v>
+      </c>
+      <c r="EC126" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED126" t="n">
+        <v>1014</v>
+      </c>
+      <c r="EE126" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF126" t="n">
+        <v>237</v>
+      </c>
+      <c r="EG126" t="n">
+        <v>11</v>
+      </c>
+      <c r="EH126" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI126" t="n">
+        <v>46</v>
+      </c>
+      <c r="EJ126" t="n">
+        <v>201</v>
+      </c>
+      <c r="EK126" t="n">
+        <v>451</v>
+      </c>
+      <c r="EL126" t="n">
+        <v>2872</v>
+      </c>
+      <c r="EM126" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN126" t="n">
+        <v>53</v>
+      </c>
+      <c r="EO126" t="n">
+        <v>374</v>
+      </c>
+      <c r="EP126" t="n">
+        <v>79</v>
+      </c>
+      <c r="EQ126" t="n">
+        <v>1108</v>
+      </c>
+      <c r="ER126" t="n">
+        <v>22</v>
+      </c>
+      <c r="ES126" t="n">
+        <v>474</v>
+      </c>
+      <c r="ET126" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU126" t="n">
+        <v>211</v>
+      </c>
+      <c r="EV126" t="n">
+        <v>22</v>
+      </c>
+      <c r="EW126" t="n">
+        <v>23194</v>
+      </c>
+      <c r="EX126" t="n">
+        <v>188</v>
+      </c>
+      <c r="EY126" t="n">
+        <v>153</v>
+      </c>
+      <c r="EZ126" t="n">
+        <v>148</v>
+      </c>
+      <c r="FA126" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB126" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC126" t="n">
+        <v>204</v>
+      </c>
+      <c r="FD126" t="n">
+        <v>34</v>
+      </c>
+      <c r="FE126" t="n">
+        <v>143</v>
+      </c>
+      <c r="FF126" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG126" t="n">
+        <v>20</v>
+      </c>
+      <c r="FH126" t="n">
+        <v>1041</v>
+      </c>
+      <c r="FI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ126" t="n">
+        <v>19</v>
+      </c>
+      <c r="FK126" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL126" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM126" t="n">
+        <v>22</v>
+      </c>
+      <c r="FN126" t="n">
+        <v>303</v>
+      </c>
+      <c r="FO126" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP126" t="n">
+        <v>169</v>
+      </c>
+      <c r="FQ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR126" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS126" t="n">
+        <v>170</v>
+      </c>
+      <c r="FT126" t="n">
+        <v>246</v>
+      </c>
+      <c r="FU126" t="n">
+        <v>162</v>
+      </c>
+      <c r="FV126" t="n">
+        <v>102</v>
+      </c>
+      <c r="FW126" t="n">
+        <v>645</v>
+      </c>
+      <c r="FX126" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY126" t="n">
+        <v>162</v>
+      </c>
+      <c r="FZ126" t="n">
+        <v>882</v>
+      </c>
+      <c r="GA126" t="n">
+        <v>34</v>
+      </c>
+      <c r="GB126" t="n">
+        <v>171</v>
+      </c>
+      <c r="GC126" t="n">
+        <v>272</v>
+      </c>
+      <c r="GD126" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE126" t="n">
+        <v>11</v>
+      </c>
+      <c r="GF126" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG126" t="n">
+        <v>482</v>
+      </c>
+      <c r="GH126" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI126" t="n">
+        <v>208</v>
+      </c>
+      <c r="GJ126" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK126" t="n">
+        <v>162</v>
+      </c>
+      <c r="GL126" t="n">
+        <v>229</v>
+      </c>
+      <c r="GM126" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN126" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO126" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP126" t="n">
+        <v>392</v>
+      </c>
+      <c r="GQ126" t="n">
+        <v>267</v>
+      </c>
+      <c r="GR126" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS126" t="n">
+        <v>166</v>
+      </c>
+      <c r="GT126" t="n">
+        <v>65</v>
+      </c>
+      <c r="GU126" t="n">
+        <v>54</v>
+      </c>
+      <c r="GV126" t="n">
+        <v>28</v>
+      </c>
+      <c r="GW126" t="n">
+        <v>43</v>
+      </c>
+      <c r="GX126" t="n">
+        <v>13</v>
+      </c>
+      <c r="GY126" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ126" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA126" t="n">
+        <v>143</v>
+      </c>
+      <c r="HB126" t="n">
+        <v>1159</v>
+      </c>
+      <c r="HC126" t="n">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC126"/>
+  <dimension ref="A1:HC128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81048,6 +81048,1280 @@
         <v>168</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>535</v>
+      </c>
+      <c r="C127" t="n">
+        <v>141</v>
+      </c>
+      <c r="D127" t="n">
+        <v>67</v>
+      </c>
+      <c r="E127" t="n">
+        <v>277</v>
+      </c>
+      <c r="F127" t="n">
+        <v>777</v>
+      </c>
+      <c r="G127" t="n">
+        <v>468</v>
+      </c>
+      <c r="H127" t="n">
+        <v>83</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>277</v>
+      </c>
+      <c r="K127" t="n">
+        <v>270</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>118</v>
+      </c>
+      <c r="N127" t="n">
+        <v>25</v>
+      </c>
+      <c r="O127" t="n">
+        <v>69</v>
+      </c>
+      <c r="P127" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>415</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>121</v>
+      </c>
+      <c r="T127" t="n">
+        <v>240</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1</v>
+      </c>
+      <c r="V127" t="n">
+        <v>40</v>
+      </c>
+      <c r="W127" t="n">
+        <v>12</v>
+      </c>
+      <c r="X127" t="n">
+        <v>446</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>345</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>199</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>154</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>454</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1172</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>172</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>186</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>156</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1410</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>127</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>281</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2746</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>440</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>165</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>203</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>204</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>64</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>109</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>325</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>131</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ127" t="n">
+        <v>165</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>49</v>
+      </c>
+      <c r="BT127" t="n">
+        <v>363</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV127" t="n">
+        <v>99</v>
+      </c>
+      <c r="BW127" t="n">
+        <v>27</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>82</v>
+      </c>
+      <c r="BY127" t="n">
+        <v>82</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>162</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>514</v>
+      </c>
+      <c r="CB127" t="n">
+        <v>186</v>
+      </c>
+      <c r="CC127" t="n">
+        <v>743</v>
+      </c>
+      <c r="CD127" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE127" t="n">
+        <v>294</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>32</v>
+      </c>
+      <c r="CG127" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH127" t="n">
+        <v>22</v>
+      </c>
+      <c r="CI127" t="n">
+        <v>496</v>
+      </c>
+      <c r="CJ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK127" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL127" t="n">
+        <v>176</v>
+      </c>
+      <c r="CM127" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN127" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO127" t="n">
+        <v>560</v>
+      </c>
+      <c r="CP127" t="n">
+        <v>156</v>
+      </c>
+      <c r="CQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR127" t="n">
+        <v>83</v>
+      </c>
+      <c r="CS127" t="n">
+        <v>602</v>
+      </c>
+      <c r="CT127" t="n">
+        <v>30</v>
+      </c>
+      <c r="CU127" t="n">
+        <v>219</v>
+      </c>
+      <c r="CV127" t="n">
+        <v>109</v>
+      </c>
+      <c r="CW127" t="n">
+        <v>5548</v>
+      </c>
+      <c r="CX127" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY127" t="n">
+        <v>176</v>
+      </c>
+      <c r="CZ127" t="n">
+        <v>164</v>
+      </c>
+      <c r="DA127" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB127" t="n">
+        <v>128</v>
+      </c>
+      <c r="DC127" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD127" t="n">
+        <v>150</v>
+      </c>
+      <c r="DE127" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF127" t="n">
+        <v>95</v>
+      </c>
+      <c r="DG127" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH127" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI127" t="n">
+        <v>44</v>
+      </c>
+      <c r="DJ127" t="n">
+        <v>69</v>
+      </c>
+      <c r="DK127" t="n">
+        <v>133</v>
+      </c>
+      <c r="DL127" t="n">
+        <v>26</v>
+      </c>
+      <c r="DM127" t="n">
+        <v>234</v>
+      </c>
+      <c r="DN127" t="n">
+        <v>45</v>
+      </c>
+      <c r="DO127" t="n">
+        <v>182</v>
+      </c>
+      <c r="DP127" t="n">
+        <v>574</v>
+      </c>
+      <c r="DQ127" t="n">
+        <v>148</v>
+      </c>
+      <c r="DR127" t="n">
+        <v>78</v>
+      </c>
+      <c r="DS127" t="n">
+        <v>148</v>
+      </c>
+      <c r="DT127" t="n">
+        <v>17</v>
+      </c>
+      <c r="DU127" t="n">
+        <v>22</v>
+      </c>
+      <c r="DV127" t="n">
+        <v>294</v>
+      </c>
+      <c r="DW127" t="n">
+        <v>147</v>
+      </c>
+      <c r="DX127" t="n">
+        <v>4300</v>
+      </c>
+      <c r="DY127" t="n">
+        <v>102</v>
+      </c>
+      <c r="DZ127" t="n">
+        <v>14</v>
+      </c>
+      <c r="EA127" t="n">
+        <v>121</v>
+      </c>
+      <c r="EB127" t="n">
+        <v>142</v>
+      </c>
+      <c r="EC127" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED127" t="n">
+        <v>1014</v>
+      </c>
+      <c r="EE127" t="n">
+        <v>9</v>
+      </c>
+      <c r="EF127" t="n">
+        <v>237</v>
+      </c>
+      <c r="EG127" t="n">
+        <v>11</v>
+      </c>
+      <c r="EH127" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI127" t="n">
+        <v>46</v>
+      </c>
+      <c r="EJ127" t="n">
+        <v>201</v>
+      </c>
+      <c r="EK127" t="n">
+        <v>451</v>
+      </c>
+      <c r="EL127" t="n">
+        <v>2872</v>
+      </c>
+      <c r="EM127" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN127" t="n">
+        <v>53</v>
+      </c>
+      <c r="EO127" t="n">
+        <v>374</v>
+      </c>
+      <c r="EP127" t="n">
+        <v>79</v>
+      </c>
+      <c r="EQ127" t="n">
+        <v>1108</v>
+      </c>
+      <c r="ER127" t="n">
+        <v>22</v>
+      </c>
+      <c r="ES127" t="n">
+        <v>474</v>
+      </c>
+      <c r="ET127" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU127" t="n">
+        <v>211</v>
+      </c>
+      <c r="EV127" t="n">
+        <v>22</v>
+      </c>
+      <c r="EW127" t="n">
+        <v>23194</v>
+      </c>
+      <c r="EX127" t="n">
+        <v>188</v>
+      </c>
+      <c r="EY127" t="n">
+        <v>153</v>
+      </c>
+      <c r="EZ127" t="n">
+        <v>148</v>
+      </c>
+      <c r="FA127" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB127" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC127" t="n">
+        <v>204</v>
+      </c>
+      <c r="FD127" t="n">
+        <v>34</v>
+      </c>
+      <c r="FE127" t="n">
+        <v>143</v>
+      </c>
+      <c r="FF127" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG127" t="n">
+        <v>20</v>
+      </c>
+      <c r="FH127" t="n">
+        <v>1041</v>
+      </c>
+      <c r="FI127" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ127" t="n">
+        <v>19</v>
+      </c>
+      <c r="FK127" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL127" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM127" t="n">
+        <v>22</v>
+      </c>
+      <c r="FN127" t="n">
+        <v>303</v>
+      </c>
+      <c r="FO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP127" t="n">
+        <v>169</v>
+      </c>
+      <c r="FQ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR127" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS127" t="n">
+        <v>170</v>
+      </c>
+      <c r="FT127" t="n">
+        <v>246</v>
+      </c>
+      <c r="FU127" t="n">
+        <v>162</v>
+      </c>
+      <c r="FV127" t="n">
+        <v>102</v>
+      </c>
+      <c r="FW127" t="n">
+        <v>645</v>
+      </c>
+      <c r="FX127" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY127" t="n">
+        <v>162</v>
+      </c>
+      <c r="FZ127" t="n">
+        <v>882</v>
+      </c>
+      <c r="GA127" t="n">
+        <v>34</v>
+      </c>
+      <c r="GB127" t="n">
+        <v>171</v>
+      </c>
+      <c r="GC127" t="n">
+        <v>272</v>
+      </c>
+      <c r="GD127" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE127" t="n">
+        <v>11</v>
+      </c>
+      <c r="GF127" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG127" t="n">
+        <v>482</v>
+      </c>
+      <c r="GH127" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI127" t="n">
+        <v>208</v>
+      </c>
+      <c r="GJ127" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK127" t="n">
+        <v>162</v>
+      </c>
+      <c r="GL127" t="n">
+        <v>229</v>
+      </c>
+      <c r="GM127" t="n">
+        <v>28</v>
+      </c>
+      <c r="GN127" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO127" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP127" t="n">
+        <v>392</v>
+      </c>
+      <c r="GQ127" t="n">
+        <v>267</v>
+      </c>
+      <c r="GR127" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS127" t="n">
+        <v>166</v>
+      </c>
+      <c r="GT127" t="n">
+        <v>65</v>
+      </c>
+      <c r="GU127" t="n">
+        <v>54</v>
+      </c>
+      <c r="GV127" t="n">
+        <v>28</v>
+      </c>
+      <c r="GW127" t="n">
+        <v>43</v>
+      </c>
+      <c r="GX127" t="n">
+        <v>13</v>
+      </c>
+      <c r="GY127" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ127" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA127" t="n">
+        <v>143</v>
+      </c>
+      <c r="HB127" t="n">
+        <v>1159</v>
+      </c>
+      <c r="HC127" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>545</v>
+      </c>
+      <c r="C128" t="n">
+        <v>149</v>
+      </c>
+      <c r="D128" t="n">
+        <v>68</v>
+      </c>
+      <c r="E128" t="n">
+        <v>297</v>
+      </c>
+      <c r="F128" t="n">
+        <v>781</v>
+      </c>
+      <c r="G128" t="n">
+        <v>475</v>
+      </c>
+      <c r="H128" t="n">
+        <v>85</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>283</v>
+      </c>
+      <c r="K128" t="n">
+        <v>273</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>119</v>
+      </c>
+      <c r="N128" t="n">
+        <v>25</v>
+      </c>
+      <c r="O128" t="n">
+        <v>69</v>
+      </c>
+      <c r="P128" t="n">
+        <v>328</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>428</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>123</v>
+      </c>
+      <c r="T128" t="n">
+        <v>243</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>42</v>
+      </c>
+      <c r="W128" t="n">
+        <v>13</v>
+      </c>
+      <c r="X128" t="n">
+        <v>474</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>357</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>259</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>201</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>157</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>461</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1208</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>189</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>195</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>159</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>43</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1417</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>123</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>127</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>62</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>286</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>2834</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>443</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>69</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>166</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>206</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>208</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>64</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>110</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>363</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>131</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ128" t="n">
+        <v>169</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>266</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>51</v>
+      </c>
+      <c r="BT128" t="n">
+        <v>366</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV128" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>83</v>
+      </c>
+      <c r="BY128" t="n">
+        <v>86</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>166</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>532</v>
+      </c>
+      <c r="CB128" t="n">
+        <v>188</v>
+      </c>
+      <c r="CC128" t="n">
+        <v>765</v>
+      </c>
+      <c r="CD128" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE128" t="n">
+        <v>303</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>34</v>
+      </c>
+      <c r="CG128" t="n">
+        <v>71</v>
+      </c>
+      <c r="CH128" t="n">
+        <v>22</v>
+      </c>
+      <c r="CI128" t="n">
+        <v>507</v>
+      </c>
+      <c r="CJ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK128" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL128" t="n">
+        <v>176</v>
+      </c>
+      <c r="CM128" t="n">
+        <v>18</v>
+      </c>
+      <c r="CN128" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO128" t="n">
+        <v>578</v>
+      </c>
+      <c r="CP128" t="n">
+        <v>159</v>
+      </c>
+      <c r="CQ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR128" t="n">
+        <v>99</v>
+      </c>
+      <c r="CS128" t="n">
+        <v>603</v>
+      </c>
+      <c r="CT128" t="n">
+        <v>31</v>
+      </c>
+      <c r="CU128" t="n">
+        <v>221</v>
+      </c>
+      <c r="CV128" t="n">
+        <v>110</v>
+      </c>
+      <c r="CW128" t="n">
+        <v>5617</v>
+      </c>
+      <c r="CX128" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY128" t="n">
+        <v>178</v>
+      </c>
+      <c r="CZ128" t="n">
+        <v>171</v>
+      </c>
+      <c r="DA128" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB128" t="n">
+        <v>130</v>
+      </c>
+      <c r="DC128" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD128" t="n">
+        <v>156</v>
+      </c>
+      <c r="DE128" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF128" t="n">
+        <v>95</v>
+      </c>
+      <c r="DG128" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH128" t="n">
+        <v>103</v>
+      </c>
+      <c r="DI128" t="n">
+        <v>46</v>
+      </c>
+      <c r="DJ128" t="n">
+        <v>72</v>
+      </c>
+      <c r="DK128" t="n">
+        <v>133</v>
+      </c>
+      <c r="DL128" t="n">
+        <v>26</v>
+      </c>
+      <c r="DM128" t="n">
+        <v>235</v>
+      </c>
+      <c r="DN128" t="n">
+        <v>48</v>
+      </c>
+      <c r="DO128" t="n">
+        <v>189</v>
+      </c>
+      <c r="DP128" t="n">
+        <v>585</v>
+      </c>
+      <c r="DQ128" t="n">
+        <v>149</v>
+      </c>
+      <c r="DR128" t="n">
+        <v>78</v>
+      </c>
+      <c r="DS128" t="n">
+        <v>148</v>
+      </c>
+      <c r="DT128" t="n">
+        <v>18</v>
+      </c>
+      <c r="DU128" t="n">
+        <v>22</v>
+      </c>
+      <c r="DV128" t="n">
+        <v>296</v>
+      </c>
+      <c r="DW128" t="n">
+        <v>149</v>
+      </c>
+      <c r="DX128" t="n">
+        <v>4354</v>
+      </c>
+      <c r="DY128" t="n">
+        <v>113</v>
+      </c>
+      <c r="DZ128" t="n">
+        <v>18</v>
+      </c>
+      <c r="EA128" t="n">
+        <v>131</v>
+      </c>
+      <c r="EB128" t="n">
+        <v>147</v>
+      </c>
+      <c r="EC128" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED128" t="n">
+        <v>1052</v>
+      </c>
+      <c r="EE128" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF128" t="n">
+        <v>241</v>
+      </c>
+      <c r="EG128" t="n">
+        <v>11</v>
+      </c>
+      <c r="EH128" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI128" t="n">
+        <v>46</v>
+      </c>
+      <c r="EJ128" t="n">
+        <v>201</v>
+      </c>
+      <c r="EK128" t="n">
+        <v>468</v>
+      </c>
+      <c r="EL128" t="n">
+        <v>2897</v>
+      </c>
+      <c r="EM128" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN128" t="n">
+        <v>56</v>
+      </c>
+      <c r="EO128" t="n">
+        <v>381</v>
+      </c>
+      <c r="EP128" t="n">
+        <v>79</v>
+      </c>
+      <c r="EQ128" t="n">
+        <v>1145</v>
+      </c>
+      <c r="ER128" t="n">
+        <v>22</v>
+      </c>
+      <c r="ES128" t="n">
+        <v>476</v>
+      </c>
+      <c r="ET128" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU128" t="n">
+        <v>211</v>
+      </c>
+      <c r="EV128" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW128" t="n">
+        <v>23433</v>
+      </c>
+      <c r="EX128" t="n">
+        <v>190</v>
+      </c>
+      <c r="EY128" t="n">
+        <v>154</v>
+      </c>
+      <c r="EZ128" t="n">
+        <v>148</v>
+      </c>
+      <c r="FA128" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB128" t="n">
+        <v>32</v>
+      </c>
+      <c r="FC128" t="n">
+        <v>213</v>
+      </c>
+      <c r="FD128" t="n">
+        <v>35</v>
+      </c>
+      <c r="FE128" t="n">
+        <v>144</v>
+      </c>
+      <c r="FF128" t="n">
+        <v>15</v>
+      </c>
+      <c r="FG128" t="n">
+        <v>22</v>
+      </c>
+      <c r="FH128" t="n">
+        <v>1107</v>
+      </c>
+      <c r="FI128" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ128" t="n">
+        <v>22</v>
+      </c>
+      <c r="FK128" t="n">
+        <v>65</v>
+      </c>
+      <c r="FL128" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM128" t="n">
+        <v>22</v>
+      </c>
+      <c r="FN128" t="n">
+        <v>322</v>
+      </c>
+      <c r="FO128" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP128" t="n">
+        <v>177</v>
+      </c>
+      <c r="FQ128" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR128" t="n">
+        <v>14</v>
+      </c>
+      <c r="FS128" t="n">
+        <v>172</v>
+      </c>
+      <c r="FT128" t="n">
+        <v>246</v>
+      </c>
+      <c r="FU128" t="n">
+        <v>170</v>
+      </c>
+      <c r="FV128" t="n">
+        <v>104</v>
+      </c>
+      <c r="FW128" t="n">
+        <v>650</v>
+      </c>
+      <c r="FX128" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY128" t="n">
+        <v>165</v>
+      </c>
+      <c r="FZ128" t="n">
+        <v>894</v>
+      </c>
+      <c r="GA128" t="n">
+        <v>41</v>
+      </c>
+      <c r="GB128" t="n">
+        <v>178</v>
+      </c>
+      <c r="GC128" t="n">
+        <v>274</v>
+      </c>
+      <c r="GD128" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE128" t="n">
+        <v>11</v>
+      </c>
+      <c r="GF128" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG128" t="n">
+        <v>488</v>
+      </c>
+      <c r="GH128" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI128" t="n">
+        <v>234</v>
+      </c>
+      <c r="GJ128" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK128" t="n">
+        <v>168</v>
+      </c>
+      <c r="GL128" t="n">
+        <v>230</v>
+      </c>
+      <c r="GM128" t="n">
+        <v>31</v>
+      </c>
+      <c r="GN128" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO128" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP128" t="n">
+        <v>401</v>
+      </c>
+      <c r="GQ128" t="n">
+        <v>276</v>
+      </c>
+      <c r="GR128" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS128" t="n">
+        <v>169</v>
+      </c>
+      <c r="GT128" t="n">
+        <v>66</v>
+      </c>
+      <c r="GU128" t="n">
+        <v>56</v>
+      </c>
+      <c r="GV128" t="n">
+        <v>28</v>
+      </c>
+      <c r="GW128" t="n">
+        <v>44</v>
+      </c>
+      <c r="GX128" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY128" t="n">
+        <v>23</v>
+      </c>
+      <c r="GZ128" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA128" t="n">
+        <v>143</v>
+      </c>
+      <c r="HB128" t="n">
+        <v>1163</v>
+      </c>
+      <c r="HC128" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -81055,40 +81055,40 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C127" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D127" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E127" t="n">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F127" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G127" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H127" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K127" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N127" t="n">
         <v>25</v>
@@ -81097,49 +81097,49 @@
         <v>69</v>
       </c>
       <c r="P127" t="n">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q127" t="n">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="R127" t="n">
         <v>1</v>
       </c>
       <c r="S127" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T127" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="U127" t="n">
         <v>1</v>
       </c>
       <c r="V127" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X127" t="n">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="Y127" t="n">
         <v>22</v>
       </c>
       <c r="Z127" t="n">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AA127" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AB127" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AC127" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD127" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AE127" t="n">
         <v>11</v>
@@ -81148,7 +81148,7 @@
         <v>29</v>
       </c>
       <c r="AG127" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AH127" t="n">
         <v>36</v>
@@ -81160,28 +81160,28 @@
         <v>4</v>
       </c>
       <c r="AK127" t="n">
-        <v>1172</v>
+        <v>1208</v>
       </c>
       <c r="AL127" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AM127" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AN127" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AO127" t="n">
         <v>29</v>
       </c>
       <c r="AP127" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="AR127" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AS127" t="n">
         <v>1</v>
@@ -81193,7 +81193,7 @@
         <v>1</v>
       </c>
       <c r="AV127" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AW127" t="n">
         <v>127</v>
@@ -81202,43 +81202,43 @@
         <v>73</v>
       </c>
       <c r="AY127" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AZ127" t="n">
         <v>17</v>
       </c>
       <c r="BA127" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BB127" t="n">
-        <v>2746</v>
+        <v>2834</v>
       </c>
       <c r="BC127" t="n">
         <v>29</v>
       </c>
       <c r="BD127" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="BE127" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BF127" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BG127" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BH127" t="n">
         <v>1</v>
       </c>
       <c r="BI127" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BJ127" t="n">
         <v>64</v>
       </c>
       <c r="BK127" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BL127" t="n">
         <v>1</v>
@@ -81247,7 +81247,7 @@
         <v>63</v>
       </c>
       <c r="BN127" t="n">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="BO127" t="n">
         <v>131</v>
@@ -81256,61 +81256,61 @@
         <v>1</v>
       </c>
       <c r="BQ127" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BR127" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="BS127" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BT127" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="BU127" t="n">
         <v>95</v>
       </c>
       <c r="BV127" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BW127" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BX127" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BY127" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BZ127" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="CA127" t="n">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="CB127" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CC127" t="n">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="CD127" t="n">
         <v>8</v>
       </c>
       <c r="CE127" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="CF127" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CG127" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="CH127" t="n">
         <v>22</v>
       </c>
       <c r="CI127" t="n">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="CJ127" t="n">
         <v>2</v>
@@ -81322,58 +81322,58 @@
         <v>176</v>
       </c>
       <c r="CM127" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CN127" t="n">
         <v>9</v>
       </c>
       <c r="CO127" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="CP127" t="n">
+        <v>159</v>
+      </c>
+      <c r="CQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR127" t="n">
+        <v>99</v>
+      </c>
+      <c r="CS127" t="n">
+        <v>603</v>
+      </c>
+      <c r="CT127" t="n">
+        <v>31</v>
+      </c>
+      <c r="CU127" t="n">
+        <v>221</v>
+      </c>
+      <c r="CV127" t="n">
+        <v>110</v>
+      </c>
+      <c r="CW127" t="n">
+        <v>5617</v>
+      </c>
+      <c r="CX127" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY127" t="n">
+        <v>178</v>
+      </c>
+      <c r="CZ127" t="n">
+        <v>171</v>
+      </c>
+      <c r="DA127" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB127" t="n">
+        <v>130</v>
+      </c>
+      <c r="DC127" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD127" t="n">
         <v>156</v>
-      </c>
-      <c r="CQ127" t="n">
-        <v>2</v>
-      </c>
-      <c r="CR127" t="n">
-        <v>83</v>
-      </c>
-      <c r="CS127" t="n">
-        <v>602</v>
-      </c>
-      <c r="CT127" t="n">
-        <v>30</v>
-      </c>
-      <c r="CU127" t="n">
-        <v>219</v>
-      </c>
-      <c r="CV127" t="n">
-        <v>109</v>
-      </c>
-      <c r="CW127" t="n">
-        <v>5548</v>
-      </c>
-      <c r="CX127" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY127" t="n">
-        <v>176</v>
-      </c>
-      <c r="CZ127" t="n">
-        <v>164</v>
-      </c>
-      <c r="DA127" t="n">
-        <v>15</v>
-      </c>
-      <c r="DB127" t="n">
-        <v>128</v>
-      </c>
-      <c r="DC127" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD127" t="n">
-        <v>150</v>
       </c>
       <c r="DE127" t="n">
         <v>3</v>
@@ -81385,13 +81385,13 @@
         <v>1</v>
       </c>
       <c r="DH127" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="DI127" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DJ127" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="DK127" t="n">
         <v>133</v>
@@ -81400,19 +81400,19 @@
         <v>26</v>
       </c>
       <c r="DM127" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DN127" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="DO127" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="DP127" t="n">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="DQ127" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DR127" t="n">
         <v>78</v>
@@ -81421,43 +81421,43 @@
         <v>148</v>
       </c>
       <c r="DT127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DU127" t="n">
         <v>22</v>
       </c>
       <c r="DV127" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="DW127" t="n">
+        <v>149</v>
+      </c>
+      <c r="DX127" t="n">
+        <v>4354</v>
+      </c>
+      <c r="DY127" t="n">
+        <v>113</v>
+      </c>
+      <c r="DZ127" t="n">
+        <v>18</v>
+      </c>
+      <c r="EA127" t="n">
+        <v>131</v>
+      </c>
+      <c r="EB127" t="n">
         <v>147</v>
       </c>
-      <c r="DX127" t="n">
-        <v>4300</v>
-      </c>
-      <c r="DY127" t="n">
-        <v>102</v>
-      </c>
-      <c r="DZ127" t="n">
-        <v>14</v>
-      </c>
-      <c r="EA127" t="n">
-        <v>121</v>
-      </c>
-      <c r="EB127" t="n">
-        <v>142</v>
-      </c>
       <c r="EC127" t="n">
         <v>3</v>
       </c>
       <c r="ED127" t="n">
-        <v>1014</v>
+        <v>1052</v>
       </c>
       <c r="EE127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="EF127" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="EG127" t="n">
         <v>11</v>
@@ -81472,31 +81472,31 @@
         <v>201</v>
       </c>
       <c r="EK127" t="n">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="EL127" t="n">
-        <v>2872</v>
+        <v>2897</v>
       </c>
       <c r="EM127" t="n">
         <v>1</v>
       </c>
       <c r="EN127" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="EO127" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="EP127" t="n">
         <v>79</v>
       </c>
       <c r="EQ127" t="n">
-        <v>1108</v>
+        <v>1145</v>
       </c>
       <c r="ER127" t="n">
         <v>22</v>
       </c>
       <c r="ES127" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="ET127" t="n">
         <v>67</v>
@@ -81505,52 +81505,52 @@
         <v>211</v>
       </c>
       <c r="EV127" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="EW127" t="n">
-        <v>23194</v>
+        <v>23433</v>
       </c>
       <c r="EX127" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="EY127" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="EZ127" t="n">
         <v>148</v>
       </c>
       <c r="FA127" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="FB127" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FC127" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="FD127" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="FE127" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="FF127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="FG127" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="FH127" t="n">
-        <v>1041</v>
+        <v>1107</v>
       </c>
       <c r="FI127" t="n">
         <v>3</v>
       </c>
       <c r="FJ127" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="FK127" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="FL127" t="n">
         <v>14</v>
@@ -81559,13 +81559,13 @@
         <v>22</v>
       </c>
       <c r="FN127" t="n">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="FO127" t="n">
         <v>1</v>
       </c>
       <c r="FP127" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="FQ127" t="n">
         <v>1</v>
@@ -81574,37 +81574,37 @@
         <v>14</v>
       </c>
       <c r="FS127" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="FT127" t="n">
         <v>246</v>
       </c>
       <c r="FU127" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="FV127" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="FW127" t="n">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="FX127" t="n">
         <v>3</v>
       </c>
       <c r="FY127" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="FZ127" t="n">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="GA127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="GB127" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="GC127" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="GD127" t="n">
         <v>2</v>
@@ -81616,25 +81616,25 @@
         <v>1</v>
       </c>
       <c r="GG127" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="GH127" t="n">
         <v>1</v>
       </c>
       <c r="GI127" t="n">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="GJ127" t="n">
         <v>79</v>
       </c>
       <c r="GK127" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="GL127" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="GM127" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="GN127" t="n">
         <v>12</v>
@@ -81643,34 +81643,34 @@
         <v>6</v>
       </c>
       <c r="GP127" t="n">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="GQ127" t="n">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="GR127" t="n">
         <v>32</v>
       </c>
       <c r="GS127" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="GT127" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GU127" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="GV127" t="n">
         <v>28</v>
       </c>
       <c r="GW127" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="GX127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="GY127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="GZ127" t="n">
         <v>109</v>
@@ -81679,35 +81679,35 @@
         <v>143</v>
       </c>
       <c r="HB127" t="n">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="HC127" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C128" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D128" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E128" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F128" t="n">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="G128" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H128" t="n">
         <v>85</v>
@@ -81719,7 +81719,7 @@
         <v>283</v>
       </c>
       <c r="K128" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
@@ -81731,19 +81731,19 @@
         <v>25</v>
       </c>
       <c r="O128" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P128" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q128" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="R128" t="n">
         <v>1</v>
       </c>
       <c r="S128" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T128" t="n">
         <v>243</v>
@@ -81752,31 +81752,31 @@
         <v>1</v>
       </c>
       <c r="V128" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W128" t="n">
         <v>13</v>
       </c>
       <c r="X128" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Y128" t="n">
         <v>22</v>
       </c>
       <c r="Z128" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AA128" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB128" t="n">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AC128" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AD128" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE128" t="n">
         <v>11</v>
@@ -81785,28 +81785,28 @@
         <v>29</v>
       </c>
       <c r="AG128" t="n">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="AH128" t="n">
         <v>36</v>
       </c>
       <c r="AI128" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ128" t="n">
         <v>4</v>
       </c>
       <c r="AK128" t="n">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="AL128" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AM128" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AN128" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AO128" t="n">
         <v>29</v>
@@ -81815,10 +81815,10 @@
         <v>43</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1417</v>
+        <v>1437</v>
       </c>
       <c r="AR128" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AS128" t="n">
         <v>1</v>
@@ -81830,13 +81830,13 @@
         <v>1</v>
       </c>
       <c r="AV128" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AW128" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AX128" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AY128" t="n">
         <v>62</v>
@@ -81845,34 +81845,34 @@
         <v>17</v>
       </c>
       <c r="BA128" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="BB128" t="n">
-        <v>2834</v>
+        <v>2897</v>
       </c>
       <c r="BC128" t="n">
         <v>29</v>
       </c>
       <c r="BD128" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="BE128" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BF128" t="n">
         <v>166</v>
       </c>
       <c r="BG128" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BH128" t="n">
         <v>1</v>
       </c>
       <c r="BI128" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BJ128" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BK128" t="n">
         <v>110</v>
@@ -81881,10 +81881,10 @@
         <v>1</v>
       </c>
       <c r="BM128" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BN128" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BO128" t="n">
         <v>131</v>
@@ -81896,19 +81896,19 @@
         <v>169</v>
       </c>
       <c r="BR128" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="BS128" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BT128" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="BU128" t="n">
         <v>95</v>
       </c>
       <c r="BV128" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BW128" t="n">
         <v>30</v>
@@ -81920,43 +81920,43 @@
         <v>86</v>
       </c>
       <c r="BZ128" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="CA128" t="n">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="CB128" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="CC128" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="CD128" t="n">
         <v>8</v>
       </c>
       <c r="CE128" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="CF128" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CG128" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CH128" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CI128" t="n">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="CJ128" t="n">
         <v>2</v>
       </c>
       <c r="CK128" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CL128" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CM128" t="n">
         <v>18</v>
@@ -81965,31 +81965,31 @@
         <v>9</v>
       </c>
       <c r="CO128" t="n">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="CP128" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="CQ128" t="n">
         <v>2</v>
       </c>
       <c r="CR128" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CS128" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="CT128" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CU128" t="n">
         <v>221</v>
       </c>
       <c r="CV128" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW128" t="n">
-        <v>5617</v>
+        <v>5673</v>
       </c>
       <c r="CX128" t="n">
         <v>1</v>
@@ -81998,187 +81998,187 @@
         <v>178</v>
       </c>
       <c r="CZ128" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DA128" t="n">
         <v>17</v>
       </c>
       <c r="DB128" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="DC128" t="n">
         <v>2</v>
       </c>
       <c r="DD128" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="DE128" t="n">
         <v>3</v>
       </c>
       <c r="DF128" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="DG128" t="n">
         <v>1</v>
       </c>
       <c r="DH128" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DI128" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DJ128" t="n">
         <v>72</v>
       </c>
       <c r="DK128" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="DL128" t="n">
         <v>26</v>
       </c>
       <c r="DM128" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="DN128" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="DO128" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="DP128" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="DQ128" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="DR128" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="DS128" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="DT128" t="n">
         <v>18</v>
       </c>
       <c r="DU128" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="DV128" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="DW128" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DX128" t="n">
-        <v>4354</v>
+        <v>4396</v>
       </c>
       <c r="DY128" t="n">
         <v>113</v>
       </c>
       <c r="DZ128" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="EA128" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="EB128" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="EC128" t="n">
         <v>3</v>
       </c>
       <c r="ED128" t="n">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="EE128" t="n">
         <v>10</v>
       </c>
       <c r="EF128" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="EG128" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="EH128" t="n">
         <v>1</v>
       </c>
       <c r="EI128" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="EJ128" t="n">
         <v>201</v>
       </c>
       <c r="EK128" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="EL128" t="n">
-        <v>2897</v>
+        <v>2931</v>
       </c>
       <c r="EM128" t="n">
         <v>1</v>
       </c>
       <c r="EN128" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="EO128" t="n">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="EP128" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="EQ128" t="n">
-        <v>1145</v>
+        <v>1171</v>
       </c>
       <c r="ER128" t="n">
         <v>22</v>
       </c>
       <c r="ES128" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="ET128" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="EU128" t="n">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="EV128" t="n">
         <v>25</v>
       </c>
       <c r="EW128" t="n">
-        <v>23433</v>
+        <v>23612</v>
       </c>
       <c r="EX128" t="n">
         <v>190</v>
       </c>
       <c r="EY128" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="EZ128" t="n">
         <v>148</v>
       </c>
       <c r="FA128" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="FB128" t="n">
         <v>32</v>
       </c>
       <c r="FC128" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="FD128" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="FE128" t="n">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="FF128" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="FG128" t="n">
         <v>22</v>
       </c>
       <c r="FH128" t="n">
-        <v>1107</v>
+        <v>1185</v>
       </c>
       <c r="FI128" t="n">
         <v>3</v>
@@ -82187,7 +82187,7 @@
         <v>22</v>
       </c>
       <c r="FK128" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="FL128" t="n">
         <v>14</v>
@@ -82196,52 +82196,52 @@
         <v>22</v>
       </c>
       <c r="FN128" t="n">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="FO128" t="n">
         <v>1</v>
       </c>
       <c r="FP128" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="FQ128" t="n">
         <v>1</v>
       </c>
       <c r="FR128" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="FS128" t="n">
+        <v>173</v>
+      </c>
+      <c r="FT128" t="n">
+        <v>247</v>
+      </c>
+      <c r="FU128" t="n">
         <v>172</v>
       </c>
-      <c r="FT128" t="n">
-        <v>246</v>
-      </c>
-      <c r="FU128" t="n">
-        <v>170</v>
-      </c>
       <c r="FV128" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="FW128" t="n">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="FX128" t="n">
         <v>3</v>
       </c>
       <c r="FY128" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="FZ128" t="n">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="GA128" t="n">
         <v>41</v>
       </c>
       <c r="GB128" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="GC128" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="GD128" t="n">
         <v>2</v>
@@ -82253,25 +82253,25 @@
         <v>1</v>
       </c>
       <c r="GG128" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="GH128" t="n">
         <v>1</v>
       </c>
       <c r="GI128" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="GJ128" t="n">
         <v>79</v>
       </c>
       <c r="GK128" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="GL128" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="GM128" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="GN128" t="n">
         <v>12</v>
@@ -82280,16 +82280,16 @@
         <v>6</v>
       </c>
       <c r="GP128" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="GQ128" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="GR128" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="GS128" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="GT128" t="n">
         <v>66</v>
@@ -82298,7 +82298,7 @@
         <v>56</v>
       </c>
       <c r="GV128" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="GW128" t="n">
         <v>44</v>
@@ -82310,13 +82310,13 @@
         <v>23</v>
       </c>
       <c r="GZ128" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="HA128" t="n">
         <v>143</v>
       </c>
       <c r="HB128" t="n">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="HC128" t="n">
         <v>170</v>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC128"/>
+  <dimension ref="A1:HC129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80973,7 +80973,7 @@
         <v>2</v>
       </c>
       <c r="GE126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="GF126" t="n">
         <v>1</v>
@@ -81610,7 +81610,7 @@
         <v>2</v>
       </c>
       <c r="GE127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="GF127" t="n">
         <v>1</v>
@@ -81986,7 +81986,7 @@
         <v>221</v>
       </c>
       <c r="CV128" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CW128" t="n">
         <v>5673</v>
@@ -82214,7 +82214,7 @@
         <v>173</v>
       </c>
       <c r="FT128" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="FU128" t="n">
         <v>172</v>
@@ -82247,7 +82247,7 @@
         <v>2</v>
       </c>
       <c r="GE128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="GF128" t="n">
         <v>1</v>
@@ -82320,6 +82320,643 @@
       </c>
       <c r="HC128" t="n">
         <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>560</v>
+      </c>
+      <c r="C129" t="n">
+        <v>153</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69</v>
+      </c>
+      <c r="E129" t="n">
+        <v>308</v>
+      </c>
+      <c r="F129" t="n">
+        <v>793</v>
+      </c>
+      <c r="G129" t="n">
+        <v>497</v>
+      </c>
+      <c r="H129" t="n">
+        <v>94</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>285</v>
+      </c>
+      <c r="K129" t="n">
+        <v>278</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>121</v>
+      </c>
+      <c r="N129" t="n">
+        <v>25</v>
+      </c>
+      <c r="O129" t="n">
+        <v>71</v>
+      </c>
+      <c r="P129" t="n">
+        <v>342</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>440</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>125</v>
+      </c>
+      <c r="T129" t="n">
+        <v>243</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>43</v>
+      </c>
+      <c r="W129" t="n">
+        <v>15</v>
+      </c>
+      <c r="X129" t="n">
+        <v>488</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>395</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>288</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>242</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>164</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>512</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>118</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1247</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>216</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>205</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>43</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1448</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>124</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>129</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>94</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>64</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>295</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>2981</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>445</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>78</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>166</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>211</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>221</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>65</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>111</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>71</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>386</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>132</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ129" t="n">
+        <v>173</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>270</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>61</v>
+      </c>
+      <c r="BT129" t="n">
+        <v>370</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV129" t="n">
+        <v>101</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>85</v>
+      </c>
+      <c r="BY129" t="n">
+        <v>86</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>172</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>564</v>
+      </c>
+      <c r="CB129" t="n">
+        <v>199</v>
+      </c>
+      <c r="CC129" t="n">
+        <v>795</v>
+      </c>
+      <c r="CD129" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE129" t="n">
+        <v>321</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG129" t="n">
+        <v>73</v>
+      </c>
+      <c r="CH129" t="n">
+        <v>27</v>
+      </c>
+      <c r="CI129" t="n">
+        <v>524</v>
+      </c>
+      <c r="CJ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK129" t="n">
+        <v>37</v>
+      </c>
+      <c r="CL129" t="n">
+        <v>193</v>
+      </c>
+      <c r="CM129" t="n">
+        <v>18</v>
+      </c>
+      <c r="CN129" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO129" t="n">
+        <v>588</v>
+      </c>
+      <c r="CP129" t="n">
+        <v>172</v>
+      </c>
+      <c r="CQ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR129" t="n">
+        <v>105</v>
+      </c>
+      <c r="CS129" t="n">
+        <v>613</v>
+      </c>
+      <c r="CT129" t="n">
+        <v>32</v>
+      </c>
+      <c r="CU129" t="n">
+        <v>222</v>
+      </c>
+      <c r="CV129" t="n">
+        <v>111</v>
+      </c>
+      <c r="CW129" t="n">
+        <v>5715</v>
+      </c>
+      <c r="CX129" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY129" t="n">
+        <v>183</v>
+      </c>
+      <c r="CZ129" t="n">
+        <v>175</v>
+      </c>
+      <c r="DA129" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB129" t="n">
+        <v>134</v>
+      </c>
+      <c r="DC129" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD129" t="n">
+        <v>162</v>
+      </c>
+      <c r="DE129" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF129" t="n">
+        <v>107</v>
+      </c>
+      <c r="DG129" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH129" t="n">
+        <v>104</v>
+      </c>
+      <c r="DI129" t="n">
+        <v>51</v>
+      </c>
+      <c r="DJ129" t="n">
+        <v>72</v>
+      </c>
+      <c r="DK129" t="n">
+        <v>134</v>
+      </c>
+      <c r="DL129" t="n">
+        <v>27</v>
+      </c>
+      <c r="DM129" t="n">
+        <v>249</v>
+      </c>
+      <c r="DN129" t="n">
+        <v>58</v>
+      </c>
+      <c r="DO129" t="n">
+        <v>198</v>
+      </c>
+      <c r="DP129" t="n">
+        <v>594</v>
+      </c>
+      <c r="DQ129" t="n">
+        <v>156</v>
+      </c>
+      <c r="DR129" t="n">
+        <v>80</v>
+      </c>
+      <c r="DS129" t="n">
+        <v>152</v>
+      </c>
+      <c r="DT129" t="n">
+        <v>18</v>
+      </c>
+      <c r="DU129" t="n">
+        <v>26</v>
+      </c>
+      <c r="DV129" t="n">
+        <v>302</v>
+      </c>
+      <c r="DW129" t="n">
+        <v>153</v>
+      </c>
+      <c r="DX129" t="n">
+        <v>4474</v>
+      </c>
+      <c r="DY129" t="n">
+        <v>115</v>
+      </c>
+      <c r="DZ129" t="n">
+        <v>21</v>
+      </c>
+      <c r="EA129" t="n">
+        <v>151</v>
+      </c>
+      <c r="EB129" t="n">
+        <v>152</v>
+      </c>
+      <c r="EC129" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED129" t="n">
+        <v>1079</v>
+      </c>
+      <c r="EE129" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF129" t="n">
+        <v>243</v>
+      </c>
+      <c r="EG129" t="n">
+        <v>13</v>
+      </c>
+      <c r="EH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI129" t="n">
+        <v>65</v>
+      </c>
+      <c r="EJ129" t="n">
+        <v>201</v>
+      </c>
+      <c r="EK129" t="n">
+        <v>478</v>
+      </c>
+      <c r="EL129" t="n">
+        <v>2951</v>
+      </c>
+      <c r="EM129" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN129" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO129" t="n">
+        <v>415</v>
+      </c>
+      <c r="EP129" t="n">
+        <v>81</v>
+      </c>
+      <c r="EQ129" t="n">
+        <v>1272</v>
+      </c>
+      <c r="ER129" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES129" t="n">
+        <v>494</v>
+      </c>
+      <c r="ET129" t="n">
+        <v>68</v>
+      </c>
+      <c r="EU129" t="n">
+        <v>228</v>
+      </c>
+      <c r="EV129" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW129" t="n">
+        <v>23839</v>
+      </c>
+      <c r="EX129" t="n">
+        <v>190</v>
+      </c>
+      <c r="EY129" t="n">
+        <v>156</v>
+      </c>
+      <c r="EZ129" t="n">
+        <v>151</v>
+      </c>
+      <c r="FA129" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB129" t="n">
+        <v>33</v>
+      </c>
+      <c r="FC129" t="n">
+        <v>223</v>
+      </c>
+      <c r="FD129" t="n">
+        <v>39</v>
+      </c>
+      <c r="FE129" t="n">
+        <v>178</v>
+      </c>
+      <c r="FF129" t="n">
+        <v>29</v>
+      </c>
+      <c r="FG129" t="n">
+        <v>22</v>
+      </c>
+      <c r="FH129" t="n">
+        <v>1226</v>
+      </c>
+      <c r="FI129" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ129" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK129" t="n">
+        <v>74</v>
+      </c>
+      <c r="FL129" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM129" t="n">
+        <v>23</v>
+      </c>
+      <c r="FN129" t="n">
+        <v>340</v>
+      </c>
+      <c r="FO129" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP129" t="n">
+        <v>193</v>
+      </c>
+      <c r="FQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR129" t="n">
+        <v>17</v>
+      </c>
+      <c r="FS129" t="n">
+        <v>180</v>
+      </c>
+      <c r="FT129" t="n">
+        <v>246</v>
+      </c>
+      <c r="FU129" t="n">
+        <v>172</v>
+      </c>
+      <c r="FV129" t="n">
+        <v>110</v>
+      </c>
+      <c r="FW129" t="n">
+        <v>667</v>
+      </c>
+      <c r="FX129" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY129" t="n">
+        <v>183</v>
+      </c>
+      <c r="FZ129" t="n">
+        <v>913</v>
+      </c>
+      <c r="GA129" t="n">
+        <v>43</v>
+      </c>
+      <c r="GB129" t="n">
+        <v>182</v>
+      </c>
+      <c r="GC129" t="n">
+        <v>278</v>
+      </c>
+      <c r="GD129" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE129" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF129" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG129" t="n">
+        <v>494</v>
+      </c>
+      <c r="GH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI129" t="n">
+        <v>252</v>
+      </c>
+      <c r="GJ129" t="n">
+        <v>79</v>
+      </c>
+      <c r="GK129" t="n">
+        <v>188</v>
+      </c>
+      <c r="GL129" t="n">
+        <v>235</v>
+      </c>
+      <c r="GM129" t="n">
+        <v>32</v>
+      </c>
+      <c r="GN129" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO129" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP129" t="n">
+        <v>419</v>
+      </c>
+      <c r="GQ129" t="n">
+        <v>288</v>
+      </c>
+      <c r="GR129" t="n">
+        <v>36</v>
+      </c>
+      <c r="GS129" t="n">
+        <v>178</v>
+      </c>
+      <c r="GT129" t="n">
+        <v>66</v>
+      </c>
+      <c r="GU129" t="n">
+        <v>80</v>
+      </c>
+      <c r="GV129" t="n">
+        <v>30</v>
+      </c>
+      <c r="GW129" t="n">
+        <v>44</v>
+      </c>
+      <c r="GX129" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY129" t="n">
+        <v>23</v>
+      </c>
+      <c r="GZ129" t="n">
+        <v>112</v>
+      </c>
+      <c r="HA129" t="n">
+        <v>148</v>
+      </c>
+      <c r="HB129" t="n">
+        <v>1186</v>
+      </c>
+      <c r="HC129" t="n">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC129"/>
+  <dimension ref="A1:HC130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82701,7 +82701,7 @@
         <v>26</v>
       </c>
       <c r="DV129" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="DW129" t="n">
         <v>153</v>
@@ -82956,6 +82956,643 @@
         <v>1186</v>
       </c>
       <c r="HC129" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>561</v>
+      </c>
+      <c r="C130" t="n">
+        <v>155</v>
+      </c>
+      <c r="D130" t="n">
+        <v>69</v>
+      </c>
+      <c r="E130" t="n">
+        <v>316</v>
+      </c>
+      <c r="F130" t="n">
+        <v>797</v>
+      </c>
+      <c r="G130" t="n">
+        <v>509</v>
+      </c>
+      <c r="H130" t="n">
+        <v>94</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>285</v>
+      </c>
+      <c r="K130" t="n">
+        <v>281</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>122</v>
+      </c>
+      <c r="N130" t="n">
+        <v>28</v>
+      </c>
+      <c r="O130" t="n">
+        <v>71</v>
+      </c>
+      <c r="P130" t="n">
+        <v>359</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>450</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>125</v>
+      </c>
+      <c r="T130" t="n">
+        <v>243</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1</v>
+      </c>
+      <c r="V130" t="n">
+        <v>44</v>
+      </c>
+      <c r="W130" t="n">
+        <v>15</v>
+      </c>
+      <c r="X130" t="n">
+        <v>492</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>413</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>168</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>527</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1262</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>224</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>212</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>182</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1452</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>96</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>124</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>140</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>94</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>65</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>299</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>3064</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>451</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>78</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>166</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>212</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>223</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>65</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>111</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>72</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>397</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>133</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ130" t="n">
+        <v>175</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>276</v>
+      </c>
+      <c r="BS130" t="n">
+        <v>72</v>
+      </c>
+      <c r="BT130" t="n">
+        <v>373</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV130" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW130" t="n">
+        <v>31</v>
+      </c>
+      <c r="BX130" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY130" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>172</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>578</v>
+      </c>
+      <c r="CB130" t="n">
+        <v>201</v>
+      </c>
+      <c r="CC130" t="n">
+        <v>808</v>
+      </c>
+      <c r="CD130" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE130" t="n">
+        <v>331</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG130" t="n">
+        <v>73</v>
+      </c>
+      <c r="CH130" t="n">
+        <v>27</v>
+      </c>
+      <c r="CI130" t="n">
+        <v>525</v>
+      </c>
+      <c r="CJ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK130" t="n">
+        <v>37</v>
+      </c>
+      <c r="CL130" t="n">
+        <v>194</v>
+      </c>
+      <c r="CM130" t="n">
+        <v>18</v>
+      </c>
+      <c r="CN130" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO130" t="n">
+        <v>600</v>
+      </c>
+      <c r="CP130" t="n">
+        <v>176</v>
+      </c>
+      <c r="CQ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR130" t="n">
+        <v>105</v>
+      </c>
+      <c r="CS130" t="n">
+        <v>615</v>
+      </c>
+      <c r="CT130" t="n">
+        <v>32</v>
+      </c>
+      <c r="CU130" t="n">
+        <v>222</v>
+      </c>
+      <c r="CV130" t="n">
+        <v>112</v>
+      </c>
+      <c r="CW130" t="n">
+        <v>5751</v>
+      </c>
+      <c r="CX130" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY130" t="n">
+        <v>186</v>
+      </c>
+      <c r="CZ130" t="n">
+        <v>185</v>
+      </c>
+      <c r="DA130" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB130" t="n">
+        <v>134</v>
+      </c>
+      <c r="DC130" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD130" t="n">
+        <v>164</v>
+      </c>
+      <c r="DE130" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF130" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG130" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH130" t="n">
+        <v>114</v>
+      </c>
+      <c r="DI130" t="n">
+        <v>53</v>
+      </c>
+      <c r="DJ130" t="n">
+        <v>76</v>
+      </c>
+      <c r="DK130" t="n">
+        <v>135</v>
+      </c>
+      <c r="DL130" t="n">
+        <v>28</v>
+      </c>
+      <c r="DM130" t="n">
+        <v>251</v>
+      </c>
+      <c r="DN130" t="n">
+        <v>64</v>
+      </c>
+      <c r="DO130" t="n">
+        <v>202</v>
+      </c>
+      <c r="DP130" t="n">
+        <v>598</v>
+      </c>
+      <c r="DQ130" t="n">
+        <v>157</v>
+      </c>
+      <c r="DR130" t="n">
+        <v>80</v>
+      </c>
+      <c r="DS130" t="n">
+        <v>153</v>
+      </c>
+      <c r="DT130" t="n">
+        <v>18</v>
+      </c>
+      <c r="DU130" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV130" t="n">
+        <v>301</v>
+      </c>
+      <c r="DW130" t="n">
+        <v>155</v>
+      </c>
+      <c r="DX130" t="n">
+        <v>4506</v>
+      </c>
+      <c r="DY130" t="n">
+        <v>115</v>
+      </c>
+      <c r="DZ130" t="n">
+        <v>21</v>
+      </c>
+      <c r="EA130" t="n">
+        <v>154</v>
+      </c>
+      <c r="EB130" t="n">
+        <v>154</v>
+      </c>
+      <c r="EC130" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED130" t="n">
+        <v>1108</v>
+      </c>
+      <c r="EE130" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF130" t="n">
+        <v>251</v>
+      </c>
+      <c r="EG130" t="n">
+        <v>13</v>
+      </c>
+      <c r="EH130" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI130" t="n">
+        <v>65</v>
+      </c>
+      <c r="EJ130" t="n">
+        <v>205</v>
+      </c>
+      <c r="EK130" t="n">
+        <v>485</v>
+      </c>
+      <c r="EL130" t="n">
+        <v>2971</v>
+      </c>
+      <c r="EM130" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN130" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO130" t="n">
+        <v>426</v>
+      </c>
+      <c r="EP130" t="n">
+        <v>84</v>
+      </c>
+      <c r="EQ130" t="n">
+        <v>1291</v>
+      </c>
+      <c r="ER130" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES130" t="n">
+        <v>502</v>
+      </c>
+      <c r="ET130" t="n">
+        <v>68</v>
+      </c>
+      <c r="EU130" t="n">
+        <v>229</v>
+      </c>
+      <c r="EV130" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW130" t="n">
+        <v>23969</v>
+      </c>
+      <c r="EX130" t="n">
+        <v>204</v>
+      </c>
+      <c r="EY130" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ130" t="n">
+        <v>153</v>
+      </c>
+      <c r="FA130" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB130" t="n">
+        <v>33</v>
+      </c>
+      <c r="FC130" t="n">
+        <v>226</v>
+      </c>
+      <c r="FD130" t="n">
+        <v>39</v>
+      </c>
+      <c r="FE130" t="n">
+        <v>212</v>
+      </c>
+      <c r="FF130" t="n">
+        <v>31</v>
+      </c>
+      <c r="FG130" t="n">
+        <v>23</v>
+      </c>
+      <c r="FH130" t="n">
+        <v>1262</v>
+      </c>
+      <c r="FI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ130" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK130" t="n">
+        <v>74</v>
+      </c>
+      <c r="FL130" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM130" t="n">
+        <v>30</v>
+      </c>
+      <c r="FN130" t="n">
+        <v>350</v>
+      </c>
+      <c r="FO130" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP130" t="n">
+        <v>194</v>
+      </c>
+      <c r="FQ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR130" t="n">
+        <v>17</v>
+      </c>
+      <c r="FS130" t="n">
+        <v>182</v>
+      </c>
+      <c r="FT130" t="n">
+        <v>247</v>
+      </c>
+      <c r="FU130" t="n">
+        <v>177</v>
+      </c>
+      <c r="FV130" t="n">
+        <v>133</v>
+      </c>
+      <c r="FW130" t="n">
+        <v>672</v>
+      </c>
+      <c r="FX130" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY130" t="n">
+        <v>186</v>
+      </c>
+      <c r="FZ130" t="n">
+        <v>970</v>
+      </c>
+      <c r="GA130" t="n">
+        <v>45</v>
+      </c>
+      <c r="GB130" t="n">
+        <v>183</v>
+      </c>
+      <c r="GC130" t="n">
+        <v>280</v>
+      </c>
+      <c r="GD130" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE130" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF130" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG130" t="n">
+        <v>506</v>
+      </c>
+      <c r="GH130" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI130" t="n">
+        <v>252</v>
+      </c>
+      <c r="GJ130" t="n">
+        <v>81</v>
+      </c>
+      <c r="GK130" t="n">
+        <v>194</v>
+      </c>
+      <c r="GL130" t="n">
+        <v>243</v>
+      </c>
+      <c r="GM130" t="n">
+        <v>33</v>
+      </c>
+      <c r="GN130" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO130" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP130" t="n">
+        <v>430</v>
+      </c>
+      <c r="GQ130" t="n">
+        <v>295</v>
+      </c>
+      <c r="GR130" t="n">
+        <v>36</v>
+      </c>
+      <c r="GS130" t="n">
+        <v>181</v>
+      </c>
+      <c r="GT130" t="n">
+        <v>67</v>
+      </c>
+      <c r="GU130" t="n">
+        <v>92</v>
+      </c>
+      <c r="GV130" t="n">
+        <v>30</v>
+      </c>
+      <c r="GW130" t="n">
+        <v>46</v>
+      </c>
+      <c r="GX130" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY130" t="n">
+        <v>24</v>
+      </c>
+      <c r="GZ130" t="n">
+        <v>112</v>
+      </c>
+      <c r="HA130" t="n">
+        <v>149</v>
+      </c>
+      <c r="HB130" t="n">
+        <v>1199</v>
+      </c>
+      <c r="HC130" t="n">
         <v>172</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC130"/>
+  <dimension ref="A1:HC131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83596,6 +83596,643 @@
         <v>172</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>574</v>
+      </c>
+      <c r="C131" t="n">
+        <v>162</v>
+      </c>
+      <c r="D131" t="n">
+        <v>73</v>
+      </c>
+      <c r="E131" t="n">
+        <v>319</v>
+      </c>
+      <c r="F131" t="n">
+        <v>799</v>
+      </c>
+      <c r="G131" t="n">
+        <v>509</v>
+      </c>
+      <c r="H131" t="n">
+        <v>95</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>285</v>
+      </c>
+      <c r="K131" t="n">
+        <v>285</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>123</v>
+      </c>
+      <c r="N131" t="n">
+        <v>28</v>
+      </c>
+      <c r="O131" t="n">
+        <v>71</v>
+      </c>
+      <c r="P131" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>454</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>127</v>
+      </c>
+      <c r="T131" t="n">
+        <v>245</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>44</v>
+      </c>
+      <c r="W131" t="n">
+        <v>15</v>
+      </c>
+      <c r="X131" t="n">
+        <v>492</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>448</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>306</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>172</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>530</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1278</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>216</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>183</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1467</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>97</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>140</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>94</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>303</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>3144</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>452</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>168</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>212</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>226</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>67</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>112</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>76</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>400</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>134</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ131" t="n">
+        <v>175</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>284</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>80</v>
+      </c>
+      <c r="BT131" t="n">
+        <v>374</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV131" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW131" t="n">
+        <v>34</v>
+      </c>
+      <c r="BX131" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY131" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ131" t="n">
+        <v>172</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>586</v>
+      </c>
+      <c r="CB131" t="n">
+        <v>201</v>
+      </c>
+      <c r="CC131" t="n">
+        <v>811</v>
+      </c>
+      <c r="CD131" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE131" t="n">
+        <v>338</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG131" t="n">
+        <v>77</v>
+      </c>
+      <c r="CH131" t="n">
+        <v>27</v>
+      </c>
+      <c r="CI131" t="n">
+        <v>528</v>
+      </c>
+      <c r="CJ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK131" t="n">
+        <v>37</v>
+      </c>
+      <c r="CL131" t="n">
+        <v>200</v>
+      </c>
+      <c r="CM131" t="n">
+        <v>19</v>
+      </c>
+      <c r="CN131" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO131" t="n">
+        <v>618</v>
+      </c>
+      <c r="CP131" t="n">
+        <v>180</v>
+      </c>
+      <c r="CQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR131" t="n">
+        <v>110</v>
+      </c>
+      <c r="CS131" t="n">
+        <v>619</v>
+      </c>
+      <c r="CT131" t="n">
+        <v>34</v>
+      </c>
+      <c r="CU131" t="n">
+        <v>224</v>
+      </c>
+      <c r="CV131" t="n">
+        <v>114</v>
+      </c>
+      <c r="CW131" t="n">
+        <v>5856</v>
+      </c>
+      <c r="CX131" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY131" t="n">
+        <v>186</v>
+      </c>
+      <c r="CZ131" t="n">
+        <v>193</v>
+      </c>
+      <c r="DA131" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB131" t="n">
+        <v>135</v>
+      </c>
+      <c r="DC131" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD131" t="n">
+        <v>164</v>
+      </c>
+      <c r="DE131" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF131" t="n">
+        <v>115</v>
+      </c>
+      <c r="DG131" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH131" t="n">
+        <v>116</v>
+      </c>
+      <c r="DI131" t="n">
+        <v>53</v>
+      </c>
+      <c r="DJ131" t="n">
+        <v>76</v>
+      </c>
+      <c r="DK131" t="n">
+        <v>137</v>
+      </c>
+      <c r="DL131" t="n">
+        <v>28</v>
+      </c>
+      <c r="DM131" t="n">
+        <v>255</v>
+      </c>
+      <c r="DN131" t="n">
+        <v>64</v>
+      </c>
+      <c r="DO131" t="n">
+        <v>206</v>
+      </c>
+      <c r="DP131" t="n">
+        <v>601</v>
+      </c>
+      <c r="DQ131" t="n">
+        <v>157</v>
+      </c>
+      <c r="DR131" t="n">
+        <v>80</v>
+      </c>
+      <c r="DS131" t="n">
+        <v>157</v>
+      </c>
+      <c r="DT131" t="n">
+        <v>18</v>
+      </c>
+      <c r="DU131" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV131" t="n">
+        <v>301</v>
+      </c>
+      <c r="DW131" t="n">
+        <v>157</v>
+      </c>
+      <c r="DX131" t="n">
+        <v>4524</v>
+      </c>
+      <c r="DY131" t="n">
+        <v>115</v>
+      </c>
+      <c r="DZ131" t="n">
+        <v>22</v>
+      </c>
+      <c r="EA131" t="n">
+        <v>157</v>
+      </c>
+      <c r="EB131" t="n">
+        <v>154</v>
+      </c>
+      <c r="EC131" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED131" t="n">
+        <v>1118</v>
+      </c>
+      <c r="EE131" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF131" t="n">
+        <v>253</v>
+      </c>
+      <c r="EG131" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI131" t="n">
+        <v>67</v>
+      </c>
+      <c r="EJ131" t="n">
+        <v>207</v>
+      </c>
+      <c r="EK131" t="n">
+        <v>489</v>
+      </c>
+      <c r="EL131" t="n">
+        <v>2990</v>
+      </c>
+      <c r="EM131" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN131" t="n">
+        <v>60</v>
+      </c>
+      <c r="EO131" t="n">
+        <v>464</v>
+      </c>
+      <c r="EP131" t="n">
+        <v>85</v>
+      </c>
+      <c r="EQ131" t="n">
+        <v>1316</v>
+      </c>
+      <c r="ER131" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES131" t="n">
+        <v>516</v>
+      </c>
+      <c r="ET131" t="n">
+        <v>68</v>
+      </c>
+      <c r="EU131" t="n">
+        <v>234</v>
+      </c>
+      <c r="EV131" t="n">
+        <v>27</v>
+      </c>
+      <c r="EW131" t="n">
+        <v>24157</v>
+      </c>
+      <c r="EX131" t="n">
+        <v>209</v>
+      </c>
+      <c r="EY131" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ131" t="n">
+        <v>153</v>
+      </c>
+      <c r="FA131" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB131" t="n">
+        <v>34</v>
+      </c>
+      <c r="FC131" t="n">
+        <v>230</v>
+      </c>
+      <c r="FD131" t="n">
+        <v>39</v>
+      </c>
+      <c r="FE131" t="n">
+        <v>216</v>
+      </c>
+      <c r="FF131" t="n">
+        <v>32</v>
+      </c>
+      <c r="FG131" t="n">
+        <v>25</v>
+      </c>
+      <c r="FH131" t="n">
+        <v>1278</v>
+      </c>
+      <c r="FI131" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ131" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK131" t="n">
+        <v>75</v>
+      </c>
+      <c r="FL131" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM131" t="n">
+        <v>31</v>
+      </c>
+      <c r="FN131" t="n">
+        <v>357</v>
+      </c>
+      <c r="FO131" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP131" t="n">
+        <v>197</v>
+      </c>
+      <c r="FQ131" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR131" t="n">
+        <v>17</v>
+      </c>
+      <c r="FS131" t="n">
+        <v>183</v>
+      </c>
+      <c r="FT131" t="n">
+        <v>248</v>
+      </c>
+      <c r="FU131" t="n">
+        <v>179</v>
+      </c>
+      <c r="FV131" t="n">
+        <v>135</v>
+      </c>
+      <c r="FW131" t="n">
+        <v>673</v>
+      </c>
+      <c r="FX131" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY131" t="n">
+        <v>186</v>
+      </c>
+      <c r="FZ131" t="n">
+        <v>980</v>
+      </c>
+      <c r="GA131" t="n">
+        <v>45</v>
+      </c>
+      <c r="GB131" t="n">
+        <v>188</v>
+      </c>
+      <c r="GC131" t="n">
+        <v>285</v>
+      </c>
+      <c r="GD131" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE131" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF131" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG131" t="n">
+        <v>513</v>
+      </c>
+      <c r="GH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI131" t="n">
+        <v>257</v>
+      </c>
+      <c r="GJ131" t="n">
+        <v>81</v>
+      </c>
+      <c r="GK131" t="n">
+        <v>194</v>
+      </c>
+      <c r="GL131" t="n">
+        <v>243</v>
+      </c>
+      <c r="GM131" t="n">
+        <v>33</v>
+      </c>
+      <c r="GN131" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO131" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP131" t="n">
+        <v>433</v>
+      </c>
+      <c r="GQ131" t="n">
+        <v>297</v>
+      </c>
+      <c r="GR131" t="n">
+        <v>36</v>
+      </c>
+      <c r="GS131" t="n">
+        <v>185</v>
+      </c>
+      <c r="GT131" t="n">
+        <v>67</v>
+      </c>
+      <c r="GU131" t="n">
+        <v>95</v>
+      </c>
+      <c r="GV131" t="n">
+        <v>30</v>
+      </c>
+      <c r="GW131" t="n">
+        <v>47</v>
+      </c>
+      <c r="GX131" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY131" t="n">
+        <v>24</v>
+      </c>
+      <c r="GZ131" t="n">
+        <v>113</v>
+      </c>
+      <c r="HA131" t="n">
+        <v>149</v>
+      </c>
+      <c r="HB131" t="n">
+        <v>1202</v>
+      </c>
+      <c r="HC131" t="n">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC131"/>
+  <dimension ref="A1:HC132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84233,6 +84233,643 @@
         <v>172</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>577</v>
+      </c>
+      <c r="C132" t="n">
+        <v>164</v>
+      </c>
+      <c r="D132" t="n">
+        <v>73</v>
+      </c>
+      <c r="E132" t="n">
+        <v>323</v>
+      </c>
+      <c r="F132" t="n">
+        <v>800</v>
+      </c>
+      <c r="G132" t="n">
+        <v>515</v>
+      </c>
+      <c r="H132" t="n">
+        <v>95</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>286</v>
+      </c>
+      <c r="K132" t="n">
+        <v>289</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>123</v>
+      </c>
+      <c r="N132" t="n">
+        <v>29</v>
+      </c>
+      <c r="O132" t="n">
+        <v>71</v>
+      </c>
+      <c r="P132" t="n">
+        <v>378</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>455</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>129</v>
+      </c>
+      <c r="T132" t="n">
+        <v>248</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>46</v>
+      </c>
+      <c r="W132" t="n">
+        <v>15</v>
+      </c>
+      <c r="X132" t="n">
+        <v>495</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>310</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>172</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>535</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1289</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>233</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>223</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>33</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1488</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>99</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>145</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>98</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>305</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>3168</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>455</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>169</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>215</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>227</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>67</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>76</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>401</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>135</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ132" t="n">
+        <v>175</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>286</v>
+      </c>
+      <c r="BS132" t="n">
+        <v>82</v>
+      </c>
+      <c r="BT132" t="n">
+        <v>374</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV132" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW132" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX132" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY132" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>173</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>588</v>
+      </c>
+      <c r="CB132" t="n">
+        <v>203</v>
+      </c>
+      <c r="CC132" t="n">
+        <v>815</v>
+      </c>
+      <c r="CD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE132" t="n">
+        <v>346</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG132" t="n">
+        <v>77</v>
+      </c>
+      <c r="CH132" t="n">
+        <v>27</v>
+      </c>
+      <c r="CI132" t="n">
+        <v>534</v>
+      </c>
+      <c r="CJ132" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK132" t="n">
+        <v>37</v>
+      </c>
+      <c r="CL132" t="n">
+        <v>201</v>
+      </c>
+      <c r="CM132" t="n">
+        <v>19</v>
+      </c>
+      <c r="CN132" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO132" t="n">
+        <v>621</v>
+      </c>
+      <c r="CP132" t="n">
+        <v>183</v>
+      </c>
+      <c r="CQ132" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR132" t="n">
+        <v>112</v>
+      </c>
+      <c r="CS132" t="n">
+        <v>620</v>
+      </c>
+      <c r="CT132" t="n">
+        <v>34</v>
+      </c>
+      <c r="CU132" t="n">
+        <v>224</v>
+      </c>
+      <c r="CV132" t="n">
+        <v>116</v>
+      </c>
+      <c r="CW132" t="n">
+        <v>5896</v>
+      </c>
+      <c r="CX132" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY132" t="n">
+        <v>190</v>
+      </c>
+      <c r="CZ132" t="n">
+        <v>193</v>
+      </c>
+      <c r="DA132" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB132" t="n">
+        <v>136</v>
+      </c>
+      <c r="DC132" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD132" t="n">
+        <v>164</v>
+      </c>
+      <c r="DE132" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF132" t="n">
+        <v>116</v>
+      </c>
+      <c r="DG132" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH132" t="n">
+        <v>123</v>
+      </c>
+      <c r="DI132" t="n">
+        <v>55</v>
+      </c>
+      <c r="DJ132" t="n">
+        <v>77</v>
+      </c>
+      <c r="DK132" t="n">
+        <v>137</v>
+      </c>
+      <c r="DL132" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM132" t="n">
+        <v>256</v>
+      </c>
+      <c r="DN132" t="n">
+        <v>68</v>
+      </c>
+      <c r="DO132" t="n">
+        <v>207</v>
+      </c>
+      <c r="DP132" t="n">
+        <v>606</v>
+      </c>
+      <c r="DQ132" t="n">
+        <v>157</v>
+      </c>
+      <c r="DR132" t="n">
+        <v>80</v>
+      </c>
+      <c r="DS132" t="n">
+        <v>159</v>
+      </c>
+      <c r="DT132" t="n">
+        <v>18</v>
+      </c>
+      <c r="DU132" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV132" t="n">
+        <v>302</v>
+      </c>
+      <c r="DW132" t="n">
+        <v>160</v>
+      </c>
+      <c r="DX132" t="n">
+        <v>4548</v>
+      </c>
+      <c r="DY132" t="n">
+        <v>115</v>
+      </c>
+      <c r="DZ132" t="n">
+        <v>22</v>
+      </c>
+      <c r="EA132" t="n">
+        <v>158</v>
+      </c>
+      <c r="EB132" t="n">
+        <v>157</v>
+      </c>
+      <c r="EC132" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED132" t="n">
+        <v>1122</v>
+      </c>
+      <c r="EE132" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF132" t="n">
+        <v>260</v>
+      </c>
+      <c r="EG132" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI132" t="n">
+        <v>70</v>
+      </c>
+      <c r="EJ132" t="n">
+        <v>209</v>
+      </c>
+      <c r="EK132" t="n">
+        <v>490</v>
+      </c>
+      <c r="EL132" t="n">
+        <v>3005</v>
+      </c>
+      <c r="EM132" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN132" t="n">
+        <v>60</v>
+      </c>
+      <c r="EO132" t="n">
+        <v>487</v>
+      </c>
+      <c r="EP132" t="n">
+        <v>85</v>
+      </c>
+      <c r="EQ132" t="n">
+        <v>1334</v>
+      </c>
+      <c r="ER132" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES132" t="n">
+        <v>519</v>
+      </c>
+      <c r="ET132" t="n">
+        <v>68</v>
+      </c>
+      <c r="EU132" t="n">
+        <v>237</v>
+      </c>
+      <c r="EV132" t="n">
+        <v>27</v>
+      </c>
+      <c r="EW132" t="n">
+        <v>24308</v>
+      </c>
+      <c r="EX132" t="n">
+        <v>209</v>
+      </c>
+      <c r="EY132" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ132" t="n">
+        <v>157</v>
+      </c>
+      <c r="FA132" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB132" t="n">
+        <v>34</v>
+      </c>
+      <c r="FC132" t="n">
+        <v>233</v>
+      </c>
+      <c r="FD132" t="n">
+        <v>39</v>
+      </c>
+      <c r="FE132" t="n">
+        <v>233</v>
+      </c>
+      <c r="FF132" t="n">
+        <v>33</v>
+      </c>
+      <c r="FG132" t="n">
+        <v>25</v>
+      </c>
+      <c r="FH132" t="n">
+        <v>1284</v>
+      </c>
+      <c r="FI132" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ132" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK132" t="n">
+        <v>76</v>
+      </c>
+      <c r="FL132" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM132" t="n">
+        <v>31</v>
+      </c>
+      <c r="FN132" t="n">
+        <v>362</v>
+      </c>
+      <c r="FO132" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP132" t="n">
+        <v>199</v>
+      </c>
+      <c r="FQ132" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR132" t="n">
+        <v>17</v>
+      </c>
+      <c r="FS132" t="n">
+        <v>183</v>
+      </c>
+      <c r="FT132" t="n">
+        <v>248</v>
+      </c>
+      <c r="FU132" t="n">
+        <v>182</v>
+      </c>
+      <c r="FV132" t="n">
+        <v>136</v>
+      </c>
+      <c r="FW132" t="n">
+        <v>682</v>
+      </c>
+      <c r="FX132" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY132" t="n">
+        <v>191</v>
+      </c>
+      <c r="FZ132" t="n">
+        <v>985</v>
+      </c>
+      <c r="GA132" t="n">
+        <v>49</v>
+      </c>
+      <c r="GB132" t="n">
+        <v>191</v>
+      </c>
+      <c r="GC132" t="n">
+        <v>288</v>
+      </c>
+      <c r="GD132" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE132" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF132" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG132" t="n">
+        <v>543</v>
+      </c>
+      <c r="GH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI132" t="n">
+        <v>259</v>
+      </c>
+      <c r="GJ132" t="n">
+        <v>82</v>
+      </c>
+      <c r="GK132" t="n">
+        <v>195</v>
+      </c>
+      <c r="GL132" t="n">
+        <v>244</v>
+      </c>
+      <c r="GM132" t="n">
+        <v>34</v>
+      </c>
+      <c r="GN132" t="n">
+        <v>15</v>
+      </c>
+      <c r="GO132" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP132" t="n">
+        <v>439</v>
+      </c>
+      <c r="GQ132" t="n">
+        <v>299</v>
+      </c>
+      <c r="GR132" t="n">
+        <v>38</v>
+      </c>
+      <c r="GS132" t="n">
+        <v>185</v>
+      </c>
+      <c r="GT132" t="n">
+        <v>67</v>
+      </c>
+      <c r="GU132" t="n">
+        <v>95</v>
+      </c>
+      <c r="GV132" t="n">
+        <v>30</v>
+      </c>
+      <c r="GW132" t="n">
+        <v>48</v>
+      </c>
+      <c r="GX132" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY132" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ132" t="n">
+        <v>114</v>
+      </c>
+      <c r="HA132" t="n">
+        <v>155</v>
+      </c>
+      <c r="HB132" t="n">
+        <v>1212</v>
+      </c>
+      <c r="HC132" t="n">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC132"/>
+  <dimension ref="A1:HC133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84870,6 +84870,643 @@
         <v>172</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>578</v>
+      </c>
+      <c r="C133" t="n">
+        <v>165</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90</v>
+      </c>
+      <c r="E133" t="n">
+        <v>325</v>
+      </c>
+      <c r="F133" t="n">
+        <v>800</v>
+      </c>
+      <c r="G133" t="n">
+        <v>517</v>
+      </c>
+      <c r="H133" t="n">
+        <v>95</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>286</v>
+      </c>
+      <c r="K133" t="n">
+        <v>290</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>124</v>
+      </c>
+      <c r="N133" t="n">
+        <v>29</v>
+      </c>
+      <c r="O133" t="n">
+        <v>71</v>
+      </c>
+      <c r="P133" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>463</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>131</v>
+      </c>
+      <c r="T133" t="n">
+        <v>248</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1</v>
+      </c>
+      <c r="V133" t="n">
+        <v>48</v>
+      </c>
+      <c r="W133" t="n">
+        <v>15</v>
+      </c>
+      <c r="X133" t="n">
+        <v>495</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>450</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>311</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>172</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>539</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1293</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>236</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>224</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>193</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>33</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1498</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>99</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>146</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>71</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>305</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3180</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>455</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>169</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>215</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>227</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>67</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>77</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>404</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>155</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ133" t="n">
+        <v>175</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>286</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>82</v>
+      </c>
+      <c r="BT133" t="n">
+        <v>375</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV133" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>39</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY133" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>173</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>591</v>
+      </c>
+      <c r="CB133" t="n">
+        <v>203</v>
+      </c>
+      <c r="CC133" t="n">
+        <v>815</v>
+      </c>
+      <c r="CD133" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE133" t="n">
+        <v>346</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG133" t="n">
+        <v>77</v>
+      </c>
+      <c r="CH133" t="n">
+        <v>27</v>
+      </c>
+      <c r="CI133" t="n">
+        <v>535</v>
+      </c>
+      <c r="CJ133" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK133" t="n">
+        <v>39</v>
+      </c>
+      <c r="CL133" t="n">
+        <v>205</v>
+      </c>
+      <c r="CM133" t="n">
+        <v>19</v>
+      </c>
+      <c r="CN133" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO133" t="n">
+        <v>622</v>
+      </c>
+      <c r="CP133" t="n">
+        <v>184</v>
+      </c>
+      <c r="CQ133" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR133" t="n">
+        <v>112</v>
+      </c>
+      <c r="CS133" t="n">
+        <v>620</v>
+      </c>
+      <c r="CT133" t="n">
+        <v>34</v>
+      </c>
+      <c r="CU133" t="n">
+        <v>229</v>
+      </c>
+      <c r="CV133" t="n">
+        <v>116</v>
+      </c>
+      <c r="CW133" t="n">
+        <v>5902</v>
+      </c>
+      <c r="CX133" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY133" t="n">
+        <v>190</v>
+      </c>
+      <c r="CZ133" t="n">
+        <v>193</v>
+      </c>
+      <c r="DA133" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB133" t="n">
+        <v>137</v>
+      </c>
+      <c r="DC133" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD133" t="n">
+        <v>165</v>
+      </c>
+      <c r="DE133" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF133" t="n">
+        <v>116</v>
+      </c>
+      <c r="DG133" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH133" t="n">
+        <v>127</v>
+      </c>
+      <c r="DI133" t="n">
+        <v>55</v>
+      </c>
+      <c r="DJ133" t="n">
+        <v>77</v>
+      </c>
+      <c r="DK133" t="n">
+        <v>137</v>
+      </c>
+      <c r="DL133" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM133" t="n">
+        <v>256</v>
+      </c>
+      <c r="DN133" t="n">
+        <v>69</v>
+      </c>
+      <c r="DO133" t="n">
+        <v>208</v>
+      </c>
+      <c r="DP133" t="n">
+        <v>607</v>
+      </c>
+      <c r="DQ133" t="n">
+        <v>157</v>
+      </c>
+      <c r="DR133" t="n">
+        <v>80</v>
+      </c>
+      <c r="DS133" t="n">
+        <v>159</v>
+      </c>
+      <c r="DT133" t="n">
+        <v>19</v>
+      </c>
+      <c r="DU133" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV133" t="n">
+        <v>302</v>
+      </c>
+      <c r="DW133" t="n">
+        <v>160</v>
+      </c>
+      <c r="DX133" t="n">
+        <v>4552</v>
+      </c>
+      <c r="DY133" t="n">
+        <v>115</v>
+      </c>
+      <c r="DZ133" t="n">
+        <v>22</v>
+      </c>
+      <c r="EA133" t="n">
+        <v>159</v>
+      </c>
+      <c r="EB133" t="n">
+        <v>159</v>
+      </c>
+      <c r="EC133" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED133" t="n">
+        <v>1123</v>
+      </c>
+      <c r="EE133" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF133" t="n">
+        <v>261</v>
+      </c>
+      <c r="EG133" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH133" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI133" t="n">
+        <v>70</v>
+      </c>
+      <c r="EJ133" t="n">
+        <v>210</v>
+      </c>
+      <c r="EK133" t="n">
+        <v>491</v>
+      </c>
+      <c r="EL133" t="n">
+        <v>3009</v>
+      </c>
+      <c r="EM133" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN133" t="n">
+        <v>60</v>
+      </c>
+      <c r="EO133" t="n">
+        <v>488</v>
+      </c>
+      <c r="EP133" t="n">
+        <v>86</v>
+      </c>
+      <c r="EQ133" t="n">
+        <v>1335</v>
+      </c>
+      <c r="ER133" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES133" t="n">
+        <v>524</v>
+      </c>
+      <c r="ET133" t="n">
+        <v>68</v>
+      </c>
+      <c r="EU133" t="n">
+        <v>240</v>
+      </c>
+      <c r="EV133" t="n">
+        <v>29</v>
+      </c>
+      <c r="EW133" t="n">
+        <v>24366</v>
+      </c>
+      <c r="EX133" t="n">
+        <v>209</v>
+      </c>
+      <c r="EY133" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ133" t="n">
+        <v>157</v>
+      </c>
+      <c r="FA133" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB133" t="n">
+        <v>35</v>
+      </c>
+      <c r="FC133" t="n">
+        <v>233</v>
+      </c>
+      <c r="FD133" t="n">
+        <v>40</v>
+      </c>
+      <c r="FE133" t="n">
+        <v>233</v>
+      </c>
+      <c r="FF133" t="n">
+        <v>35</v>
+      </c>
+      <c r="FG133" t="n">
+        <v>27</v>
+      </c>
+      <c r="FH133" t="n">
+        <v>1284</v>
+      </c>
+      <c r="FI133" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ133" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK133" t="n">
+        <v>76</v>
+      </c>
+      <c r="FL133" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM133" t="n">
+        <v>32</v>
+      </c>
+      <c r="FN133" t="n">
+        <v>363</v>
+      </c>
+      <c r="FO133" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP133" t="n">
+        <v>200</v>
+      </c>
+      <c r="FQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR133" t="n">
+        <v>17</v>
+      </c>
+      <c r="FS133" t="n">
+        <v>183</v>
+      </c>
+      <c r="FT133" t="n">
+        <v>248</v>
+      </c>
+      <c r="FU133" t="n">
+        <v>182</v>
+      </c>
+      <c r="FV133" t="n">
+        <v>138</v>
+      </c>
+      <c r="FW133" t="n">
+        <v>688</v>
+      </c>
+      <c r="FX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY133" t="n">
+        <v>229</v>
+      </c>
+      <c r="FZ133" t="n">
+        <v>995</v>
+      </c>
+      <c r="GA133" t="n">
+        <v>50</v>
+      </c>
+      <c r="GB133" t="n">
+        <v>192</v>
+      </c>
+      <c r="GC133" t="n">
+        <v>288</v>
+      </c>
+      <c r="GD133" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE133" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF133" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG133" t="n">
+        <v>546</v>
+      </c>
+      <c r="GH133" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI133" t="n">
+        <v>261</v>
+      </c>
+      <c r="GJ133" t="n">
+        <v>82</v>
+      </c>
+      <c r="GK133" t="n">
+        <v>195</v>
+      </c>
+      <c r="GL133" t="n">
+        <v>245</v>
+      </c>
+      <c r="GM133" t="n">
+        <v>34</v>
+      </c>
+      <c r="GN133" t="n">
+        <v>16</v>
+      </c>
+      <c r="GO133" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP133" t="n">
+        <v>440</v>
+      </c>
+      <c r="GQ133" t="n">
+        <v>302</v>
+      </c>
+      <c r="GR133" t="n">
+        <v>38</v>
+      </c>
+      <c r="GS133" t="n">
+        <v>185</v>
+      </c>
+      <c r="GT133" t="n">
+        <v>67</v>
+      </c>
+      <c r="GU133" t="n">
+        <v>95</v>
+      </c>
+      <c r="GV133" t="n">
+        <v>30</v>
+      </c>
+      <c r="GW133" t="n">
+        <v>48</v>
+      </c>
+      <c r="GX133" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY133" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ133" t="n">
+        <v>114</v>
+      </c>
+      <c r="HA133" t="n">
+        <v>156</v>
+      </c>
+      <c r="HB133" t="n">
+        <v>1214</v>
+      </c>
+      <c r="HC133" t="n">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC133"/>
+  <dimension ref="A1:HC134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85408,7 +85408,7 @@
         <v>138</v>
       </c>
       <c r="FW133" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="FX133" t="n">
         <v>3</v>
@@ -85504,6 +85504,643 @@
         <v>1214</v>
       </c>
       <c r="HC133" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>584</v>
+      </c>
+      <c r="C134" t="n">
+        <v>166</v>
+      </c>
+      <c r="D134" t="n">
+        <v>91</v>
+      </c>
+      <c r="E134" t="n">
+        <v>326</v>
+      </c>
+      <c r="F134" t="n">
+        <v>809</v>
+      </c>
+      <c r="G134" t="n">
+        <v>523</v>
+      </c>
+      <c r="H134" t="n">
+        <v>95</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>286</v>
+      </c>
+      <c r="K134" t="n">
+        <v>292</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>124</v>
+      </c>
+      <c r="N134" t="n">
+        <v>29</v>
+      </c>
+      <c r="O134" t="n">
+        <v>71</v>
+      </c>
+      <c r="P134" t="n">
+        <v>409</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>475</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>131</v>
+      </c>
+      <c r="T134" t="n">
+        <v>251</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1</v>
+      </c>
+      <c r="V134" t="n">
+        <v>48</v>
+      </c>
+      <c r="W134" t="n">
+        <v>15</v>
+      </c>
+      <c r="X134" t="n">
+        <v>496</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>450</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>104</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>314</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>253</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>174</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>544</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>248</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>225</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>207</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1503</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>99</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>146</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>114</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>71</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>307</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3234</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>455</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>94</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>219</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>229</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>68</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>434</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>159</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ134" t="n">
+        <v>176</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>288</v>
+      </c>
+      <c r="BS134" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT134" t="n">
+        <v>375</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV134" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW134" t="n">
+        <v>41</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>94</v>
+      </c>
+      <c r="BY134" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ134" t="n">
+        <v>176</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>599</v>
+      </c>
+      <c r="CB134" t="n">
+        <v>207</v>
+      </c>
+      <c r="CC134" t="n">
+        <v>817</v>
+      </c>
+      <c r="CD134" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE134" t="n">
+        <v>357</v>
+      </c>
+      <c r="CF134" t="n">
+        <v>36</v>
+      </c>
+      <c r="CG134" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH134" t="n">
+        <v>29</v>
+      </c>
+      <c r="CI134" t="n">
+        <v>536</v>
+      </c>
+      <c r="CJ134" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK134" t="n">
+        <v>40</v>
+      </c>
+      <c r="CL134" t="n">
+        <v>207</v>
+      </c>
+      <c r="CM134" t="n">
+        <v>19</v>
+      </c>
+      <c r="CN134" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO134" t="n">
+        <v>626</v>
+      </c>
+      <c r="CP134" t="n">
+        <v>186</v>
+      </c>
+      <c r="CQ134" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR134" t="n">
+        <v>118</v>
+      </c>
+      <c r="CS134" t="n">
+        <v>622</v>
+      </c>
+      <c r="CT134" t="n">
+        <v>34</v>
+      </c>
+      <c r="CU134" t="n">
+        <v>236</v>
+      </c>
+      <c r="CV134" t="n">
+        <v>117</v>
+      </c>
+      <c r="CW134" t="n">
+        <v>5932</v>
+      </c>
+      <c r="CX134" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY134" t="n">
+        <v>190</v>
+      </c>
+      <c r="CZ134" t="n">
+        <v>199</v>
+      </c>
+      <c r="DA134" t="n">
+        <v>30</v>
+      </c>
+      <c r="DB134" t="n">
+        <v>137</v>
+      </c>
+      <c r="DC134" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD134" t="n">
+        <v>166</v>
+      </c>
+      <c r="DE134" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF134" t="n">
+        <v>116</v>
+      </c>
+      <c r="DG134" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH134" t="n">
+        <v>141</v>
+      </c>
+      <c r="DI134" t="n">
+        <v>56</v>
+      </c>
+      <c r="DJ134" t="n">
+        <v>80</v>
+      </c>
+      <c r="DK134" t="n">
+        <v>137</v>
+      </c>
+      <c r="DL134" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM134" t="n">
+        <v>257</v>
+      </c>
+      <c r="DN134" t="n">
+        <v>71</v>
+      </c>
+      <c r="DO134" t="n">
+        <v>213</v>
+      </c>
+      <c r="DP134" t="n">
+        <v>609</v>
+      </c>
+      <c r="DQ134" t="n">
+        <v>159</v>
+      </c>
+      <c r="DR134" t="n">
+        <v>82</v>
+      </c>
+      <c r="DS134" t="n">
+        <v>159</v>
+      </c>
+      <c r="DT134" t="n">
+        <v>25</v>
+      </c>
+      <c r="DU134" t="n">
+        <v>32</v>
+      </c>
+      <c r="DV134" t="n">
+        <v>305</v>
+      </c>
+      <c r="DW134" t="n">
+        <v>160</v>
+      </c>
+      <c r="DX134" t="n">
+        <v>4566</v>
+      </c>
+      <c r="DY134" t="n">
+        <v>121</v>
+      </c>
+      <c r="DZ134" t="n">
+        <v>23</v>
+      </c>
+      <c r="EA134" t="n">
+        <v>165</v>
+      </c>
+      <c r="EB134" t="n">
+        <v>161</v>
+      </c>
+      <c r="EC134" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED134" t="n">
+        <v>1124</v>
+      </c>
+      <c r="EE134" t="n">
+        <v>13</v>
+      </c>
+      <c r="EF134" t="n">
+        <v>263</v>
+      </c>
+      <c r="EG134" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI134" t="n">
+        <v>71</v>
+      </c>
+      <c r="EJ134" t="n">
+        <v>231</v>
+      </c>
+      <c r="EK134" t="n">
+        <v>497</v>
+      </c>
+      <c r="EL134" t="n">
+        <v>3029</v>
+      </c>
+      <c r="EM134" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN134" t="n">
+        <v>62</v>
+      </c>
+      <c r="EO134" t="n">
+        <v>536</v>
+      </c>
+      <c r="EP134" t="n">
+        <v>88</v>
+      </c>
+      <c r="EQ134" t="n">
+        <v>1360</v>
+      </c>
+      <c r="ER134" t="n">
+        <v>23</v>
+      </c>
+      <c r="ES134" t="n">
+        <v>533</v>
+      </c>
+      <c r="ET134" t="n">
+        <v>70</v>
+      </c>
+      <c r="EU134" t="n">
+        <v>245</v>
+      </c>
+      <c r="EV134" t="n">
+        <v>31</v>
+      </c>
+      <c r="EW134" t="n">
+        <v>24512</v>
+      </c>
+      <c r="EX134" t="n">
+        <v>210</v>
+      </c>
+      <c r="EY134" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ134" t="n">
+        <v>157</v>
+      </c>
+      <c r="FA134" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB134" t="n">
+        <v>37</v>
+      </c>
+      <c r="FC134" t="n">
+        <v>246</v>
+      </c>
+      <c r="FD134" t="n">
+        <v>41</v>
+      </c>
+      <c r="FE134" t="n">
+        <v>233</v>
+      </c>
+      <c r="FF134" t="n">
+        <v>41</v>
+      </c>
+      <c r="FG134" t="n">
+        <v>27</v>
+      </c>
+      <c r="FH134" t="n">
+        <v>1335</v>
+      </c>
+      <c r="FI134" t="n">
+        <v>4</v>
+      </c>
+      <c r="FJ134" t="n">
+        <v>23</v>
+      </c>
+      <c r="FK134" t="n">
+        <v>77</v>
+      </c>
+      <c r="FL134" t="n">
+        <v>14</v>
+      </c>
+      <c r="FM134" t="n">
+        <v>37</v>
+      </c>
+      <c r="FN134" t="n">
+        <v>369</v>
+      </c>
+      <c r="FO134" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP134" t="n">
+        <v>204</v>
+      </c>
+      <c r="FQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR134" t="n">
+        <v>19</v>
+      </c>
+      <c r="FS134" t="n">
+        <v>183</v>
+      </c>
+      <c r="FT134" t="n">
+        <v>249</v>
+      </c>
+      <c r="FU134" t="n">
+        <v>182</v>
+      </c>
+      <c r="FV134" t="n">
+        <v>141</v>
+      </c>
+      <c r="FW134" t="n">
+        <v>687</v>
+      </c>
+      <c r="FX134" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY134" t="n">
+        <v>231</v>
+      </c>
+      <c r="FZ134" t="n">
+        <v>1001</v>
+      </c>
+      <c r="GA134" t="n">
+        <v>54</v>
+      </c>
+      <c r="GB134" t="n">
+        <v>195</v>
+      </c>
+      <c r="GC134" t="n">
+        <v>288</v>
+      </c>
+      <c r="GD134" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE134" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF134" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG134" t="n">
+        <v>571</v>
+      </c>
+      <c r="GH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI134" t="n">
+        <v>261</v>
+      </c>
+      <c r="GJ134" t="n">
+        <v>82</v>
+      </c>
+      <c r="GK134" t="n">
+        <v>195</v>
+      </c>
+      <c r="GL134" t="n">
+        <v>249</v>
+      </c>
+      <c r="GM134" t="n">
+        <v>35</v>
+      </c>
+      <c r="GN134" t="n">
+        <v>19</v>
+      </c>
+      <c r="GO134" t="n">
+        <v>7</v>
+      </c>
+      <c r="GP134" t="n">
+        <v>446</v>
+      </c>
+      <c r="GQ134" t="n">
+        <v>304</v>
+      </c>
+      <c r="GR134" t="n">
+        <v>38</v>
+      </c>
+      <c r="GS134" t="n">
+        <v>187</v>
+      </c>
+      <c r="GT134" t="n">
+        <v>68</v>
+      </c>
+      <c r="GU134" t="n">
+        <v>122</v>
+      </c>
+      <c r="GV134" t="n">
+        <v>31</v>
+      </c>
+      <c r="GW134" t="n">
+        <v>51</v>
+      </c>
+      <c r="GX134" t="n">
+        <v>14</v>
+      </c>
+      <c r="GY134" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ134" t="n">
+        <v>114</v>
+      </c>
+      <c r="HA134" t="n">
+        <v>159</v>
+      </c>
+      <c r="HB134" t="n">
+        <v>1222</v>
+      </c>
+      <c r="HC134" t="n">
         <v>172</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD135"/>
+  <dimension ref="A1:HD136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86957,7 +86957,7 @@
         <v>1149</v>
       </c>
       <c r="EF135" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="EG135" t="n">
         <v>265</v>
@@ -87185,6 +87185,646 @@
         <v>1252</v>
       </c>
       <c r="HD135" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>596</v>
+      </c>
+      <c r="C136" t="n">
+        <v>174</v>
+      </c>
+      <c r="D136" t="n">
+        <v>96</v>
+      </c>
+      <c r="E136" t="n">
+        <v>357</v>
+      </c>
+      <c r="F136" t="n">
+        <v>828</v>
+      </c>
+      <c r="G136" t="n">
+        <v>537</v>
+      </c>
+      <c r="H136" t="n">
+        <v>110</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>309</v>
+      </c>
+      <c r="K136" t="n">
+        <v>318</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>126</v>
+      </c>
+      <c r="N136" t="n">
+        <v>30</v>
+      </c>
+      <c r="O136" t="n">
+        <v>74</v>
+      </c>
+      <c r="P136" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>510</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>135</v>
+      </c>
+      <c r="T136" t="n">
+        <v>259</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>48</v>
+      </c>
+      <c r="W136" t="n">
+        <v>23</v>
+      </c>
+      <c r="X136" t="n">
+        <v>583</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>485</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>113</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>348</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>281</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>184</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>568</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>143</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1351</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>262</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>235</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>236</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1541</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>99</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>150</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>146</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>77</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>316</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>459</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>95</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>171</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>229</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>237</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>69</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>116</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>451</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>162</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ136" t="n">
+        <v>182</v>
+      </c>
+      <c r="BR136" t="n">
+        <v>290</v>
+      </c>
+      <c r="BS136" t="n">
+        <v>113</v>
+      </c>
+      <c r="BT136" t="n">
+        <v>383</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV136" t="n">
+        <v>117</v>
+      </c>
+      <c r="BW136" t="n">
+        <v>44</v>
+      </c>
+      <c r="BX136" t="n">
+        <v>105</v>
+      </c>
+      <c r="BY136" t="n">
+        <v>114</v>
+      </c>
+      <c r="BZ136" t="n">
+        <v>178</v>
+      </c>
+      <c r="CA136" t="n">
+        <v>648</v>
+      </c>
+      <c r="CB136" t="n">
+        <v>212</v>
+      </c>
+      <c r="CC136" t="n">
+        <v>831</v>
+      </c>
+      <c r="CD136" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE136" t="n">
+        <v>371</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>39</v>
+      </c>
+      <c r="CG136" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH136" t="n">
+        <v>32</v>
+      </c>
+      <c r="CI136" t="n">
+        <v>550</v>
+      </c>
+      <c r="CJ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK136" t="n">
+        <v>43</v>
+      </c>
+      <c r="CL136" t="n">
+        <v>239</v>
+      </c>
+      <c r="CM136" t="n">
+        <v>28</v>
+      </c>
+      <c r="CN136" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO136" t="n">
+        <v>664</v>
+      </c>
+      <c r="CP136" t="n">
+        <v>223</v>
+      </c>
+      <c r="CQ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR136" t="n">
+        <v>127</v>
+      </c>
+      <c r="CS136" t="n">
+        <v>625</v>
+      </c>
+      <c r="CT136" t="n">
+        <v>37</v>
+      </c>
+      <c r="CU136" t="n">
+        <v>241</v>
+      </c>
+      <c r="CV136" t="n">
+        <v>125</v>
+      </c>
+      <c r="CW136" t="n">
+        <v>6118</v>
+      </c>
+      <c r="CX136" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY136" t="n">
+        <v>194</v>
+      </c>
+      <c r="CZ136" t="n">
+        <v>209</v>
+      </c>
+      <c r="DA136" t="n">
+        <v>35</v>
+      </c>
+      <c r="DB136" t="n">
+        <v>140</v>
+      </c>
+      <c r="DC136" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD136" t="n">
+        <v>173</v>
+      </c>
+      <c r="DE136" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF136" t="n">
+        <v>132</v>
+      </c>
+      <c r="DG136" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH136" t="n">
+        <v>167</v>
+      </c>
+      <c r="DI136" t="n">
+        <v>61</v>
+      </c>
+      <c r="DJ136" t="n">
+        <v>84</v>
+      </c>
+      <c r="DK136" t="n">
+        <v>147</v>
+      </c>
+      <c r="DL136" t="n">
+        <v>33</v>
+      </c>
+      <c r="DM136" t="n">
+        <v>268</v>
+      </c>
+      <c r="DN136" t="n">
+        <v>85</v>
+      </c>
+      <c r="DO136" t="n">
+        <v>216</v>
+      </c>
+      <c r="DP136" t="n">
+        <v>639</v>
+      </c>
+      <c r="DQ136" t="n">
+        <v>165</v>
+      </c>
+      <c r="DR136" t="n">
+        <v>83</v>
+      </c>
+      <c r="DS136" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT136" t="n">
+        <v>159</v>
+      </c>
+      <c r="DU136" t="n">
+        <v>26</v>
+      </c>
+      <c r="DV136" t="n">
+        <v>39</v>
+      </c>
+      <c r="DW136" t="n">
+        <v>315</v>
+      </c>
+      <c r="DX136" t="n">
+        <v>168</v>
+      </c>
+      <c r="DY136" t="n">
+        <v>4698</v>
+      </c>
+      <c r="DZ136" t="n">
+        <v>147</v>
+      </c>
+      <c r="EA136" t="n">
+        <v>24</v>
+      </c>
+      <c r="EB136" t="n">
+        <v>198</v>
+      </c>
+      <c r="EC136" t="n">
+        <v>169</v>
+      </c>
+      <c r="ED136" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE136" t="n">
+        <v>1175</v>
+      </c>
+      <c r="EF136" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG136" t="n">
+        <v>279</v>
+      </c>
+      <c r="EH136" t="n">
+        <v>20</v>
+      </c>
+      <c r="EI136" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ136" t="n">
+        <v>87</v>
+      </c>
+      <c r="EK136" t="n">
+        <v>246</v>
+      </c>
+      <c r="EL136" t="n">
+        <v>528</v>
+      </c>
+      <c r="EM136" t="n">
+        <v>3095</v>
+      </c>
+      <c r="EN136" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO136" t="n">
+        <v>71</v>
+      </c>
+      <c r="EP136" t="n">
+        <v>581</v>
+      </c>
+      <c r="EQ136" t="n">
+        <v>89</v>
+      </c>
+      <c r="ER136" t="n">
+        <v>1447</v>
+      </c>
+      <c r="ES136" t="n">
+        <v>23</v>
+      </c>
+      <c r="ET136" t="n">
+        <v>541</v>
+      </c>
+      <c r="EU136" t="n">
+        <v>72</v>
+      </c>
+      <c r="EV136" t="n">
+        <v>246</v>
+      </c>
+      <c r="EW136" t="n">
+        <v>42</v>
+      </c>
+      <c r="EX136" t="n">
+        <v>25141</v>
+      </c>
+      <c r="EY136" t="n">
+        <v>214</v>
+      </c>
+      <c r="EZ136" t="n">
+        <v>161</v>
+      </c>
+      <c r="FA136" t="n">
+        <v>163</v>
+      </c>
+      <c r="FB136" t="n">
+        <v>20</v>
+      </c>
+      <c r="FC136" t="n">
+        <v>38</v>
+      </c>
+      <c r="FD136" t="n">
+        <v>264</v>
+      </c>
+      <c r="FE136" t="n">
+        <v>46</v>
+      </c>
+      <c r="FF136" t="n">
+        <v>248</v>
+      </c>
+      <c r="FG136" t="n">
+        <v>52</v>
+      </c>
+      <c r="FH136" t="n">
+        <v>28</v>
+      </c>
+      <c r="FI136" t="n">
+        <v>1503</v>
+      </c>
+      <c r="FJ136" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK136" t="n">
+        <v>30</v>
+      </c>
+      <c r="FL136" t="n">
+        <v>78</v>
+      </c>
+      <c r="FM136" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN136" t="n">
+        <v>39</v>
+      </c>
+      <c r="FO136" t="n">
+        <v>385</v>
+      </c>
+      <c r="FP136" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ136" t="n">
+        <v>238</v>
+      </c>
+      <c r="FR136" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS136" t="n">
+        <v>20</v>
+      </c>
+      <c r="FT136" t="n">
+        <v>193</v>
+      </c>
+      <c r="FU136" t="n">
+        <v>257</v>
+      </c>
+      <c r="FV136" t="n">
+        <v>189</v>
+      </c>
+      <c r="FW136" t="n">
+        <v>151</v>
+      </c>
+      <c r="FX136" t="n">
+        <v>697</v>
+      </c>
+      <c r="FY136" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ136" t="n">
+        <v>254</v>
+      </c>
+      <c r="GA136" t="n">
+        <v>1146</v>
+      </c>
+      <c r="GB136" t="n">
+        <v>58</v>
+      </c>
+      <c r="GC136" t="n">
+        <v>208</v>
+      </c>
+      <c r="GD136" t="n">
+        <v>292</v>
+      </c>
+      <c r="GE136" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF136" t="n">
+        <v>17</v>
+      </c>
+      <c r="GG136" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH136" t="n">
+        <v>594</v>
+      </c>
+      <c r="GI136" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ136" t="n">
+        <v>269</v>
+      </c>
+      <c r="GK136" t="n">
+        <v>88</v>
+      </c>
+      <c r="GL136" t="n">
+        <v>231</v>
+      </c>
+      <c r="GM136" t="n">
+        <v>265</v>
+      </c>
+      <c r="GN136" t="n">
+        <v>38</v>
+      </c>
+      <c r="GO136" t="n">
+        <v>21</v>
+      </c>
+      <c r="GP136" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ136" t="n">
+        <v>520</v>
+      </c>
+      <c r="GR136" t="n">
+        <v>316</v>
+      </c>
+      <c r="GS136" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT136" t="n">
+        <v>205</v>
+      </c>
+      <c r="GU136" t="n">
+        <v>70</v>
+      </c>
+      <c r="GV136" t="n">
+        <v>141</v>
+      </c>
+      <c r="GW136" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX136" t="n">
+        <v>57</v>
+      </c>
+      <c r="GY136" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ136" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA136" t="n">
+        <v>120</v>
+      </c>
+      <c r="HB136" t="n">
+        <v>170</v>
+      </c>
+      <c r="HC136" t="n">
+        <v>1269</v>
+      </c>
+      <c r="HD136" t="n">
         <v>172</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD136"/>
+  <dimension ref="A1:HD137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87378,7 +87378,7 @@
         <v>69</v>
       </c>
       <c r="BK136" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BL136" t="n">
         <v>1</v>
@@ -87826,6 +87826,646 @@
       </c>
       <c r="HD136" t="n">
         <v>172</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>604</v>
+      </c>
+      <c r="C137" t="n">
+        <v>185</v>
+      </c>
+      <c r="D137" t="n">
+        <v>96</v>
+      </c>
+      <c r="E137" t="n">
+        <v>372</v>
+      </c>
+      <c r="F137" t="n">
+        <v>837</v>
+      </c>
+      <c r="G137" t="n">
+        <v>545</v>
+      </c>
+      <c r="H137" t="n">
+        <v>114</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>312</v>
+      </c>
+      <c r="K137" t="n">
+        <v>319</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>126</v>
+      </c>
+      <c r="N137" t="n">
+        <v>30</v>
+      </c>
+      <c r="O137" t="n">
+        <v>79</v>
+      </c>
+      <c r="P137" t="n">
+        <v>511</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>513</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>137</v>
+      </c>
+      <c r="T137" t="n">
+        <v>259</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1</v>
+      </c>
+      <c r="V137" t="n">
+        <v>49</v>
+      </c>
+      <c r="W137" t="n">
+        <v>24</v>
+      </c>
+      <c r="X137" t="n">
+        <v>619</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>502</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>115</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>353</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>290</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>190</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>583</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>152</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1369</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>278</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>249</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1552</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>111</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>131</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>169</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>148</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>78</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>321</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>3472</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>461</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>101</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>174</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>229</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>244</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>69</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>473</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>163</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ137" t="n">
+        <v>183</v>
+      </c>
+      <c r="BR137" t="n">
+        <v>291</v>
+      </c>
+      <c r="BS137" t="n">
+        <v>122</v>
+      </c>
+      <c r="BT137" t="n">
+        <v>402</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV137" t="n">
+        <v>128</v>
+      </c>
+      <c r="BW137" t="n">
+        <v>47</v>
+      </c>
+      <c r="BX137" t="n">
+        <v>107</v>
+      </c>
+      <c r="BY137" t="n">
+        <v>114</v>
+      </c>
+      <c r="BZ137" t="n">
+        <v>178</v>
+      </c>
+      <c r="CA137" t="n">
+        <v>661</v>
+      </c>
+      <c r="CB137" t="n">
+        <v>216</v>
+      </c>
+      <c r="CC137" t="n">
+        <v>843</v>
+      </c>
+      <c r="CD137" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE137" t="n">
+        <v>378</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>44</v>
+      </c>
+      <c r="CG137" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH137" t="n">
+        <v>34</v>
+      </c>
+      <c r="CI137" t="n">
+        <v>558</v>
+      </c>
+      <c r="CJ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK137" t="n">
+        <v>46</v>
+      </c>
+      <c r="CL137" t="n">
+        <v>255</v>
+      </c>
+      <c r="CM137" t="n">
+        <v>28</v>
+      </c>
+      <c r="CN137" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO137" t="n">
+        <v>672</v>
+      </c>
+      <c r="CP137" t="n">
+        <v>226</v>
+      </c>
+      <c r="CQ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR137" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS137" t="n">
+        <v>629</v>
+      </c>
+      <c r="CT137" t="n">
+        <v>41</v>
+      </c>
+      <c r="CU137" t="n">
+        <v>248</v>
+      </c>
+      <c r="CV137" t="n">
+        <v>126</v>
+      </c>
+      <c r="CW137" t="n">
+        <v>6181</v>
+      </c>
+      <c r="CX137" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY137" t="n">
+        <v>194</v>
+      </c>
+      <c r="CZ137" t="n">
+        <v>214</v>
+      </c>
+      <c r="DA137" t="n">
+        <v>36</v>
+      </c>
+      <c r="DB137" t="n">
+        <v>143</v>
+      </c>
+      <c r="DC137" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD137" t="n">
+        <v>174</v>
+      </c>
+      <c r="DE137" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF137" t="n">
+        <v>143</v>
+      </c>
+      <c r="DG137" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH137" t="n">
+        <v>180</v>
+      </c>
+      <c r="DI137" t="n">
+        <v>62</v>
+      </c>
+      <c r="DJ137" t="n">
+        <v>85</v>
+      </c>
+      <c r="DK137" t="n">
+        <v>151</v>
+      </c>
+      <c r="DL137" t="n">
+        <v>34</v>
+      </c>
+      <c r="DM137" t="n">
+        <v>273</v>
+      </c>
+      <c r="DN137" t="n">
+        <v>89</v>
+      </c>
+      <c r="DO137" t="n">
+        <v>221</v>
+      </c>
+      <c r="DP137" t="n">
+        <v>646</v>
+      </c>
+      <c r="DQ137" t="n">
+        <v>167</v>
+      </c>
+      <c r="DR137" t="n">
+        <v>83</v>
+      </c>
+      <c r="DS137" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT137" t="n">
+        <v>161</v>
+      </c>
+      <c r="DU137" t="n">
+        <v>26</v>
+      </c>
+      <c r="DV137" t="n">
+        <v>39</v>
+      </c>
+      <c r="DW137" t="n">
+        <v>321</v>
+      </c>
+      <c r="DX137" t="n">
+        <v>171</v>
+      </c>
+      <c r="DY137" t="n">
+        <v>4735</v>
+      </c>
+      <c r="DZ137" t="n">
+        <v>148</v>
+      </c>
+      <c r="EA137" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB137" t="n">
+        <v>208</v>
+      </c>
+      <c r="EC137" t="n">
+        <v>172</v>
+      </c>
+      <c r="ED137" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE137" t="n">
+        <v>1184</v>
+      </c>
+      <c r="EF137" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG137" t="n">
+        <v>279</v>
+      </c>
+      <c r="EH137" t="n">
+        <v>21</v>
+      </c>
+      <c r="EI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ137" t="n">
+        <v>92</v>
+      </c>
+      <c r="EK137" t="n">
+        <v>250</v>
+      </c>
+      <c r="EL137" t="n">
+        <v>531</v>
+      </c>
+      <c r="EM137" t="n">
+        <v>3123</v>
+      </c>
+      <c r="EN137" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO137" t="n">
+        <v>72</v>
+      </c>
+      <c r="EP137" t="n">
+        <v>602</v>
+      </c>
+      <c r="EQ137" t="n">
+        <v>99</v>
+      </c>
+      <c r="ER137" t="n">
+        <v>1513</v>
+      </c>
+      <c r="ES137" t="n">
+        <v>23</v>
+      </c>
+      <c r="ET137" t="n">
+        <v>548</v>
+      </c>
+      <c r="EU137" t="n">
+        <v>73</v>
+      </c>
+      <c r="EV137" t="n">
+        <v>248</v>
+      </c>
+      <c r="EW137" t="n">
+        <v>43</v>
+      </c>
+      <c r="EX137" t="n">
+        <v>25429</v>
+      </c>
+      <c r="EY137" t="n">
+        <v>217</v>
+      </c>
+      <c r="EZ137" t="n">
+        <v>162</v>
+      </c>
+      <c r="FA137" t="n">
+        <v>164</v>
+      </c>
+      <c r="FB137" t="n">
+        <v>23</v>
+      </c>
+      <c r="FC137" t="n">
+        <v>38</v>
+      </c>
+      <c r="FD137" t="n">
+        <v>270</v>
+      </c>
+      <c r="FE137" t="n">
+        <v>47</v>
+      </c>
+      <c r="FF137" t="n">
+        <v>263</v>
+      </c>
+      <c r="FG137" t="n">
+        <v>55</v>
+      </c>
+      <c r="FH137" t="n">
+        <v>29</v>
+      </c>
+      <c r="FI137" t="n">
+        <v>1603</v>
+      </c>
+      <c r="FJ137" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK137" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL137" t="n">
+        <v>79</v>
+      </c>
+      <c r="FM137" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN137" t="n">
+        <v>45</v>
+      </c>
+      <c r="FO137" t="n">
+        <v>391</v>
+      </c>
+      <c r="FP137" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ137" t="n">
+        <v>242</v>
+      </c>
+      <c r="FR137" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS137" t="n">
+        <v>20</v>
+      </c>
+      <c r="FT137" t="n">
+        <v>193</v>
+      </c>
+      <c r="FU137" t="n">
+        <v>262</v>
+      </c>
+      <c r="FV137" t="n">
+        <v>191</v>
+      </c>
+      <c r="FW137" t="n">
+        <v>151</v>
+      </c>
+      <c r="FX137" t="n">
+        <v>708</v>
+      </c>
+      <c r="FY137" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ137" t="n">
+        <v>256</v>
+      </c>
+      <c r="GA137" t="n">
+        <v>1278</v>
+      </c>
+      <c r="GB137" t="n">
+        <v>59</v>
+      </c>
+      <c r="GC137" t="n">
+        <v>212</v>
+      </c>
+      <c r="GD137" t="n">
+        <v>294</v>
+      </c>
+      <c r="GE137" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF137" t="n">
+        <v>19</v>
+      </c>
+      <c r="GG137" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH137" t="n">
+        <v>623</v>
+      </c>
+      <c r="GI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ137" t="n">
+        <v>304</v>
+      </c>
+      <c r="GK137" t="n">
+        <v>89</v>
+      </c>
+      <c r="GL137" t="n">
+        <v>256</v>
+      </c>
+      <c r="GM137" t="n">
+        <v>276</v>
+      </c>
+      <c r="GN137" t="n">
+        <v>40</v>
+      </c>
+      <c r="GO137" t="n">
+        <v>21</v>
+      </c>
+      <c r="GP137" t="n">
+        <v>10</v>
+      </c>
+      <c r="GQ137" t="n">
+        <v>566</v>
+      </c>
+      <c r="GR137" t="n">
+        <v>317</v>
+      </c>
+      <c r="GS137" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT137" t="n">
+        <v>205</v>
+      </c>
+      <c r="GU137" t="n">
+        <v>71</v>
+      </c>
+      <c r="GV137" t="n">
+        <v>144</v>
+      </c>
+      <c r="GW137" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX137" t="n">
+        <v>62</v>
+      </c>
+      <c r="GY137" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ137" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA137" t="n">
+        <v>121</v>
+      </c>
+      <c r="HB137" t="n">
+        <v>173</v>
+      </c>
+      <c r="HC137" t="n">
+        <v>1284</v>
+      </c>
+      <c r="HD137" t="n">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD137"/>
+  <dimension ref="A1:HD138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88468,6 +88468,646 @@
         <v>173</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>609</v>
+      </c>
+      <c r="C138" t="n">
+        <v>190</v>
+      </c>
+      <c r="D138" t="n">
+        <v>96</v>
+      </c>
+      <c r="E138" t="n">
+        <v>383</v>
+      </c>
+      <c r="F138" t="n">
+        <v>845</v>
+      </c>
+      <c r="G138" t="n">
+        <v>545</v>
+      </c>
+      <c r="H138" t="n">
+        <v>114</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>316</v>
+      </c>
+      <c r="K138" t="n">
+        <v>325</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>134</v>
+      </c>
+      <c r="N138" t="n">
+        <v>32</v>
+      </c>
+      <c r="O138" t="n">
+        <v>85</v>
+      </c>
+      <c r="P138" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>525</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>139</v>
+      </c>
+      <c r="T138" t="n">
+        <v>264</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1</v>
+      </c>
+      <c r="V138" t="n">
+        <v>50</v>
+      </c>
+      <c r="W138" t="n">
+        <v>26</v>
+      </c>
+      <c r="X138" t="n">
+        <v>623</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>515</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>358</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>308</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>196</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>591</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>159</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>283</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>253</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1566</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>114</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>132</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>171</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>159</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>326</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>3615</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>468</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>107</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>175</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>232</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>249</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>73</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>478</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>163</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ138" t="n">
+        <v>187</v>
+      </c>
+      <c r="BR138" t="n">
+        <v>292</v>
+      </c>
+      <c r="BS138" t="n">
+        <v>144</v>
+      </c>
+      <c r="BT138" t="n">
+        <v>404</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV138" t="n">
+        <v>139</v>
+      </c>
+      <c r="BW138" t="n">
+        <v>51</v>
+      </c>
+      <c r="BX138" t="n">
+        <v>108</v>
+      </c>
+      <c r="BY138" t="n">
+        <v>114</v>
+      </c>
+      <c r="BZ138" t="n">
+        <v>179</v>
+      </c>
+      <c r="CA138" t="n">
+        <v>667</v>
+      </c>
+      <c r="CB138" t="n">
+        <v>217</v>
+      </c>
+      <c r="CC138" t="n">
+        <v>848</v>
+      </c>
+      <c r="CD138" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE138" t="n">
+        <v>384</v>
+      </c>
+      <c r="CF138" t="n">
+        <v>46</v>
+      </c>
+      <c r="CG138" t="n">
+        <v>81</v>
+      </c>
+      <c r="CH138" t="n">
+        <v>34</v>
+      </c>
+      <c r="CI138" t="n">
+        <v>566</v>
+      </c>
+      <c r="CJ138" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK138" t="n">
+        <v>48</v>
+      </c>
+      <c r="CL138" t="n">
+        <v>264</v>
+      </c>
+      <c r="CM138" t="n">
+        <v>35</v>
+      </c>
+      <c r="CN138" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO138" t="n">
+        <v>699</v>
+      </c>
+      <c r="CP138" t="n">
+        <v>236</v>
+      </c>
+      <c r="CQ138" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR138" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS138" t="n">
+        <v>630</v>
+      </c>
+      <c r="CT138" t="n">
+        <v>43</v>
+      </c>
+      <c r="CU138" t="n">
+        <v>250</v>
+      </c>
+      <c r="CV138" t="n">
+        <v>129</v>
+      </c>
+      <c r="CW138" t="n">
+        <v>6245</v>
+      </c>
+      <c r="CX138" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY138" t="n">
+        <v>195</v>
+      </c>
+      <c r="CZ138" t="n">
+        <v>217</v>
+      </c>
+      <c r="DA138" t="n">
+        <v>37</v>
+      </c>
+      <c r="DB138" t="n">
+        <v>144</v>
+      </c>
+      <c r="DC138" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD138" t="n">
+        <v>175</v>
+      </c>
+      <c r="DE138" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF138" t="n">
+        <v>143</v>
+      </c>
+      <c r="DG138" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH138" t="n">
+        <v>180</v>
+      </c>
+      <c r="DI138" t="n">
+        <v>62</v>
+      </c>
+      <c r="DJ138" t="n">
+        <v>86</v>
+      </c>
+      <c r="DK138" t="n">
+        <v>151</v>
+      </c>
+      <c r="DL138" t="n">
+        <v>40</v>
+      </c>
+      <c r="DM138" t="n">
+        <v>274</v>
+      </c>
+      <c r="DN138" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO138" t="n">
+        <v>228</v>
+      </c>
+      <c r="DP138" t="n">
+        <v>685</v>
+      </c>
+      <c r="DQ138" t="n">
+        <v>168</v>
+      </c>
+      <c r="DR138" t="n">
+        <v>88</v>
+      </c>
+      <c r="DS138" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT138" t="n">
+        <v>162</v>
+      </c>
+      <c r="DU138" t="n">
+        <v>30</v>
+      </c>
+      <c r="DV138" t="n">
+        <v>42</v>
+      </c>
+      <c r="DW138" t="n">
+        <v>324</v>
+      </c>
+      <c r="DX138" t="n">
+        <v>173</v>
+      </c>
+      <c r="DY138" t="n">
+        <v>4784</v>
+      </c>
+      <c r="DZ138" t="n">
+        <v>148</v>
+      </c>
+      <c r="EA138" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB138" t="n">
+        <v>218</v>
+      </c>
+      <c r="EC138" t="n">
+        <v>175</v>
+      </c>
+      <c r="ED138" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE138" t="n">
+        <v>1190</v>
+      </c>
+      <c r="EF138" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG138" t="n">
+        <v>287</v>
+      </c>
+      <c r="EH138" t="n">
+        <v>21</v>
+      </c>
+      <c r="EI138" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ138" t="n">
+        <v>94</v>
+      </c>
+      <c r="EK138" t="n">
+        <v>260</v>
+      </c>
+      <c r="EL138" t="n">
+        <v>544</v>
+      </c>
+      <c r="EM138" t="n">
+        <v>3141</v>
+      </c>
+      <c r="EN138" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO138" t="n">
+        <v>74</v>
+      </c>
+      <c r="EP138" t="n">
+        <v>628</v>
+      </c>
+      <c r="EQ138" t="n">
+        <v>101</v>
+      </c>
+      <c r="ER138" t="n">
+        <v>1620</v>
+      </c>
+      <c r="ES138" t="n">
+        <v>25</v>
+      </c>
+      <c r="ET138" t="n">
+        <v>550</v>
+      </c>
+      <c r="EU138" t="n">
+        <v>74</v>
+      </c>
+      <c r="EV138" t="n">
+        <v>251</v>
+      </c>
+      <c r="EW138" t="n">
+        <v>47</v>
+      </c>
+      <c r="EX138" t="n">
+        <v>25740</v>
+      </c>
+      <c r="EY138" t="n">
+        <v>225</v>
+      </c>
+      <c r="EZ138" t="n">
+        <v>164</v>
+      </c>
+      <c r="FA138" t="n">
+        <v>167</v>
+      </c>
+      <c r="FB138" t="n">
+        <v>24</v>
+      </c>
+      <c r="FC138" t="n">
+        <v>41</v>
+      </c>
+      <c r="FD138" t="n">
+        <v>289</v>
+      </c>
+      <c r="FE138" t="n">
+        <v>47</v>
+      </c>
+      <c r="FF138" t="n">
+        <v>297</v>
+      </c>
+      <c r="FG138" t="n">
+        <v>60</v>
+      </c>
+      <c r="FH138" t="n">
+        <v>31</v>
+      </c>
+      <c r="FI138" t="n">
+        <v>1647</v>
+      </c>
+      <c r="FJ138" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK138" t="n">
+        <v>31</v>
+      </c>
+      <c r="FL138" t="n">
+        <v>89</v>
+      </c>
+      <c r="FM138" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN138" t="n">
+        <v>52</v>
+      </c>
+      <c r="FO138" t="n">
+        <v>403</v>
+      </c>
+      <c r="FP138" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ138" t="n">
+        <v>248</v>
+      </c>
+      <c r="FR138" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS138" t="n">
+        <v>24</v>
+      </c>
+      <c r="FT138" t="n">
+        <v>197</v>
+      </c>
+      <c r="FU138" t="n">
+        <v>264</v>
+      </c>
+      <c r="FV138" t="n">
+        <v>193</v>
+      </c>
+      <c r="FW138" t="n">
+        <v>152</v>
+      </c>
+      <c r="FX138" t="n">
+        <v>714</v>
+      </c>
+      <c r="FY138" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ138" t="n">
+        <v>279</v>
+      </c>
+      <c r="GA138" t="n">
+        <v>1359</v>
+      </c>
+      <c r="GB138" t="n">
+        <v>59</v>
+      </c>
+      <c r="GC138" t="n">
+        <v>224</v>
+      </c>
+      <c r="GD138" t="n">
+        <v>304</v>
+      </c>
+      <c r="GE138" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF138" t="n">
+        <v>26</v>
+      </c>
+      <c r="GG138" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH138" t="n">
+        <v>630</v>
+      </c>
+      <c r="GI138" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ138" t="n">
+        <v>308</v>
+      </c>
+      <c r="GK138" t="n">
+        <v>107</v>
+      </c>
+      <c r="GL138" t="n">
+        <v>277</v>
+      </c>
+      <c r="GM138" t="n">
+        <v>276</v>
+      </c>
+      <c r="GN138" t="n">
+        <v>41</v>
+      </c>
+      <c r="GO138" t="n">
+        <v>21</v>
+      </c>
+      <c r="GP138" t="n">
+        <v>10</v>
+      </c>
+      <c r="GQ138" t="n">
+        <v>568</v>
+      </c>
+      <c r="GR138" t="n">
+        <v>322</v>
+      </c>
+      <c r="GS138" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT138" t="n">
+        <v>207</v>
+      </c>
+      <c r="GU138" t="n">
+        <v>72</v>
+      </c>
+      <c r="GV138" t="n">
+        <v>144</v>
+      </c>
+      <c r="GW138" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX138" t="n">
+        <v>63</v>
+      </c>
+      <c r="GY138" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ138" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA138" t="n">
+        <v>126</v>
+      </c>
+      <c r="HB138" t="n">
+        <v>173</v>
+      </c>
+      <c r="HC138" t="n">
+        <v>1312</v>
+      </c>
+      <c r="HD138" t="n">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD138"/>
+  <dimension ref="A1:HD139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89108,6 +89108,646 @@
         <v>173</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>614</v>
+      </c>
+      <c r="C139" t="n">
+        <v>190</v>
+      </c>
+      <c r="D139" t="n">
+        <v>96</v>
+      </c>
+      <c r="E139" t="n">
+        <v>386</v>
+      </c>
+      <c r="F139" t="n">
+        <v>846</v>
+      </c>
+      <c r="G139" t="n">
+        <v>552</v>
+      </c>
+      <c r="H139" t="n">
+        <v>114</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>316</v>
+      </c>
+      <c r="K139" t="n">
+        <v>325</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>135</v>
+      </c>
+      <c r="N139" t="n">
+        <v>33</v>
+      </c>
+      <c r="O139" t="n">
+        <v>85</v>
+      </c>
+      <c r="P139" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>528</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>139</v>
+      </c>
+      <c r="T139" t="n">
+        <v>264</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>52</v>
+      </c>
+      <c r="W139" t="n">
+        <v>27</v>
+      </c>
+      <c r="X139" t="n">
+        <v>624</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>517</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>361</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>312</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>196</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>595</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>164</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1413</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>283</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>241</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>255</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>59</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1568</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>116</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>132</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>172</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>159</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>82</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>328</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>3661</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>470</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>108</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>175</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>232</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>255</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>75</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>479</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>165</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ139" t="n">
+        <v>187</v>
+      </c>
+      <c r="BR139" t="n">
+        <v>293</v>
+      </c>
+      <c r="BS139" t="n">
+        <v>145</v>
+      </c>
+      <c r="BT139" t="n">
+        <v>409</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV139" t="n">
+        <v>142</v>
+      </c>
+      <c r="BW139" t="n">
+        <v>51</v>
+      </c>
+      <c r="BX139" t="n">
+        <v>110</v>
+      </c>
+      <c r="BY139" t="n">
+        <v>115</v>
+      </c>
+      <c r="BZ139" t="n">
+        <v>179</v>
+      </c>
+      <c r="CA139" t="n">
+        <v>671</v>
+      </c>
+      <c r="CB139" t="n">
+        <v>218</v>
+      </c>
+      <c r="CC139" t="n">
+        <v>851</v>
+      </c>
+      <c r="CD139" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE139" t="n">
+        <v>394</v>
+      </c>
+      <c r="CF139" t="n">
+        <v>61</v>
+      </c>
+      <c r="CG139" t="n">
+        <v>82</v>
+      </c>
+      <c r="CH139" t="n">
+        <v>36</v>
+      </c>
+      <c r="CI139" t="n">
+        <v>567</v>
+      </c>
+      <c r="CJ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK139" t="n">
+        <v>48</v>
+      </c>
+      <c r="CL139" t="n">
+        <v>265</v>
+      </c>
+      <c r="CM139" t="n">
+        <v>35</v>
+      </c>
+      <c r="CN139" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO139" t="n">
+        <v>700</v>
+      </c>
+      <c r="CP139" t="n">
+        <v>236</v>
+      </c>
+      <c r="CQ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR139" t="n">
+        <v>130</v>
+      </c>
+      <c r="CS139" t="n">
+        <v>632</v>
+      </c>
+      <c r="CT139" t="n">
+        <v>43</v>
+      </c>
+      <c r="CU139" t="n">
+        <v>250</v>
+      </c>
+      <c r="CV139" t="n">
+        <v>129</v>
+      </c>
+      <c r="CW139" t="n">
+        <v>6270</v>
+      </c>
+      <c r="CX139" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY139" t="n">
+        <v>196</v>
+      </c>
+      <c r="CZ139" t="n">
+        <v>218</v>
+      </c>
+      <c r="DA139" t="n">
+        <v>38</v>
+      </c>
+      <c r="DB139" t="n">
+        <v>144</v>
+      </c>
+      <c r="DC139" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD139" t="n">
+        <v>175</v>
+      </c>
+      <c r="DE139" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF139" t="n">
+        <v>143</v>
+      </c>
+      <c r="DG139" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH139" t="n">
+        <v>184</v>
+      </c>
+      <c r="DI139" t="n">
+        <v>65</v>
+      </c>
+      <c r="DJ139" t="n">
+        <v>87</v>
+      </c>
+      <c r="DK139" t="n">
+        <v>151</v>
+      </c>
+      <c r="DL139" t="n">
+        <v>41</v>
+      </c>
+      <c r="DM139" t="n">
+        <v>274</v>
+      </c>
+      <c r="DN139" t="n">
+        <v>101</v>
+      </c>
+      <c r="DO139" t="n">
+        <v>228</v>
+      </c>
+      <c r="DP139" t="n">
+        <v>694</v>
+      </c>
+      <c r="DQ139" t="n">
+        <v>173</v>
+      </c>
+      <c r="DR139" t="n">
+        <v>88</v>
+      </c>
+      <c r="DS139" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT139" t="n">
+        <v>162</v>
+      </c>
+      <c r="DU139" t="n">
+        <v>31</v>
+      </c>
+      <c r="DV139" t="n">
+        <v>43</v>
+      </c>
+      <c r="DW139" t="n">
+        <v>326</v>
+      </c>
+      <c r="DX139" t="n">
+        <v>174</v>
+      </c>
+      <c r="DY139" t="n">
+        <v>4795</v>
+      </c>
+      <c r="DZ139" t="n">
+        <v>148</v>
+      </c>
+      <c r="EA139" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB139" t="n">
+        <v>219</v>
+      </c>
+      <c r="EC139" t="n">
+        <v>175</v>
+      </c>
+      <c r="ED139" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE139" t="n">
+        <v>1191</v>
+      </c>
+      <c r="EF139" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG139" t="n">
+        <v>299</v>
+      </c>
+      <c r="EH139" t="n">
+        <v>21</v>
+      </c>
+      <c r="EI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ139" t="n">
+        <v>95</v>
+      </c>
+      <c r="EK139" t="n">
+        <v>276</v>
+      </c>
+      <c r="EL139" t="n">
+        <v>544</v>
+      </c>
+      <c r="EM139" t="n">
+        <v>3155</v>
+      </c>
+      <c r="EN139" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO139" t="n">
+        <v>75</v>
+      </c>
+      <c r="EP139" t="n">
+        <v>630</v>
+      </c>
+      <c r="EQ139" t="n">
+        <v>101</v>
+      </c>
+      <c r="ER139" t="n">
+        <v>1718</v>
+      </c>
+      <c r="ES139" t="n">
+        <v>25</v>
+      </c>
+      <c r="ET139" t="n">
+        <v>550</v>
+      </c>
+      <c r="EU139" t="n">
+        <v>75</v>
+      </c>
+      <c r="EV139" t="n">
+        <v>258</v>
+      </c>
+      <c r="EW139" t="n">
+        <v>47</v>
+      </c>
+      <c r="EX139" t="n">
+        <v>25857</v>
+      </c>
+      <c r="EY139" t="n">
+        <v>225</v>
+      </c>
+      <c r="EZ139" t="n">
+        <v>164</v>
+      </c>
+      <c r="FA139" t="n">
+        <v>168</v>
+      </c>
+      <c r="FB139" t="n">
+        <v>24</v>
+      </c>
+      <c r="FC139" t="n">
+        <v>41</v>
+      </c>
+      <c r="FD139" t="n">
+        <v>295</v>
+      </c>
+      <c r="FE139" t="n">
+        <v>47</v>
+      </c>
+      <c r="FF139" t="n">
+        <v>297</v>
+      </c>
+      <c r="FG139" t="n">
+        <v>62</v>
+      </c>
+      <c r="FH139" t="n">
+        <v>31</v>
+      </c>
+      <c r="FI139" t="n">
+        <v>1664</v>
+      </c>
+      <c r="FJ139" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK139" t="n">
+        <v>32</v>
+      </c>
+      <c r="FL139" t="n">
+        <v>90</v>
+      </c>
+      <c r="FM139" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN139" t="n">
+        <v>53</v>
+      </c>
+      <c r="FO139" t="n">
+        <v>413</v>
+      </c>
+      <c r="FP139" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ139" t="n">
+        <v>256</v>
+      </c>
+      <c r="FR139" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS139" t="n">
+        <v>24</v>
+      </c>
+      <c r="FT139" t="n">
+        <v>201</v>
+      </c>
+      <c r="FU139" t="n">
+        <v>265</v>
+      </c>
+      <c r="FV139" t="n">
+        <v>194</v>
+      </c>
+      <c r="FW139" t="n">
+        <v>161</v>
+      </c>
+      <c r="FX139" t="n">
+        <v>714</v>
+      </c>
+      <c r="FY139" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ139" t="n">
+        <v>281</v>
+      </c>
+      <c r="GA139" t="n">
+        <v>1370</v>
+      </c>
+      <c r="GB139" t="n">
+        <v>59</v>
+      </c>
+      <c r="GC139" t="n">
+        <v>227</v>
+      </c>
+      <c r="GD139" t="n">
+        <v>304</v>
+      </c>
+      <c r="GE139" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF139" t="n">
+        <v>29</v>
+      </c>
+      <c r="GG139" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH139" t="n">
+        <v>641</v>
+      </c>
+      <c r="GI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ139" t="n">
+        <v>312</v>
+      </c>
+      <c r="GK139" t="n">
+        <v>107</v>
+      </c>
+      <c r="GL139" t="n">
+        <v>278</v>
+      </c>
+      <c r="GM139" t="n">
+        <v>276</v>
+      </c>
+      <c r="GN139" t="n">
+        <v>41</v>
+      </c>
+      <c r="GO139" t="n">
+        <v>22</v>
+      </c>
+      <c r="GP139" t="n">
+        <v>10</v>
+      </c>
+      <c r="GQ139" t="n">
+        <v>596</v>
+      </c>
+      <c r="GR139" t="n">
+        <v>324</v>
+      </c>
+      <c r="GS139" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT139" t="n">
+        <v>207</v>
+      </c>
+      <c r="GU139" t="n">
+        <v>72</v>
+      </c>
+      <c r="GV139" t="n">
+        <v>144</v>
+      </c>
+      <c r="GW139" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX139" t="n">
+        <v>69</v>
+      </c>
+      <c r="GY139" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ139" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA139" t="n">
+        <v>126</v>
+      </c>
+      <c r="HB139" t="n">
+        <v>173</v>
+      </c>
+      <c r="HC139" t="n">
+        <v>1319</v>
+      </c>
+      <c r="HD139" t="n">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD141"/>
+  <dimension ref="A1:HD142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86744,7 +86744,7 @@
         <v>1</v>
       </c>
       <c r="BM135" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN135" t="n">
         <v>449</v>
@@ -87384,7 +87384,7 @@
         <v>1</v>
       </c>
       <c r="BM136" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN136" t="n">
         <v>451</v>
@@ -88024,7 +88024,7 @@
         <v>1</v>
       </c>
       <c r="BM137" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN137" t="n">
         <v>473</v>
@@ -88664,7 +88664,7 @@
         <v>1</v>
       </c>
       <c r="BM138" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN138" t="n">
         <v>478</v>
@@ -89304,7 +89304,7 @@
         <v>1</v>
       </c>
       <c r="BM139" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN139" t="n">
         <v>479</v>
@@ -89944,7 +89944,7 @@
         <v>1</v>
       </c>
       <c r="BM140" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN140" t="n">
         <v>481</v>
@@ -90584,7 +90584,7 @@
         <v>1</v>
       </c>
       <c r="BM141" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN141" t="n">
         <v>497</v>
@@ -90947,7 +90947,7 @@
         <v>232</v>
       </c>
       <c r="GD141" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="GE141" t="n">
         <v>2</v>
@@ -91025,6 +91025,646 @@
         <v>1334</v>
       </c>
       <c r="HD141" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>627</v>
+      </c>
+      <c r="C142" t="n">
+        <v>203</v>
+      </c>
+      <c r="D142" t="n">
+        <v>97</v>
+      </c>
+      <c r="E142" t="n">
+        <v>409</v>
+      </c>
+      <c r="F142" t="n">
+        <v>858</v>
+      </c>
+      <c r="G142" t="n">
+        <v>578</v>
+      </c>
+      <c r="H142" t="n">
+        <v>125</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>319</v>
+      </c>
+      <c r="K142" t="n">
+        <v>333</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>136</v>
+      </c>
+      <c r="N142" t="n">
+        <v>35</v>
+      </c>
+      <c r="O142" t="n">
+        <v>86</v>
+      </c>
+      <c r="P142" t="n">
+        <v>642</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>617</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>146</v>
+      </c>
+      <c r="T142" t="n">
+        <v>266</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1</v>
+      </c>
+      <c r="V142" t="n">
+        <v>54</v>
+      </c>
+      <c r="W142" t="n">
+        <v>29</v>
+      </c>
+      <c r="X142" t="n">
+        <v>650</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>556</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>380</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>335</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>208</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>610</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>164</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1443</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>315</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>242</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>275</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1598</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>119</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>132</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>186</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>183</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>87</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>352</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>56</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>488</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>145</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>177</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>234</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>266</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>76</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>116</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>91</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>514</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ142" t="n">
+        <v>195</v>
+      </c>
+      <c r="BR142" t="n">
+        <v>311</v>
+      </c>
+      <c r="BS142" t="n">
+        <v>166</v>
+      </c>
+      <c r="BT142" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>99</v>
+      </c>
+      <c r="BV142" t="n">
+        <v>146</v>
+      </c>
+      <c r="BW142" t="n">
+        <v>54</v>
+      </c>
+      <c r="BX142" t="n">
+        <v>117</v>
+      </c>
+      <c r="BY142" t="n">
+        <v>147</v>
+      </c>
+      <c r="BZ142" t="n">
+        <v>184</v>
+      </c>
+      <c r="CA142" t="n">
+        <v>744</v>
+      </c>
+      <c r="CB142" t="n">
+        <v>228</v>
+      </c>
+      <c r="CC142" t="n">
+        <v>862</v>
+      </c>
+      <c r="CD142" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE142" t="n">
+        <v>412</v>
+      </c>
+      <c r="CF142" t="n">
+        <v>68</v>
+      </c>
+      <c r="CG142" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH142" t="n">
+        <v>37</v>
+      </c>
+      <c r="CI142" t="n">
+        <v>573</v>
+      </c>
+      <c r="CJ142" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK142" t="n">
+        <v>52</v>
+      </c>
+      <c r="CL142" t="n">
+        <v>275</v>
+      </c>
+      <c r="CM142" t="n">
+        <v>42</v>
+      </c>
+      <c r="CN142" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO142" t="n">
+        <v>715</v>
+      </c>
+      <c r="CP142" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ142" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR142" t="n">
+        <v>136</v>
+      </c>
+      <c r="CS142" t="n">
+        <v>644</v>
+      </c>
+      <c r="CT142" t="n">
+        <v>50</v>
+      </c>
+      <c r="CU142" t="n">
+        <v>256</v>
+      </c>
+      <c r="CV142" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW142" t="n">
+        <v>6493</v>
+      </c>
+      <c r="CX142" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY142" t="n">
+        <v>198</v>
+      </c>
+      <c r="CZ142" t="n">
+        <v>227</v>
+      </c>
+      <c r="DA142" t="n">
+        <v>49</v>
+      </c>
+      <c r="DB142" t="n">
+        <v>154</v>
+      </c>
+      <c r="DC142" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD142" t="n">
+        <v>193</v>
+      </c>
+      <c r="DE142" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF142" t="n">
+        <v>147</v>
+      </c>
+      <c r="DG142" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH142" t="n">
+        <v>190</v>
+      </c>
+      <c r="DI142" t="n">
+        <v>70</v>
+      </c>
+      <c r="DJ142" t="n">
+        <v>93</v>
+      </c>
+      <c r="DK142" t="n">
+        <v>156</v>
+      </c>
+      <c r="DL142" t="n">
+        <v>44</v>
+      </c>
+      <c r="DM142" t="n">
+        <v>280</v>
+      </c>
+      <c r="DN142" t="n">
+        <v>118</v>
+      </c>
+      <c r="DO142" t="n">
+        <v>249</v>
+      </c>
+      <c r="DP142" t="n">
+        <v>707</v>
+      </c>
+      <c r="DQ142" t="n">
+        <v>177</v>
+      </c>
+      <c r="DR142" t="n">
+        <v>89</v>
+      </c>
+      <c r="DS142" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT142" t="n">
+        <v>173</v>
+      </c>
+      <c r="DU142" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV142" t="n">
+        <v>53</v>
+      </c>
+      <c r="DW142" t="n">
+        <v>333</v>
+      </c>
+      <c r="DX142" t="n">
+        <v>181</v>
+      </c>
+      <c r="DY142" t="n">
+        <v>4903</v>
+      </c>
+      <c r="DZ142" t="n">
+        <v>156</v>
+      </c>
+      <c r="EA142" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB142" t="n">
+        <v>245</v>
+      </c>
+      <c r="EC142" t="n">
+        <v>181</v>
+      </c>
+      <c r="ED142" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="EF142" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG142" t="n">
+        <v>311</v>
+      </c>
+      <c r="EH142" t="n">
+        <v>27</v>
+      </c>
+      <c r="EI142" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ142" t="n">
+        <v>105</v>
+      </c>
+      <c r="EK142" t="n">
+        <v>310</v>
+      </c>
+      <c r="EL142" t="n">
+        <v>554</v>
+      </c>
+      <c r="EM142" t="n">
+        <v>3221</v>
+      </c>
+      <c r="EN142" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO142" t="n">
+        <v>89</v>
+      </c>
+      <c r="EP142" t="n">
+        <v>724</v>
+      </c>
+      <c r="EQ142" t="n">
+        <v>113</v>
+      </c>
+      <c r="ER142" t="n">
+        <v>2200</v>
+      </c>
+      <c r="ES142" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET142" t="n">
+        <v>552</v>
+      </c>
+      <c r="EU142" t="n">
+        <v>76</v>
+      </c>
+      <c r="EV142" t="n">
+        <v>259</v>
+      </c>
+      <c r="EW142" t="n">
+        <v>54</v>
+      </c>
+      <c r="EX142" t="n">
+        <v>26480</v>
+      </c>
+      <c r="EY142" t="n">
+        <v>228</v>
+      </c>
+      <c r="EZ142" t="n">
+        <v>165</v>
+      </c>
+      <c r="FA142" t="n">
+        <v>171</v>
+      </c>
+      <c r="FB142" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC142" t="n">
+        <v>44</v>
+      </c>
+      <c r="FD142" t="n">
+        <v>324</v>
+      </c>
+      <c r="FE142" t="n">
+        <v>47</v>
+      </c>
+      <c r="FF142" t="n">
+        <v>317</v>
+      </c>
+      <c r="FG142" t="n">
+        <v>64</v>
+      </c>
+      <c r="FH142" t="n">
+        <v>32</v>
+      </c>
+      <c r="FI142" t="n">
+        <v>1818</v>
+      </c>
+      <c r="FJ142" t="n">
+        <v>8</v>
+      </c>
+      <c r="FK142" t="n">
+        <v>38</v>
+      </c>
+      <c r="FL142" t="n">
+        <v>96</v>
+      </c>
+      <c r="FM142" t="n">
+        <v>14</v>
+      </c>
+      <c r="FN142" t="n">
+        <v>55</v>
+      </c>
+      <c r="FO142" t="n">
+        <v>443</v>
+      </c>
+      <c r="FP142" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ142" t="n">
+        <v>285</v>
+      </c>
+      <c r="FR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS142" t="n">
+        <v>26</v>
+      </c>
+      <c r="FT142" t="n">
+        <v>207</v>
+      </c>
+      <c r="FU142" t="n">
+        <v>270</v>
+      </c>
+      <c r="FV142" t="n">
+        <v>205</v>
+      </c>
+      <c r="FW142" t="n">
+        <v>171</v>
+      </c>
+      <c r="FX142" t="n">
+        <v>729</v>
+      </c>
+      <c r="FY142" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ142" t="n">
+        <v>289</v>
+      </c>
+      <c r="GA142" t="n">
+        <v>1607</v>
+      </c>
+      <c r="GB142" t="n">
+        <v>59</v>
+      </c>
+      <c r="GC142" t="n">
+        <v>239</v>
+      </c>
+      <c r="GD142" t="n">
+        <v>306</v>
+      </c>
+      <c r="GE142" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF142" t="n">
+        <v>29</v>
+      </c>
+      <c r="GG142" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH142" t="n">
+        <v>686</v>
+      </c>
+      <c r="GI142" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ142" t="n">
+        <v>317</v>
+      </c>
+      <c r="GK142" t="n">
+        <v>130</v>
+      </c>
+      <c r="GL142" t="n">
+        <v>326</v>
+      </c>
+      <c r="GM142" t="n">
+        <v>278</v>
+      </c>
+      <c r="GN142" t="n">
+        <v>44</v>
+      </c>
+      <c r="GO142" t="n">
+        <v>27</v>
+      </c>
+      <c r="GP142" t="n">
+        <v>23</v>
+      </c>
+      <c r="GQ142" t="n">
+        <v>604</v>
+      </c>
+      <c r="GR142" t="n">
+        <v>334</v>
+      </c>
+      <c r="GS142" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT142" t="n">
+        <v>213</v>
+      </c>
+      <c r="GU142" t="n">
+        <v>80</v>
+      </c>
+      <c r="GV142" t="n">
+        <v>154</v>
+      </c>
+      <c r="GW142" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX142" t="n">
+        <v>80</v>
+      </c>
+      <c r="GY142" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ142" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA142" t="n">
+        <v>127</v>
+      </c>
+      <c r="HB142" t="n">
+        <v>179</v>
+      </c>
+      <c r="HC142" t="n">
+        <v>1343</v>
+      </c>
+      <c r="HD142" t="n">
         <v>175</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD142"/>
+  <dimension ref="A1:HD143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91626,7 +91626,7 @@
         <v>23</v>
       </c>
       <c r="GQ142" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="GR142" t="n">
         <v>334</v>
@@ -91665,6 +91665,646 @@
         <v>1343</v>
       </c>
       <c r="HD142" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>630</v>
+      </c>
+      <c r="C143" t="n">
+        <v>209</v>
+      </c>
+      <c r="D143" t="n">
+        <v>98</v>
+      </c>
+      <c r="E143" t="n">
+        <v>436</v>
+      </c>
+      <c r="F143" t="n">
+        <v>858</v>
+      </c>
+      <c r="G143" t="n">
+        <v>584</v>
+      </c>
+      <c r="H143" t="n">
+        <v>127</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>320</v>
+      </c>
+      <c r="K143" t="n">
+        <v>343</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>136</v>
+      </c>
+      <c r="N143" t="n">
+        <v>35</v>
+      </c>
+      <c r="O143" t="n">
+        <v>86</v>
+      </c>
+      <c r="P143" t="n">
+        <v>657</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>654</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>149</v>
+      </c>
+      <c r="T143" t="n">
+        <v>276</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1</v>
+      </c>
+      <c r="V143" t="n">
+        <v>61</v>
+      </c>
+      <c r="W143" t="n">
+        <v>30</v>
+      </c>
+      <c r="X143" t="n">
+        <v>676</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>565</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>137</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>385</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>346</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>217</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>613</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>166</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1449</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>317</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>245</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>285</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1608</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>121</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>132</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>186</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>191</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>92</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>367</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>4166</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>57</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>495</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>149</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>177</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>237</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>272</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>77</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>116</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>521</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ143" t="n">
+        <v>197</v>
+      </c>
+      <c r="BR143" t="n">
+        <v>318</v>
+      </c>
+      <c r="BS143" t="n">
+        <v>185</v>
+      </c>
+      <c r="BT143" t="n">
+        <v>418</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV143" t="n">
+        <v>146</v>
+      </c>
+      <c r="BW143" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX143" t="n">
+        <v>121</v>
+      </c>
+      <c r="BY143" t="n">
+        <v>169</v>
+      </c>
+      <c r="BZ143" t="n">
+        <v>184</v>
+      </c>
+      <c r="CA143" t="n">
+        <v>770</v>
+      </c>
+      <c r="CB143" t="n">
+        <v>229</v>
+      </c>
+      <c r="CC143" t="n">
+        <v>864</v>
+      </c>
+      <c r="CD143" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE143" t="n">
+        <v>438</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>68</v>
+      </c>
+      <c r="CG143" t="n">
+        <v>84</v>
+      </c>
+      <c r="CH143" t="n">
+        <v>38</v>
+      </c>
+      <c r="CI143" t="n">
+        <v>575</v>
+      </c>
+      <c r="CJ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK143" t="n">
+        <v>53</v>
+      </c>
+      <c r="CL143" t="n">
+        <v>276</v>
+      </c>
+      <c r="CM143" t="n">
+        <v>43</v>
+      </c>
+      <c r="CN143" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO143" t="n">
+        <v>716</v>
+      </c>
+      <c r="CP143" t="n">
+        <v>264</v>
+      </c>
+      <c r="CQ143" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR143" t="n">
+        <v>140</v>
+      </c>
+      <c r="CS143" t="n">
+        <v>650</v>
+      </c>
+      <c r="CT143" t="n">
+        <v>51</v>
+      </c>
+      <c r="CU143" t="n">
+        <v>257</v>
+      </c>
+      <c r="CV143" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW143" t="n">
+        <v>6536</v>
+      </c>
+      <c r="CX143" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY143" t="n">
+        <v>217</v>
+      </c>
+      <c r="CZ143" t="n">
+        <v>232</v>
+      </c>
+      <c r="DA143" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB143" t="n">
+        <v>164</v>
+      </c>
+      <c r="DC143" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD143" t="n">
+        <v>197</v>
+      </c>
+      <c r="DE143" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF143" t="n">
+        <v>154</v>
+      </c>
+      <c r="DG143" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH143" t="n">
+        <v>191</v>
+      </c>
+      <c r="DI143" t="n">
+        <v>70</v>
+      </c>
+      <c r="DJ143" t="n">
+        <v>94</v>
+      </c>
+      <c r="DK143" t="n">
+        <v>159</v>
+      </c>
+      <c r="DL143" t="n">
+        <v>44</v>
+      </c>
+      <c r="DM143" t="n">
+        <v>285</v>
+      </c>
+      <c r="DN143" t="n">
+        <v>121</v>
+      </c>
+      <c r="DO143" t="n">
+        <v>254</v>
+      </c>
+      <c r="DP143" t="n">
+        <v>715</v>
+      </c>
+      <c r="DQ143" t="n">
+        <v>178</v>
+      </c>
+      <c r="DR143" t="n">
+        <v>90</v>
+      </c>
+      <c r="DS143" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT143" t="n">
+        <v>175</v>
+      </c>
+      <c r="DU143" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV143" t="n">
+        <v>53</v>
+      </c>
+      <c r="DW143" t="n">
+        <v>334</v>
+      </c>
+      <c r="DX143" t="n">
+        <v>189</v>
+      </c>
+      <c r="DY143" t="n">
+        <v>4943</v>
+      </c>
+      <c r="DZ143" t="n">
+        <v>156</v>
+      </c>
+      <c r="EA143" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB143" t="n">
+        <v>250</v>
+      </c>
+      <c r="EC143" t="n">
+        <v>184</v>
+      </c>
+      <c r="ED143" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE143" t="n">
+        <v>1202</v>
+      </c>
+      <c r="EF143" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG143" t="n">
+        <v>313</v>
+      </c>
+      <c r="EH143" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI143" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ143" t="n">
+        <v>105</v>
+      </c>
+      <c r="EK143" t="n">
+        <v>312</v>
+      </c>
+      <c r="EL143" t="n">
+        <v>561</v>
+      </c>
+      <c r="EM143" t="n">
+        <v>3238</v>
+      </c>
+      <c r="EN143" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO143" t="n">
+        <v>92</v>
+      </c>
+      <c r="EP143" t="n">
+        <v>745</v>
+      </c>
+      <c r="EQ143" t="n">
+        <v>114</v>
+      </c>
+      <c r="ER143" t="n">
+        <v>2371</v>
+      </c>
+      <c r="ES143" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET143" t="n">
+        <v>567</v>
+      </c>
+      <c r="EU143" t="n">
+        <v>76</v>
+      </c>
+      <c r="EV143" t="n">
+        <v>260</v>
+      </c>
+      <c r="EW143" t="n">
+        <v>62</v>
+      </c>
+      <c r="EX143" t="n">
+        <v>26705</v>
+      </c>
+      <c r="EY143" t="n">
+        <v>228</v>
+      </c>
+      <c r="EZ143" t="n">
+        <v>173</v>
+      </c>
+      <c r="FA143" t="n">
+        <v>176</v>
+      </c>
+      <c r="FB143" t="n">
+        <v>29</v>
+      </c>
+      <c r="FC143" t="n">
+        <v>44</v>
+      </c>
+      <c r="FD143" t="n">
+        <v>328</v>
+      </c>
+      <c r="FE143" t="n">
+        <v>47</v>
+      </c>
+      <c r="FF143" t="n">
+        <v>317</v>
+      </c>
+      <c r="FG143" t="n">
+        <v>64</v>
+      </c>
+      <c r="FH143" t="n">
+        <v>33</v>
+      </c>
+      <c r="FI143" t="n">
+        <v>1895</v>
+      </c>
+      <c r="FJ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="FK143" t="n">
+        <v>40</v>
+      </c>
+      <c r="FL143" t="n">
+        <v>97</v>
+      </c>
+      <c r="FM143" t="n">
+        <v>15</v>
+      </c>
+      <c r="FN143" t="n">
+        <v>62</v>
+      </c>
+      <c r="FO143" t="n">
+        <v>446</v>
+      </c>
+      <c r="FP143" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ143" t="n">
+        <v>298</v>
+      </c>
+      <c r="FR143" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS143" t="n">
+        <v>28</v>
+      </c>
+      <c r="FT143" t="n">
+        <v>209</v>
+      </c>
+      <c r="FU143" t="n">
+        <v>273</v>
+      </c>
+      <c r="FV143" t="n">
+        <v>212</v>
+      </c>
+      <c r="FW143" t="n">
+        <v>174</v>
+      </c>
+      <c r="FX143" t="n">
+        <v>736</v>
+      </c>
+      <c r="FY143" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ143" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA143" t="n">
+        <v>1723</v>
+      </c>
+      <c r="GB143" t="n">
+        <v>60</v>
+      </c>
+      <c r="GC143" t="n">
+        <v>240</v>
+      </c>
+      <c r="GD143" t="n">
+        <v>310</v>
+      </c>
+      <c r="GE143" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF143" t="n">
+        <v>30</v>
+      </c>
+      <c r="GG143" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH143" t="n">
+        <v>697</v>
+      </c>
+      <c r="GI143" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ143" t="n">
+        <v>321</v>
+      </c>
+      <c r="GK143" t="n">
+        <v>160</v>
+      </c>
+      <c r="GL143" t="n">
+        <v>339</v>
+      </c>
+      <c r="GM143" t="n">
+        <v>281</v>
+      </c>
+      <c r="GN143" t="n">
+        <v>44</v>
+      </c>
+      <c r="GO143" t="n">
+        <v>28</v>
+      </c>
+      <c r="GP143" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ143" t="n">
+        <v>603</v>
+      </c>
+      <c r="GR143" t="n">
+        <v>337</v>
+      </c>
+      <c r="GS143" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT143" t="n">
+        <v>214</v>
+      </c>
+      <c r="GU143" t="n">
+        <v>80</v>
+      </c>
+      <c r="GV143" t="n">
+        <v>157</v>
+      </c>
+      <c r="GW143" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX143" t="n">
+        <v>81</v>
+      </c>
+      <c r="GY143" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ143" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA143" t="n">
+        <v>127</v>
+      </c>
+      <c r="HB143" t="n">
+        <v>184</v>
+      </c>
+      <c r="HC143" t="n">
+        <v>1369</v>
+      </c>
+      <c r="HD143" t="n">
         <v>175</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD143"/>
+  <dimension ref="A1:HD144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90590,7 +90590,7 @@
         <v>497</v>
       </c>
       <c r="BO141" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP141" t="n">
         <v>1</v>
@@ -91230,7 +91230,7 @@
         <v>514</v>
       </c>
       <c r="BO142" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP142" t="n">
         <v>1</v>
@@ -91870,7 +91870,7 @@
         <v>521</v>
       </c>
       <c r="BO143" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP143" t="n">
         <v>1</v>
@@ -92305,6 +92305,646 @@
         <v>1369</v>
       </c>
       <c r="HD143" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>646</v>
+      </c>
+      <c r="C144" t="n">
+        <v>214</v>
+      </c>
+      <c r="D144" t="n">
+        <v>98</v>
+      </c>
+      <c r="E144" t="n">
+        <v>465</v>
+      </c>
+      <c r="F144" t="n">
+        <v>862</v>
+      </c>
+      <c r="G144" t="n">
+        <v>591</v>
+      </c>
+      <c r="H144" t="n">
+        <v>130</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>322</v>
+      </c>
+      <c r="K144" t="n">
+        <v>349</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>137</v>
+      </c>
+      <c r="N144" t="n">
+        <v>35</v>
+      </c>
+      <c r="O144" t="n">
+        <v>86</v>
+      </c>
+      <c r="P144" t="n">
+        <v>678</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>670</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>150</v>
+      </c>
+      <c r="T144" t="n">
+        <v>278</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1</v>
+      </c>
+      <c r="V144" t="n">
+        <v>61</v>
+      </c>
+      <c r="W144" t="n">
+        <v>32</v>
+      </c>
+      <c r="X144" t="n">
+        <v>689</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>585</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>397</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>356</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>221</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>625</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>181</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>322</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>253</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>296</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1627</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>125</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>133</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>187</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>191</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>371</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>4254</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>57</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>498</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>149</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>178</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>238</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>273</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>78</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>539</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>166</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ144" t="n">
+        <v>197</v>
+      </c>
+      <c r="BR144" t="n">
+        <v>332</v>
+      </c>
+      <c r="BS144" t="n">
+        <v>202</v>
+      </c>
+      <c r="BT144" t="n">
+        <v>421</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV144" t="n">
+        <v>148</v>
+      </c>
+      <c r="BW144" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX144" t="n">
+        <v>130</v>
+      </c>
+      <c r="BY144" t="n">
+        <v>170</v>
+      </c>
+      <c r="BZ144" t="n">
+        <v>186</v>
+      </c>
+      <c r="CA144" t="n">
+        <v>778</v>
+      </c>
+      <c r="CB144" t="n">
+        <v>231</v>
+      </c>
+      <c r="CC144" t="n">
+        <v>869</v>
+      </c>
+      <c r="CD144" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE144" t="n">
+        <v>453</v>
+      </c>
+      <c r="CF144" t="n">
+        <v>68</v>
+      </c>
+      <c r="CG144" t="n">
+        <v>85</v>
+      </c>
+      <c r="CH144" t="n">
+        <v>40</v>
+      </c>
+      <c r="CI144" t="n">
+        <v>575</v>
+      </c>
+      <c r="CJ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK144" t="n">
+        <v>53</v>
+      </c>
+      <c r="CL144" t="n">
+        <v>305</v>
+      </c>
+      <c r="CM144" t="n">
+        <v>43</v>
+      </c>
+      <c r="CN144" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO144" t="n">
+        <v>726</v>
+      </c>
+      <c r="CP144" t="n">
+        <v>266</v>
+      </c>
+      <c r="CQ144" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR144" t="n">
+        <v>141</v>
+      </c>
+      <c r="CS144" t="n">
+        <v>652</v>
+      </c>
+      <c r="CT144" t="n">
+        <v>59</v>
+      </c>
+      <c r="CU144" t="n">
+        <v>260</v>
+      </c>
+      <c r="CV144" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW144" t="n">
+        <v>6599</v>
+      </c>
+      <c r="CX144" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY144" t="n">
+        <v>222</v>
+      </c>
+      <c r="CZ144" t="n">
+        <v>237</v>
+      </c>
+      <c r="DA144" t="n">
+        <v>53</v>
+      </c>
+      <c r="DB144" t="n">
+        <v>165</v>
+      </c>
+      <c r="DC144" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD144" t="n">
+        <v>202</v>
+      </c>
+      <c r="DE144" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF144" t="n">
+        <v>160</v>
+      </c>
+      <c r="DG144" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH144" t="n">
+        <v>195</v>
+      </c>
+      <c r="DI144" t="n">
+        <v>76</v>
+      </c>
+      <c r="DJ144" t="n">
+        <v>98</v>
+      </c>
+      <c r="DK144" t="n">
+        <v>160</v>
+      </c>
+      <c r="DL144" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM144" t="n">
+        <v>292</v>
+      </c>
+      <c r="DN144" t="n">
+        <v>124</v>
+      </c>
+      <c r="DO144" t="n">
+        <v>264</v>
+      </c>
+      <c r="DP144" t="n">
+        <v>722</v>
+      </c>
+      <c r="DQ144" t="n">
+        <v>180</v>
+      </c>
+      <c r="DR144" t="n">
+        <v>91</v>
+      </c>
+      <c r="DS144" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT144" t="n">
+        <v>176</v>
+      </c>
+      <c r="DU144" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV144" t="n">
+        <v>53</v>
+      </c>
+      <c r="DW144" t="n">
+        <v>336</v>
+      </c>
+      <c r="DX144" t="n">
+        <v>191</v>
+      </c>
+      <c r="DY144" t="n">
+        <v>5004</v>
+      </c>
+      <c r="DZ144" t="n">
+        <v>156</v>
+      </c>
+      <c r="EA144" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB144" t="n">
+        <v>264</v>
+      </c>
+      <c r="EC144" t="n">
+        <v>185</v>
+      </c>
+      <c r="ED144" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE144" t="n">
+        <v>1211</v>
+      </c>
+      <c r="EF144" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG144" t="n">
+        <v>314</v>
+      </c>
+      <c r="EH144" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI144" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ144" t="n">
+        <v>105</v>
+      </c>
+      <c r="EK144" t="n">
+        <v>336</v>
+      </c>
+      <c r="EL144" t="n">
+        <v>566</v>
+      </c>
+      <c r="EM144" t="n">
+        <v>3264</v>
+      </c>
+      <c r="EN144" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO144" t="n">
+        <v>95</v>
+      </c>
+      <c r="EP144" t="n">
+        <v>763</v>
+      </c>
+      <c r="EQ144" t="n">
+        <v>116</v>
+      </c>
+      <c r="ER144" t="n">
+        <v>2495</v>
+      </c>
+      <c r="ES144" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET144" t="n">
+        <v>572</v>
+      </c>
+      <c r="EU144" t="n">
+        <v>77</v>
+      </c>
+      <c r="EV144" t="n">
+        <v>262</v>
+      </c>
+      <c r="EW144" t="n">
+        <v>63</v>
+      </c>
+      <c r="EX144" t="n">
+        <v>27063</v>
+      </c>
+      <c r="EY144" t="n">
+        <v>234</v>
+      </c>
+      <c r="EZ144" t="n">
+        <v>174</v>
+      </c>
+      <c r="FA144" t="n">
+        <v>179</v>
+      </c>
+      <c r="FB144" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC144" t="n">
+        <v>48</v>
+      </c>
+      <c r="FD144" t="n">
+        <v>335</v>
+      </c>
+      <c r="FE144" t="n">
+        <v>48</v>
+      </c>
+      <c r="FF144" t="n">
+        <v>317</v>
+      </c>
+      <c r="FG144" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH144" t="n">
+        <v>35</v>
+      </c>
+      <c r="FI144" t="n">
+        <v>1930</v>
+      </c>
+      <c r="FJ144" t="n">
+        <v>8</v>
+      </c>
+      <c r="FK144" t="n">
+        <v>42</v>
+      </c>
+      <c r="FL144" t="n">
+        <v>100</v>
+      </c>
+      <c r="FM144" t="n">
+        <v>19</v>
+      </c>
+      <c r="FN144" t="n">
+        <v>63</v>
+      </c>
+      <c r="FO144" t="n">
+        <v>451</v>
+      </c>
+      <c r="FP144" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ144" t="n">
+        <v>319</v>
+      </c>
+      <c r="FR144" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS144" t="n">
+        <v>29</v>
+      </c>
+      <c r="FT144" t="n">
+        <v>216</v>
+      </c>
+      <c r="FU144" t="n">
+        <v>275</v>
+      </c>
+      <c r="FV144" t="n">
+        <v>219</v>
+      </c>
+      <c r="FW144" t="n">
+        <v>180</v>
+      </c>
+      <c r="FX144" t="n">
+        <v>743</v>
+      </c>
+      <c r="FY144" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ144" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA144" t="n">
+        <v>1854</v>
+      </c>
+      <c r="GB144" t="n">
+        <v>60</v>
+      </c>
+      <c r="GC144" t="n">
+        <v>248</v>
+      </c>
+      <c r="GD144" t="n">
+        <v>313</v>
+      </c>
+      <c r="GE144" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF144" t="n">
+        <v>35</v>
+      </c>
+      <c r="GG144" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH144" t="n">
+        <v>724</v>
+      </c>
+      <c r="GI144" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ144" t="n">
+        <v>326</v>
+      </c>
+      <c r="GK144" t="n">
+        <v>161</v>
+      </c>
+      <c r="GL144" t="n">
+        <v>345</v>
+      </c>
+      <c r="GM144" t="n">
+        <v>282</v>
+      </c>
+      <c r="GN144" t="n">
+        <v>44</v>
+      </c>
+      <c r="GO144" t="n">
+        <v>28</v>
+      </c>
+      <c r="GP144" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ144" t="n">
+        <v>606</v>
+      </c>
+      <c r="GR144" t="n">
+        <v>338</v>
+      </c>
+      <c r="GS144" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT144" t="n">
+        <v>215</v>
+      </c>
+      <c r="GU144" t="n">
+        <v>82</v>
+      </c>
+      <c r="GV144" t="n">
+        <v>163</v>
+      </c>
+      <c r="GW144" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX144" t="n">
+        <v>87</v>
+      </c>
+      <c r="GY144" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ144" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA144" t="n">
+        <v>128</v>
+      </c>
+      <c r="HB144" t="n">
+        <v>185</v>
+      </c>
+      <c r="HC144" t="n">
+        <v>1402</v>
+      </c>
+      <c r="HD144" t="n">
         <v>175</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD144"/>
+  <dimension ref="A1:HD145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92948,6 +92948,646 @@
         <v>175</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>656</v>
+      </c>
+      <c r="C145" t="n">
+        <v>215</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>469</v>
+      </c>
+      <c r="F145" t="n">
+        <v>866</v>
+      </c>
+      <c r="G145" t="n">
+        <v>599</v>
+      </c>
+      <c r="H145" t="n">
+        <v>130</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>323</v>
+      </c>
+      <c r="K145" t="n">
+        <v>354</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>137</v>
+      </c>
+      <c r="N145" t="n">
+        <v>35</v>
+      </c>
+      <c r="O145" t="n">
+        <v>86</v>
+      </c>
+      <c r="P145" t="n">
+        <v>718</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>678</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>151</v>
+      </c>
+      <c r="T145" t="n">
+        <v>279</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1</v>
+      </c>
+      <c r="V145" t="n">
+        <v>62</v>
+      </c>
+      <c r="W145" t="n">
+        <v>37</v>
+      </c>
+      <c r="X145" t="n">
+        <v>717</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>587</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>142</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>407</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>359</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>225</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>639</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>192</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1493</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>254</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>298</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1640</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>129</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>190</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>373</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>4310</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>500</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>151</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>238</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>277</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>78</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>119</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>104</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>550</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>166</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ145" t="n">
+        <v>197</v>
+      </c>
+      <c r="BR145" t="n">
+        <v>334</v>
+      </c>
+      <c r="BS145" t="n">
+        <v>205</v>
+      </c>
+      <c r="BT145" t="n">
+        <v>427</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV145" t="n">
+        <v>148</v>
+      </c>
+      <c r="BW145" t="n">
+        <v>59</v>
+      </c>
+      <c r="BX145" t="n">
+        <v>131</v>
+      </c>
+      <c r="BY145" t="n">
+        <v>172</v>
+      </c>
+      <c r="BZ145" t="n">
+        <v>187</v>
+      </c>
+      <c r="CA145" t="n">
+        <v>793</v>
+      </c>
+      <c r="CB145" t="n">
+        <v>238</v>
+      </c>
+      <c r="CC145" t="n">
+        <v>875</v>
+      </c>
+      <c r="CD145" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE145" t="n">
+        <v>456</v>
+      </c>
+      <c r="CF145" t="n">
+        <v>70</v>
+      </c>
+      <c r="CG145" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH145" t="n">
+        <v>40</v>
+      </c>
+      <c r="CI145" t="n">
+        <v>581</v>
+      </c>
+      <c r="CJ145" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK145" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL145" t="n">
+        <v>320</v>
+      </c>
+      <c r="CM145" t="n">
+        <v>51</v>
+      </c>
+      <c r="CN145" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO145" t="n">
+        <v>727</v>
+      </c>
+      <c r="CP145" t="n">
+        <v>271</v>
+      </c>
+      <c r="CQ145" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR145" t="n">
+        <v>141</v>
+      </c>
+      <c r="CS145" t="n">
+        <v>655</v>
+      </c>
+      <c r="CT145" t="n">
+        <v>61</v>
+      </c>
+      <c r="CU145" t="n">
+        <v>287</v>
+      </c>
+      <c r="CV145" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW145" t="n">
+        <v>6661</v>
+      </c>
+      <c r="CX145" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY145" t="n">
+        <v>222</v>
+      </c>
+      <c r="CZ145" t="n">
+        <v>240</v>
+      </c>
+      <c r="DA145" t="n">
+        <v>54</v>
+      </c>
+      <c r="DB145" t="n">
+        <v>165</v>
+      </c>
+      <c r="DC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD145" t="n">
+        <v>202</v>
+      </c>
+      <c r="DE145" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF145" t="n">
+        <v>160</v>
+      </c>
+      <c r="DG145" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH145" t="n">
+        <v>197</v>
+      </c>
+      <c r="DI145" t="n">
+        <v>76</v>
+      </c>
+      <c r="DJ145" t="n">
+        <v>100</v>
+      </c>
+      <c r="DK145" t="n">
+        <v>160</v>
+      </c>
+      <c r="DL145" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM145" t="n">
+        <v>295</v>
+      </c>
+      <c r="DN145" t="n">
+        <v>133</v>
+      </c>
+      <c r="DO145" t="n">
+        <v>272</v>
+      </c>
+      <c r="DP145" t="n">
+        <v>727</v>
+      </c>
+      <c r="DQ145" t="n">
+        <v>182</v>
+      </c>
+      <c r="DR145" t="n">
+        <v>93</v>
+      </c>
+      <c r="DS145" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT145" t="n">
+        <v>179</v>
+      </c>
+      <c r="DU145" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV145" t="n">
+        <v>64</v>
+      </c>
+      <c r="DW145" t="n">
+        <v>339</v>
+      </c>
+      <c r="DX145" t="n">
+        <v>193</v>
+      </c>
+      <c r="DY145" t="n">
+        <v>5025</v>
+      </c>
+      <c r="DZ145" t="n">
+        <v>187</v>
+      </c>
+      <c r="EA145" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB145" t="n">
+        <v>273</v>
+      </c>
+      <c r="EC145" t="n">
+        <v>186</v>
+      </c>
+      <c r="ED145" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE145" t="n">
+        <v>1215</v>
+      </c>
+      <c r="EF145" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG145" t="n">
+        <v>328</v>
+      </c>
+      <c r="EH145" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI145" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ145" t="n">
+        <v>114</v>
+      </c>
+      <c r="EK145" t="n">
+        <v>342</v>
+      </c>
+      <c r="EL145" t="n">
+        <v>569</v>
+      </c>
+      <c r="EM145" t="n">
+        <v>3285</v>
+      </c>
+      <c r="EN145" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO145" t="n">
+        <v>97</v>
+      </c>
+      <c r="EP145" t="n">
+        <v>771</v>
+      </c>
+      <c r="EQ145" t="n">
+        <v>116</v>
+      </c>
+      <c r="ER145" t="n">
+        <v>2530</v>
+      </c>
+      <c r="ES145" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET145" t="n">
+        <v>572</v>
+      </c>
+      <c r="EU145" t="n">
+        <v>77</v>
+      </c>
+      <c r="EV145" t="n">
+        <v>262</v>
+      </c>
+      <c r="EW145" t="n">
+        <v>63</v>
+      </c>
+      <c r="EX145" t="n">
+        <v>27242</v>
+      </c>
+      <c r="EY145" t="n">
+        <v>240</v>
+      </c>
+      <c r="EZ145" t="n">
+        <v>174</v>
+      </c>
+      <c r="FA145" t="n">
+        <v>182</v>
+      </c>
+      <c r="FB145" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC145" t="n">
+        <v>51</v>
+      </c>
+      <c r="FD145" t="n">
+        <v>349</v>
+      </c>
+      <c r="FE145" t="n">
+        <v>48</v>
+      </c>
+      <c r="FF145" t="n">
+        <v>339</v>
+      </c>
+      <c r="FG145" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH145" t="n">
+        <v>38</v>
+      </c>
+      <c r="FI145" t="n">
+        <v>1971</v>
+      </c>
+      <c r="FJ145" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK145" t="n">
+        <v>42</v>
+      </c>
+      <c r="FL145" t="n">
+        <v>102</v>
+      </c>
+      <c r="FM145" t="n">
+        <v>19</v>
+      </c>
+      <c r="FN145" t="n">
+        <v>63</v>
+      </c>
+      <c r="FO145" t="n">
+        <v>457</v>
+      </c>
+      <c r="FP145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ145" t="n">
+        <v>324</v>
+      </c>
+      <c r="FR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS145" t="n">
+        <v>29</v>
+      </c>
+      <c r="FT145" t="n">
+        <v>217</v>
+      </c>
+      <c r="FU145" t="n">
+        <v>288</v>
+      </c>
+      <c r="FV145" t="n">
+        <v>221</v>
+      </c>
+      <c r="FW145" t="n">
+        <v>183</v>
+      </c>
+      <c r="FX145" t="n">
+        <v>747</v>
+      </c>
+      <c r="FY145" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ145" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA145" t="n">
+        <v>1929</v>
+      </c>
+      <c r="GB145" t="n">
+        <v>60</v>
+      </c>
+      <c r="GC145" t="n">
+        <v>252</v>
+      </c>
+      <c r="GD145" t="n">
+        <v>313</v>
+      </c>
+      <c r="GE145" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF145" t="n">
+        <v>36</v>
+      </c>
+      <c r="GG145" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH145" t="n">
+        <v>741</v>
+      </c>
+      <c r="GI145" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ145" t="n">
+        <v>327</v>
+      </c>
+      <c r="GK145" t="n">
+        <v>188</v>
+      </c>
+      <c r="GL145" t="n">
+        <v>354</v>
+      </c>
+      <c r="GM145" t="n">
+        <v>282</v>
+      </c>
+      <c r="GN145" t="n">
+        <v>44</v>
+      </c>
+      <c r="GO145" t="n">
+        <v>31</v>
+      </c>
+      <c r="GP145" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ145" t="n">
+        <v>638</v>
+      </c>
+      <c r="GR145" t="n">
+        <v>344</v>
+      </c>
+      <c r="GS145" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT145" t="n">
+        <v>215</v>
+      </c>
+      <c r="GU145" t="n">
+        <v>82</v>
+      </c>
+      <c r="GV145" t="n">
+        <v>163</v>
+      </c>
+      <c r="GW145" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX145" t="n">
+        <v>89</v>
+      </c>
+      <c r="GY145" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ145" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA145" t="n">
+        <v>128</v>
+      </c>
+      <c r="HB145" t="n">
+        <v>187</v>
+      </c>
+      <c r="HC145" t="n">
+        <v>1412</v>
+      </c>
+      <c r="HD145" t="n">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD145"/>
+  <dimension ref="A1:HD146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93588,6 +93588,646 @@
         <v>176</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>661</v>
+      </c>
+      <c r="C146" t="n">
+        <v>215</v>
+      </c>
+      <c r="D146" t="n">
+        <v>100</v>
+      </c>
+      <c r="E146" t="n">
+        <v>474</v>
+      </c>
+      <c r="F146" t="n">
+        <v>866</v>
+      </c>
+      <c r="G146" t="n">
+        <v>599</v>
+      </c>
+      <c r="H146" t="n">
+        <v>131</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>325</v>
+      </c>
+      <c r="K146" t="n">
+        <v>355</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>137</v>
+      </c>
+      <c r="N146" t="n">
+        <v>35</v>
+      </c>
+      <c r="O146" t="n">
+        <v>86</v>
+      </c>
+      <c r="P146" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>693</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>151</v>
+      </c>
+      <c r="T146" t="n">
+        <v>280</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1</v>
+      </c>
+      <c r="V146" t="n">
+        <v>71</v>
+      </c>
+      <c r="W146" t="n">
+        <v>37</v>
+      </c>
+      <c r="X146" t="n">
+        <v>726</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>590</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>142</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>409</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>360</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>225</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>646</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>194</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1493</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>256</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>302</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1646</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>131</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>190</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>103</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>4357</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>501</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>151</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>238</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>279</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>79</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>119</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>104</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>551</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ146" t="n">
+        <v>199</v>
+      </c>
+      <c r="BR146" t="n">
+        <v>334</v>
+      </c>
+      <c r="BS146" t="n">
+        <v>206</v>
+      </c>
+      <c r="BT146" t="n">
+        <v>427</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV146" t="n">
+        <v>149</v>
+      </c>
+      <c r="BW146" t="n">
+        <v>59</v>
+      </c>
+      <c r="BX146" t="n">
+        <v>131</v>
+      </c>
+      <c r="BY146" t="n">
+        <v>172</v>
+      </c>
+      <c r="BZ146" t="n">
+        <v>187</v>
+      </c>
+      <c r="CA146" t="n">
+        <v>800</v>
+      </c>
+      <c r="CB146" t="n">
+        <v>241</v>
+      </c>
+      <c r="CC146" t="n">
+        <v>876</v>
+      </c>
+      <c r="CD146" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE146" t="n">
+        <v>460</v>
+      </c>
+      <c r="CF146" t="n">
+        <v>70</v>
+      </c>
+      <c r="CG146" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH146" t="n">
+        <v>40</v>
+      </c>
+      <c r="CI146" t="n">
+        <v>582</v>
+      </c>
+      <c r="CJ146" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK146" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL146" t="n">
+        <v>322</v>
+      </c>
+      <c r="CM146" t="n">
+        <v>51</v>
+      </c>
+      <c r="CN146" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO146" t="n">
+        <v>727</v>
+      </c>
+      <c r="CP146" t="n">
+        <v>272</v>
+      </c>
+      <c r="CQ146" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR146" t="n">
+        <v>141</v>
+      </c>
+      <c r="CS146" t="n">
+        <v>655</v>
+      </c>
+      <c r="CT146" t="n">
+        <v>61</v>
+      </c>
+      <c r="CU146" t="n">
+        <v>287</v>
+      </c>
+      <c r="CV146" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW146" t="n">
+        <v>6676</v>
+      </c>
+      <c r="CX146" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY146" t="n">
+        <v>223</v>
+      </c>
+      <c r="CZ146" t="n">
+        <v>240</v>
+      </c>
+      <c r="DA146" t="n">
+        <v>54</v>
+      </c>
+      <c r="DB146" t="n">
+        <v>167</v>
+      </c>
+      <c r="DC146" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD146" t="n">
+        <v>202</v>
+      </c>
+      <c r="DE146" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF146" t="n">
+        <v>160</v>
+      </c>
+      <c r="DG146" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH146" t="n">
+        <v>205</v>
+      </c>
+      <c r="DI146" t="n">
+        <v>81</v>
+      </c>
+      <c r="DJ146" t="n">
+        <v>100</v>
+      </c>
+      <c r="DK146" t="n">
+        <v>161</v>
+      </c>
+      <c r="DL146" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM146" t="n">
+        <v>295</v>
+      </c>
+      <c r="DN146" t="n">
+        <v>133</v>
+      </c>
+      <c r="DO146" t="n">
+        <v>273</v>
+      </c>
+      <c r="DP146" t="n">
+        <v>730</v>
+      </c>
+      <c r="DQ146" t="n">
+        <v>185</v>
+      </c>
+      <c r="DR146" t="n">
+        <v>94</v>
+      </c>
+      <c r="DS146" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT146" t="n">
+        <v>179</v>
+      </c>
+      <c r="DU146" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV146" t="n">
+        <v>64</v>
+      </c>
+      <c r="DW146" t="n">
+        <v>340</v>
+      </c>
+      <c r="DX146" t="n">
+        <v>193</v>
+      </c>
+      <c r="DY146" t="n">
+        <v>5036</v>
+      </c>
+      <c r="DZ146" t="n">
+        <v>187</v>
+      </c>
+      <c r="EA146" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB146" t="n">
+        <v>274</v>
+      </c>
+      <c r="EC146" t="n">
+        <v>186</v>
+      </c>
+      <c r="ED146" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE146" t="n">
+        <v>1215</v>
+      </c>
+      <c r="EF146" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG146" t="n">
+        <v>332</v>
+      </c>
+      <c r="EH146" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI146" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ146" t="n">
+        <v>116</v>
+      </c>
+      <c r="EK146" t="n">
+        <v>342</v>
+      </c>
+      <c r="EL146" t="n">
+        <v>570</v>
+      </c>
+      <c r="EM146" t="n">
+        <v>3302</v>
+      </c>
+      <c r="EN146" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO146" t="n">
+        <v>101</v>
+      </c>
+      <c r="EP146" t="n">
+        <v>778</v>
+      </c>
+      <c r="EQ146" t="n">
+        <v>116</v>
+      </c>
+      <c r="ER146" t="n">
+        <v>2534</v>
+      </c>
+      <c r="ES146" t="n">
+        <v>28</v>
+      </c>
+      <c r="ET146" t="n">
+        <v>575</v>
+      </c>
+      <c r="EU146" t="n">
+        <v>77</v>
+      </c>
+      <c r="EV146" t="n">
+        <v>264</v>
+      </c>
+      <c r="EW146" t="n">
+        <v>63</v>
+      </c>
+      <c r="EX146" t="n">
+        <v>27309</v>
+      </c>
+      <c r="EY146" t="n">
+        <v>240</v>
+      </c>
+      <c r="EZ146" t="n">
+        <v>175</v>
+      </c>
+      <c r="FA146" t="n">
+        <v>182</v>
+      </c>
+      <c r="FB146" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC146" t="n">
+        <v>51</v>
+      </c>
+      <c r="FD146" t="n">
+        <v>354</v>
+      </c>
+      <c r="FE146" t="n">
+        <v>48</v>
+      </c>
+      <c r="FF146" t="n">
+        <v>339</v>
+      </c>
+      <c r="FG146" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH146" t="n">
+        <v>38</v>
+      </c>
+      <c r="FI146" t="n">
+        <v>1984</v>
+      </c>
+      <c r="FJ146" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK146" t="n">
+        <v>44</v>
+      </c>
+      <c r="FL146" t="n">
+        <v>103</v>
+      </c>
+      <c r="FM146" t="n">
+        <v>19</v>
+      </c>
+      <c r="FN146" t="n">
+        <v>63</v>
+      </c>
+      <c r="FO146" t="n">
+        <v>463</v>
+      </c>
+      <c r="FP146" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ146" t="n">
+        <v>328</v>
+      </c>
+      <c r="FR146" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS146" t="n">
+        <v>29</v>
+      </c>
+      <c r="FT146" t="n">
+        <v>219</v>
+      </c>
+      <c r="FU146" t="n">
+        <v>288</v>
+      </c>
+      <c r="FV146" t="n">
+        <v>221</v>
+      </c>
+      <c r="FW146" t="n">
+        <v>194</v>
+      </c>
+      <c r="FX146" t="n">
+        <v>751</v>
+      </c>
+      <c r="FY146" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ146" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA146" t="n">
+        <v>1931</v>
+      </c>
+      <c r="GB146" t="n">
+        <v>61</v>
+      </c>
+      <c r="GC146" t="n">
+        <v>261</v>
+      </c>
+      <c r="GD146" t="n">
+        <v>313</v>
+      </c>
+      <c r="GE146" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF146" t="n">
+        <v>36</v>
+      </c>
+      <c r="GG146" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH146" t="n">
+        <v>742</v>
+      </c>
+      <c r="GI146" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ146" t="n">
+        <v>329</v>
+      </c>
+      <c r="GK146" t="n">
+        <v>188</v>
+      </c>
+      <c r="GL146" t="n">
+        <v>354</v>
+      </c>
+      <c r="GM146" t="n">
+        <v>282</v>
+      </c>
+      <c r="GN146" t="n">
+        <v>47</v>
+      </c>
+      <c r="GO146" t="n">
+        <v>31</v>
+      </c>
+      <c r="GP146" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ146" t="n">
+        <v>638</v>
+      </c>
+      <c r="GR146" t="n">
+        <v>352</v>
+      </c>
+      <c r="GS146" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT146" t="n">
+        <v>215</v>
+      </c>
+      <c r="GU146" t="n">
+        <v>82</v>
+      </c>
+      <c r="GV146" t="n">
+        <v>167</v>
+      </c>
+      <c r="GW146" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX146" t="n">
+        <v>96</v>
+      </c>
+      <c r="GY146" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ146" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA146" t="n">
+        <v>129</v>
+      </c>
+      <c r="HB146" t="n">
+        <v>187</v>
+      </c>
+      <c r="HC146" t="n">
+        <v>1423</v>
+      </c>
+      <c r="HD146" t="n">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD146"/>
+  <dimension ref="A1:HD147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93216,7 +93216,7 @@
         <v>2</v>
       </c>
       <c r="CK145" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CL145" t="n">
         <v>320</v>
@@ -93856,7 +93856,7 @@
         <v>2</v>
       </c>
       <c r="CK146" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CL146" t="n">
         <v>322</v>
@@ -94226,6 +94226,646 @@
       </c>
       <c r="HD146" t="n">
         <v>177</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>662</v>
+      </c>
+      <c r="C147" t="n">
+        <v>216</v>
+      </c>
+      <c r="D147" t="n">
+        <v>100</v>
+      </c>
+      <c r="E147" t="n">
+        <v>477</v>
+      </c>
+      <c r="F147" t="n">
+        <v>866</v>
+      </c>
+      <c r="G147" t="n">
+        <v>599</v>
+      </c>
+      <c r="H147" t="n">
+        <v>131</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>325</v>
+      </c>
+      <c r="K147" t="n">
+        <v>355</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>137</v>
+      </c>
+      <c r="N147" t="n">
+        <v>35</v>
+      </c>
+      <c r="O147" t="n">
+        <v>86</v>
+      </c>
+      <c r="P147" t="n">
+        <v>729</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>698</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>151</v>
+      </c>
+      <c r="T147" t="n">
+        <v>280</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1</v>
+      </c>
+      <c r="V147" t="n">
+        <v>74</v>
+      </c>
+      <c r="W147" t="n">
+        <v>42</v>
+      </c>
+      <c r="X147" t="n">
+        <v>729</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>593</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>409</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>360</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>231</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>653</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>195</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1494</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>257</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>304</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>131</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>192</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>203</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>105</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4395</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>507</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>158</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>238</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>279</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>80</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>120</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>104</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>552</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ147" t="n">
+        <v>199</v>
+      </c>
+      <c r="BR147" t="n">
+        <v>334</v>
+      </c>
+      <c r="BS147" t="n">
+        <v>210</v>
+      </c>
+      <c r="BT147" t="n">
+        <v>428</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV147" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW147" t="n">
+        <v>60</v>
+      </c>
+      <c r="BX147" t="n">
+        <v>131</v>
+      </c>
+      <c r="BY147" t="n">
+        <v>172</v>
+      </c>
+      <c r="BZ147" t="n">
+        <v>187</v>
+      </c>
+      <c r="CA147" t="n">
+        <v>804</v>
+      </c>
+      <c r="CB147" t="n">
+        <v>241</v>
+      </c>
+      <c r="CC147" t="n">
+        <v>877</v>
+      </c>
+      <c r="CD147" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE147" t="n">
+        <v>462</v>
+      </c>
+      <c r="CF147" t="n">
+        <v>71</v>
+      </c>
+      <c r="CG147" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH147" t="n">
+        <v>40</v>
+      </c>
+      <c r="CI147" t="n">
+        <v>586</v>
+      </c>
+      <c r="CJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK147" t="n">
+        <v>53</v>
+      </c>
+      <c r="CL147" t="n">
+        <v>324</v>
+      </c>
+      <c r="CM147" t="n">
+        <v>51</v>
+      </c>
+      <c r="CN147" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO147" t="n">
+        <v>727</v>
+      </c>
+      <c r="CP147" t="n">
+        <v>274</v>
+      </c>
+      <c r="CQ147" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR147" t="n">
+        <v>145</v>
+      </c>
+      <c r="CS147" t="n">
+        <v>655</v>
+      </c>
+      <c r="CT147" t="n">
+        <v>62</v>
+      </c>
+      <c r="CU147" t="n">
+        <v>287</v>
+      </c>
+      <c r="CV147" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW147" t="n">
+        <v>6686</v>
+      </c>
+      <c r="CX147" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY147" t="n">
+        <v>223</v>
+      </c>
+      <c r="CZ147" t="n">
+        <v>240</v>
+      </c>
+      <c r="DA147" t="n">
+        <v>54</v>
+      </c>
+      <c r="DB147" t="n">
+        <v>168</v>
+      </c>
+      <c r="DC147" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD147" t="n">
+        <v>202</v>
+      </c>
+      <c r="DE147" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF147" t="n">
+        <v>161</v>
+      </c>
+      <c r="DG147" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH147" t="n">
+        <v>206</v>
+      </c>
+      <c r="DI147" t="n">
+        <v>83</v>
+      </c>
+      <c r="DJ147" t="n">
+        <v>100</v>
+      </c>
+      <c r="DK147" t="n">
+        <v>161</v>
+      </c>
+      <c r="DL147" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM147" t="n">
+        <v>297</v>
+      </c>
+      <c r="DN147" t="n">
+        <v>135</v>
+      </c>
+      <c r="DO147" t="n">
+        <v>273</v>
+      </c>
+      <c r="DP147" t="n">
+        <v>731</v>
+      </c>
+      <c r="DQ147" t="n">
+        <v>185</v>
+      </c>
+      <c r="DR147" t="n">
+        <v>94</v>
+      </c>
+      <c r="DS147" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT147" t="n">
+        <v>180</v>
+      </c>
+      <c r="DU147" t="n">
+        <v>33</v>
+      </c>
+      <c r="DV147" t="n">
+        <v>64</v>
+      </c>
+      <c r="DW147" t="n">
+        <v>341</v>
+      </c>
+      <c r="DX147" t="n">
+        <v>193</v>
+      </c>
+      <c r="DY147" t="n">
+        <v>5043</v>
+      </c>
+      <c r="DZ147" t="n">
+        <v>187</v>
+      </c>
+      <c r="EA147" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB147" t="n">
+        <v>274</v>
+      </c>
+      <c r="EC147" t="n">
+        <v>188</v>
+      </c>
+      <c r="ED147" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE147" t="n">
+        <v>1215</v>
+      </c>
+      <c r="EF147" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG147" t="n">
+        <v>335</v>
+      </c>
+      <c r="EH147" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI147" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ147" t="n">
+        <v>121</v>
+      </c>
+      <c r="EK147" t="n">
+        <v>348</v>
+      </c>
+      <c r="EL147" t="n">
+        <v>570</v>
+      </c>
+      <c r="EM147" t="n">
+        <v>3310</v>
+      </c>
+      <c r="EN147" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO147" t="n">
+        <v>101</v>
+      </c>
+      <c r="EP147" t="n">
+        <v>787</v>
+      </c>
+      <c r="EQ147" t="n">
+        <v>117</v>
+      </c>
+      <c r="ER147" t="n">
+        <v>2541</v>
+      </c>
+      <c r="ES147" t="n">
+        <v>29</v>
+      </c>
+      <c r="ET147" t="n">
+        <v>577</v>
+      </c>
+      <c r="EU147" t="n">
+        <v>77</v>
+      </c>
+      <c r="EV147" t="n">
+        <v>264</v>
+      </c>
+      <c r="EW147" t="n">
+        <v>63</v>
+      </c>
+      <c r="EX147" t="n">
+        <v>27410</v>
+      </c>
+      <c r="EY147" t="n">
+        <v>241</v>
+      </c>
+      <c r="EZ147" t="n">
+        <v>175</v>
+      </c>
+      <c r="FA147" t="n">
+        <v>185</v>
+      </c>
+      <c r="FB147" t="n">
+        <v>30</v>
+      </c>
+      <c r="FC147" t="n">
+        <v>51</v>
+      </c>
+      <c r="FD147" t="n">
+        <v>359</v>
+      </c>
+      <c r="FE147" t="n">
+        <v>48</v>
+      </c>
+      <c r="FF147" t="n">
+        <v>339</v>
+      </c>
+      <c r="FG147" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH147" t="n">
+        <v>38</v>
+      </c>
+      <c r="FI147" t="n">
+        <v>2009</v>
+      </c>
+      <c r="FJ147" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK147" t="n">
+        <v>47</v>
+      </c>
+      <c r="FL147" t="n">
+        <v>103</v>
+      </c>
+      <c r="FM147" t="n">
+        <v>19</v>
+      </c>
+      <c r="FN147" t="n">
+        <v>64</v>
+      </c>
+      <c r="FO147" t="n">
+        <v>470</v>
+      </c>
+      <c r="FP147" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ147" t="n">
+        <v>329</v>
+      </c>
+      <c r="FR147" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS147" t="n">
+        <v>32</v>
+      </c>
+      <c r="FT147" t="n">
+        <v>219</v>
+      </c>
+      <c r="FU147" t="n">
+        <v>290</v>
+      </c>
+      <c r="FV147" t="n">
+        <v>222</v>
+      </c>
+      <c r="FW147" t="n">
+        <v>198</v>
+      </c>
+      <c r="FX147" t="n">
+        <v>752</v>
+      </c>
+      <c r="FY147" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ147" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA147" t="n">
+        <v>1943</v>
+      </c>
+      <c r="GB147" t="n">
+        <v>65</v>
+      </c>
+      <c r="GC147" t="n">
+        <v>263</v>
+      </c>
+      <c r="GD147" t="n">
+        <v>313</v>
+      </c>
+      <c r="GE147" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF147" t="n">
+        <v>36</v>
+      </c>
+      <c r="GG147" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH147" t="n">
+        <v>756</v>
+      </c>
+      <c r="GI147" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ147" t="n">
+        <v>330</v>
+      </c>
+      <c r="GK147" t="n">
+        <v>188</v>
+      </c>
+      <c r="GL147" t="n">
+        <v>354</v>
+      </c>
+      <c r="GM147" t="n">
+        <v>282</v>
+      </c>
+      <c r="GN147" t="n">
+        <v>48</v>
+      </c>
+      <c r="GO147" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP147" t="n">
+        <v>26</v>
+      </c>
+      <c r="GQ147" t="n">
+        <v>650</v>
+      </c>
+      <c r="GR147" t="n">
+        <v>353</v>
+      </c>
+      <c r="GS147" t="n">
+        <v>42</v>
+      </c>
+      <c r="GT147" t="n">
+        <v>216</v>
+      </c>
+      <c r="GU147" t="n">
+        <v>82</v>
+      </c>
+      <c r="GV147" t="n">
+        <v>167</v>
+      </c>
+      <c r="GW147" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX147" t="n">
+        <v>97</v>
+      </c>
+      <c r="GY147" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ147" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA147" t="n">
+        <v>129</v>
+      </c>
+      <c r="HB147" t="n">
+        <v>188</v>
+      </c>
+      <c r="HC147" t="n">
+        <v>1430</v>
+      </c>
+      <c r="HD147" t="n">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD147"/>
+  <dimension ref="A1:HD148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94868,6 +94868,646 @@
         <v>178</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>673</v>
+      </c>
+      <c r="C148" t="n">
+        <v>222</v>
+      </c>
+      <c r="D148" t="n">
+        <v>103</v>
+      </c>
+      <c r="E148" t="n">
+        <v>486</v>
+      </c>
+      <c r="F148" t="n">
+        <v>867</v>
+      </c>
+      <c r="G148" t="n">
+        <v>599</v>
+      </c>
+      <c r="H148" t="n">
+        <v>131</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>326</v>
+      </c>
+      <c r="K148" t="n">
+        <v>364</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>137</v>
+      </c>
+      <c r="N148" t="n">
+        <v>36</v>
+      </c>
+      <c r="O148" t="n">
+        <v>89</v>
+      </c>
+      <c r="P148" t="n">
+        <v>772</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>702</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>153</v>
+      </c>
+      <c r="T148" t="n">
+        <v>280</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>78</v>
+      </c>
+      <c r="W148" t="n">
+        <v>42</v>
+      </c>
+      <c r="X148" t="n">
+        <v>750</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>621</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>146</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>411</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>378</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>236</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>669</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>204</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1497</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>336</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>258</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>309</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>94</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1669</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>131</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>202</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>214</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>106</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>388</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>4501</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>509</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>171</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>240</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>289</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>82</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>558</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ148" t="n">
+        <v>202</v>
+      </c>
+      <c r="BR148" t="n">
+        <v>336</v>
+      </c>
+      <c r="BS148" t="n">
+        <v>222</v>
+      </c>
+      <c r="BT148" t="n">
+        <v>429</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV148" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW148" t="n">
+        <v>62</v>
+      </c>
+      <c r="BX148" t="n">
+        <v>131</v>
+      </c>
+      <c r="BY148" t="n">
+        <v>183</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>187</v>
+      </c>
+      <c r="CA148" t="n">
+        <v>821</v>
+      </c>
+      <c r="CB148" t="n">
+        <v>243</v>
+      </c>
+      <c r="CC148" t="n">
+        <v>877</v>
+      </c>
+      <c r="CD148" t="n">
+        <v>21</v>
+      </c>
+      <c r="CE148" t="n">
+        <v>479</v>
+      </c>
+      <c r="CF148" t="n">
+        <v>75</v>
+      </c>
+      <c r="CG148" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH148" t="n">
+        <v>40</v>
+      </c>
+      <c r="CI148" t="n">
+        <v>595</v>
+      </c>
+      <c r="CJ148" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK148" t="n">
+        <v>53</v>
+      </c>
+      <c r="CL148" t="n">
+        <v>325</v>
+      </c>
+      <c r="CM148" t="n">
+        <v>52</v>
+      </c>
+      <c r="CN148" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO148" t="n">
+        <v>727</v>
+      </c>
+      <c r="CP148" t="n">
+        <v>277</v>
+      </c>
+      <c r="CQ148" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR148" t="n">
+        <v>148</v>
+      </c>
+      <c r="CS148" t="n">
+        <v>656</v>
+      </c>
+      <c r="CT148" t="n">
+        <v>64</v>
+      </c>
+      <c r="CU148" t="n">
+        <v>290</v>
+      </c>
+      <c r="CV148" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW148" t="n">
+        <v>6743</v>
+      </c>
+      <c r="CX148" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY148" t="n">
+        <v>226</v>
+      </c>
+      <c r="CZ148" t="n">
+        <v>241</v>
+      </c>
+      <c r="DA148" t="n">
+        <v>54</v>
+      </c>
+      <c r="DB148" t="n">
+        <v>170</v>
+      </c>
+      <c r="DC148" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD148" t="n">
+        <v>202</v>
+      </c>
+      <c r="DE148" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF148" t="n">
+        <v>163</v>
+      </c>
+      <c r="DG148" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH148" t="n">
+        <v>207</v>
+      </c>
+      <c r="DI148" t="n">
+        <v>84</v>
+      </c>
+      <c r="DJ148" t="n">
+        <v>103</v>
+      </c>
+      <c r="DK148" t="n">
+        <v>163</v>
+      </c>
+      <c r="DL148" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM148" t="n">
+        <v>297</v>
+      </c>
+      <c r="DN148" t="n">
+        <v>137</v>
+      </c>
+      <c r="DO148" t="n">
+        <v>277</v>
+      </c>
+      <c r="DP148" t="n">
+        <v>757</v>
+      </c>
+      <c r="DQ148" t="n">
+        <v>185</v>
+      </c>
+      <c r="DR148" t="n">
+        <v>95</v>
+      </c>
+      <c r="DS148" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT148" t="n">
+        <v>187</v>
+      </c>
+      <c r="DU148" t="n">
+        <v>35</v>
+      </c>
+      <c r="DV148" t="n">
+        <v>67</v>
+      </c>
+      <c r="DW148" t="n">
+        <v>341</v>
+      </c>
+      <c r="DX148" t="n">
+        <v>195</v>
+      </c>
+      <c r="DY148" t="n">
+        <v>5072</v>
+      </c>
+      <c r="DZ148" t="n">
+        <v>199</v>
+      </c>
+      <c r="EA148" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB148" t="n">
+        <v>289</v>
+      </c>
+      <c r="EC148" t="n">
+        <v>189</v>
+      </c>
+      <c r="ED148" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE148" t="n">
+        <v>1227</v>
+      </c>
+      <c r="EF148" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG148" t="n">
+        <v>335</v>
+      </c>
+      <c r="EH148" t="n">
+        <v>28</v>
+      </c>
+      <c r="EI148" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ148" t="n">
+        <v>130</v>
+      </c>
+      <c r="EK148" t="n">
+        <v>350</v>
+      </c>
+      <c r="EL148" t="n">
+        <v>598</v>
+      </c>
+      <c r="EM148" t="n">
+        <v>3327</v>
+      </c>
+      <c r="EN148" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO148" t="n">
+        <v>104</v>
+      </c>
+      <c r="EP148" t="n">
+        <v>797</v>
+      </c>
+      <c r="EQ148" t="n">
+        <v>121</v>
+      </c>
+      <c r="ER148" t="n">
+        <v>2697</v>
+      </c>
+      <c r="ES148" t="n">
+        <v>35</v>
+      </c>
+      <c r="ET148" t="n">
+        <v>581</v>
+      </c>
+      <c r="EU148" t="n">
+        <v>78</v>
+      </c>
+      <c r="EV148" t="n">
+        <v>267</v>
+      </c>
+      <c r="EW148" t="n">
+        <v>65</v>
+      </c>
+      <c r="EX148" t="n">
+        <v>27628</v>
+      </c>
+      <c r="EY148" t="n">
+        <v>253</v>
+      </c>
+      <c r="EZ148" t="n">
+        <v>176</v>
+      </c>
+      <c r="FA148" t="n">
+        <v>185</v>
+      </c>
+      <c r="FB148" t="n">
+        <v>36</v>
+      </c>
+      <c r="FC148" t="n">
+        <v>53</v>
+      </c>
+      <c r="FD148" t="n">
+        <v>375</v>
+      </c>
+      <c r="FE148" t="n">
+        <v>49</v>
+      </c>
+      <c r="FF148" t="n">
+        <v>339</v>
+      </c>
+      <c r="FG148" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH148" t="n">
+        <v>38</v>
+      </c>
+      <c r="FI148" t="n">
+        <v>2058</v>
+      </c>
+      <c r="FJ148" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK148" t="n">
+        <v>48</v>
+      </c>
+      <c r="FL148" t="n">
+        <v>117</v>
+      </c>
+      <c r="FM148" t="n">
+        <v>19</v>
+      </c>
+      <c r="FN148" t="n">
+        <v>77</v>
+      </c>
+      <c r="FO148" t="n">
+        <v>472</v>
+      </c>
+      <c r="FP148" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ148" t="n">
+        <v>346</v>
+      </c>
+      <c r="FR148" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS148" t="n">
+        <v>32</v>
+      </c>
+      <c r="FT148" t="n">
+        <v>221</v>
+      </c>
+      <c r="FU148" t="n">
+        <v>295</v>
+      </c>
+      <c r="FV148" t="n">
+        <v>224</v>
+      </c>
+      <c r="FW148" t="n">
+        <v>201</v>
+      </c>
+      <c r="FX148" t="n">
+        <v>754</v>
+      </c>
+      <c r="FY148" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ148" t="n">
+        <v>292</v>
+      </c>
+      <c r="GA148" t="n">
+        <v>2053</v>
+      </c>
+      <c r="GB148" t="n">
+        <v>66</v>
+      </c>
+      <c r="GC148" t="n">
+        <v>266</v>
+      </c>
+      <c r="GD148" t="n">
+        <v>314</v>
+      </c>
+      <c r="GE148" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF148" t="n">
+        <v>40</v>
+      </c>
+      <c r="GG148" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH148" t="n">
+        <v>759</v>
+      </c>
+      <c r="GI148" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ148" t="n">
+        <v>331</v>
+      </c>
+      <c r="GK148" t="n">
+        <v>188</v>
+      </c>
+      <c r="GL148" t="n">
+        <v>366</v>
+      </c>
+      <c r="GM148" t="n">
+        <v>285</v>
+      </c>
+      <c r="GN148" t="n">
+        <v>48</v>
+      </c>
+      <c r="GO148" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP148" t="n">
+        <v>26</v>
+      </c>
+      <c r="GQ148" t="n">
+        <v>656</v>
+      </c>
+      <c r="GR148" t="n">
+        <v>356</v>
+      </c>
+      <c r="GS148" t="n">
+        <v>43</v>
+      </c>
+      <c r="GT148" t="n">
+        <v>222</v>
+      </c>
+      <c r="GU148" t="n">
+        <v>82</v>
+      </c>
+      <c r="GV148" t="n">
+        <v>178</v>
+      </c>
+      <c r="GW148" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX148" t="n">
+        <v>102</v>
+      </c>
+      <c r="GY148" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ148" t="n">
+        <v>34</v>
+      </c>
+      <c r="HA148" t="n">
+        <v>129</v>
+      </c>
+      <c r="HB148" t="n">
+        <v>188</v>
+      </c>
+      <c r="HC148" t="n">
+        <v>1431</v>
+      </c>
+      <c r="HD148" t="n">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD148"/>
+  <dimension ref="A1:HD149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94995,7 +94995,7 @@
         <v>44</v>
       </c>
       <c r="AP148" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ148" t="n">
         <v>1669</v>
@@ -95505,6 +95505,646 @@
         <v>1431</v>
       </c>
       <c r="HD148" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>678</v>
+      </c>
+      <c r="C149" t="n">
+        <v>223</v>
+      </c>
+      <c r="D149" t="n">
+        <v>103</v>
+      </c>
+      <c r="E149" t="n">
+        <v>486</v>
+      </c>
+      <c r="F149" t="n">
+        <v>877</v>
+      </c>
+      <c r="G149" t="n">
+        <v>605</v>
+      </c>
+      <c r="H149" t="n">
+        <v>132</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>326</v>
+      </c>
+      <c r="K149" t="n">
+        <v>367</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>137</v>
+      </c>
+      <c r="N149" t="n">
+        <v>37</v>
+      </c>
+      <c r="O149" t="n">
+        <v>89</v>
+      </c>
+      <c r="P149" t="n">
+        <v>791</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>705</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>153</v>
+      </c>
+      <c r="T149" t="n">
+        <v>281</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>78</v>
+      </c>
+      <c r="W149" t="n">
+        <v>45</v>
+      </c>
+      <c r="X149" t="n">
+        <v>764</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>639</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>420</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>386</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>237</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>679</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>208</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1509</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>342</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>265</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>316</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>93</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1679</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>131</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>215</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>225</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>389</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>4609</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>512</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>171</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>241</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>296</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>83</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>559</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ149" t="n">
+        <v>207</v>
+      </c>
+      <c r="BR149" t="n">
+        <v>337</v>
+      </c>
+      <c r="BS149" t="n">
+        <v>234</v>
+      </c>
+      <c r="BT149" t="n">
+        <v>433</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV149" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW149" t="n">
+        <v>63</v>
+      </c>
+      <c r="BX149" t="n">
+        <v>132</v>
+      </c>
+      <c r="BY149" t="n">
+        <v>183</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>187</v>
+      </c>
+      <c r="CA149" t="n">
+        <v>844</v>
+      </c>
+      <c r="CB149" t="n">
+        <v>245</v>
+      </c>
+      <c r="CC149" t="n">
+        <v>878</v>
+      </c>
+      <c r="CD149" t="n">
+        <v>22</v>
+      </c>
+      <c r="CE149" t="n">
+        <v>494</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>75</v>
+      </c>
+      <c r="CG149" t="n">
+        <v>87</v>
+      </c>
+      <c r="CH149" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI149" t="n">
+        <v>619</v>
+      </c>
+      <c r="CJ149" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK149" t="n">
+        <v>53</v>
+      </c>
+      <c r="CL149" t="n">
+        <v>326</v>
+      </c>
+      <c r="CM149" t="n">
+        <v>53</v>
+      </c>
+      <c r="CN149" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO149" t="n">
+        <v>728</v>
+      </c>
+      <c r="CP149" t="n">
+        <v>280</v>
+      </c>
+      <c r="CQ149" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR149" t="n">
+        <v>150</v>
+      </c>
+      <c r="CS149" t="n">
+        <v>657</v>
+      </c>
+      <c r="CT149" t="n">
+        <v>67</v>
+      </c>
+      <c r="CU149" t="n">
+        <v>292</v>
+      </c>
+      <c r="CV149" t="n">
+        <v>130</v>
+      </c>
+      <c r="CW149" t="n">
+        <v>6789</v>
+      </c>
+      <c r="CX149" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY149" t="n">
+        <v>227</v>
+      </c>
+      <c r="CZ149" t="n">
+        <v>243</v>
+      </c>
+      <c r="DA149" t="n">
+        <v>55</v>
+      </c>
+      <c r="DB149" t="n">
+        <v>170</v>
+      </c>
+      <c r="DC149" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD149" t="n">
+        <v>216</v>
+      </c>
+      <c r="DE149" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF149" t="n">
+        <v>171</v>
+      </c>
+      <c r="DG149" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH149" t="n">
+        <v>210</v>
+      </c>
+      <c r="DI149" t="n">
+        <v>85</v>
+      </c>
+      <c r="DJ149" t="n">
+        <v>107</v>
+      </c>
+      <c r="DK149" t="n">
+        <v>163</v>
+      </c>
+      <c r="DL149" t="n">
+        <v>46</v>
+      </c>
+      <c r="DM149" t="n">
+        <v>298</v>
+      </c>
+      <c r="DN149" t="n">
+        <v>144</v>
+      </c>
+      <c r="DO149" t="n">
+        <v>277</v>
+      </c>
+      <c r="DP149" t="n">
+        <v>763</v>
+      </c>
+      <c r="DQ149" t="n">
+        <v>185</v>
+      </c>
+      <c r="DR149" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS149" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT149" t="n">
+        <v>189</v>
+      </c>
+      <c r="DU149" t="n">
+        <v>36</v>
+      </c>
+      <c r="DV149" t="n">
+        <v>68</v>
+      </c>
+      <c r="DW149" t="n">
+        <v>343</v>
+      </c>
+      <c r="DX149" t="n">
+        <v>195</v>
+      </c>
+      <c r="DY149" t="n">
+        <v>5098</v>
+      </c>
+      <c r="DZ149" t="n">
+        <v>199</v>
+      </c>
+      <c r="EA149" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB149" t="n">
+        <v>295</v>
+      </c>
+      <c r="EC149" t="n">
+        <v>189</v>
+      </c>
+      <c r="ED149" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE149" t="n">
+        <v>1232</v>
+      </c>
+      <c r="EF149" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG149" t="n">
+        <v>335</v>
+      </c>
+      <c r="EH149" t="n">
+        <v>30</v>
+      </c>
+      <c r="EI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ149" t="n">
+        <v>142</v>
+      </c>
+      <c r="EK149" t="n">
+        <v>350</v>
+      </c>
+      <c r="EL149" t="n">
+        <v>598</v>
+      </c>
+      <c r="EM149" t="n">
+        <v>3349</v>
+      </c>
+      <c r="EN149" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO149" t="n">
+        <v>107</v>
+      </c>
+      <c r="EP149" t="n">
+        <v>808</v>
+      </c>
+      <c r="EQ149" t="n">
+        <v>128</v>
+      </c>
+      <c r="ER149" t="n">
+        <v>2777</v>
+      </c>
+      <c r="ES149" t="n">
+        <v>38</v>
+      </c>
+      <c r="ET149" t="n">
+        <v>583</v>
+      </c>
+      <c r="EU149" t="n">
+        <v>78</v>
+      </c>
+      <c r="EV149" t="n">
+        <v>267</v>
+      </c>
+      <c r="EW149" t="n">
+        <v>66</v>
+      </c>
+      <c r="EX149" t="n">
+        <v>27790</v>
+      </c>
+      <c r="EY149" t="n">
+        <v>260</v>
+      </c>
+      <c r="EZ149" t="n">
+        <v>177</v>
+      </c>
+      <c r="FA149" t="n">
+        <v>187</v>
+      </c>
+      <c r="FB149" t="n">
+        <v>43</v>
+      </c>
+      <c r="FC149" t="n">
+        <v>53</v>
+      </c>
+      <c r="FD149" t="n">
+        <v>379</v>
+      </c>
+      <c r="FE149" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF149" t="n">
+        <v>350</v>
+      </c>
+      <c r="FG149" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH149" t="n">
+        <v>39</v>
+      </c>
+      <c r="FI149" t="n">
+        <v>2093</v>
+      </c>
+      <c r="FJ149" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK149" t="n">
+        <v>53</v>
+      </c>
+      <c r="FL149" t="n">
+        <v>118</v>
+      </c>
+      <c r="FM149" t="n">
+        <v>20</v>
+      </c>
+      <c r="FN149" t="n">
+        <v>81</v>
+      </c>
+      <c r="FO149" t="n">
+        <v>480</v>
+      </c>
+      <c r="FP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ149" t="n">
+        <v>350</v>
+      </c>
+      <c r="FR149" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS149" t="n">
+        <v>37</v>
+      </c>
+      <c r="FT149" t="n">
+        <v>221</v>
+      </c>
+      <c r="FU149" t="n">
+        <v>295</v>
+      </c>
+      <c r="FV149" t="n">
+        <v>242</v>
+      </c>
+      <c r="FW149" t="n">
+        <v>205</v>
+      </c>
+      <c r="FX149" t="n">
+        <v>759</v>
+      </c>
+      <c r="FY149" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ149" t="n">
+        <v>294</v>
+      </c>
+      <c r="GA149" t="n">
+        <v>2085</v>
+      </c>
+      <c r="GB149" t="n">
+        <v>66</v>
+      </c>
+      <c r="GC149" t="n">
+        <v>267</v>
+      </c>
+      <c r="GD149" t="n">
+        <v>315</v>
+      </c>
+      <c r="GE149" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF149" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG149" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH149" t="n">
+        <v>759</v>
+      </c>
+      <c r="GI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ149" t="n">
+        <v>334</v>
+      </c>
+      <c r="GK149" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL149" t="n">
+        <v>368</v>
+      </c>
+      <c r="GM149" t="n">
+        <v>304</v>
+      </c>
+      <c r="GN149" t="n">
+        <v>48</v>
+      </c>
+      <c r="GO149" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP149" t="n">
+        <v>27</v>
+      </c>
+      <c r="GQ149" t="n">
+        <v>659</v>
+      </c>
+      <c r="GR149" t="n">
+        <v>357</v>
+      </c>
+      <c r="GS149" t="n">
+        <v>43</v>
+      </c>
+      <c r="GT149" t="n">
+        <v>223</v>
+      </c>
+      <c r="GU149" t="n">
+        <v>83</v>
+      </c>
+      <c r="GV149" t="n">
+        <v>183</v>
+      </c>
+      <c r="GW149" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX149" t="n">
+        <v>107</v>
+      </c>
+      <c r="GY149" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ149" t="n">
+        <v>34</v>
+      </c>
+      <c r="HA149" t="n">
+        <v>129</v>
+      </c>
+      <c r="HB149" t="n">
+        <v>188</v>
+      </c>
+      <c r="HC149" t="n">
+        <v>1437</v>
+      </c>
+      <c r="HD149" t="n">
         <v>178</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD149"/>
+  <dimension ref="A1:HD150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96148,6 +96148,646 @@
         <v>178</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>682</v>
+      </c>
+      <c r="C150" t="n">
+        <v>224</v>
+      </c>
+      <c r="D150" t="n">
+        <v>104</v>
+      </c>
+      <c r="E150" t="n">
+        <v>494</v>
+      </c>
+      <c r="F150" t="n">
+        <v>878</v>
+      </c>
+      <c r="G150" t="n">
+        <v>607</v>
+      </c>
+      <c r="H150" t="n">
+        <v>133</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>327</v>
+      </c>
+      <c r="K150" t="n">
+        <v>370</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>137</v>
+      </c>
+      <c r="N150" t="n">
+        <v>39</v>
+      </c>
+      <c r="O150" t="n">
+        <v>90</v>
+      </c>
+      <c r="P150" t="n">
+        <v>847</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>720</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>155</v>
+      </c>
+      <c r="T150" t="n">
+        <v>282</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1</v>
+      </c>
+      <c r="V150" t="n">
+        <v>78</v>
+      </c>
+      <c r="W150" t="n">
+        <v>45</v>
+      </c>
+      <c r="X150" t="n">
+        <v>771</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>662</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>152</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>428</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>413</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>238</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>687</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>209</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1515</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>269</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>323</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>93</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1698</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>135</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>135</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>225</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>244</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>109</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>395</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>4679</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>517</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>216</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>244</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>304</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>86</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>585</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>168</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ150" t="n">
+        <v>208</v>
+      </c>
+      <c r="BR150" t="n">
+        <v>337</v>
+      </c>
+      <c r="BS150" t="n">
+        <v>248</v>
+      </c>
+      <c r="BT150" t="n">
+        <v>439</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV150" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW150" t="n">
+        <v>64</v>
+      </c>
+      <c r="BX150" t="n">
+        <v>137</v>
+      </c>
+      <c r="BY150" t="n">
+        <v>190</v>
+      </c>
+      <c r="BZ150" t="n">
+        <v>189</v>
+      </c>
+      <c r="CA150" t="n">
+        <v>854</v>
+      </c>
+      <c r="CB150" t="n">
+        <v>248</v>
+      </c>
+      <c r="CC150" t="n">
+        <v>910</v>
+      </c>
+      <c r="CD150" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE150" t="n">
+        <v>498</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>78</v>
+      </c>
+      <c r="CG150" t="n">
+        <v>87</v>
+      </c>
+      <c r="CH150" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI150" t="n">
+        <v>623</v>
+      </c>
+      <c r="CJ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK150" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL150" t="n">
+        <v>327</v>
+      </c>
+      <c r="CM150" t="n">
+        <v>53</v>
+      </c>
+      <c r="CN150" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO150" t="n">
+        <v>735</v>
+      </c>
+      <c r="CP150" t="n">
+        <v>280</v>
+      </c>
+      <c r="CQ150" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR150" t="n">
+        <v>152</v>
+      </c>
+      <c r="CS150" t="n">
+        <v>661</v>
+      </c>
+      <c r="CT150" t="n">
+        <v>69</v>
+      </c>
+      <c r="CU150" t="n">
+        <v>293</v>
+      </c>
+      <c r="CV150" t="n">
+        <v>133</v>
+      </c>
+      <c r="CW150" t="n">
+        <v>6843</v>
+      </c>
+      <c r="CX150" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY150" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ150" t="n">
+        <v>245</v>
+      </c>
+      <c r="DA150" t="n">
+        <v>57</v>
+      </c>
+      <c r="DB150" t="n">
+        <v>184</v>
+      </c>
+      <c r="DC150" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD150" t="n">
+        <v>221</v>
+      </c>
+      <c r="DE150" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF150" t="n">
+        <v>171</v>
+      </c>
+      <c r="DG150" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH150" t="n">
+        <v>214</v>
+      </c>
+      <c r="DI150" t="n">
+        <v>88</v>
+      </c>
+      <c r="DJ150" t="n">
+        <v>114</v>
+      </c>
+      <c r="DK150" t="n">
+        <v>166</v>
+      </c>
+      <c r="DL150" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM150" t="n">
+        <v>301</v>
+      </c>
+      <c r="DN150" t="n">
+        <v>153</v>
+      </c>
+      <c r="DO150" t="n">
+        <v>279</v>
+      </c>
+      <c r="DP150" t="n">
+        <v>768</v>
+      </c>
+      <c r="DQ150" t="n">
+        <v>188</v>
+      </c>
+      <c r="DR150" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS150" t="n">
+        <v>6</v>
+      </c>
+      <c r="DT150" t="n">
+        <v>198</v>
+      </c>
+      <c r="DU150" t="n">
+        <v>37</v>
+      </c>
+      <c r="DV150" t="n">
+        <v>71</v>
+      </c>
+      <c r="DW150" t="n">
+        <v>345</v>
+      </c>
+      <c r="DX150" t="n">
+        <v>196</v>
+      </c>
+      <c r="DY150" t="n">
+        <v>5125</v>
+      </c>
+      <c r="DZ150" t="n">
+        <v>206</v>
+      </c>
+      <c r="EA150" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB150" t="n">
+        <v>297</v>
+      </c>
+      <c r="EC150" t="n">
+        <v>194</v>
+      </c>
+      <c r="ED150" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE150" t="n">
+        <v>1234</v>
+      </c>
+      <c r="EF150" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG150" t="n">
+        <v>341</v>
+      </c>
+      <c r="EH150" t="n">
+        <v>33</v>
+      </c>
+      <c r="EI150" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ150" t="n">
+        <v>161</v>
+      </c>
+      <c r="EK150" t="n">
+        <v>351</v>
+      </c>
+      <c r="EL150" t="n">
+        <v>607</v>
+      </c>
+      <c r="EM150" t="n">
+        <v>3365</v>
+      </c>
+      <c r="EN150" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO150" t="n">
+        <v>109</v>
+      </c>
+      <c r="EP150" t="n">
+        <v>810</v>
+      </c>
+      <c r="EQ150" t="n">
+        <v>131</v>
+      </c>
+      <c r="ER150" t="n">
+        <v>2913</v>
+      </c>
+      <c r="ES150" t="n">
+        <v>40</v>
+      </c>
+      <c r="ET150" t="n">
+        <v>584</v>
+      </c>
+      <c r="EU150" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV150" t="n">
+        <v>269</v>
+      </c>
+      <c r="EW150" t="n">
+        <v>68</v>
+      </c>
+      <c r="EX150" t="n">
+        <v>27999</v>
+      </c>
+      <c r="EY150" t="n">
+        <v>283</v>
+      </c>
+      <c r="EZ150" t="n">
+        <v>178</v>
+      </c>
+      <c r="FA150" t="n">
+        <v>188</v>
+      </c>
+      <c r="FB150" t="n">
+        <v>48</v>
+      </c>
+      <c r="FC150" t="n">
+        <v>53</v>
+      </c>
+      <c r="FD150" t="n">
+        <v>386</v>
+      </c>
+      <c r="FE150" t="n">
+        <v>55</v>
+      </c>
+      <c r="FF150" t="n">
+        <v>352</v>
+      </c>
+      <c r="FG150" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH150" t="n">
+        <v>40</v>
+      </c>
+      <c r="FI150" t="n">
+        <v>2147</v>
+      </c>
+      <c r="FJ150" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK150" t="n">
+        <v>56</v>
+      </c>
+      <c r="FL150" t="n">
+        <v>119</v>
+      </c>
+      <c r="FM150" t="n">
+        <v>20</v>
+      </c>
+      <c r="FN150" t="n">
+        <v>81</v>
+      </c>
+      <c r="FO150" t="n">
+        <v>492</v>
+      </c>
+      <c r="FP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ150" t="n">
+        <v>354</v>
+      </c>
+      <c r="FR150" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS150" t="n">
+        <v>42</v>
+      </c>
+      <c r="FT150" t="n">
+        <v>235</v>
+      </c>
+      <c r="FU150" t="n">
+        <v>297</v>
+      </c>
+      <c r="FV150" t="n">
+        <v>244</v>
+      </c>
+      <c r="FW150" t="n">
+        <v>207</v>
+      </c>
+      <c r="FX150" t="n">
+        <v>767</v>
+      </c>
+      <c r="FY150" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ150" t="n">
+        <v>295</v>
+      </c>
+      <c r="GA150" t="n">
+        <v>2170</v>
+      </c>
+      <c r="GB150" t="n">
+        <v>68</v>
+      </c>
+      <c r="GC150" t="n">
+        <v>273</v>
+      </c>
+      <c r="GD150" t="n">
+        <v>316</v>
+      </c>
+      <c r="GE150" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF150" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG150" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH150" t="n">
+        <v>789</v>
+      </c>
+      <c r="GI150" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ150" t="n">
+        <v>334</v>
+      </c>
+      <c r="GK150" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL150" t="n">
+        <v>391</v>
+      </c>
+      <c r="GM150" t="n">
+        <v>304</v>
+      </c>
+      <c r="GN150" t="n">
+        <v>48</v>
+      </c>
+      <c r="GO150" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP150" t="n">
+        <v>27</v>
+      </c>
+      <c r="GQ150" t="n">
+        <v>663</v>
+      </c>
+      <c r="GR150" t="n">
+        <v>358</v>
+      </c>
+      <c r="GS150" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT150" t="n">
+        <v>228</v>
+      </c>
+      <c r="GU150" t="n">
+        <v>83</v>
+      </c>
+      <c r="GV150" t="n">
+        <v>183</v>
+      </c>
+      <c r="GW150" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX150" t="n">
+        <v>115</v>
+      </c>
+      <c r="GY150" t="n">
+        <v>19</v>
+      </c>
+      <c r="GZ150" t="n">
+        <v>36</v>
+      </c>
+      <c r="HA150" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB150" t="n">
+        <v>194</v>
+      </c>
+      <c r="HC150" t="n">
+        <v>1439</v>
+      </c>
+      <c r="HD150" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD150"/>
+  <dimension ref="A1:HD151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96170,7 +96170,7 @@
         <v>878</v>
       </c>
       <c r="G150" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H150" t="n">
         <v>133</v>
@@ -96786,6 +96786,646 @@
       </c>
       <c r="HD150" t="n">
         <v>180</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>686</v>
+      </c>
+      <c r="C151" t="n">
+        <v>225</v>
+      </c>
+      <c r="D151" t="n">
+        <v>104</v>
+      </c>
+      <c r="E151" t="n">
+        <v>498</v>
+      </c>
+      <c r="F151" t="n">
+        <v>879</v>
+      </c>
+      <c r="G151" t="n">
+        <v>606</v>
+      </c>
+      <c r="H151" t="n">
+        <v>133</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>328</v>
+      </c>
+      <c r="K151" t="n">
+        <v>373</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>137</v>
+      </c>
+      <c r="N151" t="n">
+        <v>39</v>
+      </c>
+      <c r="O151" t="n">
+        <v>92</v>
+      </c>
+      <c r="P151" t="n">
+        <v>897</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>736</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>157</v>
+      </c>
+      <c r="T151" t="n">
+        <v>286</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>78</v>
+      </c>
+      <c r="W151" t="n">
+        <v>47</v>
+      </c>
+      <c r="X151" t="n">
+        <v>771</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>668</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>439</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>422</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>239</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>215</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1521</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>356</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>269</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>330</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>98</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1712</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>135</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>136</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>225</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>244</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>111</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>401</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>4763</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>517</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>234</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>246</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>309</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>88</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>105</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>585</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>168</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ151" t="n">
+        <v>209</v>
+      </c>
+      <c r="BR151" t="n">
+        <v>339</v>
+      </c>
+      <c r="BS151" t="n">
+        <v>254</v>
+      </c>
+      <c r="BT151" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV151" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW151" t="n">
+        <v>66</v>
+      </c>
+      <c r="BX151" t="n">
+        <v>138</v>
+      </c>
+      <c r="BY151" t="n">
+        <v>196</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>189</v>
+      </c>
+      <c r="CA151" t="n">
+        <v>865</v>
+      </c>
+      <c r="CB151" t="n">
+        <v>249</v>
+      </c>
+      <c r="CC151" t="n">
+        <v>964</v>
+      </c>
+      <c r="CD151" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE151" t="n">
+        <v>505</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>79</v>
+      </c>
+      <c r="CG151" t="n">
+        <v>87</v>
+      </c>
+      <c r="CH151" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI151" t="n">
+        <v>628</v>
+      </c>
+      <c r="CJ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK151" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL151" t="n">
+        <v>329</v>
+      </c>
+      <c r="CM151" t="n">
+        <v>53</v>
+      </c>
+      <c r="CN151" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO151" t="n">
+        <v>737</v>
+      </c>
+      <c r="CP151" t="n">
+        <v>280</v>
+      </c>
+      <c r="CQ151" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR151" t="n">
+        <v>153</v>
+      </c>
+      <c r="CS151" t="n">
+        <v>664</v>
+      </c>
+      <c r="CT151" t="n">
+        <v>70</v>
+      </c>
+      <c r="CU151" t="n">
+        <v>306</v>
+      </c>
+      <c r="CV151" t="n">
+        <v>133</v>
+      </c>
+      <c r="CW151" t="n">
+        <v>6883</v>
+      </c>
+      <c r="CX151" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY151" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ151" t="n">
+        <v>248</v>
+      </c>
+      <c r="DA151" t="n">
+        <v>57</v>
+      </c>
+      <c r="DB151" t="n">
+        <v>200</v>
+      </c>
+      <c r="DC151" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD151" t="n">
+        <v>221</v>
+      </c>
+      <c r="DE151" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF151" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG151" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH151" t="n">
+        <v>217</v>
+      </c>
+      <c r="DI151" t="n">
+        <v>89</v>
+      </c>
+      <c r="DJ151" t="n">
+        <v>114</v>
+      </c>
+      <c r="DK151" t="n">
+        <v>168</v>
+      </c>
+      <c r="DL151" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM151" t="n">
+        <v>301</v>
+      </c>
+      <c r="DN151" t="n">
+        <v>157</v>
+      </c>
+      <c r="DO151" t="n">
+        <v>281</v>
+      </c>
+      <c r="DP151" t="n">
+        <v>782</v>
+      </c>
+      <c r="DQ151" t="n">
+        <v>188</v>
+      </c>
+      <c r="DR151" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS151" t="n">
+        <v>8</v>
+      </c>
+      <c r="DT151" t="n">
+        <v>198</v>
+      </c>
+      <c r="DU151" t="n">
+        <v>40</v>
+      </c>
+      <c r="DV151" t="n">
+        <v>72</v>
+      </c>
+      <c r="DW151" t="n">
+        <v>346</v>
+      </c>
+      <c r="DX151" t="n">
+        <v>196</v>
+      </c>
+      <c r="DY151" t="n">
+        <v>5146</v>
+      </c>
+      <c r="DZ151" t="n">
+        <v>208</v>
+      </c>
+      <c r="EA151" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB151" t="n">
+        <v>301</v>
+      </c>
+      <c r="EC151" t="n">
+        <v>196</v>
+      </c>
+      <c r="ED151" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE151" t="n">
+        <v>1234</v>
+      </c>
+      <c r="EF151" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG151" t="n">
+        <v>341</v>
+      </c>
+      <c r="EH151" t="n">
+        <v>33</v>
+      </c>
+      <c r="EI151" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ151" t="n">
+        <v>163</v>
+      </c>
+      <c r="EK151" t="n">
+        <v>358</v>
+      </c>
+      <c r="EL151" t="n">
+        <v>611</v>
+      </c>
+      <c r="EM151" t="n">
+        <v>3389</v>
+      </c>
+      <c r="EN151" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO151" t="n">
+        <v>109</v>
+      </c>
+      <c r="EP151" t="n">
+        <v>819</v>
+      </c>
+      <c r="EQ151" t="n">
+        <v>136</v>
+      </c>
+      <c r="ER151" t="n">
+        <v>3011</v>
+      </c>
+      <c r="ES151" t="n">
+        <v>40</v>
+      </c>
+      <c r="ET151" t="n">
+        <v>585</v>
+      </c>
+      <c r="EU151" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV151" t="n">
+        <v>272</v>
+      </c>
+      <c r="EW151" t="n">
+        <v>72</v>
+      </c>
+      <c r="EX151" t="n">
+        <v>28184</v>
+      </c>
+      <c r="EY151" t="n">
+        <v>289</v>
+      </c>
+      <c r="EZ151" t="n">
+        <v>178</v>
+      </c>
+      <c r="FA151" t="n">
+        <v>189</v>
+      </c>
+      <c r="FB151" t="n">
+        <v>49</v>
+      </c>
+      <c r="FC151" t="n">
+        <v>56</v>
+      </c>
+      <c r="FD151" t="n">
+        <v>396</v>
+      </c>
+      <c r="FE151" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF151" t="n">
+        <v>352</v>
+      </c>
+      <c r="FG151" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH151" t="n">
+        <v>41</v>
+      </c>
+      <c r="FI151" t="n">
+        <v>2218</v>
+      </c>
+      <c r="FJ151" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK151" t="n">
+        <v>56</v>
+      </c>
+      <c r="FL151" t="n">
+        <v>126</v>
+      </c>
+      <c r="FM151" t="n">
+        <v>22</v>
+      </c>
+      <c r="FN151" t="n">
+        <v>84</v>
+      </c>
+      <c r="FO151" t="n">
+        <v>497</v>
+      </c>
+      <c r="FP151" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ151" t="n">
+        <v>364</v>
+      </c>
+      <c r="FR151" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS151" t="n">
+        <v>42</v>
+      </c>
+      <c r="FT151" t="n">
+        <v>239</v>
+      </c>
+      <c r="FU151" t="n">
+        <v>299</v>
+      </c>
+      <c r="FV151" t="n">
+        <v>254</v>
+      </c>
+      <c r="FW151" t="n">
+        <v>213</v>
+      </c>
+      <c r="FX151" t="n">
+        <v>768</v>
+      </c>
+      <c r="FY151" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ151" t="n">
+        <v>297</v>
+      </c>
+      <c r="GA151" t="n">
+        <v>2246</v>
+      </c>
+      <c r="GB151" t="n">
+        <v>69</v>
+      </c>
+      <c r="GC151" t="n">
+        <v>279</v>
+      </c>
+      <c r="GD151" t="n">
+        <v>317</v>
+      </c>
+      <c r="GE151" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF151" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG151" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH151" t="n">
+        <v>823</v>
+      </c>
+      <c r="GI151" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ151" t="n">
+        <v>340</v>
+      </c>
+      <c r="GK151" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL151" t="n">
+        <v>402</v>
+      </c>
+      <c r="GM151" t="n">
+        <v>316</v>
+      </c>
+      <c r="GN151" t="n">
+        <v>49</v>
+      </c>
+      <c r="GO151" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP151" t="n">
+        <v>29</v>
+      </c>
+      <c r="GQ151" t="n">
+        <v>665</v>
+      </c>
+      <c r="GR151" t="n">
+        <v>369</v>
+      </c>
+      <c r="GS151" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT151" t="n">
+        <v>235</v>
+      </c>
+      <c r="GU151" t="n">
+        <v>84</v>
+      </c>
+      <c r="GV151" t="n">
+        <v>185</v>
+      </c>
+      <c r="GW151" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX151" t="n">
+        <v>120</v>
+      </c>
+      <c r="GY151" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ151" t="n">
+        <v>36</v>
+      </c>
+      <c r="HA151" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB151" t="n">
+        <v>199</v>
+      </c>
+      <c r="HC151" t="n">
+        <v>1448</v>
+      </c>
+      <c r="HD151" t="n">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD151"/>
+  <dimension ref="A1:HD152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96963,7 +96963,7 @@
         <v>234</v>
       </c>
       <c r="BF151" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BG151" t="n">
         <v>246</v>
@@ -97425,6 +97425,646 @@
         <v>1448</v>
       </c>
       <c r="HD151" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>692</v>
+      </c>
+      <c r="C152" t="n">
+        <v>231</v>
+      </c>
+      <c r="D152" t="n">
+        <v>104</v>
+      </c>
+      <c r="E152" t="n">
+        <v>499</v>
+      </c>
+      <c r="F152" t="n">
+        <v>880</v>
+      </c>
+      <c r="G152" t="n">
+        <v>609</v>
+      </c>
+      <c r="H152" t="n">
+        <v>135</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>329</v>
+      </c>
+      <c r="K152" t="n">
+        <v>377</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>138</v>
+      </c>
+      <c r="N152" t="n">
+        <v>39</v>
+      </c>
+      <c r="O152" t="n">
+        <v>92</v>
+      </c>
+      <c r="P152" t="n">
+        <v>911</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>744</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>159</v>
+      </c>
+      <c r="T152" t="n">
+        <v>286</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1</v>
+      </c>
+      <c r="V152" t="n">
+        <v>78</v>
+      </c>
+      <c r="W152" t="n">
+        <v>50</v>
+      </c>
+      <c r="X152" t="n">
+        <v>773</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>678</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>155</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>453</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>422</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>741</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>216</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1532</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>358</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>269</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>333</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>98</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1716</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>137</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>226</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>255</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>114</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>401</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>4843</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>517</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>234</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>181</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>246</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>320</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>106</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>590</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>168</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ152" t="n">
+        <v>209</v>
+      </c>
+      <c r="BR152" t="n">
+        <v>341</v>
+      </c>
+      <c r="BS152" t="n">
+        <v>270</v>
+      </c>
+      <c r="BT152" t="n">
+        <v>447</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV152" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW152" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX152" t="n">
+        <v>142</v>
+      </c>
+      <c r="BY152" t="n">
+        <v>205</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>189</v>
+      </c>
+      <c r="CA152" t="n">
+        <v>880</v>
+      </c>
+      <c r="CB152" t="n">
+        <v>250</v>
+      </c>
+      <c r="CC152" t="n">
+        <v>998</v>
+      </c>
+      <c r="CD152" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE152" t="n">
+        <v>505</v>
+      </c>
+      <c r="CF152" t="n">
+        <v>81</v>
+      </c>
+      <c r="CG152" t="n">
+        <v>91</v>
+      </c>
+      <c r="CH152" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI152" t="n">
+        <v>654</v>
+      </c>
+      <c r="CJ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK152" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL152" t="n">
+        <v>330</v>
+      </c>
+      <c r="CM152" t="n">
+        <v>56</v>
+      </c>
+      <c r="CN152" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO152" t="n">
+        <v>747</v>
+      </c>
+      <c r="CP152" t="n">
+        <v>283</v>
+      </c>
+      <c r="CQ152" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR152" t="n">
+        <v>154</v>
+      </c>
+      <c r="CS152" t="n">
+        <v>665</v>
+      </c>
+      <c r="CT152" t="n">
+        <v>76</v>
+      </c>
+      <c r="CU152" t="n">
+        <v>309</v>
+      </c>
+      <c r="CV152" t="n">
+        <v>133</v>
+      </c>
+      <c r="CW152" t="n">
+        <v>6918</v>
+      </c>
+      <c r="CX152" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY152" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ152" t="n">
+        <v>248</v>
+      </c>
+      <c r="DA152" t="n">
+        <v>60</v>
+      </c>
+      <c r="DB152" t="n">
+        <v>204</v>
+      </c>
+      <c r="DC152" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD152" t="n">
+        <v>221</v>
+      </c>
+      <c r="DE152" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF152" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG152" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH152" t="n">
+        <v>223</v>
+      </c>
+      <c r="DI152" t="n">
+        <v>90</v>
+      </c>
+      <c r="DJ152" t="n">
+        <v>114</v>
+      </c>
+      <c r="DK152" t="n">
+        <v>168</v>
+      </c>
+      <c r="DL152" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM152" t="n">
+        <v>301</v>
+      </c>
+      <c r="DN152" t="n">
+        <v>169</v>
+      </c>
+      <c r="DO152" t="n">
+        <v>282</v>
+      </c>
+      <c r="DP152" t="n">
+        <v>784</v>
+      </c>
+      <c r="DQ152" t="n">
+        <v>191</v>
+      </c>
+      <c r="DR152" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS152" t="n">
+        <v>8</v>
+      </c>
+      <c r="DT152" t="n">
+        <v>198</v>
+      </c>
+      <c r="DU152" t="n">
+        <v>41</v>
+      </c>
+      <c r="DV152" t="n">
+        <v>72</v>
+      </c>
+      <c r="DW152" t="n">
+        <v>347</v>
+      </c>
+      <c r="DX152" t="n">
+        <v>196</v>
+      </c>
+      <c r="DY152" t="n">
+        <v>5170</v>
+      </c>
+      <c r="DZ152" t="n">
+        <v>208</v>
+      </c>
+      <c r="EA152" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB152" t="n">
+        <v>304</v>
+      </c>
+      <c r="EC152" t="n">
+        <v>200</v>
+      </c>
+      <c r="ED152" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE152" t="n">
+        <v>1236</v>
+      </c>
+      <c r="EF152" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG152" t="n">
+        <v>348</v>
+      </c>
+      <c r="EH152" t="n">
+        <v>33</v>
+      </c>
+      <c r="EI152" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ152" t="n">
+        <v>172</v>
+      </c>
+      <c r="EK152" t="n">
+        <v>359</v>
+      </c>
+      <c r="EL152" t="n">
+        <v>617</v>
+      </c>
+      <c r="EM152" t="n">
+        <v>3404</v>
+      </c>
+      <c r="EN152" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO152" t="n">
+        <v>110</v>
+      </c>
+      <c r="EP152" t="n">
+        <v>820</v>
+      </c>
+      <c r="EQ152" t="n">
+        <v>142</v>
+      </c>
+      <c r="ER152" t="n">
+        <v>3072</v>
+      </c>
+      <c r="ES152" t="n">
+        <v>42</v>
+      </c>
+      <c r="ET152" t="n">
+        <v>585</v>
+      </c>
+      <c r="EU152" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV152" t="n">
+        <v>274</v>
+      </c>
+      <c r="EW152" t="n">
+        <v>73</v>
+      </c>
+      <c r="EX152" t="n">
+        <v>28328</v>
+      </c>
+      <c r="EY152" t="n">
+        <v>297</v>
+      </c>
+      <c r="EZ152" t="n">
+        <v>178</v>
+      </c>
+      <c r="FA152" t="n">
+        <v>189</v>
+      </c>
+      <c r="FB152" t="n">
+        <v>51</v>
+      </c>
+      <c r="FC152" t="n">
+        <v>56</v>
+      </c>
+      <c r="FD152" t="n">
+        <v>413</v>
+      </c>
+      <c r="FE152" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF152" t="n">
+        <v>353</v>
+      </c>
+      <c r="FG152" t="n">
+        <v>66</v>
+      </c>
+      <c r="FH152" t="n">
+        <v>42</v>
+      </c>
+      <c r="FI152" t="n">
+        <v>2249</v>
+      </c>
+      <c r="FJ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK152" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL152" t="n">
+        <v>132</v>
+      </c>
+      <c r="FM152" t="n">
+        <v>23</v>
+      </c>
+      <c r="FN152" t="n">
+        <v>84</v>
+      </c>
+      <c r="FO152" t="n">
+        <v>499</v>
+      </c>
+      <c r="FP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ152" t="n">
+        <v>375</v>
+      </c>
+      <c r="FR152" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS152" t="n">
+        <v>43</v>
+      </c>
+      <c r="FT152" t="n">
+        <v>240</v>
+      </c>
+      <c r="FU152" t="n">
+        <v>305</v>
+      </c>
+      <c r="FV152" t="n">
+        <v>255</v>
+      </c>
+      <c r="FW152" t="n">
+        <v>224</v>
+      </c>
+      <c r="FX152" t="n">
+        <v>769</v>
+      </c>
+      <c r="FY152" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ152" t="n">
+        <v>298</v>
+      </c>
+      <c r="GA152" t="n">
+        <v>2295</v>
+      </c>
+      <c r="GB152" t="n">
+        <v>71</v>
+      </c>
+      <c r="GC152" t="n">
+        <v>293</v>
+      </c>
+      <c r="GD152" t="n">
+        <v>321</v>
+      </c>
+      <c r="GE152" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF152" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG152" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH152" t="n">
+        <v>848</v>
+      </c>
+      <c r="GI152" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ152" t="n">
+        <v>342</v>
+      </c>
+      <c r="GK152" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL152" t="n">
+        <v>409</v>
+      </c>
+      <c r="GM152" t="n">
+        <v>317</v>
+      </c>
+      <c r="GN152" t="n">
+        <v>50</v>
+      </c>
+      <c r="GO152" t="n">
+        <v>35</v>
+      </c>
+      <c r="GP152" t="n">
+        <v>32</v>
+      </c>
+      <c r="GQ152" t="n">
+        <v>667</v>
+      </c>
+      <c r="GR152" t="n">
+        <v>369</v>
+      </c>
+      <c r="GS152" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT152" t="n">
+        <v>236</v>
+      </c>
+      <c r="GU152" t="n">
+        <v>86</v>
+      </c>
+      <c r="GV152" t="n">
+        <v>188</v>
+      </c>
+      <c r="GW152" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX152" t="n">
+        <v>125</v>
+      </c>
+      <c r="GY152" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ152" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA152" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB152" t="n">
+        <v>199</v>
+      </c>
+      <c r="HC152" t="n">
+        <v>1464</v>
+      </c>
+      <c r="HD152" t="n">
         <v>181</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD152"/>
+  <dimension ref="A1:HD153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98068,6 +98068,646 @@
         <v>181</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>692</v>
+      </c>
+      <c r="C153" t="n">
+        <v>231</v>
+      </c>
+      <c r="D153" t="n">
+        <v>105</v>
+      </c>
+      <c r="E153" t="n">
+        <v>500</v>
+      </c>
+      <c r="F153" t="n">
+        <v>880</v>
+      </c>
+      <c r="G153" t="n">
+        <v>609</v>
+      </c>
+      <c r="H153" t="n">
+        <v>135</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>329</v>
+      </c>
+      <c r="K153" t="n">
+        <v>377</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>139</v>
+      </c>
+      <c r="N153" t="n">
+        <v>41</v>
+      </c>
+      <c r="O153" t="n">
+        <v>92</v>
+      </c>
+      <c r="P153" t="n">
+        <v>916</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>747</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>160</v>
+      </c>
+      <c r="T153" t="n">
+        <v>286</v>
+      </c>
+      <c r="U153" t="n">
+        <v>1</v>
+      </c>
+      <c r="V153" t="n">
+        <v>78</v>
+      </c>
+      <c r="W153" t="n">
+        <v>50</v>
+      </c>
+      <c r="X153" t="n">
+        <v>773</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>679</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>156</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>458</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>433</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>743</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>216</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1534</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>358</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>269</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>333</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>137</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>226</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>256</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>114</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>402</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>4848</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>517</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>235</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>181</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>247</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>320</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>106</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>592</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>168</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ153" t="n">
+        <v>209</v>
+      </c>
+      <c r="BR153" t="n">
+        <v>342</v>
+      </c>
+      <c r="BS153" t="n">
+        <v>271</v>
+      </c>
+      <c r="BT153" t="n">
+        <v>447</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV153" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW153" t="n">
+        <v>68</v>
+      </c>
+      <c r="BX153" t="n">
+        <v>142</v>
+      </c>
+      <c r="BY153" t="n">
+        <v>205</v>
+      </c>
+      <c r="BZ153" t="n">
+        <v>189</v>
+      </c>
+      <c r="CA153" t="n">
+        <v>884</v>
+      </c>
+      <c r="CB153" t="n">
+        <v>250</v>
+      </c>
+      <c r="CC153" t="n">
+        <v>1041</v>
+      </c>
+      <c r="CD153" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE153" t="n">
+        <v>512</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>81</v>
+      </c>
+      <c r="CG153" t="n">
+        <v>91</v>
+      </c>
+      <c r="CH153" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI153" t="n">
+        <v>656</v>
+      </c>
+      <c r="CJ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK153" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL153" t="n">
+        <v>330</v>
+      </c>
+      <c r="CM153" t="n">
+        <v>57</v>
+      </c>
+      <c r="CN153" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO153" t="n">
+        <v>747</v>
+      </c>
+      <c r="CP153" t="n">
+        <v>283</v>
+      </c>
+      <c r="CQ153" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR153" t="n">
+        <v>154</v>
+      </c>
+      <c r="CS153" t="n">
+        <v>667</v>
+      </c>
+      <c r="CT153" t="n">
+        <v>76</v>
+      </c>
+      <c r="CU153" t="n">
+        <v>310</v>
+      </c>
+      <c r="CV153" t="n">
+        <v>133</v>
+      </c>
+      <c r="CW153" t="n">
+        <v>6927</v>
+      </c>
+      <c r="CX153" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY153" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ153" t="n">
+        <v>248</v>
+      </c>
+      <c r="DA153" t="n">
+        <v>60</v>
+      </c>
+      <c r="DB153" t="n">
+        <v>204</v>
+      </c>
+      <c r="DC153" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD153" t="n">
+        <v>221</v>
+      </c>
+      <c r="DE153" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF153" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG153" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH153" t="n">
+        <v>223</v>
+      </c>
+      <c r="DI153" t="n">
+        <v>90</v>
+      </c>
+      <c r="DJ153" t="n">
+        <v>115</v>
+      </c>
+      <c r="DK153" t="n">
+        <v>168</v>
+      </c>
+      <c r="DL153" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM153" t="n">
+        <v>302</v>
+      </c>
+      <c r="DN153" t="n">
+        <v>173</v>
+      </c>
+      <c r="DO153" t="n">
+        <v>282</v>
+      </c>
+      <c r="DP153" t="n">
+        <v>784</v>
+      </c>
+      <c r="DQ153" t="n">
+        <v>191</v>
+      </c>
+      <c r="DR153" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS153" t="n">
+        <v>8</v>
+      </c>
+      <c r="DT153" t="n">
+        <v>198</v>
+      </c>
+      <c r="DU153" t="n">
+        <v>41</v>
+      </c>
+      <c r="DV153" t="n">
+        <v>72</v>
+      </c>
+      <c r="DW153" t="n">
+        <v>347</v>
+      </c>
+      <c r="DX153" t="n">
+        <v>196</v>
+      </c>
+      <c r="DY153" t="n">
+        <v>5174</v>
+      </c>
+      <c r="DZ153" t="n">
+        <v>209</v>
+      </c>
+      <c r="EA153" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB153" t="n">
+        <v>306</v>
+      </c>
+      <c r="EC153" t="n">
+        <v>201</v>
+      </c>
+      <c r="ED153" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE153" t="n">
+        <v>1237</v>
+      </c>
+      <c r="EF153" t="n">
+        <v>13</v>
+      </c>
+      <c r="EG153" t="n">
+        <v>348</v>
+      </c>
+      <c r="EH153" t="n">
+        <v>33</v>
+      </c>
+      <c r="EI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ153" t="n">
+        <v>172</v>
+      </c>
+      <c r="EK153" t="n">
+        <v>359</v>
+      </c>
+      <c r="EL153" t="n">
+        <v>618</v>
+      </c>
+      <c r="EM153" t="n">
+        <v>3408</v>
+      </c>
+      <c r="EN153" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO153" t="n">
+        <v>110</v>
+      </c>
+      <c r="EP153" t="n">
+        <v>820</v>
+      </c>
+      <c r="EQ153" t="n">
+        <v>144</v>
+      </c>
+      <c r="ER153" t="n">
+        <v>3078</v>
+      </c>
+      <c r="ES153" t="n">
+        <v>42</v>
+      </c>
+      <c r="ET153" t="n">
+        <v>585</v>
+      </c>
+      <c r="EU153" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV153" t="n">
+        <v>274</v>
+      </c>
+      <c r="EW153" t="n">
+        <v>73</v>
+      </c>
+      <c r="EX153" t="n">
+        <v>28370</v>
+      </c>
+      <c r="EY153" t="n">
+        <v>297</v>
+      </c>
+      <c r="EZ153" t="n">
+        <v>178</v>
+      </c>
+      <c r="FA153" t="n">
+        <v>189</v>
+      </c>
+      <c r="FB153" t="n">
+        <v>51</v>
+      </c>
+      <c r="FC153" t="n">
+        <v>56</v>
+      </c>
+      <c r="FD153" t="n">
+        <v>415</v>
+      </c>
+      <c r="FE153" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF153" t="n">
+        <v>353</v>
+      </c>
+      <c r="FG153" t="n">
+        <v>68</v>
+      </c>
+      <c r="FH153" t="n">
+        <v>43</v>
+      </c>
+      <c r="FI153" t="n">
+        <v>2253</v>
+      </c>
+      <c r="FJ153" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK153" t="n">
+        <v>62</v>
+      </c>
+      <c r="FL153" t="n">
+        <v>132</v>
+      </c>
+      <c r="FM153" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN153" t="n">
+        <v>84</v>
+      </c>
+      <c r="FO153" t="n">
+        <v>499</v>
+      </c>
+      <c r="FP153" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ153" t="n">
+        <v>375</v>
+      </c>
+      <c r="FR153" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS153" t="n">
+        <v>43</v>
+      </c>
+      <c r="FT153" t="n">
+        <v>240</v>
+      </c>
+      <c r="FU153" t="n">
+        <v>306</v>
+      </c>
+      <c r="FV153" t="n">
+        <v>265</v>
+      </c>
+      <c r="FW153" t="n">
+        <v>224</v>
+      </c>
+      <c r="FX153" t="n">
+        <v>769</v>
+      </c>
+      <c r="FY153" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ153" t="n">
+        <v>298</v>
+      </c>
+      <c r="GA153" t="n">
+        <v>2310</v>
+      </c>
+      <c r="GB153" t="n">
+        <v>71</v>
+      </c>
+      <c r="GC153" t="n">
+        <v>294</v>
+      </c>
+      <c r="GD153" t="n">
+        <v>321</v>
+      </c>
+      <c r="GE153" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF153" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG153" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH153" t="n">
+        <v>852</v>
+      </c>
+      <c r="GI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ153" t="n">
+        <v>342</v>
+      </c>
+      <c r="GK153" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL153" t="n">
+        <v>409</v>
+      </c>
+      <c r="GM153" t="n">
+        <v>317</v>
+      </c>
+      <c r="GN153" t="n">
+        <v>50</v>
+      </c>
+      <c r="GO153" t="n">
+        <v>35</v>
+      </c>
+      <c r="GP153" t="n">
+        <v>34</v>
+      </c>
+      <c r="GQ153" t="n">
+        <v>670</v>
+      </c>
+      <c r="GR153" t="n">
+        <v>371</v>
+      </c>
+      <c r="GS153" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT153" t="n">
+        <v>238</v>
+      </c>
+      <c r="GU153" t="n">
+        <v>86</v>
+      </c>
+      <c r="GV153" t="n">
+        <v>188</v>
+      </c>
+      <c r="GW153" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX153" t="n">
+        <v>126</v>
+      </c>
+      <c r="GY153" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ153" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA153" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB153" t="n">
+        <v>199</v>
+      </c>
+      <c r="HC153" t="n">
+        <v>1464</v>
+      </c>
+      <c r="HD153" t="n">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD153"/>
+  <dimension ref="A1:HD154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98708,6 +98708,646 @@
         <v>181</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>695</v>
+      </c>
+      <c r="C154" t="n">
+        <v>243</v>
+      </c>
+      <c r="D154" t="n">
+        <v>108</v>
+      </c>
+      <c r="E154" t="n">
+        <v>501</v>
+      </c>
+      <c r="F154" t="n">
+        <v>881</v>
+      </c>
+      <c r="G154" t="n">
+        <v>610</v>
+      </c>
+      <c r="H154" t="n">
+        <v>135</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>329</v>
+      </c>
+      <c r="K154" t="n">
+        <v>380</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>139</v>
+      </c>
+      <c r="N154" t="n">
+        <v>41</v>
+      </c>
+      <c r="O154" t="n">
+        <v>95</v>
+      </c>
+      <c r="P154" t="n">
+        <v>928</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>748</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>160</v>
+      </c>
+      <c r="T154" t="n">
+        <v>287</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1</v>
+      </c>
+      <c r="V154" t="n">
+        <v>78</v>
+      </c>
+      <c r="W154" t="n">
+        <v>50</v>
+      </c>
+      <c r="X154" t="n">
+        <v>775</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>685</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>159</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>458</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>435</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>747</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>216</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1541</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>360</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>335</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1727</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>140</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>137</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>227</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>258</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>116</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>402</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>4874</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>519</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>257</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>248</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>320</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>106</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>596</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>168</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ154" t="n">
+        <v>211</v>
+      </c>
+      <c r="BR154" t="n">
+        <v>343</v>
+      </c>
+      <c r="BS154" t="n">
+        <v>271</v>
+      </c>
+      <c r="BT154" t="n">
+        <v>447</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV154" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW154" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX154" t="n">
+        <v>143</v>
+      </c>
+      <c r="BY154" t="n">
+        <v>205</v>
+      </c>
+      <c r="BZ154" t="n">
+        <v>192</v>
+      </c>
+      <c r="CA154" t="n">
+        <v>889</v>
+      </c>
+      <c r="CB154" t="n">
+        <v>250</v>
+      </c>
+      <c r="CC154" t="n">
+        <v>1043</v>
+      </c>
+      <c r="CD154" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE154" t="n">
+        <v>514</v>
+      </c>
+      <c r="CF154" t="n">
+        <v>81</v>
+      </c>
+      <c r="CG154" t="n">
+        <v>91</v>
+      </c>
+      <c r="CH154" t="n">
+        <v>42</v>
+      </c>
+      <c r="CI154" t="n">
+        <v>656</v>
+      </c>
+      <c r="CJ154" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK154" t="n">
+        <v>54</v>
+      </c>
+      <c r="CL154" t="n">
+        <v>332</v>
+      </c>
+      <c r="CM154" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN154" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO154" t="n">
+        <v>747</v>
+      </c>
+      <c r="CP154" t="n">
+        <v>296</v>
+      </c>
+      <c r="CQ154" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR154" t="n">
+        <v>155</v>
+      </c>
+      <c r="CS154" t="n">
+        <v>668</v>
+      </c>
+      <c r="CT154" t="n">
+        <v>76</v>
+      </c>
+      <c r="CU154" t="n">
+        <v>310</v>
+      </c>
+      <c r="CV154" t="n">
+        <v>134</v>
+      </c>
+      <c r="CW154" t="n">
+        <v>6951</v>
+      </c>
+      <c r="CX154" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY154" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ154" t="n">
+        <v>248</v>
+      </c>
+      <c r="DA154" t="n">
+        <v>60</v>
+      </c>
+      <c r="DB154" t="n">
+        <v>205</v>
+      </c>
+      <c r="DC154" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD154" t="n">
+        <v>222</v>
+      </c>
+      <c r="DE154" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF154" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG154" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH154" t="n">
+        <v>223</v>
+      </c>
+      <c r="DI154" t="n">
+        <v>91</v>
+      </c>
+      <c r="DJ154" t="n">
+        <v>115</v>
+      </c>
+      <c r="DK154" t="n">
+        <v>168</v>
+      </c>
+      <c r="DL154" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM154" t="n">
+        <v>302</v>
+      </c>
+      <c r="DN154" t="n">
+        <v>175</v>
+      </c>
+      <c r="DO154" t="n">
+        <v>282</v>
+      </c>
+      <c r="DP154" t="n">
+        <v>791</v>
+      </c>
+      <c r="DQ154" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR154" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS154" t="n">
+        <v>8</v>
+      </c>
+      <c r="DT154" t="n">
+        <v>198</v>
+      </c>
+      <c r="DU154" t="n">
+        <v>41</v>
+      </c>
+      <c r="DV154" t="n">
+        <v>73</v>
+      </c>
+      <c r="DW154" t="n">
+        <v>347</v>
+      </c>
+      <c r="DX154" t="n">
+        <v>197</v>
+      </c>
+      <c r="DY154" t="n">
+        <v>5178</v>
+      </c>
+      <c r="DZ154" t="n">
+        <v>209</v>
+      </c>
+      <c r="EA154" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB154" t="n">
+        <v>307</v>
+      </c>
+      <c r="EC154" t="n">
+        <v>203</v>
+      </c>
+      <c r="ED154" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE154" t="n">
+        <v>1237</v>
+      </c>
+      <c r="EF154" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG154" t="n">
+        <v>348</v>
+      </c>
+      <c r="EH154" t="n">
+        <v>33</v>
+      </c>
+      <c r="EI154" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ154" t="n">
+        <v>173</v>
+      </c>
+      <c r="EK154" t="n">
+        <v>359</v>
+      </c>
+      <c r="EL154" t="n">
+        <v>621</v>
+      </c>
+      <c r="EM154" t="n">
+        <v>3418</v>
+      </c>
+      <c r="EN154" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO154" t="n">
+        <v>110</v>
+      </c>
+      <c r="EP154" t="n">
+        <v>821</v>
+      </c>
+      <c r="EQ154" t="n">
+        <v>144</v>
+      </c>
+      <c r="ER154" t="n">
+        <v>3104</v>
+      </c>
+      <c r="ES154" t="n">
+        <v>43</v>
+      </c>
+      <c r="ET154" t="n">
+        <v>585</v>
+      </c>
+      <c r="EU154" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV154" t="n">
+        <v>275</v>
+      </c>
+      <c r="EW154" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX154" t="n">
+        <v>28504</v>
+      </c>
+      <c r="EY154" t="n">
+        <v>298</v>
+      </c>
+      <c r="EZ154" t="n">
+        <v>179</v>
+      </c>
+      <c r="FA154" t="n">
+        <v>189</v>
+      </c>
+      <c r="FB154" t="n">
+        <v>51</v>
+      </c>
+      <c r="FC154" t="n">
+        <v>56</v>
+      </c>
+      <c r="FD154" t="n">
+        <v>420</v>
+      </c>
+      <c r="FE154" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF154" t="n">
+        <v>353</v>
+      </c>
+      <c r="FG154" t="n">
+        <v>69</v>
+      </c>
+      <c r="FH154" t="n">
+        <v>44</v>
+      </c>
+      <c r="FI154" t="n">
+        <v>2258</v>
+      </c>
+      <c r="FJ154" t="n">
+        <v>11</v>
+      </c>
+      <c r="FK154" t="n">
+        <v>63</v>
+      </c>
+      <c r="FL154" t="n">
+        <v>132</v>
+      </c>
+      <c r="FM154" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN154" t="n">
+        <v>84</v>
+      </c>
+      <c r="FO154" t="n">
+        <v>505</v>
+      </c>
+      <c r="FP154" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ154" t="n">
+        <v>388</v>
+      </c>
+      <c r="FR154" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS154" t="n">
+        <v>44</v>
+      </c>
+      <c r="FT154" t="n">
+        <v>240</v>
+      </c>
+      <c r="FU154" t="n">
+        <v>306</v>
+      </c>
+      <c r="FV154" t="n">
+        <v>266</v>
+      </c>
+      <c r="FW154" t="n">
+        <v>237</v>
+      </c>
+      <c r="FX154" t="n">
+        <v>770</v>
+      </c>
+      <c r="FY154" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ154" t="n">
+        <v>298</v>
+      </c>
+      <c r="GA154" t="n">
+        <v>2323</v>
+      </c>
+      <c r="GB154" t="n">
+        <v>72</v>
+      </c>
+      <c r="GC154" t="n">
+        <v>294</v>
+      </c>
+      <c r="GD154" t="n">
+        <v>321</v>
+      </c>
+      <c r="GE154" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF154" t="n">
+        <v>41</v>
+      </c>
+      <c r="GG154" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH154" t="n">
+        <v>854</v>
+      </c>
+      <c r="GI154" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ154" t="n">
+        <v>344</v>
+      </c>
+      <c r="GK154" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL154" t="n">
+        <v>410</v>
+      </c>
+      <c r="GM154" t="n">
+        <v>317</v>
+      </c>
+      <c r="GN154" t="n">
+        <v>52</v>
+      </c>
+      <c r="GO154" t="n">
+        <v>41</v>
+      </c>
+      <c r="GP154" t="n">
+        <v>35</v>
+      </c>
+      <c r="GQ154" t="n">
+        <v>757</v>
+      </c>
+      <c r="GR154" t="n">
+        <v>381</v>
+      </c>
+      <c r="GS154" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT154" t="n">
+        <v>243</v>
+      </c>
+      <c r="GU154" t="n">
+        <v>86</v>
+      </c>
+      <c r="GV154" t="n">
+        <v>188</v>
+      </c>
+      <c r="GW154" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX154" t="n">
+        <v>127</v>
+      </c>
+      <c r="GY154" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ154" t="n">
+        <v>38</v>
+      </c>
+      <c r="HA154" t="n">
+        <v>138</v>
+      </c>
+      <c r="HB154" t="n">
+        <v>201</v>
+      </c>
+      <c r="HC154" t="n">
+        <v>1466</v>
+      </c>
+      <c r="HD154" t="n">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD154"/>
+  <dimension ref="A1:HD155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97957,7 +97957,7 @@
         <v>43</v>
       </c>
       <c r="FT152" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="FU152" t="n">
         <v>305</v>
@@ -98597,7 +98597,7 @@
         <v>43</v>
       </c>
       <c r="FT153" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="FU153" t="n">
         <v>306</v>
@@ -99237,7 +99237,7 @@
         <v>44</v>
       </c>
       <c r="FT154" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="FU154" t="n">
         <v>306</v>
@@ -99346,6 +99346,646 @@
       </c>
       <c r="HD154" t="n">
         <v>181</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>708</v>
+      </c>
+      <c r="C155" t="n">
+        <v>253</v>
+      </c>
+      <c r="D155" t="n">
+        <v>111</v>
+      </c>
+      <c r="E155" t="n">
+        <v>502</v>
+      </c>
+      <c r="F155" t="n">
+        <v>886</v>
+      </c>
+      <c r="G155" t="n">
+        <v>611</v>
+      </c>
+      <c r="H155" t="n">
+        <v>137</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>330</v>
+      </c>
+      <c r="K155" t="n">
+        <v>382</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>139</v>
+      </c>
+      <c r="N155" t="n">
+        <v>41</v>
+      </c>
+      <c r="O155" t="n">
+        <v>95</v>
+      </c>
+      <c r="P155" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>762</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>160</v>
+      </c>
+      <c r="T155" t="n">
+        <v>289</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1</v>
+      </c>
+      <c r="V155" t="n">
+        <v>79</v>
+      </c>
+      <c r="W155" t="n">
+        <v>56</v>
+      </c>
+      <c r="X155" t="n">
+        <v>776</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>708</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>451</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>216</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1551</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>362</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>271</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>346</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>109</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1735</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>146</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>137</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>238</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>265</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>121</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>407</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>4965</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>524</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>268</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>249</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>327</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>106</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>603</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>172</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ155" t="n">
+        <v>211</v>
+      </c>
+      <c r="BR155" t="n">
+        <v>350</v>
+      </c>
+      <c r="BS155" t="n">
+        <v>274</v>
+      </c>
+      <c r="BT155" t="n">
+        <v>449</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV155" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW155" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX155" t="n">
+        <v>145</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>205</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>192</v>
+      </c>
+      <c r="CA155" t="n">
+        <v>906</v>
+      </c>
+      <c r="CB155" t="n">
+        <v>251</v>
+      </c>
+      <c r="CC155" t="n">
+        <v>1053</v>
+      </c>
+      <c r="CD155" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE155" t="n">
+        <v>517</v>
+      </c>
+      <c r="CF155" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG155" t="n">
+        <v>92</v>
+      </c>
+      <c r="CH155" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI155" t="n">
+        <v>663</v>
+      </c>
+      <c r="CJ155" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK155" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL155" t="n">
+        <v>334</v>
+      </c>
+      <c r="CM155" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN155" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO155" t="n">
+        <v>754</v>
+      </c>
+      <c r="CP155" t="n">
+        <v>313</v>
+      </c>
+      <c r="CQ155" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR155" t="n">
+        <v>155</v>
+      </c>
+      <c r="CS155" t="n">
+        <v>669</v>
+      </c>
+      <c r="CT155" t="n">
+        <v>78</v>
+      </c>
+      <c r="CU155" t="n">
+        <v>313</v>
+      </c>
+      <c r="CV155" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW155" t="n">
+        <v>7000</v>
+      </c>
+      <c r="CX155" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY155" t="n">
+        <v>228</v>
+      </c>
+      <c r="CZ155" t="n">
+        <v>252</v>
+      </c>
+      <c r="DA155" t="n">
+        <v>64</v>
+      </c>
+      <c r="DB155" t="n">
+        <v>205</v>
+      </c>
+      <c r="DC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD155" t="n">
+        <v>225</v>
+      </c>
+      <c r="DE155" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF155" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG155" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH155" t="n">
+        <v>230</v>
+      </c>
+      <c r="DI155" t="n">
+        <v>96</v>
+      </c>
+      <c r="DJ155" t="n">
+        <v>115</v>
+      </c>
+      <c r="DK155" t="n">
+        <v>171</v>
+      </c>
+      <c r="DL155" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM155" t="n">
+        <v>302</v>
+      </c>
+      <c r="DN155" t="n">
+        <v>183</v>
+      </c>
+      <c r="DO155" t="n">
+        <v>289</v>
+      </c>
+      <c r="DP155" t="n">
+        <v>815</v>
+      </c>
+      <c r="DQ155" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR155" t="n">
+        <v>102</v>
+      </c>
+      <c r="DS155" t="n">
+        <v>9</v>
+      </c>
+      <c r="DT155" t="n">
+        <v>225</v>
+      </c>
+      <c r="DU155" t="n">
+        <v>42</v>
+      </c>
+      <c r="DV155" t="n">
+        <v>73</v>
+      </c>
+      <c r="DW155" t="n">
+        <v>349</v>
+      </c>
+      <c r="DX155" t="n">
+        <v>198</v>
+      </c>
+      <c r="DY155" t="n">
+        <v>5222</v>
+      </c>
+      <c r="DZ155" t="n">
+        <v>210</v>
+      </c>
+      <c r="EA155" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB155" t="n">
+        <v>320</v>
+      </c>
+      <c r="EC155" t="n">
+        <v>207</v>
+      </c>
+      <c r="ED155" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE155" t="n">
+        <v>1248</v>
+      </c>
+      <c r="EF155" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG155" t="n">
+        <v>350</v>
+      </c>
+      <c r="EH155" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI155" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ155" t="n">
+        <v>176</v>
+      </c>
+      <c r="EK155" t="n">
+        <v>366</v>
+      </c>
+      <c r="EL155" t="n">
+        <v>622</v>
+      </c>
+      <c r="EM155" t="n">
+        <v>3438</v>
+      </c>
+      <c r="EN155" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO155" t="n">
+        <v>113</v>
+      </c>
+      <c r="EP155" t="n">
+        <v>845</v>
+      </c>
+      <c r="EQ155" t="n">
+        <v>148</v>
+      </c>
+      <c r="ER155" t="n">
+        <v>3229</v>
+      </c>
+      <c r="ES155" t="n">
+        <v>43</v>
+      </c>
+      <c r="ET155" t="n">
+        <v>587</v>
+      </c>
+      <c r="EU155" t="n">
+        <v>80</v>
+      </c>
+      <c r="EV155" t="n">
+        <v>278</v>
+      </c>
+      <c r="EW155" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX155" t="n">
+        <v>28758</v>
+      </c>
+      <c r="EY155" t="n">
+        <v>309</v>
+      </c>
+      <c r="EZ155" t="n">
+        <v>179</v>
+      </c>
+      <c r="FA155" t="n">
+        <v>189</v>
+      </c>
+      <c r="FB155" t="n">
+        <v>55</v>
+      </c>
+      <c r="FC155" t="n">
+        <v>57</v>
+      </c>
+      <c r="FD155" t="n">
+        <v>440</v>
+      </c>
+      <c r="FE155" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF155" t="n">
+        <v>355</v>
+      </c>
+      <c r="FG155" t="n">
+        <v>69</v>
+      </c>
+      <c r="FH155" t="n">
+        <v>47</v>
+      </c>
+      <c r="FI155" t="n">
+        <v>2279</v>
+      </c>
+      <c r="FJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK155" t="n">
+        <v>64</v>
+      </c>
+      <c r="FL155" t="n">
+        <v>140</v>
+      </c>
+      <c r="FM155" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN155" t="n">
+        <v>91</v>
+      </c>
+      <c r="FO155" t="n">
+        <v>510</v>
+      </c>
+      <c r="FP155" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ155" t="n">
+        <v>395</v>
+      </c>
+      <c r="FR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS155" t="n">
+        <v>44</v>
+      </c>
+      <c r="FT155" t="n">
+        <v>239</v>
+      </c>
+      <c r="FU155" t="n">
+        <v>306</v>
+      </c>
+      <c r="FV155" t="n">
+        <v>274</v>
+      </c>
+      <c r="FW155" t="n">
+        <v>239</v>
+      </c>
+      <c r="FX155" t="n">
+        <v>774</v>
+      </c>
+      <c r="FY155" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ155" t="n">
+        <v>298</v>
+      </c>
+      <c r="GA155" t="n">
+        <v>2380</v>
+      </c>
+      <c r="GB155" t="n">
+        <v>74</v>
+      </c>
+      <c r="GC155" t="n">
+        <v>306</v>
+      </c>
+      <c r="GD155" t="n">
+        <v>321</v>
+      </c>
+      <c r="GE155" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF155" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG155" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH155" t="n">
+        <v>886</v>
+      </c>
+      <c r="GI155" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ155" t="n">
+        <v>351</v>
+      </c>
+      <c r="GK155" t="n">
+        <v>189</v>
+      </c>
+      <c r="GL155" t="n">
+        <v>411</v>
+      </c>
+      <c r="GM155" t="n">
+        <v>317</v>
+      </c>
+      <c r="GN155" t="n">
+        <v>53</v>
+      </c>
+      <c r="GO155" t="n">
+        <v>42</v>
+      </c>
+      <c r="GP155" t="n">
+        <v>35</v>
+      </c>
+      <c r="GQ155" t="n">
+        <v>764</v>
+      </c>
+      <c r="GR155" t="n">
+        <v>383</v>
+      </c>
+      <c r="GS155" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT155" t="n">
+        <v>244</v>
+      </c>
+      <c r="GU155" t="n">
+        <v>87</v>
+      </c>
+      <c r="GV155" t="n">
+        <v>191</v>
+      </c>
+      <c r="GW155" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX155" t="n">
+        <v>139</v>
+      </c>
+      <c r="GY155" t="n">
+        <v>22</v>
+      </c>
+      <c r="GZ155" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA155" t="n">
+        <v>139</v>
+      </c>
+      <c r="HB155" t="n">
+        <v>202</v>
+      </c>
+      <c r="HC155" t="n">
+        <v>1486</v>
+      </c>
+      <c r="HD155" t="n">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD155"/>
+  <dimension ref="A1:HD157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99988,6 +99988,1286 @@
         <v>183</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>712</v>
+      </c>
+      <c r="C156" t="n">
+        <v>257</v>
+      </c>
+      <c r="D156" t="n">
+        <v>112</v>
+      </c>
+      <c r="E156" t="n">
+        <v>504</v>
+      </c>
+      <c r="F156" t="n">
+        <v>893</v>
+      </c>
+      <c r="G156" t="n">
+        <v>611</v>
+      </c>
+      <c r="H156" t="n">
+        <v>142</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>334</v>
+      </c>
+      <c r="K156" t="n">
+        <v>382</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>143</v>
+      </c>
+      <c r="N156" t="n">
+        <v>41</v>
+      </c>
+      <c r="O156" t="n">
+        <v>96</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>764</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>160</v>
+      </c>
+      <c r="T156" t="n">
+        <v>289</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>80</v>
+      </c>
+      <c r="W156" t="n">
+        <v>56</v>
+      </c>
+      <c r="X156" t="n">
+        <v>782</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>719</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>479</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>460</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>259</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>754</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>229</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1559</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>362</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>271</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>355</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>109</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1747</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>146</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>137</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>241</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>270</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>122</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>408</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>5113</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>62</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>527</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>274</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>249</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>336</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>106</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>611</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>174</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ156" t="n">
+        <v>214</v>
+      </c>
+      <c r="BR156" t="n">
+        <v>369</v>
+      </c>
+      <c r="BS156" t="n">
+        <v>283</v>
+      </c>
+      <c r="BT156" t="n">
+        <v>450</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV156" t="n">
+        <v>150</v>
+      </c>
+      <c r="BW156" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX156" t="n">
+        <v>147</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>214</v>
+      </c>
+      <c r="BZ156" t="n">
+        <v>193</v>
+      </c>
+      <c r="CA156" t="n">
+        <v>937</v>
+      </c>
+      <c r="CB156" t="n">
+        <v>254</v>
+      </c>
+      <c r="CC156" t="n">
+        <v>1101</v>
+      </c>
+      <c r="CD156" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE156" t="n">
+        <v>533</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>87</v>
+      </c>
+      <c r="CG156" t="n">
+        <v>92</v>
+      </c>
+      <c r="CH156" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI156" t="n">
+        <v>667</v>
+      </c>
+      <c r="CJ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK156" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL156" t="n">
+        <v>335</v>
+      </c>
+      <c r="CM156" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN156" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO156" t="n">
+        <v>756</v>
+      </c>
+      <c r="CP156" t="n">
+        <v>315</v>
+      </c>
+      <c r="CQ156" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR156" t="n">
+        <v>156</v>
+      </c>
+      <c r="CS156" t="n">
+        <v>670</v>
+      </c>
+      <c r="CT156" t="n">
+        <v>83</v>
+      </c>
+      <c r="CU156" t="n">
+        <v>316</v>
+      </c>
+      <c r="CV156" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW156" t="n">
+        <v>7045</v>
+      </c>
+      <c r="CX156" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY156" t="n">
+        <v>230</v>
+      </c>
+      <c r="CZ156" t="n">
+        <v>254</v>
+      </c>
+      <c r="DA156" t="n">
+        <v>70</v>
+      </c>
+      <c r="DB156" t="n">
+        <v>208</v>
+      </c>
+      <c r="DC156" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD156" t="n">
+        <v>229</v>
+      </c>
+      <c r="DE156" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF156" t="n">
+        <v>182</v>
+      </c>
+      <c r="DG156" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH156" t="n">
+        <v>230</v>
+      </c>
+      <c r="DI156" t="n">
+        <v>100</v>
+      </c>
+      <c r="DJ156" t="n">
+        <v>116</v>
+      </c>
+      <c r="DK156" t="n">
+        <v>172</v>
+      </c>
+      <c r="DL156" t="n">
+        <v>48</v>
+      </c>
+      <c r="DM156" t="n">
+        <v>305</v>
+      </c>
+      <c r="DN156" t="n">
+        <v>189</v>
+      </c>
+      <c r="DO156" t="n">
+        <v>290</v>
+      </c>
+      <c r="DP156" t="n">
+        <v>831</v>
+      </c>
+      <c r="DQ156" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR156" t="n">
+        <v>103</v>
+      </c>
+      <c r="DS156" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT156" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU156" t="n">
+        <v>46</v>
+      </c>
+      <c r="DV156" t="n">
+        <v>73</v>
+      </c>
+      <c r="DW156" t="n">
+        <v>350</v>
+      </c>
+      <c r="DX156" t="n">
+        <v>198</v>
+      </c>
+      <c r="DY156" t="n">
+        <v>5261</v>
+      </c>
+      <c r="DZ156" t="n">
+        <v>212</v>
+      </c>
+      <c r="EA156" t="n">
+        <v>31</v>
+      </c>
+      <c r="EB156" t="n">
+        <v>326</v>
+      </c>
+      <c r="EC156" t="n">
+        <v>210</v>
+      </c>
+      <c r="ED156" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE156" t="n">
+        <v>1251</v>
+      </c>
+      <c r="EF156" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG156" t="n">
+        <v>351</v>
+      </c>
+      <c r="EH156" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI156" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ156" t="n">
+        <v>186</v>
+      </c>
+      <c r="EK156" t="n">
+        <v>386</v>
+      </c>
+      <c r="EL156" t="n">
+        <v>624</v>
+      </c>
+      <c r="EM156" t="n">
+        <v>3456</v>
+      </c>
+      <c r="EN156" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO156" t="n">
+        <v>117</v>
+      </c>
+      <c r="EP156" t="n">
+        <v>858</v>
+      </c>
+      <c r="EQ156" t="n">
+        <v>150</v>
+      </c>
+      <c r="ER156" t="n">
+        <v>3353</v>
+      </c>
+      <c r="ES156" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET156" t="n">
+        <v>590</v>
+      </c>
+      <c r="EU156" t="n">
+        <v>80</v>
+      </c>
+      <c r="EV156" t="n">
+        <v>278</v>
+      </c>
+      <c r="EW156" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX156" t="n">
+        <v>28950</v>
+      </c>
+      <c r="EY156" t="n">
+        <v>314</v>
+      </c>
+      <c r="EZ156" t="n">
+        <v>181</v>
+      </c>
+      <c r="FA156" t="n">
+        <v>190</v>
+      </c>
+      <c r="FB156" t="n">
+        <v>56</v>
+      </c>
+      <c r="FC156" t="n">
+        <v>61</v>
+      </c>
+      <c r="FD156" t="n">
+        <v>474</v>
+      </c>
+      <c r="FE156" t="n">
+        <v>58</v>
+      </c>
+      <c r="FF156" t="n">
+        <v>358</v>
+      </c>
+      <c r="FG156" t="n">
+        <v>69</v>
+      </c>
+      <c r="FH156" t="n">
+        <v>47</v>
+      </c>
+      <c r="FI156" t="n">
+        <v>2326</v>
+      </c>
+      <c r="FJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK156" t="n">
+        <v>64</v>
+      </c>
+      <c r="FL156" t="n">
+        <v>140</v>
+      </c>
+      <c r="FM156" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN156" t="n">
+        <v>91</v>
+      </c>
+      <c r="FO156" t="n">
+        <v>513</v>
+      </c>
+      <c r="FP156" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ156" t="n">
+        <v>401</v>
+      </c>
+      <c r="FR156" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS156" t="n">
+        <v>44</v>
+      </c>
+      <c r="FT156" t="n">
+        <v>242</v>
+      </c>
+      <c r="FU156" t="n">
+        <v>313</v>
+      </c>
+      <c r="FV156" t="n">
+        <v>289</v>
+      </c>
+      <c r="FW156" t="n">
+        <v>247</v>
+      </c>
+      <c r="FX156" t="n">
+        <v>780</v>
+      </c>
+      <c r="FY156" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ156" t="n">
+        <v>298</v>
+      </c>
+      <c r="GA156" t="n">
+        <v>2434</v>
+      </c>
+      <c r="GB156" t="n">
+        <v>77</v>
+      </c>
+      <c r="GC156" t="n">
+        <v>308</v>
+      </c>
+      <c r="GD156" t="n">
+        <v>323</v>
+      </c>
+      <c r="GE156" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF156" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG156" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH156" t="n">
+        <v>897</v>
+      </c>
+      <c r="GI156" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ156" t="n">
+        <v>351</v>
+      </c>
+      <c r="GK156" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL156" t="n">
+        <v>414</v>
+      </c>
+      <c r="GM156" t="n">
+        <v>331</v>
+      </c>
+      <c r="GN156" t="n">
+        <v>55</v>
+      </c>
+      <c r="GO156" t="n">
+        <v>44</v>
+      </c>
+      <c r="GP156" t="n">
+        <v>35</v>
+      </c>
+      <c r="GQ156" t="n">
+        <v>847</v>
+      </c>
+      <c r="GR156" t="n">
+        <v>385</v>
+      </c>
+      <c r="GS156" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT156" t="n">
+        <v>245</v>
+      </c>
+      <c r="GU156" t="n">
+        <v>87</v>
+      </c>
+      <c r="GV156" t="n">
+        <v>192</v>
+      </c>
+      <c r="GW156" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX156" t="n">
+        <v>141</v>
+      </c>
+      <c r="GY156" t="n">
+        <v>27</v>
+      </c>
+      <c r="GZ156" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA156" t="n">
+        <v>145</v>
+      </c>
+      <c r="HB156" t="n">
+        <v>203</v>
+      </c>
+      <c r="HC156" t="n">
+        <v>1523</v>
+      </c>
+      <c r="HD156" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>717</v>
+      </c>
+      <c r="C157" t="n">
+        <v>268</v>
+      </c>
+      <c r="D157" t="n">
+        <v>115</v>
+      </c>
+      <c r="E157" t="n">
+        <v>511</v>
+      </c>
+      <c r="F157" t="n">
+        <v>913</v>
+      </c>
+      <c r="G157" t="n">
+        <v>618</v>
+      </c>
+      <c r="H157" t="n">
+        <v>146</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>335</v>
+      </c>
+      <c r="K157" t="n">
+        <v>387</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>143</v>
+      </c>
+      <c r="N157" t="n">
+        <v>42</v>
+      </c>
+      <c r="O157" t="n">
+        <v>97</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1010</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>766</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>161</v>
+      </c>
+      <c r="T157" t="n">
+        <v>290</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>82</v>
+      </c>
+      <c r="W157" t="n">
+        <v>57</v>
+      </c>
+      <c r="X157" t="n">
+        <v>791</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>746</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>478</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>762</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>242</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>366</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>276</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>358</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1762</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>148</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>139</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>243</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>283</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>123</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>410</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5230</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>64</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>528</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>278</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>256</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>341</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>108</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>630</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>175</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ157" t="n">
+        <v>214</v>
+      </c>
+      <c r="BR157" t="n">
+        <v>372</v>
+      </c>
+      <c r="BS157" t="n">
+        <v>290</v>
+      </c>
+      <c r="BT157" t="n">
+        <v>453</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV157" t="n">
+        <v>151</v>
+      </c>
+      <c r="BW157" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX157" t="n">
+        <v>147</v>
+      </c>
+      <c r="BY157" t="n">
+        <v>214</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>194</v>
+      </c>
+      <c r="CA157" t="n">
+        <v>963</v>
+      </c>
+      <c r="CB157" t="n">
+        <v>256</v>
+      </c>
+      <c r="CC157" t="n">
+        <v>1160</v>
+      </c>
+      <c r="CD157" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE157" t="n">
+        <v>539</v>
+      </c>
+      <c r="CF157" t="n">
+        <v>87</v>
+      </c>
+      <c r="CG157" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH157" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI157" t="n">
+        <v>671</v>
+      </c>
+      <c r="CJ157" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK157" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL157" t="n">
+        <v>337</v>
+      </c>
+      <c r="CM157" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN157" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO157" t="n">
+        <v>763</v>
+      </c>
+      <c r="CP157" t="n">
+        <v>322</v>
+      </c>
+      <c r="CQ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR157" t="n">
+        <v>160</v>
+      </c>
+      <c r="CS157" t="n">
+        <v>674</v>
+      </c>
+      <c r="CT157" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU157" t="n">
+        <v>321</v>
+      </c>
+      <c r="CV157" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW157" t="n">
+        <v>7094</v>
+      </c>
+      <c r="CX157" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY157" t="n">
+        <v>230</v>
+      </c>
+      <c r="CZ157" t="n">
+        <v>255</v>
+      </c>
+      <c r="DA157" t="n">
+        <v>72</v>
+      </c>
+      <c r="DB157" t="n">
+        <v>211</v>
+      </c>
+      <c r="DC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD157" t="n">
+        <v>230</v>
+      </c>
+      <c r="DE157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF157" t="n">
+        <v>187</v>
+      </c>
+      <c r="DG157" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH157" t="n">
+        <v>232</v>
+      </c>
+      <c r="DI157" t="n">
+        <v>102</v>
+      </c>
+      <c r="DJ157" t="n">
+        <v>116</v>
+      </c>
+      <c r="DK157" t="n">
+        <v>173</v>
+      </c>
+      <c r="DL157" t="n">
+        <v>52</v>
+      </c>
+      <c r="DM157" t="n">
+        <v>306</v>
+      </c>
+      <c r="DN157" t="n">
+        <v>189</v>
+      </c>
+      <c r="DO157" t="n">
+        <v>295</v>
+      </c>
+      <c r="DP157" t="n">
+        <v>847</v>
+      </c>
+      <c r="DQ157" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR157" t="n">
+        <v>103</v>
+      </c>
+      <c r="DS157" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT157" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU157" t="n">
+        <v>47</v>
+      </c>
+      <c r="DV157" t="n">
+        <v>77</v>
+      </c>
+      <c r="DW157" t="n">
+        <v>352</v>
+      </c>
+      <c r="DX157" t="n">
+        <v>199</v>
+      </c>
+      <c r="DY157" t="n">
+        <v>5288</v>
+      </c>
+      <c r="DZ157" t="n">
+        <v>213</v>
+      </c>
+      <c r="EA157" t="n">
+        <v>31</v>
+      </c>
+      <c r="EB157" t="n">
+        <v>338</v>
+      </c>
+      <c r="EC157" t="n">
+        <v>211</v>
+      </c>
+      <c r="ED157" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE157" t="n">
+        <v>1256</v>
+      </c>
+      <c r="EF157" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG157" t="n">
+        <v>352</v>
+      </c>
+      <c r="EH157" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI157" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ157" t="n">
+        <v>187</v>
+      </c>
+      <c r="EK157" t="n">
+        <v>392</v>
+      </c>
+      <c r="EL157" t="n">
+        <v>628</v>
+      </c>
+      <c r="EM157" t="n">
+        <v>3479</v>
+      </c>
+      <c r="EN157" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO157" t="n">
+        <v>118</v>
+      </c>
+      <c r="EP157" t="n">
+        <v>872</v>
+      </c>
+      <c r="EQ157" t="n">
+        <v>153</v>
+      </c>
+      <c r="ER157" t="n">
+        <v>3483</v>
+      </c>
+      <c r="ES157" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET157" t="n">
+        <v>590</v>
+      </c>
+      <c r="EU157" t="n">
+        <v>80</v>
+      </c>
+      <c r="EV157" t="n">
+        <v>281</v>
+      </c>
+      <c r="EW157" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX157" t="n">
+        <v>29205</v>
+      </c>
+      <c r="EY157" t="n">
+        <v>314</v>
+      </c>
+      <c r="EZ157" t="n">
+        <v>184</v>
+      </c>
+      <c r="FA157" t="n">
+        <v>190</v>
+      </c>
+      <c r="FB157" t="n">
+        <v>56</v>
+      </c>
+      <c r="FC157" t="n">
+        <v>61</v>
+      </c>
+      <c r="FD157" t="n">
+        <v>490</v>
+      </c>
+      <c r="FE157" t="n">
+        <v>59</v>
+      </c>
+      <c r="FF157" t="n">
+        <v>360</v>
+      </c>
+      <c r="FG157" t="n">
+        <v>69</v>
+      </c>
+      <c r="FH157" t="n">
+        <v>51</v>
+      </c>
+      <c r="FI157" t="n">
+        <v>2368</v>
+      </c>
+      <c r="FJ157" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK157" t="n">
+        <v>66</v>
+      </c>
+      <c r="FL157" t="n">
+        <v>140</v>
+      </c>
+      <c r="FM157" t="n">
+        <v>27</v>
+      </c>
+      <c r="FN157" t="n">
+        <v>93</v>
+      </c>
+      <c r="FO157" t="n">
+        <v>529</v>
+      </c>
+      <c r="FP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ157" t="n">
+        <v>401</v>
+      </c>
+      <c r="FR157" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS157" t="n">
+        <v>45</v>
+      </c>
+      <c r="FT157" t="n">
+        <v>244</v>
+      </c>
+      <c r="FU157" t="n">
+        <v>316</v>
+      </c>
+      <c r="FV157" t="n">
+        <v>299</v>
+      </c>
+      <c r="FW157" t="n">
+        <v>252</v>
+      </c>
+      <c r="FX157" t="n">
+        <v>784</v>
+      </c>
+      <c r="FY157" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ157" t="n">
+        <v>299</v>
+      </c>
+      <c r="GA157" t="n">
+        <v>2502</v>
+      </c>
+      <c r="GB157" t="n">
+        <v>79</v>
+      </c>
+      <c r="GC157" t="n">
+        <v>309</v>
+      </c>
+      <c r="GD157" t="n">
+        <v>348</v>
+      </c>
+      <c r="GE157" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF157" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG157" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH157" t="n">
+        <v>931</v>
+      </c>
+      <c r="GI157" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ157" t="n">
+        <v>352</v>
+      </c>
+      <c r="GK157" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL157" t="n">
+        <v>416</v>
+      </c>
+      <c r="GM157" t="n">
+        <v>331</v>
+      </c>
+      <c r="GN157" t="n">
+        <v>55</v>
+      </c>
+      <c r="GO157" t="n">
+        <v>45</v>
+      </c>
+      <c r="GP157" t="n">
+        <v>36</v>
+      </c>
+      <c r="GQ157" t="n">
+        <v>976</v>
+      </c>
+      <c r="GR157" t="n">
+        <v>385</v>
+      </c>
+      <c r="GS157" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT157" t="n">
+        <v>255</v>
+      </c>
+      <c r="GU157" t="n">
+        <v>89</v>
+      </c>
+      <c r="GV157" t="n">
+        <v>193</v>
+      </c>
+      <c r="GW157" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX157" t="n">
+        <v>148</v>
+      </c>
+      <c r="GY157" t="n">
+        <v>32</v>
+      </c>
+      <c r="GZ157" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA157" t="n">
+        <v>149</v>
+      </c>
+      <c r="HB157" t="n">
+        <v>211</v>
+      </c>
+      <c r="HC157" t="n">
+        <v>1533</v>
+      </c>
+      <c r="HD157" t="n">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD157"/>
+  <dimension ref="A1:HD158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101268,6 +101268,646 @@
         <v>184</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>724</v>
+      </c>
+      <c r="C158" t="n">
+        <v>283</v>
+      </c>
+      <c r="D158" t="n">
+        <v>116</v>
+      </c>
+      <c r="E158" t="n">
+        <v>512</v>
+      </c>
+      <c r="F158" t="n">
+        <v>913</v>
+      </c>
+      <c r="G158" t="n">
+        <v>618</v>
+      </c>
+      <c r="H158" t="n">
+        <v>147</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>337</v>
+      </c>
+      <c r="K158" t="n">
+        <v>388</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>144</v>
+      </c>
+      <c r="N158" t="n">
+        <v>46</v>
+      </c>
+      <c r="O158" t="n">
+        <v>98</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1053</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>778</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>163</v>
+      </c>
+      <c r="T158" t="n">
+        <v>291</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>82</v>
+      </c>
+      <c r="W158" t="n">
+        <v>60</v>
+      </c>
+      <c r="X158" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>750</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>492</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>502</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>273</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>771</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>246</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1588</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>368</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>277</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>363</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>153</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>140</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>249</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>285</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>127</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>410</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>5342</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>528</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>279</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>257</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>346</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>89</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>122</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>109</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>640</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>176</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ158" t="n">
+        <v>215</v>
+      </c>
+      <c r="BR158" t="n">
+        <v>377</v>
+      </c>
+      <c r="BS158" t="n">
+        <v>301</v>
+      </c>
+      <c r="BT158" t="n">
+        <v>456</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV158" t="n">
+        <v>152</v>
+      </c>
+      <c r="BW158" t="n">
+        <v>75</v>
+      </c>
+      <c r="BX158" t="n">
+        <v>148</v>
+      </c>
+      <c r="BY158" t="n">
+        <v>230</v>
+      </c>
+      <c r="BZ158" t="n">
+        <v>196</v>
+      </c>
+      <c r="CA158" t="n">
+        <v>974</v>
+      </c>
+      <c r="CB158" t="n">
+        <v>256</v>
+      </c>
+      <c r="CC158" t="n">
+        <v>1175</v>
+      </c>
+      <c r="CD158" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE158" t="n">
+        <v>539</v>
+      </c>
+      <c r="CF158" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG158" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH158" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI158" t="n">
+        <v>680</v>
+      </c>
+      <c r="CJ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK158" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL158" t="n">
+        <v>338</v>
+      </c>
+      <c r="CM158" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN158" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO158" t="n">
+        <v>771</v>
+      </c>
+      <c r="CP158" t="n">
+        <v>336</v>
+      </c>
+      <c r="CQ158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR158" t="n">
+        <v>165</v>
+      </c>
+      <c r="CS158" t="n">
+        <v>676</v>
+      </c>
+      <c r="CT158" t="n">
+        <v>87</v>
+      </c>
+      <c r="CU158" t="n">
+        <v>322</v>
+      </c>
+      <c r="CV158" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW158" t="n">
+        <v>7138</v>
+      </c>
+      <c r="CX158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY158" t="n">
+        <v>231</v>
+      </c>
+      <c r="CZ158" t="n">
+        <v>256</v>
+      </c>
+      <c r="DA158" t="n">
+        <v>72</v>
+      </c>
+      <c r="DB158" t="n">
+        <v>215</v>
+      </c>
+      <c r="DC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD158" t="n">
+        <v>230</v>
+      </c>
+      <c r="DE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF158" t="n">
+        <v>187</v>
+      </c>
+      <c r="DG158" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH158" t="n">
+        <v>237</v>
+      </c>
+      <c r="DI158" t="n">
+        <v>111</v>
+      </c>
+      <c r="DJ158" t="n">
+        <v>119</v>
+      </c>
+      <c r="DK158" t="n">
+        <v>173</v>
+      </c>
+      <c r="DL158" t="n">
+        <v>52</v>
+      </c>
+      <c r="DM158" t="n">
+        <v>306</v>
+      </c>
+      <c r="DN158" t="n">
+        <v>189</v>
+      </c>
+      <c r="DO158" t="n">
+        <v>305</v>
+      </c>
+      <c r="DP158" t="n">
+        <v>853</v>
+      </c>
+      <c r="DQ158" t="n">
+        <v>195</v>
+      </c>
+      <c r="DR158" t="n">
+        <v>103</v>
+      </c>
+      <c r="DS158" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT158" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU158" t="n">
+        <v>48</v>
+      </c>
+      <c r="DV158" t="n">
+        <v>77</v>
+      </c>
+      <c r="DW158" t="n">
+        <v>353</v>
+      </c>
+      <c r="DX158" t="n">
+        <v>205</v>
+      </c>
+      <c r="DY158" t="n">
+        <v>5317</v>
+      </c>
+      <c r="DZ158" t="n">
+        <v>223</v>
+      </c>
+      <c r="EA158" t="n">
+        <v>33</v>
+      </c>
+      <c r="EB158" t="n">
+        <v>340</v>
+      </c>
+      <c r="EC158" t="n">
+        <v>211</v>
+      </c>
+      <c r="ED158" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE158" t="n">
+        <v>1261</v>
+      </c>
+      <c r="EF158" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG158" t="n">
+        <v>356</v>
+      </c>
+      <c r="EH158" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI158" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ158" t="n">
+        <v>190</v>
+      </c>
+      <c r="EK158" t="n">
+        <v>393</v>
+      </c>
+      <c r="EL158" t="n">
+        <v>632</v>
+      </c>
+      <c r="EM158" t="n">
+        <v>3498</v>
+      </c>
+      <c r="EN158" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO158" t="n">
+        <v>119</v>
+      </c>
+      <c r="EP158" t="n">
+        <v>890</v>
+      </c>
+      <c r="EQ158" t="n">
+        <v>163</v>
+      </c>
+      <c r="ER158" t="n">
+        <v>3615</v>
+      </c>
+      <c r="ES158" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET158" t="n">
+        <v>592</v>
+      </c>
+      <c r="EU158" t="n">
+        <v>80</v>
+      </c>
+      <c r="EV158" t="n">
+        <v>281</v>
+      </c>
+      <c r="EW158" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX158" t="n">
+        <v>29477</v>
+      </c>
+      <c r="EY158" t="n">
+        <v>319</v>
+      </c>
+      <c r="EZ158" t="n">
+        <v>187</v>
+      </c>
+      <c r="FA158" t="n">
+        <v>190</v>
+      </c>
+      <c r="FB158" t="n">
+        <v>56</v>
+      </c>
+      <c r="FC158" t="n">
+        <v>61</v>
+      </c>
+      <c r="FD158" t="n">
+        <v>514</v>
+      </c>
+      <c r="FE158" t="n">
+        <v>60</v>
+      </c>
+      <c r="FF158" t="n">
+        <v>360</v>
+      </c>
+      <c r="FG158" t="n">
+        <v>69</v>
+      </c>
+      <c r="FH158" t="n">
+        <v>51</v>
+      </c>
+      <c r="FI158" t="n">
+        <v>2378</v>
+      </c>
+      <c r="FJ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK158" t="n">
+        <v>66</v>
+      </c>
+      <c r="FL158" t="n">
+        <v>148</v>
+      </c>
+      <c r="FM158" t="n">
+        <v>28</v>
+      </c>
+      <c r="FN158" t="n">
+        <v>96</v>
+      </c>
+      <c r="FO158" t="n">
+        <v>536</v>
+      </c>
+      <c r="FP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ158" t="n">
+        <v>407</v>
+      </c>
+      <c r="FR158" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS158" t="n">
+        <v>46</v>
+      </c>
+      <c r="FT158" t="n">
+        <v>248</v>
+      </c>
+      <c r="FU158" t="n">
+        <v>318</v>
+      </c>
+      <c r="FV158" t="n">
+        <v>308</v>
+      </c>
+      <c r="FW158" t="n">
+        <v>262</v>
+      </c>
+      <c r="FX158" t="n">
+        <v>794</v>
+      </c>
+      <c r="FY158" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ158" t="n">
+        <v>299</v>
+      </c>
+      <c r="GA158" t="n">
+        <v>2599</v>
+      </c>
+      <c r="GB158" t="n">
+        <v>80</v>
+      </c>
+      <c r="GC158" t="n">
+        <v>313</v>
+      </c>
+      <c r="GD158" t="n">
+        <v>349</v>
+      </c>
+      <c r="GE158" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF158" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG158" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH158" t="n">
+        <v>948</v>
+      </c>
+      <c r="GI158" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ158" t="n">
+        <v>355</v>
+      </c>
+      <c r="GK158" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL158" t="n">
+        <v>416</v>
+      </c>
+      <c r="GM158" t="n">
+        <v>335</v>
+      </c>
+      <c r="GN158" t="n">
+        <v>60</v>
+      </c>
+      <c r="GO158" t="n">
+        <v>45</v>
+      </c>
+      <c r="GP158" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ158" t="n">
+        <v>979</v>
+      </c>
+      <c r="GR158" t="n">
+        <v>407</v>
+      </c>
+      <c r="GS158" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT158" t="n">
+        <v>259</v>
+      </c>
+      <c r="GU158" t="n">
+        <v>94</v>
+      </c>
+      <c r="GV158" t="n">
+        <v>193</v>
+      </c>
+      <c r="GW158" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX158" t="n">
+        <v>154</v>
+      </c>
+      <c r="GY158" t="n">
+        <v>40</v>
+      </c>
+      <c r="GZ158" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA158" t="n">
+        <v>150</v>
+      </c>
+      <c r="HB158" t="n">
+        <v>211</v>
+      </c>
+      <c r="HC158" t="n">
+        <v>1536</v>
+      </c>
+      <c r="HD158" t="n">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD158"/>
+  <dimension ref="A1:HD159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101908,6 +101908,646 @@
         <v>186</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>726</v>
+      </c>
+      <c r="C159" t="n">
+        <v>297</v>
+      </c>
+      <c r="D159" t="n">
+        <v>121</v>
+      </c>
+      <c r="E159" t="n">
+        <v>512</v>
+      </c>
+      <c r="F159" t="n">
+        <v>913</v>
+      </c>
+      <c r="G159" t="n">
+        <v>621</v>
+      </c>
+      <c r="H159" t="n">
+        <v>147</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>340</v>
+      </c>
+      <c r="K159" t="n">
+        <v>393</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>144</v>
+      </c>
+      <c r="N159" t="n">
+        <v>47</v>
+      </c>
+      <c r="O159" t="n">
+        <v>98</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1072</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>784</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>163</v>
+      </c>
+      <c r="T159" t="n">
+        <v>291</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1</v>
+      </c>
+      <c r="V159" t="n">
+        <v>84</v>
+      </c>
+      <c r="W159" t="n">
+        <v>60</v>
+      </c>
+      <c r="X159" t="n">
+        <v>825</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>768</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>499</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>502</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>274</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>796</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>249</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1605</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>370</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>277</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>374</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1784</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>141</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>250</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>295</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>134</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>413</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>5518</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>529</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>279</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>258</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>351</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>90</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>123</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>110</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>640</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>177</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ159" t="n">
+        <v>217</v>
+      </c>
+      <c r="BR159" t="n">
+        <v>378</v>
+      </c>
+      <c r="BS159" t="n">
+        <v>311</v>
+      </c>
+      <c r="BT159" t="n">
+        <v>460</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV159" t="n">
+        <v>153</v>
+      </c>
+      <c r="BW159" t="n">
+        <v>77</v>
+      </c>
+      <c r="BX159" t="n">
+        <v>149</v>
+      </c>
+      <c r="BY159" t="n">
+        <v>233</v>
+      </c>
+      <c r="BZ159" t="n">
+        <v>197</v>
+      </c>
+      <c r="CA159" t="n">
+        <v>992</v>
+      </c>
+      <c r="CB159" t="n">
+        <v>256</v>
+      </c>
+      <c r="CC159" t="n">
+        <v>1176</v>
+      </c>
+      <c r="CD159" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE159" t="n">
+        <v>541</v>
+      </c>
+      <c r="CF159" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG159" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH159" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI159" t="n">
+        <v>683</v>
+      </c>
+      <c r="CJ159" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK159" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL159" t="n">
+        <v>339</v>
+      </c>
+      <c r="CM159" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN159" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO159" t="n">
+        <v>781</v>
+      </c>
+      <c r="CP159" t="n">
+        <v>339</v>
+      </c>
+      <c r="CQ159" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR159" t="n">
+        <v>171</v>
+      </c>
+      <c r="CS159" t="n">
+        <v>677</v>
+      </c>
+      <c r="CT159" t="n">
+        <v>89</v>
+      </c>
+      <c r="CU159" t="n">
+        <v>324</v>
+      </c>
+      <c r="CV159" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW159" t="n">
+        <v>7176</v>
+      </c>
+      <c r="CX159" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY159" t="n">
+        <v>232</v>
+      </c>
+      <c r="CZ159" t="n">
+        <v>257</v>
+      </c>
+      <c r="DA159" t="n">
+        <v>74</v>
+      </c>
+      <c r="DB159" t="n">
+        <v>221</v>
+      </c>
+      <c r="DC159" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD159" t="n">
+        <v>231</v>
+      </c>
+      <c r="DE159" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF159" t="n">
+        <v>189</v>
+      </c>
+      <c r="DG159" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH159" t="n">
+        <v>238</v>
+      </c>
+      <c r="DI159" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ159" t="n">
+        <v>119</v>
+      </c>
+      <c r="DK159" t="n">
+        <v>173</v>
+      </c>
+      <c r="DL159" t="n">
+        <v>52</v>
+      </c>
+      <c r="DM159" t="n">
+        <v>307</v>
+      </c>
+      <c r="DN159" t="n">
+        <v>189</v>
+      </c>
+      <c r="DO159" t="n">
+        <v>309</v>
+      </c>
+      <c r="DP159" t="n">
+        <v>864</v>
+      </c>
+      <c r="DQ159" t="n">
+        <v>199</v>
+      </c>
+      <c r="DR159" t="n">
+        <v>108</v>
+      </c>
+      <c r="DS159" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT159" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU159" t="n">
+        <v>49</v>
+      </c>
+      <c r="DV159" t="n">
+        <v>77</v>
+      </c>
+      <c r="DW159" t="n">
+        <v>354</v>
+      </c>
+      <c r="DX159" t="n">
+        <v>205</v>
+      </c>
+      <c r="DY159" t="n">
+        <v>5332</v>
+      </c>
+      <c r="DZ159" t="n">
+        <v>230</v>
+      </c>
+      <c r="EA159" t="n">
+        <v>33</v>
+      </c>
+      <c r="EB159" t="n">
+        <v>347</v>
+      </c>
+      <c r="EC159" t="n">
+        <v>212</v>
+      </c>
+      <c r="ED159" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE159" t="n">
+        <v>1261</v>
+      </c>
+      <c r="EF159" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG159" t="n">
+        <v>356</v>
+      </c>
+      <c r="EH159" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ159" t="n">
+        <v>196</v>
+      </c>
+      <c r="EK159" t="n">
+        <v>402</v>
+      </c>
+      <c r="EL159" t="n">
+        <v>633</v>
+      </c>
+      <c r="EM159" t="n">
+        <v>3503</v>
+      </c>
+      <c r="EN159" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO159" t="n">
+        <v>122</v>
+      </c>
+      <c r="EP159" t="n">
+        <v>896</v>
+      </c>
+      <c r="EQ159" t="n">
+        <v>170</v>
+      </c>
+      <c r="ER159" t="n">
+        <v>3671</v>
+      </c>
+      <c r="ES159" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET159" t="n">
+        <v>593</v>
+      </c>
+      <c r="EU159" t="n">
+        <v>80</v>
+      </c>
+      <c r="EV159" t="n">
+        <v>283</v>
+      </c>
+      <c r="EW159" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX159" t="n">
+        <v>29661</v>
+      </c>
+      <c r="EY159" t="n">
+        <v>327</v>
+      </c>
+      <c r="EZ159" t="n">
+        <v>190</v>
+      </c>
+      <c r="FA159" t="n">
+        <v>191</v>
+      </c>
+      <c r="FB159" t="n">
+        <v>66</v>
+      </c>
+      <c r="FC159" t="n">
+        <v>68</v>
+      </c>
+      <c r="FD159" t="n">
+        <v>547</v>
+      </c>
+      <c r="FE159" t="n">
+        <v>60</v>
+      </c>
+      <c r="FF159" t="n">
+        <v>363</v>
+      </c>
+      <c r="FG159" t="n">
+        <v>70</v>
+      </c>
+      <c r="FH159" t="n">
+        <v>51</v>
+      </c>
+      <c r="FI159" t="n">
+        <v>2395</v>
+      </c>
+      <c r="FJ159" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK159" t="n">
+        <v>68</v>
+      </c>
+      <c r="FL159" t="n">
+        <v>149</v>
+      </c>
+      <c r="FM159" t="n">
+        <v>28</v>
+      </c>
+      <c r="FN159" t="n">
+        <v>99</v>
+      </c>
+      <c r="FO159" t="n">
+        <v>547</v>
+      </c>
+      <c r="FP159" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ159" t="n">
+        <v>409</v>
+      </c>
+      <c r="FR159" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS159" t="n">
+        <v>50</v>
+      </c>
+      <c r="FT159" t="n">
+        <v>252</v>
+      </c>
+      <c r="FU159" t="n">
+        <v>318</v>
+      </c>
+      <c r="FV159" t="n">
+        <v>309</v>
+      </c>
+      <c r="FW159" t="n">
+        <v>273</v>
+      </c>
+      <c r="FX159" t="n">
+        <v>801</v>
+      </c>
+      <c r="FY159" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ159" t="n">
+        <v>313</v>
+      </c>
+      <c r="GA159" t="n">
+        <v>2648</v>
+      </c>
+      <c r="GB159" t="n">
+        <v>82</v>
+      </c>
+      <c r="GC159" t="n">
+        <v>326</v>
+      </c>
+      <c r="GD159" t="n">
+        <v>350</v>
+      </c>
+      <c r="GE159" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF159" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG159" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH159" t="n">
+        <v>975</v>
+      </c>
+      <c r="GI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ159" t="n">
+        <v>357</v>
+      </c>
+      <c r="GK159" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL159" t="n">
+        <v>417</v>
+      </c>
+      <c r="GM159" t="n">
+        <v>337</v>
+      </c>
+      <c r="GN159" t="n">
+        <v>60</v>
+      </c>
+      <c r="GO159" t="n">
+        <v>46</v>
+      </c>
+      <c r="GP159" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ159" t="n">
+        <v>1029</v>
+      </c>
+      <c r="GR159" t="n">
+        <v>411</v>
+      </c>
+      <c r="GS159" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT159" t="n">
+        <v>263</v>
+      </c>
+      <c r="GU159" t="n">
+        <v>96</v>
+      </c>
+      <c r="GV159" t="n">
+        <v>195</v>
+      </c>
+      <c r="GW159" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX159" t="n">
+        <v>163</v>
+      </c>
+      <c r="GY159" t="n">
+        <v>40</v>
+      </c>
+      <c r="GZ159" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA159" t="n">
+        <v>150</v>
+      </c>
+      <c r="HB159" t="n">
+        <v>214</v>
+      </c>
+      <c r="HC159" t="n">
+        <v>1552</v>
+      </c>
+      <c r="HD159" t="n">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD159"/>
+  <dimension ref="A1:HD160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101981,7 +101981,7 @@
         <v>60</v>
       </c>
       <c r="X159" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Y159" t="n">
         <v>47</v>
@@ -102545,6 +102545,646 @@
         <v>1552</v>
       </c>
       <c r="HD159" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>728</v>
+      </c>
+      <c r="C160" t="n">
+        <v>301</v>
+      </c>
+      <c r="D160" t="n">
+        <v>121</v>
+      </c>
+      <c r="E160" t="n">
+        <v>512</v>
+      </c>
+      <c r="F160" t="n">
+        <v>915</v>
+      </c>
+      <c r="G160" t="n">
+        <v>621</v>
+      </c>
+      <c r="H160" t="n">
+        <v>147</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>340</v>
+      </c>
+      <c r="K160" t="n">
+        <v>393</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>145</v>
+      </c>
+      <c r="N160" t="n">
+        <v>47</v>
+      </c>
+      <c r="O160" t="n">
+        <v>101</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>784</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>163</v>
+      </c>
+      <c r="T160" t="n">
+        <v>291</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>84</v>
+      </c>
+      <c r="W160" t="n">
+        <v>64</v>
+      </c>
+      <c r="X160" t="n">
+        <v>824</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>768</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>502</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>274</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>797</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>253</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1606</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>370</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>277</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>375</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1788</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>141</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>250</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>295</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>134</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>414</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>5528</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>529</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>281</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>258</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>351</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>90</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>123</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>111</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>640</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>178</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ160" t="n">
+        <v>217</v>
+      </c>
+      <c r="BR160" t="n">
+        <v>379</v>
+      </c>
+      <c r="BS160" t="n">
+        <v>311</v>
+      </c>
+      <c r="BT160" t="n">
+        <v>460</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV160" t="n">
+        <v>153</v>
+      </c>
+      <c r="BW160" t="n">
+        <v>77</v>
+      </c>
+      <c r="BX160" t="n">
+        <v>149</v>
+      </c>
+      <c r="BY160" t="n">
+        <v>233</v>
+      </c>
+      <c r="BZ160" t="n">
+        <v>197</v>
+      </c>
+      <c r="CA160" t="n">
+        <v>994</v>
+      </c>
+      <c r="CB160" t="n">
+        <v>256</v>
+      </c>
+      <c r="CC160" t="n">
+        <v>1176</v>
+      </c>
+      <c r="CD160" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE160" t="n">
+        <v>541</v>
+      </c>
+      <c r="CF160" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG160" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH160" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI160" t="n">
+        <v>684</v>
+      </c>
+      <c r="CJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK160" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL160" t="n">
+        <v>340</v>
+      </c>
+      <c r="CM160" t="n">
+        <v>59</v>
+      </c>
+      <c r="CN160" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO160" t="n">
+        <v>781</v>
+      </c>
+      <c r="CP160" t="n">
+        <v>340</v>
+      </c>
+      <c r="CQ160" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR160" t="n">
+        <v>171</v>
+      </c>
+      <c r="CS160" t="n">
+        <v>678</v>
+      </c>
+      <c r="CT160" t="n">
+        <v>89</v>
+      </c>
+      <c r="CU160" t="n">
+        <v>325</v>
+      </c>
+      <c r="CV160" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW160" t="n">
+        <v>7184</v>
+      </c>
+      <c r="CX160" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY160" t="n">
+        <v>232</v>
+      </c>
+      <c r="CZ160" t="n">
+        <v>258</v>
+      </c>
+      <c r="DA160" t="n">
+        <v>74</v>
+      </c>
+      <c r="DB160" t="n">
+        <v>221</v>
+      </c>
+      <c r="DC160" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD160" t="n">
+        <v>231</v>
+      </c>
+      <c r="DE160" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF160" t="n">
+        <v>189</v>
+      </c>
+      <c r="DG160" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH160" t="n">
+        <v>238</v>
+      </c>
+      <c r="DI160" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ160" t="n">
+        <v>122</v>
+      </c>
+      <c r="DK160" t="n">
+        <v>175</v>
+      </c>
+      <c r="DL160" t="n">
+        <v>52</v>
+      </c>
+      <c r="DM160" t="n">
+        <v>307</v>
+      </c>
+      <c r="DN160" t="n">
+        <v>189</v>
+      </c>
+      <c r="DO160" t="n">
+        <v>310</v>
+      </c>
+      <c r="DP160" t="n">
+        <v>864</v>
+      </c>
+      <c r="DQ160" t="n">
+        <v>201</v>
+      </c>
+      <c r="DR160" t="n">
+        <v>109</v>
+      </c>
+      <c r="DS160" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT160" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU160" t="n">
+        <v>49</v>
+      </c>
+      <c r="DV160" t="n">
+        <v>77</v>
+      </c>
+      <c r="DW160" t="n">
+        <v>354</v>
+      </c>
+      <c r="DX160" t="n">
+        <v>206</v>
+      </c>
+      <c r="DY160" t="n">
+        <v>5356</v>
+      </c>
+      <c r="DZ160" t="n">
+        <v>230</v>
+      </c>
+      <c r="EA160" t="n">
+        <v>34</v>
+      </c>
+      <c r="EB160" t="n">
+        <v>347</v>
+      </c>
+      <c r="EC160" t="n">
+        <v>212</v>
+      </c>
+      <c r="ED160" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE160" t="n">
+        <v>1261</v>
+      </c>
+      <c r="EF160" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG160" t="n">
+        <v>357</v>
+      </c>
+      <c r="EH160" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ160" t="n">
+        <v>196</v>
+      </c>
+      <c r="EK160" t="n">
+        <v>402</v>
+      </c>
+      <c r="EL160" t="n">
+        <v>634</v>
+      </c>
+      <c r="EM160" t="n">
+        <v>3508</v>
+      </c>
+      <c r="EN160" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO160" t="n">
+        <v>123</v>
+      </c>
+      <c r="EP160" t="n">
+        <v>900</v>
+      </c>
+      <c r="EQ160" t="n">
+        <v>170</v>
+      </c>
+      <c r="ER160" t="n">
+        <v>3674</v>
+      </c>
+      <c r="ES160" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET160" t="n">
+        <v>593</v>
+      </c>
+      <c r="EU160" t="n">
+        <v>81</v>
+      </c>
+      <c r="EV160" t="n">
+        <v>283</v>
+      </c>
+      <c r="EW160" t="n">
+        <v>74</v>
+      </c>
+      <c r="EX160" t="n">
+        <v>29718</v>
+      </c>
+      <c r="EY160" t="n">
+        <v>327</v>
+      </c>
+      <c r="EZ160" t="n">
+        <v>190</v>
+      </c>
+      <c r="FA160" t="n">
+        <v>191</v>
+      </c>
+      <c r="FB160" t="n">
+        <v>66</v>
+      </c>
+      <c r="FC160" t="n">
+        <v>68</v>
+      </c>
+      <c r="FD160" t="n">
+        <v>551</v>
+      </c>
+      <c r="FE160" t="n">
+        <v>61</v>
+      </c>
+      <c r="FF160" t="n">
+        <v>364</v>
+      </c>
+      <c r="FG160" t="n">
+        <v>70</v>
+      </c>
+      <c r="FH160" t="n">
+        <v>52</v>
+      </c>
+      <c r="FI160" t="n">
+        <v>2396</v>
+      </c>
+      <c r="FJ160" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK160" t="n">
+        <v>68</v>
+      </c>
+      <c r="FL160" t="n">
+        <v>149</v>
+      </c>
+      <c r="FM160" t="n">
+        <v>28</v>
+      </c>
+      <c r="FN160" t="n">
+        <v>99</v>
+      </c>
+      <c r="FO160" t="n">
+        <v>547</v>
+      </c>
+      <c r="FP160" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ160" t="n">
+        <v>411</v>
+      </c>
+      <c r="FR160" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS160" t="n">
+        <v>51</v>
+      </c>
+      <c r="FT160" t="n">
+        <v>252</v>
+      </c>
+      <c r="FU160" t="n">
+        <v>318</v>
+      </c>
+      <c r="FV160" t="n">
+        <v>326</v>
+      </c>
+      <c r="FW160" t="n">
+        <v>273</v>
+      </c>
+      <c r="FX160" t="n">
+        <v>805</v>
+      </c>
+      <c r="FY160" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ160" t="n">
+        <v>313</v>
+      </c>
+      <c r="GA160" t="n">
+        <v>2651</v>
+      </c>
+      <c r="GB160" t="n">
+        <v>82</v>
+      </c>
+      <c r="GC160" t="n">
+        <v>329</v>
+      </c>
+      <c r="GD160" t="n">
+        <v>350</v>
+      </c>
+      <c r="GE160" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF160" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG160" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH160" t="n">
+        <v>975</v>
+      </c>
+      <c r="GI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ160" t="n">
+        <v>357</v>
+      </c>
+      <c r="GK160" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL160" t="n">
+        <v>417</v>
+      </c>
+      <c r="GM160" t="n">
+        <v>337</v>
+      </c>
+      <c r="GN160" t="n">
+        <v>60</v>
+      </c>
+      <c r="GO160" t="n">
+        <v>46</v>
+      </c>
+      <c r="GP160" t="n">
+        <v>41</v>
+      </c>
+      <c r="GQ160" t="n">
+        <v>1030</v>
+      </c>
+      <c r="GR160" t="n">
+        <v>412</v>
+      </c>
+      <c r="GS160" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT160" t="n">
+        <v>263</v>
+      </c>
+      <c r="GU160" t="n">
+        <v>98</v>
+      </c>
+      <c r="GV160" t="n">
+        <v>196</v>
+      </c>
+      <c r="GW160" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX160" t="n">
+        <v>165</v>
+      </c>
+      <c r="GY160" t="n">
+        <v>40</v>
+      </c>
+      <c r="GZ160" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA160" t="n">
+        <v>151</v>
+      </c>
+      <c r="HB160" t="n">
+        <v>214</v>
+      </c>
+      <c r="HC160" t="n">
+        <v>1554</v>
+      </c>
+      <c r="HD160" t="n">
         <v>189</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD160"/>
+  <dimension ref="A1:HD161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103188,6 +103188,646 @@
         <v>189</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>729</v>
+      </c>
+      <c r="C161" t="n">
+        <v>313</v>
+      </c>
+      <c r="D161" t="n">
+        <v>121</v>
+      </c>
+      <c r="E161" t="n">
+        <v>517</v>
+      </c>
+      <c r="F161" t="n">
+        <v>915</v>
+      </c>
+      <c r="G161" t="n">
+        <v>621</v>
+      </c>
+      <c r="H161" t="n">
+        <v>147</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>340</v>
+      </c>
+      <c r="K161" t="n">
+        <v>393</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>145</v>
+      </c>
+      <c r="N161" t="n">
+        <v>47</v>
+      </c>
+      <c r="O161" t="n">
+        <v>103</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1090</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>802</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>163</v>
+      </c>
+      <c r="T161" t="n">
+        <v>291</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>84</v>
+      </c>
+      <c r="W161" t="n">
+        <v>69</v>
+      </c>
+      <c r="X161" t="n">
+        <v>826</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>769</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>163</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>503</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>505</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>274</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>803</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>255</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1607</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>370</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>278</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>376</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1792</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>159</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>141</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>296</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>137</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>419</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>5563</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>69</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>529</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>288</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>182</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>258</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>351</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>90</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>123</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>111</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>642</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>179</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ161" t="n">
+        <v>218</v>
+      </c>
+      <c r="BR161" t="n">
+        <v>379</v>
+      </c>
+      <c r="BS161" t="n">
+        <v>318</v>
+      </c>
+      <c r="BT161" t="n">
+        <v>461</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV161" t="n">
+        <v>153</v>
+      </c>
+      <c r="BW161" t="n">
+        <v>81</v>
+      </c>
+      <c r="BX161" t="n">
+        <v>150</v>
+      </c>
+      <c r="BY161" t="n">
+        <v>233</v>
+      </c>
+      <c r="BZ161" t="n">
+        <v>197</v>
+      </c>
+      <c r="CA161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB161" t="n">
+        <v>259</v>
+      </c>
+      <c r="CC161" t="n">
+        <v>1178</v>
+      </c>
+      <c r="CD161" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE161" t="n">
+        <v>542</v>
+      </c>
+      <c r="CF161" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG161" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH161" t="n">
+        <v>44</v>
+      </c>
+      <c r="CI161" t="n">
+        <v>690</v>
+      </c>
+      <c r="CJ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK161" t="n">
+        <v>56</v>
+      </c>
+      <c r="CL161" t="n">
+        <v>340</v>
+      </c>
+      <c r="CM161" t="n">
+        <v>59</v>
+      </c>
+      <c r="CN161" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO161" t="n">
+        <v>782</v>
+      </c>
+      <c r="CP161" t="n">
+        <v>341</v>
+      </c>
+      <c r="CQ161" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR161" t="n">
+        <v>171</v>
+      </c>
+      <c r="CS161" t="n">
+        <v>679</v>
+      </c>
+      <c r="CT161" t="n">
+        <v>91</v>
+      </c>
+      <c r="CU161" t="n">
+        <v>329</v>
+      </c>
+      <c r="CV161" t="n">
+        <v>135</v>
+      </c>
+      <c r="CW161" t="n">
+        <v>7199</v>
+      </c>
+      <c r="CX161" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY161" t="n">
+        <v>232</v>
+      </c>
+      <c r="CZ161" t="n">
+        <v>258</v>
+      </c>
+      <c r="DA161" t="n">
+        <v>74</v>
+      </c>
+      <c r="DB161" t="n">
+        <v>221</v>
+      </c>
+      <c r="DC161" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD161" t="n">
+        <v>231</v>
+      </c>
+      <c r="DE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF161" t="n">
+        <v>189</v>
+      </c>
+      <c r="DG161" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH161" t="n">
+        <v>238</v>
+      </c>
+      <c r="DI161" t="n">
+        <v>126</v>
+      </c>
+      <c r="DJ161" t="n">
+        <v>123</v>
+      </c>
+      <c r="DK161" t="n">
+        <v>175</v>
+      </c>
+      <c r="DL161" t="n">
+        <v>52</v>
+      </c>
+      <c r="DM161" t="n">
+        <v>309</v>
+      </c>
+      <c r="DN161" t="n">
+        <v>194</v>
+      </c>
+      <c r="DO161" t="n">
+        <v>311</v>
+      </c>
+      <c r="DP161" t="n">
+        <v>865</v>
+      </c>
+      <c r="DQ161" t="n">
+        <v>201</v>
+      </c>
+      <c r="DR161" t="n">
+        <v>109</v>
+      </c>
+      <c r="DS161" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT161" t="n">
+        <v>228</v>
+      </c>
+      <c r="DU161" t="n">
+        <v>50</v>
+      </c>
+      <c r="DV161" t="n">
+        <v>79</v>
+      </c>
+      <c r="DW161" t="n">
+        <v>356</v>
+      </c>
+      <c r="DX161" t="n">
+        <v>206</v>
+      </c>
+      <c r="DY161" t="n">
+        <v>5375</v>
+      </c>
+      <c r="DZ161" t="n">
+        <v>230</v>
+      </c>
+      <c r="EA161" t="n">
+        <v>34</v>
+      </c>
+      <c r="EB161" t="n">
+        <v>348</v>
+      </c>
+      <c r="EC161" t="n">
+        <v>215</v>
+      </c>
+      <c r="ED161" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE161" t="n">
+        <v>1262</v>
+      </c>
+      <c r="EF161" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG161" t="n">
+        <v>357</v>
+      </c>
+      <c r="EH161" t="n">
+        <v>34</v>
+      </c>
+      <c r="EI161" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ161" t="n">
+        <v>199</v>
+      </c>
+      <c r="EK161" t="n">
+        <v>405</v>
+      </c>
+      <c r="EL161" t="n">
+        <v>634</v>
+      </c>
+      <c r="EM161" t="n">
+        <v>3520</v>
+      </c>
+      <c r="EN161" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO161" t="n">
+        <v>125</v>
+      </c>
+      <c r="EP161" t="n">
+        <v>906</v>
+      </c>
+      <c r="EQ161" t="n">
+        <v>176</v>
+      </c>
+      <c r="ER161" t="n">
+        <v>3683</v>
+      </c>
+      <c r="ES161" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET161" t="n">
+        <v>595</v>
+      </c>
+      <c r="EU161" t="n">
+        <v>81</v>
+      </c>
+      <c r="EV161" t="n">
+        <v>284</v>
+      </c>
+      <c r="EW161" t="n">
+        <v>76</v>
+      </c>
+      <c r="EX161" t="n">
+        <v>29860</v>
+      </c>
+      <c r="EY161" t="n">
+        <v>328</v>
+      </c>
+      <c r="EZ161" t="n">
+        <v>190</v>
+      </c>
+      <c r="FA161" t="n">
+        <v>194</v>
+      </c>
+      <c r="FB161" t="n">
+        <v>67</v>
+      </c>
+      <c r="FC161" t="n">
+        <v>69</v>
+      </c>
+      <c r="FD161" t="n">
+        <v>582</v>
+      </c>
+      <c r="FE161" t="n">
+        <v>62</v>
+      </c>
+      <c r="FF161" t="n">
+        <v>365</v>
+      </c>
+      <c r="FG161" t="n">
+        <v>71</v>
+      </c>
+      <c r="FH161" t="n">
+        <v>52</v>
+      </c>
+      <c r="FI161" t="n">
+        <v>2405</v>
+      </c>
+      <c r="FJ161" t="n">
+        <v>12</v>
+      </c>
+      <c r="FK161" t="n">
+        <v>69</v>
+      </c>
+      <c r="FL161" t="n">
+        <v>149</v>
+      </c>
+      <c r="FM161" t="n">
+        <v>29</v>
+      </c>
+      <c r="FN161" t="n">
+        <v>99</v>
+      </c>
+      <c r="FO161" t="n">
+        <v>548</v>
+      </c>
+      <c r="FP161" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ161" t="n">
+        <v>417</v>
+      </c>
+      <c r="FR161" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS161" t="n">
+        <v>53</v>
+      </c>
+      <c r="FT161" t="n">
+        <v>252</v>
+      </c>
+      <c r="FU161" t="n">
+        <v>319</v>
+      </c>
+      <c r="FV161" t="n">
+        <v>326</v>
+      </c>
+      <c r="FW161" t="n">
+        <v>275</v>
+      </c>
+      <c r="FX161" t="n">
+        <v>810</v>
+      </c>
+      <c r="FY161" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ161" t="n">
+        <v>313</v>
+      </c>
+      <c r="GA161" t="n">
+        <v>2673</v>
+      </c>
+      <c r="GB161" t="n">
+        <v>87</v>
+      </c>
+      <c r="GC161" t="n">
+        <v>329</v>
+      </c>
+      <c r="GD161" t="n">
+        <v>350</v>
+      </c>
+      <c r="GE161" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF161" t="n">
+        <v>44</v>
+      </c>
+      <c r="GG161" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH161" t="n">
+        <v>995</v>
+      </c>
+      <c r="GI161" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ161" t="n">
+        <v>363</v>
+      </c>
+      <c r="GK161" t="n">
+        <v>194</v>
+      </c>
+      <c r="GL161" t="n">
+        <v>420</v>
+      </c>
+      <c r="GM161" t="n">
+        <v>338</v>
+      </c>
+      <c r="GN161" t="n">
+        <v>60</v>
+      </c>
+      <c r="GO161" t="n">
+        <v>46</v>
+      </c>
+      <c r="GP161" t="n">
+        <v>43</v>
+      </c>
+      <c r="GQ161" t="n">
+        <v>1030</v>
+      </c>
+      <c r="GR161" t="n">
+        <v>415</v>
+      </c>
+      <c r="GS161" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT161" t="n">
+        <v>263</v>
+      </c>
+      <c r="GU161" t="n">
+        <v>99</v>
+      </c>
+      <c r="GV161" t="n">
+        <v>203</v>
+      </c>
+      <c r="GW161" t="n">
+        <v>39</v>
+      </c>
+      <c r="GX161" t="n">
+        <v>176</v>
+      </c>
+      <c r="GY161" t="n">
+        <v>43</v>
+      </c>
+      <c r="GZ161" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA161" t="n">
+        <v>152</v>
+      </c>
+      <c r="HB161" t="n">
+        <v>214</v>
+      </c>
+      <c r="HC161" t="n">
+        <v>1556</v>
+      </c>
+      <c r="HD161" t="n">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE162"/>
+  <dimension ref="A1:HE163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104956,6 +104956,649 @@
         <v>190</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>736</v>
+      </c>
+      <c r="C163" t="n">
+        <v>355</v>
+      </c>
+      <c r="D163" t="n">
+        <v>127</v>
+      </c>
+      <c r="E163" t="n">
+        <v>524</v>
+      </c>
+      <c r="F163" t="n">
+        <v>927</v>
+      </c>
+      <c r="G163" t="n">
+        <v>627</v>
+      </c>
+      <c r="H163" t="n">
+        <v>154</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>342</v>
+      </c>
+      <c r="K163" t="n">
+        <v>403</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>146</v>
+      </c>
+      <c r="N163" t="n">
+        <v>54</v>
+      </c>
+      <c r="O163" t="n">
+        <v>106</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1183</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>830</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>167</v>
+      </c>
+      <c r="T163" t="n">
+        <v>291</v>
+      </c>
+      <c r="U163" t="n">
+        <v>1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>85</v>
+      </c>
+      <c r="W163" t="n">
+        <v>72</v>
+      </c>
+      <c r="X163" t="n">
+        <v>829</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>815</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>166</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>535</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>523</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>278</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>823</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>275</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1625</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>371</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>279</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>387</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1804</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>141</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>252</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>327</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>144</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>428</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>5714</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>533</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>294</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>183</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>358</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>92</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>123</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>670</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>184</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ163" t="n">
+        <v>223</v>
+      </c>
+      <c r="BR163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS163" t="n">
+        <v>380</v>
+      </c>
+      <c r="BT163" t="n">
+        <v>346</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>472</v>
+      </c>
+      <c r="BV163" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW163" t="n">
+        <v>157</v>
+      </c>
+      <c r="BX163" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY163" t="n">
+        <v>155</v>
+      </c>
+      <c r="BZ163" t="n">
+        <v>233</v>
+      </c>
+      <c r="CA163" t="n">
+        <v>197</v>
+      </c>
+      <c r="CB163" t="n">
+        <v>1034</v>
+      </c>
+      <c r="CC163" t="n">
+        <v>260</v>
+      </c>
+      <c r="CD163" t="n">
+        <v>1180</v>
+      </c>
+      <c r="CE163" t="n">
+        <v>37</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>551</v>
+      </c>
+      <c r="CG163" t="n">
+        <v>89</v>
+      </c>
+      <c r="CH163" t="n">
+        <v>94</v>
+      </c>
+      <c r="CI163" t="n">
+        <v>46</v>
+      </c>
+      <c r="CJ163" t="n">
+        <v>699</v>
+      </c>
+      <c r="CK163" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL163" t="n">
+        <v>58</v>
+      </c>
+      <c r="CM163" t="n">
+        <v>341</v>
+      </c>
+      <c r="CN163" t="n">
+        <v>62</v>
+      </c>
+      <c r="CO163" t="n">
+        <v>14</v>
+      </c>
+      <c r="CP163" t="n">
+        <v>787</v>
+      </c>
+      <c r="CQ163" t="n">
+        <v>357</v>
+      </c>
+      <c r="CR163" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS163" t="n">
+        <v>176</v>
+      </c>
+      <c r="CT163" t="n">
+        <v>680</v>
+      </c>
+      <c r="CU163" t="n">
+        <v>100</v>
+      </c>
+      <c r="CV163" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW163" t="n">
+        <v>135</v>
+      </c>
+      <c r="CX163" t="n">
+        <v>7266</v>
+      </c>
+      <c r="CY163" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ163" t="n">
+        <v>233</v>
+      </c>
+      <c r="DA163" t="n">
+        <v>259</v>
+      </c>
+      <c r="DB163" t="n">
+        <v>81</v>
+      </c>
+      <c r="DC163" t="n">
+        <v>222</v>
+      </c>
+      <c r="DD163" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE163" t="n">
+        <v>231</v>
+      </c>
+      <c r="DF163" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG163" t="n">
+        <v>192</v>
+      </c>
+      <c r="DH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI163" t="n">
+        <v>245</v>
+      </c>
+      <c r="DJ163" t="n">
+        <v>133</v>
+      </c>
+      <c r="DK163" t="n">
+        <v>124</v>
+      </c>
+      <c r="DL163" t="n">
+        <v>176</v>
+      </c>
+      <c r="DM163" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN163" t="n">
+        <v>309</v>
+      </c>
+      <c r="DO163" t="n">
+        <v>195</v>
+      </c>
+      <c r="DP163" t="n">
+        <v>325</v>
+      </c>
+      <c r="DQ163" t="n">
+        <v>902</v>
+      </c>
+      <c r="DR163" t="n">
+        <v>204</v>
+      </c>
+      <c r="DS163" t="n">
+        <v>116</v>
+      </c>
+      <c r="DT163" t="n">
+        <v>12</v>
+      </c>
+      <c r="DU163" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV163" t="n">
+        <v>50</v>
+      </c>
+      <c r="DW163" t="n">
+        <v>82</v>
+      </c>
+      <c r="DX163" t="n">
+        <v>357</v>
+      </c>
+      <c r="DY163" t="n">
+        <v>207</v>
+      </c>
+      <c r="DZ163" t="n">
+        <v>5428</v>
+      </c>
+      <c r="EA163" t="n">
+        <v>234</v>
+      </c>
+      <c r="EB163" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC163" t="n">
+        <v>360</v>
+      </c>
+      <c r="ED163" t="n">
+        <v>216</v>
+      </c>
+      <c r="EE163" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF163" t="n">
+        <v>1275</v>
+      </c>
+      <c r="EG163" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH163" t="n">
+        <v>358</v>
+      </c>
+      <c r="EI163" t="n">
+        <v>36</v>
+      </c>
+      <c r="EJ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK163" t="n">
+        <v>210</v>
+      </c>
+      <c r="EL163" t="n">
+        <v>409</v>
+      </c>
+      <c r="EM163" t="n">
+        <v>640</v>
+      </c>
+      <c r="EN163" t="n">
+        <v>3547</v>
+      </c>
+      <c r="EO163" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP163" t="n">
+        <v>129</v>
+      </c>
+      <c r="EQ163" t="n">
+        <v>955</v>
+      </c>
+      <c r="ER163" t="n">
+        <v>189</v>
+      </c>
+      <c r="ES163" t="n">
+        <v>3844</v>
+      </c>
+      <c r="ET163" t="n">
+        <v>54</v>
+      </c>
+      <c r="EU163" t="n">
+        <v>608</v>
+      </c>
+      <c r="EV163" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW163" t="n">
+        <v>288</v>
+      </c>
+      <c r="EX163" t="n">
+        <v>79</v>
+      </c>
+      <c r="EY163" t="n">
+        <v>30199</v>
+      </c>
+      <c r="EZ163" t="n">
+        <v>337</v>
+      </c>
+      <c r="FA163" t="n">
+        <v>192</v>
+      </c>
+      <c r="FB163" t="n">
+        <v>197</v>
+      </c>
+      <c r="FC163" t="n">
+        <v>67</v>
+      </c>
+      <c r="FD163" t="n">
+        <v>71</v>
+      </c>
+      <c r="FE163" t="n">
+        <v>712</v>
+      </c>
+      <c r="FF163" t="n">
+        <v>65</v>
+      </c>
+      <c r="FG163" t="n">
+        <v>377</v>
+      </c>
+      <c r="FH163" t="n">
+        <v>73</v>
+      </c>
+      <c r="FI163" t="n">
+        <v>57</v>
+      </c>
+      <c r="FJ163" t="n">
+        <v>2443</v>
+      </c>
+      <c r="FK163" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL163" t="n">
+        <v>77</v>
+      </c>
+      <c r="FM163" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN163" t="n">
+        <v>31</v>
+      </c>
+      <c r="FO163" t="n">
+        <v>102</v>
+      </c>
+      <c r="FP163" t="n">
+        <v>566</v>
+      </c>
+      <c r="FQ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR163" t="n">
+        <v>421</v>
+      </c>
+      <c r="FS163" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT163" t="n">
+        <v>55</v>
+      </c>
+      <c r="FU163" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV163" t="n">
+        <v>325</v>
+      </c>
+      <c r="FW163" t="n">
+        <v>340</v>
+      </c>
+      <c r="FX163" t="n">
+        <v>280</v>
+      </c>
+      <c r="FY163" t="n">
+        <v>818</v>
+      </c>
+      <c r="FZ163" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA163" t="n">
+        <v>317</v>
+      </c>
+      <c r="GB163" t="n">
+        <v>2855</v>
+      </c>
+      <c r="GC163" t="n">
+        <v>88</v>
+      </c>
+      <c r="GD163" t="n">
+        <v>343</v>
+      </c>
+      <c r="GE163" t="n">
+        <v>351</v>
+      </c>
+      <c r="GF163" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG163" t="n">
+        <v>57</v>
+      </c>
+      <c r="GH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI163" t="n">
+        <v>1020</v>
+      </c>
+      <c r="GJ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK163" t="n">
+        <v>377</v>
+      </c>
+      <c r="GL163" t="n">
+        <v>194</v>
+      </c>
+      <c r="GM163" t="n">
+        <v>426</v>
+      </c>
+      <c r="GN163" t="n">
+        <v>339</v>
+      </c>
+      <c r="GO163" t="n">
+        <v>60</v>
+      </c>
+      <c r="GP163" t="n">
+        <v>47</v>
+      </c>
+      <c r="GQ163" t="n">
+        <v>46</v>
+      </c>
+      <c r="GR163" t="n">
+        <v>1171</v>
+      </c>
+      <c r="GS163" t="n">
+        <v>427</v>
+      </c>
+      <c r="GT163" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU163" t="n">
+        <v>282</v>
+      </c>
+      <c r="GV163" t="n">
+        <v>118</v>
+      </c>
+      <c r="GW163" t="n">
+        <v>232</v>
+      </c>
+      <c r="GX163" t="n">
+        <v>41</v>
+      </c>
+      <c r="GY163" t="n">
+        <v>185</v>
+      </c>
+      <c r="GZ163" t="n">
+        <v>46</v>
+      </c>
+      <c r="HA163" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB163" t="n">
+        <v>152</v>
+      </c>
+      <c r="HC163" t="n">
+        <v>215</v>
+      </c>
+      <c r="HD163" t="n">
+        <v>1568</v>
+      </c>
+      <c r="HE163" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE163"/>
+  <dimension ref="A1:HE164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105599,6 +105599,649 @@
         <v>191</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>739</v>
+      </c>
+      <c r="C164" t="n">
+        <v>363</v>
+      </c>
+      <c r="D164" t="n">
+        <v>133</v>
+      </c>
+      <c r="E164" t="n">
+        <v>524</v>
+      </c>
+      <c r="F164" t="n">
+        <v>927</v>
+      </c>
+      <c r="G164" t="n">
+        <v>627</v>
+      </c>
+      <c r="H164" t="n">
+        <v>159</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>343</v>
+      </c>
+      <c r="K164" t="n">
+        <v>405</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>146</v>
+      </c>
+      <c r="N164" t="n">
+        <v>55</v>
+      </c>
+      <c r="O164" t="n">
+        <v>106</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1202</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>837</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" t="n">
+        <v>168</v>
+      </c>
+      <c r="T164" t="n">
+        <v>292</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>85</v>
+      </c>
+      <c r="W164" t="n">
+        <v>73</v>
+      </c>
+      <c r="X164" t="n">
+        <v>838</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>820</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>167</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>536</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>543</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>282</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>837</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>276</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1633</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>372</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>279</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>389</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1813</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>141</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>252</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>334</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>148</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>431</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>5828</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>535</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>296</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>183</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>362</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>93</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>673</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>184</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ164" t="n">
+        <v>223</v>
+      </c>
+      <c r="BR164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS164" t="n">
+        <v>381</v>
+      </c>
+      <c r="BT164" t="n">
+        <v>352</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>472</v>
+      </c>
+      <c r="BV164" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW164" t="n">
+        <v>157</v>
+      </c>
+      <c r="BX164" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY164" t="n">
+        <v>159</v>
+      </c>
+      <c r="BZ164" t="n">
+        <v>240</v>
+      </c>
+      <c r="CA164" t="n">
+        <v>197</v>
+      </c>
+      <c r="CB164" t="n">
+        <v>1044</v>
+      </c>
+      <c r="CC164" t="n">
+        <v>262</v>
+      </c>
+      <c r="CD164" t="n">
+        <v>1180</v>
+      </c>
+      <c r="CE164" t="n">
+        <v>37</v>
+      </c>
+      <c r="CF164" t="n">
+        <v>558</v>
+      </c>
+      <c r="CG164" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH164" t="n">
+        <v>95</v>
+      </c>
+      <c r="CI164" t="n">
+        <v>47</v>
+      </c>
+      <c r="CJ164" t="n">
+        <v>703</v>
+      </c>
+      <c r="CK164" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL164" t="n">
+        <v>58</v>
+      </c>
+      <c r="CM164" t="n">
+        <v>341</v>
+      </c>
+      <c r="CN164" t="n">
+        <v>62</v>
+      </c>
+      <c r="CO164" t="n">
+        <v>14</v>
+      </c>
+      <c r="CP164" t="n">
+        <v>804</v>
+      </c>
+      <c r="CQ164" t="n">
+        <v>358</v>
+      </c>
+      <c r="CR164" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS164" t="n">
+        <v>176</v>
+      </c>
+      <c r="CT164" t="n">
+        <v>681</v>
+      </c>
+      <c r="CU164" t="n">
+        <v>102</v>
+      </c>
+      <c r="CV164" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW164" t="n">
+        <v>135</v>
+      </c>
+      <c r="CX164" t="n">
+        <v>7300</v>
+      </c>
+      <c r="CY164" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ164" t="n">
+        <v>233</v>
+      </c>
+      <c r="DA164" t="n">
+        <v>262</v>
+      </c>
+      <c r="DB164" t="n">
+        <v>86</v>
+      </c>
+      <c r="DC164" t="n">
+        <v>222</v>
+      </c>
+      <c r="DD164" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE164" t="n">
+        <v>231</v>
+      </c>
+      <c r="DF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG164" t="n">
+        <v>196</v>
+      </c>
+      <c r="DH164" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI164" t="n">
+        <v>246</v>
+      </c>
+      <c r="DJ164" t="n">
+        <v>134</v>
+      </c>
+      <c r="DK164" t="n">
+        <v>125</v>
+      </c>
+      <c r="DL164" t="n">
+        <v>176</v>
+      </c>
+      <c r="DM164" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN164" t="n">
+        <v>310</v>
+      </c>
+      <c r="DO164" t="n">
+        <v>198</v>
+      </c>
+      <c r="DP164" t="n">
+        <v>328</v>
+      </c>
+      <c r="DQ164" t="n">
+        <v>913</v>
+      </c>
+      <c r="DR164" t="n">
+        <v>208</v>
+      </c>
+      <c r="DS164" t="n">
+        <v>117</v>
+      </c>
+      <c r="DT164" t="n">
+        <v>12</v>
+      </c>
+      <c r="DU164" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV164" t="n">
+        <v>52</v>
+      </c>
+      <c r="DW164" t="n">
+        <v>84</v>
+      </c>
+      <c r="DX164" t="n">
+        <v>360</v>
+      </c>
+      <c r="DY164" t="n">
+        <v>208</v>
+      </c>
+      <c r="DZ164" t="n">
+        <v>5459</v>
+      </c>
+      <c r="EA164" t="n">
+        <v>234</v>
+      </c>
+      <c r="EB164" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC164" t="n">
+        <v>368</v>
+      </c>
+      <c r="ED164" t="n">
+        <v>217</v>
+      </c>
+      <c r="EE164" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF164" t="n">
+        <v>1277</v>
+      </c>
+      <c r="EG164" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH164" t="n">
+        <v>358</v>
+      </c>
+      <c r="EI164" t="n">
+        <v>39</v>
+      </c>
+      <c r="EJ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK164" t="n">
+        <v>213</v>
+      </c>
+      <c r="EL164" t="n">
+        <v>409</v>
+      </c>
+      <c r="EM164" t="n">
+        <v>646</v>
+      </c>
+      <c r="EN164" t="n">
+        <v>3562</v>
+      </c>
+      <c r="EO164" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP164" t="n">
+        <v>131</v>
+      </c>
+      <c r="EQ164" t="n">
+        <v>963</v>
+      </c>
+      <c r="ER164" t="n">
+        <v>206</v>
+      </c>
+      <c r="ES164" t="n">
+        <v>3900</v>
+      </c>
+      <c r="ET164" t="n">
+        <v>55</v>
+      </c>
+      <c r="EU164" t="n">
+        <v>612</v>
+      </c>
+      <c r="EV164" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW164" t="n">
+        <v>289</v>
+      </c>
+      <c r="EX164" t="n">
+        <v>80</v>
+      </c>
+      <c r="EY164" t="n">
+        <v>30435</v>
+      </c>
+      <c r="EZ164" t="n">
+        <v>338</v>
+      </c>
+      <c r="FA164" t="n">
+        <v>196</v>
+      </c>
+      <c r="FB164" t="n">
+        <v>197</v>
+      </c>
+      <c r="FC164" t="n">
+        <v>67</v>
+      </c>
+      <c r="FD164" t="n">
+        <v>71</v>
+      </c>
+      <c r="FE164" t="n">
+        <v>734</v>
+      </c>
+      <c r="FF164" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG164" t="n">
+        <v>377</v>
+      </c>
+      <c r="FH164" t="n">
+        <v>74</v>
+      </c>
+      <c r="FI164" t="n">
+        <v>68</v>
+      </c>
+      <c r="FJ164" t="n">
+        <v>2465</v>
+      </c>
+      <c r="FK164" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL164" t="n">
+        <v>77</v>
+      </c>
+      <c r="FM164" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN164" t="n">
+        <v>37</v>
+      </c>
+      <c r="FO164" t="n">
+        <v>102</v>
+      </c>
+      <c r="FP164" t="n">
+        <v>573</v>
+      </c>
+      <c r="FQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR164" t="n">
+        <v>426</v>
+      </c>
+      <c r="FS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT164" t="n">
+        <v>56</v>
+      </c>
+      <c r="FU164" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV164" t="n">
+        <v>329</v>
+      </c>
+      <c r="FW164" t="n">
+        <v>347</v>
+      </c>
+      <c r="FX164" t="n">
+        <v>282</v>
+      </c>
+      <c r="FY164" t="n">
+        <v>823</v>
+      </c>
+      <c r="FZ164" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA164" t="n">
+        <v>328</v>
+      </c>
+      <c r="GB164" t="n">
+        <v>2903</v>
+      </c>
+      <c r="GC164" t="n">
+        <v>89</v>
+      </c>
+      <c r="GD164" t="n">
+        <v>344</v>
+      </c>
+      <c r="GE164" t="n">
+        <v>352</v>
+      </c>
+      <c r="GF164" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG164" t="n">
+        <v>73</v>
+      </c>
+      <c r="GH164" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI164" t="n">
+        <v>1034</v>
+      </c>
+      <c r="GJ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK164" t="n">
+        <v>381</v>
+      </c>
+      <c r="GL164" t="n">
+        <v>194</v>
+      </c>
+      <c r="GM164" t="n">
+        <v>427</v>
+      </c>
+      <c r="GN164" t="n">
+        <v>341</v>
+      </c>
+      <c r="GO164" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP164" t="n">
+        <v>47</v>
+      </c>
+      <c r="GQ164" t="n">
+        <v>50</v>
+      </c>
+      <c r="GR164" t="n">
+        <v>1173</v>
+      </c>
+      <c r="GS164" t="n">
+        <v>434</v>
+      </c>
+      <c r="GT164" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU164" t="n">
+        <v>291</v>
+      </c>
+      <c r="GV164" t="n">
+        <v>132</v>
+      </c>
+      <c r="GW164" t="n">
+        <v>233</v>
+      </c>
+      <c r="GX164" t="n">
+        <v>41</v>
+      </c>
+      <c r="GY164" t="n">
+        <v>188</v>
+      </c>
+      <c r="GZ164" t="n">
+        <v>46</v>
+      </c>
+      <c r="HA164" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB164" t="n">
+        <v>152</v>
+      </c>
+      <c r="HC164" t="n">
+        <v>222</v>
+      </c>
+      <c r="HD164" t="n">
+        <v>1576</v>
+      </c>
+      <c r="HE164" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE164"/>
+  <dimension ref="A1:HE165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -106242,6 +106242,649 @@
         <v>191</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>740</v>
+      </c>
+      <c r="C165" t="n">
+        <v>365</v>
+      </c>
+      <c r="D165" t="n">
+        <v>134</v>
+      </c>
+      <c r="E165" t="n">
+        <v>528</v>
+      </c>
+      <c r="F165" t="n">
+        <v>929</v>
+      </c>
+      <c r="G165" t="n">
+        <v>628</v>
+      </c>
+      <c r="H165" t="n">
+        <v>160</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>344</v>
+      </c>
+      <c r="K165" t="n">
+        <v>406</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>146</v>
+      </c>
+      <c r="N165" t="n">
+        <v>55</v>
+      </c>
+      <c r="O165" t="n">
+        <v>115</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1208</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>845</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>169</v>
+      </c>
+      <c r="T165" t="n">
+        <v>292</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>85</v>
+      </c>
+      <c r="W165" t="n">
+        <v>75</v>
+      </c>
+      <c r="X165" t="n">
+        <v>855</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>832</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>167</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>542</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>546</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>282</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>839</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>277</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1637</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>374</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>279</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>394</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1814</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>252</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>335</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>151</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>432</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>5899</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>537</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>298</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>364</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>94</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>673</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>185</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ165" t="n">
+        <v>224</v>
+      </c>
+      <c r="BR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS165" t="n">
+        <v>383</v>
+      </c>
+      <c r="BT165" t="n">
+        <v>353</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>472</v>
+      </c>
+      <c r="BV165" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW165" t="n">
+        <v>157</v>
+      </c>
+      <c r="BX165" t="n">
+        <v>90</v>
+      </c>
+      <c r="BY165" t="n">
+        <v>159</v>
+      </c>
+      <c r="BZ165" t="n">
+        <v>247</v>
+      </c>
+      <c r="CA165" t="n">
+        <v>197</v>
+      </c>
+      <c r="CB165" t="n">
+        <v>1049</v>
+      </c>
+      <c r="CC165" t="n">
+        <v>264</v>
+      </c>
+      <c r="CD165" t="n">
+        <v>1180</v>
+      </c>
+      <c r="CE165" t="n">
+        <v>37</v>
+      </c>
+      <c r="CF165" t="n">
+        <v>567</v>
+      </c>
+      <c r="CG165" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH165" t="n">
+        <v>95</v>
+      </c>
+      <c r="CI165" t="n">
+        <v>49</v>
+      </c>
+      <c r="CJ165" t="n">
+        <v>711</v>
+      </c>
+      <c r="CK165" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL165" t="n">
+        <v>58</v>
+      </c>
+      <c r="CM165" t="n">
+        <v>341</v>
+      </c>
+      <c r="CN165" t="n">
+        <v>63</v>
+      </c>
+      <c r="CO165" t="n">
+        <v>14</v>
+      </c>
+      <c r="CP165" t="n">
+        <v>805</v>
+      </c>
+      <c r="CQ165" t="n">
+        <v>360</v>
+      </c>
+      <c r="CR165" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS165" t="n">
+        <v>179</v>
+      </c>
+      <c r="CT165" t="n">
+        <v>686</v>
+      </c>
+      <c r="CU165" t="n">
+        <v>104</v>
+      </c>
+      <c r="CV165" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW165" t="n">
+        <v>135</v>
+      </c>
+      <c r="CX165" t="n">
+        <v>7322</v>
+      </c>
+      <c r="CY165" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ165" t="n">
+        <v>233</v>
+      </c>
+      <c r="DA165" t="n">
+        <v>262</v>
+      </c>
+      <c r="DB165" t="n">
+        <v>87</v>
+      </c>
+      <c r="DC165" t="n">
+        <v>222</v>
+      </c>
+      <c r="DD165" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE165" t="n">
+        <v>231</v>
+      </c>
+      <c r="DF165" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG165" t="n">
+        <v>197</v>
+      </c>
+      <c r="DH165" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI165" t="n">
+        <v>246</v>
+      </c>
+      <c r="DJ165" t="n">
+        <v>135</v>
+      </c>
+      <c r="DK165" t="n">
+        <v>125</v>
+      </c>
+      <c r="DL165" t="n">
+        <v>178</v>
+      </c>
+      <c r="DM165" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN165" t="n">
+        <v>311</v>
+      </c>
+      <c r="DO165" t="n">
+        <v>199</v>
+      </c>
+      <c r="DP165" t="n">
+        <v>329</v>
+      </c>
+      <c r="DQ165" t="n">
+        <v>921</v>
+      </c>
+      <c r="DR165" t="n">
+        <v>213</v>
+      </c>
+      <c r="DS165" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT165" t="n">
+        <v>14</v>
+      </c>
+      <c r="DU165" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV165" t="n">
+        <v>52</v>
+      </c>
+      <c r="DW165" t="n">
+        <v>84</v>
+      </c>
+      <c r="DX165" t="n">
+        <v>362</v>
+      </c>
+      <c r="DY165" t="n">
+        <v>210</v>
+      </c>
+      <c r="DZ165" t="n">
+        <v>5468</v>
+      </c>
+      <c r="EA165" t="n">
+        <v>236</v>
+      </c>
+      <c r="EB165" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC165" t="n">
+        <v>369</v>
+      </c>
+      <c r="ED165" t="n">
+        <v>217</v>
+      </c>
+      <c r="EE165" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF165" t="n">
+        <v>1279</v>
+      </c>
+      <c r="EG165" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH165" t="n">
+        <v>359</v>
+      </c>
+      <c r="EI165" t="n">
+        <v>42</v>
+      </c>
+      <c r="EJ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK165" t="n">
+        <v>214</v>
+      </c>
+      <c r="EL165" t="n">
+        <v>410</v>
+      </c>
+      <c r="EM165" t="n">
+        <v>648</v>
+      </c>
+      <c r="EN165" t="n">
+        <v>3570</v>
+      </c>
+      <c r="EO165" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP165" t="n">
+        <v>132</v>
+      </c>
+      <c r="EQ165" t="n">
+        <v>966</v>
+      </c>
+      <c r="ER165" t="n">
+        <v>211</v>
+      </c>
+      <c r="ES165" t="n">
+        <v>3952</v>
+      </c>
+      <c r="ET165" t="n">
+        <v>55</v>
+      </c>
+      <c r="EU165" t="n">
+        <v>612</v>
+      </c>
+      <c r="EV165" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW165" t="n">
+        <v>289</v>
+      </c>
+      <c r="EX165" t="n">
+        <v>83</v>
+      </c>
+      <c r="EY165" t="n">
+        <v>30537</v>
+      </c>
+      <c r="EZ165" t="n">
+        <v>341</v>
+      </c>
+      <c r="FA165" t="n">
+        <v>197</v>
+      </c>
+      <c r="FB165" t="n">
+        <v>197</v>
+      </c>
+      <c r="FC165" t="n">
+        <v>67</v>
+      </c>
+      <c r="FD165" t="n">
+        <v>71</v>
+      </c>
+      <c r="FE165" t="n">
+        <v>742</v>
+      </c>
+      <c r="FF165" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG165" t="n">
+        <v>378</v>
+      </c>
+      <c r="FH165" t="n">
+        <v>74</v>
+      </c>
+      <c r="FI165" t="n">
+        <v>68</v>
+      </c>
+      <c r="FJ165" t="n">
+        <v>2475</v>
+      </c>
+      <c r="FK165" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL165" t="n">
+        <v>79</v>
+      </c>
+      <c r="FM165" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN165" t="n">
+        <v>37</v>
+      </c>
+      <c r="FO165" t="n">
+        <v>102</v>
+      </c>
+      <c r="FP165" t="n">
+        <v>573</v>
+      </c>
+      <c r="FQ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR165" t="n">
+        <v>426</v>
+      </c>
+      <c r="FS165" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT165" t="n">
+        <v>57</v>
+      </c>
+      <c r="FU165" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV165" t="n">
+        <v>329</v>
+      </c>
+      <c r="FW165" t="n">
+        <v>347</v>
+      </c>
+      <c r="FX165" t="n">
+        <v>282</v>
+      </c>
+      <c r="FY165" t="n">
+        <v>825</v>
+      </c>
+      <c r="FZ165" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA165" t="n">
+        <v>341</v>
+      </c>
+      <c r="GB165" t="n">
+        <v>2947</v>
+      </c>
+      <c r="GC165" t="n">
+        <v>89</v>
+      </c>
+      <c r="GD165" t="n">
+        <v>354</v>
+      </c>
+      <c r="GE165" t="n">
+        <v>353</v>
+      </c>
+      <c r="GF165" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG165" t="n">
+        <v>73</v>
+      </c>
+      <c r="GH165" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI165" t="n">
+        <v>1036</v>
+      </c>
+      <c r="GJ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK165" t="n">
+        <v>382</v>
+      </c>
+      <c r="GL165" t="n">
+        <v>194</v>
+      </c>
+      <c r="GM165" t="n">
+        <v>427</v>
+      </c>
+      <c r="GN165" t="n">
+        <v>341</v>
+      </c>
+      <c r="GO165" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP165" t="n">
+        <v>47</v>
+      </c>
+      <c r="GQ165" t="n">
+        <v>51</v>
+      </c>
+      <c r="GR165" t="n">
+        <v>1175</v>
+      </c>
+      <c r="GS165" t="n">
+        <v>434</v>
+      </c>
+      <c r="GT165" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU165" t="n">
+        <v>292</v>
+      </c>
+      <c r="GV165" t="n">
+        <v>135</v>
+      </c>
+      <c r="GW165" t="n">
+        <v>233</v>
+      </c>
+      <c r="GX165" t="n">
+        <v>42</v>
+      </c>
+      <c r="GY165" t="n">
+        <v>188</v>
+      </c>
+      <c r="GZ165" t="n">
+        <v>46</v>
+      </c>
+      <c r="HA165" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB165" t="n">
+        <v>153</v>
+      </c>
+      <c r="HC165" t="n">
+        <v>225</v>
+      </c>
+      <c r="HD165" t="n">
+        <v>1576</v>
+      </c>
+      <c r="HE165" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE165"/>
+  <dimension ref="A1:HE166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -106885,6 +106885,649 @@
         <v>191</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>746</v>
+      </c>
+      <c r="C166" t="n">
+        <v>374</v>
+      </c>
+      <c r="D166" t="n">
+        <v>139</v>
+      </c>
+      <c r="E166" t="n">
+        <v>533</v>
+      </c>
+      <c r="F166" t="n">
+        <v>929</v>
+      </c>
+      <c r="G166" t="n">
+        <v>633</v>
+      </c>
+      <c r="H166" t="n">
+        <v>162</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>345</v>
+      </c>
+      <c r="K166" t="n">
+        <v>407</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>146</v>
+      </c>
+      <c r="N166" t="n">
+        <v>55</v>
+      </c>
+      <c r="O166" t="n">
+        <v>115</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1258</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>877</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1</v>
+      </c>
+      <c r="S166" t="n">
+        <v>169</v>
+      </c>
+      <c r="T166" t="n">
+        <v>296</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>87</v>
+      </c>
+      <c r="W166" t="n">
+        <v>83</v>
+      </c>
+      <c r="X166" t="n">
+        <v>857</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>839</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>168</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>545</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>564</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>287</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>846</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>286</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1641</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>375</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>399</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1824</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>252</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>345</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>154</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>432</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>5978</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>541</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>302</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>260</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>387</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>94</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>697</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>186</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ166" t="n">
+        <v>225</v>
+      </c>
+      <c r="BR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS166" t="n">
+        <v>385</v>
+      </c>
+      <c r="BT166" t="n">
+        <v>373</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>475</v>
+      </c>
+      <c r="BV166" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW166" t="n">
+        <v>161</v>
+      </c>
+      <c r="BX166" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY166" t="n">
+        <v>160</v>
+      </c>
+      <c r="BZ166" t="n">
+        <v>247</v>
+      </c>
+      <c r="CA166" t="n">
+        <v>199</v>
+      </c>
+      <c r="CB166" t="n">
+        <v>1056</v>
+      </c>
+      <c r="CC166" t="n">
+        <v>264</v>
+      </c>
+      <c r="CD166" t="n">
+        <v>1180</v>
+      </c>
+      <c r="CE166" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF166" t="n">
+        <v>570</v>
+      </c>
+      <c r="CG166" t="n">
+        <v>96</v>
+      </c>
+      <c r="CH166" t="n">
+        <v>97</v>
+      </c>
+      <c r="CI166" t="n">
+        <v>49</v>
+      </c>
+      <c r="CJ166" t="n">
+        <v>714</v>
+      </c>
+      <c r="CK166" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL166" t="n">
+        <v>62</v>
+      </c>
+      <c r="CM166" t="n">
+        <v>345</v>
+      </c>
+      <c r="CN166" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO166" t="n">
+        <v>15</v>
+      </c>
+      <c r="CP166" t="n">
+        <v>805</v>
+      </c>
+      <c r="CQ166" t="n">
+        <v>361</v>
+      </c>
+      <c r="CR166" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS166" t="n">
+        <v>185</v>
+      </c>
+      <c r="CT166" t="n">
+        <v>686</v>
+      </c>
+      <c r="CU166" t="n">
+        <v>105</v>
+      </c>
+      <c r="CV166" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW166" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX166" t="n">
+        <v>7354</v>
+      </c>
+      <c r="CY166" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ166" t="n">
+        <v>233</v>
+      </c>
+      <c r="DA166" t="n">
+        <v>264</v>
+      </c>
+      <c r="DB166" t="n">
+        <v>87</v>
+      </c>
+      <c r="DC166" t="n">
+        <v>222</v>
+      </c>
+      <c r="DD166" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE166" t="n">
+        <v>231</v>
+      </c>
+      <c r="DF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG166" t="n">
+        <v>198</v>
+      </c>
+      <c r="DH166" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI166" t="n">
+        <v>248</v>
+      </c>
+      <c r="DJ166" t="n">
+        <v>138</v>
+      </c>
+      <c r="DK166" t="n">
+        <v>125</v>
+      </c>
+      <c r="DL166" t="n">
+        <v>180</v>
+      </c>
+      <c r="DM166" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN166" t="n">
+        <v>312</v>
+      </c>
+      <c r="DO166" t="n">
+        <v>201</v>
+      </c>
+      <c r="DP166" t="n">
+        <v>338</v>
+      </c>
+      <c r="DQ166" t="n">
+        <v>932</v>
+      </c>
+      <c r="DR166" t="n">
+        <v>214</v>
+      </c>
+      <c r="DS166" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT166" t="n">
+        <v>14</v>
+      </c>
+      <c r="DU166" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV166" t="n">
+        <v>54</v>
+      </c>
+      <c r="DW166" t="n">
+        <v>87</v>
+      </c>
+      <c r="DX166" t="n">
+        <v>363</v>
+      </c>
+      <c r="DY166" t="n">
+        <v>210</v>
+      </c>
+      <c r="DZ166" t="n">
+        <v>5497</v>
+      </c>
+      <c r="EA166" t="n">
+        <v>236</v>
+      </c>
+      <c r="EB166" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC166" t="n">
+        <v>374</v>
+      </c>
+      <c r="ED166" t="n">
+        <v>217</v>
+      </c>
+      <c r="EE166" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF166" t="n">
+        <v>1282</v>
+      </c>
+      <c r="EG166" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH166" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI166" t="n">
+        <v>43</v>
+      </c>
+      <c r="EJ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK166" t="n">
+        <v>216</v>
+      </c>
+      <c r="EL166" t="n">
+        <v>424</v>
+      </c>
+      <c r="EM166" t="n">
+        <v>648</v>
+      </c>
+      <c r="EN166" t="n">
+        <v>3583</v>
+      </c>
+      <c r="EO166" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP166" t="n">
+        <v>137</v>
+      </c>
+      <c r="EQ166" t="n">
+        <v>976</v>
+      </c>
+      <c r="ER166" t="n">
+        <v>233</v>
+      </c>
+      <c r="ES166" t="n">
+        <v>4017</v>
+      </c>
+      <c r="ET166" t="n">
+        <v>55</v>
+      </c>
+      <c r="EU166" t="n">
+        <v>612</v>
+      </c>
+      <c r="EV166" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW166" t="n">
+        <v>291</v>
+      </c>
+      <c r="EX166" t="n">
+        <v>85</v>
+      </c>
+      <c r="EY166" t="n">
+        <v>30737</v>
+      </c>
+      <c r="EZ166" t="n">
+        <v>345</v>
+      </c>
+      <c r="FA166" t="n">
+        <v>198</v>
+      </c>
+      <c r="FB166" t="n">
+        <v>197</v>
+      </c>
+      <c r="FC166" t="n">
+        <v>71</v>
+      </c>
+      <c r="FD166" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE166" t="n">
+        <v>772</v>
+      </c>
+      <c r="FF166" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG166" t="n">
+        <v>378</v>
+      </c>
+      <c r="FH166" t="n">
+        <v>74</v>
+      </c>
+      <c r="FI166" t="n">
+        <v>68</v>
+      </c>
+      <c r="FJ166" t="n">
+        <v>2496</v>
+      </c>
+      <c r="FK166" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL166" t="n">
+        <v>79</v>
+      </c>
+      <c r="FM166" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN166" t="n">
+        <v>37</v>
+      </c>
+      <c r="FO166" t="n">
+        <v>103</v>
+      </c>
+      <c r="FP166" t="n">
+        <v>584</v>
+      </c>
+      <c r="FQ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR166" t="n">
+        <v>429</v>
+      </c>
+      <c r="FS166" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT166" t="n">
+        <v>58</v>
+      </c>
+      <c r="FU166" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV166" t="n">
+        <v>330</v>
+      </c>
+      <c r="FW166" t="n">
+        <v>351</v>
+      </c>
+      <c r="FX166" t="n">
+        <v>286</v>
+      </c>
+      <c r="FY166" t="n">
+        <v>829</v>
+      </c>
+      <c r="FZ166" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA166" t="n">
+        <v>362</v>
+      </c>
+      <c r="GB166" t="n">
+        <v>2974</v>
+      </c>
+      <c r="GC166" t="n">
+        <v>92</v>
+      </c>
+      <c r="GD166" t="n">
+        <v>358</v>
+      </c>
+      <c r="GE166" t="n">
+        <v>356</v>
+      </c>
+      <c r="GF166" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG166" t="n">
+        <v>89</v>
+      </c>
+      <c r="GH166" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI166" t="n">
+        <v>1040</v>
+      </c>
+      <c r="GJ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK166" t="n">
+        <v>385</v>
+      </c>
+      <c r="GL166" t="n">
+        <v>194</v>
+      </c>
+      <c r="GM166" t="n">
+        <v>431</v>
+      </c>
+      <c r="GN166" t="n">
+        <v>341</v>
+      </c>
+      <c r="GO166" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP166" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ166" t="n">
+        <v>52</v>
+      </c>
+      <c r="GR166" t="n">
+        <v>1176</v>
+      </c>
+      <c r="GS166" t="n">
+        <v>438</v>
+      </c>
+      <c r="GT166" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU166" t="n">
+        <v>298</v>
+      </c>
+      <c r="GV166" t="n">
+        <v>135</v>
+      </c>
+      <c r="GW166" t="n">
+        <v>236</v>
+      </c>
+      <c r="GX166" t="n">
+        <v>42</v>
+      </c>
+      <c r="GY166" t="n">
+        <v>196</v>
+      </c>
+      <c r="GZ166" t="n">
+        <v>46</v>
+      </c>
+      <c r="HA166" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB166" t="n">
+        <v>155</v>
+      </c>
+      <c r="HC166" t="n">
+        <v>234</v>
+      </c>
+      <c r="HD166" t="n">
+        <v>1584</v>
+      </c>
+      <c r="HE166" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE166"/>
+  <dimension ref="A1:HE167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -107528,6 +107528,649 @@
         <v>191</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>748</v>
+      </c>
+      <c r="C167" t="n">
+        <v>381</v>
+      </c>
+      <c r="D167" t="n">
+        <v>139</v>
+      </c>
+      <c r="E167" t="n">
+        <v>534</v>
+      </c>
+      <c r="F167" t="n">
+        <v>929</v>
+      </c>
+      <c r="G167" t="n">
+        <v>633</v>
+      </c>
+      <c r="H167" t="n">
+        <v>163</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>345</v>
+      </c>
+      <c r="K167" t="n">
+        <v>407</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>146</v>
+      </c>
+      <c r="N167" t="n">
+        <v>55</v>
+      </c>
+      <c r="O167" t="n">
+        <v>115</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1259</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>877</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>169</v>
+      </c>
+      <c r="T167" t="n">
+        <v>296</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1</v>
+      </c>
+      <c r="V167" t="n">
+        <v>87</v>
+      </c>
+      <c r="W167" t="n">
+        <v>85</v>
+      </c>
+      <c r="X167" t="n">
+        <v>857</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>840</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>168</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>545</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>564</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>288</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>847</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1645</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>375</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>399</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1825</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>169</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>252</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>345</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>154</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>433</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>5983</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>541</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>302</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>260</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>387</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>94</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>697</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>186</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ167" t="n">
+        <v>225</v>
+      </c>
+      <c r="BR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS167" t="n">
+        <v>385</v>
+      </c>
+      <c r="BT167" t="n">
+        <v>375</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>475</v>
+      </c>
+      <c r="BV167" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW167" t="n">
+        <v>161</v>
+      </c>
+      <c r="BX167" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY167" t="n">
+        <v>160</v>
+      </c>
+      <c r="BZ167" t="n">
+        <v>247</v>
+      </c>
+      <c r="CA167" t="n">
+        <v>199</v>
+      </c>
+      <c r="CB167" t="n">
+        <v>1061</v>
+      </c>
+      <c r="CC167" t="n">
+        <v>265</v>
+      </c>
+      <c r="CD167" t="n">
+        <v>1180</v>
+      </c>
+      <c r="CE167" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF167" t="n">
+        <v>572</v>
+      </c>
+      <c r="CG167" t="n">
+        <v>96</v>
+      </c>
+      <c r="CH167" t="n">
+        <v>97</v>
+      </c>
+      <c r="CI167" t="n">
+        <v>49</v>
+      </c>
+      <c r="CJ167" t="n">
+        <v>716</v>
+      </c>
+      <c r="CK167" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL167" t="n">
+        <v>62</v>
+      </c>
+      <c r="CM167" t="n">
+        <v>346</v>
+      </c>
+      <c r="CN167" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO167" t="n">
+        <v>16</v>
+      </c>
+      <c r="CP167" t="n">
+        <v>805</v>
+      </c>
+      <c r="CQ167" t="n">
+        <v>361</v>
+      </c>
+      <c r="CR167" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS167" t="n">
+        <v>185</v>
+      </c>
+      <c r="CT167" t="n">
+        <v>686</v>
+      </c>
+      <c r="CU167" t="n">
+        <v>108</v>
+      </c>
+      <c r="CV167" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW167" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX167" t="n">
+        <v>7371</v>
+      </c>
+      <c r="CY167" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ167" t="n">
+        <v>233</v>
+      </c>
+      <c r="DA167" t="n">
+        <v>264</v>
+      </c>
+      <c r="DB167" t="n">
+        <v>87</v>
+      </c>
+      <c r="DC167" t="n">
+        <v>222</v>
+      </c>
+      <c r="DD167" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE167" t="n">
+        <v>231</v>
+      </c>
+      <c r="DF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG167" t="n">
+        <v>198</v>
+      </c>
+      <c r="DH167" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI167" t="n">
+        <v>248</v>
+      </c>
+      <c r="DJ167" t="n">
+        <v>138</v>
+      </c>
+      <c r="DK167" t="n">
+        <v>125</v>
+      </c>
+      <c r="DL167" t="n">
+        <v>180</v>
+      </c>
+      <c r="DM167" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN167" t="n">
+        <v>312</v>
+      </c>
+      <c r="DO167" t="n">
+        <v>201</v>
+      </c>
+      <c r="DP167" t="n">
+        <v>338</v>
+      </c>
+      <c r="DQ167" t="n">
+        <v>932</v>
+      </c>
+      <c r="DR167" t="n">
+        <v>214</v>
+      </c>
+      <c r="DS167" t="n">
+        <v>123</v>
+      </c>
+      <c r="DT167" t="n">
+        <v>14</v>
+      </c>
+      <c r="DU167" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV167" t="n">
+        <v>55</v>
+      </c>
+      <c r="DW167" t="n">
+        <v>87</v>
+      </c>
+      <c r="DX167" t="n">
+        <v>365</v>
+      </c>
+      <c r="DY167" t="n">
+        <v>211</v>
+      </c>
+      <c r="DZ167" t="n">
+        <v>5509</v>
+      </c>
+      <c r="EA167" t="n">
+        <v>236</v>
+      </c>
+      <c r="EB167" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC167" t="n">
+        <v>376</v>
+      </c>
+      <c r="ED167" t="n">
+        <v>217</v>
+      </c>
+      <c r="EE167" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF167" t="n">
+        <v>1283</v>
+      </c>
+      <c r="EG167" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH167" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI167" t="n">
+        <v>43</v>
+      </c>
+      <c r="EJ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK167" t="n">
+        <v>216</v>
+      </c>
+      <c r="EL167" t="n">
+        <v>424</v>
+      </c>
+      <c r="EM167" t="n">
+        <v>649</v>
+      </c>
+      <c r="EN167" t="n">
+        <v>3591</v>
+      </c>
+      <c r="EO167" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP167" t="n">
+        <v>137</v>
+      </c>
+      <c r="EQ167" t="n">
+        <v>978</v>
+      </c>
+      <c r="ER167" t="n">
+        <v>233</v>
+      </c>
+      <c r="ES167" t="n">
+        <v>4021</v>
+      </c>
+      <c r="ET167" t="n">
+        <v>55</v>
+      </c>
+      <c r="EU167" t="n">
+        <v>614</v>
+      </c>
+      <c r="EV167" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW167" t="n">
+        <v>292</v>
+      </c>
+      <c r="EX167" t="n">
+        <v>85</v>
+      </c>
+      <c r="EY167" t="n">
+        <v>30788</v>
+      </c>
+      <c r="EZ167" t="n">
+        <v>345</v>
+      </c>
+      <c r="FA167" t="n">
+        <v>199</v>
+      </c>
+      <c r="FB167" t="n">
+        <v>197</v>
+      </c>
+      <c r="FC167" t="n">
+        <v>71</v>
+      </c>
+      <c r="FD167" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE167" t="n">
+        <v>772</v>
+      </c>
+      <c r="FF167" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG167" t="n">
+        <v>380</v>
+      </c>
+      <c r="FH167" t="n">
+        <v>74</v>
+      </c>
+      <c r="FI167" t="n">
+        <v>68</v>
+      </c>
+      <c r="FJ167" t="n">
+        <v>2502</v>
+      </c>
+      <c r="FK167" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL167" t="n">
+        <v>79</v>
+      </c>
+      <c r="FM167" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN167" t="n">
+        <v>38</v>
+      </c>
+      <c r="FO167" t="n">
+        <v>103</v>
+      </c>
+      <c r="FP167" t="n">
+        <v>585</v>
+      </c>
+      <c r="FQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR167" t="n">
+        <v>431</v>
+      </c>
+      <c r="FS167" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT167" t="n">
+        <v>58</v>
+      </c>
+      <c r="FU167" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV167" t="n">
+        <v>330</v>
+      </c>
+      <c r="FW167" t="n">
+        <v>358</v>
+      </c>
+      <c r="FX167" t="n">
+        <v>288</v>
+      </c>
+      <c r="FY167" t="n">
+        <v>835</v>
+      </c>
+      <c r="FZ167" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA167" t="n">
+        <v>362</v>
+      </c>
+      <c r="GB167" t="n">
+        <v>2974</v>
+      </c>
+      <c r="GC167" t="n">
+        <v>92</v>
+      </c>
+      <c r="GD167" t="n">
+        <v>358</v>
+      </c>
+      <c r="GE167" t="n">
+        <v>356</v>
+      </c>
+      <c r="GF167" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG167" t="n">
+        <v>90</v>
+      </c>
+      <c r="GH167" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI167" t="n">
+        <v>1040</v>
+      </c>
+      <c r="GJ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK167" t="n">
+        <v>385</v>
+      </c>
+      <c r="GL167" t="n">
+        <v>194</v>
+      </c>
+      <c r="GM167" t="n">
+        <v>432</v>
+      </c>
+      <c r="GN167" t="n">
+        <v>341</v>
+      </c>
+      <c r="GO167" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP167" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ167" t="n">
+        <v>52</v>
+      </c>
+      <c r="GR167" t="n">
+        <v>1176</v>
+      </c>
+      <c r="GS167" t="n">
+        <v>446</v>
+      </c>
+      <c r="GT167" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU167" t="n">
+        <v>299</v>
+      </c>
+      <c r="GV167" t="n">
+        <v>136</v>
+      </c>
+      <c r="GW167" t="n">
+        <v>236</v>
+      </c>
+      <c r="GX167" t="n">
+        <v>42</v>
+      </c>
+      <c r="GY167" t="n">
+        <v>197</v>
+      </c>
+      <c r="GZ167" t="n">
+        <v>46</v>
+      </c>
+      <c r="HA167" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB167" t="n">
+        <v>155</v>
+      </c>
+      <c r="HC167" t="n">
+        <v>234</v>
+      </c>
+      <c r="HD167" t="n">
+        <v>1602</v>
+      </c>
+      <c r="HE167" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE167"/>
+  <dimension ref="A1:HE168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -108171,6 +108171,649 @@
         <v>191</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>749</v>
+      </c>
+      <c r="C168" t="n">
+        <v>411</v>
+      </c>
+      <c r="D168" t="n">
+        <v>142</v>
+      </c>
+      <c r="E168" t="n">
+        <v>534</v>
+      </c>
+      <c r="F168" t="n">
+        <v>929</v>
+      </c>
+      <c r="G168" t="n">
+        <v>633</v>
+      </c>
+      <c r="H168" t="n">
+        <v>164</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>345</v>
+      </c>
+      <c r="K168" t="n">
+        <v>407</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>146</v>
+      </c>
+      <c r="N168" t="n">
+        <v>56</v>
+      </c>
+      <c r="O168" t="n">
+        <v>122</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1276</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>882</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>169</v>
+      </c>
+      <c r="T168" t="n">
+        <v>296</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1</v>
+      </c>
+      <c r="V168" t="n">
+        <v>87</v>
+      </c>
+      <c r="W168" t="n">
+        <v>86</v>
+      </c>
+      <c r="X168" t="n">
+        <v>857</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>842</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>173</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>546</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>566</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>288</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>847</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1651</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>375</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>401</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1833</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>171</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>348</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>155</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>434</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>6049</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>541</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>303</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>260</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>387</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>697</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>186</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ168" t="n">
+        <v>225</v>
+      </c>
+      <c r="BR168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS168" t="n">
+        <v>388</v>
+      </c>
+      <c r="BT168" t="n">
+        <v>386</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>475</v>
+      </c>
+      <c r="BV168" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW168" t="n">
+        <v>161</v>
+      </c>
+      <c r="BX168" t="n">
+        <v>92</v>
+      </c>
+      <c r="BY168" t="n">
+        <v>160</v>
+      </c>
+      <c r="BZ168" t="n">
+        <v>247</v>
+      </c>
+      <c r="CA168" t="n">
+        <v>199</v>
+      </c>
+      <c r="CB168" t="n">
+        <v>1068</v>
+      </c>
+      <c r="CC168" t="n">
+        <v>265</v>
+      </c>
+      <c r="CD168" t="n">
+        <v>1182</v>
+      </c>
+      <c r="CE168" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF168" t="n">
+        <v>576</v>
+      </c>
+      <c r="CG168" t="n">
+        <v>96</v>
+      </c>
+      <c r="CH168" t="n">
+        <v>97</v>
+      </c>
+      <c r="CI168" t="n">
+        <v>49</v>
+      </c>
+      <c r="CJ168" t="n">
+        <v>720</v>
+      </c>
+      <c r="CK168" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL168" t="n">
+        <v>63</v>
+      </c>
+      <c r="CM168" t="n">
+        <v>346</v>
+      </c>
+      <c r="CN168" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO168" t="n">
+        <v>18</v>
+      </c>
+      <c r="CP168" t="n">
+        <v>806</v>
+      </c>
+      <c r="CQ168" t="n">
+        <v>362</v>
+      </c>
+      <c r="CR168" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS168" t="n">
+        <v>186</v>
+      </c>
+      <c r="CT168" t="n">
+        <v>686</v>
+      </c>
+      <c r="CU168" t="n">
+        <v>108</v>
+      </c>
+      <c r="CV168" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW168" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX168" t="n">
+        <v>7388</v>
+      </c>
+      <c r="CY168" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ168" t="n">
+        <v>234</v>
+      </c>
+      <c r="DA168" t="n">
+        <v>264</v>
+      </c>
+      <c r="DB168" t="n">
+        <v>87</v>
+      </c>
+      <c r="DC168" t="n">
+        <v>223</v>
+      </c>
+      <c r="DD168" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE168" t="n">
+        <v>232</v>
+      </c>
+      <c r="DF168" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG168" t="n">
+        <v>198</v>
+      </c>
+      <c r="DH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI168" t="n">
+        <v>248</v>
+      </c>
+      <c r="DJ168" t="n">
+        <v>138</v>
+      </c>
+      <c r="DK168" t="n">
+        <v>125</v>
+      </c>
+      <c r="DL168" t="n">
+        <v>182</v>
+      </c>
+      <c r="DM168" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN168" t="n">
+        <v>312</v>
+      </c>
+      <c r="DO168" t="n">
+        <v>204</v>
+      </c>
+      <c r="DP168" t="n">
+        <v>338</v>
+      </c>
+      <c r="DQ168" t="n">
+        <v>932</v>
+      </c>
+      <c r="DR168" t="n">
+        <v>214</v>
+      </c>
+      <c r="DS168" t="n">
+        <v>134</v>
+      </c>
+      <c r="DT168" t="n">
+        <v>14</v>
+      </c>
+      <c r="DU168" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV168" t="n">
+        <v>55</v>
+      </c>
+      <c r="DW168" t="n">
+        <v>89</v>
+      </c>
+      <c r="DX168" t="n">
+        <v>367</v>
+      </c>
+      <c r="DY168" t="n">
+        <v>211</v>
+      </c>
+      <c r="DZ168" t="n">
+        <v>5534</v>
+      </c>
+      <c r="EA168" t="n">
+        <v>237</v>
+      </c>
+      <c r="EB168" t="n">
+        <v>36</v>
+      </c>
+      <c r="EC168" t="n">
+        <v>380</v>
+      </c>
+      <c r="ED168" t="n">
+        <v>217</v>
+      </c>
+      <c r="EE168" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF168" t="n">
+        <v>1284</v>
+      </c>
+      <c r="EG168" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH168" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI168" t="n">
+        <v>43</v>
+      </c>
+      <c r="EJ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK168" t="n">
+        <v>220</v>
+      </c>
+      <c r="EL168" t="n">
+        <v>426</v>
+      </c>
+      <c r="EM168" t="n">
+        <v>650</v>
+      </c>
+      <c r="EN168" t="n">
+        <v>3600</v>
+      </c>
+      <c r="EO168" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP168" t="n">
+        <v>141</v>
+      </c>
+      <c r="EQ168" t="n">
+        <v>982</v>
+      </c>
+      <c r="ER168" t="n">
+        <v>233</v>
+      </c>
+      <c r="ES168" t="n">
+        <v>4026</v>
+      </c>
+      <c r="ET168" t="n">
+        <v>56</v>
+      </c>
+      <c r="EU168" t="n">
+        <v>617</v>
+      </c>
+      <c r="EV168" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW168" t="n">
+        <v>292</v>
+      </c>
+      <c r="EX168" t="n">
+        <v>86</v>
+      </c>
+      <c r="EY168" t="n">
+        <v>30890</v>
+      </c>
+      <c r="EZ168" t="n">
+        <v>349</v>
+      </c>
+      <c r="FA168" t="n">
+        <v>199</v>
+      </c>
+      <c r="FB168" t="n">
+        <v>199</v>
+      </c>
+      <c r="FC168" t="n">
+        <v>71</v>
+      </c>
+      <c r="FD168" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE168" t="n">
+        <v>806</v>
+      </c>
+      <c r="FF168" t="n">
+        <v>70</v>
+      </c>
+      <c r="FG168" t="n">
+        <v>382</v>
+      </c>
+      <c r="FH168" t="n">
+        <v>74</v>
+      </c>
+      <c r="FI168" t="n">
+        <v>69</v>
+      </c>
+      <c r="FJ168" t="n">
+        <v>2517</v>
+      </c>
+      <c r="FK168" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL168" t="n">
+        <v>79</v>
+      </c>
+      <c r="FM168" t="n">
+        <v>150</v>
+      </c>
+      <c r="FN168" t="n">
+        <v>40</v>
+      </c>
+      <c r="FO168" t="n">
+        <v>103</v>
+      </c>
+      <c r="FP168" t="n">
+        <v>587</v>
+      </c>
+      <c r="FQ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR168" t="n">
+        <v>441</v>
+      </c>
+      <c r="FS168" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT168" t="n">
+        <v>59</v>
+      </c>
+      <c r="FU168" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV168" t="n">
+        <v>331</v>
+      </c>
+      <c r="FW168" t="n">
+        <v>365</v>
+      </c>
+      <c r="FX168" t="n">
+        <v>300</v>
+      </c>
+      <c r="FY168" t="n">
+        <v>837</v>
+      </c>
+      <c r="FZ168" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA168" t="n">
+        <v>362</v>
+      </c>
+      <c r="GB168" t="n">
+        <v>2989</v>
+      </c>
+      <c r="GC168" t="n">
+        <v>92</v>
+      </c>
+      <c r="GD168" t="n">
+        <v>360</v>
+      </c>
+      <c r="GE168" t="n">
+        <v>356</v>
+      </c>
+      <c r="GF168" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG168" t="n">
+        <v>92</v>
+      </c>
+      <c r="GH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI168" t="n">
+        <v>1053</v>
+      </c>
+      <c r="GJ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK168" t="n">
+        <v>387</v>
+      </c>
+      <c r="GL168" t="n">
+        <v>196</v>
+      </c>
+      <c r="GM168" t="n">
+        <v>432</v>
+      </c>
+      <c r="GN168" t="n">
+        <v>343</v>
+      </c>
+      <c r="GO168" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP168" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ168" t="n">
+        <v>52</v>
+      </c>
+      <c r="GR168" t="n">
+        <v>1177</v>
+      </c>
+      <c r="GS168" t="n">
+        <v>447</v>
+      </c>
+      <c r="GT168" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU168" t="n">
+        <v>302</v>
+      </c>
+      <c r="GV168" t="n">
+        <v>137</v>
+      </c>
+      <c r="GW168" t="n">
+        <v>236</v>
+      </c>
+      <c r="GX168" t="n">
+        <v>45</v>
+      </c>
+      <c r="GY168" t="n">
+        <v>202</v>
+      </c>
+      <c r="GZ168" t="n">
+        <v>47</v>
+      </c>
+      <c r="HA168" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB168" t="n">
+        <v>155</v>
+      </c>
+      <c r="HC168" t="n">
+        <v>239</v>
+      </c>
+      <c r="HD168" t="n">
+        <v>1602</v>
+      </c>
+      <c r="HE168" t="n">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE168"/>
+  <dimension ref="A1:HE169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105945,7 +105945,7 @@
         <v>134</v>
       </c>
       <c r="DK164" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DL164" t="n">
         <v>176</v>
@@ -106588,7 +106588,7 @@
         <v>135</v>
       </c>
       <c r="DK165" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DL165" t="n">
         <v>178</v>
@@ -107231,7 +107231,7 @@
         <v>138</v>
       </c>
       <c r="DK166" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DL166" t="n">
         <v>180</v>
@@ -107874,7 +107874,7 @@
         <v>138</v>
       </c>
       <c r="DK167" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DL167" t="n">
         <v>180</v>
@@ -108517,7 +108517,7 @@
         <v>138</v>
       </c>
       <c r="DK168" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DL168" t="n">
         <v>182</v>
@@ -108811,6 +108811,649 @@
         <v>1602</v>
       </c>
       <c r="HE168" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>759</v>
+      </c>
+      <c r="C169" t="n">
+        <v>428</v>
+      </c>
+      <c r="D169" t="n">
+        <v>147</v>
+      </c>
+      <c r="E169" t="n">
+        <v>537</v>
+      </c>
+      <c r="F169" t="n">
+        <v>929</v>
+      </c>
+      <c r="G169" t="n">
+        <v>635</v>
+      </c>
+      <c r="H169" t="n">
+        <v>169</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>346</v>
+      </c>
+      <c r="K169" t="n">
+        <v>407</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>147</v>
+      </c>
+      <c r="N169" t="n">
+        <v>59</v>
+      </c>
+      <c r="O169" t="n">
+        <v>123</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1320</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>894</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>171</v>
+      </c>
+      <c r="T169" t="n">
+        <v>298</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1</v>
+      </c>
+      <c r="V169" t="n">
+        <v>91</v>
+      </c>
+      <c r="W169" t="n">
+        <v>96</v>
+      </c>
+      <c r="X169" t="n">
+        <v>895</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>854</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>173</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>550</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>576</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>288</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>847</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>302</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1659</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>376</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>281</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>405</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>133</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1839</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>171</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>142</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>288</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>348</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>155</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>440</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>6142</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>75</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>543</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>306</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>185</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>262</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>395</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>700</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>192</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ169" t="n">
+        <v>226</v>
+      </c>
+      <c r="BR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS169" t="n">
+        <v>390</v>
+      </c>
+      <c r="BT169" t="n">
+        <v>399</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>475</v>
+      </c>
+      <c r="BV169" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW169" t="n">
+        <v>164</v>
+      </c>
+      <c r="BX169" t="n">
+        <v>94</v>
+      </c>
+      <c r="BY169" t="n">
+        <v>164</v>
+      </c>
+      <c r="BZ169" t="n">
+        <v>247</v>
+      </c>
+      <c r="CA169" t="n">
+        <v>199</v>
+      </c>
+      <c r="CB169" t="n">
+        <v>1080</v>
+      </c>
+      <c r="CC169" t="n">
+        <v>265</v>
+      </c>
+      <c r="CD169" t="n">
+        <v>1183</v>
+      </c>
+      <c r="CE169" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF169" t="n">
+        <v>588</v>
+      </c>
+      <c r="CG169" t="n">
+        <v>99</v>
+      </c>
+      <c r="CH169" t="n">
+        <v>97</v>
+      </c>
+      <c r="CI169" t="n">
+        <v>51</v>
+      </c>
+      <c r="CJ169" t="n">
+        <v>723</v>
+      </c>
+      <c r="CK169" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL169" t="n">
+        <v>63</v>
+      </c>
+      <c r="CM169" t="n">
+        <v>352</v>
+      </c>
+      <c r="CN169" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO169" t="n">
+        <v>18</v>
+      </c>
+      <c r="CP169" t="n">
+        <v>808</v>
+      </c>
+      <c r="CQ169" t="n">
+        <v>363</v>
+      </c>
+      <c r="CR169" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS169" t="n">
+        <v>187</v>
+      </c>
+      <c r="CT169" t="n">
+        <v>687</v>
+      </c>
+      <c r="CU169" t="n">
+        <v>113</v>
+      </c>
+      <c r="CV169" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW169" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX169" t="n">
+        <v>7423</v>
+      </c>
+      <c r="CY169" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ169" t="n">
+        <v>234</v>
+      </c>
+      <c r="DA169" t="n">
+        <v>264</v>
+      </c>
+      <c r="DB169" t="n">
+        <v>88</v>
+      </c>
+      <c r="DC169" t="n">
+        <v>228</v>
+      </c>
+      <c r="DD169" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE169" t="n">
+        <v>238</v>
+      </c>
+      <c r="DF169" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG169" t="n">
+        <v>199</v>
+      </c>
+      <c r="DH169" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI169" t="n">
+        <v>252</v>
+      </c>
+      <c r="DJ169" t="n">
+        <v>139</v>
+      </c>
+      <c r="DK169" t="n">
+        <v>124</v>
+      </c>
+      <c r="DL169" t="n">
+        <v>184</v>
+      </c>
+      <c r="DM169" t="n">
+        <v>53</v>
+      </c>
+      <c r="DN169" t="n">
+        <v>313</v>
+      </c>
+      <c r="DO169" t="n">
+        <v>205</v>
+      </c>
+      <c r="DP169" t="n">
+        <v>354</v>
+      </c>
+      <c r="DQ169" t="n">
+        <v>940</v>
+      </c>
+      <c r="DR169" t="n">
+        <v>214</v>
+      </c>
+      <c r="DS169" t="n">
+        <v>135</v>
+      </c>
+      <c r="DT169" t="n">
+        <v>16</v>
+      </c>
+      <c r="DU169" t="n">
+        <v>246</v>
+      </c>
+      <c r="DV169" t="n">
+        <v>56</v>
+      </c>
+      <c r="DW169" t="n">
+        <v>98</v>
+      </c>
+      <c r="DX169" t="n">
+        <v>370</v>
+      </c>
+      <c r="DY169" t="n">
+        <v>212</v>
+      </c>
+      <c r="DZ169" t="n">
+        <v>5550</v>
+      </c>
+      <c r="EA169" t="n">
+        <v>241</v>
+      </c>
+      <c r="EB169" t="n">
+        <v>36</v>
+      </c>
+      <c r="EC169" t="n">
+        <v>393</v>
+      </c>
+      <c r="ED169" t="n">
+        <v>218</v>
+      </c>
+      <c r="EE169" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF169" t="n">
+        <v>1296</v>
+      </c>
+      <c r="EG169" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH169" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI169" t="n">
+        <v>46</v>
+      </c>
+      <c r="EJ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK169" t="n">
+        <v>225</v>
+      </c>
+      <c r="EL169" t="n">
+        <v>428</v>
+      </c>
+      <c r="EM169" t="n">
+        <v>652</v>
+      </c>
+      <c r="EN169" t="n">
+        <v>3616</v>
+      </c>
+      <c r="EO169" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP169" t="n">
+        <v>144</v>
+      </c>
+      <c r="EQ169" t="n">
+        <v>986</v>
+      </c>
+      <c r="ER169" t="n">
+        <v>244</v>
+      </c>
+      <c r="ES169" t="n">
+        <v>4096</v>
+      </c>
+      <c r="ET169" t="n">
+        <v>57</v>
+      </c>
+      <c r="EU169" t="n">
+        <v>626</v>
+      </c>
+      <c r="EV169" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW169" t="n">
+        <v>297</v>
+      </c>
+      <c r="EX169" t="n">
+        <v>89</v>
+      </c>
+      <c r="EY169" t="n">
+        <v>31071</v>
+      </c>
+      <c r="EZ169" t="n">
+        <v>356</v>
+      </c>
+      <c r="FA169" t="n">
+        <v>203</v>
+      </c>
+      <c r="FB169" t="n">
+        <v>203</v>
+      </c>
+      <c r="FC169" t="n">
+        <v>71</v>
+      </c>
+      <c r="FD169" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE169" t="n">
+        <v>829</v>
+      </c>
+      <c r="FF169" t="n">
+        <v>71</v>
+      </c>
+      <c r="FG169" t="n">
+        <v>382</v>
+      </c>
+      <c r="FH169" t="n">
+        <v>75</v>
+      </c>
+      <c r="FI169" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ169" t="n">
+        <v>2533</v>
+      </c>
+      <c r="FK169" t="n">
+        <v>13</v>
+      </c>
+      <c r="FL169" t="n">
+        <v>86</v>
+      </c>
+      <c r="FM169" t="n">
+        <v>151</v>
+      </c>
+      <c r="FN169" t="n">
+        <v>41</v>
+      </c>
+      <c r="FO169" t="n">
+        <v>104</v>
+      </c>
+      <c r="FP169" t="n">
+        <v>594</v>
+      </c>
+      <c r="FQ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR169" t="n">
+        <v>449</v>
+      </c>
+      <c r="FS169" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT169" t="n">
+        <v>62</v>
+      </c>
+      <c r="FU169" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV169" t="n">
+        <v>331</v>
+      </c>
+      <c r="FW169" t="n">
+        <v>368</v>
+      </c>
+      <c r="FX169" t="n">
+        <v>304</v>
+      </c>
+      <c r="FY169" t="n">
+        <v>846</v>
+      </c>
+      <c r="FZ169" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA169" t="n">
+        <v>362</v>
+      </c>
+      <c r="GB169" t="n">
+        <v>3038</v>
+      </c>
+      <c r="GC169" t="n">
+        <v>93</v>
+      </c>
+      <c r="GD169" t="n">
+        <v>363</v>
+      </c>
+      <c r="GE169" t="n">
+        <v>356</v>
+      </c>
+      <c r="GF169" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG169" t="n">
+        <v>92</v>
+      </c>
+      <c r="GH169" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI169" t="n">
+        <v>1058</v>
+      </c>
+      <c r="GJ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK169" t="n">
+        <v>387</v>
+      </c>
+      <c r="GL169" t="n">
+        <v>196</v>
+      </c>
+      <c r="GM169" t="n">
+        <v>434</v>
+      </c>
+      <c r="GN169" t="n">
+        <v>343</v>
+      </c>
+      <c r="GO169" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP169" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ169" t="n">
+        <v>59</v>
+      </c>
+      <c r="GR169" t="n">
+        <v>1186</v>
+      </c>
+      <c r="GS169" t="n">
+        <v>456</v>
+      </c>
+      <c r="GT169" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU169" t="n">
+        <v>317</v>
+      </c>
+      <c r="GV169" t="n">
+        <v>138</v>
+      </c>
+      <c r="GW169" t="n">
+        <v>237</v>
+      </c>
+      <c r="GX169" t="n">
+        <v>46</v>
+      </c>
+      <c r="GY169" t="n">
+        <v>208</v>
+      </c>
+      <c r="GZ169" t="n">
+        <v>48</v>
+      </c>
+      <c r="HA169" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB169" t="n">
+        <v>155</v>
+      </c>
+      <c r="HC169" t="n">
+        <v>240</v>
+      </c>
+      <c r="HD169" t="n">
+        <v>1613</v>
+      </c>
+      <c r="HE169" t="n">
         <v>191</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE169"/>
+  <dimension ref="A1:HE171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -108989,7 +108989,7 @@
         <v>306</v>
       </c>
       <c r="BF169" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BG169" t="n">
         <v>262</v>
@@ -109455,6 +109455,1292 @@
       </c>
       <c r="HE169" t="n">
         <v>191</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>764</v>
+      </c>
+      <c r="C170" t="n">
+        <v>432</v>
+      </c>
+      <c r="D170" t="n">
+        <v>153</v>
+      </c>
+      <c r="E170" t="n">
+        <v>537</v>
+      </c>
+      <c r="F170" t="n">
+        <v>929</v>
+      </c>
+      <c r="G170" t="n">
+        <v>641</v>
+      </c>
+      <c r="H170" t="n">
+        <v>171</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>346</v>
+      </c>
+      <c r="K170" t="n">
+        <v>414</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>147</v>
+      </c>
+      <c r="N170" t="n">
+        <v>64</v>
+      </c>
+      <c r="O170" t="n">
+        <v>125</v>
+      </c>
+      <c r="P170" t="n">
+        <v>1355</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>899</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>171</v>
+      </c>
+      <c r="T170" t="n">
+        <v>302</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1</v>
+      </c>
+      <c r="V170" t="n">
+        <v>92</v>
+      </c>
+      <c r="W170" t="n">
+        <v>96</v>
+      </c>
+      <c r="X170" t="n">
+        <v>916</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>868</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>176</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>565</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>593</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>291</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>860</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>313</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1667</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>379</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>282</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>407</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>139</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1845</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>171</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>143</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>293</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>356</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>157</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>447</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>6244</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>543</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>306</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>262</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>127</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>142</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>712</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>194</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ170" t="n">
+        <v>230</v>
+      </c>
+      <c r="BR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS170" t="n">
+        <v>390</v>
+      </c>
+      <c r="BT170" t="n">
+        <v>405</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>482</v>
+      </c>
+      <c r="BV170" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW170" t="n">
+        <v>165</v>
+      </c>
+      <c r="BX170" t="n">
+        <v>94</v>
+      </c>
+      <c r="BY170" t="n">
+        <v>164</v>
+      </c>
+      <c r="BZ170" t="n">
+        <v>259</v>
+      </c>
+      <c r="CA170" t="n">
+        <v>201</v>
+      </c>
+      <c r="CB170" t="n">
+        <v>1102</v>
+      </c>
+      <c r="CC170" t="n">
+        <v>268</v>
+      </c>
+      <c r="CD170" t="n">
+        <v>1194</v>
+      </c>
+      <c r="CE170" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF170" t="n">
+        <v>592</v>
+      </c>
+      <c r="CG170" t="n">
+        <v>99</v>
+      </c>
+      <c r="CH170" t="n">
+        <v>103</v>
+      </c>
+      <c r="CI170" t="n">
+        <v>51</v>
+      </c>
+      <c r="CJ170" t="n">
+        <v>729</v>
+      </c>
+      <c r="CK170" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL170" t="n">
+        <v>65</v>
+      </c>
+      <c r="CM170" t="n">
+        <v>353</v>
+      </c>
+      <c r="CN170" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO170" t="n">
+        <v>18</v>
+      </c>
+      <c r="CP170" t="n">
+        <v>811</v>
+      </c>
+      <c r="CQ170" t="n">
+        <v>366</v>
+      </c>
+      <c r="CR170" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS170" t="n">
+        <v>188</v>
+      </c>
+      <c r="CT170" t="n">
+        <v>690</v>
+      </c>
+      <c r="CU170" t="n">
+        <v>120</v>
+      </c>
+      <c r="CV170" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW170" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX170" t="n">
+        <v>7453</v>
+      </c>
+      <c r="CY170" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ170" t="n">
+        <v>235</v>
+      </c>
+      <c r="DA170" t="n">
+        <v>266</v>
+      </c>
+      <c r="DB170" t="n">
+        <v>89</v>
+      </c>
+      <c r="DC170" t="n">
+        <v>231</v>
+      </c>
+      <c r="DD170" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE170" t="n">
+        <v>238</v>
+      </c>
+      <c r="DF170" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG170" t="n">
+        <v>199</v>
+      </c>
+      <c r="DH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI170" t="n">
+        <v>252</v>
+      </c>
+      <c r="DJ170" t="n">
+        <v>139</v>
+      </c>
+      <c r="DK170" t="n">
+        <v>124</v>
+      </c>
+      <c r="DL170" t="n">
+        <v>185</v>
+      </c>
+      <c r="DM170" t="n">
+        <v>54</v>
+      </c>
+      <c r="DN170" t="n">
+        <v>313</v>
+      </c>
+      <c r="DO170" t="n">
+        <v>207</v>
+      </c>
+      <c r="DP170" t="n">
+        <v>356</v>
+      </c>
+      <c r="DQ170" t="n">
+        <v>953</v>
+      </c>
+      <c r="DR170" t="n">
+        <v>215</v>
+      </c>
+      <c r="DS170" t="n">
+        <v>136</v>
+      </c>
+      <c r="DT170" t="n">
+        <v>16</v>
+      </c>
+      <c r="DU170" t="n">
+        <v>255</v>
+      </c>
+      <c r="DV170" t="n">
+        <v>56</v>
+      </c>
+      <c r="DW170" t="n">
+        <v>99</v>
+      </c>
+      <c r="DX170" t="n">
+        <v>371</v>
+      </c>
+      <c r="DY170" t="n">
+        <v>213</v>
+      </c>
+      <c r="DZ170" t="n">
+        <v>5573</v>
+      </c>
+      <c r="EA170" t="n">
+        <v>241</v>
+      </c>
+      <c r="EB170" t="n">
+        <v>36</v>
+      </c>
+      <c r="EC170" t="n">
+        <v>405</v>
+      </c>
+      <c r="ED170" t="n">
+        <v>219</v>
+      </c>
+      <c r="EE170" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF170" t="n">
+        <v>1299</v>
+      </c>
+      <c r="EG170" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH170" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI170" t="n">
+        <v>48</v>
+      </c>
+      <c r="EJ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK170" t="n">
+        <v>226</v>
+      </c>
+      <c r="EL170" t="n">
+        <v>430</v>
+      </c>
+      <c r="EM170" t="n">
+        <v>656</v>
+      </c>
+      <c r="EN170" t="n">
+        <v>3634</v>
+      </c>
+      <c r="EO170" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP170" t="n">
+        <v>148</v>
+      </c>
+      <c r="EQ170" t="n">
+        <v>995</v>
+      </c>
+      <c r="ER170" t="n">
+        <v>248</v>
+      </c>
+      <c r="ES170" t="n">
+        <v>4114</v>
+      </c>
+      <c r="ET170" t="n">
+        <v>57</v>
+      </c>
+      <c r="EU170" t="n">
+        <v>626</v>
+      </c>
+      <c r="EV170" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW170" t="n">
+        <v>303</v>
+      </c>
+      <c r="EX170" t="n">
+        <v>89</v>
+      </c>
+      <c r="EY170" t="n">
+        <v>31222</v>
+      </c>
+      <c r="EZ170" t="n">
+        <v>357</v>
+      </c>
+      <c r="FA170" t="n">
+        <v>206</v>
+      </c>
+      <c r="FB170" t="n">
+        <v>204</v>
+      </c>
+      <c r="FC170" t="n">
+        <v>73</v>
+      </c>
+      <c r="FD170" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE170" t="n">
+        <v>848</v>
+      </c>
+      <c r="FF170" t="n">
+        <v>71</v>
+      </c>
+      <c r="FG170" t="n">
+        <v>388</v>
+      </c>
+      <c r="FH170" t="n">
+        <v>76</v>
+      </c>
+      <c r="FI170" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ170" t="n">
+        <v>2551</v>
+      </c>
+      <c r="FK170" t="n">
+        <v>16</v>
+      </c>
+      <c r="FL170" t="n">
+        <v>94</v>
+      </c>
+      <c r="FM170" t="n">
+        <v>151</v>
+      </c>
+      <c r="FN170" t="n">
+        <v>42</v>
+      </c>
+      <c r="FO170" t="n">
+        <v>105</v>
+      </c>
+      <c r="FP170" t="n">
+        <v>599</v>
+      </c>
+      <c r="FQ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR170" t="n">
+        <v>452</v>
+      </c>
+      <c r="FS170" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT170" t="n">
+        <v>64</v>
+      </c>
+      <c r="FU170" t="n">
+        <v>277</v>
+      </c>
+      <c r="FV170" t="n">
+        <v>332</v>
+      </c>
+      <c r="FW170" t="n">
+        <v>382</v>
+      </c>
+      <c r="FX170" t="n">
+        <v>306</v>
+      </c>
+      <c r="FY170" t="n">
+        <v>849</v>
+      </c>
+      <c r="FZ170" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA170" t="n">
+        <v>373</v>
+      </c>
+      <c r="GB170" t="n">
+        <v>3090</v>
+      </c>
+      <c r="GC170" t="n">
+        <v>95</v>
+      </c>
+      <c r="GD170" t="n">
+        <v>365</v>
+      </c>
+      <c r="GE170" t="n">
+        <v>357</v>
+      </c>
+      <c r="GF170" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG170" t="n">
+        <v>93</v>
+      </c>
+      <c r="GH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI170" t="n">
+        <v>1070</v>
+      </c>
+      <c r="GJ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK170" t="n">
+        <v>390</v>
+      </c>
+      <c r="GL170" t="n">
+        <v>197</v>
+      </c>
+      <c r="GM170" t="n">
+        <v>434</v>
+      </c>
+      <c r="GN170" t="n">
+        <v>343</v>
+      </c>
+      <c r="GO170" t="n">
+        <v>61</v>
+      </c>
+      <c r="GP170" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ170" t="n">
+        <v>61</v>
+      </c>
+      <c r="GR170" t="n">
+        <v>1221</v>
+      </c>
+      <c r="GS170" t="n">
+        <v>458</v>
+      </c>
+      <c r="GT170" t="n">
+        <v>45</v>
+      </c>
+      <c r="GU170" t="n">
+        <v>324</v>
+      </c>
+      <c r="GV170" t="n">
+        <v>139</v>
+      </c>
+      <c r="GW170" t="n">
+        <v>239</v>
+      </c>
+      <c r="GX170" t="n">
+        <v>46</v>
+      </c>
+      <c r="GY170" t="n">
+        <v>213</v>
+      </c>
+      <c r="GZ170" t="n">
+        <v>49</v>
+      </c>
+      <c r="HA170" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB170" t="n">
+        <v>158</v>
+      </c>
+      <c r="HC170" t="n">
+        <v>242</v>
+      </c>
+      <c r="HD170" t="n">
+        <v>1615</v>
+      </c>
+      <c r="HE170" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>769</v>
+      </c>
+      <c r="C171" t="n">
+        <v>446</v>
+      </c>
+      <c r="D171" t="n">
+        <v>154</v>
+      </c>
+      <c r="E171" t="n">
+        <v>538</v>
+      </c>
+      <c r="F171" t="n">
+        <v>947</v>
+      </c>
+      <c r="G171" t="n">
+        <v>641</v>
+      </c>
+      <c r="H171" t="n">
+        <v>174</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>346</v>
+      </c>
+      <c r="K171" t="n">
+        <v>414</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>147</v>
+      </c>
+      <c r="N171" t="n">
+        <v>64</v>
+      </c>
+      <c r="O171" t="n">
+        <v>133</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1388</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>908</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>171</v>
+      </c>
+      <c r="T171" t="n">
+        <v>306</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1</v>
+      </c>
+      <c r="V171" t="n">
+        <v>92</v>
+      </c>
+      <c r="W171" t="n">
+        <v>96</v>
+      </c>
+      <c r="X171" t="n">
+        <v>942</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>874</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>177</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>573</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>594</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>292</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>864</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>319</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>380</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>282</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>416</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>139</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1856</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>173</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>143</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>365</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>157</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>448</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>6314</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>546</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>316</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>184</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>262</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>128</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>142</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>713</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>194</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ171" t="n">
+        <v>233</v>
+      </c>
+      <c r="BR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS171" t="n">
+        <v>391</v>
+      </c>
+      <c r="BT171" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>487</v>
+      </c>
+      <c r="BV171" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW171" t="n">
+        <v>165</v>
+      </c>
+      <c r="BX171" t="n">
+        <v>94</v>
+      </c>
+      <c r="BY171" t="n">
+        <v>166</v>
+      </c>
+      <c r="BZ171" t="n">
+        <v>259</v>
+      </c>
+      <c r="CA171" t="n">
+        <v>202</v>
+      </c>
+      <c r="CB171" t="n">
+        <v>1132</v>
+      </c>
+      <c r="CC171" t="n">
+        <v>270</v>
+      </c>
+      <c r="CD171" t="n">
+        <v>1200</v>
+      </c>
+      <c r="CE171" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF171" t="n">
+        <v>601</v>
+      </c>
+      <c r="CG171" t="n">
+        <v>110</v>
+      </c>
+      <c r="CH171" t="n">
+        <v>103</v>
+      </c>
+      <c r="CI171" t="n">
+        <v>51</v>
+      </c>
+      <c r="CJ171" t="n">
+        <v>732</v>
+      </c>
+      <c r="CK171" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL171" t="n">
+        <v>67</v>
+      </c>
+      <c r="CM171" t="n">
+        <v>354</v>
+      </c>
+      <c r="CN171" t="n">
+        <v>64</v>
+      </c>
+      <c r="CO171" t="n">
+        <v>18</v>
+      </c>
+      <c r="CP171" t="n">
+        <v>811</v>
+      </c>
+      <c r="CQ171" t="n">
+        <v>373</v>
+      </c>
+      <c r="CR171" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS171" t="n">
+        <v>188</v>
+      </c>
+      <c r="CT171" t="n">
+        <v>692</v>
+      </c>
+      <c r="CU171" t="n">
+        <v>125</v>
+      </c>
+      <c r="CV171" t="n">
+        <v>329</v>
+      </c>
+      <c r="CW171" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX171" t="n">
+        <v>7489</v>
+      </c>
+      <c r="CY171" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ171" t="n">
+        <v>235</v>
+      </c>
+      <c r="DA171" t="n">
+        <v>267</v>
+      </c>
+      <c r="DB171" t="n">
+        <v>94</v>
+      </c>
+      <c r="DC171" t="n">
+        <v>233</v>
+      </c>
+      <c r="DD171" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE171" t="n">
+        <v>239</v>
+      </c>
+      <c r="DF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG171" t="n">
+        <v>201</v>
+      </c>
+      <c r="DH171" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI171" t="n">
+        <v>254</v>
+      </c>
+      <c r="DJ171" t="n">
+        <v>142</v>
+      </c>
+      <c r="DK171" t="n">
+        <v>128</v>
+      </c>
+      <c r="DL171" t="n">
+        <v>185</v>
+      </c>
+      <c r="DM171" t="n">
+        <v>54</v>
+      </c>
+      <c r="DN171" t="n">
+        <v>313</v>
+      </c>
+      <c r="DO171" t="n">
+        <v>209</v>
+      </c>
+      <c r="DP171" t="n">
+        <v>357</v>
+      </c>
+      <c r="DQ171" t="n">
+        <v>961</v>
+      </c>
+      <c r="DR171" t="n">
+        <v>218</v>
+      </c>
+      <c r="DS171" t="n">
+        <v>136</v>
+      </c>
+      <c r="DT171" t="n">
+        <v>19</v>
+      </c>
+      <c r="DU171" t="n">
+        <v>256</v>
+      </c>
+      <c r="DV171" t="n">
+        <v>56</v>
+      </c>
+      <c r="DW171" t="n">
+        <v>99</v>
+      </c>
+      <c r="DX171" t="n">
+        <v>373</v>
+      </c>
+      <c r="DY171" t="n">
+        <v>214</v>
+      </c>
+      <c r="DZ171" t="n">
+        <v>5595</v>
+      </c>
+      <c r="EA171" t="n">
+        <v>241</v>
+      </c>
+      <c r="EB171" t="n">
+        <v>38</v>
+      </c>
+      <c r="EC171" t="n">
+        <v>410</v>
+      </c>
+      <c r="ED171" t="n">
+        <v>221</v>
+      </c>
+      <c r="EE171" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF171" t="n">
+        <v>1302</v>
+      </c>
+      <c r="EG171" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH171" t="n">
+        <v>374</v>
+      </c>
+      <c r="EI171" t="n">
+        <v>48</v>
+      </c>
+      <c r="EJ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK171" t="n">
+        <v>227</v>
+      </c>
+      <c r="EL171" t="n">
+        <v>447</v>
+      </c>
+      <c r="EM171" t="n">
+        <v>661</v>
+      </c>
+      <c r="EN171" t="n">
+        <v>3642</v>
+      </c>
+      <c r="EO171" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP171" t="n">
+        <v>155</v>
+      </c>
+      <c r="EQ171" t="n">
+        <v>1002</v>
+      </c>
+      <c r="ER171" t="n">
+        <v>248</v>
+      </c>
+      <c r="ES171" t="n">
+        <v>4124</v>
+      </c>
+      <c r="ET171" t="n">
+        <v>57</v>
+      </c>
+      <c r="EU171" t="n">
+        <v>633</v>
+      </c>
+      <c r="EV171" t="n">
+        <v>82</v>
+      </c>
+      <c r="EW171" t="n">
+        <v>305</v>
+      </c>
+      <c r="EX171" t="n">
+        <v>90</v>
+      </c>
+      <c r="EY171" t="n">
+        <v>31390</v>
+      </c>
+      <c r="EZ171" t="n">
+        <v>367</v>
+      </c>
+      <c r="FA171" t="n">
+        <v>207</v>
+      </c>
+      <c r="FB171" t="n">
+        <v>205</v>
+      </c>
+      <c r="FC171" t="n">
+        <v>73</v>
+      </c>
+      <c r="FD171" t="n">
+        <v>78</v>
+      </c>
+      <c r="FE171" t="n">
+        <v>905</v>
+      </c>
+      <c r="FF171" t="n">
+        <v>71</v>
+      </c>
+      <c r="FG171" t="n">
+        <v>388</v>
+      </c>
+      <c r="FH171" t="n">
+        <v>76</v>
+      </c>
+      <c r="FI171" t="n">
+        <v>70</v>
+      </c>
+      <c r="FJ171" t="n">
+        <v>2568</v>
+      </c>
+      <c r="FK171" t="n">
+        <v>16</v>
+      </c>
+      <c r="FL171" t="n">
+        <v>96</v>
+      </c>
+      <c r="FM171" t="n">
+        <v>154</v>
+      </c>
+      <c r="FN171" t="n">
+        <v>42</v>
+      </c>
+      <c r="FO171" t="n">
+        <v>105</v>
+      </c>
+      <c r="FP171" t="n">
+        <v>600</v>
+      </c>
+      <c r="FQ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR171" t="n">
+        <v>455</v>
+      </c>
+      <c r="FS171" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT171" t="n">
+        <v>66</v>
+      </c>
+      <c r="FU171" t="n">
+        <v>277</v>
+      </c>
+      <c r="FV171" t="n">
+        <v>333</v>
+      </c>
+      <c r="FW171" t="n">
+        <v>394</v>
+      </c>
+      <c r="FX171" t="n">
+        <v>308</v>
+      </c>
+      <c r="FY171" t="n">
+        <v>854</v>
+      </c>
+      <c r="FZ171" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA171" t="n">
+        <v>376</v>
+      </c>
+      <c r="GB171" t="n">
+        <v>3139</v>
+      </c>
+      <c r="GC171" t="n">
+        <v>95</v>
+      </c>
+      <c r="GD171" t="n">
+        <v>370</v>
+      </c>
+      <c r="GE171" t="n">
+        <v>359</v>
+      </c>
+      <c r="GF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG171" t="n">
+        <v>95</v>
+      </c>
+      <c r="GH171" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI171" t="n">
+        <v>1077</v>
+      </c>
+      <c r="GJ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK171" t="n">
+        <v>392</v>
+      </c>
+      <c r="GL171" t="n">
+        <v>197</v>
+      </c>
+      <c r="GM171" t="n">
+        <v>434</v>
+      </c>
+      <c r="GN171" t="n">
+        <v>344</v>
+      </c>
+      <c r="GO171" t="n">
+        <v>66</v>
+      </c>
+      <c r="GP171" t="n">
+        <v>48</v>
+      </c>
+      <c r="GQ171" t="n">
+        <v>63</v>
+      </c>
+      <c r="GR171" t="n">
+        <v>1224</v>
+      </c>
+      <c r="GS171" t="n">
+        <v>469</v>
+      </c>
+      <c r="GT171" t="n">
+        <v>46</v>
+      </c>
+      <c r="GU171" t="n">
+        <v>332</v>
+      </c>
+      <c r="GV171" t="n">
+        <v>139</v>
+      </c>
+      <c r="GW171" t="n">
+        <v>239</v>
+      </c>
+      <c r="GX171" t="n">
+        <v>49</v>
+      </c>
+      <c r="GY171" t="n">
+        <v>221</v>
+      </c>
+      <c r="GZ171" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA171" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB171" t="n">
+        <v>159</v>
+      </c>
+      <c r="HC171" t="n">
+        <v>247</v>
+      </c>
+      <c r="HD171" t="n">
+        <v>1646</v>
+      </c>
+      <c r="HE171" t="n">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD181"/>
+  <dimension ref="A1:GD182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99020,7 +99020,7 @@
         <v>93</v>
       </c>
       <c r="FI175" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="FJ175" t="n">
         <v>428</v>
@@ -99582,7 +99582,7 @@
         <v>93</v>
       </c>
       <c r="FI176" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="FJ176" t="n">
         <v>436</v>
@@ -100144,7 +100144,7 @@
         <v>95</v>
       </c>
       <c r="FI177" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="FJ177" t="n">
         <v>443</v>
@@ -100706,7 +100706,7 @@
         <v>95</v>
       </c>
       <c r="FI178" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="FJ178" t="n">
         <v>457</v>
@@ -101100,7 +101100,7 @@
         <v>268</v>
       </c>
       <c r="DE179" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="DF179" t="n">
         <v>114</v>
@@ -101268,7 +101268,7 @@
         <v>96</v>
       </c>
       <c r="FI179" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="FJ179" t="n">
         <v>459</v>
@@ -101662,7 +101662,7 @@
         <v>268</v>
       </c>
       <c r="DE180" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="DF180" t="n">
         <v>114</v>
@@ -101830,7 +101830,7 @@
         <v>96</v>
       </c>
       <c r="FI180" t="n">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="FJ180" t="n">
         <v>463</v>
@@ -102224,7 +102224,7 @@
         <v>268</v>
       </c>
       <c r="DE181" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="DF181" t="n">
         <v>114</v>
@@ -102392,7 +102392,7 @@
         <v>96</v>
       </c>
       <c r="FI181" t="n">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="FJ181" t="n">
         <v>463</v>
@@ -102455,6 +102455,568 @@
         <v>1809</v>
       </c>
       <c r="GD181" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>809</v>
+      </c>
+      <c r="C182" t="n">
+        <v>522</v>
+      </c>
+      <c r="D182" t="n">
+        <v>177</v>
+      </c>
+      <c r="E182" t="n">
+        <v>555</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G182" t="n">
+        <v>699</v>
+      </c>
+      <c r="H182" t="n">
+        <v>189</v>
+      </c>
+      <c r="I182" t="n">
+        <v>361</v>
+      </c>
+      <c r="J182" t="n">
+        <v>461</v>
+      </c>
+      <c r="K182" t="n">
+        <v>161</v>
+      </c>
+      <c r="L182" t="n">
+        <v>69</v>
+      </c>
+      <c r="M182" t="n">
+        <v>147</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1655</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1312</v>
+      </c>
+      <c r="P182" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>322</v>
+      </c>
+      <c r="R182" t="n">
+        <v>94</v>
+      </c>
+      <c r="S182" t="n">
+        <v>111</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1051</v>
+      </c>
+      <c r="U182" t="n">
+        <v>57</v>
+      </c>
+      <c r="V182" t="n">
+        <v>954</v>
+      </c>
+      <c r="W182" t="n">
+        <v>218</v>
+      </c>
+      <c r="X182" t="n">
+        <v>630</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>655</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>318</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>910</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>364</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1766</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>367</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>265</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>463</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>157</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1987</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>187</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>393</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>395</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>178</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>527</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>7221</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>88</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>549</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>555</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>179</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>171</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>486</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>106</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>149</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>164</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>871</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>201</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>233</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>415</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>513</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>494</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>110</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>208</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>114</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>183</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>276</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>216</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1352</v>
+      </c>
+      <c r="BQ182" t="n">
+        <v>266</v>
+      </c>
+      <c r="BR182" t="n">
+        <v>1244</v>
+      </c>
+      <c r="BS182" t="n">
+        <v>55</v>
+      </c>
+      <c r="BT182" t="n">
+        <v>642</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>114</v>
+      </c>
+      <c r="BV182" t="n">
+        <v>97</v>
+      </c>
+      <c r="BW182" t="n">
+        <v>55</v>
+      </c>
+      <c r="BX182" t="n">
+        <v>771</v>
+      </c>
+      <c r="BY182" t="n">
+        <v>87</v>
+      </c>
+      <c r="BZ182" t="n">
+        <v>344</v>
+      </c>
+      <c r="CA182" t="n">
+        <v>81</v>
+      </c>
+      <c r="CB182" t="n">
+        <v>22</v>
+      </c>
+      <c r="CC182" t="n">
+        <v>820</v>
+      </c>
+      <c r="CD182" t="n">
+        <v>373</v>
+      </c>
+      <c r="CE182" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF182" t="n">
+        <v>228</v>
+      </c>
+      <c r="CG182" t="n">
+        <v>681</v>
+      </c>
+      <c r="CH182" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI182" t="n">
+        <v>346</v>
+      </c>
+      <c r="CJ182" t="n">
+        <v>137</v>
+      </c>
+      <c r="CK182" t="n">
+        <v>8166</v>
+      </c>
+      <c r="CL182" t="n">
+        <v>246</v>
+      </c>
+      <c r="CM182" t="n">
+        <v>282</v>
+      </c>
+      <c r="CN182" t="n">
+        <v>119</v>
+      </c>
+      <c r="CO182" t="n">
+        <v>250</v>
+      </c>
+      <c r="CP182" t="n">
+        <v>254</v>
+      </c>
+      <c r="CQ182" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR182" t="n">
+        <v>289</v>
+      </c>
+      <c r="CS182" t="n">
+        <v>149</v>
+      </c>
+      <c r="CT182" t="n">
+        <v>197</v>
+      </c>
+      <c r="CU182" t="n">
+        <v>131</v>
+      </c>
+      <c r="CV182" t="n">
+        <v>51</v>
+      </c>
+      <c r="CW182" t="n">
+        <v>353</v>
+      </c>
+      <c r="CX182" t="n">
+        <v>233</v>
+      </c>
+      <c r="CY182" t="n">
+        <v>387</v>
+      </c>
+      <c r="CZ182" t="n">
+        <v>1039</v>
+      </c>
+      <c r="DA182" t="n">
+        <v>225</v>
+      </c>
+      <c r="DB182" t="n">
+        <v>150</v>
+      </c>
+      <c r="DC182" t="n">
+        <v>45</v>
+      </c>
+      <c r="DD182" t="n">
+        <v>268</v>
+      </c>
+      <c r="DE182" t="n">
+        <v>121</v>
+      </c>
+      <c r="DF182" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG182" t="n">
+        <v>391</v>
+      </c>
+      <c r="DH182" t="n">
+        <v>229</v>
+      </c>
+      <c r="DI182" t="n">
+        <v>5455</v>
+      </c>
+      <c r="DJ182" t="n">
+        <v>282</v>
+      </c>
+      <c r="DK182" t="n">
+        <v>41</v>
+      </c>
+      <c r="DL182" t="n">
+        <v>418</v>
+      </c>
+      <c r="DM182" t="n">
+        <v>1283</v>
+      </c>
+      <c r="DN182" t="n">
+        <v>18</v>
+      </c>
+      <c r="DO182" t="n">
+        <v>395</v>
+      </c>
+      <c r="DP182" t="n">
+        <v>49</v>
+      </c>
+      <c r="DQ182" t="n">
+        <v>220</v>
+      </c>
+      <c r="DR182" t="n">
+        <v>486</v>
+      </c>
+      <c r="DS182" t="n">
+        <v>682</v>
+      </c>
+      <c r="DT182" t="n">
+        <v>3911</v>
+      </c>
+      <c r="DU182" t="n">
+        <v>225</v>
+      </c>
+      <c r="DV182" t="n">
+        <v>1053</v>
+      </c>
+      <c r="DW182" t="n">
+        <v>278</v>
+      </c>
+      <c r="DX182" t="n">
+        <v>4630</v>
+      </c>
+      <c r="DY182" t="n">
+        <v>64</v>
+      </c>
+      <c r="DZ182" t="n">
+        <v>665</v>
+      </c>
+      <c r="EA182" t="n">
+        <v>78</v>
+      </c>
+      <c r="EB182" t="n">
+        <v>331</v>
+      </c>
+      <c r="EC182" t="n">
+        <v>101</v>
+      </c>
+      <c r="ED182" t="n">
+        <v>31660</v>
+      </c>
+      <c r="EE182" t="n">
+        <v>435</v>
+      </c>
+      <c r="EF182" t="n">
+        <v>201</v>
+      </c>
+      <c r="EG182" t="n">
+        <v>204</v>
+      </c>
+      <c r="EH182" t="n">
+        <v>93</v>
+      </c>
+      <c r="EI182" t="n">
+        <v>90</v>
+      </c>
+      <c r="EJ182" t="n">
+        <v>1332</v>
+      </c>
+      <c r="EK182" t="n">
+        <v>76</v>
+      </c>
+      <c r="EL182" t="n">
+        <v>412</v>
+      </c>
+      <c r="EM182" t="n">
+        <v>73</v>
+      </c>
+      <c r="EN182" t="n">
+        <v>98</v>
+      </c>
+      <c r="EO182" t="n">
+        <v>2897</v>
+      </c>
+      <c r="EP182" t="n">
+        <v>18</v>
+      </c>
+      <c r="EQ182" t="n">
+        <v>103</v>
+      </c>
+      <c r="ER182" t="n">
+        <v>202</v>
+      </c>
+      <c r="ES182" t="n">
+        <v>74</v>
+      </c>
+      <c r="ET182" t="n">
+        <v>134</v>
+      </c>
+      <c r="EU182" t="n">
+        <v>636</v>
+      </c>
+      <c r="EV182" t="n">
+        <v>473</v>
+      </c>
+      <c r="EW182" t="n">
+        <v>111</v>
+      </c>
+      <c r="EX182" t="n">
+        <v>293</v>
+      </c>
+      <c r="EY182" t="n">
+        <v>345</v>
+      </c>
+      <c r="EZ182" t="n">
+        <v>522</v>
+      </c>
+      <c r="FA182" t="n">
+        <v>387</v>
+      </c>
+      <c r="FB182" t="n">
+        <v>928</v>
+      </c>
+      <c r="FC182" t="n">
+        <v>410</v>
+      </c>
+      <c r="FD182" t="n">
+        <v>3828</v>
+      </c>
+      <c r="FE182" t="n">
+        <v>98</v>
+      </c>
+      <c r="FF182" t="n">
+        <v>435</v>
+      </c>
+      <c r="FG182" t="n">
+        <v>390</v>
+      </c>
+      <c r="FH182" t="n">
+        <v>97</v>
+      </c>
+      <c r="FI182" t="n">
+        <v>1129</v>
+      </c>
+      <c r="FJ182" t="n">
+        <v>466</v>
+      </c>
+      <c r="FK182" t="n">
+        <v>204</v>
+      </c>
+      <c r="FL182" t="n">
+        <v>459</v>
+      </c>
+      <c r="FM182" t="n">
+        <v>363</v>
+      </c>
+      <c r="FN182" t="n">
+        <v>78</v>
+      </c>
+      <c r="FO182" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP182" t="n">
+        <v>73</v>
+      </c>
+      <c r="FQ182" t="n">
+        <v>1310</v>
+      </c>
+      <c r="FR182" t="n">
+        <v>500</v>
+      </c>
+      <c r="FS182" t="n">
+        <v>46</v>
+      </c>
+      <c r="FT182" t="n">
+        <v>398</v>
+      </c>
+      <c r="FU182" t="n">
+        <v>280</v>
+      </c>
+      <c r="FV182" t="n">
+        <v>315</v>
+      </c>
+      <c r="FW182" t="n">
+        <v>54</v>
+      </c>
+      <c r="FX182" t="n">
+        <v>259</v>
+      </c>
+      <c r="FY182" t="n">
+        <v>53</v>
+      </c>
+      <c r="FZ182" t="n">
+        <v>49</v>
+      </c>
+      <c r="GA182" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB182" t="n">
+        <v>249</v>
+      </c>
+      <c r="GC182" t="n">
+        <v>1809</v>
+      </c>
+      <c r="GD182" t="n">
         <v>235</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD184"/>
+  <dimension ref="A1:GD186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99775,7 +99775,7 @@
         <v>342</v>
       </c>
       <c r="AP177" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AQ177" t="n">
         <v>176</v>
@@ -100337,7 +100337,7 @@
         <v>342</v>
       </c>
       <c r="AP178" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AQ178" t="n">
         <v>177</v>
@@ -100797,7 +100797,7 @@
         <v>697</v>
       </c>
       <c r="H179" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I179" t="n">
         <v>361</v>
@@ -100899,7 +100899,7 @@
         <v>366</v>
       </c>
       <c r="AP179" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AQ179" t="n">
         <v>177</v>
@@ -101359,7 +101359,7 @@
         <v>697</v>
       </c>
       <c r="H180" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I180" t="n">
         <v>361</v>
@@ -101461,7 +101461,7 @@
         <v>366</v>
       </c>
       <c r="AP180" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AQ180" t="n">
         <v>177</v>
@@ -101921,7 +101921,7 @@
         <v>699</v>
       </c>
       <c r="H181" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I181" t="n">
         <v>361</v>
@@ -102023,7 +102023,7 @@
         <v>393</v>
       </c>
       <c r="AP181" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AQ181" t="n">
         <v>177</v>
@@ -102483,7 +102483,7 @@
         <v>699</v>
       </c>
       <c r="H182" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I182" t="n">
         <v>361</v>
@@ -102585,7 +102585,7 @@
         <v>393</v>
       </c>
       <c r="AP182" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AQ182" t="n">
         <v>178</v>
@@ -103045,7 +103045,7 @@
         <v>699</v>
       </c>
       <c r="H183" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I183" t="n">
         <v>361</v>
@@ -103147,7 +103147,7 @@
         <v>393</v>
       </c>
       <c r="AP183" t="n">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AQ183" t="n">
         <v>181</v>
@@ -103306,7 +103306,7 @@
         <v>254</v>
       </c>
       <c r="CQ183" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CR183" t="n">
         <v>293</v>
@@ -103607,7 +103607,7 @@
         <v>701</v>
       </c>
       <c r="H184" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I184" t="n">
         <v>361</v>
@@ -103682,7 +103682,7 @@
         <v>1780</v>
       </c>
       <c r="AG184" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH184" t="n">
         <v>266</v>
@@ -103709,7 +103709,7 @@
         <v>393</v>
       </c>
       <c r="AP184" t="n">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AQ184" t="n">
         <v>184</v>
@@ -103790,7 +103790,7 @@
         <v>1390</v>
       </c>
       <c r="BQ184" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BR184" t="n">
         <v>1252</v>
@@ -103868,7 +103868,7 @@
         <v>254</v>
       </c>
       <c r="CQ184" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CR184" t="n">
         <v>293</v>
@@ -103910,7 +103910,7 @@
         <v>269</v>
       </c>
       <c r="DE184" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DF184" t="n">
         <v>114</v>
@@ -104126,7 +104126,7 @@
         <v>263</v>
       </c>
       <c r="FY184" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="FZ184" t="n">
         <v>51</v>
@@ -104142,6 +104142,1130 @@
       </c>
       <c r="GD184" t="n">
         <v>237</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>819</v>
+      </c>
+      <c r="C185" t="n">
+        <v>556</v>
+      </c>
+      <c r="D185" t="n">
+        <v>179</v>
+      </c>
+      <c r="E185" t="n">
+        <v>553</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G185" t="n">
+        <v>714</v>
+      </c>
+      <c r="H185" t="n">
+        <v>187</v>
+      </c>
+      <c r="I185" t="n">
+        <v>361</v>
+      </c>
+      <c r="J185" t="n">
+        <v>472</v>
+      </c>
+      <c r="K185" t="n">
+        <v>162</v>
+      </c>
+      <c r="L185" t="n">
+        <v>68</v>
+      </c>
+      <c r="M185" t="n">
+        <v>150</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1724</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1389</v>
+      </c>
+      <c r="P185" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>323</v>
+      </c>
+      <c r="R185" t="n">
+        <v>93</v>
+      </c>
+      <c r="S185" t="n">
+        <v>117</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1062</v>
+      </c>
+      <c r="U185" t="n">
+        <v>60</v>
+      </c>
+      <c r="V185" t="n">
+        <v>988</v>
+      </c>
+      <c r="W185" t="n">
+        <v>234</v>
+      </c>
+      <c r="X185" t="n">
+        <v>641</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>693</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>321</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>924</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>382</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1780</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>372</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>268</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>474</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>198</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>394</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>392</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>187</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>545</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>7461</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>551</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>576</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>180</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>574</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>106</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>154</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>170</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>883</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>201</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>236</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>420</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>524</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>496</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>112</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>213</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>120</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>188</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>298</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>217</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BQ185" t="n">
+        <v>273</v>
+      </c>
+      <c r="BR185" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BS185" t="n">
+        <v>56</v>
+      </c>
+      <c r="BT185" t="n">
+        <v>652</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>115</v>
+      </c>
+      <c r="BV185" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW185" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX185" t="n">
+        <v>777</v>
+      </c>
+      <c r="BY185" t="n">
+        <v>93</v>
+      </c>
+      <c r="BZ185" t="n">
+        <v>345</v>
+      </c>
+      <c r="CA185" t="n">
+        <v>107</v>
+      </c>
+      <c r="CB185" t="n">
+        <v>27</v>
+      </c>
+      <c r="CC185" t="n">
+        <v>824</v>
+      </c>
+      <c r="CD185" t="n">
+        <v>378</v>
+      </c>
+      <c r="CE185" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF185" t="n">
+        <v>217</v>
+      </c>
+      <c r="CG185" t="n">
+        <v>681</v>
+      </c>
+      <c r="CH185" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI185" t="n">
+        <v>347</v>
+      </c>
+      <c r="CJ185" t="n">
+        <v>138</v>
+      </c>
+      <c r="CK185" t="n">
+        <v>8297</v>
+      </c>
+      <c r="CL185" t="n">
+        <v>247</v>
+      </c>
+      <c r="CM185" t="n">
+        <v>283</v>
+      </c>
+      <c r="CN185" t="n">
+        <v>136</v>
+      </c>
+      <c r="CO185" t="n">
+        <v>253</v>
+      </c>
+      <c r="CP185" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ185" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR185" t="n">
+        <v>295</v>
+      </c>
+      <c r="CS185" t="n">
+        <v>150</v>
+      </c>
+      <c r="CT185" t="n">
+        <v>200</v>
+      </c>
+      <c r="CU185" t="n">
+        <v>131</v>
+      </c>
+      <c r="CV185" t="n">
+        <v>53</v>
+      </c>
+      <c r="CW185" t="n">
+        <v>353</v>
+      </c>
+      <c r="CX185" t="n">
+        <v>240</v>
+      </c>
+      <c r="CY185" t="n">
+        <v>392</v>
+      </c>
+      <c r="CZ185" t="n">
+        <v>1051</v>
+      </c>
+      <c r="DA185" t="n">
+        <v>228</v>
+      </c>
+      <c r="DB185" t="n">
+        <v>151</v>
+      </c>
+      <c r="DC185" t="n">
+        <v>55</v>
+      </c>
+      <c r="DD185" t="n">
+        <v>269</v>
+      </c>
+      <c r="DE185" t="n">
+        <v>124</v>
+      </c>
+      <c r="DF185" t="n">
+        <v>115</v>
+      </c>
+      <c r="DG185" t="n">
+        <v>395</v>
+      </c>
+      <c r="DH185" t="n">
+        <v>234</v>
+      </c>
+      <c r="DI185" t="n">
+        <v>5602</v>
+      </c>
+      <c r="DJ185" t="n">
+        <v>282</v>
+      </c>
+      <c r="DK185" t="n">
+        <v>43</v>
+      </c>
+      <c r="DL185" t="n">
+        <v>430</v>
+      </c>
+      <c r="DM185" t="n">
+        <v>1287</v>
+      </c>
+      <c r="DN185" t="n">
+        <v>22</v>
+      </c>
+      <c r="DO185" t="n">
+        <v>396</v>
+      </c>
+      <c r="DP185" t="n">
+        <v>50</v>
+      </c>
+      <c r="DQ185" t="n">
+        <v>226</v>
+      </c>
+      <c r="DR185" t="n">
+        <v>517</v>
+      </c>
+      <c r="DS185" t="n">
+        <v>694</v>
+      </c>
+      <c r="DT185" t="n">
+        <v>3948</v>
+      </c>
+      <c r="DU185" t="n">
+        <v>248</v>
+      </c>
+      <c r="DV185" t="n">
+        <v>1060</v>
+      </c>
+      <c r="DW185" t="n">
+        <v>309</v>
+      </c>
+      <c r="DX185" t="n">
+        <v>4742</v>
+      </c>
+      <c r="DY185" t="n">
+        <v>68</v>
+      </c>
+      <c r="DZ185" t="n">
+        <v>672</v>
+      </c>
+      <c r="EA185" t="n">
+        <v>80</v>
+      </c>
+      <c r="EB185" t="n">
+        <v>342</v>
+      </c>
+      <c r="EC185" t="n">
+        <v>102</v>
+      </c>
+      <c r="ED185" t="n">
+        <v>32233</v>
+      </c>
+      <c r="EE185" t="n">
+        <v>443</v>
+      </c>
+      <c r="EF185" t="n">
+        <v>204</v>
+      </c>
+      <c r="EG185" t="n">
+        <v>218</v>
+      </c>
+      <c r="EH185" t="n">
+        <v>96</v>
+      </c>
+      <c r="EI185" t="n">
+        <v>90</v>
+      </c>
+      <c r="EJ185" t="n">
+        <v>1401</v>
+      </c>
+      <c r="EK185" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL185" t="n">
+        <v>412</v>
+      </c>
+      <c r="EM185" t="n">
+        <v>72</v>
+      </c>
+      <c r="EN185" t="n">
+        <v>98</v>
+      </c>
+      <c r="EO185" t="n">
+        <v>2920</v>
+      </c>
+      <c r="EP185" t="n">
+        <v>22</v>
+      </c>
+      <c r="EQ185" t="n">
+        <v>108</v>
+      </c>
+      <c r="ER185" t="n">
+        <v>243</v>
+      </c>
+      <c r="ES185" t="n">
+        <v>82</v>
+      </c>
+      <c r="ET185" t="n">
+        <v>137</v>
+      </c>
+      <c r="EU185" t="n">
+        <v>655</v>
+      </c>
+      <c r="EV185" t="n">
+        <v>483</v>
+      </c>
+      <c r="EW185" t="n">
+        <v>122</v>
+      </c>
+      <c r="EX185" t="n">
+        <v>301</v>
+      </c>
+      <c r="EY185" t="n">
+        <v>349</v>
+      </c>
+      <c r="EZ185" t="n">
+        <v>570</v>
+      </c>
+      <c r="FA185" t="n">
+        <v>414</v>
+      </c>
+      <c r="FB185" t="n">
+        <v>939</v>
+      </c>
+      <c r="FC185" t="n">
+        <v>428</v>
+      </c>
+      <c r="FD185" t="n">
+        <v>3983</v>
+      </c>
+      <c r="FE185" t="n">
+        <v>107</v>
+      </c>
+      <c r="FF185" t="n">
+        <v>438</v>
+      </c>
+      <c r="FG185" t="n">
+        <v>390</v>
+      </c>
+      <c r="FH185" t="n">
+        <v>96</v>
+      </c>
+      <c r="FI185" t="n">
+        <v>1134</v>
+      </c>
+      <c r="FJ185" t="n">
+        <v>494</v>
+      </c>
+      <c r="FK185" t="n">
+        <v>205</v>
+      </c>
+      <c r="FL185" t="n">
+        <v>461</v>
+      </c>
+      <c r="FM185" t="n">
+        <v>364</v>
+      </c>
+      <c r="FN185" t="n">
+        <v>82</v>
+      </c>
+      <c r="FO185" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP185" t="n">
+        <v>75</v>
+      </c>
+      <c r="FQ185" t="n">
+        <v>1356</v>
+      </c>
+      <c r="FR185" t="n">
+        <v>513</v>
+      </c>
+      <c r="FS185" t="n">
+        <v>48</v>
+      </c>
+      <c r="FT185" t="n">
+        <v>427</v>
+      </c>
+      <c r="FU185" t="n">
+        <v>287</v>
+      </c>
+      <c r="FV185" t="n">
+        <v>343</v>
+      </c>
+      <c r="FW185" t="n">
+        <v>58</v>
+      </c>
+      <c r="FX185" t="n">
+        <v>269</v>
+      </c>
+      <c r="FY185" t="n">
+        <v>63</v>
+      </c>
+      <c r="FZ185" t="n">
+        <v>51</v>
+      </c>
+      <c r="GA185" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB185" t="n">
+        <v>253</v>
+      </c>
+      <c r="GC185" t="n">
+        <v>1855</v>
+      </c>
+      <c r="GD185" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>822</v>
+      </c>
+      <c r="C186" t="n">
+        <v>556</v>
+      </c>
+      <c r="D186" t="n">
+        <v>185</v>
+      </c>
+      <c r="E186" t="n">
+        <v>553</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G186" t="n">
+        <v>715</v>
+      </c>
+      <c r="H186" t="n">
+        <v>189</v>
+      </c>
+      <c r="I186" t="n">
+        <v>361</v>
+      </c>
+      <c r="J186" t="n">
+        <v>473</v>
+      </c>
+      <c r="K186" t="n">
+        <v>162</v>
+      </c>
+      <c r="L186" t="n">
+        <v>68</v>
+      </c>
+      <c r="M186" t="n">
+        <v>150</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1729</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1389</v>
+      </c>
+      <c r="P186" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>323</v>
+      </c>
+      <c r="R186" t="n">
+        <v>94</v>
+      </c>
+      <c r="S186" t="n">
+        <v>117</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1064</v>
+      </c>
+      <c r="U186" t="n">
+        <v>60</v>
+      </c>
+      <c r="V186" t="n">
+        <v>994</v>
+      </c>
+      <c r="W186" t="n">
+        <v>235</v>
+      </c>
+      <c r="X186" t="n">
+        <v>649</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>693</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>321</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>924</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>382</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1785</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>373</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>268</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>199</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>394</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>393</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>187</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>549</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>7536</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>551</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>579</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>180</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>600</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>157</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>170</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>893</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>201</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>237</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>420</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>527</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>496</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>213</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>120</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>192</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>298</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>218</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1404</v>
+      </c>
+      <c r="BQ186" t="n">
+        <v>273</v>
+      </c>
+      <c r="BR186" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BS186" t="n">
+        <v>59</v>
+      </c>
+      <c r="BT186" t="n">
+        <v>662</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>118</v>
+      </c>
+      <c r="BV186" t="n">
+        <v>108</v>
+      </c>
+      <c r="BW186" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX186" t="n">
+        <v>777</v>
+      </c>
+      <c r="BY186" t="n">
+        <v>93</v>
+      </c>
+      <c r="BZ186" t="n">
+        <v>345</v>
+      </c>
+      <c r="CA186" t="n">
+        <v>107</v>
+      </c>
+      <c r="CB186" t="n">
+        <v>27</v>
+      </c>
+      <c r="CC186" t="n">
+        <v>825</v>
+      </c>
+      <c r="CD186" t="n">
+        <v>381</v>
+      </c>
+      <c r="CE186" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF186" t="n">
+        <v>219</v>
+      </c>
+      <c r="CG186" t="n">
+        <v>681</v>
+      </c>
+      <c r="CH186" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI186" t="n">
+        <v>347</v>
+      </c>
+      <c r="CJ186" t="n">
+        <v>138</v>
+      </c>
+      <c r="CK186" t="n">
+        <v>8345</v>
+      </c>
+      <c r="CL186" t="n">
+        <v>247</v>
+      </c>
+      <c r="CM186" t="n">
+        <v>284</v>
+      </c>
+      <c r="CN186" t="n">
+        <v>153</v>
+      </c>
+      <c r="CO186" t="n">
+        <v>255</v>
+      </c>
+      <c r="CP186" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ186" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR186" t="n">
+        <v>295</v>
+      </c>
+      <c r="CS186" t="n">
+        <v>150</v>
+      </c>
+      <c r="CT186" t="n">
+        <v>202</v>
+      </c>
+      <c r="CU186" t="n">
+        <v>132</v>
+      </c>
+      <c r="CV186" t="n">
+        <v>54</v>
+      </c>
+      <c r="CW186" t="n">
+        <v>353</v>
+      </c>
+      <c r="CX186" t="n">
+        <v>244</v>
+      </c>
+      <c r="CY186" t="n">
+        <v>393</v>
+      </c>
+      <c r="CZ186" t="n">
+        <v>1064</v>
+      </c>
+      <c r="DA186" t="n">
+        <v>228</v>
+      </c>
+      <c r="DB186" t="n">
+        <v>152</v>
+      </c>
+      <c r="DC186" t="n">
+        <v>55</v>
+      </c>
+      <c r="DD186" t="n">
+        <v>269</v>
+      </c>
+      <c r="DE186" t="n">
+        <v>124</v>
+      </c>
+      <c r="DF186" t="n">
+        <v>115</v>
+      </c>
+      <c r="DG186" t="n">
+        <v>396</v>
+      </c>
+      <c r="DH186" t="n">
+        <v>234</v>
+      </c>
+      <c r="DI186" t="n">
+        <v>5615</v>
+      </c>
+      <c r="DJ186" t="n">
+        <v>284</v>
+      </c>
+      <c r="DK186" t="n">
+        <v>43</v>
+      </c>
+      <c r="DL186" t="n">
+        <v>432</v>
+      </c>
+      <c r="DM186" t="n">
+        <v>1290</v>
+      </c>
+      <c r="DN186" t="n">
+        <v>22</v>
+      </c>
+      <c r="DO186" t="n">
+        <v>397</v>
+      </c>
+      <c r="DP186" t="n">
+        <v>51</v>
+      </c>
+      <c r="DQ186" t="n">
+        <v>232</v>
+      </c>
+      <c r="DR186" t="n">
+        <v>518</v>
+      </c>
+      <c r="DS186" t="n">
+        <v>700</v>
+      </c>
+      <c r="DT186" t="n">
+        <v>3959</v>
+      </c>
+      <c r="DU186" t="n">
+        <v>252</v>
+      </c>
+      <c r="DV186" t="n">
+        <v>1073</v>
+      </c>
+      <c r="DW186" t="n">
+        <v>317</v>
+      </c>
+      <c r="DX186" t="n">
+        <v>4763</v>
+      </c>
+      <c r="DY186" t="n">
+        <v>70</v>
+      </c>
+      <c r="DZ186" t="n">
+        <v>672</v>
+      </c>
+      <c r="EA186" t="n">
+        <v>81</v>
+      </c>
+      <c r="EB186" t="n">
+        <v>342</v>
+      </c>
+      <c r="EC186" t="n">
+        <v>102</v>
+      </c>
+      <c r="ED186" t="n">
+        <v>32369</v>
+      </c>
+      <c r="EE186" t="n">
+        <v>443</v>
+      </c>
+      <c r="EF186" t="n">
+        <v>204</v>
+      </c>
+      <c r="EG186" t="n">
+        <v>237</v>
+      </c>
+      <c r="EH186" t="n">
+        <v>96</v>
+      </c>
+      <c r="EI186" t="n">
+        <v>91</v>
+      </c>
+      <c r="EJ186" t="n">
+        <v>1404</v>
+      </c>
+      <c r="EK186" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL186" t="n">
+        <v>412</v>
+      </c>
+      <c r="EM186" t="n">
+        <v>73</v>
+      </c>
+      <c r="EN186" t="n">
+        <v>98</v>
+      </c>
+      <c r="EO186" t="n">
+        <v>2926</v>
+      </c>
+      <c r="EP186" t="n">
+        <v>22</v>
+      </c>
+      <c r="EQ186" t="n">
+        <v>110</v>
+      </c>
+      <c r="ER186" t="n">
+        <v>251</v>
+      </c>
+      <c r="ES186" t="n">
+        <v>83</v>
+      </c>
+      <c r="ET186" t="n">
+        <v>137</v>
+      </c>
+      <c r="EU186" t="n">
+        <v>661</v>
+      </c>
+      <c r="EV186" t="n">
+        <v>483</v>
+      </c>
+      <c r="EW186" t="n">
+        <v>128</v>
+      </c>
+      <c r="EX186" t="n">
+        <v>301</v>
+      </c>
+      <c r="EY186" t="n">
+        <v>349</v>
+      </c>
+      <c r="EZ186" t="n">
+        <v>595</v>
+      </c>
+      <c r="FA186" t="n">
+        <v>423</v>
+      </c>
+      <c r="FB186" t="n">
+        <v>943</v>
+      </c>
+      <c r="FC186" t="n">
+        <v>428</v>
+      </c>
+      <c r="FD186" t="n">
+        <v>4039</v>
+      </c>
+      <c r="FE186" t="n">
+        <v>108</v>
+      </c>
+      <c r="FF186" t="n">
+        <v>444</v>
+      </c>
+      <c r="FG186" t="n">
+        <v>390</v>
+      </c>
+      <c r="FH186" t="n">
+        <v>99</v>
+      </c>
+      <c r="FI186" t="n">
+        <v>1134</v>
+      </c>
+      <c r="FJ186" t="n">
+        <v>495</v>
+      </c>
+      <c r="FK186" t="n">
+        <v>205</v>
+      </c>
+      <c r="FL186" t="n">
+        <v>461</v>
+      </c>
+      <c r="FM186" t="n">
+        <v>364</v>
+      </c>
+      <c r="FN186" t="n">
+        <v>82</v>
+      </c>
+      <c r="FO186" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP186" t="n">
+        <v>76</v>
+      </c>
+      <c r="FQ186" t="n">
+        <v>1359</v>
+      </c>
+      <c r="FR186" t="n">
+        <v>518</v>
+      </c>
+      <c r="FS186" t="n">
+        <v>48</v>
+      </c>
+      <c r="FT186" t="n">
+        <v>438</v>
+      </c>
+      <c r="FU186" t="n">
+        <v>289</v>
+      </c>
+      <c r="FV186" t="n">
+        <v>373</v>
+      </c>
+      <c r="FW186" t="n">
+        <v>58</v>
+      </c>
+      <c r="FX186" t="n">
+        <v>273</v>
+      </c>
+      <c r="FY186" t="n">
+        <v>65</v>
+      </c>
+      <c r="FZ186" t="n">
+        <v>52</v>
+      </c>
+      <c r="GA186" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB186" t="n">
+        <v>253</v>
+      </c>
+      <c r="GC186" t="n">
+        <v>1869</v>
+      </c>
+      <c r="GD186" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD186"/>
+  <dimension ref="A1:GD187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102714,7 +102714,7 @@
         <v>210</v>
       </c>
       <c r="CG182" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CH182" t="n">
         <v>135</v>
@@ -103276,7 +103276,7 @@
         <v>210</v>
       </c>
       <c r="CG183" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CH183" t="n">
         <v>135</v>
@@ -103838,7 +103838,7 @@
         <v>215</v>
       </c>
       <c r="CG184" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CH184" t="n">
         <v>135</v>
@@ -104220,7 +104220,7 @@
         <v>641</v>
       </c>
       <c r="Y185" t="n">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Z185" t="n">
         <v>321</v>
@@ -104400,7 +104400,7 @@
         <v>217</v>
       </c>
       <c r="CG185" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CH185" t="n">
         <v>135</v>
@@ -104782,7 +104782,7 @@
         <v>649</v>
       </c>
       <c r="Y186" t="n">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Z186" t="n">
         <v>321</v>
@@ -104962,7 +104962,7 @@
         <v>219</v>
       </c>
       <c r="CG186" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CH186" t="n">
         <v>135</v>
@@ -105265,6 +105265,568 @@
         <v>1869</v>
       </c>
       <c r="GD186" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>822</v>
+      </c>
+      <c r="C187" t="n">
+        <v>557</v>
+      </c>
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="n">
+        <v>554</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G187" t="n">
+        <v>715</v>
+      </c>
+      <c r="H187" t="n">
+        <v>190</v>
+      </c>
+      <c r="I187" t="n">
+        <v>361</v>
+      </c>
+      <c r="J187" t="n">
+        <v>473</v>
+      </c>
+      <c r="K187" t="n">
+        <v>162</v>
+      </c>
+      <c r="L187" t="n">
+        <v>68</v>
+      </c>
+      <c r="M187" t="n">
+        <v>150</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1736</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1389</v>
+      </c>
+      <c r="P187" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>323</v>
+      </c>
+      <c r="R187" t="n">
+        <v>94</v>
+      </c>
+      <c r="S187" t="n">
+        <v>117</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1064</v>
+      </c>
+      <c r="U187" t="n">
+        <v>60</v>
+      </c>
+      <c r="V187" t="n">
+        <v>996</v>
+      </c>
+      <c r="W187" t="n">
+        <v>235</v>
+      </c>
+      <c r="X187" t="n">
+        <v>655</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>689</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>321</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>926</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>382</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>373</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>268</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>58</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>395</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>393</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>187</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>549</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>7544</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>551</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>579</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>600</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>157</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>171</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>893</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>201</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>237</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>420</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>528</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>496</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>213</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>120</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>192</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>299</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>218</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1405</v>
+      </c>
+      <c r="BQ187" t="n">
+        <v>273</v>
+      </c>
+      <c r="BR187" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BS187" t="n">
+        <v>59</v>
+      </c>
+      <c r="BT187" t="n">
+        <v>664</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>118</v>
+      </c>
+      <c r="BV187" t="n">
+        <v>108</v>
+      </c>
+      <c r="BW187" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX187" t="n">
+        <v>778</v>
+      </c>
+      <c r="BY187" t="n">
+        <v>93</v>
+      </c>
+      <c r="BZ187" t="n">
+        <v>345</v>
+      </c>
+      <c r="CA187" t="n">
+        <v>107</v>
+      </c>
+      <c r="CB187" t="n">
+        <v>28</v>
+      </c>
+      <c r="CC187" t="n">
+        <v>826</v>
+      </c>
+      <c r="CD187" t="n">
+        <v>381</v>
+      </c>
+      <c r="CE187" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF187" t="n">
+        <v>219</v>
+      </c>
+      <c r="CG187" t="n">
+        <v>680</v>
+      </c>
+      <c r="CH187" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI187" t="n">
+        <v>347</v>
+      </c>
+      <c r="CJ187" t="n">
+        <v>139</v>
+      </c>
+      <c r="CK187" t="n">
+        <v>8347</v>
+      </c>
+      <c r="CL187" t="n">
+        <v>247</v>
+      </c>
+      <c r="CM187" t="n">
+        <v>287</v>
+      </c>
+      <c r="CN187" t="n">
+        <v>153</v>
+      </c>
+      <c r="CO187" t="n">
+        <v>255</v>
+      </c>
+      <c r="CP187" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ187" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR187" t="n">
+        <v>295</v>
+      </c>
+      <c r="CS187" t="n">
+        <v>150</v>
+      </c>
+      <c r="CT187" t="n">
+        <v>202</v>
+      </c>
+      <c r="CU187" t="n">
+        <v>132</v>
+      </c>
+      <c r="CV187" t="n">
+        <v>54</v>
+      </c>
+      <c r="CW187" t="n">
+        <v>353</v>
+      </c>
+      <c r="CX187" t="n">
+        <v>245</v>
+      </c>
+      <c r="CY187" t="n">
+        <v>395</v>
+      </c>
+      <c r="CZ187" t="n">
+        <v>1064</v>
+      </c>
+      <c r="DA187" t="n">
+        <v>228</v>
+      </c>
+      <c r="DB187" t="n">
+        <v>152</v>
+      </c>
+      <c r="DC187" t="n">
+        <v>55</v>
+      </c>
+      <c r="DD187" t="n">
+        <v>269</v>
+      </c>
+      <c r="DE187" t="n">
+        <v>126</v>
+      </c>
+      <c r="DF187" t="n">
+        <v>115</v>
+      </c>
+      <c r="DG187" t="n">
+        <v>396</v>
+      </c>
+      <c r="DH187" t="n">
+        <v>234</v>
+      </c>
+      <c r="DI187" t="n">
+        <v>5618</v>
+      </c>
+      <c r="DJ187" t="n">
+        <v>287</v>
+      </c>
+      <c r="DK187" t="n">
+        <v>43</v>
+      </c>
+      <c r="DL187" t="n">
+        <v>433</v>
+      </c>
+      <c r="DM187" t="n">
+        <v>1290</v>
+      </c>
+      <c r="DN187" t="n">
+        <v>22</v>
+      </c>
+      <c r="DO187" t="n">
+        <v>397</v>
+      </c>
+      <c r="DP187" t="n">
+        <v>51</v>
+      </c>
+      <c r="DQ187" t="n">
+        <v>232</v>
+      </c>
+      <c r="DR187" t="n">
+        <v>518</v>
+      </c>
+      <c r="DS187" t="n">
+        <v>700</v>
+      </c>
+      <c r="DT187" t="n">
+        <v>3961</v>
+      </c>
+      <c r="DU187" t="n">
+        <v>255</v>
+      </c>
+      <c r="DV187" t="n">
+        <v>1080</v>
+      </c>
+      <c r="DW187" t="n">
+        <v>317</v>
+      </c>
+      <c r="DX187" t="n">
+        <v>4763</v>
+      </c>
+      <c r="DY187" t="n">
+        <v>70</v>
+      </c>
+      <c r="DZ187" t="n">
+        <v>673</v>
+      </c>
+      <c r="EA187" t="n">
+        <v>81</v>
+      </c>
+      <c r="EB187" t="n">
+        <v>342</v>
+      </c>
+      <c r="EC187" t="n">
+        <v>102</v>
+      </c>
+      <c r="ED187" t="n">
+        <v>32509</v>
+      </c>
+      <c r="EE187" t="n">
+        <v>444</v>
+      </c>
+      <c r="EF187" t="n">
+        <v>204</v>
+      </c>
+      <c r="EG187" t="n">
+        <v>237</v>
+      </c>
+      <c r="EH187" t="n">
+        <v>96</v>
+      </c>
+      <c r="EI187" t="n">
+        <v>91</v>
+      </c>
+      <c r="EJ187" t="n">
+        <v>1406</v>
+      </c>
+      <c r="EK187" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL187" t="n">
+        <v>412</v>
+      </c>
+      <c r="EM187" t="n">
+        <v>73</v>
+      </c>
+      <c r="EN187" t="n">
+        <v>98</v>
+      </c>
+      <c r="EO187" t="n">
+        <v>2928</v>
+      </c>
+      <c r="EP187" t="n">
+        <v>22</v>
+      </c>
+      <c r="EQ187" t="n">
+        <v>110</v>
+      </c>
+      <c r="ER187" t="n">
+        <v>251</v>
+      </c>
+      <c r="ES187" t="n">
+        <v>83</v>
+      </c>
+      <c r="ET187" t="n">
+        <v>137</v>
+      </c>
+      <c r="EU187" t="n">
+        <v>662</v>
+      </c>
+      <c r="EV187" t="n">
+        <v>483</v>
+      </c>
+      <c r="EW187" t="n">
+        <v>128</v>
+      </c>
+      <c r="EX187" t="n">
+        <v>302</v>
+      </c>
+      <c r="EY187" t="n">
+        <v>349</v>
+      </c>
+      <c r="EZ187" t="n">
+        <v>597</v>
+      </c>
+      <c r="FA187" t="n">
+        <v>424</v>
+      </c>
+      <c r="FB187" t="n">
+        <v>944</v>
+      </c>
+      <c r="FC187" t="n">
+        <v>428</v>
+      </c>
+      <c r="FD187" t="n">
+        <v>4043</v>
+      </c>
+      <c r="FE187" t="n">
+        <v>108</v>
+      </c>
+      <c r="FF187" t="n">
+        <v>444</v>
+      </c>
+      <c r="FG187" t="n">
+        <v>390</v>
+      </c>
+      <c r="FH187" t="n">
+        <v>99</v>
+      </c>
+      <c r="FI187" t="n">
+        <v>1135</v>
+      </c>
+      <c r="FJ187" t="n">
+        <v>509</v>
+      </c>
+      <c r="FK187" t="n">
+        <v>205</v>
+      </c>
+      <c r="FL187" t="n">
+        <v>461</v>
+      </c>
+      <c r="FM187" t="n">
+        <v>364</v>
+      </c>
+      <c r="FN187" t="n">
+        <v>82</v>
+      </c>
+      <c r="FO187" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP187" t="n">
+        <v>76</v>
+      </c>
+      <c r="FQ187" t="n">
+        <v>1360</v>
+      </c>
+      <c r="FR187" t="n">
+        <v>519</v>
+      </c>
+      <c r="FS187" t="n">
+        <v>48</v>
+      </c>
+      <c r="FT187" t="n">
+        <v>444</v>
+      </c>
+      <c r="FU187" t="n">
+        <v>289</v>
+      </c>
+      <c r="FV187" t="n">
+        <v>373</v>
+      </c>
+      <c r="FW187" t="n">
+        <v>58</v>
+      </c>
+      <c r="FX187" t="n">
+        <v>277</v>
+      </c>
+      <c r="FY187" t="n">
+        <v>65</v>
+      </c>
+      <c r="FZ187" t="n">
+        <v>52</v>
+      </c>
+      <c r="GA187" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB187" t="n">
+        <v>253</v>
+      </c>
+      <c r="GC187" t="n">
+        <v>1876</v>
+      </c>
+      <c r="GD187" t="n">
         <v>240</v>
       </c>
     </row>

--- a/data/cases-recife.xlsx
+++ b/data/cases-recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD187"/>
+  <dimension ref="A1:GD189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99961,7 +99961,7 @@
         <v>379</v>
       </c>
       <c r="CZ177" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="DA177" t="n">
         <v>224</v>
@@ -100523,7 +100523,7 @@
         <v>383</v>
       </c>
       <c r="CZ178" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="DA178" t="n">
         <v>225</v>
@@ -101085,7 +101085,7 @@
         <v>383</v>
       </c>
       <c r="CZ179" t="n">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="DA179" t="n">
         <v>225</v>
@@ -101647,7 +101647,7 @@
         <v>383</v>
       </c>
       <c r="CZ180" t="n">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="DA180" t="n">
         <v>225</v>
@@ -102209,7 +102209,7 @@
         <v>383</v>
       </c>
       <c r="CZ181" t="n">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="DA181" t="n">
         <v>225</v>
@@ -102771,7 +102771,7 @@
         <v>383</v>
       </c>
       <c r="CZ182" t="n">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="DA182" t="n">
         <v>225</v>
@@ -103333,7 +103333,7 @@
         <v>383</v>
       </c>
       <c r="CZ183" t="n">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="DA183" t="n">
         <v>225</v>
@@ -103895,7 +103895,7 @@
         <v>389</v>
       </c>
       <c r="CZ184" t="n">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="DA184" t="n">
         <v>227</v>
@@ -104220,7 +104220,7 @@
         <v>641</v>
       </c>
       <c r="Y185" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="Z185" t="n">
         <v>321</v>
@@ -104310,7 +104310,7 @@
         <v>154</v>
       </c>
       <c r="BC185" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD185" t="n">
         <v>883</v>
@@ -104457,7 +104457,7 @@
         <v>392</v>
       </c>
       <c r="CZ185" t="n">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="DA185" t="n">
         <v>228</v>
@@ -104475,7 +104475,7 @@
         <v>124</v>
       </c>
       <c r="DF185" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DG185" t="n">
         <v>395</v>
@@ -104514,7 +104514,7 @@
         <v>517</v>
       </c>
       <c r="DS185" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="DT185" t="n">
         <v>3948</v>
@@ -104782,7 +104782,7 @@
         <v>649</v>
       </c>
       <c r="Y186" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="Z186" t="n">
         <v>321</v>
@@ -104872,7 +104872,7 @@
         <v>157</v>
       </c>
       <c r="BC186" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD186" t="n">
         <v>893</v>
@@ -104986,7 +104986,7 @@
         <v>153</v>
       </c>
       <c r="CO186" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CP186" t="n">
         <v>255</v>
@@ -105013,13 +105013,13 @@
         <v>353</v>
       </c>
       <c r="CX186" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CY186" t="n">
         <v>393</v>
       </c>
       <c r="CZ186" t="n">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="DA186" t="n">
         <v>228</v>
@@ -105037,7 +105037,7 @@
         <v>124</v>
       </c>
       <c r="DF186" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DG186" t="n">
         <v>396</v>
@@ -105076,7 +105076,7 @@
         <v>518</v>
       </c>
       <c r="DS186" t="n">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="DT186" t="n">
         <v>3959</v>
@@ -105344,7 +105344,7 @@
         <v>655</v>
       </c>
       <c r="Y187" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="Z187" t="n">
         <v>321</v>
@@ -105434,7 +105434,7 @@
         <v>157</v>
       </c>
       <c r="BC187" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BD187" t="n">
         <v>893</v>
@@ -105548,7 +105548,7 @@
         <v>153</v>
       </c>
       <c r="CO187" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CP187" t="n">
         <v>255</v>
@@ -105575,13 +105575,13 @@
         <v>353</v>
       </c>
       <c r="CX187" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="CY187" t="n">
         <v>395</v>
       </c>
       <c r="CZ187" t="n">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="DA187" t="n">
         <v>228</v>
@@ -105596,10 +105596,10 @@
         <v>269</v>
       </c>
       <c r="DE187" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DF187" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DG187" t="n">
         <v>396</v>
@@ -105638,7 +105638,7 @@
         <v>518</v>
       </c>
       <c r="DS187" t="n">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="DT187" t="n">
         <v>3961</v>
@@ -105764,7 +105764,7 @@
         <v>99</v>
       </c>
       <c r="FI187" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="FJ187" t="n">
         <v>509</v>
@@ -105828,6 +105828,1130 @@
       </c>
       <c r="GD187" t="n">
         <v>240</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>822</v>
+      </c>
+      <c r="C188" t="n">
+        <v>558</v>
+      </c>
+      <c r="D188" t="n">
+        <v>185</v>
+      </c>
+      <c r="E188" t="n">
+        <v>554</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G188" t="n">
+        <v>715</v>
+      </c>
+      <c r="H188" t="n">
+        <v>190</v>
+      </c>
+      <c r="I188" t="n">
+        <v>361</v>
+      </c>
+      <c r="J188" t="n">
+        <v>473</v>
+      </c>
+      <c r="K188" t="n">
+        <v>162</v>
+      </c>
+      <c r="L188" t="n">
+        <v>68</v>
+      </c>
+      <c r="M188" t="n">
+        <v>150</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1737</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1389</v>
+      </c>
+      <c r="P188" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>323</v>
+      </c>
+      <c r="R188" t="n">
+        <v>94</v>
+      </c>
+      <c r="S188" t="n">
+        <v>117</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1064</v>
+      </c>
+      <c r="U188" t="n">
+        <v>60</v>
+      </c>
+      <c r="V188" t="n">
+        <v>996</v>
+      </c>
+      <c r="W188" t="n">
+        <v>235</v>
+      </c>
+      <c r="X188" t="n">
+        <v>660</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>681</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>321</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>927</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>382</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>373</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>268</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>481</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>58</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>161</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>395</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>393</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>191</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>550</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>7547</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>551</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>579</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>600</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>157</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>169</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>893</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>201</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>237</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>420</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>529</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>496</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>213</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>122</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>192</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>299</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>218</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1407</v>
+      </c>
+      <c r="BQ188" t="n">
+        <v>274</v>
+      </c>
+      <c r="BR188" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BS188" t="n">
+        <v>59</v>
+      </c>
+      <c r="BT188" t="n">
+        <v>676</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>118</v>
+      </c>
+      <c r="BV188" t="n">
+        <v>108</v>
+      </c>
+      <c r="BW188" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX188" t="n">
+        <v>778</v>
+      </c>
+      <c r="BY188" t="n">
+        <v>94</v>
+      </c>
+      <c r="BZ188" t="n">
+        <v>345</v>
+      </c>
+      <c r="CA188" t="n">
+        <v>107</v>
+      </c>
+      <c r="CB188" t="n">
+        <v>29</v>
+      </c>
+      <c r="CC188" t="n">
+        <v>827</v>
+      </c>
+      <c r="CD188" t="n">
+        <v>381</v>
+      </c>
+      <c r="CE188" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF188" t="n">
+        <v>219</v>
+      </c>
+      <c r="CG188" t="n">
+        <v>680</v>
+      </c>
+      <c r="CH188" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI188" t="n">
+        <v>347</v>
+      </c>
+      <c r="CJ188" t="n">
+        <v>139</v>
+      </c>
+      <c r="CK188" t="n">
+        <v>8350</v>
+      </c>
+      <c r="CL188" t="n">
+        <v>247</v>
+      </c>
+      <c r="CM188" t="n">
+        <v>287</v>
+      </c>
+      <c r="CN188" t="n">
+        <v>153</v>
+      </c>
+      <c r="CO188" t="n">
+        <v>254</v>
+      </c>
+      <c r="CP188" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ188" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR188" t="n">
+        <v>295</v>
+      </c>
+      <c r="CS188" t="n">
+        <v>150</v>
+      </c>
+      <c r="CT188" t="n">
+        <v>202</v>
+      </c>
+      <c r="CU188" t="n">
+        <v>132</v>
+      </c>
+      <c r="CV188" t="n">
+        <v>54</v>
+      </c>
+      <c r="CW188" t="n">
+        <v>353</v>
+      </c>
+      <c r="CX188" t="n">
+        <v>243</v>
+      </c>
+      <c r="CY188" t="n">
+        <v>395</v>
+      </c>
+      <c r="CZ188" t="n">
+        <v>1028</v>
+      </c>
+      <c r="DA188" t="n">
+        <v>228</v>
+      </c>
+      <c r="DB188" t="n">
+        <v>152</v>
+      </c>
+      <c r="DC188" t="n">
+        <v>57</v>
+      </c>
+      <c r="DD188" t="n">
+        <v>269</v>
+      </c>
+      <c r="DE188" t="n">
+        <v>125</v>
+      </c>
+      <c r="DF188" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG188" t="n">
+        <v>397</v>
+      </c>
+      <c r="DH188" t="n">
+        <v>234</v>
+      </c>
+      <c r="DI188" t="n">
+        <v>5621</v>
+      </c>
+      <c r="DJ188" t="n">
+        <v>287</v>
+      </c>
+      <c r="DK188" t="n">
+        <v>43</v>
+      </c>
+      <c r="DL188" t="n">
+        <v>434</v>
+      </c>
+      <c r="DM188" t="n">
+        <v>1290</v>
+      </c>
+      <c r="DN188" t="n">
+        <v>22</v>
+      </c>
+      <c r="DO188" t="n">
+        <v>397</v>
+      </c>
+      <c r="DP188" t="n">
+        <v>51</v>
+      </c>
+      <c r="DQ188" t="n">
+        <v>232</v>
+      </c>
+      <c r="DR188" t="n">
+        <v>518</v>
+      </c>
+      <c r="DS188" t="n">
+        <v>691</v>
+      </c>
+      <c r="DT188" t="n">
+        <v>3963</v>
+      </c>
+      <c r="DU188" t="n">
+        <v>255</v>
+      </c>
+      <c r="DV188" t="n">
+        <v>1080</v>
+      </c>
+      <c r="DW188" t="n">
+        <v>317</v>
+      </c>
+      <c r="DX188" t="n">
+        <v>4764</v>
+      </c>
+      <c r="DY188" t="n">
+        <v>70</v>
+      </c>
+      <c r="DZ188" t="n">
+        <v>673</v>
+      </c>
+      <c r="EA188" t="n">
+        <v>81</v>
+      </c>
+      <c r="EB188" t="n">
+        <v>342</v>
+      </c>
+      <c r="EC188" t="n">
+        <v>102</v>
+      </c>
+      <c r="ED188" t="n">
+        <v>32609</v>
+      </c>
+      <c r="EE188" t="n">
+        <v>444</v>
+      </c>
+      <c r="EF188" t="n">
+        <v>205</v>
+      </c>
+      <c r="EG188" t="n">
+        <v>237</v>
+      </c>
+      <c r="EH188" t="n">
+        <v>96</v>
+      </c>
+      <c r="EI188" t="n">
+        <v>91</v>
+      </c>
+      <c r="EJ188" t="n">
+        <v>1406</v>
+      </c>
+      <c r="EK188" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL188" t="n">
+        <v>412</v>
+      </c>
+      <c r="EM188" t="n">
+        <v>73</v>
+      </c>
+      <c r="EN188" t="n">
+        <v>98</v>
+      </c>
+      <c r="EO188" t="n">
+        <v>2929</v>
+      </c>
+      <c r="EP188" t="n">
+        <v>22</v>
+      </c>
+      <c r="EQ188" t="n">
+        <v>110</v>
+      </c>
+      <c r="ER188" t="n">
+        <v>251</v>
+      </c>
+      <c r="ES188" t="n">
+        <v>83</v>
+      </c>
+      <c r="ET188" t="n">
+        <v>137</v>
+      </c>
+      <c r="EU188" t="n">
+        <v>662</v>
+      </c>
+      <c r="EV188" t="n">
+        <v>483</v>
+      </c>
+      <c r="EW188" t="n">
+        <v>128</v>
+      </c>
+      <c r="EX188" t="n">
+        <v>302</v>
+      </c>
+      <c r="EY188" t="n">
+        <v>350</v>
+      </c>
+      <c r="EZ188" t="n">
+        <v>598</v>
+      </c>
+      <c r="FA188" t="n">
+        <v>424</v>
+      </c>
+      <c r="FB188" t="n">
+        <v>945</v>
+      </c>
+      <c r="FC188" t="n">
+        <v>428</v>
+      </c>
+      <c r="FD188" t="n">
+        <v>4050</v>
+      </c>
+      <c r="FE188" t="n">
+        <v>108</v>
+      </c>
+      <c r="FF188" t="n">
+        <v>445</v>
+      </c>
+      <c r="FG188" t="n">
+        <v>390</v>
+      </c>
+      <c r="FH188" t="n">
+        <v>99</v>
+      </c>
+      <c r="FI188" t="n">
+        <v>1134</v>
+      </c>
+      <c r="FJ188" t="n">
+        <v>509</v>
+      </c>
+      <c r="FK188" t="n">
+        <v>205</v>
+      </c>
+      <c r="FL188" t="n">
+        <v>462</v>
+      </c>
+      <c r="FM188" t="n">
+        <v>364</v>
+      </c>
+      <c r="FN188" t="n">
+        <v>82</v>
+      </c>
+      <c r="FO188" t="n">
+        <v>50</v>
+      </c>
+      <c r="FP188" t="n">
+        <v>76</v>
+      </c>
+      <c r="FQ188" t="n">
+        <v>1360</v>
+      </c>
+      <c r="FR188" t="n">
+        <v>519</v>
+      </c>
+      <c r="FS188" t="n">
+        <v>48</v>
+      </c>
+      <c r="FT188" t="n">
+        <v>445</v>
+      </c>
+      <c r="FU188" t="n">
+        <v>289</v>
+      </c>
+      <c r="FV188" t="n">
+        <v>373</v>
+      </c>
+      <c r="FW188" t="n">
+        <v>58</v>
+      </c>
+      <c r="FX188" t="n">
+        <v>280</v>
+      </c>
+      <c r="FY188" t="n">
+        <v>65</v>
+      </c>
+      <c r="FZ188" t="n">
+        <v>57</v>
+      </c>
+      <c r="GA188" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB188" t="n">
+        <v>253</v>
+      </c>
+      <c r="GC188" t="n">
+        <v>1880</v>
+      </c>
+      <c r="GD188" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>827</v>
+      </c>
+      <c r="C189" t="n">
+        <v>568</v>
+      </c>
+      <c r="D189" t="n">
+        <v>186</v>
+      </c>
+      <c r="E189" t="n">
+        <v>557</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1031</v>
+      </c>
+      <c r="G189" t="n">
+        <v>716</v>
+      </c>
+      <c r="H189" t="n">
+        <v>190</v>
+      </c>
+      <c r="I189" t="n">
+        <v>362</v>
+      </c>
+      <c r="J189" t="n">
+        <v>476</v>
+      </c>
+      <c r="K189" t="n">
+        <v>164</v>
+      </c>
+      <c r="L189" t="n">
+        <v>68</v>
+      </c>
+      <c r="M189" t="n">
+        <v>152</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1773</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1414</v>
+      </c>
+      <c r="P189" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>324</v>
+      </c>
+      <c r="R189" t="n">
+        <v>94</v>
+      </c>
+      <c r="S189" t="n">
+        <v>124</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1080</v>
+      </c>
+      <c r="U189" t="n">
+        <v>60</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1002</v>
+      </c>
+      <c r="W189" t="n">
+        <v>242</v>
+      </c>
+      <c r="X189" t="n">
+        <v>664</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>681</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>321</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>927</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>399</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1792</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>380</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>268</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>484</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>58</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>166</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>203</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>153</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>395</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>394</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>204</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>564</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>7583</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>551</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>599</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>633</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>157</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>169</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>894</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>205</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>239</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>421</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>538</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>497</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>218</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>124</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>193</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>299</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>220</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BQ189" t="n">
+        <v>275</v>
+      </c>
+      <c r="BR189" t="n">
+        <v>1254</v>
+      </c>
+      <c r="BS189" t="n">
+        <v>59</v>
+      </c>
+      <c r="BT189" t="n">
+        <v>679</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>119</v>
+      </c>
+      <c r="BV189" t="n">
+        <v>108</v>
+      </c>
+      <c r="BW189" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX189" t="n">
+        <v>788</v>
+      </c>
+      <c r="BY189" t="n">
+        <v>94</v>
+      </c>
+      <c r="BZ189" t="n">
+        <v>351</v>
+      </c>
+      <c r="CA189" t="n">
+        <v>107</v>
+      </c>
+      <c r="CB189" t="n">
+        <v>32</v>
+      </c>
+      <c r="CC189" t="n">
+        <v>827</v>
+      </c>
+      <c r="CD189" t="n">
+        <v>381</v>
+      </c>
+      <c r="CE189" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF189" t="n">
+        <v>224</v>
+      </c>
+      <c r="CG189" t="n">
+        <v>681</v>
+      </c>
+      <c r="CH189" t="n">
+        <v>135</v>
+      </c>
+      <c r="CI189" t="n">
+        <v>348</v>
+      </c>
+      <c r="CJ189" t="n">
+        <v>139</v>
+      </c>
+      <c r="CK189" t="n">
+        <v>8423</v>
+      </c>
+      <c r="CL189" t="n">
+        <v>247</v>
+      </c>
+      <c r="CM189" t="n">
+        <v>288</v>
+      </c>
+      <c r="CN189" t="n">
+        <v>156</v>
+      </c>
+      <c r="CO189" t="n">
+        <v>254</v>
+      </c>
+      <c r="CP189" t="n">
+        <v>255</v>
+      </c>
+      <c r="CQ189" t="n">
+        <v>208</v>
+      </c>
+      <c r="CR189" t="n">
+        <v>295</v>
+      </c>
+      <c r="CS189" t="n">
+        <v>151</v>
+      </c>
+      <c r="CT189" t="n">
+        <v>205</v>
+      </c>
+      <c r="CU189" t="n">
+        <v>132</v>
+      </c>
+      <c r="CV189" t="n">
+        <v>54</v>
+      </c>
+      <c r="CW189" t="n">
+        <v>354</v>
+      </c>
+      <c r="CX189" t="n">
+        <v>243</v>
+      </c>
+      <c r="CY189" t="n">
+        <v>397</v>
+      </c>
+      <c r="CZ189" t="n">
+        <v>1028</v>
+      </c>
+      <c r="DA189" t="n">
+        <v>228</v>
+      </c>
+      <c r="DB189" t="n">
+        <v>152</v>
+      </c>
+      <c r="DC189" t="n">
+        <v>59</v>
+      </c>
+      <c r="DD189" t="n">
+        <v>269</v>
+      </c>
+      <c r="DE189" t="n">
+        <v>125</v>
+      </c>
+      <c r="DF189" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG189" t="n">
+        <v>401</v>
+      </c>
+      <c r="DH189" t="n">
+        <v>238</v>
+      </c>
+      <c r="DI189" t="n">
+        <v>5729</v>
+      </c>
+      <c r="DJ189" t="n">
+        <v>289</v>
+      </c>
+      <c r="DK189" t="n">
+        <v>43</v>
+      </c>
+      <c r="DL189" t="n">
+        <v>437</v>
+      </c>
+      <c r="DM189" t="n">
+        <v>1295</v>
+      </c>
+      <c r="DN189" t="n">
+        <v>22</v>
+      </c>
+      <c r="DO189" t="n">
+        <v>397</v>
+      </c>
+      <c r="DP189" t="n">
+        <v>52</v>
+      </c>
+      <c r="DQ189" t="n">
+        <v>234</v>
+      </c>
+      <c r="DR189" t="n">
+        <v>522</v>
+      </c>
+      <c r="DS189" t="n">
+        <v>691</v>
+      </c>
+      <c r="DT189" t="n">
+        <v>3990</v>
+      </c>
+      <c r="DU189" t="n">
+        <v>257</v>
+      </c>
+      <c r="DV189" t="n">
+        <v>1104</v>
+      </c>
+      <c r="DW189" t="n">
+        <v>326</v>
+      </c>
+      <c r="DX189" t="n">
+        <v>4775</v>
+      </c>
+      <c r="DY189" t="n">
+        <v>70</v>
+      </c>
+      <c r="DZ189" t="n">
+        <v>684</v>
+      </c>
+      <c r="EA189" t="n">
+        <v>81</v>
+      </c>
+      <c r="EB189" t="n">
+        <v>345</v>
+      </c>
+      <c r="EC189" t="n">
+        <v>104</v>
+      </c>
+      <c r="ED189" t="n">
+        <v>32715</v>
+      </c>
+      <c r="EE189" t="n">
+        <v>447</v>
+      </c>
+      <c r="EF189" t="n">
+        <v>207</v>
+      </c>
+      <c r="EG189" t="n">
+        <v>238</v>
+      </c>
+      <c r="EH189" t="n">
+        <v>97</v>
+      </c>
+      <c r="EI189" t="n">
+        <v>91</v>
+      </c>
+      <c r="EJ189" t="n">
+        <v>1411</v>
+      </c>
+      <c r="EK189" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL189" t="n">
+        <v>414</v>
+      </c>
+      <c r="EM189" t="n">
+        <v>73</v>
+      </c>
+      <c r="EN189" t="n">
+        <v>100</v>
+      </c>
+      <c r="EO189" t="n">
+        <v>2938</v>
+      </c>
+      <c r="EP189" t="n">
+        <v>22</v>
+      </c>
+      <c r="EQ189" t="n">
+        <v>110</v>
+      </c>
+      <c r="ER189" t="n">
+        <v>251</v>
+      </c>
+      <c r="ES189" t="n">
+        <v>88</v>
+      </c>
+      <c r="ET189" t="n">
+        <v>143</v>
+      </c>
+      <c r="EU189" t="n">
+        <v>670</v>
+      </c>
+      <c r="EV189" t="n">
+        <v>484</v>
+      </c>
+      <c r="EW189" t="n">
+        <v>140</v>
+      </c>
+      <c r="EX189" t="n">
+        <v>309</v>
+      </c>
+      <c r="EY189" t="n">
+        <v>355</v>
+      </c>
+      <c r="EZ189" t="n">
+        <v>629</v>
+      </c>
+      <c r="FA189" t="n">
+        <v>447</v>
+      </c>
+      <c r="FB189" t="n">
+        <v>951</v>
+      </c>
+      <c r="FC189" t="n">
+        <v>428</v>
+      </c>
+      <c r="FD189" t="n">
+        <v>4119</v>
+      </c>
+      <c r="FE189" t="n">
+        <v>109</v>
+      </c>
+      <c r="FF189" t="n">
+        <v>445</v>
+      </c>
+      <c r="FG189" t="n">
+        <v>391</v>
+      </c>
+      <c r="FH189" t="n">
+        <v>99</v>
+      </c>
+      <c r="FI189" t="n">
+        <v>1134</v>
+      </c>
+      <c r="FJ189" t="n">
+        <v>510</v>
+      </c>
+      <c r="FK189" t="n">
+        <v>205</v>
+      </c>
+      <c r="FL189" t="n">
+        <v>463</v>
+      </c>
+      <c r="FM189" t="n">
+        <v>364</v>
+      </c>
+      <c r="FN189" t="n">
+        <v>83</v>
+      </c>
+      <c r="FO189" t="n">
+        <v>51</v>
+      </c>
+      <c r="FP189" t="n">
+        <v>76</v>
+      </c>
+      <c r="FQ189" t="n">
+        <v>1360</v>
+      </c>
+      <c r="FR189" t="n">
+        <v>534</v>
+      </c>
+      <c r="FS189" t="n">
+        <v>48</v>
+      </c>
+      <c r="FT189" t="n">
+        <v>450</v>
+      </c>
+      <c r="FU189" t="n">
+        <v>290</v>
+      </c>
+      <c r="FV189" t="n">
+        <v>373</v>
+      </c>
+      <c r="FW189" t="n">
+        <v>61</v>
+      </c>
+      <c r="FX189" t="n">
+        <v>288</v>
+      </c>
+      <c r="FY189" t="n">
+        <v>66</v>
+      </c>
+      <c r="FZ189" t="n">
+        <v>57</v>
+      </c>
+      <c r="GA189" t="n">
+        <v>166</v>
+      </c>
+      <c r="GB189" t="n">
+        <v>253</v>
+      </c>
+      <c r="GC189" t="n">
+        <v>1882</v>
+      </c>
+      <c r="GD189" t="n">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
